--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7075" uniqueCount="2480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7079" uniqueCount="2480">
   <si>
     <t>服务器</t>
   </si>
@@ -7982,13 +7982,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -7997,37 +7996,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8050,7 +8019,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8078,22 +8086,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -8107,6 +8099,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8155,37 +8155,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8203,13 +8185,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8221,13 +8227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8239,43 +8251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8287,19 +8269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8311,7 +8281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8324,6 +8294,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8428,26 +8428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8463,6 +8443,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8474,15 +8472,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8525,6 +8514,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8533,10 +8533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8545,16 +8545,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8563,112 +8563,112 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -21455,8 +21455,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L666" sqref="L666"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H659" sqref="H659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -23644,7 +23644,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" hidden="1" spans="1:11">
       <c r="A75" s="2">
         <v>154</v>
       </c>
@@ -34033,7 +34033,9 @@
       <c r="I421" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="J421" s="2"/>
+      <c r="J421" s="2" t="s">
+        <v>1241</v>
+      </c>
       <c r="K421" s="17" t="s">
         <v>1644</v>
       </c>
@@ -34166,8 +34168,10 @@
       <c r="I426" s="3" t="s">
         <v>1643</v>
       </c>
-      <c r="J426" s="2"/>
-      <c r="K426" s="17" t="s">
+      <c r="J426" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K426" s="27" t="s">
         <v>1650</v>
       </c>
     </row>
@@ -34195,7 +34199,9 @@
       <c r="I427" s="3" t="s">
         <v>1643</v>
       </c>
-      <c r="J427" s="2"/>
+      <c r="J427" s="2" t="s">
+        <v>1241</v>
+      </c>
       <c r="K427" s="17" t="s">
         <v>1651</v>
       </c>
@@ -51697,7 +51703,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:11">
+    <row r="468" spans="1:11">
       <c r="A468" s="2">
         <v>154</v>
       </c>
@@ -51721,7 +51727,9 @@
       <c r="I468" s="3" t="s">
         <v>1709</v>
       </c>
-      <c r="J468" s="2"/>
+      <c r="J468" s="2" t="s">
+        <v>1241</v>
+      </c>
       <c r="K468" s="17" t="s">
         <v>1710</v>
       </c>
@@ -57215,7 +57223,7 @@
     </filterColumn>
     <filterColumn colId="8">
       <customFilters>
-        <customFilter operator="equal" val="2020数据未爬取"/>
+        <customFilter operator="equal" val="标题未爬取，未更新"/>
       </customFilters>
     </filterColumn>
     <extLst/>
@@ -57290,6 +57298,7 @@
     <hyperlink ref="K256" r:id="rId42" display="https://www.lagou.com/"/>
     <hyperlink ref="K255" r:id="rId43" display="https://www.zhipin.com/job_detail/?ka=header-job"/>
     <hyperlink ref="K486" r:id="rId44" display="http://www.cmba.org.cn/common/index.aspx-nodeid=155.htm"/>
+    <hyperlink ref="K426" r:id="rId45" display="http://www.henan.gov.cn/zwgk/zcjd/bmjd/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7079" uniqueCount="2480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7081" uniqueCount="2480">
   <si>
     <t>服务器</t>
   </si>
@@ -7889,7 +7889,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7957,6 +7957,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8533,10 +8541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8545,16 +8553,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8563,119 +8571,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8801,11 +8809,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -9401,7 +9410,7 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -9490,7 +9499,7 @@
       <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="49" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -9510,7 +9519,7 @@
       <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -11155,7 +11164,7 @@
       <c r="C95" t="s">
         <v>213</v>
       </c>
-      <c r="D95" s="48" t="s">
+      <c r="D95" s="49" t="s">
         <v>214</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -11247,7 +11256,7 @@
       <c r="C99" t="s">
         <v>221</v>
       </c>
-      <c r="D99" s="48" t="s">
+      <c r="D99" s="49" t="s">
         <v>222</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -11362,7 +11371,7 @@
       <c r="C104" t="s">
         <v>231</v>
       </c>
-      <c r="D104" s="48" t="s">
+      <c r="D104" s="49" t="s">
         <v>232</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -11431,7 +11440,7 @@
       <c r="C107" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="48" t="s">
+      <c r="D107" s="49" t="s">
         <v>237</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -11454,7 +11463,7 @@
       <c r="C108" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="48" t="s">
+      <c r="D108" s="49" t="s">
         <v>239</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -11477,7 +11486,7 @@
       <c r="C109" t="s">
         <v>240</v>
       </c>
-      <c r="D109" s="48" t="s">
+      <c r="D109" s="49" t="s">
         <v>241</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -11500,7 +11509,7 @@
       <c r="C110" t="s">
         <v>242</v>
       </c>
-      <c r="D110" s="48" t="s">
+      <c r="D110" s="49" t="s">
         <v>243</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -11523,7 +11532,7 @@
       <c r="C111" t="s">
         <v>244</v>
       </c>
-      <c r="D111" s="48" t="s">
+      <c r="D111" s="49" t="s">
         <v>245</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -11546,7 +11555,7 @@
       <c r="C112" t="s">
         <v>246</v>
       </c>
-      <c r="D112" s="48" t="s">
+      <c r="D112" s="49" t="s">
         <v>247</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -11569,7 +11578,7 @@
       <c r="C113" t="s">
         <v>248</v>
       </c>
-      <c r="D113" s="48" t="s">
+      <c r="D113" s="49" t="s">
         <v>249</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -11592,7 +11601,7 @@
       <c r="C114" t="s">
         <v>250</v>
       </c>
-      <c r="D114" s="48" t="s">
+      <c r="D114" s="49" t="s">
         <v>251</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -11615,7 +11624,7 @@
       <c r="C115" t="s">
         <v>252</v>
       </c>
-      <c r="D115" s="48" t="s">
+      <c r="D115" s="49" t="s">
         <v>253</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -11638,7 +11647,7 @@
       <c r="C116" t="s">
         <v>254</v>
       </c>
-      <c r="D116" s="48" t="s">
+      <c r="D116" s="49" t="s">
         <v>255</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -11661,7 +11670,7 @@
       <c r="C117" t="s">
         <v>256</v>
       </c>
-      <c r="D117" s="48" t="s">
+      <c r="D117" s="49" t="s">
         <v>257</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -11684,7 +11693,7 @@
       <c r="C118" t="s">
         <v>258</v>
       </c>
-      <c r="D118" s="48" t="s">
+      <c r="D118" s="49" t="s">
         <v>259</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -11707,7 +11716,7 @@
       <c r="C119" t="s">
         <v>260</v>
       </c>
-      <c r="D119" s="48" t="s">
+      <c r="D119" s="49" t="s">
         <v>261</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -11730,7 +11739,7 @@
       <c r="C120" t="s">
         <v>262</v>
       </c>
-      <c r="D120" s="48" t="s">
+      <c r="D120" s="49" t="s">
         <v>263</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -12473,7 +12482,7 @@
       <c r="C157" t="s">
         <v>324</v>
       </c>
-      <c r="D157" s="50" t="s">
+      <c r="D157" s="51" t="s">
         <v>325</v>
       </c>
       <c r="E157" t="s">
@@ -12573,7 +12582,7 @@
       <c r="C162" t="s">
         <v>332</v>
       </c>
-      <c r="D162" s="50" t="s">
+      <c r="D162" s="51" t="s">
         <v>333</v>
       </c>
       <c r="E162" t="s">
@@ -12633,7 +12642,7 @@
       <c r="C165" t="s">
         <v>337</v>
       </c>
-      <c r="D165" s="49" t="s">
+      <c r="D165" s="50" t="s">
         <v>338</v>
       </c>
       <c r="E165" t="s">
@@ -12653,7 +12662,7 @@
       <c r="C166" t="s">
         <v>339</v>
       </c>
-      <c r="D166" s="49" t="s">
+      <c r="D166" s="50" t="s">
         <v>340</v>
       </c>
       <c r="E166" t="s">
@@ -12733,7 +12742,7 @@
       <c r="C170" t="s">
         <v>348</v>
       </c>
-      <c r="D170" s="51" t="s">
+      <c r="D170" s="52" t="s">
         <v>349</v>
       </c>
       <c r="E170" t="s">
@@ -12779,7 +12788,7 @@
       <c r="C172" t="s">
         <v>352</v>
       </c>
-      <c r="D172" s="51" t="s">
+      <c r="D172" s="52" t="s">
         <v>353</v>
       </c>
       <c r="E172" t="s">
@@ -12802,7 +12811,7 @@
       <c r="C173" t="s">
         <v>354</v>
       </c>
-      <c r="D173" s="48" t="s">
+      <c r="D173" s="49" t="s">
         <v>355</v>
       </c>
       <c r="E173" t="s">
@@ -12825,7 +12834,7 @@
       <c r="C174" t="s">
         <v>356</v>
       </c>
-      <c r="D174" s="51" t="s">
+      <c r="D174" s="52" t="s">
         <v>357</v>
       </c>
       <c r="E174" t="s">
@@ -12848,7 +12857,7 @@
       <c r="C175" t="s">
         <v>358</v>
       </c>
-      <c r="D175" s="51" t="s">
+      <c r="D175" s="52" t="s">
         <v>359</v>
       </c>
       <c r="E175" t="s">
@@ -13063,7 +13072,7 @@
       <c r="C185" t="s">
         <v>387</v>
       </c>
-      <c r="D185" s="48" t="s">
+      <c r="D185" s="49" t="s">
         <v>388</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -13086,7 +13095,7 @@
       <c r="C186" t="s">
         <v>389</v>
       </c>
-      <c r="D186" s="48" t="s">
+      <c r="D186" s="49" t="s">
         <v>390</v>
       </c>
       <c r="E186" s="1" t="s">
@@ -13109,7 +13118,7 @@
       <c r="C187" t="s">
         <v>391</v>
       </c>
-      <c r="D187" s="48" t="s">
+      <c r="D187" s="49" t="s">
         <v>392</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -13155,7 +13164,7 @@
       <c r="C189" t="s">
         <v>395</v>
       </c>
-      <c r="D189" s="48" t="s">
+      <c r="D189" s="49" t="s">
         <v>396</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -13178,7 +13187,7 @@
       <c r="C190" t="s">
         <v>397</v>
       </c>
-      <c r="D190" s="48" t="s">
+      <c r="D190" s="49" t="s">
         <v>398</v>
       </c>
       <c r="E190" s="1" t="s">
@@ -13201,7 +13210,7 @@
       <c r="C191" t="s">
         <v>399</v>
       </c>
-      <c r="D191" s="48" t="s">
+      <c r="D191" s="49" t="s">
         <v>400</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -13684,7 +13693,7 @@
       <c r="C212" t="s">
         <v>435</v>
       </c>
-      <c r="D212" s="52" t="s">
+      <c r="D212" s="53" t="s">
         <v>436</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -14259,7 +14268,7 @@
       <c r="C237" t="s">
         <v>291</v>
       </c>
-      <c r="D237" s="48" t="s">
+      <c r="D237" s="49" t="s">
         <v>485</v>
       </c>
       <c r="E237" s="1" t="s">
@@ -14282,7 +14291,7 @@
       <c r="C238" t="s">
         <v>486</v>
       </c>
-      <c r="D238" s="48" t="s">
+      <c r="D238" s="49" t="s">
         <v>487</v>
       </c>
       <c r="E238" s="1" t="s">
@@ -14963,7 +14972,7 @@
       <c r="C271" t="s">
         <v>553</v>
       </c>
-      <c r="D271" s="48" t="s">
+      <c r="D271" s="49" t="s">
         <v>554</v>
       </c>
       <c r="E271" t="s">
@@ -14986,7 +14995,7 @@
       <c r="C272" t="s">
         <v>555</v>
       </c>
-      <c r="D272" s="48" t="s">
+      <c r="D272" s="49" t="s">
         <v>556</v>
       </c>
       <c r="E272" t="s">
@@ -15009,7 +15018,7 @@
       <c r="C273" t="s">
         <v>557</v>
       </c>
-      <c r="D273" s="53" t="s">
+      <c r="D273" s="54" t="s">
         <v>558</v>
       </c>
       <c r="E273" t="s">
@@ -15101,7 +15110,7 @@
       <c r="C277" t="s">
         <v>565</v>
       </c>
-      <c r="D277" s="48" t="s">
+      <c r="D277" s="49" t="s">
         <v>566</v>
       </c>
       <c r="E277" t="s">
@@ -15147,7 +15156,7 @@
       <c r="C279" t="s">
         <v>569</v>
       </c>
-      <c r="D279" s="48" t="s">
+      <c r="D279" s="49" t="s">
         <v>570</v>
       </c>
       <c r="E279" t="s">
@@ -15193,7 +15202,7 @@
       <c r="C281" t="s">
         <v>573</v>
       </c>
-      <c r="D281" s="48" t="s">
+      <c r="D281" s="49" t="s">
         <v>574</v>
       </c>
       <c r="E281" t="s">
@@ -15262,7 +15271,7 @@
       <c r="C284" t="s">
         <v>579</v>
       </c>
-      <c r="D284" s="48" t="s">
+      <c r="D284" s="49" t="s">
         <v>580</v>
       </c>
       <c r="E284" t="s">
@@ -15285,7 +15294,7 @@
       <c r="C285" t="s">
         <v>581</v>
       </c>
-      <c r="D285" s="52" t="s">
+      <c r="D285" s="53" t="s">
         <v>582</v>
       </c>
       <c r="E285" t="s">
@@ -15331,7 +15340,7 @@
       <c r="C287" t="s">
         <v>585</v>
       </c>
-      <c r="D287" s="48" t="s">
+      <c r="D287" s="49" t="s">
         <v>586</v>
       </c>
       <c r="E287" t="s">
@@ -15377,7 +15386,7 @@
       <c r="C289" t="s">
         <v>589</v>
       </c>
-      <c r="D289" s="48" t="s">
+      <c r="D289" s="49" t="s">
         <v>590</v>
       </c>
       <c r="E289" t="s">
@@ -15584,7 +15593,7 @@
       <c r="C298" t="s">
         <v>607</v>
       </c>
-      <c r="D298" s="48" t="s">
+      <c r="D298" s="49" t="s">
         <v>608</v>
       </c>
       <c r="E298" t="s">
@@ -15607,7 +15616,7 @@
       <c r="C299" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D299" s="52" t="s">
+      <c r="D299" s="53" t="s">
         <v>611</v>
       </c>
       <c r="E299" t="s">
@@ -16059,7 +16068,7 @@
       <c r="C321" t="s">
         <v>658</v>
       </c>
-      <c r="D321" s="48" t="s">
+      <c r="D321" s="49" t="s">
         <v>659</v>
       </c>
       <c r="E321" s="1" t="s">
@@ -16289,7 +16298,7 @@
       <c r="C331" t="s">
         <v>678</v>
       </c>
-      <c r="D331" s="48" t="s">
+      <c r="D331" s="49" t="s">
         <v>679</v>
       </c>
       <c r="E331" s="1" t="s">
@@ -16401,7 +16410,7 @@
       <c r="C336" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D336" s="49" t="s">
+      <c r="D336" s="50" t="s">
         <v>690</v>
       </c>
       <c r="E336" s="1" t="s">
@@ -16421,7 +16430,7 @@
       <c r="C337" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="D337" s="49" t="s">
+      <c r="D337" s="50" t="s">
         <v>692</v>
       </c>
       <c r="E337" s="1" t="s">
@@ -16641,7 +16650,7 @@
       <c r="C348" t="s">
         <v>712</v>
       </c>
-      <c r="D348" s="49" t="s">
+      <c r="D348" s="50" t="s">
         <v>713</v>
       </c>
       <c r="E348" s="1" t="s">
@@ -16893,7 +16902,7 @@
       <c r="C360" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D360" s="48" t="s">
+      <c r="D360" s="49" t="s">
         <v>738</v>
       </c>
       <c r="E360" s="1" t="s">
@@ -17978,7 +17987,7 @@
       <c r="C414" t="s">
         <v>440</v>
       </c>
-      <c r="D414" s="54" t="s">
+      <c r="D414" s="55" t="s">
         <v>851</v>
       </c>
       <c r="E414" s="1" t="s">
@@ -18024,7 +18033,7 @@
       <c r="C416" t="s">
         <v>442</v>
       </c>
-      <c r="D416" s="55" t="s">
+      <c r="D416" s="56" t="s">
         <v>854</v>
       </c>
       <c r="E416" s="1" t="s">
@@ -18093,7 +18102,7 @@
       <c r="C419" t="s">
         <v>859</v>
       </c>
-      <c r="D419" s="48" t="s">
+      <c r="D419" s="49" t="s">
         <v>860</v>
       </c>
       <c r="E419" s="1" t="s">
@@ -18116,7 +18125,7 @@
       <c r="C420" t="s">
         <v>861</v>
       </c>
-      <c r="D420" s="55" t="s">
+      <c r="D420" s="56" t="s">
         <v>862</v>
       </c>
       <c r="E420" s="1" t="s">
@@ -18139,7 +18148,7 @@
       <c r="C421" t="s">
         <v>457</v>
       </c>
-      <c r="D421" s="55" t="s">
+      <c r="D421" s="56" t="s">
         <v>863</v>
       </c>
       <c r="E421" s="1" t="s">
@@ -18162,7 +18171,7 @@
       <c r="C422" t="s">
         <v>463</v>
       </c>
-      <c r="D422" s="55" t="s">
+      <c r="D422" s="56" t="s">
         <v>864</v>
       </c>
       <c r="E422" s="1" t="s">
@@ -18185,7 +18194,7 @@
       <c r="C423" t="s">
         <v>865</v>
       </c>
-      <c r="D423" s="55" t="s">
+      <c r="D423" s="56" t="s">
         <v>866</v>
       </c>
       <c r="E423" s="1" t="s">
@@ -18208,7 +18217,7 @@
       <c r="C424" t="s">
         <v>465</v>
       </c>
-      <c r="D424" s="55" t="s">
+      <c r="D424" s="56" t="s">
         <v>867</v>
       </c>
       <c r="E424" s="1" t="s">
@@ -18231,7 +18240,7 @@
       <c r="C425" t="s">
         <v>868</v>
       </c>
-      <c r="D425" s="48" t="s">
+      <c r="D425" s="49" t="s">
         <v>869</v>
       </c>
       <c r="E425" s="1" t="s">
@@ -18254,7 +18263,7 @@
       <c r="C426" t="s">
         <v>471</v>
       </c>
-      <c r="D426" s="55" t="s">
+      <c r="D426" s="56" t="s">
         <v>870</v>
       </c>
       <c r="E426" s="1" t="s">
@@ -18277,7 +18286,7 @@
       <c r="C427" t="s">
         <v>479</v>
       </c>
-      <c r="D427" s="55" t="s">
+      <c r="D427" s="56" t="s">
         <v>871</v>
       </c>
       <c r="E427" s="1" t="s">
@@ -18300,7 +18309,7 @@
       <c r="C428" t="s">
         <v>481</v>
       </c>
-      <c r="D428" s="55" t="s">
+      <c r="D428" s="56" t="s">
         <v>872</v>
       </c>
       <c r="E428" s="1" t="s">
@@ -18323,7 +18332,7 @@
       <c r="C429" t="s">
         <v>291</v>
       </c>
-      <c r="D429" s="56" t="s">
+      <c r="D429" s="57" t="s">
         <v>873</v>
       </c>
       <c r="E429" s="1" t="s">
@@ -18346,7 +18355,7 @@
       <c r="C430" t="s">
         <v>874</v>
       </c>
-      <c r="D430" s="48" t="s">
+      <c r="D430" s="49" t="s">
         <v>875</v>
       </c>
       <c r="E430" s="1" t="s">
@@ -18369,7 +18378,7 @@
       <c r="C431" t="s">
         <v>488</v>
       </c>
-      <c r="D431" s="55" t="s">
+      <c r="D431" s="56" t="s">
         <v>876</v>
       </c>
       <c r="E431" s="1" t="s">
@@ -18392,7 +18401,7 @@
       <c r="C432" t="s">
         <v>877</v>
       </c>
-      <c r="D432" s="48" t="s">
+      <c r="D432" s="49" t="s">
         <v>878</v>
       </c>
       <c r="E432" s="1" t="s">
@@ -18415,7 +18424,7 @@
       <c r="C433" t="s">
         <v>879</v>
       </c>
-      <c r="D433" s="48" t="s">
+      <c r="D433" s="49" t="s">
         <v>880</v>
       </c>
       <c r="E433" s="1" t="s">
@@ -18438,7 +18447,7 @@
       <c r="C434" t="s">
         <v>881</v>
       </c>
-      <c r="D434" s="48" t="s">
+      <c r="D434" s="49" t="s">
         <v>882</v>
       </c>
       <c r="E434" s="1" t="s">
@@ -18461,7 +18470,7 @@
       <c r="C435" t="s">
         <v>883</v>
       </c>
-      <c r="D435" s="48" t="s">
+      <c r="D435" s="49" t="s">
         <v>884</v>
       </c>
       <c r="E435" s="1" t="s">
@@ -18484,7 +18493,7 @@
       <c r="C436" t="s">
         <v>885</v>
       </c>
-      <c r="D436" s="48" t="s">
+      <c r="D436" s="49" t="s">
         <v>886</v>
       </c>
       <c r="E436" s="1" t="s">
@@ -19059,7 +19068,7 @@
       <c r="C461" t="s">
         <v>291</v>
       </c>
-      <c r="D461" s="52" t="s">
+      <c r="D461" s="53" t="s">
         <v>934</v>
       </c>
       <c r="E461" s="1" t="s">
@@ -19082,7 +19091,7 @@
       <c r="C462" t="s">
         <v>935</v>
       </c>
-      <c r="D462" s="52" t="s">
+      <c r="D462" s="53" t="s">
         <v>936</v>
       </c>
       <c r="E462" s="1" t="s">
@@ -19358,7 +19367,7 @@
       <c r="C474" t="s">
         <v>954</v>
       </c>
-      <c r="D474" s="57" t="s">
+      <c r="D474" s="58" t="s">
         <v>955</v>
       </c>
       <c r="E474" s="1" t="s">
@@ -19404,7 +19413,7 @@
       <c r="C476" t="s">
         <v>446</v>
       </c>
-      <c r="D476" s="57" t="s">
+      <c r="D476" s="58" t="s">
         <v>957</v>
       </c>
       <c r="E476" s="1" t="s">
@@ -19450,7 +19459,7 @@
       <c r="C478" t="s">
         <v>959</v>
       </c>
-      <c r="D478" s="57" t="s">
+      <c r="D478" s="58" t="s">
         <v>960</v>
       </c>
       <c r="E478" s="1" t="s">
@@ -19473,7 +19482,7 @@
       <c r="C479" t="s">
         <v>905</v>
       </c>
-      <c r="D479" s="57" t="s">
+      <c r="D479" s="58" t="s">
         <v>961</v>
       </c>
       <c r="E479" s="1" t="s">
@@ -19542,7 +19551,7 @@
       <c r="C482" t="s">
         <v>861</v>
       </c>
-      <c r="D482" s="58" t="s">
+      <c r="D482" s="59" t="s">
         <v>964</v>
       </c>
       <c r="E482" s="1" t="s">
@@ -19634,7 +19643,7 @@
       <c r="C486" t="s">
         <v>465</v>
       </c>
-      <c r="D486" s="59" t="s">
+      <c r="D486" s="60" t="s">
         <v>968</v>
       </c>
       <c r="E486" s="1" t="s">
@@ -19657,7 +19666,7 @@
       <c r="C487" t="s">
         <v>467</v>
       </c>
-      <c r="D487" s="58" t="s">
+      <c r="D487" s="59" t="s">
         <v>969</v>
       </c>
       <c r="E487" s="1" t="s">
@@ -19680,7 +19689,7 @@
       <c r="C488" t="s">
         <v>469</v>
       </c>
-      <c r="D488" s="58" t="s">
+      <c r="D488" s="59" t="s">
         <v>970</v>
       </c>
       <c r="E488" s="1" t="s">
@@ -19703,7 +19712,7 @@
       <c r="C489" t="s">
         <v>471</v>
       </c>
-      <c r="D489" s="58" t="s">
+      <c r="D489" s="59" t="s">
         <v>971</v>
       </c>
       <c r="E489" s="1" t="s">
@@ -19726,7 +19735,7 @@
       <c r="C490" t="s">
         <v>972</v>
       </c>
-      <c r="D490" s="58" t="s">
+      <c r="D490" s="59" t="s">
         <v>973</v>
       </c>
       <c r="E490" s="1" t="s">
@@ -19772,7 +19781,7 @@
       <c r="C492" t="s">
         <v>475</v>
       </c>
-      <c r="D492" s="58" t="s">
+      <c r="D492" s="59" t="s">
         <v>975</v>
       </c>
       <c r="E492" s="1" t="s">
@@ -19795,7 +19804,7 @@
       <c r="C493" t="s">
         <v>477</v>
       </c>
-      <c r="D493" s="58" t="s">
+      <c r="D493" s="59" t="s">
         <v>976</v>
       </c>
       <c r="E493" s="1" t="s">
@@ -19818,7 +19827,7 @@
       <c r="C494" t="s">
         <v>479</v>
       </c>
-      <c r="D494" s="58" t="s">
+      <c r="D494" s="59" t="s">
         <v>977</v>
       </c>
       <c r="E494" s="1" t="s">
@@ -19841,7 +19850,7 @@
       <c r="C495" t="s">
         <v>481</v>
       </c>
-      <c r="D495" s="58" t="s">
+      <c r="D495" s="59" t="s">
         <v>978</v>
       </c>
       <c r="E495" s="1" t="s">
@@ -19887,7 +19896,7 @@
       <c r="C497" t="s">
         <v>980</v>
       </c>
-      <c r="D497" s="60" t="s">
+      <c r="D497" s="61" t="s">
         <v>981</v>
       </c>
       <c r="E497" s="1" t="s">
@@ -19910,7 +19919,7 @@
       <c r="C498" t="s">
         <v>486</v>
       </c>
-      <c r="D498" s="48" t="s">
+      <c r="D498" s="49" t="s">
         <v>982</v>
       </c>
       <c r="E498" s="1" t="s">
@@ -20468,7 +20477,7 @@
       <c r="C525" t="s">
         <v>417</v>
       </c>
-      <c r="D525" s="61" t="s">
+      <c r="D525" s="62" t="s">
         <v>1020</v>
       </c>
       <c r="E525" s="6" t="s">
@@ -21455,17 +21464,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H659" sqref="H659"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I661" sqref="I661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="23.5583333333333" customWidth="1"/>
-    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="9.85" customWidth="1"/>
+    <col min="4" max="4" width="11.3166666666667" customWidth="1"/>
     <col min="6" max="6" width="7.88333333333333" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="31.9083333333333" customWidth="1"/>
+    <col min="8" max="8" width="25.5833333333333" customWidth="1"/>
     <col min="9" max="9" width="26.4666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21792,7 +21801,7 @@
       <c r="H11" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="63" t="s">
         <v>1156</v>
       </c>
       <c r="J11" s="2"/>
@@ -25560,7 +25569,9 @@
       <c r="I139" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="J139" s="2"/>
+      <c r="J139" s="2" t="s">
+        <v>1241</v>
+      </c>
       <c r="K139" s="2" t="s">
         <v>1327</v>
       </c>
@@ -28577,7 +28588,7 @@
       <c r="C238" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D238" s="63" t="s">
+      <c r="D238" s="64" t="s">
         <v>1156</v>
       </c>
       <c r="E238" s="3" t="s">
@@ -51280,7 +51291,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:11">
+    <row r="453" spans="1:11">
       <c r="A453" s="2">
         <v>154</v>
       </c>
@@ -51304,8 +51315,10 @@
       <c r="I453" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="J453" s="2"/>
-      <c r="K453" s="17" t="s">
+      <c r="J453" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K453" s="45" t="s">
         <v>1686</v>
       </c>
     </row>
@@ -51328,7 +51341,7 @@
         <v>1488</v>
       </c>
       <c r="J454" s="2"/>
-      <c r="K454" s="45" t="s">
+      <c r="K454" s="46" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -51703,7 +51716,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" hidden="1" spans="1:11">
       <c r="A468" s="2">
         <v>154</v>
       </c>
@@ -52007,7 +52020,7 @@
         <v>1</v>
       </c>
       <c r="H477" s="19"/>
-      <c r="I477" s="46" t="s">
+      <c r="I477" s="47" t="s">
         <v>1268</v>
       </c>
       <c r="J477" s="2"/>
@@ -52036,7 +52049,7 @@
         <v>1</v>
       </c>
       <c r="H478" s="19"/>
-      <c r="I478" s="46" t="s">
+      <c r="I478" s="47" t="s">
         <v>1268</v>
       </c>
       <c r="J478" s="2"/>
@@ -52530,7 +52543,7 @@
         <v>1</v>
       </c>
       <c r="H494" s="19"/>
-      <c r="I494" s="46" t="s">
+      <c r="I494" s="47" t="s">
         <v>1268</v>
       </c>
       <c r="J494" s="2"/>
@@ -52834,7 +52847,7 @@
       </c>
       <c r="G504" s="2"/>
       <c r="H504" s="19"/>
-      <c r="I504" s="46" t="s">
+      <c r="I504" s="47" t="s">
         <v>1258</v>
       </c>
       <c r="J504" s="2"/>
@@ -53168,7 +53181,7 @@
       </c>
       <c r="G516" s="2"/>
       <c r="H516" s="19"/>
-      <c r="I516" s="46" t="s">
+      <c r="I516" s="47" t="s">
         <v>1773</v>
       </c>
       <c r="J516" s="2"/>
@@ -53191,7 +53204,7 @@
       </c>
       <c r="G517" s="2"/>
       <c r="H517" s="19"/>
-      <c r="I517" s="46" t="s">
+      <c r="I517" s="47" t="s">
         <v>1773</v>
       </c>
       <c r="J517" s="2"/>
@@ -53249,7 +53262,7 @@
       </c>
       <c r="G519" s="2"/>
       <c r="H519" s="19"/>
-      <c r="I519" s="46" t="s">
+      <c r="I519" s="47" t="s">
         <v>1268</v>
       </c>
       <c r="J519" s="2"/>
@@ -53278,7 +53291,7 @@
       </c>
       <c r="G520" s="2"/>
       <c r="H520" s="19"/>
-      <c r="I520" s="46" t="s">
+      <c r="I520" s="47" t="s">
         <v>1777</v>
       </c>
       <c r="J520" s="2"/>
@@ -53336,7 +53349,7 @@
       </c>
       <c r="G522" s="2"/>
       <c r="H522" s="19"/>
-      <c r="I522" s="46" t="s">
+      <c r="I522" s="47" t="s">
         <v>1258</v>
       </c>
       <c r="J522" s="2"/>
@@ -53365,7 +53378,7 @@
       </c>
       <c r="G523" s="2"/>
       <c r="H523" s="19"/>
-      <c r="I523" s="46" t="s">
+      <c r="I523" s="47" t="s">
         <v>1258</v>
       </c>
       <c r="J523" s="2"/>
@@ -53456,7 +53469,7 @@
         <v>1781</v>
       </c>
       <c r="J526" s="2"/>
-      <c r="K526" s="46" t="s">
+      <c r="K526" s="47" t="s">
         <v>1782</v>
       </c>
     </row>
@@ -54769,7 +54782,7 @@
         <v>1743</v>
       </c>
       <c r="J569" s="2"/>
-      <c r="K569" s="47" t="s">
+      <c r="K569" s="48" t="s">
         <v>1852</v>
       </c>
     </row>
@@ -54986,7 +54999,7 @@
         <v>1268</v>
       </c>
       <c r="J576" s="2"/>
-      <c r="K576" s="47" t="s">
+      <c r="K576" s="48" t="s">
         <v>1865</v>
       </c>
     </row>
@@ -55172,7 +55185,7 @@
         <v>1877</v>
       </c>
       <c r="J582" s="2"/>
-      <c r="K582" s="47" t="s">
+      <c r="K582" s="48" t="s">
         <v>1878</v>
       </c>
     </row>
@@ -55730,7 +55743,7 @@
         <v>1917</v>
       </c>
       <c r="J600" s="2"/>
-      <c r="K600" s="47" t="s">
+      <c r="K600" s="48" t="s">
         <v>1918</v>
       </c>
     </row>
@@ -56468,7 +56481,7 @@
         <v>1970</v>
       </c>
       <c r="J624" s="2"/>
-      <c r="K624" s="47" t="s">
+      <c r="K624" s="48" t="s">
         <v>1971</v>
       </c>
     </row>
@@ -56561,7 +56574,7 @@
         <v>1977</v>
       </c>
       <c r="J627" s="2"/>
-      <c r="K627" s="47" t="s">
+      <c r="K627" s="48" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -57212,7 +57225,7 @@
         <v>2020</v>
       </c>
       <c r="J648" s="2"/>
-      <c r="K648" s="47" t="s">
+      <c r="K648" s="48" t="s">
         <v>2021</v>
       </c>
     </row>
@@ -57223,7 +57236,7 @@
     </filterColumn>
     <filterColumn colId="8">
       <customFilters>
-        <customFilter operator="equal" val="标题未爬取，未更新"/>
+        <customFilter operator="equal" val="部分时间未爬取到"/>
       </customFilters>
     </filterColumn>
     <extLst/>
@@ -57299,6 +57312,7 @@
     <hyperlink ref="K255" r:id="rId43" display="https://www.zhipin.com/job_detail/?ka=header-job"/>
     <hyperlink ref="K486" r:id="rId44" display="http://www.cmba.org.cn/common/index.aspx-nodeid=155.htm"/>
     <hyperlink ref="K426" r:id="rId45" display="http://www.henan.gov.cn/zwgk/zcjd/bmjd/"/>
+    <hyperlink ref="K453" r:id="rId46" display="http://www.shandong.gov.cn/col/col2262/index.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7087" uniqueCount="2484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7092" uniqueCount="2485">
   <si>
     <t>服务器</t>
   </si>
@@ -5580,6 +5580,9 @@
   </si>
   <si>
     <t>链接错误，无新地址</t>
+  </si>
+  <si>
+    <t>未修改（网站数据未更新，无需修改）</t>
   </si>
   <si>
     <t>江苏省新材料产业协会-新闻</t>
@@ -21482,8 +21485,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I427" sqref="I427"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J655" sqref="J655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -21495,6 +21498,7 @@
     <col min="8" max="8" width="25.5833333333333" customWidth="1"/>
     <col min="9" max="9" width="26.4666666666667" customWidth="1"/>
     <col min="10" max="10" width="37.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="42.7916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -52968,8 +52972,10 @@
       <c r="I507" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J507" s="2"/>
-      <c r="K507" s="2" t="s">
+      <c r="J507" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="K507" s="14" t="s">
         <v>1764</v>
       </c>
     </row>
@@ -52997,7 +53003,9 @@
       <c r="I508" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J508" s="2"/>
+      <c r="J508" s="2" t="s">
+        <v>1759</v>
+      </c>
       <c r="K508" s="2" t="s">
         <v>1765</v>
       </c>
@@ -53026,8 +53034,10 @@
       <c r="I509" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J509" s="2"/>
-      <c r="K509" s="2" t="s">
+      <c r="J509" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="K509" s="14" t="s">
         <v>1766</v>
       </c>
     </row>
@@ -53084,8 +53094,10 @@
       <c r="I511" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J511" s="2"/>
-      <c r="K511" s="2" t="s">
+      <c r="J511" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="K511" s="14" t="s">
         <v>1769</v>
       </c>
     </row>
@@ -53164,7 +53176,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="515" hidden="1" spans="1:11">
+    <row r="515" spans="1:11">
       <c r="A515" s="2">
         <v>154</v>
       </c>
@@ -53188,7 +53200,9 @@
       <c r="I515" s="3" t="s">
         <v>1775</v>
       </c>
-      <c r="J515" s="2"/>
+      <c r="J515" s="2" t="s">
+        <v>1776</v>
+      </c>
       <c r="K515" s="2"/>
     </row>
     <row r="516" hidden="1" spans="1:11">
@@ -53202,7 +53216,7 @@
         <v>285</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -53213,11 +53227,11 @@
       <c r="G516" s="2"/>
       <c r="H516" s="21"/>
       <c r="I516" s="48" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="517" hidden="1" spans="1:11">
@@ -53225,7 +53239,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="3" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>198</v>
@@ -53236,11 +53250,11 @@
       <c r="G517" s="2"/>
       <c r="H517" s="21"/>
       <c r="I517" s="48" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="518" hidden="1" spans="1:11">
@@ -53323,7 +53337,7 @@
       <c r="G520" s="2"/>
       <c r="H520" s="21"/>
       <c r="I520" s="48" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="J520" s="2"/>
       <c r="K520" s="2" t="s">
@@ -53468,11 +53482,11 @@
       <c r="G525" s="2"/>
       <c r="H525" s="21"/>
       <c r="I525" s="3" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="J525" s="2"/>
       <c r="K525" s="2" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="526" hidden="1" spans="1:11">
@@ -53486,7 +53500,7 @@
         <v>295</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>198</v>
@@ -53497,11 +53511,11 @@
       <c r="G526" s="2"/>
       <c r="H526" s="21"/>
       <c r="I526" s="3" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="J526" s="2"/>
       <c r="K526" s="48" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="527" hidden="1" spans="1:11">
@@ -53559,7 +53573,7 @@
       </c>
       <c r="J528" s="2"/>
       <c r="K528" s="2" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="529" hidden="1" spans="1:11">
@@ -53584,11 +53598,11 @@
       <c r="G529" s="2"/>
       <c r="H529" s="21"/>
       <c r="I529" s="2" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="J529" s="2"/>
       <c r="K529" s="2" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="530" hidden="1" spans="1:11">
@@ -53602,7 +53616,7 @@
         <v>300</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>198</v>
@@ -53613,11 +53627,11 @@
       <c r="G530" s="2"/>
       <c r="H530" s="21"/>
       <c r="I530" s="2" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="J530" s="2"/>
       <c r="K530" s="2" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="531" hidden="1" spans="1:11">
@@ -53625,7 +53639,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>198</v>
@@ -53638,7 +53652,7 @@
       </c>
       <c r="J531" s="2"/>
       <c r="K531" s="2" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="532" hidden="1" spans="1:11">
@@ -53663,11 +53677,11 @@
       <c r="G532" s="2"/>
       <c r="H532" s="21"/>
       <c r="I532" s="3" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="J532" s="2"/>
       <c r="K532" s="2" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="533" hidden="1" spans="1:11">
@@ -53692,11 +53706,11 @@
       <c r="G533" s="2"/>
       <c r="H533" s="24"/>
       <c r="I533" s="3" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="J533" s="2"/>
       <c r="K533" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="534" hidden="1" spans="1:11">
@@ -53722,10 +53736,10 @@
         <v>1</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
@@ -53753,10 +53767,10 @@
         <v>1</v>
       </c>
       <c r="H535" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I535" s="3" t="s">
         <v>1801</v>
-      </c>
-      <c r="I535" s="3" t="s">
-        <v>1800</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
@@ -53784,10 +53798,10 @@
         <v>1</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
@@ -53815,10 +53829,10 @@
         <v>1</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -53846,10 +53860,10 @@
         <v>1</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
@@ -53877,10 +53891,10 @@
         <v>1</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
@@ -53908,10 +53922,10 @@
         <v>1</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
@@ -53939,10 +53953,10 @@
         <v>1</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
@@ -53970,10 +53984,10 @@
         <v>1</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
@@ -54001,10 +54015,10 @@
         <v>1</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
@@ -54032,10 +54046,10 @@
         <v>1</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
@@ -54063,10 +54077,10 @@
         <v>1</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
@@ -54094,10 +54108,10 @@
         <v>1</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
@@ -54125,10 +54139,10 @@
         <v>1</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
@@ -54156,10 +54170,10 @@
         <v>1</v>
       </c>
       <c r="H548" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
@@ -54187,10 +54201,10 @@
         <v>1</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
@@ -54218,10 +54232,10 @@
         <v>1</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
@@ -54249,10 +54263,10 @@
         <v>1</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
@@ -54280,10 +54294,10 @@
         <v>1</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -54311,10 +54325,10 @@
         <v>1</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
@@ -54342,10 +54356,10 @@
         <v>1</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
@@ -54361,7 +54375,7 @@
         <v>438</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>404</v>
@@ -54373,14 +54387,14 @@
         <v>1</v>
       </c>
       <c r="H555" s="20" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="18" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="556" hidden="1" spans="1:11">
@@ -54394,7 +54408,7 @@
         <v>438</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>404</v>
@@ -54407,11 +54421,11 @@
       </c>
       <c r="H556" s="21"/>
       <c r="I556" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J556" s="2"/>
       <c r="K556" s="18" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="557" hidden="1" spans="1:11">
@@ -54425,7 +54439,7 @@
         <v>438</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>404</v>
@@ -54438,11 +54452,11 @@
       </c>
       <c r="H557" s="21"/>
       <c r="I557" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="18" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="558" hidden="1" spans="1:11">
@@ -54456,7 +54470,7 @@
         <v>440</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>404</v>
@@ -54469,11 +54483,11 @@
       </c>
       <c r="H558" s="21"/>
       <c r="I558" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J558" s="2"/>
       <c r="K558" s="18" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="559" hidden="1" spans="1:11">
@@ -54487,7 +54501,7 @@
         <v>440</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>404</v>
@@ -54500,11 +54514,11 @@
       </c>
       <c r="H559" s="21"/>
       <c r="I559" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="18" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="560" hidden="1" spans="1:11">
@@ -54518,7 +54532,7 @@
         <v>440</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>404</v>
@@ -54531,11 +54545,11 @@
       </c>
       <c r="H560" s="21"/>
       <c r="I560" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="J560" s="2"/>
       <c r="K560" s="18" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="561" hidden="1" spans="1:11">
@@ -54549,7 +54563,7 @@
         <v>442</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>404</v>
@@ -54562,11 +54576,11 @@
       </c>
       <c r="H561" s="21"/>
       <c r="I561" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="18" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="562" hidden="1" spans="1:11">
@@ -54580,7 +54594,7 @@
         <v>442</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>404</v>
@@ -54593,11 +54607,11 @@
       </c>
       <c r="H562" s="21"/>
       <c r="I562" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="18" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="563" hidden="1" spans="1:11">
@@ -54611,7 +54625,7 @@
         <v>442</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>404</v>
@@ -54624,11 +54638,11 @@
       </c>
       <c r="H563" s="21"/>
       <c r="I563" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J563" s="2"/>
       <c r="K563" s="18" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="564" hidden="1" spans="1:11">
@@ -54642,7 +54656,7 @@
         <v>444</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>404</v>
@@ -54655,11 +54669,11 @@
       </c>
       <c r="H564" s="21"/>
       <c r="I564" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="18" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="565" hidden="1" spans="1:11">
@@ -54673,7 +54687,7 @@
         <v>444</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>404</v>
@@ -54690,7 +54704,7 @@
       </c>
       <c r="J565" s="2"/>
       <c r="K565" s="18" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="566" hidden="1" spans="1:11">
@@ -54704,7 +54718,7 @@
         <v>444</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>404</v>
@@ -54721,7 +54735,7 @@
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="18" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="567" hidden="1" spans="1:11">
@@ -54735,7 +54749,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>404</v>
@@ -54752,7 +54766,7 @@
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="18" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="568" hidden="1" spans="1:11">
@@ -54766,7 +54780,7 @@
         <v>446</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>404</v>
@@ -54779,11 +54793,11 @@
       </c>
       <c r="H568" s="21"/>
       <c r="I568" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J568" s="2"/>
       <c r="K568" s="18" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="569" ht="16.5" hidden="1" spans="1:11">
@@ -54797,7 +54811,7 @@
         <v>446</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>404</v>
@@ -54814,7 +54828,7 @@
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="50" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="570" hidden="1" spans="1:11">
@@ -54828,7 +54842,7 @@
         <v>448</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>404</v>
@@ -54845,7 +54859,7 @@
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="18" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="571" hidden="1" spans="1:11">
@@ -54859,7 +54873,7 @@
         <v>448</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>404</v>
@@ -54876,7 +54890,7 @@
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="18" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="572" hidden="1" spans="1:11">
@@ -54890,7 +54904,7 @@
         <v>448</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>404</v>
@@ -54903,11 +54917,11 @@
       </c>
       <c r="H572" s="21"/>
       <c r="I572" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="18" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="573" hidden="1" spans="1:11">
@@ -54921,7 +54935,7 @@
         <v>434</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>404</v>
@@ -54938,7 +54952,7 @@
       </c>
       <c r="J573" s="2"/>
       <c r="K573" s="18" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="574" hidden="1" spans="1:11">
@@ -54952,7 +54966,7 @@
         <v>434</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>404</v>
@@ -54969,7 +54983,7 @@
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="18" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="575" hidden="1" spans="1:11">
@@ -54983,7 +54997,7 @@
         <v>434</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>404</v>
@@ -55000,7 +55014,7 @@
       </c>
       <c r="J575" s="2"/>
       <c r="K575" s="18" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="576" ht="16.5" hidden="1" spans="1:11">
@@ -55014,7 +55028,7 @@
         <v>434</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>404</v>
@@ -55031,7 +55045,7 @@
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="50" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="577" hidden="1" spans="1:11">
@@ -55045,7 +55059,7 @@
         <v>451</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>404</v>
@@ -55062,7 +55076,7 @@
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="18" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="578" hidden="1" spans="1:11">
@@ -55076,7 +55090,7 @@
         <v>451</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>404</v>
@@ -55089,11 +55103,11 @@
       </c>
       <c r="H578" s="21"/>
       <c r="I578" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J578" s="2"/>
       <c r="K578" s="45" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="579" hidden="1" spans="1:11">
@@ -55107,7 +55121,7 @@
         <v>451</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>404</v>
@@ -55124,7 +55138,7 @@
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="45" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="580" hidden="1" spans="1:11">
@@ -55138,7 +55152,7 @@
         <v>453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>404</v>
@@ -55151,11 +55165,11 @@
       </c>
       <c r="H580" s="21"/>
       <c r="I580" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="18" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="581" hidden="1" spans="1:11">
@@ -55169,7 +55183,7 @@
         <v>453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>404</v>
@@ -55182,11 +55196,11 @@
       </c>
       <c r="H581" s="21"/>
       <c r="I581" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="18" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="582" ht="16.5" hidden="1" spans="1:11">
@@ -55200,7 +55214,7 @@
         <v>453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>404</v>
@@ -55213,11 +55227,11 @@
       </c>
       <c r="H582" s="21"/>
       <c r="I582" s="3" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="50" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="583" hidden="1" spans="1:11">
@@ -55231,7 +55245,7 @@
         <v>455</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>404</v>
@@ -55248,7 +55262,7 @@
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="18" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="584" hidden="1" spans="1:11">
@@ -55262,7 +55276,7 @@
         <v>455</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>404</v>
@@ -55279,7 +55293,7 @@
       </c>
       <c r="J584" s="2"/>
       <c r="K584" s="18" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="585" hidden="1" spans="1:11">
@@ -55293,7 +55307,7 @@
         <v>455</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>404</v>
@@ -55306,11 +55320,11 @@
       </c>
       <c r="H585" s="21"/>
       <c r="I585" s="3" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="18" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="586" hidden="1" spans="1:11">
@@ -55324,7 +55338,7 @@
         <v>455</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>404</v>
@@ -55337,11 +55351,11 @@
       </c>
       <c r="H586" s="21"/>
       <c r="I586" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="J586" s="2"/>
       <c r="K586" s="18" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="587" hidden="1" spans="1:11">
@@ -55355,7 +55369,7 @@
         <v>457</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>404</v>
@@ -55368,11 +55382,11 @@
       </c>
       <c r="H587" s="21"/>
       <c r="I587" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="45" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="588" hidden="1" spans="1:11">
@@ -55386,7 +55400,7 @@
         <v>457</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>404</v>
@@ -55399,11 +55413,11 @@
       </c>
       <c r="H588" s="21"/>
       <c r="I588" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="18" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="589" hidden="1" spans="1:11">
@@ -55417,7 +55431,7 @@
         <v>459</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>404</v>
@@ -55430,11 +55444,11 @@
       </c>
       <c r="H589" s="21"/>
       <c r="I589" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J589" s="2"/>
       <c r="K589" s="18" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="590" hidden="1" spans="1:11">
@@ -55448,7 +55462,7 @@
         <v>459</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>404</v>
@@ -55461,11 +55475,11 @@
       </c>
       <c r="H590" s="21"/>
       <c r="I590" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="18" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="591" hidden="1" spans="1:11">
@@ -55479,7 +55493,7 @@
         <v>459</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>404</v>
@@ -55492,11 +55506,11 @@
       </c>
       <c r="H591" s="21"/>
       <c r="I591" s="3" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="J591" s="2"/>
       <c r="K591" s="18" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="592" hidden="1" spans="1:11">
@@ -55510,7 +55524,7 @@
         <v>461</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>404</v>
@@ -55523,11 +55537,11 @@
       </c>
       <c r="H592" s="21"/>
       <c r="I592" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="18" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="593" hidden="1" spans="1:11">
@@ -55541,7 +55555,7 @@
         <v>461</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>404</v>
@@ -55554,11 +55568,11 @@
       </c>
       <c r="H593" s="21"/>
       <c r="I593" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="18" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="594" hidden="1" spans="1:11">
@@ -55572,7 +55586,7 @@
         <v>461</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>404</v>
@@ -55585,11 +55599,11 @@
       </c>
       <c r="H594" s="21"/>
       <c r="I594" s="3" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="J594" s="2"/>
       <c r="K594" s="18" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="595" hidden="1" spans="1:11">
@@ -55603,7 +55617,7 @@
         <v>463</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>404</v>
@@ -55620,7 +55634,7 @@
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="18" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="596" hidden="1" spans="1:11">
@@ -55634,7 +55648,7 @@
         <v>463</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>404</v>
@@ -55651,7 +55665,7 @@
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="18" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="597" hidden="1" spans="1:11">
@@ -55665,7 +55679,7 @@
         <v>463</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>404</v>
@@ -55682,7 +55696,7 @@
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="18" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="598" hidden="1" spans="1:11">
@@ -55696,7 +55710,7 @@
         <v>465</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>404</v>
@@ -55709,11 +55723,11 @@
       </c>
       <c r="H598" s="21"/>
       <c r="I598" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="18" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="599" hidden="1" spans="1:11">
@@ -55727,7 +55741,7 @@
         <v>465</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>404</v>
@@ -55740,11 +55754,11 @@
       </c>
       <c r="H599" s="21"/>
       <c r="I599" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="18" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="600" ht="16.5" hidden="1" spans="1:11">
@@ -55758,7 +55772,7 @@
         <v>465</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>404</v>
@@ -55771,11 +55785,11 @@
       </c>
       <c r="H600" s="21"/>
       <c r="I600" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J600" s="2"/>
       <c r="K600" s="50" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="601" hidden="1" spans="1:11">
@@ -55789,7 +55803,7 @@
         <v>467</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>404</v>
@@ -55806,7 +55820,7 @@
       </c>
       <c r="J601" s="2"/>
       <c r="K601" s="18" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="602" hidden="1" spans="1:11">
@@ -55820,7 +55834,7 @@
         <v>467</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>404</v>
@@ -55833,11 +55847,11 @@
       </c>
       <c r="H602" s="21"/>
       <c r="I602" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J602" s="2"/>
       <c r="K602" s="18" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="603" hidden="1" spans="1:11">
@@ -55845,7 +55859,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="3" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>404</v>
@@ -55858,11 +55872,11 @@
       </c>
       <c r="H603" s="21"/>
       <c r="I603" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J603" s="2"/>
       <c r="K603" s="18" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="604" hidden="1" spans="1:11">
@@ -55876,7 +55890,7 @@
         <v>469</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>404</v>
@@ -55889,11 +55903,11 @@
       </c>
       <c r="H604" s="21"/>
       <c r="I604" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J604" s="2"/>
       <c r="K604" s="18" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="605" hidden="1" spans="1:11">
@@ -55907,7 +55921,7 @@
         <v>469</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>404</v>
@@ -55924,7 +55938,7 @@
       </c>
       <c r="J605" s="2"/>
       <c r="K605" s="18" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="606" hidden="1" spans="1:11">
@@ -55938,7 +55952,7 @@
         <v>469</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>404</v>
@@ -55951,11 +55965,11 @@
       </c>
       <c r="H606" s="21"/>
       <c r="I606" s="3" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="J606" s="2"/>
       <c r="K606" s="18" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="607" hidden="1" spans="1:11">
@@ -55969,7 +55983,7 @@
         <v>471</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>404</v>
@@ -55982,11 +55996,11 @@
       </c>
       <c r="H607" s="21"/>
       <c r="I607" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J607" s="2"/>
       <c r="K607" s="18" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="608" hidden="1" spans="1:11">
@@ -56000,7 +56014,7 @@
         <v>471</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>404</v>
@@ -56017,7 +56031,7 @@
       </c>
       <c r="J608" s="2"/>
       <c r="K608" s="18" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="609" hidden="1" spans="1:11">
@@ -56031,7 +56045,7 @@
         <v>471</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>404</v>
@@ -56044,11 +56058,11 @@
       </c>
       <c r="H609" s="21"/>
       <c r="I609" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J609" s="2"/>
       <c r="K609" s="18" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="610" hidden="1" spans="1:11">
@@ -56062,7 +56076,7 @@
         <v>473</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>404</v>
@@ -56075,11 +56089,11 @@
       </c>
       <c r="H610" s="21"/>
       <c r="I610" s="3" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="J610" s="2"/>
       <c r="K610" s="18" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="611" hidden="1" spans="1:11">
@@ -56093,7 +56107,7 @@
         <v>473</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>404</v>
@@ -56106,11 +56120,11 @@
       </c>
       <c r="H611" s="21"/>
       <c r="I611" s="3" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="J611" s="2"/>
       <c r="K611" s="18" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="612" hidden="1" spans="1:11">
@@ -56124,7 +56138,7 @@
         <v>473</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>404</v>
@@ -56137,11 +56151,11 @@
       </c>
       <c r="H612" s="21"/>
       <c r="I612" s="3" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="J612" s="2"/>
       <c r="K612" s="18" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="613" hidden="1" spans="1:11">
@@ -56155,7 +56169,7 @@
         <v>475</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>404</v>
@@ -56168,11 +56182,11 @@
       </c>
       <c r="H613" s="21"/>
       <c r="I613" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J613" s="2"/>
       <c r="K613" s="18" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="614" hidden="1" spans="1:11">
@@ -56186,7 +56200,7 @@
         <v>475</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>404</v>
@@ -56199,11 +56213,11 @@
       </c>
       <c r="H614" s="21"/>
       <c r="I614" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J614" s="2"/>
       <c r="K614" s="18" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="615" hidden="1" spans="1:11">
@@ -56217,7 +56231,7 @@
         <v>475</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>404</v>
@@ -56230,11 +56244,11 @@
       </c>
       <c r="H615" s="21"/>
       <c r="I615" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J615" s="2"/>
       <c r="K615" s="18" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="616" hidden="1" spans="1:11">
@@ -56248,7 +56262,7 @@
         <v>477</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>404</v>
@@ -56265,7 +56279,7 @@
       </c>
       <c r="J616" s="2"/>
       <c r="K616" s="18" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="617" hidden="1" spans="1:11">
@@ -56279,7 +56293,7 @@
         <v>477</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>404</v>
@@ -56296,7 +56310,7 @@
       </c>
       <c r="J617" s="2"/>
       <c r="K617" s="18" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="618" hidden="1" spans="1:11">
@@ -56310,7 +56324,7 @@
         <v>477</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>404</v>
@@ -56323,11 +56337,11 @@
       </c>
       <c r="H618" s="21"/>
       <c r="I618" s="3" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="18" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="619" hidden="1" spans="1:11">
@@ -56341,7 +56355,7 @@
         <v>479</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>404</v>
@@ -56358,7 +56372,7 @@
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="18" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="620" hidden="1" spans="1:11">
@@ -56372,7 +56386,7 @@
         <v>479</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>404</v>
@@ -56385,11 +56399,11 @@
       </c>
       <c r="H620" s="21"/>
       <c r="I620" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J620" s="2"/>
       <c r="K620" s="18" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="621" hidden="1" spans="1:11">
@@ -56403,7 +56417,7 @@
         <v>479</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>404</v>
@@ -56416,11 +56430,11 @@
       </c>
       <c r="H621" s="21"/>
       <c r="I621" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J621" s="2"/>
       <c r="K621" s="18" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="622" hidden="1" spans="1:11">
@@ -56434,7 +56448,7 @@
         <v>481</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>404</v>
@@ -56447,11 +56461,11 @@
       </c>
       <c r="H622" s="21"/>
       <c r="I622" s="3" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="J622" s="2"/>
       <c r="K622" s="18" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="623" hidden="1" spans="1:11">
@@ -56465,7 +56479,7 @@
         <v>481</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>404</v>
@@ -56478,11 +56492,11 @@
       </c>
       <c r="H623" s="21"/>
       <c r="I623" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J623" s="2"/>
       <c r="K623" s="18" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="624" ht="16.5" hidden="1" spans="1:11">
@@ -56496,7 +56510,7 @@
         <v>481</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>404</v>
@@ -56509,11 +56523,11 @@
       </c>
       <c r="H624" s="21"/>
       <c r="I624" s="3" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="J624" s="2"/>
       <c r="K624" s="50" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="625" hidden="1" spans="1:11">
@@ -56527,7 +56541,7 @@
         <v>483</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>404</v>
@@ -56540,11 +56554,11 @@
       </c>
       <c r="H625" s="21"/>
       <c r="I625" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J625" s="2"/>
       <c r="K625" s="18" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="626" hidden="1" spans="1:11">
@@ -56558,7 +56572,7 @@
         <v>483</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>404</v>
@@ -56571,11 +56585,11 @@
       </c>
       <c r="H626" s="21"/>
       <c r="I626" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J626" s="2"/>
       <c r="K626" s="18" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="627" ht="16.5" hidden="1" spans="1:11">
@@ -56589,7 +56603,7 @@
         <v>483</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>404</v>
@@ -56602,11 +56616,11 @@
       </c>
       <c r="H627" s="21"/>
       <c r="I627" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="J627" s="2"/>
       <c r="K627" s="50" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="628" hidden="1" spans="1:11">
@@ -56620,7 +56634,7 @@
         <v>291</v>
       </c>
       <c r="D628" s="26" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>404</v>
@@ -56633,11 +56647,11 @@
       </c>
       <c r="H628" s="21"/>
       <c r="I628" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J628" s="2"/>
       <c r="K628" s="18" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="629" hidden="1" spans="1:11">
@@ -56651,7 +56665,7 @@
         <v>291</v>
       </c>
       <c r="D629" s="26" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>404</v>
@@ -56664,11 +56678,11 @@
       </c>
       <c r="H629" s="21"/>
       <c r="I629" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J629" s="2"/>
       <c r="K629" s="18" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="630" hidden="1" spans="1:11">
@@ -56682,7 +56696,7 @@
         <v>291</v>
       </c>
       <c r="D630" s="26" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>404</v>
@@ -56695,11 +56709,11 @@
       </c>
       <c r="H630" s="21"/>
       <c r="I630" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J630" s="2"/>
       <c r="K630" s="18" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="631" hidden="1" spans="1:11">
@@ -56713,7 +56727,7 @@
         <v>486</v>
       </c>
       <c r="D631" s="26" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>404</v>
@@ -56726,11 +56740,11 @@
       </c>
       <c r="H631" s="21"/>
       <c r="I631" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J631" s="2"/>
       <c r="K631" s="18" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="632" hidden="1" spans="1:11">
@@ -56744,7 +56758,7 @@
         <v>486</v>
       </c>
       <c r="D632" s="26" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>404</v>
@@ -56757,11 +56771,11 @@
       </c>
       <c r="H632" s="21"/>
       <c r="I632" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J632" s="2"/>
       <c r="K632" s="18" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="633" hidden="1" spans="1:11">
@@ -56775,7 +56789,7 @@
         <v>486</v>
       </c>
       <c r="D633" s="26" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>404</v>
@@ -56788,11 +56802,11 @@
       </c>
       <c r="H633" s="21"/>
       <c r="I633" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="18" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="634" ht="16.5" hidden="1" spans="1:11">
@@ -56806,7 +56820,7 @@
         <v>488</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>404</v>
@@ -56819,11 +56833,11 @@
       </c>
       <c r="H634" s="21"/>
       <c r="I634" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J634" s="2"/>
       <c r="K634" s="16" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="635" hidden="1" spans="1:11">
@@ -56837,7 +56851,7 @@
         <v>488</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>404</v>
@@ -56850,11 +56864,11 @@
       </c>
       <c r="H635" s="21"/>
       <c r="I635" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="18" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="636" hidden="1" spans="1:11">
@@ -56868,7 +56882,7 @@
         <v>488</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>404</v>
@@ -56881,11 +56895,11 @@
       </c>
       <c r="H636" s="21"/>
       <c r="I636" s="3" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="18" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="637" hidden="1" spans="1:11">
@@ -56899,7 +56913,7 @@
         <v>490</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>404</v>
@@ -56916,7 +56930,7 @@
       </c>
       <c r="J637" s="2"/>
       <c r="K637" s="18" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="638" hidden="1" spans="1:11">
@@ -56930,7 +56944,7 @@
         <v>490</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>404</v>
@@ -56947,7 +56961,7 @@
       </c>
       <c r="J638" s="2"/>
       <c r="K638" s="18" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="639" hidden="1" spans="1:11">
@@ -56961,7 +56975,7 @@
         <v>490</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>404</v>
@@ -56974,11 +56988,11 @@
       </c>
       <c r="H639" s="21"/>
       <c r="I639" s="3" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="J639" s="2"/>
       <c r="K639" s="18" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="640" hidden="1" spans="1:11">
@@ -56992,7 +57006,7 @@
         <v>492</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>404</v>
@@ -57005,11 +57019,11 @@
       </c>
       <c r="H640" s="21"/>
       <c r="I640" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J640" s="2"/>
       <c r="K640" s="18" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="641" hidden="1" spans="1:11">
@@ -57023,7 +57037,7 @@
         <v>492</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>404</v>
@@ -57036,11 +57050,11 @@
       </c>
       <c r="H641" s="21"/>
       <c r="I641" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="J641" s="2"/>
       <c r="K641" s="18" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="642" hidden="1" spans="1:11">
@@ -57054,7 +57068,7 @@
         <v>492</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>404</v>
@@ -57067,11 +57081,11 @@
       </c>
       <c r="H642" s="21"/>
       <c r="I642" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="J642" s="2"/>
       <c r="K642" s="18" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="643" hidden="1" spans="1:11">
@@ -57085,7 +57099,7 @@
         <v>494</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>404</v>
@@ -57098,11 +57112,11 @@
       </c>
       <c r="H643" s="21"/>
       <c r="I643" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J643" s="2"/>
       <c r="K643" s="18" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="644" hidden="1" spans="1:11">
@@ -57116,7 +57130,7 @@
         <v>494</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>404</v>
@@ -57129,11 +57143,11 @@
       </c>
       <c r="H644" s="21"/>
       <c r="I644" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J644" s="2"/>
       <c r="K644" s="18" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="645" hidden="1" spans="1:11">
@@ -57147,7 +57161,7 @@
         <v>494</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>404</v>
@@ -57160,11 +57174,11 @@
       </c>
       <c r="H645" s="21"/>
       <c r="I645" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="J645" s="2"/>
       <c r="K645" s="18" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="646" hidden="1" spans="1:11">
@@ -57178,7 +57192,7 @@
         <v>496</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>404</v>
@@ -57195,7 +57209,7 @@
       </c>
       <c r="J646" s="2"/>
       <c r="K646" s="18" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="647" hidden="1" spans="1:11">
@@ -57209,7 +57223,7 @@
         <v>496</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>404</v>
@@ -57222,11 +57236,11 @@
       </c>
       <c r="H647" s="21"/>
       <c r="I647" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J647" s="2"/>
       <c r="K647" s="18" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="648" ht="16.5" hidden="1" spans="1:11">
@@ -57240,7 +57254,7 @@
         <v>496</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>404</v>
@@ -57253,11 +57267,11 @@
       </c>
       <c r="H648" s="24"/>
       <c r="I648" s="3" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="J648" s="2"/>
       <c r="K648" s="50" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
   </sheetData>
@@ -57271,6 +57285,7 @@
         <filter val="地址变动，未更新"/>
         <filter val="标题未爬取，未更新"/>
         <filter val="部分时间未爬取到"/>
+        <filter val="链接错误，无新地址"/>
         <filter val="标题未爬取完整"/>
         <filter val="2020数据未爬取"/>
         <filter val="地址换了"/>
@@ -57354,6 +57369,9 @@
     <hyperlink ref="K453" r:id="rId47" display="http://www.shandong.gov.cn/col/col2262/index.html"/>
     <hyperlink ref="K57" r:id="rId48" display="http://guiyang.customs.gov.cn/guiyang_customs/549798/549800/index.html"/>
     <hyperlink ref="K67" r:id="rId49" display="http://kunming.customs.gov.cn/kunming_customs/611308/611314/611316/index.html" tooltip="http://kunming.customs.gov.cn/kunming_customs/611308/611314/611316/index.html"/>
+    <hyperlink ref="K507" r:id="rId50" display="http://www.chinaisa.org.cn/gxportal/xfgl/portal/list.html?columnId=c42511ce3f868a515b49668dd250290c80d4dc8930c7e455d0e6e14b8033eae2" tooltip="http://www.chinaisa.org.cn/gxportal/xfgl/portal/list.html?columnId=c42511ce3f868a515b49668dd250290c80d4dc8930c7e455d0e6e14b8033eae2"/>
+    <hyperlink ref="K509" r:id="rId51" display="http://www.chinaisa.org.cn/gxportal/xfgl/portal/list.html?columnId=1b4316d9238e09c735365896c8e4f677a3234e8363e5622ae6e79a5900a76f56" tooltip="http://www.chinaisa.org.cn/gxportal/xfgl/portal/list.html?columnId=1b4316d9238e09c735365896c8e4f677a3234e8363e5622ae6e79a5900a76f56"/>
+    <hyperlink ref="K511" r:id="rId52" display="http://www.coalchina.org.cn/index.php?m=content&amp;c=index&amp;a=lists&amp;catid=67" tooltip="http://www.coalchina.org.cn/index.php?m=content&amp;c=index&amp;a=lists&amp;catid=67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -57379,7 +57397,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -57390,7 +57408,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -57401,7 +57419,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -57412,7 +57430,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -57423,7 +57441,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -57434,7 +57452,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -57445,18 +57463,18 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -57467,7 +57485,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -57478,7 +57496,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -57489,18 +57507,18 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B12" s="4">
         <v>15</v>
@@ -57511,7 +57529,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -57522,7 +57540,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -57533,18 +57551,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -57555,7 +57573,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -57566,18 +57584,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -57588,18 +57606,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B20" s="4">
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -57610,7 +57628,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -57621,7 +57639,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -57632,7 +57650,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -57643,7 +57661,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -57654,13 +57672,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B26">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -57730,22 +57748,22 @@
         <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -57853,7 +57871,7 @@
         <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -57982,7 +58000,7 @@
         <v>381</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58118,7 +58136,7 @@
         <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="C11" t="s">
         <v>401</v>
@@ -58175,7 +58193,7 @@
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
@@ -58322,10 +58340,10 @@
         <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="D2" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -58448,91 +58466,91 @@
         <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="D17" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="E17" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="F17" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="G17" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="H17" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="I17" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="J17" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="K17" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="L17" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="M17" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="N17" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="O17" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="P17" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="Q17" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="R17" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="S17" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="T17" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="U17" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="V17" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="W17" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="X17" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="Y17" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="Z17" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="AA17" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="AB17" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="AC17" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="AD17" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="AE17" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -58543,7 +58561,7 @@
         <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -58559,61 +58577,61 @@
         <v>810</v>
       </c>
       <c r="C20" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D20" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="E20" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="F20" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="G20" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="H20" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="I20" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="J20" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="K20" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="L20" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="M20" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N20" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="O20" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="P20" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="Q20" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="R20" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="S20" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="T20" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="U20" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -58624,103 +58642,103 @@
         <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D21" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="E21" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="F21" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="G21" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="H21" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="I21" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="J21" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="K21" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="L21" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="M21" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="N21" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="O21" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="P21" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="Q21" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="R21" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="S21" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="T21" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="U21" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="V21" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="W21" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="X21" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="Y21" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="Z21" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="AA21" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="AB21" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="AC21" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="AD21" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="AE21" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="AF21" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="AG21" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="AH21" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="AI21" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -58787,16 +58805,16 @@
         <v>741</v>
       </c>
       <c r="C29" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="D29" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="E29" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="F29" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -58836,7 +58854,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -58847,88 +58865,88 @@
         <v>551</v>
       </c>
       <c r="C35" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="D35" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="E35" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="F35" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="G35" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="H35" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="I35" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="J35" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="K35" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="L35" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="M35" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="N35" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="O35" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="P35" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="Q35" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="R35" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="S35" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="T35" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="U35" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="V35" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="W35" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="X35" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="Y35" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="Z35" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="AA35" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="AB35" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="AC35" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="AD35" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -58939,28 +58957,28 @@
         <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="D36" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="E36" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="F36" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="G36" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="H36" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="I36" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="J36" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -58971,31 +58989,31 @@
         <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="D37" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="E37" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="F37" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="G37" t="s">
+        <v>2170</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2168</v>
+      </c>
+      <c r="K37" t="s">
         <v>2169</v>
-      </c>
-      <c r="H37" t="s">
-        <v>2165</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2167</v>
-      </c>
-      <c r="K37" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -59006,37 +59024,37 @@
         <v>613</v>
       </c>
       <c r="C38" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="D38" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="E38" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="F38" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="G38" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="H38" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="I38" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="J38" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="K38" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="L38" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="M38" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -59047,19 +59065,19 @@
         <v>637</v>
       </c>
       <c r="C39" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="D39" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="E39" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="F39" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="G39" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -59070,100 +59088,100 @@
         <v>888</v>
       </c>
       <c r="C40" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="D40" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="E40" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="F40" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="G40" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="H40" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="I40" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="J40" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="K40" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="L40" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="M40" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="N40" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="O40" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="P40" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="Q40" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="R40" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="S40" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="T40" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="U40" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="V40" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="W40" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="X40" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="Y40" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="Z40" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="AA40" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="AB40" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="AC40" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="AD40" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="AE40" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="AF40" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="AG40" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="AH40" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -59174,31 +59192,31 @@
         <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="D41" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E41" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="F41" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="G41" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="H41" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="I41" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="J41" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="K41" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -59214,31 +59232,31 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="D43" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E43" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="F43" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="G43" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="H43" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="I43" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="J43" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="K43" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -59257,88 +59275,88 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="D45" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="E45" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="F45" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="G45" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="H45" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="I45" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="J45" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="K45" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="L45" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="M45" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="N45" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="O45" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="P45" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="Q45" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="R45" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="S45" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="T45" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="U45" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="V45" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="W45" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="X45" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="Y45" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="Z45" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="AA45" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="AB45" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="AC45" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="AD45" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -59349,13 +59367,13 @@
         <v>724</v>
       </c>
       <c r="C46" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="D46" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="E46" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -59366,103 +59384,103 @@
         <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="D47" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="E47" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="F47" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="G47" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="H47" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="I47" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="J47" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="K47" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="L47" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="M47" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="N47" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="O47" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="P47" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="Q47" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="R47" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="S47" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="T47" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="U47" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="V47" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="W47" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="X47" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="Y47" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="Z47" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="AA47" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="AB47" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="AC47" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="AD47" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="AE47" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="AF47" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="AG47" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="AH47" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="AI47" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -59473,67 +59491,67 @@
         <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="D48" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="E48" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="F48" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="G48" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="H48" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="I48" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="J48" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="K48" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="L48" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="M48" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="N48" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="O48" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="P48" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="Q48" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="R48" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="S48" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="T48" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="U48" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="V48" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="W48" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -59544,100 +59562,100 @@
         <v>888</v>
       </c>
       <c r="C49" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="D49" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="E49" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="F49" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="G49" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="H49" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="I49" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="J49" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="K49" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="L49" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="M49" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="N49" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="O49" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="P49" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="Q49" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="R49" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="S49" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="T49" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="U49" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="V49" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="W49" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="X49" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="Y49" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="Z49" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="AA49" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="AB49" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="AC49" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="AD49" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="AE49" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="AF49" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="AG49" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="AH49" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -59653,19 +59671,19 @@
         <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="D51" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="E51" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="F51" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="G51" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -59676,70 +59694,70 @@
         <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="D52" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="E52" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="F52" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="G52" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="H52" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="I52" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="J52" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="K52" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="L52" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="M52" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="N52" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="O52" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="P52" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="Q52" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="R52" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="S52" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="T52" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="U52" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="V52" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="W52" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="X52" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -59750,40 +59768,40 @@
         <v>662</v>
       </c>
       <c r="C53" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="D53" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="E53" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="F53" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="G53" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="H53" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="I53" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="J53" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="K53" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="L53" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="M53" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="N53" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -59810,28 +59828,28 @@
         <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="D56" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="E56" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="F56" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="G56" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="H56" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="I56" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="J56" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -59847,94 +59865,94 @@
         <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="D58" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="E58" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="F58" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="G58" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="H58" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="I58" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="J58" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="K58" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="L58" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="M58" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="N58" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="O58" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="P58" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="Q58" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="R58" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="S58" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="T58" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="U58" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="V58" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="W58" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="X58" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="Y58" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="Z58" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="AA58" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="AB58" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="AC58" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="AD58" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="AE58" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="AF58" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="59" spans="1:55">
@@ -59942,267 +59960,267 @@
         <v>988</v>
       </c>
       <c r="B59" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="C59" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="D59" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="E59" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="F59" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="G59" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="H59" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="I59" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="J59" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="K59" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="L59" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="M59" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="N59" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="O59" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="P59" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="Q59" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="R59" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="S59" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="T59" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="U59" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="V59" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="W59" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="X59" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="Y59" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="Z59" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="AA59" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="AB59" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="AC59" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="AD59" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="AE59" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="AF59" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="AG59" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="AH59" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="AI59" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="AJ59" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="AK59" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="AL59" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="AM59" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AN59" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AO59" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AP59" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="AQ59" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AR59" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="AS59" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="AT59" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="AU59" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="AV59" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="AW59" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="AX59" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="AY59" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="AZ59" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="BA59" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="BB59" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="BC59" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B60" t="s">
         <v>888</v>
       </c>
       <c r="C60" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="D60" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="E60" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="F60" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="G60" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="H60" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="I60" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="J60" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="K60" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="L60" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="M60" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="N60" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="O60" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="P60" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="Q60" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="R60" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="S60" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="T60" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="U60" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="V60" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="W60" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="X60" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="Y60" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="Z60" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="AA60" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="AB60" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="AC60" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="AD60" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="AE60" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="AF60" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="AG60" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -60229,82 +60247,82 @@
         <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="D63" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="E63" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="F63" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="G63" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="H63" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="I63" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="J63" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="K63" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="L63" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="M63" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="N63" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="O63" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="P63" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="Q63" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="R63" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="S63" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="T63" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="U63" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="V63" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="W63" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="X63" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="Y63" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="Z63" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="AA63" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="AB63" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -60323,58 +60341,58 @@
         <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="D65" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="E65" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="F65" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="G65" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="H65" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="I65" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="J65" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="K65" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="L65" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="M65" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="N65" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="O65" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="P65" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="Q65" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="R65" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="S65" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="T65" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -60382,88 +60400,88 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="C66" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="D66" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="E66" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="F66" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="G66" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="H66" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="I66" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="J66" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="K66" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="L66" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="M66" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="N66" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="O66" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="P66" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="Q66" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="R66" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="S66" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="T66" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="U66" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="V66" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="W66" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="X66" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="Y66" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="Z66" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="AA66" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="AB66" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="AC66" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -60474,127 +60492,127 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="D67" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="E67" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="F67" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="G67" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="H67" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I67" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="J67" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="K67" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="L67" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="M67" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="N67" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="O67" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="P67" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="Q67" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="R67" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="S67" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="T67" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="U67" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="V67" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="W67" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="X67" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="Y67" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="Z67" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="AA67" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="AB67" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="AC67" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="AD67" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="AE67" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="AF67" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="AG67" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="AH67" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="AI67" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="AJ67" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="AK67" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="AL67" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="AM67" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="AN67" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="AO67" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="AP67" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="AQ67" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -60605,7 +60623,7 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -60656,87 +60674,87 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
     </row>
   </sheetData>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7100" uniqueCount="2486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7107" uniqueCount="2488">
   <si>
     <t>服务器</t>
   </si>
@@ -5524,6 +5524,9 @@
     <t>http://www.caoe.org.cn/nr/list.aspx?itemid=211</t>
   </si>
   <si>
+    <t>未修改（代码没问题，检查下是否调用的问题）（20200816）</t>
+  </si>
+  <si>
     <t>http://feature.mei.net.cn/meilist.asp</t>
   </si>
   <si>
@@ -5585,7 +5588,7 @@
     <t>链接错误，无新地址</t>
   </si>
   <si>
-    <t>未修改（网站数据未更新，无需修改）</t>
+    <t>未修改（网站数据未更新，无需修改）（20200809）</t>
   </si>
   <si>
     <t>江苏省新材料产业协会-新闻</t>
@@ -5646,6 +5649,9 @@
   </si>
   <si>
     <t>数据采集不正确</t>
+  </si>
+  <si>
+    <t>未修改（没发现问题）（20200816）</t>
   </si>
   <si>
     <t>http://www.xclcy.com/info/list.php?catid=2374</t>
@@ -21488,19 +21494,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J144" sqref="J144"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H651" sqref="H651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9.85" customWidth="1"/>
-    <col min="4" max="4" width="11.3166666666667" customWidth="1"/>
+    <col min="4" max="4" width="21.1666666666667" customWidth="1"/>
     <col min="6" max="6" width="7.88333333333333" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="34.55" customWidth="1"/>
-    <col min="9" max="9" width="26.4666666666667" customWidth="1"/>
-    <col min="10" max="10" width="37.3416666666667" customWidth="1"/>
+    <col min="9" max="9" width="22.6416666666667" customWidth="1"/>
+    <col min="10" max="10" width="51.025" customWidth="1"/>
     <col min="11" max="11" width="42.7916666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34097,7 +34103,7 @@
         <v>1648</v>
       </c>
       <c r="J421" s="2" t="s">
-        <v>1245</v>
+        <v>1168</v>
       </c>
       <c r="K421" s="18" t="s">
         <v>1649</v>
@@ -34232,7 +34238,7 @@
         <v>1648</v>
       </c>
       <c r="J426" s="2" t="s">
-        <v>1245</v>
+        <v>1168</v>
       </c>
       <c r="K426" s="28" t="s">
         <v>1655</v>
@@ -34263,7 +34269,7 @@
         <v>1648</v>
       </c>
       <c r="J427" s="2" t="s">
-        <v>1245</v>
+        <v>1168</v>
       </c>
       <c r="K427" s="18" t="s">
         <v>1656</v>
@@ -51368,7 +51374,7 @@
         <v>1690</v>
       </c>
       <c r="J453" s="2" t="s">
-        <v>1245</v>
+        <v>1168</v>
       </c>
       <c r="K453" s="19" t="s">
         <v>1691</v>
@@ -51793,7 +51799,7 @@
         <v>1714</v>
       </c>
       <c r="J468" s="2" t="s">
-        <v>1245</v>
+        <v>1168</v>
       </c>
       <c r="K468" s="18" t="s">
         <v>1715</v>
@@ -52909,7 +52915,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:11">
+    <row r="505" spans="1:11">
       <c r="A505" s="2">
         <v>154</v>
       </c>
@@ -52933,12 +52939,14 @@
       <c r="I505" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="J505" s="2"/>
-      <c r="K505" s="2" t="s">
+      <c r="J505" s="2" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="506" hidden="1" spans="1:11">
+      <c r="K505" s="14" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11">
       <c r="A506" s="2">
         <v>154</v>
       </c>
@@ -52962,9 +52970,11 @@
       <c r="I506" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="J506" s="2"/>
-      <c r="K506" s="2" t="s">
-        <v>1764</v>
+      <c r="J506" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K506" s="14" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="507" spans="1:11">
@@ -52995,7 +53005,7 @@
         <v>1168</v>
       </c>
       <c r="K507" s="14" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="508" spans="1:11">
@@ -53026,7 +53036,7 @@
         <v>1168</v>
       </c>
       <c r="K508" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="509" spans="1:11">
@@ -53057,7 +53067,7 @@
         <v>1168</v>
       </c>
       <c r="K509" s="14" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="510" hidden="1" spans="1:11">
@@ -53082,11 +53092,11 @@
       <c r="G510" s="2"/>
       <c r="H510" s="21"/>
       <c r="I510" s="3" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="511" spans="1:11">
@@ -53117,10 +53127,10 @@
         <v>1168</v>
       </c>
       <c r="K511" s="14" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="512" hidden="1" spans="1:11">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11">
       <c r="A512" s="2">
         <v>154</v>
       </c>
@@ -53144,9 +53154,11 @@
       <c r="I512" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="J512" s="2"/>
-      <c r="K512" s="3" t="s">
-        <v>1771</v>
+      <c r="J512" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K512" s="14" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="513" hidden="1" spans="1:11">
@@ -53154,7 +53166,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="3" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>198</v>
@@ -53169,7 +53181,7 @@
       </c>
       <c r="J513" s="2"/>
       <c r="K513" s="2" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="514" hidden="1" spans="1:11">
@@ -53177,7 +53189,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="3" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>198</v>
@@ -53192,7 +53204,7 @@
       </c>
       <c r="J514" s="2"/>
       <c r="K514" s="2" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="515" spans="1:11">
@@ -53217,10 +53229,10 @@
       <c r="G515" s="2"/>
       <c r="H515" s="21"/>
       <c r="I515" s="3" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="J515" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="K515" s="2"/>
     </row>
@@ -53235,7 +53247,7 @@
         <v>285</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -53246,11 +53258,11 @@
       <c r="G516" s="2"/>
       <c r="H516" s="21"/>
       <c r="I516" s="48" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="517" hidden="1" spans="1:11">
@@ -53258,7 +53270,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="3" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>198</v>
@@ -53269,11 +53281,11 @@
       <c r="G517" s="2"/>
       <c r="H517" s="21"/>
       <c r="I517" s="48" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="518" hidden="1" spans="1:11">
@@ -53356,14 +53368,14 @@
       <c r="G520" s="2"/>
       <c r="H520" s="21"/>
       <c r="I520" s="48" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="J520" s="2"/>
       <c r="K520" s="2" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:11">
+    <row r="521" spans="1:11">
       <c r="A521" s="2">
         <v>154</v>
       </c>
@@ -53387,8 +53399,10 @@
       <c r="I521" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="J521" s="2"/>
-      <c r="K521" s="3" t="s">
+      <c r="J521" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K521" s="14" t="s">
         <v>1749</v>
       </c>
     </row>
@@ -53501,11 +53515,11 @@
       <c r="G525" s="2"/>
       <c r="H525" s="21"/>
       <c r="I525" s="3" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="J525" s="2"/>
       <c r="K525" s="2" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="526" hidden="1" spans="1:11">
@@ -53519,7 +53533,7 @@
         <v>295</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>198</v>
@@ -53530,11 +53544,11 @@
       <c r="G526" s="2"/>
       <c r="H526" s="21"/>
       <c r="I526" s="3" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="J526" s="2"/>
       <c r="K526" s="48" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="527" hidden="1" spans="1:11">
@@ -53566,7 +53580,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:11">
+    <row r="528" spans="1:11">
       <c r="A528" s="2">
         <v>154</v>
       </c>
@@ -53590,12 +53604,14 @@
       <c r="I528" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="J528" s="2"/>
+      <c r="J528" s="2" t="s">
+        <v>1763</v>
+      </c>
       <c r="K528" s="2" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="529" hidden="1" spans="1:11">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11">
       <c r="A529" s="2">
         <v>154</v>
       </c>
@@ -53617,11 +53633,13 @@
       <c r="G529" s="2"/>
       <c r="H529" s="21"/>
       <c r="I529" s="2" t="s">
-        <v>1790</v>
-      </c>
-      <c r="J529" s="2"/>
-      <c r="K529" s="2" t="s">
         <v>1791</v>
+      </c>
+      <c r="J529" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K529" s="14" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="530" hidden="1" spans="1:11">
@@ -53635,7 +53653,7 @@
         <v>300</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>198</v>
@@ -53646,11 +53664,11 @@
       <c r="G530" s="2"/>
       <c r="H530" s="21"/>
       <c r="I530" s="2" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="J530" s="2"/>
       <c r="K530" s="2" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="531" hidden="1" spans="1:11">
@@ -53658,7 +53676,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>198</v>
@@ -53671,10 +53689,10 @@
       </c>
       <c r="J531" s="2"/>
       <c r="K531" s="2" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="532" hidden="1" spans="1:11">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11">
       <c r="A532" s="2">
         <v>154</v>
       </c>
@@ -53696,11 +53714,13 @@
       <c r="G532" s="2"/>
       <c r="H532" s="21"/>
       <c r="I532" s="3" t="s">
-        <v>1797</v>
-      </c>
-      <c r="J532" s="2"/>
-      <c r="K532" s="2" t="s">
         <v>1798</v>
+      </c>
+      <c r="J532" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K532" s="14" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="533" hidden="1" spans="1:11">
@@ -53725,11 +53745,11 @@
       <c r="G533" s="2"/>
       <c r="H533" s="24"/>
       <c r="I533" s="3" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="J533" s="2"/>
       <c r="K533" s="2" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="534" hidden="1" spans="1:11">
@@ -53755,10 +53775,10 @@
         <v>1</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
@@ -53786,10 +53806,10 @@
         <v>1</v>
       </c>
       <c r="H535" s="2" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="I535" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
@@ -53817,10 +53837,10 @@
         <v>1</v>
       </c>
       <c r="H536" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I536" s="3" t="s">
         <v>1804</v>
-      </c>
-      <c r="I536" s="3" t="s">
-        <v>1802</v>
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
@@ -53848,10 +53868,10 @@
         <v>1</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -53879,10 +53899,10 @@
         <v>1</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
@@ -53910,10 +53930,10 @@
         <v>1</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
@@ -53941,10 +53961,10 @@
         <v>1</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
@@ -53972,10 +53992,10 @@
         <v>1</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
@@ -54003,10 +54023,10 @@
         <v>1</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
@@ -54034,10 +54054,10 @@
         <v>1</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
@@ -54065,10 +54085,10 @@
         <v>1</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
@@ -54096,10 +54116,10 @@
         <v>1</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
@@ -54127,10 +54147,10 @@
         <v>1</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
@@ -54158,10 +54178,10 @@
         <v>1</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
@@ -54189,10 +54209,10 @@
         <v>1</v>
       </c>
       <c r="H548" s="3" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
@@ -54220,10 +54240,10 @@
         <v>1</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
@@ -54251,10 +54271,10 @@
         <v>1</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
@@ -54282,10 +54302,10 @@
         <v>1</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
@@ -54313,10 +54333,10 @@
         <v>1</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -54344,10 +54364,10 @@
         <v>1</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
@@ -54375,10 +54395,10 @@
         <v>1</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
@@ -54394,7 +54414,7 @@
         <v>438</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>404</v>
@@ -54406,14 +54426,14 @@
         <v>1</v>
       </c>
       <c r="H555" s="20" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="18" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="556" hidden="1" spans="1:11">
@@ -54427,7 +54447,7 @@
         <v>438</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>404</v>
@@ -54440,11 +54460,11 @@
       </c>
       <c r="H556" s="21"/>
       <c r="I556" s="2" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J556" s="2"/>
       <c r="K556" s="18" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="557" hidden="1" spans="1:11">
@@ -54458,7 +54478,7 @@
         <v>438</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>404</v>
@@ -54471,11 +54491,11 @@
       </c>
       <c r="H557" s="21"/>
       <c r="I557" s="2" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="18" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="558" hidden="1" spans="1:11">
@@ -54489,7 +54509,7 @@
         <v>440</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>404</v>
@@ -54502,11 +54522,11 @@
       </c>
       <c r="H558" s="21"/>
       <c r="I558" s="2" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="J558" s="2"/>
       <c r="K558" s="18" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="559" hidden="1" spans="1:11">
@@ -54520,7 +54540,7 @@
         <v>440</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>404</v>
@@ -54533,11 +54553,11 @@
       </c>
       <c r="H559" s="21"/>
       <c r="I559" s="2" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="18" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="560" hidden="1" spans="1:11">
@@ -54551,7 +54571,7 @@
         <v>440</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>404</v>
@@ -54564,11 +54584,11 @@
       </c>
       <c r="H560" s="21"/>
       <c r="I560" s="2" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="J560" s="2"/>
       <c r="K560" s="18" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="561" hidden="1" spans="1:11">
@@ -54582,7 +54602,7 @@
         <v>442</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>404</v>
@@ -54595,11 +54615,11 @@
       </c>
       <c r="H561" s="21"/>
       <c r="I561" s="2" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="18" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="562" hidden="1" spans="1:11">
@@ -54613,7 +54633,7 @@
         <v>442</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>404</v>
@@ -54626,11 +54646,11 @@
       </c>
       <c r="H562" s="21"/>
       <c r="I562" s="2" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="18" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="563" hidden="1" spans="1:11">
@@ -54644,7 +54664,7 @@
         <v>442</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>404</v>
@@ -54657,11 +54677,11 @@
       </c>
       <c r="H563" s="21"/>
       <c r="I563" s="2" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J563" s="2"/>
       <c r="K563" s="18" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="564" hidden="1" spans="1:11">
@@ -54675,7 +54695,7 @@
         <v>444</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>404</v>
@@ -54688,11 +54708,11 @@
       </c>
       <c r="H564" s="21"/>
       <c r="I564" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="18" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="565" hidden="1" spans="1:11">
@@ -54706,7 +54726,7 @@
         <v>444</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>404</v>
@@ -54723,7 +54743,7 @@
       </c>
       <c r="J565" s="2"/>
       <c r="K565" s="18" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="566" hidden="1" spans="1:11">
@@ -54737,7 +54757,7 @@
         <v>444</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>404</v>
@@ -54754,7 +54774,7 @@
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="18" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="567" hidden="1" spans="1:11">
@@ -54768,7 +54788,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>404</v>
@@ -54785,7 +54805,7 @@
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="18" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="568" hidden="1" spans="1:11">
@@ -54799,7 +54819,7 @@
         <v>446</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>404</v>
@@ -54812,11 +54832,11 @@
       </c>
       <c r="H568" s="21"/>
       <c r="I568" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J568" s="2"/>
       <c r="K568" s="18" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="569" ht="16.5" hidden="1" spans="1:11">
@@ -54830,7 +54850,7 @@
         <v>446</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>404</v>
@@ -54847,7 +54867,7 @@
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="50" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="570" hidden="1" spans="1:11">
@@ -54861,7 +54881,7 @@
         <v>448</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>404</v>
@@ -54878,7 +54898,7 @@
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="18" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="571" hidden="1" spans="1:11">
@@ -54892,7 +54912,7 @@
         <v>448</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>404</v>
@@ -54909,7 +54929,7 @@
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="18" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="572" hidden="1" spans="1:11">
@@ -54923,7 +54943,7 @@
         <v>448</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>404</v>
@@ -54936,11 +54956,11 @@
       </c>
       <c r="H572" s="21"/>
       <c r="I572" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="18" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="573" hidden="1" spans="1:11">
@@ -54954,7 +54974,7 @@
         <v>434</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>404</v>
@@ -54971,7 +54991,7 @@
       </c>
       <c r="J573" s="2"/>
       <c r="K573" s="18" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="574" hidden="1" spans="1:11">
@@ -54985,7 +55005,7 @@
         <v>434</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>404</v>
@@ -55002,7 +55022,7 @@
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="18" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="575" hidden="1" spans="1:11">
@@ -55016,7 +55036,7 @@
         <v>434</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>404</v>
@@ -55033,7 +55053,7 @@
       </c>
       <c r="J575" s="2"/>
       <c r="K575" s="18" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="576" ht="16.5" hidden="1" spans="1:11">
@@ -55047,7 +55067,7 @@
         <v>434</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>404</v>
@@ -55064,7 +55084,7 @@
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="50" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="577" hidden="1" spans="1:11">
@@ -55078,7 +55098,7 @@
         <v>451</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>404</v>
@@ -55095,7 +55115,7 @@
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="18" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="578" hidden="1" spans="1:11">
@@ -55109,7 +55129,7 @@
         <v>451</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>404</v>
@@ -55122,11 +55142,11 @@
       </c>
       <c r="H578" s="21"/>
       <c r="I578" s="3" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J578" s="2"/>
       <c r="K578" s="45" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="579" hidden="1" spans="1:11">
@@ -55140,7 +55160,7 @@
         <v>451</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>404</v>
@@ -55157,7 +55177,7 @@
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="45" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="580" hidden="1" spans="1:11">
@@ -55171,7 +55191,7 @@
         <v>453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>404</v>
@@ -55184,11 +55204,11 @@
       </c>
       <c r="H580" s="21"/>
       <c r="I580" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="18" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="581" hidden="1" spans="1:11">
@@ -55202,7 +55222,7 @@
         <v>453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>404</v>
@@ -55215,11 +55235,11 @@
       </c>
       <c r="H581" s="21"/>
       <c r="I581" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="18" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="582" ht="16.5" hidden="1" spans="1:11">
@@ -55233,7 +55253,7 @@
         <v>453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>404</v>
@@ -55246,11 +55266,11 @@
       </c>
       <c r="H582" s="21"/>
       <c r="I582" s="3" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="50" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="583" hidden="1" spans="1:11">
@@ -55264,7 +55284,7 @@
         <v>455</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>404</v>
@@ -55281,7 +55301,7 @@
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="18" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="584" hidden="1" spans="1:11">
@@ -55295,7 +55315,7 @@
         <v>455</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>404</v>
@@ -55312,7 +55332,7 @@
       </c>
       <c r="J584" s="2"/>
       <c r="K584" s="18" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="585" hidden="1" spans="1:11">
@@ -55326,7 +55346,7 @@
         <v>455</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>404</v>
@@ -55339,11 +55359,11 @@
       </c>
       <c r="H585" s="21"/>
       <c r="I585" s="3" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="18" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="586" hidden="1" spans="1:11">
@@ -55357,7 +55377,7 @@
         <v>455</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>404</v>
@@ -55370,11 +55390,11 @@
       </c>
       <c r="H586" s="21"/>
       <c r="I586" s="3" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="J586" s="2"/>
       <c r="K586" s="18" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="587" hidden="1" spans="1:11">
@@ -55388,7 +55408,7 @@
         <v>457</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>404</v>
@@ -55401,11 +55421,11 @@
       </c>
       <c r="H587" s="21"/>
       <c r="I587" s="3" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="45" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="588" hidden="1" spans="1:11">
@@ -55419,7 +55439,7 @@
         <v>457</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>404</v>
@@ -55432,11 +55452,11 @@
       </c>
       <c r="H588" s="21"/>
       <c r="I588" s="3" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="18" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="589" hidden="1" spans="1:11">
@@ -55450,7 +55470,7 @@
         <v>459</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>404</v>
@@ -55463,11 +55483,11 @@
       </c>
       <c r="H589" s="21"/>
       <c r="I589" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J589" s="2"/>
       <c r="K589" s="18" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="590" hidden="1" spans="1:11">
@@ -55481,7 +55501,7 @@
         <v>459</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>404</v>
@@ -55494,11 +55514,11 @@
       </c>
       <c r="H590" s="21"/>
       <c r="I590" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="18" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="591" hidden="1" spans="1:11">
@@ -55512,7 +55532,7 @@
         <v>459</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>404</v>
@@ -55525,11 +55545,11 @@
       </c>
       <c r="H591" s="21"/>
       <c r="I591" s="3" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="J591" s="2"/>
       <c r="K591" s="18" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="592" hidden="1" spans="1:11">
@@ -55543,7 +55563,7 @@
         <v>461</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>404</v>
@@ -55556,11 +55576,11 @@
       </c>
       <c r="H592" s="21"/>
       <c r="I592" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="18" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="593" hidden="1" spans="1:11">
@@ -55574,7 +55594,7 @@
         <v>461</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>404</v>
@@ -55587,11 +55607,11 @@
       </c>
       <c r="H593" s="21"/>
       <c r="I593" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="18" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="594" hidden="1" spans="1:11">
@@ -55605,7 +55625,7 @@
         <v>461</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>404</v>
@@ -55618,11 +55638,11 @@
       </c>
       <c r="H594" s="21"/>
       <c r="I594" s="3" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="J594" s="2"/>
       <c r="K594" s="18" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="595" hidden="1" spans="1:11">
@@ -55636,7 +55656,7 @@
         <v>463</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>404</v>
@@ -55653,7 +55673,7 @@
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="18" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="596" hidden="1" spans="1:11">
@@ -55667,7 +55687,7 @@
         <v>463</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>404</v>
@@ -55684,7 +55704,7 @@
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="18" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="597" hidden="1" spans="1:11">
@@ -55698,7 +55718,7 @@
         <v>463</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>404</v>
@@ -55715,7 +55735,7 @@
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="18" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="598" hidden="1" spans="1:11">
@@ -55729,7 +55749,7 @@
         <v>465</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>404</v>
@@ -55742,11 +55762,11 @@
       </c>
       <c r="H598" s="21"/>
       <c r="I598" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="18" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="599" hidden="1" spans="1:11">
@@ -55760,7 +55780,7 @@
         <v>465</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>404</v>
@@ -55773,11 +55793,11 @@
       </c>
       <c r="H599" s="21"/>
       <c r="I599" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="18" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="600" ht="16.5" hidden="1" spans="1:11">
@@ -55791,7 +55811,7 @@
         <v>465</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>404</v>
@@ -55804,11 +55824,11 @@
       </c>
       <c r="H600" s="21"/>
       <c r="I600" s="3" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="J600" s="2"/>
       <c r="K600" s="50" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="601" hidden="1" spans="1:11">
@@ -55822,7 +55842,7 @@
         <v>467</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>404</v>
@@ -55839,7 +55859,7 @@
       </c>
       <c r="J601" s="2"/>
       <c r="K601" s="18" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="602" hidden="1" spans="1:11">
@@ -55853,7 +55873,7 @@
         <v>467</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>404</v>
@@ -55866,11 +55886,11 @@
       </c>
       <c r="H602" s="21"/>
       <c r="I602" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J602" s="2"/>
       <c r="K602" s="18" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="603" hidden="1" spans="1:11">
@@ -55878,7 +55898,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="3" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>404</v>
@@ -55891,11 +55911,11 @@
       </c>
       <c r="H603" s="21"/>
       <c r="I603" s="3" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J603" s="2"/>
       <c r="K603" s="18" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="604" hidden="1" spans="1:11">
@@ -55909,7 +55929,7 @@
         <v>469</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>404</v>
@@ -55922,11 +55942,11 @@
       </c>
       <c r="H604" s="21"/>
       <c r="I604" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J604" s="2"/>
       <c r="K604" s="18" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="605" hidden="1" spans="1:11">
@@ -55940,7 +55960,7 @@
         <v>469</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>404</v>
@@ -55957,7 +55977,7 @@
       </c>
       <c r="J605" s="2"/>
       <c r="K605" s="18" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="606" hidden="1" spans="1:11">
@@ -55971,7 +55991,7 @@
         <v>469</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>404</v>
@@ -55984,11 +56004,11 @@
       </c>
       <c r="H606" s="21"/>
       <c r="I606" s="3" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="J606" s="2"/>
       <c r="K606" s="18" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="607" hidden="1" spans="1:11">
@@ -56002,7 +56022,7 @@
         <v>471</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>404</v>
@@ -56015,11 +56035,11 @@
       </c>
       <c r="H607" s="21"/>
       <c r="I607" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J607" s="2"/>
       <c r="K607" s="18" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="608" hidden="1" spans="1:11">
@@ -56033,7 +56053,7 @@
         <v>471</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>404</v>
@@ -56050,7 +56070,7 @@
       </c>
       <c r="J608" s="2"/>
       <c r="K608" s="18" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="609" hidden="1" spans="1:11">
@@ -56064,7 +56084,7 @@
         <v>471</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>404</v>
@@ -56077,11 +56097,11 @@
       </c>
       <c r="H609" s="21"/>
       <c r="I609" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J609" s="2"/>
       <c r="K609" s="18" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="610" hidden="1" spans="1:11">
@@ -56095,7 +56115,7 @@
         <v>473</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>404</v>
@@ -56108,11 +56128,11 @@
       </c>
       <c r="H610" s="21"/>
       <c r="I610" s="3" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="J610" s="2"/>
       <c r="K610" s="18" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="611" hidden="1" spans="1:11">
@@ -56126,7 +56146,7 @@
         <v>473</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>404</v>
@@ -56139,11 +56159,11 @@
       </c>
       <c r="H611" s="21"/>
       <c r="I611" s="3" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="J611" s="2"/>
       <c r="K611" s="18" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="612" hidden="1" spans="1:11">
@@ -56157,7 +56177,7 @@
         <v>473</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>404</v>
@@ -56170,11 +56190,11 @@
       </c>
       <c r="H612" s="21"/>
       <c r="I612" s="3" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="J612" s="2"/>
       <c r="K612" s="18" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="613" hidden="1" spans="1:11">
@@ -56188,7 +56208,7 @@
         <v>475</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>404</v>
@@ -56201,11 +56221,11 @@
       </c>
       <c r="H613" s="21"/>
       <c r="I613" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J613" s="2"/>
       <c r="K613" s="18" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="614" hidden="1" spans="1:11">
@@ -56219,7 +56239,7 @@
         <v>475</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>404</v>
@@ -56232,11 +56252,11 @@
       </c>
       <c r="H614" s="21"/>
       <c r="I614" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J614" s="2"/>
       <c r="K614" s="18" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="615" hidden="1" spans="1:11">
@@ -56250,7 +56270,7 @@
         <v>475</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>404</v>
@@ -56263,11 +56283,11 @@
       </c>
       <c r="H615" s="21"/>
       <c r="I615" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J615" s="2"/>
       <c r="K615" s="18" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="616" hidden="1" spans="1:11">
@@ -56281,7 +56301,7 @@
         <v>477</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>404</v>
@@ -56298,7 +56318,7 @@
       </c>
       <c r="J616" s="2"/>
       <c r="K616" s="18" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="617" hidden="1" spans="1:11">
@@ -56312,7 +56332,7 @@
         <v>477</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>404</v>
@@ -56329,7 +56349,7 @@
       </c>
       <c r="J617" s="2"/>
       <c r="K617" s="18" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="618" hidden="1" spans="1:11">
@@ -56343,7 +56363,7 @@
         <v>477</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>404</v>
@@ -56356,11 +56376,11 @@
       </c>
       <c r="H618" s="21"/>
       <c r="I618" s="3" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="18" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="619" hidden="1" spans="1:11">
@@ -56374,7 +56394,7 @@
         <v>479</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>404</v>
@@ -56391,7 +56411,7 @@
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="18" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="620" hidden="1" spans="1:11">
@@ -56405,7 +56425,7 @@
         <v>479</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>404</v>
@@ -56418,11 +56438,11 @@
       </c>
       <c r="H620" s="21"/>
       <c r="I620" s="3" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J620" s="2"/>
       <c r="K620" s="18" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="621" hidden="1" spans="1:11">
@@ -56436,7 +56456,7 @@
         <v>479</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>404</v>
@@ -56449,11 +56469,11 @@
       </c>
       <c r="H621" s="21"/>
       <c r="I621" s="3" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J621" s="2"/>
       <c r="K621" s="18" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="622" hidden="1" spans="1:11">
@@ -56467,7 +56487,7 @@
         <v>481</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>404</v>
@@ -56480,11 +56500,11 @@
       </c>
       <c r="H622" s="21"/>
       <c r="I622" s="3" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="J622" s="2"/>
       <c r="K622" s="18" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="623" hidden="1" spans="1:11">
@@ -56498,7 +56518,7 @@
         <v>481</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>404</v>
@@ -56511,11 +56531,11 @@
       </c>
       <c r="H623" s="21"/>
       <c r="I623" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J623" s="2"/>
       <c r="K623" s="18" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="624" ht="16.5" hidden="1" spans="1:11">
@@ -56529,7 +56549,7 @@
         <v>481</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>404</v>
@@ -56542,11 +56562,11 @@
       </c>
       <c r="H624" s="21"/>
       <c r="I624" s="3" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="J624" s="2"/>
       <c r="K624" s="50" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="625" hidden="1" spans="1:11">
@@ -56560,7 +56580,7 @@
         <v>483</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>404</v>
@@ -56573,11 +56593,11 @@
       </c>
       <c r="H625" s="21"/>
       <c r="I625" s="3" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="J625" s="2"/>
       <c r="K625" s="18" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="626" hidden="1" spans="1:11">
@@ -56591,7 +56611,7 @@
         <v>483</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>404</v>
@@ -56604,11 +56624,11 @@
       </c>
       <c r="H626" s="21"/>
       <c r="I626" s="3" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="J626" s="2"/>
       <c r="K626" s="18" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="627" ht="16.5" hidden="1" spans="1:11">
@@ -56622,7 +56642,7 @@
         <v>483</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>404</v>
@@ -56635,11 +56655,11 @@
       </c>
       <c r="H627" s="21"/>
       <c r="I627" s="3" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="J627" s="2"/>
       <c r="K627" s="50" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="628" hidden="1" spans="1:11">
@@ -56653,7 +56673,7 @@
         <v>291</v>
       </c>
       <c r="D628" s="26" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>404</v>
@@ -56666,11 +56686,11 @@
       </c>
       <c r="H628" s="21"/>
       <c r="I628" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J628" s="2"/>
       <c r="K628" s="18" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="629" hidden="1" spans="1:11">
@@ -56684,7 +56704,7 @@
         <v>291</v>
       </c>
       <c r="D629" s="26" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>404</v>
@@ -56697,11 +56717,11 @@
       </c>
       <c r="H629" s="21"/>
       <c r="I629" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J629" s="2"/>
       <c r="K629" s="18" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="630" hidden="1" spans="1:11">
@@ -56715,7 +56735,7 @@
         <v>291</v>
       </c>
       <c r="D630" s="26" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>404</v>
@@ -56728,11 +56748,11 @@
       </c>
       <c r="H630" s="21"/>
       <c r="I630" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J630" s="2"/>
       <c r="K630" s="18" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="631" hidden="1" spans="1:11">
@@ -56746,7 +56766,7 @@
         <v>486</v>
       </c>
       <c r="D631" s="26" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>404</v>
@@ -56759,11 +56779,11 @@
       </c>
       <c r="H631" s="21"/>
       <c r="I631" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J631" s="2"/>
       <c r="K631" s="18" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="632" hidden="1" spans="1:11">
@@ -56777,7 +56797,7 @@
         <v>486</v>
       </c>
       <c r="D632" s="26" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>404</v>
@@ -56790,11 +56810,11 @@
       </c>
       <c r="H632" s="21"/>
       <c r="I632" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J632" s="2"/>
       <c r="K632" s="18" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="633" hidden="1" spans="1:11">
@@ -56808,7 +56828,7 @@
         <v>486</v>
       </c>
       <c r="D633" s="26" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>404</v>
@@ -56821,11 +56841,11 @@
       </c>
       <c r="H633" s="21"/>
       <c r="I633" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="18" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="634" ht="16.5" hidden="1" spans="1:11">
@@ -56839,7 +56859,7 @@
         <v>488</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>404</v>
@@ -56852,11 +56872,11 @@
       </c>
       <c r="H634" s="21"/>
       <c r="I634" s="3" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J634" s="2"/>
       <c r="K634" s="16" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="635" hidden="1" spans="1:11">
@@ -56870,7 +56890,7 @@
         <v>488</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>404</v>
@@ -56883,11 +56903,11 @@
       </c>
       <c r="H635" s="21"/>
       <c r="I635" s="2" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="18" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="636" hidden="1" spans="1:11">
@@ -56901,7 +56921,7 @@
         <v>488</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>404</v>
@@ -56914,11 +56934,11 @@
       </c>
       <c r="H636" s="21"/>
       <c r="I636" s="3" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="18" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="637" hidden="1" spans="1:11">
@@ -56932,7 +56952,7 @@
         <v>490</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>404</v>
@@ -56949,7 +56969,7 @@
       </c>
       <c r="J637" s="2"/>
       <c r="K637" s="18" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="638" hidden="1" spans="1:11">
@@ -56963,7 +56983,7 @@
         <v>490</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>404</v>
@@ -56980,7 +57000,7 @@
       </c>
       <c r="J638" s="2"/>
       <c r="K638" s="18" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="639" hidden="1" spans="1:11">
@@ -56994,7 +57014,7 @@
         <v>490</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>404</v>
@@ -57007,11 +57027,11 @@
       </c>
       <c r="H639" s="21"/>
       <c r="I639" s="3" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="J639" s="2"/>
       <c r="K639" s="18" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="640" hidden="1" spans="1:11">
@@ -57025,7 +57045,7 @@
         <v>492</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>404</v>
@@ -57038,11 +57058,11 @@
       </c>
       <c r="H640" s="21"/>
       <c r="I640" s="3" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="J640" s="2"/>
       <c r="K640" s="18" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="641" hidden="1" spans="1:11">
@@ -57056,7 +57076,7 @@
         <v>492</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>404</v>
@@ -57069,11 +57089,11 @@
       </c>
       <c r="H641" s="21"/>
       <c r="I641" s="2" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="J641" s="2"/>
       <c r="K641" s="18" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="642" hidden="1" spans="1:11">
@@ -57087,7 +57107,7 @@
         <v>492</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>404</v>
@@ -57100,11 +57120,11 @@
       </c>
       <c r="H642" s="21"/>
       <c r="I642" s="3" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="J642" s="2"/>
       <c r="K642" s="18" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="643" hidden="1" spans="1:11">
@@ -57118,7 +57138,7 @@
         <v>494</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>404</v>
@@ -57131,11 +57151,11 @@
       </c>
       <c r="H643" s="21"/>
       <c r="I643" s="3" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="J643" s="2"/>
       <c r="K643" s="18" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="644" hidden="1" spans="1:11">
@@ -57149,7 +57169,7 @@
         <v>494</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>404</v>
@@ -57162,11 +57182,11 @@
       </c>
       <c r="H644" s="21"/>
       <c r="I644" s="3" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="J644" s="2"/>
       <c r="K644" s="18" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="645" hidden="1" spans="1:11">
@@ -57180,7 +57200,7 @@
         <v>494</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>404</v>
@@ -57193,11 +57213,11 @@
       </c>
       <c r="H645" s="21"/>
       <c r="I645" s="3" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="J645" s="2"/>
       <c r="K645" s="18" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="646" hidden="1" spans="1:11">
@@ -57211,7 +57231,7 @@
         <v>496</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>404</v>
@@ -57228,7 +57248,7 @@
       </c>
       <c r="J646" s="2"/>
       <c r="K646" s="18" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="647" hidden="1" spans="1:11">
@@ -57242,7 +57262,7 @@
         <v>496</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>404</v>
@@ -57255,11 +57275,11 @@
       </c>
       <c r="H647" s="21"/>
       <c r="I647" s="3" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="J647" s="2"/>
       <c r="K647" s="18" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="648" ht="16.5" hidden="1" spans="1:11">
@@ -57273,7 +57293,7 @@
         <v>496</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>404</v>
@@ -57286,11 +57306,11 @@
       </c>
       <c r="H648" s="24"/>
       <c r="I648" s="3" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="J648" s="2"/>
       <c r="K648" s="50" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
     </row>
   </sheetData>
@@ -57300,21 +57320,24 @@
     </filterColumn>
     <filterColumn colId="8">
       <filters>
+        <filter val="标题未爬取，未更新"/>
+        <filter val="标题未爬取完整"/>
+        <filter val="爬取的信息太少了"/>
+        <filter val="地址换了，行业数据无数据"/>
+        <filter val="地址变动，未更新"/>
+        <filter val="部分时间未爬取到"/>
+        <filter val="数据未更新"/>
+        <filter val="没有数据入库"/>
+        <filter val="时间未正确爬取"/>
+        <filter val="时间为空"/>
+        <filter val="数据采集不正确"/>
+        <filter val="时间格式不正确"/>
+        <filter val="数据爬取位置错误"/>
+        <filter val="链接错误，无新地址"/>
+        <filter val="地址换了"/>
         <filter val="地址换了，数据未更新"/>
-        <filter val="地址变动，未更新"/>
-        <filter val="标题未爬取，未更新"/>
-        <filter val="部分时间未爬取到"/>
-        <filter val="链接错误，无新地址"/>
-        <filter val="没有数据入库"/>
-        <filter val="标题未爬取完整"/>
         <filter val="2020数据未爬取"/>
-        <filter val="时间未正确爬取"/>
-        <filter val="爬取的信息太少了"/>
-        <filter val="地址换了"/>
-        <filter val="时间为空"/>
-        <filter val="时间格式不正确"/>
         <filter val="部分时间格式不正确"/>
-        <filter val="地址换了，行业数据无数据"/>
       </filters>
     </filterColumn>
     <extLst/>
@@ -57399,6 +57422,12 @@
     <hyperlink ref="K246" r:id="rId53" display="http://wk.askci.com/ListTable/?pageNum=1"/>
     <hyperlink ref="K286" r:id="rId54" display="https://www.ynggzy.com/jyxx/jsgcZbgg"/>
     <hyperlink ref="K144" r:id="rId55" display="https://www.itjuzi.com/investevent"/>
+    <hyperlink ref="K532" r:id="rId56" display="http://www.xclcy.com/info/list.php?catid=2374" tooltip="http://www.xclcy.com/info/list.php?catid=2374"/>
+    <hyperlink ref="K529" r:id="rId57" display="http://www.zjship.com.cn/dt/tj/"/>
+    <hyperlink ref="K521" r:id="rId58" display="http://www.sbia.org.cn/news.aspx?newscateid=15&amp;IntroCateId=15"/>
+    <hyperlink ref="K505" r:id="rId59" display="http://feature.mei.net.cn/meilist.asp"/>
+    <hyperlink ref="K506" r:id="rId60" display="http://feature.mei.net.cn/view/more5.asp"/>
+    <hyperlink ref="K512" r:id="rId61" display="http://www.cpcia.org.cn/list/40288043661da1b701661dbbb3ce0004"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -57424,7 +57453,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -57435,7 +57464,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -57446,7 +57475,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -57457,7 +57486,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -57468,7 +57497,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -57479,7 +57508,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -57490,18 +57519,18 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -57512,7 +57541,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -57523,7 +57552,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -57534,18 +57563,18 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B12" s="4">
         <v>15</v>
@@ -57556,7 +57585,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -57567,7 +57596,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -57578,18 +57607,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -57600,7 +57629,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -57611,18 +57640,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -57633,18 +57662,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="B20" s="4">
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -57655,7 +57684,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -57666,7 +57695,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -57677,7 +57706,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -57688,7 +57717,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -57699,13 +57728,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="B26">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -57775,22 +57804,22 @@
         <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -57898,7 +57927,7 @@
         <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58027,7 +58056,7 @@
         <v>381</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58163,7 +58192,7 @@
         <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="C11" t="s">
         <v>401</v>
@@ -58220,7 +58249,7 @@
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
@@ -58367,10 +58396,10 @@
         <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="D2" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -58493,91 +58522,91 @@
         <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="D17" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="E17" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="F17" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="G17" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="H17" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="I17" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="J17" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="K17" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="L17" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="M17" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="N17" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="O17" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="P17" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="Q17" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="R17" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="S17" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="T17" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="U17" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="V17" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="W17" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="X17" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="Y17" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="Z17" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="AA17" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="AB17" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="AC17" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="AD17" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="AE17" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -58588,7 +58617,7 @@
         <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -58604,61 +58633,61 @@
         <v>810</v>
       </c>
       <c r="C20" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="D20" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="E20" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="F20" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="G20" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="H20" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="I20" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="J20" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="K20" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="L20" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="M20" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="N20" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="O20" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="P20" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="Q20" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="R20" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="S20" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="T20" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="U20" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -58669,103 +58698,103 @@
         <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="D21" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="E21" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="F21" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="G21" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="H21" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="I21" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="J21" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="K21" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="L21" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="M21" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="N21" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="O21" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="P21" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="Q21" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="R21" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="S21" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="T21" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="U21" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="V21" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="W21" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="X21" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="Y21" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="Z21" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="AA21" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="AB21" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="AC21" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="AD21" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="AE21" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="AF21" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="AG21" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="AH21" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="AI21" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -58832,16 +58861,16 @@
         <v>741</v>
       </c>
       <c r="C29" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="D29" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="E29" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="F29" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -58881,7 +58910,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -58892,88 +58921,88 @@
         <v>551</v>
       </c>
       <c r="C35" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="D35" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="E35" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="F35" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="G35" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="H35" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="I35" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="J35" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="K35" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="L35" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="M35" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="N35" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="O35" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="P35" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="Q35" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="R35" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="S35" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="T35" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="U35" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="V35" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="W35" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="X35" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="Y35" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="Z35" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="AA35" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="AB35" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="AC35" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="AD35" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -58984,28 +59013,28 @@
         <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="D36" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="E36" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="F36" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="G36" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="H36" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="I36" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="J36" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -59016,31 +59045,31 @@
         <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="D37" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="E37" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="F37" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="G37" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2169</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2170</v>
+      </c>
+      <c r="J37" t="s">
         <v>2171</v>
       </c>
-      <c r="H37" t="s">
-        <v>2167</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2168</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2169</v>
-      </c>
       <c r="K37" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -59051,37 +59080,37 @@
         <v>613</v>
       </c>
       <c r="C38" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="D38" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="E38" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="F38" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="G38" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="H38" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="I38" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="J38" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="K38" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="L38" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="M38" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -59092,19 +59121,19 @@
         <v>637</v>
       </c>
       <c r="C39" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="D39" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="E39" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="F39" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="G39" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -59115,100 +59144,100 @@
         <v>888</v>
       </c>
       <c r="C40" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="D40" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="E40" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="F40" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="G40" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="H40" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="I40" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="J40" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="K40" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="L40" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="M40" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="N40" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="O40" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="P40" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="Q40" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="R40" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="S40" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="T40" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="U40" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="V40" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="W40" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="X40" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="Y40" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="Z40" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="AA40" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="AB40" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="AC40" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="AD40" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="AE40" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="AF40" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="AG40" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="AH40" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -59219,31 +59248,31 @@
         <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="D41" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="E41" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="F41" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="G41" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="H41" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="I41" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="J41" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="K41" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -59259,31 +59288,31 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="D43" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="E43" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="F43" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="G43" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="H43" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="I43" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="J43" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="K43" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -59302,88 +59331,88 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="D45" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="E45" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="F45" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="G45" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="H45" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="I45" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="J45" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="K45" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="L45" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="M45" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="N45" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="O45" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="P45" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="Q45" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="R45" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="S45" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="T45" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="U45" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="V45" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="W45" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="X45" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="Y45" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="Z45" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="AA45" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="AB45" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="AC45" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="AD45" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -59394,13 +59423,13 @@
         <v>724</v>
       </c>
       <c r="C46" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="D46" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="E46" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -59411,103 +59440,103 @@
         <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="D47" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="E47" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="F47" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="G47" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="H47" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="I47" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="J47" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="K47" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="L47" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="M47" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="N47" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="O47" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="P47" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="Q47" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="R47" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="S47" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="T47" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="U47" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="V47" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="W47" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="X47" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="Y47" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="Z47" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="AA47" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="AB47" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="AC47" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="AD47" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="AE47" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="AF47" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="AG47" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="AH47" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="AI47" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -59518,67 +59547,67 @@
         <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="D48" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="E48" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="F48" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="G48" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="H48" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="I48" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="J48" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="K48" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="L48" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="M48" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="N48" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="O48" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="P48" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="Q48" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="R48" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="S48" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="T48" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="U48" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="V48" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="W48" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -59589,100 +59618,100 @@
         <v>888</v>
       </c>
       <c r="C49" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="D49" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="E49" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="F49" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="G49" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="H49" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="I49" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="J49" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="K49" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="L49" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="M49" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="N49" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="O49" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="P49" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="Q49" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="R49" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="S49" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="T49" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="U49" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="V49" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="W49" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="X49" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="Y49" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="Z49" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="AA49" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="AB49" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="AC49" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="AD49" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="AE49" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="AF49" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="AG49" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="AH49" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -59698,19 +59727,19 @@
         <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="D51" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="E51" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="F51" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="G51" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -59721,70 +59750,70 @@
         <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="D52" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="E52" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="F52" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="G52" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="H52" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="I52" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="J52" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="K52" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="L52" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="M52" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="N52" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="O52" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="P52" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="Q52" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="R52" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="S52" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="T52" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="U52" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="V52" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="W52" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="X52" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -59795,40 +59824,40 @@
         <v>662</v>
       </c>
       <c r="C53" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="D53" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="E53" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="F53" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="G53" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="H53" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="I53" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="J53" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="K53" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="L53" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="M53" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="N53" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -59855,28 +59884,28 @@
         <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="D56" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="E56" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="F56" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="G56" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="H56" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="I56" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="J56" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -59892,94 +59921,94 @@
         <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="D58" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="E58" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="F58" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="G58" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="H58" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="I58" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="J58" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="K58" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="L58" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="M58" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="N58" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="O58" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="P58" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="Q58" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="R58" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="S58" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="T58" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="U58" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="V58" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="W58" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="X58" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="Y58" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="Z58" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="AA58" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="AB58" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="AC58" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="AD58" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="AE58" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="AF58" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="59" spans="1:55">
@@ -59987,267 +60016,267 @@
         <v>988</v>
       </c>
       <c r="B59" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="C59" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="D59" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="E59" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="F59" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="G59" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="H59" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="I59" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="J59" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="K59" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="L59" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="M59" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="N59" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="O59" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="P59" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="Q59" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="R59" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="S59" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="T59" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="U59" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="V59" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="W59" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="X59" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="Y59" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="Z59" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="AA59" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="AB59" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="AC59" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="AD59" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="AE59" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="AF59" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="AG59" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="AH59" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="AI59" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="AJ59" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="AK59" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="AL59" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="AM59" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="AN59" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="AO59" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="AP59" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="AQ59" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="AR59" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="AS59" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="AT59" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="AU59" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="AV59" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="AW59" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="AX59" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="AY59" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="AZ59" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="BA59" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="BB59" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="BC59" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B60" t="s">
         <v>888</v>
       </c>
       <c r="C60" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="D60" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="E60" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="F60" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="G60" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="H60" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="I60" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="J60" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="K60" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="L60" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="M60" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="N60" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="O60" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="P60" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="Q60" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="R60" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="S60" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="T60" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="U60" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="V60" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="W60" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="X60" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="Y60" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="Z60" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="AA60" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="AB60" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="AC60" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="AD60" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="AE60" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="AF60" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="AG60" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -60274,82 +60303,82 @@
         <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="D63" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="E63" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="F63" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="G63" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="H63" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="I63" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="J63" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="K63" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="L63" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="M63" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="N63" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="O63" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="P63" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="Q63" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="R63" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="S63" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="T63" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
       <c r="U63" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="V63" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="W63" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="X63" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="Y63" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="Z63" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="AA63" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="AB63" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -60368,58 +60397,58 @@
         <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="D65" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="E65" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="F65" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="G65" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="H65" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="I65" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="J65" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="K65" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c r="L65" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="M65" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="N65" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="O65" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="P65" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="Q65" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="R65" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="S65" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="T65" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -60427,88 +60456,88 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="C66" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="D66" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="E66" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="F66" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="G66" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="H66" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="I66" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="J66" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="K66" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="L66" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="M66" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="N66" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="O66" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="P66" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="Q66" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="R66" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="S66" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="T66" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="U66" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="V66" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="W66" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="X66" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="Y66" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="Z66" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="AA66" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="AB66" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="AC66" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -60519,127 +60548,127 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="D67" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="E67" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="F67" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="G67" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="H67" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="I67" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="J67" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="K67" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="L67" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="M67" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="N67" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="O67" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="P67" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="Q67" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="R67" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="S67" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="T67" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="U67" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="V67" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="W67" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="X67" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="Y67" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="Z67" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="AA67" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="AB67" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="AC67" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="AD67" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="AE67" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="AF67" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="AG67" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="AH67" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="AI67" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="AJ67" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="AK67" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="AL67" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="AM67" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="AN67" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="AO67" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="AP67" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="AQ67" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -60650,7 +60679,7 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -60701,87 +60730,87 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
     </row>
   </sheetData>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -8839,7 +8839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -21503,8 +21503,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E144" workbookViewId="0">
-      <selection activeCell="J521" sqref="J521"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H402" sqref="H402:H468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -33600,7 +33600,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:11">
+    <row r="403" spans="1:11">
       <c r="A403" s="2"/>
       <c r="B403" s="7"/>
       <c r="C403" s="2"/>
@@ -57355,6 +57355,7 @@
         <filter val="地址换了"/>
         <filter val="未更新，网站失效"/>
         <filter val="地址换了，数据未更新"/>
+        <filter val="未爬取，地址换为新地址"/>
         <filter val="2020数据未爬取"/>
         <filter val="部分时间格式不正确"/>
       </filters>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7115" uniqueCount="2493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7114" uniqueCount="2493">
   <si>
     <t>服务器</t>
   </si>
@@ -3639,9 +3639,6 @@
     <t>已恢复访问</t>
   </si>
   <si>
-    <t>已修改（20200816）</t>
-  </si>
-  <si>
     <t>http://www.customs.gov.cn/customs/xwfb34/302425/index.html</t>
   </si>
   <si>
@@ -3770,6 +3767,9 @@
   </si>
   <si>
     <t>未完全更新</t>
+  </si>
+  <si>
+    <t>已修改（20200816）</t>
   </si>
   <si>
     <t>http://changsha.customs.gov.cn/changsha_customs/508922/508924/508926/index.html</t>
@@ -21510,7 +21510,7 @@
   <dimension ref="A1:XFD648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J238" sqref="J238"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -22141,11 +22141,9 @@
       <c r="I20" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="17" t="s">
         <v>1186</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="21" hidden="1" spans="1:11">
@@ -22169,14 +22167,14 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>1177</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="18" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:11">
@@ -22205,7 +22203,7 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="18" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="23" hidden="1" spans="1:11">
@@ -22234,7 +22232,7 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="18" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:11">
@@ -22263,7 +22261,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="18" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="1:11">
@@ -22292,7 +22290,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="18" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:11">
@@ -22321,7 +22319,7 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="18" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:11">
@@ -22350,7 +22348,7 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="18" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:11">
@@ -22379,7 +22377,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="18" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:11">
@@ -22408,7 +22406,7 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="18" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:11">
@@ -22437,7 +22435,7 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="18" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:11">
@@ -22466,7 +22464,7 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="18" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:11">
@@ -22495,7 +22493,7 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="18" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:11">
@@ -22524,7 +22522,7 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="18" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:11">
@@ -22553,7 +22551,7 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="18" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:11">
@@ -22578,11 +22576,11 @@
       <c r="G35" s="2"/>
       <c r="H35" s="13"/>
       <c r="I35" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="18" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:11">
@@ -22611,7 +22609,7 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="18" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:11">
@@ -22636,11 +22634,11 @@
       <c r="G37" s="2"/>
       <c r="H37" s="13"/>
       <c r="I37" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="18" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:11">
@@ -22669,7 +22667,7 @@
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="18" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:11">
@@ -22698,7 +22696,7 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="18" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:11">
@@ -22727,7 +22725,7 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="18" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:11">
@@ -22756,7 +22754,7 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="18" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:11">
@@ -22785,7 +22783,7 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="18" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:11">
@@ -22814,7 +22812,7 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="18" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:11">
@@ -22843,7 +22841,7 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="18" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="45" hidden="1" spans="1:11">
@@ -22872,7 +22870,7 @@
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="18" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="46" hidden="1" spans="1:11">
@@ -22901,7 +22899,7 @@
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:11">
@@ -22930,7 +22928,7 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="48" hidden="1" spans="1:11">
@@ -22959,7 +22957,7 @@
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:11">
@@ -22983,14 +22981,14 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>1177</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:11">
@@ -23019,7 +23017,7 @@
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="51" hidden="1" spans="1:11">
@@ -23048,7 +23046,7 @@
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="18" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:11">
@@ -23077,7 +23075,7 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="18" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -23102,10 +23100,10 @@
       <c r="G53" s="2"/>
       <c r="H53" s="13"/>
       <c r="I53" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>1223</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>1186</v>
       </c>
       <c r="K53" s="18" t="s">
         <v>1224</v>
@@ -23750,7 +23748,7 @@
         <v>1247</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>1186</v>
+        <v>1223</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>1248</v>
@@ -23926,7 +23924,7 @@
         <v>1254</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>1186</v>
+        <v>1223</v>
       </c>
       <c r="K81" s="18" t="s">
         <v>1255</v>
@@ -25648,7 +25646,7 @@
         <v>1336</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>1186</v>
+        <v>1223</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>1334</v>
@@ -57421,7 +57419,7 @@
     <hyperlink ref="K13" r:id="rId6" display="http://www.yytj.org.cn/Catelog.aspx?sp=%E7%BB%8F%E6%B5%8E%E8%BF%90%E8%A1%8C&amp;page=0"/>
     <hyperlink ref="K14" r:id="rId7" display="https://db.yaozh.com/cxlb" tooltip="https://db.yaozh.com/cxlb"/>
     <hyperlink ref="K15" r:id="rId8" display="http://db.auto.sohu.com/cxdata/"/>
-    <hyperlink ref="K20" r:id="rId9" display="http://www.customs.gov.cn/customs/xwfb34/302425/index.html"/>
+    <hyperlink ref="K20" r:id="rId9" display="http://www.customs.gov.cn/customs/xwfb34/302425/index.html" tooltip="http://www.customs.gov.cn/customs/xwfb34/302425/index.html"/>
     <hyperlink ref="K18" r:id="rId10" display="http://www.customs.gov.cn/customs/xwfb34/302263/index.html" tooltip="http://www.customs.gov.cn/customs/xwfb34/302263/index.html"/>
     <hyperlink ref="K19" r:id="rId11" display="http://www.customs.gov.cn/customs/302249/302274/302277/index.html"/>
     <hyperlink ref="K87" r:id="rId12" display="http://yinchuan.customs.gov.cn/yinchuan_customs/531985/531987/index.html"/>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -21515,8 +21515,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L651" sqref="L651"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -21567,7 +21567,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:12">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>121</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:12">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>121</v>
       </c>
@@ -21637,7 +21637,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:12">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>121</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:12">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>121</v>
       </c>
@@ -21707,7 +21707,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:12">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>121</v>
       </c>
@@ -21741,7 +21741,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:12">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>121</v>
       </c>
@@ -21777,7 +21777,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:12">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>121</v>
       </c>
@@ -21958,7 +21958,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:12">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>154</v>
       </c>
@@ -21994,7 +21994,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:12">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>154</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="16" ht="16.5" hidden="1" spans="1:12">
+    <row r="16" ht="16.5" spans="1:12">
       <c r="A16" s="2">
         <v>154</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:12">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>154</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="20" ht="13.8" hidden="1" customHeight="1" spans="1:12">
+    <row r="20" ht="13.8" customHeight="1" spans="1:12">
       <c r="A20" s="2"/>
       <c r="B20" s="7"/>
       <c r="C20" s="2"/>
@@ -22509,7 +22509,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:12">
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>154</v>
       </c>
@@ -22686,7 +22686,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:12">
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>154</v>
       </c>
@@ -23097,7 +23097,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:12">
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>154</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:12">
+    <row r="53" spans="1:12">
       <c r="A53" s="2">
         <v>154</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:12">
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>154</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:12">
+    <row r="64" spans="1:12">
       <c r="A64" s="2">
         <v>154</v>
       </c>
@@ -23490,7 +23490,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:12">
+    <row r="65" spans="1:12">
       <c r="A65" s="2">
         <v>154</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:12">
+    <row r="67" spans="1:12">
       <c r="A67" s="2">
         <v>154</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:12">
+    <row r="70" spans="1:12">
       <c r="A70" s="2">
         <v>154</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:12">
+    <row r="73" spans="1:12">
       <c r="A73" s="2">
         <v>154</v>
       </c>
@@ -23794,7 +23794,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:12">
+    <row r="75" spans="1:12">
       <c r="A75" s="2">
         <v>154</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:12">
+    <row r="76" spans="1:12">
       <c r="A76" s="2">
         <v>154</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:12">
+    <row r="81" spans="1:12">
       <c r="A81" s="2">
         <v>154</v>
       </c>
@@ -24010,7 +24010,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:12">
+    <row r="82" spans="1:12">
       <c r="A82" s="2">
         <v>154</v>
       </c>
@@ -24508,7 +24508,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:12">
+    <row r="99" spans="1:12">
       <c r="A99" s="2">
         <v>124</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:12">
+    <row r="105" spans="1:12">
       <c r="A105" s="2">
         <v>124</v>
       </c>
@@ -24746,7 +24746,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:12">
+    <row r="107" spans="1:12">
       <c r="A107" s="2">
         <v>124</v>
       </c>
@@ -24778,7 +24778,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:12">
+    <row r="108" spans="1:12">
       <c r="A108" s="2">
         <v>124</v>
       </c>
@@ -25083,7 +25083,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:12">
+    <row r="118" spans="1:12">
       <c r="A118" s="2">
         <v>121</v>
       </c>
@@ -25117,7 +25117,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:12">
+    <row r="119" spans="1:12">
       <c r="A119" s="2">
         <v>121</v>
       </c>
@@ -25151,7 +25151,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:12">
+    <row r="120" spans="1:12">
       <c r="A120" s="2">
         <v>121</v>
       </c>
@@ -25185,7 +25185,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:12">
+    <row r="121" spans="1:12">
       <c r="A121" s="2">
         <v>121</v>
       </c>
@@ -25219,7 +25219,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:12">
+    <row r="122" spans="1:12">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -25253,7 +25253,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:12">
+    <row r="123" spans="1:12">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:12">
+    <row r="124" spans="1:12">
       <c r="A124" s="2">
         <v>121</v>
       </c>
@@ -25747,7 +25747,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:12">
+    <row r="139" spans="1:12">
       <c r="A139" s="2">
         <v>122</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:12">
+    <row r="140" spans="1:12">
       <c r="A140" s="2">
         <v>122</v>
       </c>
@@ -25879,7 +25879,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:12">
+    <row r="143" spans="1:12">
       <c r="A143" s="2">
         <v>122</v>
       </c>
@@ -25913,7 +25913,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:12">
+    <row r="144" spans="1:12">
       <c r="A144" s="2">
         <v>122</v>
       </c>
@@ -26038,7 +26038,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:12">
+    <row r="148" spans="1:12">
       <c r="A148" s="2">
         <v>123</v>
       </c>
@@ -26215,7 +26215,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:12">
+    <row r="154" spans="1:12">
       <c r="A154" s="2">
         <v>123</v>
       </c>
@@ -26365,7 +26365,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:12">
+    <row r="159" spans="1:12">
       <c r="A159" s="2">
         <v>123</v>
       </c>
@@ -27578,7 +27578,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:12">
+    <row r="197" spans="1:12">
       <c r="A197" s="2">
         <v>123</v>
       </c>
@@ -27699,7 +27699,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:12">
+    <row r="201" spans="1:12">
       <c r="A201" s="2">
         <v>123</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:12">
+    <row r="204" spans="1:12">
       <c r="A204" s="2">
         <v>123</v>
       </c>
@@ -28818,7 +28818,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:12">
+    <row r="238" spans="1:12">
       <c r="A238" s="2">
         <v>154</v>
       </c>
@@ -28847,7 +28847,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:12">
+    <row r="239" spans="1:12">
       <c r="A239" s="2">
         <v>154</v>
       </c>
@@ -28879,7 +28879,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:12">
+    <row r="240" spans="1:12">
       <c r="A240" s="2">
         <v>154</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:12">
+    <row r="246" spans="1:12">
       <c r="A246" s="2">
         <v>154</v>
       </c>
@@ -29245,7 +29245,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:12">
+    <row r="252" spans="1:12">
       <c r="A252" s="2">
         <v>121</v>
       </c>
@@ -29279,7 +29279,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:12">
+    <row r="253" spans="1:12">
       <c r="A253" s="2">
         <v>121</v>
       </c>
@@ -29346,7 +29346,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:12">
+    <row r="255" spans="1:12">
       <c r="A255" s="2">
         <v>122</v>
       </c>
@@ -29380,7 +29380,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:12">
+    <row r="256" spans="1:12">
       <c r="A256" s="2">
         <v>122</v>
       </c>
@@ -29441,7 +29441,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:12">
+    <row r="258" spans="1:12">
       <c r="A258" s="2">
         <v>121</v>
       </c>
@@ -29504,7 +29504,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:12">
+    <row r="260" spans="1:12">
       <c r="A260" s="2">
         <v>121</v>
       </c>
@@ -29536,7 +29536,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:12">
+    <row r="261" spans="1:12">
       <c r="A261" s="2">
         <v>121</v>
       </c>
@@ -29597,7 +29597,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:12">
+    <row r="263" spans="1:12">
       <c r="A263" s="2">
         <v>121</v>
       </c>
@@ -29629,7 +29629,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:12">
+    <row r="264" spans="1:12">
       <c r="A264" s="2">
         <v>121</v>
       </c>
@@ -29661,7 +29661,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:12">
+    <row r="265" spans="1:12">
       <c r="A265" s="2">
         <v>121</v>
       </c>
@@ -29693,7 +29693,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:12">
+    <row r="266" spans="1:12">
       <c r="A266" s="2">
         <v>121</v>
       </c>
@@ -29783,7 +29783,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:12">
+    <row r="269" spans="1:12">
       <c r="A269" s="2">
         <v>121</v>
       </c>
@@ -29815,7 +29815,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:12">
+    <row r="270" spans="1:12">
       <c r="A270" s="2">
         <v>121</v>
       </c>
@@ -29847,7 +29847,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:12">
+    <row r="271" spans="1:12">
       <c r="A271" s="2">
         <v>121</v>
       </c>
@@ -29879,7 +29879,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:12">
+    <row r="272" spans="1:12">
       <c r="A272" s="2">
         <v>121</v>
       </c>
@@ -29998,7 +29998,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:12">
+    <row r="276" spans="1:12">
       <c r="A276" s="2">
         <v>121</v>
       </c>
@@ -30030,7 +30030,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:12">
+    <row r="277" spans="1:12">
       <c r="A277" s="2">
         <v>121</v>
       </c>
@@ -30062,7 +30062,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:12">
+    <row r="278" spans="1:12">
       <c r="A278" s="2">
         <v>121</v>
       </c>
@@ -30094,7 +30094,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:12">
+    <row r="279" spans="1:12">
       <c r="A279" s="2">
         <v>121</v>
       </c>
@@ -30155,7 +30155,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:12">
+    <row r="281" spans="1:12">
       <c r="A281" s="2">
         <v>121</v>
       </c>
@@ -30187,7 +30187,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:12">
+    <row r="282" spans="1:12">
       <c r="A282" s="2">
         <v>121</v>
       </c>
@@ -30219,7 +30219,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:12">
+    <row r="283" spans="1:12">
       <c r="A283" s="2">
         <v>121</v>
       </c>
@@ -30251,7 +30251,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:12">
+    <row r="284" spans="1:12">
       <c r="A284" s="2">
         <v>121</v>
       </c>
@@ -30283,7 +30283,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:12">
+    <row r="285" spans="1:12">
       <c r="A285" s="2">
         <v>121</v>
       </c>
@@ -30315,7 +30315,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:12">
+    <row r="286" spans="1:12">
       <c r="A286" s="2">
         <v>121</v>
       </c>
@@ -30422,7 +30422,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:12">
+    <row r="290" spans="1:12">
       <c r="A290" s="2">
         <v>122</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:12">
+    <row r="291" spans="1:12">
       <c r="A291" s="2">
         <v>122</v>
       </c>
@@ -30486,7 +30486,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:12">
+    <row r="292" spans="1:12">
       <c r="A292" s="2">
         <v>122</v>
       </c>
@@ -30518,7 +30518,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:12">
+    <row r="293" spans="1:12">
       <c r="A293" s="2">
         <v>122</v>
       </c>
@@ -30550,7 +30550,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:12">
+    <row r="294" spans="1:12">
       <c r="A294" s="2">
         <v>122</v>
       </c>
@@ -30626,7 +30626,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:12">
+    <row r="297" spans="1:12">
       <c r="A297" s="2">
         <v>122</v>
       </c>
@@ -30658,7 +30658,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:12">
+    <row r="298" spans="1:12">
       <c r="A298" s="2">
         <v>122</v>
       </c>
@@ -30690,7 +30690,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:12">
+    <row r="299" spans="1:12">
       <c r="A299" s="2">
         <v>122</v>
       </c>
@@ -30722,7 +30722,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:12">
+    <row r="300" spans="1:12">
       <c r="A300" s="2">
         <v>122</v>
       </c>
@@ -30754,7 +30754,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:12">
+    <row r="301" spans="1:12">
       <c r="A301" s="2">
         <v>122</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:12">
+    <row r="302" spans="1:12">
       <c r="A302" s="2">
         <v>122</v>
       </c>
@@ -30818,7 +30818,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:12">
+    <row r="303" spans="1:12">
       <c r="A303" s="2">
         <v>122</v>
       </c>
@@ -30850,7 +30850,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:12">
+    <row r="304" spans="1:12">
       <c r="A304" s="2">
         <v>122</v>
       </c>
@@ -30882,7 +30882,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:12">
+    <row r="305" spans="1:12">
       <c r="A305" s="2">
         <v>122</v>
       </c>
@@ -30914,7 +30914,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:12">
+    <row r="306" spans="1:12">
       <c r="A306" s="2">
         <v>122</v>
       </c>
@@ -30946,7 +30946,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:12">
+    <row r="307" spans="1:12">
       <c r="A307" s="2">
         <v>122</v>
       </c>
@@ -30978,7 +30978,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:12">
+    <row r="308" spans="1:12">
       <c r="A308" s="2">
         <v>122</v>
       </c>
@@ -31010,7 +31010,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:12">
+    <row r="309" spans="1:12">
       <c r="A309" s="2">
         <v>122</v>
       </c>
@@ -31042,7 +31042,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:12">
+    <row r="310" spans="1:12">
       <c r="A310" s="2">
         <v>122</v>
       </c>
@@ -33897,7 +33897,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:12">
+    <row r="402" spans="1:12">
       <c r="A402" s="2">
         <v>154</v>
       </c>
@@ -33931,7 +33931,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:12">
+    <row r="403" spans="1:12">
       <c r="A403" s="2"/>
       <c r="B403" s="7"/>
       <c r="C403" s="2"/>
@@ -33957,7 +33957,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:12">
+    <row r="404" spans="1:12">
       <c r="A404" s="2">
         <v>154</v>
       </c>
@@ -33989,7 +33989,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:12">
+    <row r="405" spans="1:12">
       <c r="A405" s="2">
         <v>154</v>
       </c>
@@ -34021,7 +34021,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:12">
+    <row r="406" spans="1:12">
       <c r="A406" s="2">
         <v>154</v>
       </c>
@@ -34082,7 +34082,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:12">
+    <row r="408" spans="1:12">
       <c r="A408" s="2">
         <v>154</v>
       </c>
@@ -34114,7 +34114,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:12">
+    <row r="409" spans="1:12">
       <c r="A409" s="2">
         <v>154</v>
       </c>
@@ -34146,7 +34146,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:12">
+    <row r="410" spans="1:12">
       <c r="A410" s="2">
         <v>154</v>
       </c>
@@ -34178,7 +34178,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="411" hidden="1" spans="1:12">
+    <row r="411" spans="1:12">
       <c r="A411" s="2">
         <v>154</v>
       </c>
@@ -34210,7 +34210,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:12">
+    <row r="412" spans="1:12">
       <c r="A412" s="2"/>
       <c r="B412" s="7"/>
       <c r="C412" s="2"/>
@@ -34265,7 +34265,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:12">
+    <row r="414" spans="1:12">
       <c r="A414" s="2">
         <v>154</v>
       </c>
@@ -34297,7 +34297,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:12">
+    <row r="415" spans="1:12">
       <c r="A415" s="2"/>
       <c r="B415" s="7"/>
       <c r="C415" s="2"/>
@@ -34323,7 +34323,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:12">
+    <row r="416" spans="1:12">
       <c r="A416" s="2"/>
       <c r="B416" s="7"/>
       <c r="C416" s="2"/>
@@ -34378,7 +34378,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="1:12">
+    <row r="418" spans="1:12">
       <c r="A418" s="2"/>
       <c r="B418" s="7"/>
       <c r="C418" s="2"/>
@@ -34462,7 +34462,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="1:12">
+    <row r="421" spans="1:12">
       <c r="A421" s="2">
         <v>154</v>
       </c>
@@ -34554,7 +34554,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:12">
+    <row r="424" spans="1:12">
       <c r="A424" s="2"/>
       <c r="B424" s="7"/>
       <c r="C424" s="2"/>
@@ -34580,7 +34580,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:12">
+    <row r="425" spans="1:12">
       <c r="A425" s="2"/>
       <c r="B425" s="7"/>
       <c r="C425" s="2"/>
@@ -34606,7 +34606,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:12">
+    <row r="426" spans="1:12">
       <c r="A426" s="2">
         <v>154</v>
       </c>
@@ -34640,7 +34640,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:12">
+    <row r="427" spans="1:12">
       <c r="A427" s="2">
         <v>154</v>
       </c>
@@ -34674,7 +34674,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:12">
+    <row r="428" spans="1:12">
       <c r="A428" s="2">
         <v>154</v>
       </c>
@@ -34706,7 +34706,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:12">
+    <row r="429" spans="1:12">
       <c r="A429" s="2"/>
       <c r="B429" s="7"/>
       <c r="C429" s="2"/>
@@ -34761,7 +34761,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:12">
+    <row r="431" spans="1:12">
       <c r="A431" s="2"/>
       <c r="B431" s="7"/>
       <c r="C431" s="2"/>
@@ -34787,7 +34787,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:12">
+    <row r="432" spans="1:12">
       <c r="A432" s="2">
         <v>154</v>
       </c>
@@ -34819,7 +34819,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:12">
+    <row r="433" spans="1:12">
       <c r="A433" s="2">
         <v>154</v>
       </c>
@@ -34851,7 +34851,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="1:12">
+    <row r="434" spans="1:12">
       <c r="A434" s="2">
         <v>154</v>
       </c>
@@ -34883,7 +34883,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:12">
+    <row r="435" spans="1:12">
       <c r="A435" s="2"/>
       <c r="B435" s="7"/>
       <c r="C435" s="2"/>
@@ -35083,7 +35083,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:16384">
+    <row r="442" spans="1:16384">
       <c r="A442" s="18"/>
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
@@ -51539,7 +51539,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:12">
+    <row r="445" spans="1:12">
       <c r="A445" s="2">
         <v>154</v>
       </c>
@@ -51629,7 +51629,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="448" hidden="1" spans="1:12">
+    <row r="448" spans="1:12">
       <c r="A448" s="2">
         <v>154</v>
       </c>
@@ -51748,7 +51748,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="1:12">
+    <row r="452" spans="1:12">
       <c r="A452" s="2">
         <v>154</v>
       </c>
@@ -51780,7 +51780,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:12">
+    <row r="453" spans="1:12">
       <c r="A453" s="2">
         <v>154</v>
       </c>
@@ -51814,7 +51814,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="1:12">
+    <row r="454" spans="1:12">
       <c r="A454" s="2"/>
       <c r="B454" s="7"/>
       <c r="C454" s="2"/>
@@ -51840,7 +51840,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="1:12">
+    <row r="455" spans="1:12">
       <c r="A455" s="2">
         <v>154</v>
       </c>
@@ -51872,7 +51872,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="1:12">
+    <row r="456" spans="1:12">
       <c r="A456" s="2">
         <v>154</v>
       </c>
@@ -51933,7 +51933,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:12">
+    <row r="458" spans="1:12">
       <c r="A458" s="2">
         <v>154</v>
       </c>
@@ -52081,7 +52081,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:12">
+    <row r="463" spans="1:12">
       <c r="A463" s="2">
         <v>154</v>
       </c>
@@ -52113,7 +52113,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:12">
+    <row r="464" spans="1:12">
       <c r="A464" s="2">
         <v>154</v>
       </c>
@@ -52145,7 +52145,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:12">
+    <row r="465" spans="1:12">
       <c r="A465" s="2"/>
       <c r="B465" s="7"/>
       <c r="C465" s="2"/>
@@ -52200,7 +52200,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:12">
+    <row r="467" spans="1:12">
       <c r="A467" s="2">
         <v>154</v>
       </c>
@@ -52232,7 +52232,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:12">
+    <row r="468" spans="1:12">
       <c r="A468" s="2">
         <v>154</v>
       </c>
@@ -53316,7 +53316,7 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" ht="62" hidden="1" customHeight="1" spans="1:12">
+    <row r="503" ht="62" customHeight="1" spans="1:12">
       <c r="A503" s="2">
         <v>154</v>
       </c>
@@ -53379,7 +53379,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:12">
+    <row r="505" spans="1:12">
       <c r="A505" s="2">
         <v>154</v>
       </c>
@@ -53413,7 +53413,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:12">
+    <row r="506" spans="1:12">
       <c r="A506" s="2">
         <v>154</v>
       </c>
@@ -53447,7 +53447,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:12">
+    <row r="507" spans="1:12">
       <c r="A507" s="2">
         <v>154</v>
       </c>
@@ -53481,7 +53481,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:12">
+    <row r="508" spans="1:12">
       <c r="A508" s="2">
         <v>154</v>
       </c>
@@ -53515,7 +53515,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:12">
+    <row r="509" spans="1:12">
       <c r="A509" s="2">
         <v>154</v>
       </c>
@@ -53578,7 +53578,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:12">
+    <row r="511" spans="1:12">
       <c r="A511" s="2">
         <v>154</v>
       </c>
@@ -53612,7 +53612,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="1:12">
+    <row r="512" spans="1:12">
       <c r="A512" s="2">
         <v>154</v>
       </c>
@@ -53646,7 +53646,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:12">
+    <row r="513" spans="1:12">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -53672,7 +53672,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="1:12">
+    <row r="514" spans="1:12">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -53698,7 +53698,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="515" hidden="1" spans="1:12">
+    <row r="515" spans="1:12">
       <c r="A515" s="2">
         <v>154</v>
       </c>
@@ -53730,7 +53730,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="516" hidden="1" spans="1:12">
+    <row r="516" spans="1:12">
       <c r="A516" s="2">
         <v>154</v>
       </c>
@@ -53762,7 +53762,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:12">
+    <row r="517" spans="1:12">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -53817,7 +53817,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:12">
+    <row r="519" spans="1:12">
       <c r="A519" s="2">
         <v>154</v>
       </c>
@@ -53849,7 +53849,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:12">
+    <row r="520" spans="1:12">
       <c r="A520" s="2">
         <v>154</v>
       </c>
@@ -53883,7 +53883,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:12">
+    <row r="521" spans="1:12">
       <c r="A521" s="2">
         <v>154</v>
       </c>
@@ -54004,7 +54004,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:12">
+    <row r="525" spans="1:12">
       <c r="A525" s="2">
         <v>154</v>
       </c>
@@ -54036,7 +54036,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:12">
+    <row r="526" spans="1:12">
       <c r="A526" s="2">
         <v>154</v>
       </c>
@@ -54097,7 +54097,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:12">
+    <row r="528" spans="1:12">
       <c r="A528" s="2">
         <v>154</v>
       </c>
@@ -54131,7 +54131,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="1:12">
+    <row r="529" spans="1:12">
       <c r="A529" s="2">
         <v>154</v>
       </c>
@@ -54194,7 +54194,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:12">
+    <row r="531" spans="1:12">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -54218,7 +54218,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:12">
+    <row r="532" spans="1:12">
       <c r="A532" s="2">
         <v>154</v>
       </c>
@@ -54252,7 +54252,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:12">
+    <row r="533" spans="1:12">
       <c r="A533" s="2">
         <v>154</v>
       </c>
@@ -57847,9 +57847,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:XFD648">
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7293" uniqueCount="2499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7297" uniqueCount="2499">
   <si>
     <t>服务器</t>
   </si>
@@ -7922,8 +7922,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -8028,6 +8028,58 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -8035,8 +8087,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8057,11 +8110,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8070,66 +8137,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8143,14 +8150,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8195,49 +8195,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8255,25 +8249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8285,25 +8261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8315,37 +8279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8363,13 +8303,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8474,50 +8474,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8546,13 +8507,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8571,6 +8551,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8579,10 +8579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8591,16 +8591,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8609,115 +8609,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21508,8 +21508,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D120" workbookViewId="0">
+      <selection activeCell="J657" sqref="J657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -23672,7 +23672,9 @@
       <c r="I70" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J70" s="2"/>
+      <c r="J70" s="2" t="s">
+        <v>1181</v>
+      </c>
       <c r="K70" s="14" t="s">
         <v>1245</v>
       </c>
@@ -23762,8 +23764,10 @@
       <c r="I73" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J73" s="2"/>
-      <c r="K73" s="18" t="s">
+      <c r="J73" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K73" s="19" t="s">
         <v>1248</v>
       </c>
       <c r="L73" t="s">
@@ -23857,8 +23861,10 @@
       <c r="I76" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K76" s="14" t="s">
         <v>1252</v>
       </c>
       <c r="L76" t="s">
@@ -24039,8 +24045,10 @@
       <c r="I82" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J82" s="2"/>
-      <c r="K82" s="18" t="s">
+      <c r="J82" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K82" s="19" t="s">
         <v>1259</v>
       </c>
       <c r="L82" t="s">
@@ -24538,7 +24546,7 @@
         <v>1277</v>
       </c>
       <c r="J99" s="2"/>
-      <c r="K99" s="18" t="s">
+      <c r="K99" s="19" t="s">
         <v>1278</v>
       </c>
       <c r="L99" t="s">
@@ -24715,7 +24723,7 @@
         <v>1148</v>
       </c>
       <c r="J105" s="2"/>
-      <c r="K105" s="18" t="s">
+      <c r="K105" s="19" t="s">
         <v>1285</v>
       </c>
       <c r="L105" t="s">
@@ -58013,7 +58021,7 @@
     <hyperlink ref="K525" r:id="rId66" display="http://www.szurta.org/col.jsp?id=103"/>
     <hyperlink ref="K519" r:id="rId67" display="http://www.smianet.com/Page.aspx?Id=7"/>
     <hyperlink ref="K517" r:id="rId68" display="http://jamia.org.cn/map"/>
-    <hyperlink ref="K516" r:id="rId69" display="http://jamia.org.cn/index.php/article/7"/>
+    <hyperlink ref="K516" r:id="rId69" display="http://jamia.org.cn/index.php/article/7" tooltip="http://jamia.org.cn/index.php/article/7"/>
     <hyperlink ref="K514" r:id="rId70" display="http://data.cpcifdata.org.cn/tjj/tacticProdAllList" tooltip="http://data.cpcifdata.org.cn/tjj/tacticProdAllList"/>
     <hyperlink ref="K513" r:id="rId71" display="http://data.cpcifdata.org.cn/tjj/shcl#"/>
     <hyperlink ref="K253" r:id="rId72" display="https://gkcx.eol.cn/school/search"/>
@@ -58027,6 +58035,11 @@
     <hyperlink ref="K64" r:id="rId79" display="http://hangzhou.customs.gov.cn/hangzhou_customs/575609/575611/575612/index.html"/>
     <hyperlink ref="K65" r:id="rId80" display="http://jiangmen.customs.gov.cn/jiangmen_customs/536578/536580/536582/index.html"/>
     <hyperlink ref="K70" r:id="rId81" display="http://manzhouli.customs.gov.cn/manzhouli_customs/566020/566022/566024/index.html" tooltip="http://manzhouli.customs.gov.cn/manzhouli_customs/566020/566022/566024/index.html"/>
+    <hyperlink ref="K73" r:id="rId82" display="http://nanjing.customs.gov.cn/nanjing_customs/589281/589288/589289/index.html"/>
+    <hyperlink ref="K76" r:id="rId83" display="http://shijiazhuang.customs.gov.cn/shijiazhuang_customs/456977/456981/456983/index.html"/>
+    <hyperlink ref="K82" r:id="rId84" display="http://wuhan.customs.gov.cn/wuhan_customs/506378/506381/index.html" tooltip="http://wuhan.customs.gov.cn/wuhan_customs/506378/506381/index.html"/>
+    <hyperlink ref="K99" r:id="rId85" display="http://www.chinaoilonline.com/article.do?method=toArticleListByType2ByTypeidList&amp;p1=15&amp;p1=16&amp;p1=17&amp;p1=18&amp;pageNo=1&amp;pageSize=22&amp;pid=2&amp;subLanmuId=2&amp;rightshow=1&amp;typeid=23&amp;titleLength=30"/>
+    <hyperlink ref="K105" r:id="rId86" display="http://auto.sohu.com/qichexinwen.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7303" uniqueCount="2501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7305" uniqueCount="2503">
   <si>
     <t>服务器</t>
   </si>
@@ -4610,10 +4610,16 @@
     <t>https://www.cqggzy.com/jyxx/jyxx-page.html</t>
   </si>
   <si>
+    <t>已修改（20200909）</t>
+  </si>
+  <si>
     <t>http://ggzyjy.gansu.gov.cn:81/f/newprovince/annogoods/list</t>
   </si>
   <si>
     <t>http://www.gzzb.gd.cn/cms/wz/view/index/layout2/zfcglist.jsp?siteId=1&amp;channelId=456</t>
+  </si>
+  <si>
+    <t>未修改（网站变化需要系统登陆）</t>
   </si>
   <si>
     <t>http://ggzy.guizhou.gov.cn/queryContent-jyxx.jspx?channelId=75</t>
@@ -8027,13 +8033,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -8042,21 +8057,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -8078,14 +8093,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8099,6 +8115,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -8108,17 +8132,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8131,32 +8147,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8201,7 +8207,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8213,49 +8315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8273,13 +8351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8291,55 +8369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8352,30 +8382,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8482,20 +8488,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8516,21 +8511,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -8541,24 +8521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8577,6 +8539,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8585,10 +8591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8597,16 +8603,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8615,115 +8621,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21515,19 +21521,20 @@
   <dimension ref="A1:XFD648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J159" sqref="J159"/>
+      <selection activeCell="J265" sqref="J265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="17.6416666666667" customWidth="1"/>
-    <col min="4" max="4" width="43.825" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="7.88333333333333" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="34.55" customWidth="1"/>
-    <col min="9" max="9" width="26.6166666666667" customWidth="1"/>
-    <col min="10" max="10" width="37.9333333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.5583333333333" customWidth="1"/>
+    <col min="10" max="10" width="28.225" customWidth="1"/>
     <col min="11" max="11" width="75.7333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29499,7 +29506,7 @@
         <v>1148</v>
       </c>
       <c r="J258" s="2"/>
-      <c r="K258" s="2" t="s">
+      <c r="K258" s="17" t="s">
         <v>1472</v>
       </c>
       <c r="L258" t="s">
@@ -29560,7 +29567,7 @@
         <v>1148</v>
       </c>
       <c r="J260" s="2"/>
-      <c r="K260" s="2" t="s">
+      <c r="K260" s="14" t="s">
         <v>1474</v>
       </c>
       <c r="L260" t="s">
@@ -29591,9 +29598,11 @@
       <c r="I261" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J261" s="2"/>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="2" t="s">
         <v>1475</v>
+      </c>
+      <c r="K261" s="14" t="s">
+        <v>1476</v>
       </c>
       <c r="L261" t="s">
         <v>1340</v>
@@ -29625,7 +29634,7 @@
       </c>
       <c r="J262" s="2"/>
       <c r="K262" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -29652,9 +29661,11 @@
       <c r="I263" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2" t="s">
-        <v>1477</v>
+      <c r="J263" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K263" s="14" t="s">
+        <v>1479</v>
       </c>
       <c r="L263" t="s">
         <v>1340</v>
@@ -29685,8 +29696,8 @@
         <v>1148</v>
       </c>
       <c r="J264" s="2"/>
-      <c r="K264" s="2" t="s">
-        <v>1478</v>
+      <c r="K264" s="14" t="s">
+        <v>1480</v>
       </c>
       <c r="L264" t="s">
         <v>1340</v>
@@ -29718,7 +29729,7 @@
       </c>
       <c r="J265" s="2"/>
       <c r="K265" s="2" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="L265" t="s">
         <v>1340</v>
@@ -29750,7 +29761,7 @@
       </c>
       <c r="J266" s="2"/>
       <c r="K266" s="2" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="L266" t="s">
         <v>1340</v>
@@ -29782,7 +29793,7 @@
       </c>
       <c r="J267" s="2"/>
       <c r="K267" s="2" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="268" hidden="1" spans="1:11">
@@ -29811,7 +29822,7 @@
       </c>
       <c r="J268" s="2"/>
       <c r="K268" s="2" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -29840,7 +29851,7 @@
       </c>
       <c r="J269" s="2"/>
       <c r="K269" s="2" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="L269" t="s">
         <v>1340</v>
@@ -29872,7 +29883,7 @@
       </c>
       <c r="J270" s="2"/>
       <c r="K270" s="2" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="L270" t="s">
         <v>1340</v>
@@ -29904,7 +29915,7 @@
       </c>
       <c r="J271" s="2"/>
       <c r="K271" s="2" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="L271" t="s">
         <v>1340</v>
@@ -29936,7 +29947,7 @@
       </c>
       <c r="J272" s="2"/>
       <c r="K272" s="2" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="L272" t="s">
         <v>1340</v>
@@ -29968,7 +29979,7 @@
       </c>
       <c r="J273" s="2"/>
       <c r="K273" s="2" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="274" hidden="1" spans="1:11">
@@ -29997,7 +30008,7 @@
       </c>
       <c r="J274" s="2"/>
       <c r="K274" s="2" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="275" hidden="1" spans="1:11">
@@ -30026,7 +30037,7 @@
       </c>
       <c r="J275" s="2"/>
       <c r="K275" s="2" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -30055,7 +30066,7 @@
       </c>
       <c r="J276" s="2"/>
       <c r="K276" s="2" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="L276" t="s">
         <v>1340</v>
@@ -30087,7 +30098,7 @@
       </c>
       <c r="J277" s="2"/>
       <c r="K277" s="2" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="L277" t="s">
         <v>1340</v>
@@ -30119,7 +30130,7 @@
       </c>
       <c r="J278" s="2"/>
       <c r="K278" s="2" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="L278" t="s">
         <v>1340</v>
@@ -30151,7 +30162,7 @@
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="18" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="L279" t="s">
         <v>1340</v>
@@ -30183,7 +30194,7 @@
       </c>
       <c r="J280" s="2"/>
       <c r="K280" s="2" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -30212,7 +30223,7 @@
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="2" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="L281" t="s">
         <v>1340</v>
@@ -30244,7 +30255,7 @@
       </c>
       <c r="J282" s="2"/>
       <c r="K282" s="2" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="L282" t="s">
         <v>1340</v>
@@ -30276,7 +30287,7 @@
       </c>
       <c r="J283" s="2"/>
       <c r="K283" s="2" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="L283" t="s">
         <v>1340</v>
@@ -30308,7 +30319,7 @@
       </c>
       <c r="J284" s="2"/>
       <c r="K284" s="2" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="L284" t="s">
         <v>1340</v>
@@ -30340,7 +30351,7 @@
       </c>
       <c r="J285" s="2"/>
       <c r="K285" s="2" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="L285" t="s">
         <v>1340</v>
@@ -30368,13 +30379,13 @@
       <c r="G286" s="2"/>
       <c r="H286" s="11"/>
       <c r="I286" s="3" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K286" s="14" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="L286" t="s">
         <v>1340</v>
@@ -30406,7 +30417,7 @@
       </c>
       <c r="J287" s="2"/>
       <c r="K287" s="2" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -30414,18 +30425,18 @@
       <c r="B288" s="7"/>
       <c r="C288" s="2"/>
       <c r="D288" s="7" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="11"/>
       <c r="I288" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J288" s="2"/>
       <c r="K288" s="2" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="L288" t="s">
         <v>1340</v>
@@ -30436,18 +30447,18 @@
       <c r="B289" s="7"/>
       <c r="C289" s="2"/>
       <c r="D289" s="7" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="11"/>
       <c r="I289" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J289" s="2"/>
       <c r="K289" s="2" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="L289" t="s">
         <v>1340</v>
@@ -30479,7 +30490,7 @@
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="L290" t="s">
         <v>1340</v>
@@ -30511,7 +30522,7 @@
       </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="L291" t="s">
         <v>1340</v>
@@ -30543,7 +30554,7 @@
       </c>
       <c r="J292" s="2"/>
       <c r="K292" s="2" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="L292" t="s">
         <v>1340</v>
@@ -30575,7 +30586,7 @@
       </c>
       <c r="J293" s="2"/>
       <c r="K293" s="2" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="L293" t="s">
         <v>1340</v>
@@ -30607,7 +30618,7 @@
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="L294" t="s">
         <v>1340</v>
@@ -30618,18 +30629,18 @@
       <c r="B295" s="7"/>
       <c r="C295" s="2"/>
       <c r="D295" s="7" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="11"/>
       <c r="I295" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="L295" t="s">
         <v>1340</v>
@@ -30640,18 +30651,18 @@
       <c r="B296" s="7"/>
       <c r="C296" s="2"/>
       <c r="D296" s="7" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="11"/>
       <c r="I296" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="L296" t="s">
         <v>1340</v>
@@ -30683,7 +30694,7 @@
       </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="L297" t="s">
         <v>1340</v>
@@ -30715,7 +30726,7 @@
       </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="L298" t="s">
         <v>1340</v>
@@ -30747,7 +30758,7 @@
       </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="L299" t="s">
         <v>1340</v>
@@ -30779,7 +30790,7 @@
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="L300" t="s">
         <v>1340</v>
@@ -30811,7 +30822,7 @@
       </c>
       <c r="J301" s="2"/>
       <c r="K301" s="2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="L301" t="s">
         <v>1340</v>
@@ -30843,7 +30854,7 @@
       </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="L302" t="s">
         <v>1340</v>
@@ -30875,7 +30886,7 @@
       </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="L303" t="s">
         <v>1340</v>
@@ -30907,7 +30918,7 @@
       </c>
       <c r="J304" s="2"/>
       <c r="K304" s="2" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="L304" t="s">
         <v>1340</v>
@@ -30939,7 +30950,7 @@
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="L305" t="s">
         <v>1340</v>
@@ -30971,7 +30982,7 @@
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="L306" t="s">
         <v>1340</v>
@@ -31003,7 +31014,7 @@
       </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="L307" t="s">
         <v>1340</v>
@@ -31035,7 +31046,7 @@
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="L308" t="s">
         <v>1340</v>
@@ -31067,7 +31078,7 @@
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="L309" t="s">
         <v>1340</v>
@@ -31099,7 +31110,7 @@
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="2" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="L310" t="s">
         <v>1340</v>
@@ -31131,7 +31142,7 @@
       </c>
       <c r="J311" s="2"/>
       <c r="K311" s="15" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="312" hidden="1" spans="1:11">
@@ -31162,7 +31173,7 @@
       </c>
       <c r="J312" s="2"/>
       <c r="K312" s="18" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="313" hidden="1" spans="1:11">
@@ -31193,7 +31204,7 @@
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="18" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="314" hidden="1" spans="1:11">
@@ -31224,7 +31235,7 @@
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="18" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="315" hidden="1" spans="1:11">
@@ -31255,7 +31266,7 @@
       </c>
       <c r="J315" s="2"/>
       <c r="K315" s="18" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="316" hidden="1" spans="1:11">
@@ -31286,7 +31297,7 @@
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="18" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="317" hidden="1" spans="1:11">
@@ -31300,7 +31311,7 @@
         <v>859</v>
       </c>
       <c r="D317" s="27" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>751</v>
@@ -31317,7 +31328,7 @@
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="18" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="318" hidden="1" spans="1:11">
@@ -31348,7 +31359,7 @@
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="18" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="319" hidden="1" spans="1:11">
@@ -31379,7 +31390,7 @@
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="18" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="320" hidden="1" spans="1:11">
@@ -31410,7 +31421,7 @@
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="18" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="321" hidden="1" spans="1:11">
@@ -31441,7 +31452,7 @@
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="18" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="322" hidden="1" spans="1:11">
@@ -31472,7 +31483,7 @@
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="18" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:11">
@@ -31503,7 +31514,7 @@
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="18" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="324" hidden="1" spans="1:11">
@@ -31534,7 +31545,7 @@
       </c>
       <c r="J324" s="2"/>
       <c r="K324" s="18" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="325" hidden="1" spans="1:11">
@@ -31565,7 +31576,7 @@
       </c>
       <c r="J325" s="2"/>
       <c r="K325" s="18" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="326" hidden="1" spans="1:11">
@@ -31596,7 +31607,7 @@
       </c>
       <c r="J326" s="2"/>
       <c r="K326" s="18" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="327" hidden="1" spans="1:11">
@@ -31627,7 +31638,7 @@
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="18" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="328" hidden="1" spans="1:11">
@@ -31658,7 +31669,7 @@
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="18" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="329" hidden="1" spans="1:11">
@@ -31689,7 +31700,7 @@
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="18" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="330" hidden="1" spans="1:11">
@@ -31720,7 +31731,7 @@
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="18" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="331" hidden="1" spans="1:11">
@@ -31751,7 +31762,7 @@
       </c>
       <c r="J331" s="2"/>
       <c r="K331" s="18" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="332" hidden="1" spans="1:11">
@@ -31782,7 +31793,7 @@
       </c>
       <c r="J332" s="2"/>
       <c r="K332" s="18" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="333" hidden="1" spans="1:11">
@@ -31813,7 +31824,7 @@
       </c>
       <c r="J333" s="2"/>
       <c r="K333" s="18" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="334" hidden="1" spans="1:11">
@@ -31827,7 +31838,7 @@
         <v>885</v>
       </c>
       <c r="D334" s="27" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>751</v>
@@ -31844,7 +31855,7 @@
       </c>
       <c r="J334" s="2"/>
       <c r="K334" s="18" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="335" hidden="1" spans="1:11">
@@ -31870,14 +31881,14 @@
         <v>1</v>
       </c>
       <c r="H335" s="21" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="15" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="336" hidden="1" spans="1:11">
@@ -31904,11 +31915,11 @@
       </c>
       <c r="H336" s="22"/>
       <c r="I336" s="2" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="15" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="337" ht="16.5" hidden="1" spans="1:11">
@@ -31939,7 +31950,7 @@
       </c>
       <c r="J337" s="2"/>
       <c r="K337" s="39" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="338" hidden="1" spans="1:11">
@@ -31966,11 +31977,11 @@
       </c>
       <c r="H338" s="22"/>
       <c r="I338" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="18" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="339" hidden="1" spans="1:11">
@@ -32001,7 +32012,7 @@
       </c>
       <c r="J339" s="2"/>
       <c r="K339" s="18" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="340" hidden="1" spans="1:11">
@@ -32032,7 +32043,7 @@
       </c>
       <c r="J340" s="2"/>
       <c r="K340" s="40" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="341" hidden="1" spans="1:11">
@@ -32063,7 +32074,7 @@
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="18" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="342" hidden="1" spans="1:11">
@@ -32094,7 +32105,7 @@
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="18" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="343" hidden="1" spans="1:11">
@@ -32121,11 +32132,11 @@
       </c>
       <c r="H343" s="22"/>
       <c r="I343" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J343" s="2"/>
       <c r="K343" s="18" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="344" hidden="1" spans="1:11">
@@ -32152,11 +32163,11 @@
       </c>
       <c r="H344" s="22"/>
       <c r="I344" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J344" s="2"/>
       <c r="K344" s="18" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:11">
@@ -32187,7 +32198,7 @@
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="15" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="346" hidden="1" spans="1:11">
@@ -32218,7 +32229,7 @@
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="15" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="347" hidden="1" spans="1:11">
@@ -32249,7 +32260,7 @@
       </c>
       <c r="J347" s="2"/>
       <c r="K347" s="18" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="348" hidden="1" spans="1:11">
@@ -32280,7 +32291,7 @@
       </c>
       <c r="J348" s="2"/>
       <c r="K348" s="18" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="349" hidden="1" spans="1:11">
@@ -32311,7 +32322,7 @@
       </c>
       <c r="J349" s="2"/>
       <c r="K349" s="18" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="350" hidden="1" spans="1:11">
@@ -32342,7 +32353,7 @@
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="15" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="351" hidden="1" spans="1:11">
@@ -32373,7 +32384,7 @@
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="41" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="352" hidden="1" spans="1:11">
@@ -32404,7 +32415,7 @@
       </c>
       <c r="J352" s="2"/>
       <c r="K352" s="15" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="353" hidden="1" spans="1:11">
@@ -32431,11 +32442,11 @@
       </c>
       <c r="H353" s="22"/>
       <c r="I353" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J353" s="2"/>
       <c r="K353" s="15" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="354" hidden="1" spans="1:11">
@@ -32466,7 +32477,7 @@
       </c>
       <c r="J354" s="2"/>
       <c r="K354" s="15" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="355" hidden="1" spans="1:11">
@@ -32493,11 +32504,11 @@
       </c>
       <c r="H355" s="22"/>
       <c r="I355" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="18" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="356" hidden="1" spans="1:11">
@@ -32528,7 +32539,7 @@
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="41" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="357" hidden="1" spans="1:11">
@@ -32555,11 +32566,11 @@
       </c>
       <c r="H357" s="22"/>
       <c r="I357" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J357" s="2"/>
       <c r="K357" s="18" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="358" hidden="1" spans="1:11">
@@ -32586,11 +32597,11 @@
       </c>
       <c r="H358" s="22"/>
       <c r="I358" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J358" s="2"/>
       <c r="K358" s="15" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="359" hidden="1" spans="1:11">
@@ -32621,7 +32632,7 @@
       </c>
       <c r="J359" s="2"/>
       <c r="K359" s="18" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="360" hidden="1" spans="1:11">
@@ -32652,7 +32663,7 @@
       </c>
       <c r="J360" s="2"/>
       <c r="K360" s="15" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="361" hidden="1" spans="1:11">
@@ -32683,7 +32694,7 @@
       </c>
       <c r="J361" s="2"/>
       <c r="K361" s="18" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="362" hidden="1" spans="1:11">
@@ -32710,11 +32721,11 @@
       </c>
       <c r="H362" s="22"/>
       <c r="I362" s="2" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="J362" s="2"/>
       <c r="K362" s="15" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="363" hidden="1" spans="1:11">
@@ -32741,11 +32752,11 @@
       </c>
       <c r="H363" s="22"/>
       <c r="I363" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J363" s="2"/>
       <c r="K363" s="18" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="364" hidden="1" spans="1:11">
@@ -32776,7 +32787,7 @@
       </c>
       <c r="J364" s="2"/>
       <c r="K364" s="18" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="365" hidden="1" spans="1:11">
@@ -32807,7 +32818,7 @@
       </c>
       <c r="J365" s="2"/>
       <c r="K365" s="18" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="366" hidden="1" spans="1:11">
@@ -32834,11 +32845,11 @@
       </c>
       <c r="H366" s="22"/>
       <c r="I366" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="18" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="367" hidden="1" spans="1:11">
@@ -32869,7 +32880,7 @@
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="15" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="368" hidden="1" spans="1:11">
@@ -32895,14 +32906,14 @@
         <v>1</v>
       </c>
       <c r="H368" s="21" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="18" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="369" hidden="1" spans="1:11">
@@ -32933,7 +32944,7 @@
       </c>
       <c r="J369" s="2"/>
       <c r="K369" s="18" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="370" hidden="1" spans="1:11">
@@ -32964,7 +32975,7 @@
       </c>
       <c r="J370" s="2"/>
       <c r="K370" s="18" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="371" hidden="1" spans="1:11">
@@ -32995,7 +33006,7 @@
       </c>
       <c r="J371" s="2"/>
       <c r="K371" s="18" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="372" hidden="1" spans="1:11">
@@ -33026,7 +33037,7 @@
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="373" hidden="1" spans="1:11">
@@ -33053,11 +33064,11 @@
       </c>
       <c r="H373" s="22"/>
       <c r="I373" s="3" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J373" s="2"/>
       <c r="K373" s="18" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="374" hidden="1" spans="1:11">
@@ -33084,11 +33095,11 @@
       </c>
       <c r="H374" s="22"/>
       <c r="I374" s="3" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J374" s="2"/>
       <c r="K374" s="18" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="375" hidden="1" spans="1:11">
@@ -33119,7 +33130,7 @@
       </c>
       <c r="J375" s="2"/>
       <c r="K375" s="18" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="376" hidden="1" spans="1:11">
@@ -33150,7 +33161,7 @@
       </c>
       <c r="J376" s="2"/>
       <c r="K376" s="18" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="377" hidden="1" spans="1:11">
@@ -33181,7 +33192,7 @@
       </c>
       <c r="J377" s="2"/>
       <c r="K377" s="18" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="378" hidden="1" spans="1:11">
@@ -33212,7 +33223,7 @@
       </c>
       <c r="J378" s="2"/>
       <c r="K378" s="18" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="379" hidden="1" spans="1:11">
@@ -33239,11 +33250,11 @@
       </c>
       <c r="H379" s="22"/>
       <c r="I379" s="3" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="18" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="380" hidden="1" spans="1:11">
@@ -33274,7 +33285,7 @@
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="18" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="381" hidden="1" spans="1:11">
@@ -33305,7 +33316,7 @@
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="18" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="382" hidden="1" spans="1:11">
@@ -33336,7 +33347,7 @@
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="18" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="383" hidden="1" spans="1:11">
@@ -33367,7 +33378,7 @@
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="18" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="384" hidden="1" spans="1:11">
@@ -33398,7 +33409,7 @@
       </c>
       <c r="J384" s="2"/>
       <c r="K384" s="18" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="385" hidden="1" spans="1:11">
@@ -33425,11 +33436,11 @@
       </c>
       <c r="H385" s="22"/>
       <c r="I385" s="3" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="J385" s="2"/>
       <c r="K385" s="18" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="386" hidden="1" spans="1:11">
@@ -33460,7 +33471,7 @@
       </c>
       <c r="J386" s="2"/>
       <c r="K386" s="18" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="387" hidden="1" spans="1:11">
@@ -33491,7 +33502,7 @@
       </c>
       <c r="J387" s="2"/>
       <c r="K387" s="18" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="388" hidden="1" spans="1:11">
@@ -33522,7 +33533,7 @@
       </c>
       <c r="J388" s="2"/>
       <c r="K388" s="2" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="389" hidden="1" spans="1:11">
@@ -33553,7 +33564,7 @@
       </c>
       <c r="J389" s="2"/>
       <c r="K389" s="18" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="390" hidden="1" spans="1:11">
@@ -33584,7 +33595,7 @@
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="18" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="391" hidden="1" spans="1:11">
@@ -33611,11 +33622,11 @@
       </c>
       <c r="H391" s="22"/>
       <c r="I391" s="3" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="18" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="392" hidden="1" spans="1:11">
@@ -33642,11 +33653,11 @@
       </c>
       <c r="H392" s="22"/>
       <c r="I392" s="3" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="18" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="393" hidden="1" spans="1:11">
@@ -33673,11 +33684,11 @@
       </c>
       <c r="H393" s="22"/>
       <c r="I393" s="3" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="18" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="394" hidden="1" spans="1:11">
@@ -33708,7 +33719,7 @@
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="18" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="395" hidden="1" spans="1:11">
@@ -33722,7 +33733,7 @@
         <v>980</v>
       </c>
       <c r="D395" s="27" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>890</v>
@@ -33739,7 +33750,7 @@
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="18" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="396" hidden="1" spans="1:11">
@@ -33753,7 +33764,7 @@
         <v>486</v>
       </c>
       <c r="D396" s="27" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>890</v>
@@ -33770,7 +33781,7 @@
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="18" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="397" hidden="1" spans="1:11">
@@ -33801,7 +33812,7 @@
       </c>
       <c r="J397" s="2"/>
       <c r="K397" s="18" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="398" hidden="1" spans="1:11">
@@ -33832,7 +33843,7 @@
       </c>
       <c r="J398" s="2"/>
       <c r="K398" s="18" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="399" hidden="1" spans="1:11">
@@ -33859,11 +33870,11 @@
       </c>
       <c r="H399" s="22"/>
       <c r="I399" s="3" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="18" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="400" hidden="1" spans="1:11">
@@ -33890,11 +33901,11 @@
       </c>
       <c r="H400" s="22"/>
       <c r="I400" s="3" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="18" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="401" hidden="1" spans="1:11">
@@ -33925,7 +33936,7 @@
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="18" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -33939,7 +33950,7 @@
         <v>888</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="E402" s="7" t="s">
         <v>890</v>
@@ -33949,14 +33960,14 @@
       </c>
       <c r="G402" s="2"/>
       <c r="H402" s="21" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="14" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="L402" t="s">
         <v>1340</v>
@@ -33967,7 +33978,7 @@
       <c r="B403" s="7"/>
       <c r="C403" s="2"/>
       <c r="D403" s="7" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="E403" s="7" t="s">
         <v>890</v>
@@ -33978,11 +33989,11 @@
       <c r="G403" s="2"/>
       <c r="H403" s="22"/>
       <c r="I403" s="3" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="J403" s="2"/>
       <c r="K403" s="44" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="L403" t="s">
         <v>1340</v>
@@ -34014,7 +34025,7 @@
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="18" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="L404" t="s">
         <v>1340</v>
@@ -34046,7 +34057,7 @@
       </c>
       <c r="J405" s="2"/>
       <c r="K405" s="18" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="L405" t="s">
         <v>1340</v>
@@ -34078,7 +34089,7 @@
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="18" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="L406" t="s">
         <v>1340</v>
@@ -34110,7 +34121,7 @@
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="18" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -34124,7 +34135,7 @@
         <v>997</v>
       </c>
       <c r="D408" s="7" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="E408" s="7" t="s">
         <v>890</v>
@@ -34139,7 +34150,7 @@
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="18" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="L408" t="s">
         <v>1340</v>
@@ -34171,7 +34182,7 @@
       </c>
       <c r="J409" s="2"/>
       <c r="K409" s="18" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="L409" t="s">
         <v>1340</v>
@@ -34203,7 +34214,7 @@
       </c>
       <c r="J410" s="2"/>
       <c r="K410" s="18" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="L410" t="s">
         <v>1340</v>
@@ -34235,7 +34246,7 @@
       </c>
       <c r="J411" s="2"/>
       <c r="K411" s="18" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="L411" t="s">
         <v>1340</v>
@@ -34246,7 +34257,7 @@
       <c r="B412" s="7"/>
       <c r="C412" s="2"/>
       <c r="D412" s="7" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="E412" s="7" t="s">
         <v>890</v>
@@ -34257,11 +34268,11 @@
       <c r="G412" s="2"/>
       <c r="H412" s="22"/>
       <c r="I412" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="18" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="L412" t="s">
         <v>1340</v>
@@ -34278,7 +34289,7 @@
         <v>901</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="E413" s="7" t="s">
         <v>890</v>
@@ -34293,7 +34304,7 @@
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="19" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -34307,7 +34318,7 @@
         <v>1003</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="E414" s="7" t="s">
         <v>890</v>
@@ -34322,7 +34333,7 @@
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="18" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="L414" t="s">
         <v>1340</v>
@@ -34333,7 +34344,7 @@
       <c r="B415" s="7"/>
       <c r="C415" s="2"/>
       <c r="D415" s="7" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="E415" s="7" t="s">
         <v>890</v>
@@ -34344,11 +34355,11 @@
       <c r="G415" s="2"/>
       <c r="H415" s="22"/>
       <c r="I415" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="18" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="L415" t="s">
         <v>1340</v>
@@ -34359,7 +34370,7 @@
       <c r="B416" s="7"/>
       <c r="C416" s="2"/>
       <c r="D416" s="7" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="E416" s="7" t="s">
         <v>890</v>
@@ -34370,11 +34381,11 @@
       <c r="G416" s="2"/>
       <c r="H416" s="22"/>
       <c r="I416" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="18" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="L416" t="s">
         <v>1340</v>
@@ -34391,7 +34402,7 @@
         <v>903</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="E417" s="7" t="s">
         <v>890</v>
@@ -34406,7 +34417,7 @@
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="18" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -34414,7 +34425,7 @@
       <c r="B418" s="7"/>
       <c r="C418" s="2"/>
       <c r="D418" s="7" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="E418" s="7" t="s">
         <v>890</v>
@@ -34425,11 +34436,11 @@
       <c r="G418" s="2"/>
       <c r="H418" s="22"/>
       <c r="I418" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="18" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="L418" t="s">
         <v>1340</v>
@@ -34446,7 +34457,7 @@
         <v>907</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="E419" s="7" t="s">
         <v>890</v>
@@ -34461,7 +34472,7 @@
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="19" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="420" hidden="1" spans="1:11">
@@ -34475,7 +34486,7 @@
         <v>1007</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="E420" s="7" t="s">
         <v>890</v>
@@ -34490,7 +34501,7 @@
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="18" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -34515,13 +34526,13 @@
       <c r="G421" s="2"/>
       <c r="H421" s="22"/>
       <c r="I421" s="2" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K421" s="18" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="L421" t="s">
         <v>1340</v>
@@ -34553,7 +34564,7 @@
       </c>
       <c r="J422" s="2"/>
       <c r="K422" s="18" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="423" hidden="1" spans="1:11">
@@ -34582,7 +34593,7 @@
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="18" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -34590,7 +34601,7 @@
       <c r="B424" s="7"/>
       <c r="C424" s="2"/>
       <c r="D424" s="7" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="E424" s="7" t="s">
         <v>890</v>
@@ -34601,11 +34612,11 @@
       <c r="G424" s="2"/>
       <c r="H424" s="22"/>
       <c r="I424" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="18" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="L424" t="s">
         <v>1340</v>
@@ -34616,7 +34627,7 @@
       <c r="B425" s="7"/>
       <c r="C425" s="2"/>
       <c r="D425" s="7" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="E425" s="7" t="s">
         <v>890</v>
@@ -34627,11 +34638,11 @@
       <c r="G425" s="2"/>
       <c r="H425" s="22"/>
       <c r="I425" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J425" s="2"/>
       <c r="K425" s="18" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="L425" t="s">
         <v>1340</v>
@@ -34659,13 +34670,13 @@
       <c r="G426" s="2"/>
       <c r="H426" s="22"/>
       <c r="I426" s="3" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K426" s="19" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="L426" t="s">
         <v>1340</v>
@@ -34693,13 +34704,13 @@
       <c r="G427" s="2"/>
       <c r="H427" s="22"/>
       <c r="I427" s="3" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K427" s="18" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="L427" t="s">
         <v>1340</v>
@@ -34731,7 +34742,7 @@
       </c>
       <c r="J428" s="2"/>
       <c r="K428" s="45" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="L428" t="s">
         <v>1340</v>
@@ -34753,11 +34764,11 @@
       <c r="G429" s="2"/>
       <c r="H429" s="22"/>
       <c r="I429" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J429" s="2"/>
       <c r="K429" s="45" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="L429" t="s">
         <v>1340</v>
@@ -34774,7 +34785,7 @@
         <v>283</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="E430" s="7" t="s">
         <v>890</v>
@@ -34789,7 +34800,7 @@
       </c>
       <c r="J430" s="2"/>
       <c r="K430" s="18" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -34797,7 +34808,7 @@
       <c r="B431" s="7"/>
       <c r="C431" s="2"/>
       <c r="D431" s="7" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="E431" s="7" t="s">
         <v>890</v>
@@ -34808,11 +34819,11 @@
       <c r="G431" s="2"/>
       <c r="H431" s="22"/>
       <c r="I431" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J431" s="2"/>
       <c r="K431" s="18" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="L431" t="s">
         <v>1340</v>
@@ -34829,7 +34840,7 @@
         <v>417</v>
       </c>
       <c r="D432" s="42" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="E432" s="7" t="s">
         <v>890</v>
@@ -34844,7 +34855,7 @@
       </c>
       <c r="J432" s="2"/>
       <c r="K432" s="18" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="L432" t="s">
         <v>1340</v>
@@ -34861,7 +34872,7 @@
         <v>285</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="E433" s="7" t="s">
         <v>890</v>
@@ -34876,7 +34887,7 @@
       </c>
       <c r="J433" s="2"/>
       <c r="K433" s="18" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="L433" t="s">
         <v>1340</v>
@@ -34893,7 +34904,7 @@
         <v>920</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="E434" s="7" t="s">
         <v>890</v>
@@ -34908,7 +34919,7 @@
       </c>
       <c r="J434" s="2"/>
       <c r="K434" s="18" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="L434" t="s">
         <v>1340</v>
@@ -34919,7 +34930,7 @@
       <c r="B435" s="7"/>
       <c r="C435" s="2"/>
       <c r="D435" s="7" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="E435" s="7" t="s">
         <v>890</v>
@@ -34930,11 +34941,11 @@
       <c r="G435" s="2"/>
       <c r="H435" s="22"/>
       <c r="I435" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J435" s="2"/>
       <c r="K435" s="18" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="L435" t="s">
         <v>1340</v>
@@ -34966,7 +34977,7 @@
       </c>
       <c r="J436" s="2"/>
       <c r="K436" s="18" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="437" hidden="1" spans="1:11">
@@ -34995,7 +35006,7 @@
       </c>
       <c r="J437" s="2"/>
       <c r="K437" s="18" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="438" hidden="1" spans="1:11">
@@ -35024,7 +35035,7 @@
       </c>
       <c r="J438" s="2"/>
       <c r="K438" s="18" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="439" hidden="1" spans="1:11">
@@ -35053,7 +35064,7 @@
       </c>
       <c r="J439" s="2"/>
       <c r="K439" s="18" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="440" hidden="1" spans="1:11">
@@ -35082,7 +35093,7 @@
       </c>
       <c r="J440" s="2"/>
       <c r="K440" s="18" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="441" hidden="1" spans="1:11">
@@ -35111,7 +35122,7 @@
       </c>
       <c r="J441" s="2"/>
       <c r="K441" s="18" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="442" spans="1:16384">
@@ -35119,7 +35130,7 @@
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
       <c r="D442" s="43" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="E442" s="7" t="s">
         <v>890</v>
@@ -35130,11 +35141,11 @@
       <c r="G442" s="18"/>
       <c r="H442" s="22"/>
       <c r="I442" s="45" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J442" s="18"/>
       <c r="K442" s="18" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="L442" t="s">
         <v>1340</v>
@@ -51523,7 +51534,7 @@
         <v>1033</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="E443" s="7" t="s">
         <v>890</v>
@@ -51538,7 +51549,7 @@
       </c>
       <c r="J443" s="2"/>
       <c r="K443" s="18" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="444" hidden="1" spans="1:11">
@@ -51567,7 +51578,7 @@
       </c>
       <c r="J444" s="2"/>
       <c r="K444" s="18" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -51596,7 +51607,7 @@
       </c>
       <c r="J445" s="2"/>
       <c r="K445" s="18" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="L445" t="s">
         <v>1340</v>
@@ -51628,7 +51639,7 @@
       </c>
       <c r="J446" s="2"/>
       <c r="K446" s="18" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="447" hidden="1" spans="1:11">
@@ -51657,7 +51668,7 @@
       </c>
       <c r="J447" s="2"/>
       <c r="K447" s="18" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -51686,7 +51697,7 @@
       </c>
       <c r="J448" s="2"/>
       <c r="K448" s="18" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="L448" t="s">
         <v>1340</v>
@@ -51718,7 +51729,7 @@
       </c>
       <c r="J449" s="2"/>
       <c r="K449" s="18" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="450" hidden="1" spans="1:11">
@@ -51747,7 +51758,7 @@
       </c>
       <c r="J450" s="2"/>
       <c r="K450" s="18" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="451" hidden="1" spans="1:11">
@@ -51776,7 +51787,7 @@
       </c>
       <c r="J451" s="2"/>
       <c r="K451" s="18" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -51790,7 +51801,7 @@
         <v>1050</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="E452" s="7" t="s">
         <v>890</v>
@@ -51805,7 +51816,7 @@
       </c>
       <c r="J452" s="2"/>
       <c r="K452" s="46" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="L452" t="s">
         <v>1340</v>
@@ -51822,7 +51833,7 @@
         <v>931</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="E453" s="7" t="s">
         <v>890</v>
@@ -51833,13 +51844,13 @@
       <c r="G453" s="2"/>
       <c r="H453" s="22"/>
       <c r="I453" s="3" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K453" s="20" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="L453" t="s">
         <v>1340</v>
@@ -51850,7 +51861,7 @@
       <c r="B454" s="7"/>
       <c r="C454" s="2"/>
       <c r="D454" s="7" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="E454" s="7" t="s">
         <v>890</v>
@@ -51861,11 +51872,11 @@
       <c r="G454" s="2"/>
       <c r="H454" s="22"/>
       <c r="I454" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J454" s="2"/>
       <c r="K454" s="47" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="L454" t="s">
         <v>1340</v>
@@ -51897,7 +51908,7 @@
       </c>
       <c r="J455" s="2"/>
       <c r="K455" s="18" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="L455" t="s">
         <v>1340</v>
@@ -51929,7 +51940,7 @@
       </c>
       <c r="J456" s="2"/>
       <c r="K456" s="18" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="L456" t="s">
         <v>1340</v>
@@ -51961,7 +51972,7 @@
       </c>
       <c r="J457" s="2"/>
       <c r="K457" s="18" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -51986,11 +51997,11 @@
       <c r="G458" s="2"/>
       <c r="H458" s="22"/>
       <c r="I458" s="2" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="J458" s="2"/>
       <c r="K458" s="18" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="L458" t="s">
         <v>1340</v>
@@ -52022,7 +52033,7 @@
       </c>
       <c r="J459" s="2"/>
       <c r="K459" s="18" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="460" hidden="1" spans="1:11">
@@ -52036,7 +52047,7 @@
         <v>937</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="E460" s="7" t="s">
         <v>890</v>
@@ -52051,7 +52062,7 @@
       </c>
       <c r="J460" s="2"/>
       <c r="K460" s="18" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="461" hidden="1" spans="1:11">
@@ -52080,7 +52091,7 @@
       </c>
       <c r="J461" s="2"/>
       <c r="K461" s="18" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="462" hidden="1" spans="1:11">
@@ -52109,7 +52120,7 @@
       </c>
       <c r="J462" s="2"/>
       <c r="K462" s="18" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -52138,7 +52149,7 @@
       </c>
       <c r="J463" s="2"/>
       <c r="K463" s="45" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="L463" t="s">
         <v>1340</v>
@@ -52155,7 +52166,7 @@
         <v>1069</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="E464" s="7" t="s">
         <v>890</v>
@@ -52170,7 +52181,7 @@
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="18" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="L464" t="s">
         <v>1340</v>
@@ -52181,7 +52192,7 @@
       <c r="B465" s="7"/>
       <c r="C465" s="2"/>
       <c r="D465" s="7" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>890</v>
@@ -52192,11 +52203,11 @@
       <c r="G465" s="2"/>
       <c r="H465" s="22"/>
       <c r="I465" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="18" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="L465" t="s">
         <v>1340</v>
@@ -52213,7 +52224,7 @@
         <v>1071</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="E466" s="7" t="s">
         <v>890</v>
@@ -52228,7 +52239,7 @@
       </c>
       <c r="J466" s="2"/>
       <c r="K466" s="46" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -52242,7 +52253,7 @@
         <v>300</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>890</v>
@@ -52257,7 +52268,7 @@
       </c>
       <c r="J467" s="2"/>
       <c r="K467" s="18" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="L467" t="s">
         <v>1340</v>
@@ -52274,7 +52285,7 @@
         <v>1074</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="E468" s="7" t="s">
         <v>890</v>
@@ -52285,13 +52296,13 @@
       <c r="G468" s="2"/>
       <c r="H468" s="25"/>
       <c r="I468" s="3" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K468" s="18" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="L468" t="s">
         <v>1340</v>
@@ -52327,7 +52338,7 @@
       </c>
       <c r="J469" s="2"/>
       <c r="K469" s="18" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="470" hidden="1" spans="1:11">
@@ -52358,7 +52369,7 @@
       </c>
       <c r="J470" s="2"/>
       <c r="K470" s="18" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="471" hidden="1" spans="1:11">
@@ -52389,7 +52400,7 @@
       </c>
       <c r="J471" s="2"/>
       <c r="K471" s="2" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="472" hidden="1" spans="1:11">
@@ -52420,7 +52431,7 @@
       </c>
       <c r="J472" s="2"/>
       <c r="K472" s="2" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="473" hidden="1" spans="1:11">
@@ -52447,11 +52458,11 @@
       </c>
       <c r="H473" s="22"/>
       <c r="I473" s="2" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="J473" s="2"/>
       <c r="K473" s="2" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="474" hidden="1" spans="1:11">
@@ -52482,7 +52493,7 @@
       </c>
       <c r="J474" s="2"/>
       <c r="K474" s="18" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="475" hidden="1" spans="1:11">
@@ -52509,11 +52520,11 @@
       </c>
       <c r="H475" s="22"/>
       <c r="I475" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="J475" s="2"/>
       <c r="K475" s="18" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="476" hidden="1" spans="1:11">
@@ -52540,11 +52551,11 @@
       </c>
       <c r="H476" s="22"/>
       <c r="I476" s="2" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="J476" s="2"/>
       <c r="K476" s="2" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="477" hidden="1" spans="1:11">
@@ -52587,7 +52598,7 @@
         <v>215</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>198</v>
@@ -52604,7 +52615,7 @@
       </c>
       <c r="J478" s="2"/>
       <c r="K478" s="18" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="479" hidden="1" spans="1:11">
@@ -52635,7 +52646,7 @@
       </c>
       <c r="J479" s="2"/>
       <c r="K479" s="2" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="480" hidden="1" customHeight="1" spans="1:11">
@@ -52666,7 +52677,7 @@
       </c>
       <c r="J480" s="2"/>
       <c r="K480" s="2" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="481" hidden="1" spans="1:11">
@@ -52697,7 +52708,7 @@
       </c>
       <c r="J481" s="2"/>
       <c r="K481" s="3" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="482" hidden="1" spans="1:11">
@@ -52711,7 +52722,7 @@
         <v>223</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>198</v>
@@ -52724,11 +52735,11 @@
       </c>
       <c r="H482" s="22"/>
       <c r="I482" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J482" s="2"/>
       <c r="K482" s="2" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="483" hidden="1" spans="1:11">
@@ -52759,7 +52770,7 @@
       </c>
       <c r="J483" s="2"/>
       <c r="K483" s="2" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="484" hidden="1" spans="1:11">
@@ -52790,7 +52801,7 @@
       </c>
       <c r="J484" s="2"/>
       <c r="K484" s="2" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="485" hidden="1" spans="1:11">
@@ -52821,7 +52832,7 @@
       </c>
       <c r="J485" s="2"/>
       <c r="K485" s="2" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="486" hidden="1" spans="1:11">
@@ -52848,11 +52859,11 @@
       </c>
       <c r="H486" s="22"/>
       <c r="I486" s="3" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="J486" s="2"/>
       <c r="K486" s="14" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="487" hidden="1" spans="1:11">
@@ -52883,7 +52894,7 @@
       </c>
       <c r="J487" s="2"/>
       <c r="K487" s="2" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="488" hidden="1" spans="1:11">
@@ -52910,11 +52921,11 @@
       </c>
       <c r="H488" s="22"/>
       <c r="I488" s="3" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="2" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="489" hidden="1" spans="1:11">
@@ -52941,11 +52952,11 @@
       </c>
       <c r="H489" s="22"/>
       <c r="I489" s="34" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="J489" s="2"/>
       <c r="K489" s="2" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="490" hidden="1" spans="1:11">
@@ -52976,7 +52987,7 @@
       </c>
       <c r="J490" s="2"/>
       <c r="K490" s="2" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="491" hidden="1" spans="1:11">
@@ -53003,7 +53014,7 @@
       </c>
       <c r="H491" s="22"/>
       <c r="I491" s="34" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
@@ -53032,11 +53043,11 @@
       </c>
       <c r="H492" s="22"/>
       <c r="I492" s="34" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="J492" s="2"/>
       <c r="K492" s="2" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="493" hidden="1" spans="1:11">
@@ -53063,11 +53074,11 @@
       </c>
       <c r="H493" s="22"/>
       <c r="I493" s="2" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J493" s="2"/>
       <c r="K493" s="3" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="494" hidden="1" spans="1:11">
@@ -53098,7 +53109,7 @@
       </c>
       <c r="J494" s="2"/>
       <c r="K494" s="3" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="495" hidden="1" spans="1:11">
@@ -53125,11 +53136,11 @@
       </c>
       <c r="H495" s="22"/>
       <c r="I495" s="34" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="J495" s="2"/>
       <c r="K495" s="2" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="496" hidden="1" spans="1:11">
@@ -53156,11 +53167,11 @@
       </c>
       <c r="H496" s="22"/>
       <c r="I496" s="34" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="J496" s="2"/>
       <c r="K496" s="2" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="497" hidden="1" spans="1:11">
@@ -53187,11 +53198,11 @@
       </c>
       <c r="H497" s="22"/>
       <c r="I497" s="34" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="J497" s="2"/>
       <c r="K497" s="2" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="498" hidden="1" spans="1:11">
@@ -53222,7 +53233,7 @@
       </c>
       <c r="J498" s="2"/>
       <c r="K498" s="2" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="499" hidden="1" spans="1:11">
@@ -53249,11 +53260,11 @@
       </c>
       <c r="H499" s="22"/>
       <c r="I499" s="3" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="J499" s="2"/>
       <c r="K499" s="2" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="500" hidden="1" spans="1:11">
@@ -53280,11 +53291,11 @@
       </c>
       <c r="H500" s="22"/>
       <c r="I500" s="34" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="2" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="501" hidden="1" spans="1:11">
@@ -53311,11 +53322,11 @@
       </c>
       <c r="H501" s="22"/>
       <c r="I501" s="3" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J501" s="2"/>
       <c r="K501" s="2" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="502" hidden="1" spans="1:11">
@@ -53342,7 +53353,7 @@
       </c>
       <c r="H502" s="22"/>
       <c r="I502" s="34" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
@@ -53369,13 +53380,13 @@
       <c r="G503" s="2"/>
       <c r="H503" s="22"/>
       <c r="I503" s="3" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K503" s="49" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="L503" t="s">
         <v>1138</v>
@@ -53407,7 +53418,7 @@
       </c>
       <c r="J504" s="2"/>
       <c r="K504" s="2" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="505" hidden="1" spans="1:12">
@@ -53432,13 +53443,13 @@
       <c r="G505" s="2"/>
       <c r="H505" s="22"/>
       <c r="I505" s="3" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J505" s="2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="K505" s="14" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="L505" t="s">
         <v>1138</v>
@@ -53466,13 +53477,13 @@
       <c r="G506" s="2"/>
       <c r="H506" s="22"/>
       <c r="I506" s="3" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="K506" s="14" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="L506" t="s">
         <v>1138</v>
@@ -53506,7 +53517,7 @@
         <v>1171</v>
       </c>
       <c r="K507" s="14" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="L507" t="s">
         <v>1138</v>
@@ -53540,7 +53551,7 @@
         <v>1171</v>
       </c>
       <c r="K508" s="2" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="L508" t="s">
         <v>1138</v>
@@ -53574,7 +53585,7 @@
         <v>1171</v>
       </c>
       <c r="K509" s="14" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="L509" t="s">
         <v>1138</v>
@@ -53602,11 +53613,11 @@
       <c r="G510" s="2"/>
       <c r="H510" s="22"/>
       <c r="I510" s="3" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="511" hidden="1" spans="1:12">
@@ -53637,7 +53648,7 @@
         <v>1171</v>
       </c>
       <c r="K511" s="14" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="L511" t="s">
         <v>1138</v>
@@ -53665,13 +53676,13 @@
       <c r="G512" s="2"/>
       <c r="H512" s="22"/>
       <c r="I512" s="3" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J512" s="2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="K512" s="14" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="L512" t="s">
         <v>1138</v>
@@ -53682,7 +53693,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="3" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>198</v>
@@ -53696,10 +53707,10 @@
         <v>1277</v>
       </c>
       <c r="J513" s="2" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="K513" s="14" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="L513" t="s">
         <v>1138</v>
@@ -53710,7 +53721,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="3" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>198</v>
@@ -53724,10 +53735,10 @@
         <v>1277</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="K514" s="14" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="L514" t="s">
         <v>1138</v>
@@ -53755,10 +53766,10 @@
       <c r="G515" s="2"/>
       <c r="H515" s="22"/>
       <c r="I515" s="3" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="J515" s="2" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="K515" s="2"/>
       <c r="L515" t="s">
@@ -53776,7 +53787,7 @@
         <v>285</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -53787,11 +53798,11 @@
       <c r="G516" s="2"/>
       <c r="H516" s="22"/>
       <c r="I516" s="48" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="14" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="L516" t="s">
         <v>1138</v>
@@ -53802,7 +53813,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="3" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>198</v>
@@ -53813,11 +53824,11 @@
       <c r="G517" s="2"/>
       <c r="H517" s="22"/>
       <c r="I517" s="48" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="14" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="L517" t="s">
         <v>1138</v>
@@ -53849,7 +53860,7 @@
       </c>
       <c r="J518" s="2"/>
       <c r="K518" s="2" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="519" hidden="1" spans="1:12">
@@ -53880,7 +53891,7 @@
         <v>1181</v>
       </c>
       <c r="K519" s="14" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="L519" t="s">
         <v>1138</v>
@@ -53908,13 +53919,13 @@
       <c r="G520" s="2"/>
       <c r="H520" s="22"/>
       <c r="I520" s="48" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="K520" s="2" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="L520" t="s">
         <v>1138</v>
@@ -53942,13 +53953,13 @@
       <c r="G521" s="2"/>
       <c r="H521" s="22"/>
       <c r="I521" s="2" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="K521" s="14" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="L521" t="s">
         <v>1138</v>
@@ -53980,7 +53991,7 @@
       </c>
       <c r="J522" s="2"/>
       <c r="K522" s="2" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="523" hidden="1" spans="1:11">
@@ -54009,7 +54020,7 @@
       </c>
       <c r="J523" s="2"/>
       <c r="K523" s="2" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="524" hidden="1" spans="1:11">
@@ -54038,7 +54049,7 @@
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="2" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="525" hidden="1" spans="1:12">
@@ -54063,13 +54074,13 @@
       <c r="G525" s="2"/>
       <c r="H525" s="22"/>
       <c r="I525" s="3" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="K525" s="14" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="L525" t="s">
         <v>1138</v>
@@ -54086,7 +54097,7 @@
         <v>295</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>198</v>
@@ -54097,13 +54108,13 @@
       <c r="G526" s="2"/>
       <c r="H526" s="22"/>
       <c r="I526" s="3" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>1181</v>
       </c>
       <c r="K526" s="14" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="L526" t="s">
         <v>1138</v>
@@ -54135,7 +54146,7 @@
       </c>
       <c r="J527" s="2"/>
       <c r="K527" s="2" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="528" hidden="1" spans="1:12">
@@ -54160,13 +54171,13 @@
       <c r="G528" s="2"/>
       <c r="H528" s="22"/>
       <c r="I528" s="3" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J528" s="2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="L528" t="s">
         <v>1138</v>
@@ -54194,13 +54205,13 @@
       <c r="G529" s="2"/>
       <c r="H529" s="22"/>
       <c r="I529" s="2" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="J529" s="2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="K529" s="14" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="L529" t="s">
         <v>1138</v>
@@ -54217,7 +54228,7 @@
         <v>300</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>198</v>
@@ -54228,11 +54239,11 @@
       <c r="G530" s="2"/>
       <c r="H530" s="22"/>
       <c r="I530" s="2" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="J530" s="2"/>
       <c r="K530" s="2" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="531" hidden="1" spans="1:12">
@@ -54240,7 +54251,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>198</v>
@@ -54255,7 +54266,7 @@
         <v>1181</v>
       </c>
       <c r="K531" s="14" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="L531" t="s">
         <v>1138</v>
@@ -54283,13 +54294,13 @@
       <c r="G532" s="2"/>
       <c r="H532" s="22"/>
       <c r="I532" s="3" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="J532" s="2" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="K532" s="14" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="L532" t="s">
         <v>1138</v>
@@ -54317,13 +54328,13 @@
       <c r="G533" s="2"/>
       <c r="H533" s="25"/>
       <c r="I533" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="J533" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="J533" s="2" t="s">
-        <v>1812</v>
-      </c>
       <c r="K533" s="14" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="L533" t="s">
         <v>1138</v>
@@ -54352,10 +54363,10 @@
         <v>1</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
@@ -54383,10 +54394,10 @@
         <v>1</v>
       </c>
       <c r="H535" s="2" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="I535" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
@@ -54414,10 +54425,10 @@
         <v>1</v>
       </c>
       <c r="H536" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="I536" s="3" t="s">
         <v>1819</v>
-      </c>
-      <c r="I536" s="3" t="s">
-        <v>1817</v>
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
@@ -54445,10 +54456,10 @@
         <v>1</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -54476,10 +54487,10 @@
         <v>1</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
@@ -54507,10 +54518,10 @@
         <v>1</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
@@ -54538,10 +54549,10 @@
         <v>1</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
@@ -54569,10 +54580,10 @@
         <v>1</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
@@ -54600,10 +54611,10 @@
         <v>1</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
@@ -54631,10 +54642,10 @@
         <v>1</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
@@ -54662,10 +54673,10 @@
         <v>1</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
@@ -54693,10 +54704,10 @@
         <v>1</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
@@ -54724,10 +54735,10 @@
         <v>1</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
@@ -54755,10 +54766,10 @@
         <v>1</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
@@ -54786,10 +54797,10 @@
         <v>1</v>
       </c>
       <c r="H548" s="3" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
@@ -54817,10 +54828,10 @@
         <v>1</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
@@ -54848,10 +54859,10 @@
         <v>1</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
@@ -54879,10 +54890,10 @@
         <v>1</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
@@ -54910,10 +54921,10 @@
         <v>1</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -54941,10 +54952,10 @@
         <v>1</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
@@ -54972,10 +54983,10 @@
         <v>1</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
@@ -54991,7 +55002,7 @@
         <v>438</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>404</v>
@@ -55003,14 +55014,14 @@
         <v>1</v>
       </c>
       <c r="H555" s="21" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="18" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="556" hidden="1" spans="1:11">
@@ -55024,7 +55035,7 @@
         <v>438</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>404</v>
@@ -55037,11 +55048,11 @@
       </c>
       <c r="H556" s="22"/>
       <c r="I556" s="2" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J556" s="2"/>
       <c r="K556" s="18" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="557" hidden="1" spans="1:11">
@@ -55055,7 +55066,7 @@
         <v>438</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>404</v>
@@ -55068,11 +55079,11 @@
       </c>
       <c r="H557" s="22"/>
       <c r="I557" s="2" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="18" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="558" hidden="1" spans="1:11">
@@ -55086,7 +55097,7 @@
         <v>440</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>404</v>
@@ -55099,11 +55110,11 @@
       </c>
       <c r="H558" s="22"/>
       <c r="I558" s="2" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="J558" s="2"/>
       <c r="K558" s="18" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="559" hidden="1" spans="1:11">
@@ -55117,7 +55128,7 @@
         <v>440</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>404</v>
@@ -55130,11 +55141,11 @@
       </c>
       <c r="H559" s="22"/>
       <c r="I559" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="18" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="560" hidden="1" spans="1:11">
@@ -55148,7 +55159,7 @@
         <v>440</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>404</v>
@@ -55161,11 +55172,11 @@
       </c>
       <c r="H560" s="22"/>
       <c r="I560" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J560" s="2"/>
       <c r="K560" s="18" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="561" hidden="1" spans="1:11">
@@ -55179,7 +55190,7 @@
         <v>442</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>404</v>
@@ -55192,11 +55203,11 @@
       </c>
       <c r="H561" s="22"/>
       <c r="I561" s="2" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="18" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="562" hidden="1" spans="1:11">
@@ -55210,7 +55221,7 @@
         <v>442</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>404</v>
@@ -55223,11 +55234,11 @@
       </c>
       <c r="H562" s="22"/>
       <c r="I562" s="2" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="18" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="563" hidden="1" spans="1:11">
@@ -55241,7 +55252,7 @@
         <v>442</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>404</v>
@@ -55254,11 +55265,11 @@
       </c>
       <c r="H563" s="22"/>
       <c r="I563" s="2" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J563" s="2"/>
       <c r="K563" s="18" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="564" hidden="1" spans="1:11">
@@ -55272,7 +55283,7 @@
         <v>444</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>404</v>
@@ -55285,11 +55296,11 @@
       </c>
       <c r="H564" s="22"/>
       <c r="I564" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="18" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="565" hidden="1" spans="1:11">
@@ -55303,7 +55314,7 @@
         <v>444</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>404</v>
@@ -55316,11 +55327,11 @@
       </c>
       <c r="H565" s="22"/>
       <c r="I565" s="2" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J565" s="2"/>
       <c r="K565" s="18" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="566" hidden="1" spans="1:11">
@@ -55334,7 +55345,7 @@
         <v>444</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>404</v>
@@ -55351,7 +55362,7 @@
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="18" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="567" hidden="1" spans="1:11">
@@ -55365,7 +55376,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>404</v>
@@ -55382,7 +55393,7 @@
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="18" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="568" hidden="1" spans="1:11">
@@ -55396,7 +55407,7 @@
         <v>446</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>404</v>
@@ -55409,11 +55420,11 @@
       </c>
       <c r="H568" s="22"/>
       <c r="I568" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J568" s="2"/>
       <c r="K568" s="18" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="569" ht="16.5" hidden="1" spans="1:11">
@@ -55427,7 +55438,7 @@
         <v>446</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>404</v>
@@ -55440,11 +55451,11 @@
       </c>
       <c r="H569" s="22"/>
       <c r="I569" s="2" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="50" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="570" hidden="1" spans="1:11">
@@ -55458,7 +55469,7 @@
         <v>448</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>404</v>
@@ -55471,11 +55482,11 @@
       </c>
       <c r="H570" s="22"/>
       <c r="I570" s="2" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="18" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="571" hidden="1" spans="1:11">
@@ -55489,7 +55500,7 @@
         <v>448</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>404</v>
@@ -55506,7 +55517,7 @@
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="18" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="572" hidden="1" spans="1:11">
@@ -55520,7 +55531,7 @@
         <v>448</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>404</v>
@@ -55533,11 +55544,11 @@
       </c>
       <c r="H572" s="22"/>
       <c r="I572" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="18" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="573" hidden="1" spans="1:11">
@@ -55551,7 +55562,7 @@
         <v>434</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>404</v>
@@ -55568,7 +55579,7 @@
       </c>
       <c r="J573" s="2"/>
       <c r="K573" s="18" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="574" hidden="1" spans="1:11">
@@ -55582,7 +55593,7 @@
         <v>434</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>404</v>
@@ -55599,7 +55610,7 @@
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="18" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="575" hidden="1" spans="1:11">
@@ -55613,7 +55624,7 @@
         <v>434</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>404</v>
@@ -55630,7 +55641,7 @@
       </c>
       <c r="J575" s="2"/>
       <c r="K575" s="18" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="576" ht="16.5" hidden="1" spans="1:11">
@@ -55644,7 +55655,7 @@
         <v>434</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>404</v>
@@ -55661,7 +55672,7 @@
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="50" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="577" hidden="1" spans="1:11">
@@ -55675,7 +55686,7 @@
         <v>451</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>404</v>
@@ -55692,7 +55703,7 @@
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="18" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="578" hidden="1" spans="1:11">
@@ -55706,7 +55717,7 @@
         <v>451</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>404</v>
@@ -55719,11 +55730,11 @@
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="3" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J578" s="2"/>
       <c r="K578" s="45" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="579" hidden="1" spans="1:11">
@@ -55737,7 +55748,7 @@
         <v>451</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>404</v>
@@ -55754,7 +55765,7 @@
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="45" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="580" hidden="1" spans="1:11">
@@ -55768,7 +55779,7 @@
         <v>453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>404</v>
@@ -55781,11 +55792,11 @@
       </c>
       <c r="H580" s="22"/>
       <c r="I580" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="18" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="581" hidden="1" spans="1:11">
@@ -55799,7 +55810,7 @@
         <v>453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>404</v>
@@ -55812,11 +55823,11 @@
       </c>
       <c r="H581" s="22"/>
       <c r="I581" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="18" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="582" ht="16.5" hidden="1" spans="1:11">
@@ -55830,7 +55841,7 @@
         <v>453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>404</v>
@@ -55843,11 +55854,11 @@
       </c>
       <c r="H582" s="22"/>
       <c r="I582" s="3" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="50" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="583" hidden="1" spans="1:11">
@@ -55861,7 +55872,7 @@
         <v>455</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>404</v>
@@ -55878,7 +55889,7 @@
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="18" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="584" hidden="1" spans="1:11">
@@ -55892,7 +55903,7 @@
         <v>455</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>404</v>
@@ -55909,7 +55920,7 @@
       </c>
       <c r="J584" s="2"/>
       <c r="K584" s="18" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="585" hidden="1" spans="1:11">
@@ -55923,7 +55934,7 @@
         <v>455</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>404</v>
@@ -55936,11 +55947,11 @@
       </c>
       <c r="H585" s="22"/>
       <c r="I585" s="3" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="18" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="586" hidden="1" spans="1:11">
@@ -55954,7 +55965,7 @@
         <v>455</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>404</v>
@@ -55967,11 +55978,11 @@
       </c>
       <c r="H586" s="22"/>
       <c r="I586" s="3" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="J586" s="2"/>
       <c r="K586" s="18" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="587" hidden="1" spans="1:11">
@@ -55985,7 +55996,7 @@
         <v>457</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>404</v>
@@ -55998,11 +56009,11 @@
       </c>
       <c r="H587" s="22"/>
       <c r="I587" s="3" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="45" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="588" hidden="1" spans="1:11">
@@ -56016,7 +56027,7 @@
         <v>457</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>404</v>
@@ -56029,11 +56040,11 @@
       </c>
       <c r="H588" s="22"/>
       <c r="I588" s="3" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="18" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="589" hidden="1" spans="1:11">
@@ -56047,7 +56058,7 @@
         <v>459</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>404</v>
@@ -56060,11 +56071,11 @@
       </c>
       <c r="H589" s="22"/>
       <c r="I589" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J589" s="2"/>
       <c r="K589" s="18" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="590" hidden="1" spans="1:11">
@@ -56078,7 +56089,7 @@
         <v>459</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>404</v>
@@ -56091,11 +56102,11 @@
       </c>
       <c r="H590" s="22"/>
       <c r="I590" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="18" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="591" hidden="1" spans="1:11">
@@ -56109,7 +56120,7 @@
         <v>459</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>404</v>
@@ -56122,11 +56133,11 @@
       </c>
       <c r="H591" s="22"/>
       <c r="I591" s="3" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="J591" s="2"/>
       <c r="K591" s="18" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="592" hidden="1" spans="1:11">
@@ -56140,7 +56151,7 @@
         <v>461</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>404</v>
@@ -56153,11 +56164,11 @@
       </c>
       <c r="H592" s="22"/>
       <c r="I592" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="18" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="593" hidden="1" spans="1:11">
@@ -56171,7 +56182,7 @@
         <v>461</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>404</v>
@@ -56184,11 +56195,11 @@
       </c>
       <c r="H593" s="22"/>
       <c r="I593" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="18" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="594" hidden="1" spans="1:11">
@@ -56202,7 +56213,7 @@
         <v>461</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>404</v>
@@ -56215,11 +56226,11 @@
       </c>
       <c r="H594" s="22"/>
       <c r="I594" s="3" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="J594" s="2"/>
       <c r="K594" s="18" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="595" hidden="1" spans="1:11">
@@ -56233,7 +56244,7 @@
         <v>463</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>404</v>
@@ -56250,7 +56261,7 @@
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="18" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="596" hidden="1" spans="1:11">
@@ -56264,7 +56275,7 @@
         <v>463</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>404</v>
@@ -56281,7 +56292,7 @@
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="18" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="597" hidden="1" spans="1:11">
@@ -56295,7 +56306,7 @@
         <v>463</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>404</v>
@@ -56312,7 +56323,7 @@
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="18" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="598" hidden="1" spans="1:11">
@@ -56326,7 +56337,7 @@
         <v>465</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>404</v>
@@ -56339,11 +56350,11 @@
       </c>
       <c r="H598" s="22"/>
       <c r="I598" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="18" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="599" hidden="1" spans="1:11">
@@ -56357,7 +56368,7 @@
         <v>465</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>404</v>
@@ -56370,11 +56381,11 @@
       </c>
       <c r="H599" s="22"/>
       <c r="I599" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="18" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="600" ht="16.5" hidden="1" spans="1:11">
@@ -56388,7 +56399,7 @@
         <v>465</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>404</v>
@@ -56401,11 +56412,11 @@
       </c>
       <c r="H600" s="22"/>
       <c r="I600" s="3" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="J600" s="2"/>
       <c r="K600" s="50" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="601" hidden="1" spans="1:11">
@@ -56419,7 +56430,7 @@
         <v>467</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>404</v>
@@ -56432,11 +56443,11 @@
       </c>
       <c r="H601" s="22"/>
       <c r="I601" s="3" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J601" s="2"/>
       <c r="K601" s="18" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="602" hidden="1" spans="1:11">
@@ -56450,7 +56461,7 @@
         <v>467</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>404</v>
@@ -56463,11 +56474,11 @@
       </c>
       <c r="H602" s="22"/>
       <c r="I602" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J602" s="2"/>
       <c r="K602" s="18" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="603" hidden="1" spans="1:11">
@@ -56475,7 +56486,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="3" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>404</v>
@@ -56488,11 +56499,11 @@
       </c>
       <c r="H603" s="22"/>
       <c r="I603" s="3" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J603" s="2"/>
       <c r="K603" s="18" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="604" hidden="1" spans="1:11">
@@ -56506,7 +56517,7 @@
         <v>469</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>404</v>
@@ -56519,11 +56530,11 @@
       </c>
       <c r="H604" s="22"/>
       <c r="I604" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J604" s="2"/>
       <c r="K604" s="18" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="605" hidden="1" spans="1:11">
@@ -56537,7 +56548,7 @@
         <v>469</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>404</v>
@@ -56550,11 +56561,11 @@
       </c>
       <c r="H605" s="22"/>
       <c r="I605" s="3" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J605" s="2"/>
       <c r="K605" s="18" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="606" hidden="1" spans="1:11">
@@ -56568,7 +56579,7 @@
         <v>469</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>404</v>
@@ -56581,11 +56592,11 @@
       </c>
       <c r="H606" s="22"/>
       <c r="I606" s="3" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="J606" s="2"/>
       <c r="K606" s="18" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="607" hidden="1" spans="1:11">
@@ -56599,7 +56610,7 @@
         <v>471</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>404</v>
@@ -56612,11 +56623,11 @@
       </c>
       <c r="H607" s="22"/>
       <c r="I607" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J607" s="2"/>
       <c r="K607" s="18" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="608" hidden="1" spans="1:11">
@@ -56630,7 +56641,7 @@
         <v>471</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>404</v>
@@ -56647,7 +56658,7 @@
       </c>
       <c r="J608" s="2"/>
       <c r="K608" s="18" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="609" hidden="1" spans="1:11">
@@ -56661,7 +56672,7 @@
         <v>471</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>404</v>
@@ -56674,11 +56685,11 @@
       </c>
       <c r="H609" s="22"/>
       <c r="I609" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J609" s="2"/>
       <c r="K609" s="18" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="610" hidden="1" spans="1:11">
@@ -56692,7 +56703,7 @@
         <v>473</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>404</v>
@@ -56705,11 +56716,11 @@
       </c>
       <c r="H610" s="22"/>
       <c r="I610" s="3" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="J610" s="2"/>
       <c r="K610" s="18" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="611" hidden="1" spans="1:11">
@@ -56723,7 +56734,7 @@
         <v>473</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>404</v>
@@ -56736,11 +56747,11 @@
       </c>
       <c r="H611" s="22"/>
       <c r="I611" s="3" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="J611" s="2"/>
       <c r="K611" s="18" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="612" hidden="1" spans="1:11">
@@ -56754,7 +56765,7 @@
         <v>473</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>404</v>
@@ -56767,11 +56778,11 @@
       </c>
       <c r="H612" s="22"/>
       <c r="I612" s="3" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="J612" s="2"/>
       <c r="K612" s="18" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="613" hidden="1" spans="1:11">
@@ -56785,7 +56796,7 @@
         <v>475</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>404</v>
@@ -56798,11 +56809,11 @@
       </c>
       <c r="H613" s="22"/>
       <c r="I613" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J613" s="2"/>
       <c r="K613" s="18" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="614" hidden="1" spans="1:11">
@@ -56816,7 +56827,7 @@
         <v>475</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>404</v>
@@ -56829,11 +56840,11 @@
       </c>
       <c r="H614" s="22"/>
       <c r="I614" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J614" s="2"/>
       <c r="K614" s="18" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="615" hidden="1" spans="1:11">
@@ -56847,7 +56858,7 @@
         <v>475</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>404</v>
@@ -56860,11 +56871,11 @@
       </c>
       <c r="H615" s="22"/>
       <c r="I615" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J615" s="2"/>
       <c r="K615" s="18" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="616" hidden="1" spans="1:11">
@@ -56878,7 +56889,7 @@
         <v>477</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>404</v>
@@ -56891,11 +56902,11 @@
       </c>
       <c r="H616" s="22"/>
       <c r="I616" s="3" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J616" s="2"/>
       <c r="K616" s="18" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="617" hidden="1" spans="1:11">
@@ -56909,7 +56920,7 @@
         <v>477</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>404</v>
@@ -56926,7 +56937,7 @@
       </c>
       <c r="J617" s="2"/>
       <c r="K617" s="18" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="618" hidden="1" spans="1:11">
@@ -56940,7 +56951,7 @@
         <v>477</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>404</v>
@@ -56953,11 +56964,11 @@
       </c>
       <c r="H618" s="22"/>
       <c r="I618" s="3" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="18" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="619" hidden="1" spans="1:11">
@@ -56971,7 +56982,7 @@
         <v>479</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>404</v>
@@ -56988,7 +56999,7 @@
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="18" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="620" hidden="1" spans="1:11">
@@ -57002,7 +57013,7 @@
         <v>479</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>404</v>
@@ -57015,11 +57026,11 @@
       </c>
       <c r="H620" s="22"/>
       <c r="I620" s="3" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J620" s="2"/>
       <c r="K620" s="18" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="621" hidden="1" spans="1:11">
@@ -57033,7 +57044,7 @@
         <v>479</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>404</v>
@@ -57046,11 +57057,11 @@
       </c>
       <c r="H621" s="22"/>
       <c r="I621" s="3" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J621" s="2"/>
       <c r="K621" s="18" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="622" hidden="1" spans="1:11">
@@ -57064,7 +57075,7 @@
         <v>481</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>404</v>
@@ -57077,11 +57088,11 @@
       </c>
       <c r="H622" s="22"/>
       <c r="I622" s="3" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="J622" s="2"/>
       <c r="K622" s="18" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="623" hidden="1" spans="1:11">
@@ -57095,7 +57106,7 @@
         <v>481</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>404</v>
@@ -57108,11 +57119,11 @@
       </c>
       <c r="H623" s="22"/>
       <c r="I623" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J623" s="2"/>
       <c r="K623" s="18" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="624" ht="16.5" hidden="1" spans="1:11">
@@ -57126,7 +57137,7 @@
         <v>481</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>404</v>
@@ -57139,11 +57150,11 @@
       </c>
       <c r="H624" s="22"/>
       <c r="I624" s="3" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="J624" s="2"/>
       <c r="K624" s="50" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="625" hidden="1" spans="1:11">
@@ -57157,7 +57168,7 @@
         <v>483</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>404</v>
@@ -57170,11 +57181,11 @@
       </c>
       <c r="H625" s="22"/>
       <c r="I625" s="3" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="J625" s="2"/>
       <c r="K625" s="18" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="626" hidden="1" spans="1:11">
@@ -57188,7 +57199,7 @@
         <v>483</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>404</v>
@@ -57201,11 +57212,11 @@
       </c>
       <c r="H626" s="22"/>
       <c r="I626" s="3" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="J626" s="2"/>
       <c r="K626" s="18" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="627" ht="16.5" hidden="1" spans="1:11">
@@ -57219,7 +57230,7 @@
         <v>483</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>404</v>
@@ -57232,11 +57243,11 @@
       </c>
       <c r="H627" s="22"/>
       <c r="I627" s="3" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="J627" s="2"/>
       <c r="K627" s="50" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="628" hidden="1" spans="1:11">
@@ -57250,7 +57261,7 @@
         <v>291</v>
       </c>
       <c r="D628" s="27" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>404</v>
@@ -57263,11 +57274,11 @@
       </c>
       <c r="H628" s="22"/>
       <c r="I628" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J628" s="2"/>
       <c r="K628" s="18" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="629" hidden="1" spans="1:11">
@@ -57281,7 +57292,7 @@
         <v>291</v>
       </c>
       <c r="D629" s="27" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>404</v>
@@ -57294,11 +57305,11 @@
       </c>
       <c r="H629" s="22"/>
       <c r="I629" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J629" s="2"/>
       <c r="K629" s="18" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="630" hidden="1" spans="1:11">
@@ -57312,7 +57323,7 @@
         <v>291</v>
       </c>
       <c r="D630" s="27" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>404</v>
@@ -57325,11 +57336,11 @@
       </c>
       <c r="H630" s="22"/>
       <c r="I630" s="2" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J630" s="2"/>
       <c r="K630" s="18" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="631" hidden="1" spans="1:11">
@@ -57343,7 +57354,7 @@
         <v>486</v>
       </c>
       <c r="D631" s="27" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>404</v>
@@ -57356,11 +57367,11 @@
       </c>
       <c r="H631" s="22"/>
       <c r="I631" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J631" s="2"/>
       <c r="K631" s="18" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="632" hidden="1" spans="1:11">
@@ -57374,7 +57385,7 @@
         <v>486</v>
       </c>
       <c r="D632" s="27" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>404</v>
@@ -57387,11 +57398,11 @@
       </c>
       <c r="H632" s="22"/>
       <c r="I632" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J632" s="2"/>
       <c r="K632" s="18" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="633" hidden="1" spans="1:11">
@@ -57405,7 +57416,7 @@
         <v>486</v>
       </c>
       <c r="D633" s="27" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>404</v>
@@ -57418,11 +57429,11 @@
       </c>
       <c r="H633" s="22"/>
       <c r="I633" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="18" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="634" ht="16.5" hidden="1" spans="1:11">
@@ -57436,7 +57447,7 @@
         <v>488</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>404</v>
@@ -57449,11 +57460,11 @@
       </c>
       <c r="H634" s="22"/>
       <c r="I634" s="3" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J634" s="2"/>
       <c r="K634" s="16" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="635" hidden="1" spans="1:11">
@@ -57467,7 +57478,7 @@
         <v>488</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>404</v>
@@ -57480,11 +57491,11 @@
       </c>
       <c r="H635" s="22"/>
       <c r="I635" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="18" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="636" hidden="1" spans="1:11">
@@ -57498,7 +57509,7 @@
         <v>488</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>404</v>
@@ -57511,11 +57522,11 @@
       </c>
       <c r="H636" s="22"/>
       <c r="I636" s="3" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="18" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="637" hidden="1" spans="1:11">
@@ -57529,7 +57540,7 @@
         <v>490</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>404</v>
@@ -57546,7 +57557,7 @@
       </c>
       <c r="J637" s="2"/>
       <c r="K637" s="18" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="638" hidden="1" spans="1:11">
@@ -57560,7 +57571,7 @@
         <v>490</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>404</v>
@@ -57577,7 +57588,7 @@
       </c>
       <c r="J638" s="2"/>
       <c r="K638" s="18" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="639" hidden="1" spans="1:11">
@@ -57591,7 +57602,7 @@
         <v>490</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>404</v>
@@ -57604,11 +57615,11 @@
       </c>
       <c r="H639" s="22"/>
       <c r="I639" s="3" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="J639" s="2"/>
       <c r="K639" s="18" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="640" hidden="1" spans="1:11">
@@ -57622,7 +57633,7 @@
         <v>492</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>404</v>
@@ -57635,11 +57646,11 @@
       </c>
       <c r="H640" s="22"/>
       <c r="I640" s="3" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="J640" s="2"/>
       <c r="K640" s="18" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="641" hidden="1" spans="1:11">
@@ -57653,7 +57664,7 @@
         <v>492</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>404</v>
@@ -57666,11 +57677,11 @@
       </c>
       <c r="H641" s="22"/>
       <c r="I641" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J641" s="2"/>
       <c r="K641" s="18" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="642" hidden="1" spans="1:11">
@@ -57684,7 +57695,7 @@
         <v>492</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>404</v>
@@ -57697,11 +57708,11 @@
       </c>
       <c r="H642" s="22"/>
       <c r="I642" s="3" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="J642" s="2"/>
       <c r="K642" s="18" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="643" hidden="1" spans="1:11">
@@ -57715,7 +57726,7 @@
         <v>494</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>404</v>
@@ -57728,11 +57739,11 @@
       </c>
       <c r="H643" s="22"/>
       <c r="I643" s="3" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="J643" s="2"/>
       <c r="K643" s="18" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="644" hidden="1" spans="1:11">
@@ -57746,7 +57757,7 @@
         <v>494</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>404</v>
@@ -57759,11 +57770,11 @@
       </c>
       <c r="H644" s="22"/>
       <c r="I644" s="3" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="J644" s="2"/>
       <c r="K644" s="18" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="645" hidden="1" spans="1:11">
@@ -57777,7 +57788,7 @@
         <v>494</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>404</v>
@@ -57790,11 +57801,11 @@
       </c>
       <c r="H645" s="22"/>
       <c r="I645" s="3" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="J645" s="2"/>
       <c r="K645" s="18" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="646" hidden="1" spans="1:11">
@@ -57808,7 +57819,7 @@
         <v>496</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>404</v>
@@ -57825,7 +57836,7 @@
       </c>
       <c r="J646" s="2"/>
       <c r="K646" s="18" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="647" hidden="1" spans="1:11">
@@ -57839,7 +57850,7 @@
         <v>496</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>404</v>
@@ -57852,11 +57863,11 @@
       </c>
       <c r="H647" s="22"/>
       <c r="I647" s="3" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="J647" s="2"/>
       <c r="K647" s="18" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="648" ht="16.5" hidden="1" spans="1:11">
@@ -57870,7 +57881,7 @@
         <v>496</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>404</v>
@@ -57883,11 +57894,11 @@
       </c>
       <c r="H648" s="25"/>
       <c r="I648" s="3" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="J648" s="2"/>
       <c r="K648" s="50" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
     </row>
   </sheetData>
@@ -58058,6 +58069,11 @@
     <hyperlink ref="K82" r:id="rId84" display="http://wuhan.customs.gov.cn/wuhan_customs/506378/506381/index.html" tooltip="http://wuhan.customs.gov.cn/wuhan_customs/506378/506381/index.html"/>
     <hyperlink ref="K99" r:id="rId85" display="http://www.chinaoilonline.com/article.do?method=toArticleListByType2ByTypeidList&amp;p1=15&amp;p1=16&amp;p1=17&amp;p1=18&amp;pageNo=1&amp;pageSize=22&amp;pid=2&amp;subLanmuId=2&amp;rightshow=1&amp;typeid=23&amp;titleLength=30"/>
     <hyperlink ref="K105" r:id="rId86" display="http://auto.sohu.com/qichexinwen.shtml"/>
+    <hyperlink ref="K258" r:id="rId87" display="http://ggzy.ah.gov.cn/login.do;jsessionid=df81e3d210c0b29b6b882f04d1ad?method=beginlogin"/>
+    <hyperlink ref="K260" r:id="rId88" display="https://www.cqggzy.com/jyxx/jyxx-page.html" tooltip="https://www.cqggzy.com/jyxx/jyxx-page.html"/>
+    <hyperlink ref="K261" r:id="rId89" display="http://ggzyjy.gansu.gov.cn:81/f/newprovince/annogoods/list"/>
+    <hyperlink ref="K263" r:id="rId90" display="http://ggzy.guizhou.gov.cn/queryContent-jyxx.jspx?channelId=75" tooltip="http://ggzy.guizhou.gov.cn/queryContent-jyxx.jspx?channelId=75"/>
+    <hyperlink ref="K264" r:id="rId91" display="http://gxggzy.gxzf.gov.cn/gxzbw/showinfo/jyxx.aspx?QuYu=450001&amp;categoryNum=001010001" tooltip="http://gxggzy.gxzf.gov.cn/gxzbw/showinfo/jyxx.aspx?QuYu=450001&amp;categoryNum=001010001"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -58083,7 +58099,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -58094,7 +58110,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -58105,7 +58121,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -58116,7 +58132,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -58127,7 +58143,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -58138,7 +58154,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -58149,18 +58165,18 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -58171,7 +58187,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -58182,7 +58198,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -58193,18 +58209,18 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B12" s="4">
         <v>15</v>
@@ -58215,7 +58231,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -58226,7 +58242,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -58237,18 +58253,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -58259,7 +58275,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -58270,18 +58286,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -58292,18 +58308,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="B20" s="4">
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -58314,7 +58330,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -58325,7 +58341,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -58336,7 +58352,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -58347,7 +58363,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -58358,13 +58374,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="B26">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -58434,22 +58450,22 @@
         <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -58557,7 +58573,7 @@
         <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58686,7 +58702,7 @@
         <v>381</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58822,7 +58838,7 @@
         <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="C11" t="s">
         <v>401</v>
@@ -58879,7 +58895,7 @@
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
@@ -59026,10 +59042,10 @@
         <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="D2" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -59152,91 +59168,91 @@
         <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="D17" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="E17" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="F17" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="G17" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="H17" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="I17" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="J17" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="K17" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="L17" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="M17" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="N17" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="O17" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="P17" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="Q17" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="R17" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="S17" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="T17" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="U17" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="V17" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="W17" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="X17" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="Y17" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="Z17" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="AA17" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="AB17" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="AC17" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="AD17" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="AE17" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -59247,7 +59263,7 @@
         <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -59263,61 +59279,61 @@
         <v>810</v>
       </c>
       <c r="C20" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="D20" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="E20" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="F20" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="G20" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="H20" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="I20" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="J20" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="K20" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="L20" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="M20" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="N20" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="O20" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="P20" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="Q20" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="R20" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="S20" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="T20" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="U20" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -59328,103 +59344,103 @@
         <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="D21" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="E21" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="F21" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="G21" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="H21" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="I21" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="J21" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="K21" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="L21" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="M21" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="N21" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="O21" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="P21" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="Q21" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="R21" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="S21" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="T21" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="U21" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="V21" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="W21" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="X21" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="Y21" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="Z21" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="AA21" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="AB21" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="AC21" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="AD21" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="AE21" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="AF21" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="AG21" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="AH21" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="AI21" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -59491,16 +59507,16 @@
         <v>741</v>
       </c>
       <c r="C29" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="D29" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="E29" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="F29" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -59540,7 +59556,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -59551,88 +59567,88 @@
         <v>551</v>
       </c>
       <c r="C35" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="D35" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="E35" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="F35" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="G35" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="H35" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="I35" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="J35" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="K35" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="L35" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="M35" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="N35" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="O35" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="P35" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="Q35" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="R35" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="S35" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="T35" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="U35" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="V35" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="W35" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="X35" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="Y35" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="Z35" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="AA35" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="AB35" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="AC35" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="AD35" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -59643,28 +59659,28 @@
         <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="D36" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="E36" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="F36" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="G36" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="H36" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="I36" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="J36" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -59675,31 +59691,31 @@
         <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="D37" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="E37" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="F37" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="G37" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2185</v>
+      </c>
+      <c r="J37" t="s">
         <v>2186</v>
       </c>
-      <c r="H37" t="s">
-        <v>2182</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2183</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2184</v>
-      </c>
       <c r="K37" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -59710,37 +59726,37 @@
         <v>613</v>
       </c>
       <c r="C38" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="D38" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="E38" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="F38" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="G38" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="H38" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="I38" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="J38" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="K38" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="L38" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="M38" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -59751,19 +59767,19 @@
         <v>637</v>
       </c>
       <c r="C39" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="D39" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="E39" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="F39" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="G39" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -59774,100 +59790,100 @@
         <v>888</v>
       </c>
       <c r="C40" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="D40" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="E40" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="F40" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="G40" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="H40" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="I40" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="J40" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="K40" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="L40" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="M40" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="N40" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="O40" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="P40" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="Q40" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="R40" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="S40" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="T40" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="U40" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="V40" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="W40" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="X40" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="Y40" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="Z40" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="AA40" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="AB40" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="AC40" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="AD40" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="AE40" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="AF40" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="AG40" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="AH40" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -59878,31 +59894,31 @@
         <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="D41" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="E41" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="F41" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="G41" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="H41" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="I41" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="J41" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="K41" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -59918,31 +59934,31 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="D43" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="E43" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="F43" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="G43" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="H43" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="I43" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="J43" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="K43" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -59961,88 +59977,88 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="D45" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="E45" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="F45" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="G45" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="H45" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="I45" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="J45" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="K45" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="L45" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="M45" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="N45" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="O45" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="P45" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="Q45" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="R45" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="S45" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="T45" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="U45" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="V45" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="W45" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="X45" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="Y45" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="Z45" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="AA45" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="AB45" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="AC45" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="AD45" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -60053,13 +60069,13 @@
         <v>724</v>
       </c>
       <c r="C46" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="D46" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="E46" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -60070,103 +60086,103 @@
         <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="D47" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="E47" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="F47" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="G47" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="H47" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="I47" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="J47" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="K47" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="L47" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="M47" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="N47" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="O47" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="P47" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="Q47" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="R47" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="S47" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="T47" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="U47" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="V47" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="W47" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="X47" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="Y47" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="Z47" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="AA47" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="AB47" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="AC47" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="AD47" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="AE47" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="AF47" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="AG47" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="AH47" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="AI47" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -60177,67 +60193,67 @@
         <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="D48" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="E48" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="F48" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="G48" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="H48" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="I48" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="J48" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="K48" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="L48" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="M48" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="N48" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="O48" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="P48" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="Q48" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="R48" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="S48" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="T48" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="U48" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="V48" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="W48" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -60248,100 +60264,100 @@
         <v>888</v>
       </c>
       <c r="C49" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="D49" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="E49" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="F49" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="G49" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="H49" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="I49" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="J49" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="K49" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="L49" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="M49" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="N49" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="O49" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="P49" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="Q49" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="R49" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="S49" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="T49" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="U49" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="V49" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="W49" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="X49" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="Y49" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="Z49" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="AA49" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="AB49" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="AC49" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="AD49" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="AE49" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="AF49" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="AG49" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="AH49" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -60357,19 +60373,19 @@
         <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="D51" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="E51" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="F51" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="G51" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -60380,70 +60396,70 @@
         <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="D52" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="E52" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="F52" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="G52" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="H52" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="I52" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="J52" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="K52" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="L52" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="M52" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="N52" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="O52" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="P52" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="Q52" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="R52" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="S52" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="T52" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="U52" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="V52" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="W52" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="X52" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -60454,40 +60470,40 @@
         <v>662</v>
       </c>
       <c r="C53" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="D53" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E53" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="F53" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="G53" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="H53" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="I53" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="J53" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="K53" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="L53" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="M53" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="N53" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -60514,28 +60530,28 @@
         <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="D56" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="E56" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="F56" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="G56" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="H56" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="I56" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="J56" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -60551,94 +60567,94 @@
         <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="D58" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="E58" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="F58" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="G58" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="H58" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="I58" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="J58" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="K58" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="L58" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="M58" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="N58" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="O58" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="P58" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="Q58" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="R58" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="S58" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="T58" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="U58" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="V58" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="W58" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="X58" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="Y58" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="Z58" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="AA58" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="AB58" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="AC58" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="AD58" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="AE58" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="AF58" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="59" spans="1:55">
@@ -60646,267 +60662,267 @@
         <v>988</v>
       </c>
       <c r="B59" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="C59" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="D59" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="E59" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="F59" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="G59" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="H59" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="I59" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="J59" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="K59" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="L59" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="M59" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="N59" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="O59" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="P59" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="Q59" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="R59" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="S59" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="T59" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="U59" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="V59" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="W59" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="X59" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="Y59" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="Z59" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="AA59" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="AB59" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="AC59" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="AD59" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="AE59" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="AF59" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="AG59" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="AH59" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="AI59" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="AJ59" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="AK59" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="AL59" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="AM59" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="AN59" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="AO59" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="AP59" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="AQ59" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="AR59" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="AS59" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="AT59" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="AU59" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="AV59" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="AW59" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="AX59" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="AY59" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="AZ59" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="BA59" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
       <c r="BB59" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="BC59" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="B60" t="s">
         <v>888</v>
       </c>
       <c r="C60" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="D60" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="E60" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="F60" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="G60" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="H60" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="I60" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="J60" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="K60" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="L60" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="M60" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="N60" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="O60" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="P60" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="Q60" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="R60" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="S60" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="T60" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="U60" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="V60" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="W60" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="X60" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="Y60" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="Z60" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="AA60" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="AB60" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="AC60" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="AD60" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="AE60" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="AF60" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="AG60" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -60933,82 +60949,82 @@
         <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="D63" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="E63" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="F63" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="G63" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="H63" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="I63" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="J63" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="K63" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="L63" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="M63" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="N63" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="O63" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="P63" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="Q63" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="R63" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="S63" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="T63" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="U63" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c r="V63" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="W63" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="X63" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="Y63" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="Z63" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="AA63" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="AB63" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -61027,58 +61043,58 @@
         <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="D65" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="E65" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="F65" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="G65" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="H65" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="I65" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="J65" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="K65" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="L65" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="M65" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="N65" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="O65" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="P65" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="Q65" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="R65" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="S65" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="T65" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -61086,88 +61102,88 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="C66" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="D66" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="E66" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="F66" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="G66" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="H66" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="I66" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="J66" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="K66" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="L66" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="M66" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="N66" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="O66" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="P66" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="Q66" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="R66" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="S66" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="T66" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="U66" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="V66" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="W66" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="X66" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="Y66" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="Z66" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="AA66" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="AB66" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="AC66" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -61178,127 +61194,127 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="D67" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="E67" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="F67" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="G67" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="H67" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="I67" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="J67" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="K67" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="L67" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="M67" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="N67" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="O67" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="P67" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="Q67" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="R67" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="S67" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="T67" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="U67" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="V67" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="W67" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="X67" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="Y67" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="Z67" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="AA67" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="AB67" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="AC67" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="AD67" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="AE67" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="AF67" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="AG67" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="AH67" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="AI67" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="AJ67" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="AK67" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="AL67" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="AM67" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="AN67" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="AO67" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="AP67" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="AQ67" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -61309,7 +61325,7 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -61360,87 +61376,87 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
     </row>
   </sheetData>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7316" uniqueCount="2504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7317" uniqueCount="2505">
   <si>
     <t>服务器</t>
   </si>
@@ -4659,6 +4659,9 @@
   </si>
   <si>
     <t>http://www.lnsggzy.com/003/secondpageDeal.html</t>
+  </si>
+  <si>
+    <t>已修改（20200912）</t>
   </si>
   <si>
     <t>http://ggzyjy.nmg.gov.cn/jyxx/jsgcZbgg</t>
@@ -21523,8 +21526,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J272" sqref="J272"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H197" workbookViewId="0">
+      <selection activeCell="J277" sqref="J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -30089,9 +30092,11 @@
       <c r="I276" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="2" t="s">
         <v>1492</v>
+      </c>
+      <c r="K276" s="14" t="s">
+        <v>1493</v>
       </c>
       <c r="L276" t="s">
         <v>1339</v>
@@ -30123,7 +30128,7 @@
       </c>
       <c r="J277" s="2"/>
       <c r="K277" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="L277" t="s">
         <v>1339</v>
@@ -30155,7 +30160,7 @@
       </c>
       <c r="J278" s="2"/>
       <c r="K278" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="L278" t="s">
         <v>1339</v>
@@ -30186,8 +30191,8 @@
         <v>1148</v>
       </c>
       <c r="J279" s="2"/>
-      <c r="K279" s="18" t="s">
-        <v>1495</v>
+      <c r="K279" s="19" t="s">
+        <v>1496</v>
       </c>
       <c r="L279" t="s">
         <v>1339</v>
@@ -30219,7 +30224,7 @@
       </c>
       <c r="J280" s="2"/>
       <c r="K280" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -30247,8 +30252,8 @@
         <v>1148</v>
       </c>
       <c r="J281" s="2"/>
-      <c r="K281" s="2" t="s">
-        <v>1497</v>
+      <c r="K281" s="14" t="s">
+        <v>1498</v>
       </c>
       <c r="L281" t="s">
         <v>1339</v>
@@ -30280,7 +30285,7 @@
       </c>
       <c r="J282" s="2"/>
       <c r="K282" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="L282" t="s">
         <v>1339</v>
@@ -30312,7 +30317,7 @@
       </c>
       <c r="J283" s="2"/>
       <c r="K283" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="L283" t="s">
         <v>1339</v>
@@ -30344,7 +30349,7 @@
       </c>
       <c r="J284" s="2"/>
       <c r="K284" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="L284" t="s">
         <v>1339</v>
@@ -30376,7 +30381,7 @@
       </c>
       <c r="J285" s="2"/>
       <c r="K285" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="L285" t="s">
         <v>1339</v>
@@ -30404,13 +30409,13 @@
       <c r="G286" s="2"/>
       <c r="H286" s="11"/>
       <c r="I286" s="3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K286" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="L286" t="s">
         <v>1339</v>
@@ -30442,7 +30447,7 @@
       </c>
       <c r="J287" s="2"/>
       <c r="K287" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -30450,18 +30455,18 @@
       <c r="B288" s="7"/>
       <c r="C288" s="2"/>
       <c r="D288" s="7" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="11"/>
       <c r="I288" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J288" s="2"/>
       <c r="K288" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="L288" t="s">
         <v>1339</v>
@@ -30472,18 +30477,18 @@
       <c r="B289" s="7"/>
       <c r="C289" s="2"/>
       <c r="D289" s="7" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="11"/>
       <c r="I289" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J289" s="2"/>
       <c r="K289" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="L289" t="s">
         <v>1339</v>
@@ -30515,7 +30520,7 @@
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="L290" t="s">
         <v>1339</v>
@@ -30547,7 +30552,7 @@
       </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="L291" t="s">
         <v>1339</v>
@@ -30579,7 +30584,7 @@
       </c>
       <c r="J292" s="2"/>
       <c r="K292" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="L292" t="s">
         <v>1339</v>
@@ -30611,7 +30616,7 @@
       </c>
       <c r="J293" s="2"/>
       <c r="K293" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="L293" t="s">
         <v>1339</v>
@@ -30643,7 +30648,7 @@
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="L294" t="s">
         <v>1339</v>
@@ -30654,18 +30659,18 @@
       <c r="B295" s="7"/>
       <c r="C295" s="2"/>
       <c r="D295" s="7" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="11"/>
       <c r="I295" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="L295" t="s">
         <v>1339</v>
@@ -30676,18 +30681,18 @@
       <c r="B296" s="7"/>
       <c r="C296" s="2"/>
       <c r="D296" s="7" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="11"/>
       <c r="I296" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="L296" t="s">
         <v>1339</v>
@@ -30719,7 +30724,7 @@
       </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="L297" t="s">
         <v>1339</v>
@@ -30751,7 +30756,7 @@
       </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="L298" t="s">
         <v>1339</v>
@@ -30783,7 +30788,7 @@
       </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="L299" t="s">
         <v>1339</v>
@@ -30815,7 +30820,7 @@
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="L300" t="s">
         <v>1339</v>
@@ -30847,7 +30852,7 @@
       </c>
       <c r="J301" s="2"/>
       <c r="K301" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="L301" t="s">
         <v>1339</v>
@@ -30879,7 +30884,7 @@
       </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="L302" t="s">
         <v>1339</v>
@@ -30911,7 +30916,7 @@
       </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="L303" t="s">
         <v>1339</v>
@@ -30943,7 +30948,7 @@
       </c>
       <c r="J304" s="2"/>
       <c r="K304" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="L304" t="s">
         <v>1339</v>
@@ -30975,7 +30980,7 @@
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="L305" t="s">
         <v>1339</v>
@@ -31007,7 +31012,7 @@
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="L306" t="s">
         <v>1339</v>
@@ -31039,7 +31044,7 @@
       </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="L307" t="s">
         <v>1339</v>
@@ -31071,7 +31076,7 @@
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="L308" t="s">
         <v>1339</v>
@@ -31103,7 +31108,7 @@
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="L309" t="s">
         <v>1339</v>
@@ -31135,7 +31140,7 @@
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="L310" t="s">
         <v>1339</v>
@@ -31167,7 +31172,7 @@
       </c>
       <c r="J311" s="2"/>
       <c r="K311" s="15" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="312" hidden="1" spans="1:11">
@@ -31198,7 +31203,7 @@
       </c>
       <c r="J312" s="2"/>
       <c r="K312" s="18" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="313" hidden="1" spans="1:11">
@@ -31229,7 +31234,7 @@
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="18" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="314" hidden="1" spans="1:11">
@@ -31260,7 +31265,7 @@
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="18" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="315" hidden="1" spans="1:11">
@@ -31291,7 +31296,7 @@
       </c>
       <c r="J315" s="2"/>
       <c r="K315" s="18" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="316" hidden="1" spans="1:11">
@@ -31322,7 +31327,7 @@
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="18" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="317" hidden="1" spans="1:11">
@@ -31336,7 +31341,7 @@
         <v>859</v>
       </c>
       <c r="D317" s="27" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>751</v>
@@ -31353,7 +31358,7 @@
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="18" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="318" hidden="1" spans="1:11">
@@ -31384,7 +31389,7 @@
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="18" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="319" hidden="1" spans="1:11">
@@ -31415,7 +31420,7 @@
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="18" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="320" hidden="1" spans="1:11">
@@ -31446,7 +31451,7 @@
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="18" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="321" hidden="1" spans="1:11">
@@ -31477,7 +31482,7 @@
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="18" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="322" hidden="1" spans="1:11">
@@ -31508,7 +31513,7 @@
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="18" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:11">
@@ -31539,7 +31544,7 @@
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="18" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="324" hidden="1" spans="1:11">
@@ -31570,7 +31575,7 @@
       </c>
       <c r="J324" s="2"/>
       <c r="K324" s="18" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="325" hidden="1" spans="1:11">
@@ -31601,7 +31606,7 @@
       </c>
       <c r="J325" s="2"/>
       <c r="K325" s="18" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="326" hidden="1" spans="1:11">
@@ -31632,7 +31637,7 @@
       </c>
       <c r="J326" s="2"/>
       <c r="K326" s="18" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="327" hidden="1" spans="1:11">
@@ -31663,7 +31668,7 @@
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="18" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="328" hidden="1" spans="1:11">
@@ -31694,7 +31699,7 @@
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="18" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="329" hidden="1" spans="1:11">
@@ -31725,7 +31730,7 @@
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="18" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="330" hidden="1" spans="1:11">
@@ -31756,7 +31761,7 @@
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="18" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="331" hidden="1" spans="1:11">
@@ -31787,7 +31792,7 @@
       </c>
       <c r="J331" s="2"/>
       <c r="K331" s="18" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="332" hidden="1" spans="1:11">
@@ -31818,7 +31823,7 @@
       </c>
       <c r="J332" s="2"/>
       <c r="K332" s="18" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="333" hidden="1" spans="1:11">
@@ -31849,7 +31854,7 @@
       </c>
       <c r="J333" s="2"/>
       <c r="K333" s="18" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="334" hidden="1" spans="1:11">
@@ -31863,7 +31868,7 @@
         <v>885</v>
       </c>
       <c r="D334" s="27" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>751</v>
@@ -31880,7 +31885,7 @@
       </c>
       <c r="J334" s="2"/>
       <c r="K334" s="18" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="335" hidden="1" spans="1:11">
@@ -31906,14 +31911,14 @@
         <v>1</v>
       </c>
       <c r="H335" s="21" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="15" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="336" hidden="1" spans="1:11">
@@ -31940,11 +31945,11 @@
       </c>
       <c r="H336" s="22"/>
       <c r="I336" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="15" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="337" ht="16.5" hidden="1" spans="1:11">
@@ -31975,7 +31980,7 @@
       </c>
       <c r="J337" s="2"/>
       <c r="K337" s="39" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="338" hidden="1" spans="1:11">
@@ -32002,11 +32007,11 @@
       </c>
       <c r="H338" s="22"/>
       <c r="I338" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="18" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="339" hidden="1" spans="1:11">
@@ -32037,7 +32042,7 @@
       </c>
       <c r="J339" s="2"/>
       <c r="K339" s="18" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="340" hidden="1" spans="1:11">
@@ -32068,7 +32073,7 @@
       </c>
       <c r="J340" s="2"/>
       <c r="K340" s="40" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="341" hidden="1" spans="1:11">
@@ -32099,7 +32104,7 @@
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="18" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="342" hidden="1" spans="1:11">
@@ -32130,7 +32135,7 @@
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="18" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="343" hidden="1" spans="1:11">
@@ -32157,11 +32162,11 @@
       </c>
       <c r="H343" s="22"/>
       <c r="I343" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J343" s="2"/>
       <c r="K343" s="18" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="344" hidden="1" spans="1:11">
@@ -32188,11 +32193,11 @@
       </c>
       <c r="H344" s="22"/>
       <c r="I344" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J344" s="2"/>
       <c r="K344" s="18" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:11">
@@ -32223,7 +32228,7 @@
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="15" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="346" hidden="1" spans="1:11">
@@ -32254,7 +32259,7 @@
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="15" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="347" hidden="1" spans="1:11">
@@ -32285,7 +32290,7 @@
       </c>
       <c r="J347" s="2"/>
       <c r="K347" s="18" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="348" hidden="1" spans="1:11">
@@ -32316,7 +32321,7 @@
       </c>
       <c r="J348" s="2"/>
       <c r="K348" s="18" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="349" hidden="1" spans="1:11">
@@ -32347,7 +32352,7 @@
       </c>
       <c r="J349" s="2"/>
       <c r="K349" s="18" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="350" hidden="1" spans="1:11">
@@ -32378,7 +32383,7 @@
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="15" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="351" hidden="1" spans="1:11">
@@ -32409,7 +32414,7 @@
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="41" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="352" hidden="1" spans="1:11">
@@ -32440,7 +32445,7 @@
       </c>
       <c r="J352" s="2"/>
       <c r="K352" s="15" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="353" hidden="1" spans="1:11">
@@ -32467,11 +32472,11 @@
       </c>
       <c r="H353" s="22"/>
       <c r="I353" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J353" s="2"/>
       <c r="K353" s="15" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="354" hidden="1" spans="1:11">
@@ -32502,7 +32507,7 @@
       </c>
       <c r="J354" s="2"/>
       <c r="K354" s="15" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="355" hidden="1" spans="1:11">
@@ -32529,11 +32534,11 @@
       </c>
       <c r="H355" s="22"/>
       <c r="I355" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="18" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="356" hidden="1" spans="1:11">
@@ -32564,7 +32569,7 @@
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="41" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="357" hidden="1" spans="1:11">
@@ -32591,11 +32596,11 @@
       </c>
       <c r="H357" s="22"/>
       <c r="I357" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J357" s="2"/>
       <c r="K357" s="18" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="358" hidden="1" spans="1:11">
@@ -32622,11 +32627,11 @@
       </c>
       <c r="H358" s="22"/>
       <c r="I358" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J358" s="2"/>
       <c r="K358" s="15" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="359" hidden="1" spans="1:11">
@@ -32657,7 +32662,7 @@
       </c>
       <c r="J359" s="2"/>
       <c r="K359" s="18" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="360" hidden="1" spans="1:11">
@@ -32688,7 +32693,7 @@
       </c>
       <c r="J360" s="2"/>
       <c r="K360" s="15" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="361" hidden="1" spans="1:11">
@@ -32719,7 +32724,7 @@
       </c>
       <c r="J361" s="2"/>
       <c r="K361" s="18" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="362" hidden="1" spans="1:11">
@@ -32746,11 +32751,11 @@
       </c>
       <c r="H362" s="22"/>
       <c r="I362" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J362" s="2"/>
       <c r="K362" s="15" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="363" hidden="1" spans="1:11">
@@ -32777,11 +32782,11 @@
       </c>
       <c r="H363" s="22"/>
       <c r="I363" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J363" s="2"/>
       <c r="K363" s="18" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="364" hidden="1" spans="1:11">
@@ -32812,7 +32817,7 @@
       </c>
       <c r="J364" s="2"/>
       <c r="K364" s="18" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="365" hidden="1" spans="1:11">
@@ -32843,7 +32848,7 @@
       </c>
       <c r="J365" s="2"/>
       <c r="K365" s="18" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="366" hidden="1" spans="1:11">
@@ -32870,11 +32875,11 @@
       </c>
       <c r="H366" s="22"/>
       <c r="I366" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="18" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="367" hidden="1" spans="1:11">
@@ -32905,7 +32910,7 @@
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="15" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="368" hidden="1" spans="1:11">
@@ -32931,14 +32936,14 @@
         <v>1</v>
       </c>
       <c r="H368" s="21" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="18" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="369" hidden="1" spans="1:11">
@@ -32969,7 +32974,7 @@
       </c>
       <c r="J369" s="2"/>
       <c r="K369" s="18" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="370" hidden="1" spans="1:11">
@@ -33000,7 +33005,7 @@
       </c>
       <c r="J370" s="2"/>
       <c r="K370" s="18" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="371" hidden="1" spans="1:11">
@@ -33031,7 +33036,7 @@
       </c>
       <c r="J371" s="2"/>
       <c r="K371" s="18" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="372" hidden="1" spans="1:11">
@@ -33062,7 +33067,7 @@
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="373" hidden="1" spans="1:11">
@@ -33089,11 +33094,11 @@
       </c>
       <c r="H373" s="22"/>
       <c r="I373" s="3" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J373" s="2"/>
       <c r="K373" s="18" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="374" hidden="1" spans="1:11">
@@ -33120,11 +33125,11 @@
       </c>
       <c r="H374" s="22"/>
       <c r="I374" s="3" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J374" s="2"/>
       <c r="K374" s="18" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="375" hidden="1" spans="1:11">
@@ -33155,7 +33160,7 @@
       </c>
       <c r="J375" s="2"/>
       <c r="K375" s="18" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="376" hidden="1" spans="1:11">
@@ -33186,7 +33191,7 @@
       </c>
       <c r="J376" s="2"/>
       <c r="K376" s="18" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="377" hidden="1" spans="1:11">
@@ -33217,7 +33222,7 @@
       </c>
       <c r="J377" s="2"/>
       <c r="K377" s="18" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="378" hidden="1" spans="1:11">
@@ -33248,7 +33253,7 @@
       </c>
       <c r="J378" s="2"/>
       <c r="K378" s="18" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="379" hidden="1" spans="1:11">
@@ -33275,11 +33280,11 @@
       </c>
       <c r="H379" s="22"/>
       <c r="I379" s="3" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="18" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="380" hidden="1" spans="1:11">
@@ -33310,7 +33315,7 @@
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="18" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="381" hidden="1" spans="1:11">
@@ -33341,7 +33346,7 @@
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="18" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="382" hidden="1" spans="1:11">
@@ -33372,7 +33377,7 @@
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="18" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="383" hidden="1" spans="1:11">
@@ -33403,7 +33408,7 @@
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="18" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="384" hidden="1" spans="1:11">
@@ -33434,7 +33439,7 @@
       </c>
       <c r="J384" s="2"/>
       <c r="K384" s="18" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="385" hidden="1" spans="1:11">
@@ -33461,11 +33466,11 @@
       </c>
       <c r="H385" s="22"/>
       <c r="I385" s="3" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="J385" s="2"/>
       <c r="K385" s="18" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="386" hidden="1" spans="1:11">
@@ -33496,7 +33501,7 @@
       </c>
       <c r="J386" s="2"/>
       <c r="K386" s="18" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="387" hidden="1" spans="1:11">
@@ -33527,7 +33532,7 @@
       </c>
       <c r="J387" s="2"/>
       <c r="K387" s="18" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="388" hidden="1" spans="1:11">
@@ -33558,7 +33563,7 @@
       </c>
       <c r="J388" s="2"/>
       <c r="K388" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="389" hidden="1" spans="1:11">
@@ -33589,7 +33594,7 @@
       </c>
       <c r="J389" s="2"/>
       <c r="K389" s="18" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="390" hidden="1" spans="1:11">
@@ -33620,7 +33625,7 @@
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="18" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="391" hidden="1" spans="1:11">
@@ -33647,11 +33652,11 @@
       </c>
       <c r="H391" s="22"/>
       <c r="I391" s="3" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="18" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="392" hidden="1" spans="1:11">
@@ -33678,11 +33683,11 @@
       </c>
       <c r="H392" s="22"/>
       <c r="I392" s="3" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="18" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="393" hidden="1" spans="1:11">
@@ -33709,11 +33714,11 @@
       </c>
       <c r="H393" s="22"/>
       <c r="I393" s="3" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="18" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="394" hidden="1" spans="1:11">
@@ -33744,7 +33749,7 @@
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="18" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="395" hidden="1" spans="1:11">
@@ -33758,7 +33763,7 @@
         <v>980</v>
       </c>
       <c r="D395" s="27" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>890</v>
@@ -33775,7 +33780,7 @@
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="18" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="396" hidden="1" spans="1:11">
@@ -33789,7 +33794,7 @@
         <v>486</v>
       </c>
       <c r="D396" s="27" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>890</v>
@@ -33806,7 +33811,7 @@
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="18" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="397" hidden="1" spans="1:11">
@@ -33837,7 +33842,7 @@
       </c>
       <c r="J397" s="2"/>
       <c r="K397" s="18" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="398" hidden="1" spans="1:11">
@@ -33868,7 +33873,7 @@
       </c>
       <c r="J398" s="2"/>
       <c r="K398" s="18" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="399" hidden="1" spans="1:11">
@@ -33895,11 +33900,11 @@
       </c>
       <c r="H399" s="22"/>
       <c r="I399" s="3" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="18" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="400" hidden="1" spans="1:11">
@@ -33926,11 +33931,11 @@
       </c>
       <c r="H400" s="22"/>
       <c r="I400" s="3" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="18" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="401" hidden="1" spans="1:11">
@@ -33961,7 +33966,7 @@
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="18" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -33975,7 +33980,7 @@
         <v>888</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="E402" s="7" t="s">
         <v>890</v>
@@ -33985,14 +33990,14 @@
       </c>
       <c r="G402" s="2"/>
       <c r="H402" s="21" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="14" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="L402" t="s">
         <v>1339</v>
@@ -34003,7 +34008,7 @@
       <c r="B403" s="7"/>
       <c r="C403" s="2"/>
       <c r="D403" s="7" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="E403" s="7" t="s">
         <v>890</v>
@@ -34014,11 +34019,11 @@
       <c r="G403" s="2"/>
       <c r="H403" s="22"/>
       <c r="I403" s="3" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="J403" s="2"/>
       <c r="K403" s="44" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="L403" t="s">
         <v>1339</v>
@@ -34050,7 +34055,7 @@
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="18" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="L404" t="s">
         <v>1339</v>
@@ -34082,7 +34087,7 @@
       </c>
       <c r="J405" s="2"/>
       <c r="K405" s="18" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="L405" t="s">
         <v>1339</v>
@@ -34114,7 +34119,7 @@
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="18" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="L406" t="s">
         <v>1339</v>
@@ -34146,7 +34151,7 @@
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="18" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -34160,7 +34165,7 @@
         <v>997</v>
       </c>
       <c r="D408" s="7" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="E408" s="7" t="s">
         <v>890</v>
@@ -34175,7 +34180,7 @@
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="18" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="L408" t="s">
         <v>1339</v>
@@ -34207,7 +34212,7 @@
       </c>
       <c r="J409" s="2"/>
       <c r="K409" s="18" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="L409" t="s">
         <v>1339</v>
@@ -34239,7 +34244,7 @@
       </c>
       <c r="J410" s="2"/>
       <c r="K410" s="18" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="L410" t="s">
         <v>1339</v>
@@ -34271,7 +34276,7 @@
       </c>
       <c r="J411" s="2"/>
       <c r="K411" s="18" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="L411" t="s">
         <v>1339</v>
@@ -34282,7 +34287,7 @@
       <c r="B412" s="7"/>
       <c r="C412" s="2"/>
       <c r="D412" s="7" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="E412" s="7" t="s">
         <v>890</v>
@@ -34293,11 +34298,11 @@
       <c r="G412" s="2"/>
       <c r="H412" s="22"/>
       <c r="I412" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="18" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="L412" t="s">
         <v>1339</v>
@@ -34314,7 +34319,7 @@
         <v>901</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="E413" s="7" t="s">
         <v>890</v>
@@ -34329,7 +34334,7 @@
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="19" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -34343,7 +34348,7 @@
         <v>1003</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="E414" s="7" t="s">
         <v>890</v>
@@ -34358,7 +34363,7 @@
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="18" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="L414" t="s">
         <v>1339</v>
@@ -34369,7 +34374,7 @@
       <c r="B415" s="7"/>
       <c r="C415" s="2"/>
       <c r="D415" s="7" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E415" s="7" t="s">
         <v>890</v>
@@ -34380,11 +34385,11 @@
       <c r="G415" s="2"/>
       <c r="H415" s="22"/>
       <c r="I415" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="18" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="L415" t="s">
         <v>1339</v>
@@ -34395,7 +34400,7 @@
       <c r="B416" s="7"/>
       <c r="C416" s="2"/>
       <c r="D416" s="7" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="E416" s="7" t="s">
         <v>890</v>
@@ -34406,11 +34411,11 @@
       <c r="G416" s="2"/>
       <c r="H416" s="22"/>
       <c r="I416" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="18" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="L416" t="s">
         <v>1339</v>
@@ -34427,7 +34432,7 @@
         <v>903</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="E417" s="7" t="s">
         <v>890</v>
@@ -34442,7 +34447,7 @@
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="18" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -34450,7 +34455,7 @@
       <c r="B418" s="7"/>
       <c r="C418" s="2"/>
       <c r="D418" s="7" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="E418" s="7" t="s">
         <v>890</v>
@@ -34461,11 +34466,11 @@
       <c r="G418" s="2"/>
       <c r="H418" s="22"/>
       <c r="I418" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="18" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="L418" t="s">
         <v>1339</v>
@@ -34482,7 +34487,7 @@
         <v>907</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="E419" s="7" t="s">
         <v>890</v>
@@ -34497,7 +34502,7 @@
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="19" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="420" hidden="1" spans="1:11">
@@ -34511,7 +34516,7 @@
         <v>1007</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E420" s="7" t="s">
         <v>890</v>
@@ -34526,7 +34531,7 @@
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="18" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -34551,13 +34556,13 @@
       <c r="G421" s="2"/>
       <c r="H421" s="22"/>
       <c r="I421" s="2" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K421" s="18" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="L421" t="s">
         <v>1339</v>
@@ -34589,7 +34594,7 @@
       </c>
       <c r="J422" s="2"/>
       <c r="K422" s="18" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="423" hidden="1" spans="1:11">
@@ -34618,7 +34623,7 @@
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="18" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -34626,7 +34631,7 @@
       <c r="B424" s="7"/>
       <c r="C424" s="2"/>
       <c r="D424" s="7" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="E424" s="7" t="s">
         <v>890</v>
@@ -34637,11 +34642,11 @@
       <c r="G424" s="2"/>
       <c r="H424" s="22"/>
       <c r="I424" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="18" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="L424" t="s">
         <v>1339</v>
@@ -34652,7 +34657,7 @@
       <c r="B425" s="7"/>
       <c r="C425" s="2"/>
       <c r="D425" s="7" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="E425" s="7" t="s">
         <v>890</v>
@@ -34663,11 +34668,11 @@
       <c r="G425" s="2"/>
       <c r="H425" s="22"/>
       <c r="I425" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J425" s="2"/>
       <c r="K425" s="18" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="L425" t="s">
         <v>1339</v>
@@ -34695,13 +34700,13 @@
       <c r="G426" s="2"/>
       <c r="H426" s="22"/>
       <c r="I426" s="3" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K426" s="19" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="L426" t="s">
         <v>1339</v>
@@ -34729,13 +34734,13 @@
       <c r="G427" s="2"/>
       <c r="H427" s="22"/>
       <c r="I427" s="3" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K427" s="18" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="L427" t="s">
         <v>1339</v>
@@ -34767,7 +34772,7 @@
       </c>
       <c r="J428" s="2"/>
       <c r="K428" s="45" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="L428" t="s">
         <v>1339</v>
@@ -34789,11 +34794,11 @@
       <c r="G429" s="2"/>
       <c r="H429" s="22"/>
       <c r="I429" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J429" s="2"/>
       <c r="K429" s="45" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="L429" t="s">
         <v>1339</v>
@@ -34810,7 +34815,7 @@
         <v>283</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="E430" s="7" t="s">
         <v>890</v>
@@ -34825,7 +34830,7 @@
       </c>
       <c r="J430" s="2"/>
       <c r="K430" s="18" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -34833,7 +34838,7 @@
       <c r="B431" s="7"/>
       <c r="C431" s="2"/>
       <c r="D431" s="7" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E431" s="7" t="s">
         <v>890</v>
@@ -34844,11 +34849,11 @@
       <c r="G431" s="2"/>
       <c r="H431" s="22"/>
       <c r="I431" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J431" s="2"/>
       <c r="K431" s="18" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="L431" t="s">
         <v>1339</v>
@@ -34865,7 +34870,7 @@
         <v>417</v>
       </c>
       <c r="D432" s="42" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="E432" s="7" t="s">
         <v>890</v>
@@ -34880,7 +34885,7 @@
       </c>
       <c r="J432" s="2"/>
       <c r="K432" s="18" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="L432" t="s">
         <v>1339</v>
@@ -34897,7 +34902,7 @@
         <v>285</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="E433" s="7" t="s">
         <v>890</v>
@@ -34912,7 +34917,7 @@
       </c>
       <c r="J433" s="2"/>
       <c r="K433" s="18" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="L433" t="s">
         <v>1339</v>
@@ -34929,7 +34934,7 @@
         <v>920</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="E434" s="7" t="s">
         <v>890</v>
@@ -34944,7 +34949,7 @@
       </c>
       <c r="J434" s="2"/>
       <c r="K434" s="18" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="L434" t="s">
         <v>1339</v>
@@ -34955,7 +34960,7 @@
       <c r="B435" s="7"/>
       <c r="C435" s="2"/>
       <c r="D435" s="7" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="E435" s="7" t="s">
         <v>890</v>
@@ -34966,11 +34971,11 @@
       <c r="G435" s="2"/>
       <c r="H435" s="22"/>
       <c r="I435" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J435" s="2"/>
       <c r="K435" s="18" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="L435" t="s">
         <v>1339</v>
@@ -35002,7 +35007,7 @@
       </c>
       <c r="J436" s="2"/>
       <c r="K436" s="18" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="437" hidden="1" spans="1:11">
@@ -35031,7 +35036,7 @@
       </c>
       <c r="J437" s="2"/>
       <c r="K437" s="18" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="438" hidden="1" spans="1:11">
@@ -35060,7 +35065,7 @@
       </c>
       <c r="J438" s="2"/>
       <c r="K438" s="18" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="439" hidden="1" spans="1:11">
@@ -35089,7 +35094,7 @@
       </c>
       <c r="J439" s="2"/>
       <c r="K439" s="18" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="440" hidden="1" spans="1:11">
@@ -35118,7 +35123,7 @@
       </c>
       <c r="J440" s="2"/>
       <c r="K440" s="18" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="441" hidden="1" spans="1:11">
@@ -35147,7 +35152,7 @@
       </c>
       <c r="J441" s="2"/>
       <c r="K441" s="18" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="442" spans="1:16384">
@@ -35155,7 +35160,7 @@
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
       <c r="D442" s="43" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="E442" s="7" t="s">
         <v>890</v>
@@ -35166,11 +35171,11 @@
       <c r="G442" s="18"/>
       <c r="H442" s="22"/>
       <c r="I442" s="45" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J442" s="18"/>
       <c r="K442" s="18" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="L442" t="s">
         <v>1339</v>
@@ -51559,7 +51564,7 @@
         <v>1033</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="E443" s="7" t="s">
         <v>890</v>
@@ -51574,7 +51579,7 @@
       </c>
       <c r="J443" s="2"/>
       <c r="K443" s="18" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="444" hidden="1" spans="1:11">
@@ -51603,7 +51608,7 @@
       </c>
       <c r="J444" s="2"/>
       <c r="K444" s="18" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -51632,7 +51637,7 @@
       </c>
       <c r="J445" s="2"/>
       <c r="K445" s="18" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="L445" t="s">
         <v>1339</v>
@@ -51664,7 +51669,7 @@
       </c>
       <c r="J446" s="2"/>
       <c r="K446" s="18" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="447" hidden="1" spans="1:11">
@@ -51693,7 +51698,7 @@
       </c>
       <c r="J447" s="2"/>
       <c r="K447" s="18" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -51722,7 +51727,7 @@
       </c>
       <c r="J448" s="2"/>
       <c r="K448" s="18" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="L448" t="s">
         <v>1339</v>
@@ -51754,7 +51759,7 @@
       </c>
       <c r="J449" s="2"/>
       <c r="K449" s="18" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="450" hidden="1" spans="1:11">
@@ -51783,7 +51788,7 @@
       </c>
       <c r="J450" s="2"/>
       <c r="K450" s="18" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="451" hidden="1" spans="1:11">
@@ -51812,7 +51817,7 @@
       </c>
       <c r="J451" s="2"/>
       <c r="K451" s="18" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -51826,7 +51831,7 @@
         <v>1050</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="E452" s="7" t="s">
         <v>890</v>
@@ -51841,7 +51846,7 @@
       </c>
       <c r="J452" s="2"/>
       <c r="K452" s="46" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="L452" t="s">
         <v>1339</v>
@@ -51858,7 +51863,7 @@
         <v>931</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="E453" s="7" t="s">
         <v>890</v>
@@ -51869,13 +51874,13 @@
       <c r="G453" s="2"/>
       <c r="H453" s="22"/>
       <c r="I453" s="3" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K453" s="20" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="L453" t="s">
         <v>1339</v>
@@ -51886,7 +51891,7 @@
       <c r="B454" s="7"/>
       <c r="C454" s="2"/>
       <c r="D454" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="E454" s="7" t="s">
         <v>890</v>
@@ -51897,11 +51902,11 @@
       <c r="G454" s="2"/>
       <c r="H454" s="22"/>
       <c r="I454" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J454" s="2"/>
       <c r="K454" s="47" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="L454" t="s">
         <v>1339</v>
@@ -51933,7 +51938,7 @@
       </c>
       <c r="J455" s="2"/>
       <c r="K455" s="18" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="L455" t="s">
         <v>1339</v>
@@ -51965,7 +51970,7 @@
       </c>
       <c r="J456" s="2"/>
       <c r="K456" s="18" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="L456" t="s">
         <v>1339</v>
@@ -51997,7 +52002,7 @@
       </c>
       <c r="J457" s="2"/>
       <c r="K457" s="18" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -52022,11 +52027,11 @@
       <c r="G458" s="2"/>
       <c r="H458" s="22"/>
       <c r="I458" s="2" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="J458" s="2"/>
       <c r="K458" s="18" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="L458" t="s">
         <v>1339</v>
@@ -52058,7 +52063,7 @@
       </c>
       <c r="J459" s="2"/>
       <c r="K459" s="18" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="460" hidden="1" spans="1:11">
@@ -52072,7 +52077,7 @@
         <v>937</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="E460" s="7" t="s">
         <v>890</v>
@@ -52087,7 +52092,7 @@
       </c>
       <c r="J460" s="2"/>
       <c r="K460" s="18" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="461" hidden="1" spans="1:11">
@@ -52116,7 +52121,7 @@
       </c>
       <c r="J461" s="2"/>
       <c r="K461" s="18" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="462" hidden="1" spans="1:11">
@@ -52145,7 +52150,7 @@
       </c>
       <c r="J462" s="2"/>
       <c r="K462" s="18" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -52174,7 +52179,7 @@
       </c>
       <c r="J463" s="2"/>
       <c r="K463" s="45" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="L463" t="s">
         <v>1339</v>
@@ -52191,7 +52196,7 @@
         <v>1069</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E464" s="7" t="s">
         <v>890</v>
@@ -52206,7 +52211,7 @@
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="18" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="L464" t="s">
         <v>1339</v>
@@ -52217,7 +52222,7 @@
       <c r="B465" s="7"/>
       <c r="C465" s="2"/>
       <c r="D465" s="7" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>890</v>
@@ -52228,11 +52233,11 @@
       <c r="G465" s="2"/>
       <c r="H465" s="22"/>
       <c r="I465" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="18" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="L465" t="s">
         <v>1339</v>
@@ -52249,7 +52254,7 @@
         <v>1071</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="E466" s="7" t="s">
         <v>890</v>
@@ -52264,7 +52269,7 @@
       </c>
       <c r="J466" s="2"/>
       <c r="K466" s="46" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -52278,7 +52283,7 @@
         <v>300</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>890</v>
@@ -52293,7 +52298,7 @@
       </c>
       <c r="J467" s="2"/>
       <c r="K467" s="18" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="L467" t="s">
         <v>1339</v>
@@ -52310,7 +52315,7 @@
         <v>1074</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="E468" s="7" t="s">
         <v>890</v>
@@ -52321,13 +52326,13 @@
       <c r="G468" s="2"/>
       <c r="H468" s="25"/>
       <c r="I468" s="3" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K468" s="18" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="L468" t="s">
         <v>1339</v>
@@ -52363,7 +52368,7 @@
       </c>
       <c r="J469" s="2"/>
       <c r="K469" s="18" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="470" hidden="1" spans="1:11">
@@ -52394,7 +52399,7 @@
       </c>
       <c r="J470" s="2"/>
       <c r="K470" s="18" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="471" hidden="1" spans="1:11">
@@ -52425,7 +52430,7 @@
       </c>
       <c r="J471" s="2"/>
       <c r="K471" s="2" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="472" hidden="1" spans="1:11">
@@ -52456,7 +52461,7 @@
       </c>
       <c r="J472" s="2"/>
       <c r="K472" s="2" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="473" hidden="1" spans="1:11">
@@ -52483,11 +52488,11 @@
       </c>
       <c r="H473" s="22"/>
       <c r="I473" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="J473" s="2"/>
       <c r="K473" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="474" hidden="1" spans="1:11">
@@ -52518,7 +52523,7 @@
       </c>
       <c r="J474" s="2"/>
       <c r="K474" s="18" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="475" hidden="1" spans="1:11">
@@ -52545,11 +52550,11 @@
       </c>
       <c r="H475" s="22"/>
       <c r="I475" s="2" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="J475" s="2"/>
       <c r="K475" s="18" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="476" hidden="1" spans="1:11">
@@ -52576,11 +52581,11 @@
       </c>
       <c r="H476" s="22"/>
       <c r="I476" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J476" s="2"/>
       <c r="K476" s="2" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="477" hidden="1" spans="1:11">
@@ -52623,7 +52628,7 @@
         <v>215</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>198</v>
@@ -52640,7 +52645,7 @@
       </c>
       <c r="J478" s="2"/>
       <c r="K478" s="18" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="479" hidden="1" spans="1:11">
@@ -52671,7 +52676,7 @@
       </c>
       <c r="J479" s="2"/>
       <c r="K479" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="480" hidden="1" customHeight="1" spans="1:11">
@@ -52702,7 +52707,7 @@
       </c>
       <c r="J480" s="2"/>
       <c r="K480" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="481" hidden="1" spans="1:11">
@@ -52733,7 +52738,7 @@
       </c>
       <c r="J481" s="2"/>
       <c r="K481" s="3" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="482" hidden="1" spans="1:11">
@@ -52747,7 +52752,7 @@
         <v>223</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>198</v>
@@ -52760,11 +52765,11 @@
       </c>
       <c r="H482" s="22"/>
       <c r="I482" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="J482" s="2"/>
       <c r="K482" s="2" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="483" hidden="1" spans="1:11">
@@ -52795,7 +52800,7 @@
       </c>
       <c r="J483" s="2"/>
       <c r="K483" s="2" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="484" hidden="1" spans="1:11">
@@ -52826,7 +52831,7 @@
       </c>
       <c r="J484" s="2"/>
       <c r="K484" s="2" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="485" hidden="1" spans="1:11">
@@ -52857,7 +52862,7 @@
       </c>
       <c r="J485" s="2"/>
       <c r="K485" s="2" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="486" hidden="1" spans="1:11">
@@ -52884,11 +52889,11 @@
       </c>
       <c r="H486" s="22"/>
       <c r="I486" s="3" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="J486" s="2"/>
       <c r="K486" s="14" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="487" hidden="1" spans="1:11">
@@ -52919,7 +52924,7 @@
       </c>
       <c r="J487" s="2"/>
       <c r="K487" s="2" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="488" hidden="1" spans="1:11">
@@ -52946,11 +52951,11 @@
       </c>
       <c r="H488" s="22"/>
       <c r="I488" s="3" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="489" hidden="1" spans="1:11">
@@ -52977,11 +52982,11 @@
       </c>
       <c r="H489" s="22"/>
       <c r="I489" s="34" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J489" s="2"/>
       <c r="K489" s="2" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="490" hidden="1" spans="1:11">
@@ -53012,7 +53017,7 @@
       </c>
       <c r="J490" s="2"/>
       <c r="K490" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="491" hidden="1" spans="1:11">
@@ -53039,7 +53044,7 @@
       </c>
       <c r="H491" s="22"/>
       <c r="I491" s="34" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
@@ -53068,11 +53073,11 @@
       </c>
       <c r="H492" s="22"/>
       <c r="I492" s="34" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J492" s="2"/>
       <c r="K492" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="493" hidden="1" spans="1:11">
@@ -53099,11 +53104,11 @@
       </c>
       <c r="H493" s="22"/>
       <c r="I493" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J493" s="2"/>
       <c r="K493" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="494" hidden="1" spans="1:11">
@@ -53134,7 +53139,7 @@
       </c>
       <c r="J494" s="2"/>
       <c r="K494" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="495" hidden="1" spans="1:11">
@@ -53161,11 +53166,11 @@
       </c>
       <c r="H495" s="22"/>
       <c r="I495" s="34" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J495" s="2"/>
       <c r="K495" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="496" hidden="1" spans="1:11">
@@ -53192,11 +53197,11 @@
       </c>
       <c r="H496" s="22"/>
       <c r="I496" s="34" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J496" s="2"/>
       <c r="K496" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="497" hidden="1" spans="1:11">
@@ -53223,11 +53228,11 @@
       </c>
       <c r="H497" s="22"/>
       <c r="I497" s="34" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J497" s="2"/>
       <c r="K497" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="498" hidden="1" spans="1:11">
@@ -53258,7 +53263,7 @@
       </c>
       <c r="J498" s="2"/>
       <c r="K498" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="499" hidden="1" spans="1:11">
@@ -53285,11 +53290,11 @@
       </c>
       <c r="H499" s="22"/>
       <c r="I499" s="3" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="J499" s="2"/>
       <c r="K499" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="500" hidden="1" spans="1:11">
@@ -53316,11 +53321,11 @@
       </c>
       <c r="H500" s="22"/>
       <c r="I500" s="34" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="501" hidden="1" spans="1:11">
@@ -53347,11 +53352,11 @@
       </c>
       <c r="H501" s="22"/>
       <c r="I501" s="3" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="J501" s="2"/>
       <c r="K501" s="2" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="502" hidden="1" spans="1:11">
@@ -53378,7 +53383,7 @@
       </c>
       <c r="H502" s="22"/>
       <c r="I502" s="34" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
@@ -53405,13 +53410,13 @@
       <c r="G503" s="2"/>
       <c r="H503" s="22"/>
       <c r="I503" s="3" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K503" s="49" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="L503" t="s">
         <v>1139</v>
@@ -53443,7 +53448,7 @@
       </c>
       <c r="J504" s="2"/>
       <c r="K504" s="2" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="505" hidden="1" spans="1:12">
@@ -53468,13 +53473,13 @@
       <c r="G505" s="2"/>
       <c r="H505" s="22"/>
       <c r="I505" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J505" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="K505" s="14" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="L505" t="s">
         <v>1139</v>
@@ -53502,13 +53507,13 @@
       <c r="G506" s="2"/>
       <c r="H506" s="22"/>
       <c r="I506" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="K506" s="14" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="L506" t="s">
         <v>1139</v>
@@ -53542,7 +53547,7 @@
         <v>1171</v>
       </c>
       <c r="K507" s="14" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="L507" t="s">
         <v>1139</v>
@@ -53576,7 +53581,7 @@
         <v>1171</v>
       </c>
       <c r="K508" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="L508" t="s">
         <v>1139</v>
@@ -53610,7 +53615,7 @@
         <v>1171</v>
       </c>
       <c r="K509" s="14" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="L509" t="s">
         <v>1139</v>
@@ -53638,11 +53643,11 @@
       <c r="G510" s="2"/>
       <c r="H510" s="22"/>
       <c r="I510" s="3" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="511" hidden="1" spans="1:12">
@@ -53673,7 +53678,7 @@
         <v>1171</v>
       </c>
       <c r="K511" s="14" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="L511" t="s">
         <v>1139</v>
@@ -53701,13 +53706,13 @@
       <c r="G512" s="2"/>
       <c r="H512" s="22"/>
       <c r="I512" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J512" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="K512" s="14" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="L512" t="s">
         <v>1139</v>
@@ -53718,7 +53723,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="3" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>198</v>
@@ -53732,10 +53737,10 @@
         <v>1276</v>
       </c>
       <c r="J513" s="2" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="K513" s="14" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="L513" t="s">
         <v>1139</v>
@@ -53746,7 +53751,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="3" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>198</v>
@@ -53760,10 +53765,10 @@
         <v>1276</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="K514" s="14" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="L514" t="s">
         <v>1139</v>
@@ -53791,10 +53796,10 @@
       <c r="G515" s="2"/>
       <c r="H515" s="22"/>
       <c r="I515" s="3" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="J515" s="2" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="K515" s="2"/>
       <c r="L515" t="s">
@@ -53812,7 +53817,7 @@
         <v>285</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -53823,11 +53828,11 @@
       <c r="G516" s="2"/>
       <c r="H516" s="22"/>
       <c r="I516" s="48" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="14" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="L516" t="s">
         <v>1139</v>
@@ -53838,7 +53843,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="3" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>198</v>
@@ -53849,11 +53854,11 @@
       <c r="G517" s="2"/>
       <c r="H517" s="22"/>
       <c r="I517" s="48" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="14" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="L517" t="s">
         <v>1139</v>
@@ -53885,7 +53890,7 @@
       </c>
       <c r="J518" s="2"/>
       <c r="K518" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="519" hidden="1" spans="1:12">
@@ -53916,7 +53921,7 @@
         <v>1137</v>
       </c>
       <c r="K519" s="14" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="L519" t="s">
         <v>1139</v>
@@ -53944,13 +53949,13 @@
       <c r="G520" s="2"/>
       <c r="H520" s="22"/>
       <c r="I520" s="48" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="K520" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="L520" t="s">
         <v>1139</v>
@@ -53978,13 +53983,13 @@
       <c r="G521" s="2"/>
       <c r="H521" s="22"/>
       <c r="I521" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="K521" s="14" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="L521" t="s">
         <v>1139</v>
@@ -54016,7 +54021,7 @@
       </c>
       <c r="J522" s="2"/>
       <c r="K522" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="523" hidden="1" spans="1:11">
@@ -54045,7 +54050,7 @@
       </c>
       <c r="J523" s="2"/>
       <c r="K523" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="524" hidden="1" spans="1:11">
@@ -54074,7 +54079,7 @@
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="525" hidden="1" spans="1:12">
@@ -54099,13 +54104,13 @@
       <c r="G525" s="2"/>
       <c r="H525" s="22"/>
       <c r="I525" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="K525" s="14" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="L525" t="s">
         <v>1139</v>
@@ -54122,7 +54127,7 @@
         <v>295</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>198</v>
@@ -54133,13 +54138,13 @@
       <c r="G526" s="2"/>
       <c r="H526" s="22"/>
       <c r="I526" s="3" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>1137</v>
       </c>
       <c r="K526" s="14" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="L526" t="s">
         <v>1139</v>
@@ -54171,7 +54176,7 @@
       </c>
       <c r="J527" s="2"/>
       <c r="K527" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="528" hidden="1" spans="1:12">
@@ -54196,13 +54201,13 @@
       <c r="G528" s="2"/>
       <c r="H528" s="22"/>
       <c r="I528" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J528" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="L528" t="s">
         <v>1139</v>
@@ -54230,13 +54235,13 @@
       <c r="G529" s="2"/>
       <c r="H529" s="22"/>
       <c r="I529" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="J529" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="K529" s="14" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="L529" t="s">
         <v>1139</v>
@@ -54253,7 +54258,7 @@
         <v>300</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>198</v>
@@ -54264,11 +54269,11 @@
       <c r="G530" s="2"/>
       <c r="H530" s="22"/>
       <c r="I530" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="J530" s="2"/>
       <c r="K530" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="531" hidden="1" spans="1:12">
@@ -54276,7 +54281,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>198</v>
@@ -54291,7 +54296,7 @@
         <v>1137</v>
       </c>
       <c r="K531" s="14" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="L531" t="s">
         <v>1139</v>
@@ -54319,13 +54324,13 @@
       <c r="G532" s="2"/>
       <c r="H532" s="22"/>
       <c r="I532" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="J532" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="K532" s="14" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="L532" t="s">
         <v>1139</v>
@@ -54353,13 +54358,13 @@
       <c r="G533" s="2"/>
       <c r="H533" s="25"/>
       <c r="I533" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J533" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="K533" s="14" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="L533" t="s">
         <v>1139</v>
@@ -54388,10 +54393,10 @@
         <v>1</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
@@ -54419,10 +54424,10 @@
         <v>1</v>
       </c>
       <c r="H535" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="I535" s="3" t="s">
         <v>1821</v>
-      </c>
-      <c r="I535" s="3" t="s">
-        <v>1820</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
@@ -54450,10 +54455,10 @@
         <v>1</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
@@ -54481,10 +54486,10 @@
         <v>1</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -54512,10 +54517,10 @@
         <v>1</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
@@ -54543,10 +54548,10 @@
         <v>1</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
@@ -54574,10 +54579,10 @@
         <v>1</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
@@ -54605,10 +54610,10 @@
         <v>1</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
@@ -54636,10 +54641,10 @@
         <v>1</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
@@ -54667,10 +54672,10 @@
         <v>1</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
@@ -54698,10 +54703,10 @@
         <v>1</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
@@ -54729,10 +54734,10 @@
         <v>1</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
@@ -54760,10 +54765,10 @@
         <v>1</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
@@ -54791,10 +54796,10 @@
         <v>1</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
@@ -54822,10 +54827,10 @@
         <v>1</v>
       </c>
       <c r="H548" s="3" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
@@ -54853,10 +54858,10 @@
         <v>1</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
@@ -54884,10 +54889,10 @@
         <v>1</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
@@ -54915,10 +54920,10 @@
         <v>1</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
@@ -54946,10 +54951,10 @@
         <v>1</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -54977,10 +54982,10 @@
         <v>1</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
@@ -55008,10 +55013,10 @@
         <v>1</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
@@ -55027,7 +55032,7 @@
         <v>438</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>404</v>
@@ -55039,14 +55044,14 @@
         <v>1</v>
       </c>
       <c r="H555" s="21" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="18" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="556" hidden="1" spans="1:11">
@@ -55060,7 +55065,7 @@
         <v>438</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>404</v>
@@ -55073,11 +55078,11 @@
       </c>
       <c r="H556" s="22"/>
       <c r="I556" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J556" s="2"/>
       <c r="K556" s="18" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="557" hidden="1" spans="1:11">
@@ -55091,7 +55096,7 @@
         <v>438</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>404</v>
@@ -55104,11 +55109,11 @@
       </c>
       <c r="H557" s="22"/>
       <c r="I557" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="18" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="558" hidden="1" spans="1:11">
@@ -55122,7 +55127,7 @@
         <v>440</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>404</v>
@@ -55135,11 +55140,11 @@
       </c>
       <c r="H558" s="22"/>
       <c r="I558" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J558" s="2"/>
       <c r="K558" s="18" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="559" hidden="1" spans="1:11">
@@ -55153,7 +55158,7 @@
         <v>440</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>404</v>
@@ -55166,11 +55171,11 @@
       </c>
       <c r="H559" s="22"/>
       <c r="I559" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="18" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="560" hidden="1" spans="1:11">
@@ -55184,7 +55189,7 @@
         <v>440</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>404</v>
@@ -55197,11 +55202,11 @@
       </c>
       <c r="H560" s="22"/>
       <c r="I560" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J560" s="2"/>
       <c r="K560" s="18" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="561" hidden="1" spans="1:11">
@@ -55215,7 +55220,7 @@
         <v>442</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>404</v>
@@ -55228,11 +55233,11 @@
       </c>
       <c r="H561" s="22"/>
       <c r="I561" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="18" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="562" hidden="1" spans="1:11">
@@ -55246,7 +55251,7 @@
         <v>442</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>404</v>
@@ -55259,11 +55264,11 @@
       </c>
       <c r="H562" s="22"/>
       <c r="I562" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="18" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="563" hidden="1" spans="1:11">
@@ -55277,7 +55282,7 @@
         <v>442</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>404</v>
@@ -55290,11 +55295,11 @@
       </c>
       <c r="H563" s="22"/>
       <c r="I563" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J563" s="2"/>
       <c r="K563" s="18" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="564" hidden="1" spans="1:11">
@@ -55308,7 +55313,7 @@
         <v>444</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>404</v>
@@ -55321,11 +55326,11 @@
       </c>
       <c r="H564" s="22"/>
       <c r="I564" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="18" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="565" hidden="1" spans="1:11">
@@ -55339,7 +55344,7 @@
         <v>444</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>404</v>
@@ -55352,11 +55357,11 @@
       </c>
       <c r="H565" s="22"/>
       <c r="I565" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J565" s="2"/>
       <c r="K565" s="18" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="566" hidden="1" spans="1:11">
@@ -55370,7 +55375,7 @@
         <v>444</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>404</v>
@@ -55387,7 +55392,7 @@
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="18" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="567" hidden="1" spans="1:11">
@@ -55401,7 +55406,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>404</v>
@@ -55418,7 +55423,7 @@
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="18" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="568" hidden="1" spans="1:11">
@@ -55432,7 +55437,7 @@
         <v>446</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>404</v>
@@ -55445,11 +55450,11 @@
       </c>
       <c r="H568" s="22"/>
       <c r="I568" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J568" s="2"/>
       <c r="K568" s="18" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="569" ht="16.5" hidden="1" spans="1:11">
@@ -55463,7 +55468,7 @@
         <v>446</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>404</v>
@@ -55476,11 +55481,11 @@
       </c>
       <c r="H569" s="22"/>
       <c r="I569" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="50" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="570" hidden="1" spans="1:11">
@@ -55494,7 +55499,7 @@
         <v>448</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>404</v>
@@ -55507,11 +55512,11 @@
       </c>
       <c r="H570" s="22"/>
       <c r="I570" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="18" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="571" hidden="1" spans="1:11">
@@ -55525,7 +55530,7 @@
         <v>448</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>404</v>
@@ -55542,7 +55547,7 @@
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="18" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="572" hidden="1" spans="1:11">
@@ -55556,7 +55561,7 @@
         <v>448</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>404</v>
@@ -55569,11 +55574,11 @@
       </c>
       <c r="H572" s="22"/>
       <c r="I572" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="18" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="573" hidden="1" spans="1:11">
@@ -55587,7 +55592,7 @@
         <v>434</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>404</v>
@@ -55604,7 +55609,7 @@
       </c>
       <c r="J573" s="2"/>
       <c r="K573" s="18" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="574" hidden="1" spans="1:11">
@@ -55618,7 +55623,7 @@
         <v>434</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>404</v>
@@ -55635,7 +55640,7 @@
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="18" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="575" hidden="1" spans="1:11">
@@ -55649,7 +55654,7 @@
         <v>434</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>404</v>
@@ -55666,7 +55671,7 @@
       </c>
       <c r="J575" s="2"/>
       <c r="K575" s="18" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="576" ht="16.5" hidden="1" spans="1:11">
@@ -55680,7 +55685,7 @@
         <v>434</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>404</v>
@@ -55697,7 +55702,7 @@
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="50" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="577" hidden="1" spans="1:11">
@@ -55711,7 +55716,7 @@
         <v>451</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>404</v>
@@ -55728,7 +55733,7 @@
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="18" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="578" hidden="1" spans="1:11">
@@ -55742,7 +55747,7 @@
         <v>451</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>404</v>
@@ -55755,11 +55760,11 @@
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J578" s="2"/>
       <c r="K578" s="45" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="579" hidden="1" spans="1:11">
@@ -55773,7 +55778,7 @@
         <v>451</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>404</v>
@@ -55790,7 +55795,7 @@
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="45" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="580" hidden="1" spans="1:11">
@@ -55804,7 +55809,7 @@
         <v>453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>404</v>
@@ -55817,11 +55822,11 @@
       </c>
       <c r="H580" s="22"/>
       <c r="I580" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="18" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="581" hidden="1" spans="1:11">
@@ -55835,7 +55840,7 @@
         <v>453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>404</v>
@@ -55848,11 +55853,11 @@
       </c>
       <c r="H581" s="22"/>
       <c r="I581" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="18" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="582" ht="16.5" hidden="1" spans="1:11">
@@ -55866,7 +55871,7 @@
         <v>453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>404</v>
@@ -55879,11 +55884,11 @@
       </c>
       <c r="H582" s="22"/>
       <c r="I582" s="3" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="50" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="583" hidden="1" spans="1:11">
@@ -55897,7 +55902,7 @@
         <v>455</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>404</v>
@@ -55914,7 +55919,7 @@
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="18" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="584" hidden="1" spans="1:11">
@@ -55928,7 +55933,7 @@
         <v>455</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>404</v>
@@ -55945,7 +55950,7 @@
       </c>
       <c r="J584" s="2"/>
       <c r="K584" s="18" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="585" hidden="1" spans="1:11">
@@ -55959,7 +55964,7 @@
         <v>455</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>404</v>
@@ -55972,11 +55977,11 @@
       </c>
       <c r="H585" s="22"/>
       <c r="I585" s="3" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="18" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="586" hidden="1" spans="1:11">
@@ -55990,7 +55995,7 @@
         <v>455</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>404</v>
@@ -56003,11 +56008,11 @@
       </c>
       <c r="H586" s="22"/>
       <c r="I586" s="3" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="J586" s="2"/>
       <c r="K586" s="18" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="587" hidden="1" spans="1:11">
@@ -56021,7 +56026,7 @@
         <v>457</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>404</v>
@@ -56034,11 +56039,11 @@
       </c>
       <c r="H587" s="22"/>
       <c r="I587" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="45" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="588" hidden="1" spans="1:11">
@@ -56052,7 +56057,7 @@
         <v>457</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>404</v>
@@ -56065,11 +56070,11 @@
       </c>
       <c r="H588" s="22"/>
       <c r="I588" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="18" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="589" hidden="1" spans="1:11">
@@ -56083,7 +56088,7 @@
         <v>459</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>404</v>
@@ -56096,11 +56101,11 @@
       </c>
       <c r="H589" s="22"/>
       <c r="I589" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J589" s="2"/>
       <c r="K589" s="18" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="590" hidden="1" spans="1:11">
@@ -56114,7 +56119,7 @@
         <v>459</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>404</v>
@@ -56127,11 +56132,11 @@
       </c>
       <c r="H590" s="22"/>
       <c r="I590" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="18" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="591" hidden="1" spans="1:11">
@@ -56145,7 +56150,7 @@
         <v>459</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>404</v>
@@ -56158,11 +56163,11 @@
       </c>
       <c r="H591" s="22"/>
       <c r="I591" s="3" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="J591" s="2"/>
       <c r="K591" s="18" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="592" hidden="1" spans="1:11">
@@ -56176,7 +56181,7 @@
         <v>461</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>404</v>
@@ -56189,11 +56194,11 @@
       </c>
       <c r="H592" s="22"/>
       <c r="I592" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="18" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="593" hidden="1" spans="1:11">
@@ -56207,7 +56212,7 @@
         <v>461</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>404</v>
@@ -56220,11 +56225,11 @@
       </c>
       <c r="H593" s="22"/>
       <c r="I593" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="18" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="594" hidden="1" spans="1:11">
@@ -56238,7 +56243,7 @@
         <v>461</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>404</v>
@@ -56251,11 +56256,11 @@
       </c>
       <c r="H594" s="22"/>
       <c r="I594" s="3" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="J594" s="2"/>
       <c r="K594" s="18" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="595" hidden="1" spans="1:11">
@@ -56269,7 +56274,7 @@
         <v>463</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>404</v>
@@ -56286,7 +56291,7 @@
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="18" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="596" hidden="1" spans="1:11">
@@ -56300,7 +56305,7 @@
         <v>463</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>404</v>
@@ -56317,7 +56322,7 @@
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="18" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="597" hidden="1" spans="1:11">
@@ -56331,7 +56336,7 @@
         <v>463</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>404</v>
@@ -56348,7 +56353,7 @@
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="18" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="598" hidden="1" spans="1:11">
@@ -56362,7 +56367,7 @@
         <v>465</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>404</v>
@@ -56375,11 +56380,11 @@
       </c>
       <c r="H598" s="22"/>
       <c r="I598" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="18" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="599" hidden="1" spans="1:11">
@@ -56393,7 +56398,7 @@
         <v>465</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>404</v>
@@ -56406,11 +56411,11 @@
       </c>
       <c r="H599" s="22"/>
       <c r="I599" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="18" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="600" ht="16.5" hidden="1" spans="1:11">
@@ -56424,7 +56429,7 @@
         <v>465</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>404</v>
@@ -56437,11 +56442,11 @@
       </c>
       <c r="H600" s="22"/>
       <c r="I600" s="3" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="J600" s="2"/>
       <c r="K600" s="50" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="601" hidden="1" spans="1:11">
@@ -56455,7 +56460,7 @@
         <v>467</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>404</v>
@@ -56468,11 +56473,11 @@
       </c>
       <c r="H601" s="22"/>
       <c r="I601" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J601" s="2"/>
       <c r="K601" s="18" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="602" hidden="1" spans="1:11">
@@ -56486,7 +56491,7 @@
         <v>467</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>404</v>
@@ -56499,11 +56504,11 @@
       </c>
       <c r="H602" s="22"/>
       <c r="I602" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J602" s="2"/>
       <c r="K602" s="18" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="603" hidden="1" spans="1:11">
@@ -56511,7 +56516,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="3" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>404</v>
@@ -56524,11 +56529,11 @@
       </c>
       <c r="H603" s="22"/>
       <c r="I603" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J603" s="2"/>
       <c r="K603" s="18" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="604" hidden="1" spans="1:11">
@@ -56542,7 +56547,7 @@
         <v>469</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>404</v>
@@ -56555,11 +56560,11 @@
       </c>
       <c r="H604" s="22"/>
       <c r="I604" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J604" s="2"/>
       <c r="K604" s="18" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="605" hidden="1" spans="1:11">
@@ -56573,7 +56578,7 @@
         <v>469</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>404</v>
@@ -56586,11 +56591,11 @@
       </c>
       <c r="H605" s="22"/>
       <c r="I605" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J605" s="2"/>
       <c r="K605" s="18" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="606" hidden="1" spans="1:11">
@@ -56604,7 +56609,7 @@
         <v>469</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>404</v>
@@ -56617,11 +56622,11 @@
       </c>
       <c r="H606" s="22"/>
       <c r="I606" s="3" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="J606" s="2"/>
       <c r="K606" s="18" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="607" hidden="1" spans="1:11">
@@ -56635,7 +56640,7 @@
         <v>471</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>404</v>
@@ -56648,11 +56653,11 @@
       </c>
       <c r="H607" s="22"/>
       <c r="I607" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J607" s="2"/>
       <c r="K607" s="18" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="608" hidden="1" spans="1:11">
@@ -56666,7 +56671,7 @@
         <v>471</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>404</v>
@@ -56683,7 +56688,7 @@
       </c>
       <c r="J608" s="2"/>
       <c r="K608" s="18" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="609" hidden="1" spans="1:11">
@@ -56697,7 +56702,7 @@
         <v>471</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>404</v>
@@ -56710,11 +56715,11 @@
       </c>
       <c r="H609" s="22"/>
       <c r="I609" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J609" s="2"/>
       <c r="K609" s="18" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="610" hidden="1" spans="1:11">
@@ -56728,7 +56733,7 @@
         <v>473</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>404</v>
@@ -56741,11 +56746,11 @@
       </c>
       <c r="H610" s="22"/>
       <c r="I610" s="3" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="J610" s="2"/>
       <c r="K610" s="18" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="611" hidden="1" spans="1:11">
@@ -56759,7 +56764,7 @@
         <v>473</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>404</v>
@@ -56772,11 +56777,11 @@
       </c>
       <c r="H611" s="22"/>
       <c r="I611" s="3" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="J611" s="2"/>
       <c r="K611" s="18" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="612" hidden="1" spans="1:11">
@@ -56790,7 +56795,7 @@
         <v>473</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>404</v>
@@ -56803,11 +56808,11 @@
       </c>
       <c r="H612" s="22"/>
       <c r="I612" s="3" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="J612" s="2"/>
       <c r="K612" s="18" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="613" hidden="1" spans="1:11">
@@ -56821,7 +56826,7 @@
         <v>475</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>404</v>
@@ -56834,11 +56839,11 @@
       </c>
       <c r="H613" s="22"/>
       <c r="I613" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J613" s="2"/>
       <c r="K613" s="18" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="614" hidden="1" spans="1:11">
@@ -56852,7 +56857,7 @@
         <v>475</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>404</v>
@@ -56865,11 +56870,11 @@
       </c>
       <c r="H614" s="22"/>
       <c r="I614" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J614" s="2"/>
       <c r="K614" s="18" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="615" hidden="1" spans="1:11">
@@ -56883,7 +56888,7 @@
         <v>475</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>404</v>
@@ -56896,11 +56901,11 @@
       </c>
       <c r="H615" s="22"/>
       <c r="I615" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J615" s="2"/>
       <c r="K615" s="18" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="616" hidden="1" spans="1:11">
@@ -56914,7 +56919,7 @@
         <v>477</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>404</v>
@@ -56927,11 +56932,11 @@
       </c>
       <c r="H616" s="22"/>
       <c r="I616" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J616" s="2"/>
       <c r="K616" s="18" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="617" hidden="1" spans="1:11">
@@ -56945,7 +56950,7 @@
         <v>477</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>404</v>
@@ -56962,7 +56967,7 @@
       </c>
       <c r="J617" s="2"/>
       <c r="K617" s="18" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="618" hidden="1" spans="1:11">
@@ -56976,7 +56981,7 @@
         <v>477</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>404</v>
@@ -56989,11 +56994,11 @@
       </c>
       <c r="H618" s="22"/>
       <c r="I618" s="3" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="18" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="619" hidden="1" spans="1:11">
@@ -57007,7 +57012,7 @@
         <v>479</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>404</v>
@@ -57024,7 +57029,7 @@
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="18" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="620" hidden="1" spans="1:11">
@@ -57038,7 +57043,7 @@
         <v>479</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>404</v>
@@ -57051,11 +57056,11 @@
       </c>
       <c r="H620" s="22"/>
       <c r="I620" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J620" s="2"/>
       <c r="K620" s="18" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="621" hidden="1" spans="1:11">
@@ -57069,7 +57074,7 @@
         <v>479</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>404</v>
@@ -57082,11 +57087,11 @@
       </c>
       <c r="H621" s="22"/>
       <c r="I621" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J621" s="2"/>
       <c r="K621" s="18" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="622" hidden="1" spans="1:11">
@@ -57100,7 +57105,7 @@
         <v>481</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>404</v>
@@ -57113,11 +57118,11 @@
       </c>
       <c r="H622" s="22"/>
       <c r="I622" s="3" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="J622" s="2"/>
       <c r="K622" s="18" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="623" hidden="1" spans="1:11">
@@ -57131,7 +57136,7 @@
         <v>481</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>404</v>
@@ -57144,11 +57149,11 @@
       </c>
       <c r="H623" s="22"/>
       <c r="I623" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J623" s="2"/>
       <c r="K623" s="18" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="624" ht="16.5" hidden="1" spans="1:11">
@@ -57162,7 +57167,7 @@
         <v>481</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>404</v>
@@ -57175,11 +57180,11 @@
       </c>
       <c r="H624" s="22"/>
       <c r="I624" s="3" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="J624" s="2"/>
       <c r="K624" s="50" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="625" hidden="1" spans="1:11">
@@ -57193,7 +57198,7 @@
         <v>483</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>404</v>
@@ -57206,11 +57211,11 @@
       </c>
       <c r="H625" s="22"/>
       <c r="I625" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J625" s="2"/>
       <c r="K625" s="18" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="626" hidden="1" spans="1:11">
@@ -57224,7 +57229,7 @@
         <v>483</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>404</v>
@@ -57237,11 +57242,11 @@
       </c>
       <c r="H626" s="22"/>
       <c r="I626" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J626" s="2"/>
       <c r="K626" s="18" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="627" ht="16.5" hidden="1" spans="1:11">
@@ -57255,7 +57260,7 @@
         <v>483</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>404</v>
@@ -57268,11 +57273,11 @@
       </c>
       <c r="H627" s="22"/>
       <c r="I627" s="3" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="J627" s="2"/>
       <c r="K627" s="50" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="628" hidden="1" spans="1:11">
@@ -57286,7 +57291,7 @@
         <v>291</v>
       </c>
       <c r="D628" s="27" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>404</v>
@@ -57299,11 +57304,11 @@
       </c>
       <c r="H628" s="22"/>
       <c r="I628" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J628" s="2"/>
       <c r="K628" s="18" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="629" hidden="1" spans="1:11">
@@ -57317,7 +57322,7 @@
         <v>291</v>
       </c>
       <c r="D629" s="27" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>404</v>
@@ -57330,11 +57335,11 @@
       </c>
       <c r="H629" s="22"/>
       <c r="I629" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J629" s="2"/>
       <c r="K629" s="18" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="630" hidden="1" spans="1:11">
@@ -57348,7 +57353,7 @@
         <v>291</v>
       </c>
       <c r="D630" s="27" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>404</v>
@@ -57361,11 +57366,11 @@
       </c>
       <c r="H630" s="22"/>
       <c r="I630" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J630" s="2"/>
       <c r="K630" s="18" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="631" hidden="1" spans="1:11">
@@ -57379,7 +57384,7 @@
         <v>486</v>
       </c>
       <c r="D631" s="27" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>404</v>
@@ -57392,11 +57397,11 @@
       </c>
       <c r="H631" s="22"/>
       <c r="I631" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J631" s="2"/>
       <c r="K631" s="18" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="632" hidden="1" spans="1:11">
@@ -57410,7 +57415,7 @@
         <v>486</v>
       </c>
       <c r="D632" s="27" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>404</v>
@@ -57423,11 +57428,11 @@
       </c>
       <c r="H632" s="22"/>
       <c r="I632" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J632" s="2"/>
       <c r="K632" s="18" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="633" hidden="1" spans="1:11">
@@ -57441,7 +57446,7 @@
         <v>486</v>
       </c>
       <c r="D633" s="27" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>404</v>
@@ -57454,11 +57459,11 @@
       </c>
       <c r="H633" s="22"/>
       <c r="I633" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="18" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="634" ht="16.5" hidden="1" spans="1:11">
@@ -57472,7 +57477,7 @@
         <v>488</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>404</v>
@@ -57485,11 +57490,11 @@
       </c>
       <c r="H634" s="22"/>
       <c r="I634" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J634" s="2"/>
       <c r="K634" s="16" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="635" hidden="1" spans="1:11">
@@ -57503,7 +57508,7 @@
         <v>488</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>404</v>
@@ -57516,11 +57521,11 @@
       </c>
       <c r="H635" s="22"/>
       <c r="I635" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="18" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="636" hidden="1" spans="1:11">
@@ -57534,7 +57539,7 @@
         <v>488</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>404</v>
@@ -57547,11 +57552,11 @@
       </c>
       <c r="H636" s="22"/>
       <c r="I636" s="3" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="18" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="637" hidden="1" spans="1:11">
@@ -57565,7 +57570,7 @@
         <v>490</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>404</v>
@@ -57582,7 +57587,7 @@
       </c>
       <c r="J637" s="2"/>
       <c r="K637" s="18" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="638" hidden="1" spans="1:11">
@@ -57596,7 +57601,7 @@
         <v>490</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>404</v>
@@ -57613,7 +57618,7 @@
       </c>
       <c r="J638" s="2"/>
       <c r="K638" s="18" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="639" hidden="1" spans="1:11">
@@ -57627,7 +57632,7 @@
         <v>490</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>404</v>
@@ -57640,11 +57645,11 @@
       </c>
       <c r="H639" s="22"/>
       <c r="I639" s="3" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="J639" s="2"/>
       <c r="K639" s="18" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="640" hidden="1" spans="1:11">
@@ -57658,7 +57663,7 @@
         <v>492</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>404</v>
@@ -57671,11 +57676,11 @@
       </c>
       <c r="H640" s="22"/>
       <c r="I640" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J640" s="2"/>
       <c r="K640" s="18" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="641" hidden="1" spans="1:11">
@@ -57689,7 +57694,7 @@
         <v>492</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>404</v>
@@ -57702,11 +57707,11 @@
       </c>
       <c r="H641" s="22"/>
       <c r="I641" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J641" s="2"/>
       <c r="K641" s="18" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="642" hidden="1" spans="1:11">
@@ -57720,7 +57725,7 @@
         <v>492</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>404</v>
@@ -57733,11 +57738,11 @@
       </c>
       <c r="H642" s="22"/>
       <c r="I642" s="3" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="J642" s="2"/>
       <c r="K642" s="18" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="643" hidden="1" spans="1:11">
@@ -57751,7 +57756,7 @@
         <v>494</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>404</v>
@@ -57764,11 +57769,11 @@
       </c>
       <c r="H643" s="22"/>
       <c r="I643" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J643" s="2"/>
       <c r="K643" s="18" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="644" hidden="1" spans="1:11">
@@ -57782,7 +57787,7 @@
         <v>494</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>404</v>
@@ -57795,11 +57800,11 @@
       </c>
       <c r="H644" s="22"/>
       <c r="I644" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J644" s="2"/>
       <c r="K644" s="18" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="645" hidden="1" spans="1:11">
@@ -57813,7 +57818,7 @@
         <v>494</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>404</v>
@@ -57826,11 +57831,11 @@
       </c>
       <c r="H645" s="22"/>
       <c r="I645" s="3" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="J645" s="2"/>
       <c r="K645" s="18" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="646" hidden="1" spans="1:11">
@@ -57844,7 +57849,7 @@
         <v>496</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>404</v>
@@ -57861,7 +57866,7 @@
       </c>
       <c r="J646" s="2"/>
       <c r="K646" s="18" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="647" hidden="1" spans="1:11">
@@ -57875,7 +57880,7 @@
         <v>496</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>404</v>
@@ -57888,11 +57893,11 @@
       </c>
       <c r="H647" s="22"/>
       <c r="I647" s="3" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="J647" s="2"/>
       <c r="K647" s="18" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="648" ht="16.5" hidden="1" spans="1:11">
@@ -57906,7 +57911,7 @@
         <v>496</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>404</v>
@@ -57919,11 +57924,11 @@
       </c>
       <c r="H648" s="25"/>
       <c r="I648" s="3" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="J648" s="2"/>
       <c r="K648" s="50" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
   </sheetData>
@@ -58099,6 +58104,9 @@
     <hyperlink ref="K261" r:id="rId89" display="http://ggzyjy.gansu.gov.cn:81/f/newprovince/annogoods/list"/>
     <hyperlink ref="K263" r:id="rId90" display="http://ggzy.guizhou.gov.cn/queryContent-jyxx.jspx?channelId=75" tooltip="http://ggzy.guizhou.gov.cn/queryContent-jyxx.jspx?channelId=75"/>
     <hyperlink ref="K264" r:id="rId91" display="http://gxggzy.gxzf.gov.cn/gxzbw/showinfo/jyxx.aspx?QuYu=450001&amp;categoryNum=001010001" tooltip="http://gxggzy.gxzf.gov.cn/gxzbw/showinfo/jyxx.aspx?QuYu=450001&amp;categoryNum=001010001"/>
+    <hyperlink ref="K279" r:id="rId92" display="http://deal.ggzy.gov.cn/ds/deal/dealList.jsp"/>
+    <hyperlink ref="K281" r:id="rId93" display="http://prec.sxzwfw.gov.cn/moreInfoController.do?getProject"/>
+    <hyperlink ref="K276" r:id="rId94" display="http://ggzyjy.nmg.gov.cn/jyxx/jsgcZbgg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -58124,7 +58132,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -58135,7 +58143,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -58146,7 +58154,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -58157,7 +58165,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -58168,7 +58176,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -58179,7 +58187,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -58190,18 +58198,18 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -58212,7 +58220,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -58223,7 +58231,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -58234,18 +58242,18 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B12" s="4">
         <v>15</v>
@@ -58256,7 +58264,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -58267,7 +58275,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -58278,18 +58286,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -58300,7 +58308,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -58311,18 +58319,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -58333,18 +58341,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B20" s="4">
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -58355,7 +58363,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -58366,7 +58374,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -58377,7 +58385,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -58388,7 +58396,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -58399,13 +58407,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B26">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -58475,22 +58483,22 @@
         <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -58598,7 +58606,7 @@
         <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58727,7 +58735,7 @@
         <v>381</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58863,7 +58871,7 @@
         <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C11" t="s">
         <v>401</v>
@@ -58920,7 +58928,7 @@
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
@@ -59067,10 +59075,10 @@
         <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="D2" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -59193,91 +59201,91 @@
         <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="D17" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="E17" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="F17" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="G17" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="H17" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="I17" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="J17" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="K17" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="L17" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="M17" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="N17" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="O17" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="P17" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="Q17" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="R17" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="S17" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="T17" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="U17" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="V17" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="W17" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="X17" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="Y17" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="Z17" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="AA17" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="AB17" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="AC17" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="AD17" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="AE17" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -59288,7 +59296,7 @@
         <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -59304,61 +59312,61 @@
         <v>810</v>
       </c>
       <c r="C20" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="D20" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="E20" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="F20" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="G20" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="H20" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="I20" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="J20" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="K20" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="L20" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="M20" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="N20" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="O20" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="P20" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="Q20" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="R20" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="S20" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="T20" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="U20" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -59369,103 +59377,103 @@
         <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="D21" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="E21" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="F21" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="G21" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="H21" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="I21" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="J21" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="K21" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="L21" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="M21" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="N21" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="O21" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="P21" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q21" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="R21" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="S21" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="T21" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="U21" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="V21" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="W21" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="X21" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="Y21" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="Z21" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="AA21" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="AB21" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="AC21" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="AD21" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="AE21" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="AF21" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="AG21" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="AH21" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="AI21" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -59532,16 +59540,16 @@
         <v>741</v>
       </c>
       <c r="C29" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="D29" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="E29" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="F29" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -59581,7 +59589,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -59592,88 +59600,88 @@
         <v>551</v>
       </c>
       <c r="C35" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="D35" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="E35" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="F35" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="G35" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H35" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I35" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="J35" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="K35" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="L35" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="M35" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="N35" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="O35" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="P35" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="Q35" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="R35" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="S35" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="T35" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="U35" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="V35" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="W35" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="X35" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="Y35" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="Z35" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="AA35" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="AB35" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="AC35" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="AD35" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -59684,28 +59692,28 @@
         <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="D36" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="E36" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="F36" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="G36" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="H36" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="I36" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="J36" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -59716,31 +59724,31 @@
         <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="D37" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="E37" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="F37" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="G37" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2188</v>
+      </c>
+      <c r="K37" t="s">
         <v>2189</v>
-      </c>
-      <c r="H37" t="s">
-        <v>2185</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2186</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2187</v>
-      </c>
-      <c r="K37" t="s">
-        <v>2188</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -59751,37 +59759,37 @@
         <v>613</v>
       </c>
       <c r="C38" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="D38" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="E38" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="F38" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="G38" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="H38" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="I38" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="J38" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="K38" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="L38" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="M38" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -59792,19 +59800,19 @@
         <v>637</v>
       </c>
       <c r="C39" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="D39" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="E39" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="F39" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="G39" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -59815,100 +59823,100 @@
         <v>888</v>
       </c>
       <c r="C40" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="D40" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="E40" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="F40" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="G40" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="H40" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="I40" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="J40" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="K40" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="L40" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="M40" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="N40" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="O40" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="P40" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="Q40" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="R40" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="S40" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="T40" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="U40" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="V40" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="W40" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="X40" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="Y40" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="Z40" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="AA40" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="AB40" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AC40" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AD40" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AE40" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AF40" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AG40" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AH40" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -59919,31 +59927,31 @@
         <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="D41" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="E41" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="F41" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="G41" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="H41" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="I41" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="J41" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="K41" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -59959,31 +59967,31 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="D43" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="E43" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="F43" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="G43" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="H43" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="I43" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="J43" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="K43" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -60002,88 +60010,88 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="D45" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="E45" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="F45" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="G45" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H45" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="I45" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="J45" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="K45" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="L45" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="M45" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="N45" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="O45" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="P45" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="Q45" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="R45" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="S45" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="T45" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="U45" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="V45" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="W45" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="X45" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="Y45" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="Z45" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="AA45" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="AB45" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="AC45" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="AD45" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -60094,13 +60102,13 @@
         <v>724</v>
       </c>
       <c r="C46" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="D46" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="E46" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -60111,103 +60119,103 @@
         <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="D47" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="E47" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="F47" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="G47" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="H47" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="I47" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="J47" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="K47" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="L47" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="M47" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="N47" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="O47" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="P47" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="Q47" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="R47" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="S47" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="T47" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="U47" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="V47" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="W47" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="X47" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="Y47" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="Z47" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="AA47" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="AB47" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="AC47" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="AD47" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="AE47" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="AF47" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="AG47" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AH47" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AI47" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -60218,67 +60226,67 @@
         <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="D48" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="E48" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="F48" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="G48" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="H48" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="I48" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="J48" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="K48" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="L48" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="M48" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="N48" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="O48" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="P48" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="Q48" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="R48" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="S48" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="T48" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="U48" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="V48" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="W48" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -60289,100 +60297,100 @@
         <v>888</v>
       </c>
       <c r="C49" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="D49" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="E49" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="F49" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="G49" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="H49" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="I49" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="J49" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="K49" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="L49" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="M49" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="N49" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="O49" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="P49" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="Q49" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="R49" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="S49" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="T49" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="U49" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="V49" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="W49" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="X49" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="Y49" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="Z49" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="AA49" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="AB49" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AC49" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AD49" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AE49" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AF49" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AG49" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AH49" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -60398,19 +60406,19 @@
         <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="D51" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="E51" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="F51" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="G51" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -60421,70 +60429,70 @@
         <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="D52" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="E52" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="F52" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="G52" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="H52" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="I52" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="J52" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="K52" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="L52" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="M52" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="N52" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="O52" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="P52" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="Q52" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="R52" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="S52" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="T52" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="U52" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="V52" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="W52" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="X52" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -60495,40 +60503,40 @@
         <v>662</v>
       </c>
       <c r="C53" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="D53" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="E53" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="F53" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G53" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="H53" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="I53" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="J53" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="K53" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="L53" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="M53" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="N53" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -60555,28 +60563,28 @@
         <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="D56" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="E56" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="F56" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="G56" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="H56" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="I56" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="J56" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -60592,94 +60600,94 @@
         <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="D58" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="E58" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="F58" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="G58" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="H58" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="I58" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="J58" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="K58" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="L58" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="M58" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="N58" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="O58" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="P58" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="Q58" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="R58" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="S58" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="T58" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="U58" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="V58" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="W58" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="X58" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="Y58" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="Z58" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="AA58" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="AB58" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="AC58" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="AD58" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AE58" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AF58" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="59" spans="1:55">
@@ -60687,267 +60695,267 @@
         <v>988</v>
       </c>
       <c r="B59" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="C59" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="D59" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="E59" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="F59" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="G59" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="H59" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="I59" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="J59" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="K59" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="L59" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="M59" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="N59" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="O59" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="P59" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="Q59" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="R59" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="S59" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="T59" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="U59" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="V59" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="W59" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="X59" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="Y59" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="Z59" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="AA59" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="AB59" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="AC59" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="AD59" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="AE59" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="AF59" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="AG59" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="AH59" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="AI59" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="AJ59" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="AK59" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="AL59" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="AM59" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="AN59" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="AO59" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="AP59" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="AQ59" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="AR59" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="AS59" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="AT59" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="AU59" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="AV59" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AW59" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="AX59" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="AY59" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AZ59" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="BA59" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="BB59" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="BC59" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="B60" t="s">
         <v>888</v>
       </c>
       <c r="C60" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="D60" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="E60" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="F60" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="G60" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="H60" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="I60" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="J60" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="K60" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="L60" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="M60" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="N60" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O60" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="P60" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="Q60" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="R60" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="S60" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="T60" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="U60" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="V60" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="W60" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="X60" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="Y60" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="Z60" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="AA60" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AB60" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AC60" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AD60" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AE60" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AF60" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AG60" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -60974,82 +60982,82 @@
         <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="D63" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="E63" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="F63" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="G63" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="H63" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="I63" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="J63" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="K63" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="L63" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="M63" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="N63" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="O63" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="P63" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="Q63" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="R63" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="S63" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="T63" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="U63" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="V63" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="W63" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="X63" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="Y63" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="Z63" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AA63" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="AB63" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -61068,58 +61076,58 @@
         <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="D65" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="E65" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="F65" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="G65" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="H65" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="I65" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="J65" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="K65" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="L65" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="M65" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="N65" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="O65" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="P65" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="Q65" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="R65" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="S65" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="T65" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -61127,88 +61135,88 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="C66" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="D66" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="E66" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="F66" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="G66" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="H66" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="I66" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="J66" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="K66" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="L66" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="M66" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="N66" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="O66" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="P66" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="Q66" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="R66" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="S66" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="T66" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="U66" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="V66" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="W66" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="X66" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="Y66" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Z66" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="AA66" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="AB66" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="AC66" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -61219,127 +61227,127 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="D67" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="E67" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="F67" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="G67" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="H67" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="I67" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="J67" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="K67" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="L67" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="M67" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="N67" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="O67" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="P67" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="Q67" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="R67" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="S67" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="T67" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="U67" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="V67" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="W67" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="X67" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="Y67" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="Z67" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="AA67" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="AB67" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="AC67" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="AD67" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="AE67" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="AF67" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="AG67" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="AH67" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="AI67" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="AJ67" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="AK67" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="AL67" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="AM67" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="AN67" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="AO67" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="AP67" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="AQ67" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -61350,7 +61358,7 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -61401,87 +61409,87 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
     </row>
   </sheetData>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7317" uniqueCount="2505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7318" uniqueCount="2506">
   <si>
     <t>服务器</t>
   </si>
@@ -4665,6 +4665,9 @@
   </si>
   <si>
     <t>http://ggzyjy.nmg.gov.cn/jyxx/jsgcZbgg</t>
+  </si>
+  <si>
+    <t>已修改（20200913）</t>
   </si>
   <si>
     <t>http://www.nxggzyjy.org/ningxiaweb/002/002001/listPage.html</t>
@@ -21526,8 +21529,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H197" workbookViewId="0">
-      <selection activeCell="J277" sqref="J277"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J278" sqref="J278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -30126,9 +30129,11 @@
       <c r="I277" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J277" s="2"/>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="2" t="s">
         <v>1494</v>
+      </c>
+      <c r="K277" s="14" t="s">
+        <v>1495</v>
       </c>
       <c r="L277" t="s">
         <v>1339</v>
@@ -30160,7 +30165,7 @@
       </c>
       <c r="J278" s="2"/>
       <c r="K278" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="L278" t="s">
         <v>1339</v>
@@ -30192,7 +30197,7 @@
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="19" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="L279" t="s">
         <v>1339</v>
@@ -30224,7 +30229,7 @@
       </c>
       <c r="J280" s="2"/>
       <c r="K280" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -30253,7 +30258,7 @@
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="L281" t="s">
         <v>1339</v>
@@ -30285,7 +30290,7 @@
       </c>
       <c r="J282" s="2"/>
       <c r="K282" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="L282" t="s">
         <v>1339</v>
@@ -30317,7 +30322,7 @@
       </c>
       <c r="J283" s="2"/>
       <c r="K283" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="L283" t="s">
         <v>1339</v>
@@ -30349,7 +30354,7 @@
       </c>
       <c r="J284" s="2"/>
       <c r="K284" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="L284" t="s">
         <v>1339</v>
@@ -30381,7 +30386,7 @@
       </c>
       <c r="J285" s="2"/>
       <c r="K285" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="L285" t="s">
         <v>1339</v>
@@ -30409,13 +30414,13 @@
       <c r="G286" s="2"/>
       <c r="H286" s="11"/>
       <c r="I286" s="3" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K286" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="L286" t="s">
         <v>1339</v>
@@ -30447,7 +30452,7 @@
       </c>
       <c r="J287" s="2"/>
       <c r="K287" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -30455,18 +30460,18 @@
       <c r="B288" s="7"/>
       <c r="C288" s="2"/>
       <c r="D288" s="7" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="11"/>
       <c r="I288" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J288" s="2"/>
       <c r="K288" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="L288" t="s">
         <v>1339</v>
@@ -30477,18 +30482,18 @@
       <c r="B289" s="7"/>
       <c r="C289" s="2"/>
       <c r="D289" s="7" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="11"/>
       <c r="I289" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J289" s="2"/>
       <c r="K289" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="L289" t="s">
         <v>1339</v>
@@ -30520,7 +30525,7 @@
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="L290" t="s">
         <v>1339</v>
@@ -30552,7 +30557,7 @@
       </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="L291" t="s">
         <v>1339</v>
@@ -30584,7 +30589,7 @@
       </c>
       <c r="J292" s="2"/>
       <c r="K292" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="L292" t="s">
         <v>1339</v>
@@ -30616,7 +30621,7 @@
       </c>
       <c r="J293" s="2"/>
       <c r="K293" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="L293" t="s">
         <v>1339</v>
@@ -30648,7 +30653,7 @@
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="L294" t="s">
         <v>1339</v>
@@ -30659,18 +30664,18 @@
       <c r="B295" s="7"/>
       <c r="C295" s="2"/>
       <c r="D295" s="7" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="11"/>
       <c r="I295" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="L295" t="s">
         <v>1339</v>
@@ -30681,18 +30686,18 @@
       <c r="B296" s="7"/>
       <c r="C296" s="2"/>
       <c r="D296" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="11"/>
       <c r="I296" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="L296" t="s">
         <v>1339</v>
@@ -30724,7 +30729,7 @@
       </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="L297" t="s">
         <v>1339</v>
@@ -30756,7 +30761,7 @@
       </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="L298" t="s">
         <v>1339</v>
@@ -30788,7 +30793,7 @@
       </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="L299" t="s">
         <v>1339</v>
@@ -30820,7 +30825,7 @@
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="L300" t="s">
         <v>1339</v>
@@ -30852,7 +30857,7 @@
       </c>
       <c r="J301" s="2"/>
       <c r="K301" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="L301" t="s">
         <v>1339</v>
@@ -30884,7 +30889,7 @@
       </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="L302" t="s">
         <v>1339</v>
@@ -30916,7 +30921,7 @@
       </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="L303" t="s">
         <v>1339</v>
@@ -30948,7 +30953,7 @@
       </c>
       <c r="J304" s="2"/>
       <c r="K304" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="L304" t="s">
         <v>1339</v>
@@ -30980,7 +30985,7 @@
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="L305" t="s">
         <v>1339</v>
@@ -31012,7 +31017,7 @@
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="L306" t="s">
         <v>1339</v>
@@ -31044,7 +31049,7 @@
       </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="L307" t="s">
         <v>1339</v>
@@ -31076,7 +31081,7 @@
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="L308" t="s">
         <v>1339</v>
@@ -31108,7 +31113,7 @@
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="L309" t="s">
         <v>1339</v>
@@ -31140,7 +31145,7 @@
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="L310" t="s">
         <v>1339</v>
@@ -31172,7 +31177,7 @@
       </c>
       <c r="J311" s="2"/>
       <c r="K311" s="15" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="312" hidden="1" spans="1:11">
@@ -31203,7 +31208,7 @@
       </c>
       <c r="J312" s="2"/>
       <c r="K312" s="18" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="313" hidden="1" spans="1:11">
@@ -31234,7 +31239,7 @@
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="18" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="314" hidden="1" spans="1:11">
@@ -31265,7 +31270,7 @@
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="18" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="315" hidden="1" spans="1:11">
@@ -31296,7 +31301,7 @@
       </c>
       <c r="J315" s="2"/>
       <c r="K315" s="18" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="316" hidden="1" spans="1:11">
@@ -31327,7 +31332,7 @@
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="18" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="317" hidden="1" spans="1:11">
@@ -31341,7 +31346,7 @@
         <v>859</v>
       </c>
       <c r="D317" s="27" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>751</v>
@@ -31358,7 +31363,7 @@
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="18" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="318" hidden="1" spans="1:11">
@@ -31389,7 +31394,7 @@
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="18" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="319" hidden="1" spans="1:11">
@@ -31420,7 +31425,7 @@
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="18" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="320" hidden="1" spans="1:11">
@@ -31451,7 +31456,7 @@
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="18" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="321" hidden="1" spans="1:11">
@@ -31482,7 +31487,7 @@
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="18" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="322" hidden="1" spans="1:11">
@@ -31513,7 +31518,7 @@
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="18" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:11">
@@ -31544,7 +31549,7 @@
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="18" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="324" hidden="1" spans="1:11">
@@ -31575,7 +31580,7 @@
       </c>
       <c r="J324" s="2"/>
       <c r="K324" s="18" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="325" hidden="1" spans="1:11">
@@ -31606,7 +31611,7 @@
       </c>
       <c r="J325" s="2"/>
       <c r="K325" s="18" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="326" hidden="1" spans="1:11">
@@ -31637,7 +31642,7 @@
       </c>
       <c r="J326" s="2"/>
       <c r="K326" s="18" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="327" hidden="1" spans="1:11">
@@ -31668,7 +31673,7 @@
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="18" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="328" hidden="1" spans="1:11">
@@ -31699,7 +31704,7 @@
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="18" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="329" hidden="1" spans="1:11">
@@ -31730,7 +31735,7 @@
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="18" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="330" hidden="1" spans="1:11">
@@ -31761,7 +31766,7 @@
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="18" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="331" hidden="1" spans="1:11">
@@ -31792,7 +31797,7 @@
       </c>
       <c r="J331" s="2"/>
       <c r="K331" s="18" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="332" hidden="1" spans="1:11">
@@ -31823,7 +31828,7 @@
       </c>
       <c r="J332" s="2"/>
       <c r="K332" s="18" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="333" hidden="1" spans="1:11">
@@ -31854,7 +31859,7 @@
       </c>
       <c r="J333" s="2"/>
       <c r="K333" s="18" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="334" hidden="1" spans="1:11">
@@ -31868,7 +31873,7 @@
         <v>885</v>
       </c>
       <c r="D334" s="27" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>751</v>
@@ -31885,7 +31890,7 @@
       </c>
       <c r="J334" s="2"/>
       <c r="K334" s="18" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="335" hidden="1" spans="1:11">
@@ -31911,14 +31916,14 @@
         <v>1</v>
       </c>
       <c r="H335" s="21" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="15" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="336" hidden="1" spans="1:11">
@@ -31945,11 +31950,11 @@
       </c>
       <c r="H336" s="22"/>
       <c r="I336" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="15" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="337" ht="16.5" hidden="1" spans="1:11">
@@ -31980,7 +31985,7 @@
       </c>
       <c r="J337" s="2"/>
       <c r="K337" s="39" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="338" hidden="1" spans="1:11">
@@ -32007,11 +32012,11 @@
       </c>
       <c r="H338" s="22"/>
       <c r="I338" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="18" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="339" hidden="1" spans="1:11">
@@ -32042,7 +32047,7 @@
       </c>
       <c r="J339" s="2"/>
       <c r="K339" s="18" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="340" hidden="1" spans="1:11">
@@ -32073,7 +32078,7 @@
       </c>
       <c r="J340" s="2"/>
       <c r="K340" s="40" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="341" hidden="1" spans="1:11">
@@ -32104,7 +32109,7 @@
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="18" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="342" hidden="1" spans="1:11">
@@ -32135,7 +32140,7 @@
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="18" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="343" hidden="1" spans="1:11">
@@ -32162,11 +32167,11 @@
       </c>
       <c r="H343" s="22"/>
       <c r="I343" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J343" s="2"/>
       <c r="K343" s="18" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="344" hidden="1" spans="1:11">
@@ -32193,11 +32198,11 @@
       </c>
       <c r="H344" s="22"/>
       <c r="I344" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J344" s="2"/>
       <c r="K344" s="18" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:11">
@@ -32228,7 +32233,7 @@
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="15" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="346" hidden="1" spans="1:11">
@@ -32259,7 +32264,7 @@
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="15" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="347" hidden="1" spans="1:11">
@@ -32290,7 +32295,7 @@
       </c>
       <c r="J347" s="2"/>
       <c r="K347" s="18" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="348" hidden="1" spans="1:11">
@@ -32321,7 +32326,7 @@
       </c>
       <c r="J348" s="2"/>
       <c r="K348" s="18" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="349" hidden="1" spans="1:11">
@@ -32352,7 +32357,7 @@
       </c>
       <c r="J349" s="2"/>
       <c r="K349" s="18" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="350" hidden="1" spans="1:11">
@@ -32383,7 +32388,7 @@
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="15" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="351" hidden="1" spans="1:11">
@@ -32414,7 +32419,7 @@
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="41" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="352" hidden="1" spans="1:11">
@@ -32445,7 +32450,7 @@
       </c>
       <c r="J352" s="2"/>
       <c r="K352" s="15" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="353" hidden="1" spans="1:11">
@@ -32472,11 +32477,11 @@
       </c>
       <c r="H353" s="22"/>
       <c r="I353" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J353" s="2"/>
       <c r="K353" s="15" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="354" hidden="1" spans="1:11">
@@ -32507,7 +32512,7 @@
       </c>
       <c r="J354" s="2"/>
       <c r="K354" s="15" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="355" hidden="1" spans="1:11">
@@ -32534,11 +32539,11 @@
       </c>
       <c r="H355" s="22"/>
       <c r="I355" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="18" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="356" hidden="1" spans="1:11">
@@ -32569,7 +32574,7 @@
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="41" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="357" hidden="1" spans="1:11">
@@ -32596,11 +32601,11 @@
       </c>
       <c r="H357" s="22"/>
       <c r="I357" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J357" s="2"/>
       <c r="K357" s="18" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="358" hidden="1" spans="1:11">
@@ -32627,11 +32632,11 @@
       </c>
       <c r="H358" s="22"/>
       <c r="I358" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J358" s="2"/>
       <c r="K358" s="15" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="359" hidden="1" spans="1:11">
@@ -32662,7 +32667,7 @@
       </c>
       <c r="J359" s="2"/>
       <c r="K359" s="18" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="360" hidden="1" spans="1:11">
@@ -32693,7 +32698,7 @@
       </c>
       <c r="J360" s="2"/>
       <c r="K360" s="15" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="361" hidden="1" spans="1:11">
@@ -32724,7 +32729,7 @@
       </c>
       <c r="J361" s="2"/>
       <c r="K361" s="18" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="362" hidden="1" spans="1:11">
@@ -32751,11 +32756,11 @@
       </c>
       <c r="H362" s="22"/>
       <c r="I362" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J362" s="2"/>
       <c r="K362" s="15" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="363" hidden="1" spans="1:11">
@@ -32782,11 +32787,11 @@
       </c>
       <c r="H363" s="22"/>
       <c r="I363" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J363" s="2"/>
       <c r="K363" s="18" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="364" hidden="1" spans="1:11">
@@ -32817,7 +32822,7 @@
       </c>
       <c r="J364" s="2"/>
       <c r="K364" s="18" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="365" hidden="1" spans="1:11">
@@ -32848,7 +32853,7 @@
       </c>
       <c r="J365" s="2"/>
       <c r="K365" s="18" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="366" hidden="1" spans="1:11">
@@ -32875,11 +32880,11 @@
       </c>
       <c r="H366" s="22"/>
       <c r="I366" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="18" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="367" hidden="1" spans="1:11">
@@ -32910,7 +32915,7 @@
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="15" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="368" hidden="1" spans="1:11">
@@ -32936,14 +32941,14 @@
         <v>1</v>
       </c>
       <c r="H368" s="21" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="18" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="369" hidden="1" spans="1:11">
@@ -32974,7 +32979,7 @@
       </c>
       <c r="J369" s="2"/>
       <c r="K369" s="18" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="370" hidden="1" spans="1:11">
@@ -33005,7 +33010,7 @@
       </c>
       <c r="J370" s="2"/>
       <c r="K370" s="18" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="371" hidden="1" spans="1:11">
@@ -33036,7 +33041,7 @@
       </c>
       <c r="J371" s="2"/>
       <c r="K371" s="18" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="372" hidden="1" spans="1:11">
@@ -33067,7 +33072,7 @@
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="373" hidden="1" spans="1:11">
@@ -33094,11 +33099,11 @@
       </c>
       <c r="H373" s="22"/>
       <c r="I373" s="3" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J373" s="2"/>
       <c r="K373" s="18" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="374" hidden="1" spans="1:11">
@@ -33125,11 +33130,11 @@
       </c>
       <c r="H374" s="22"/>
       <c r="I374" s="3" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J374" s="2"/>
       <c r="K374" s="18" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="375" hidden="1" spans="1:11">
@@ -33160,7 +33165,7 @@
       </c>
       <c r="J375" s="2"/>
       <c r="K375" s="18" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="376" hidden="1" spans="1:11">
@@ -33191,7 +33196,7 @@
       </c>
       <c r="J376" s="2"/>
       <c r="K376" s="18" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="377" hidden="1" spans="1:11">
@@ -33222,7 +33227,7 @@
       </c>
       <c r="J377" s="2"/>
       <c r="K377" s="18" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="378" hidden="1" spans="1:11">
@@ -33253,7 +33258,7 @@
       </c>
       <c r="J378" s="2"/>
       <c r="K378" s="18" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="379" hidden="1" spans="1:11">
@@ -33280,11 +33285,11 @@
       </c>
       <c r="H379" s="22"/>
       <c r="I379" s="3" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="18" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="380" hidden="1" spans="1:11">
@@ -33315,7 +33320,7 @@
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="18" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="381" hidden="1" spans="1:11">
@@ -33346,7 +33351,7 @@
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="18" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="382" hidden="1" spans="1:11">
@@ -33377,7 +33382,7 @@
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="18" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="383" hidden="1" spans="1:11">
@@ -33408,7 +33413,7 @@
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="18" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="384" hidden="1" spans="1:11">
@@ -33439,7 +33444,7 @@
       </c>
       <c r="J384" s="2"/>
       <c r="K384" s="18" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="385" hidden="1" spans="1:11">
@@ -33466,11 +33471,11 @@
       </c>
       <c r="H385" s="22"/>
       <c r="I385" s="3" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="J385" s="2"/>
       <c r="K385" s="18" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="386" hidden="1" spans="1:11">
@@ -33501,7 +33506,7 @@
       </c>
       <c r="J386" s="2"/>
       <c r="K386" s="18" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="387" hidden="1" spans="1:11">
@@ -33532,7 +33537,7 @@
       </c>
       <c r="J387" s="2"/>
       <c r="K387" s="18" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="388" hidden="1" spans="1:11">
@@ -33563,7 +33568,7 @@
       </c>
       <c r="J388" s="2"/>
       <c r="K388" s="2" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="389" hidden="1" spans="1:11">
@@ -33594,7 +33599,7 @@
       </c>
       <c r="J389" s="2"/>
       <c r="K389" s="18" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="390" hidden="1" spans="1:11">
@@ -33625,7 +33630,7 @@
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="18" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="391" hidden="1" spans="1:11">
@@ -33652,11 +33657,11 @@
       </c>
       <c r="H391" s="22"/>
       <c r="I391" s="3" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="18" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="392" hidden="1" spans="1:11">
@@ -33683,11 +33688,11 @@
       </c>
       <c r="H392" s="22"/>
       <c r="I392" s="3" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="18" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="393" hidden="1" spans="1:11">
@@ -33714,11 +33719,11 @@
       </c>
       <c r="H393" s="22"/>
       <c r="I393" s="3" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="18" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="394" hidden="1" spans="1:11">
@@ -33749,7 +33754,7 @@
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="18" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="395" hidden="1" spans="1:11">
@@ -33763,7 +33768,7 @@
         <v>980</v>
       </c>
       <c r="D395" s="27" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>890</v>
@@ -33780,7 +33785,7 @@
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="18" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="396" hidden="1" spans="1:11">
@@ -33794,7 +33799,7 @@
         <v>486</v>
       </c>
       <c r="D396" s="27" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>890</v>
@@ -33811,7 +33816,7 @@
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="18" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="397" hidden="1" spans="1:11">
@@ -33842,7 +33847,7 @@
       </c>
       <c r="J397" s="2"/>
       <c r="K397" s="18" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="398" hidden="1" spans="1:11">
@@ -33873,7 +33878,7 @@
       </c>
       <c r="J398" s="2"/>
       <c r="K398" s="18" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="399" hidden="1" spans="1:11">
@@ -33900,11 +33905,11 @@
       </c>
       <c r="H399" s="22"/>
       <c r="I399" s="3" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="18" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="400" hidden="1" spans="1:11">
@@ -33931,11 +33936,11 @@
       </c>
       <c r="H400" s="22"/>
       <c r="I400" s="3" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="18" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="401" hidden="1" spans="1:11">
@@ -33966,7 +33971,7 @@
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="18" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -33980,7 +33985,7 @@
         <v>888</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="E402" s="7" t="s">
         <v>890</v>
@@ -33990,14 +33995,14 @@
       </c>
       <c r="G402" s="2"/>
       <c r="H402" s="21" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="14" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="L402" t="s">
         <v>1339</v>
@@ -34008,7 +34013,7 @@
       <c r="B403" s="7"/>
       <c r="C403" s="2"/>
       <c r="D403" s="7" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="E403" s="7" t="s">
         <v>890</v>
@@ -34019,11 +34024,11 @@
       <c r="G403" s="2"/>
       <c r="H403" s="22"/>
       <c r="I403" s="3" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="J403" s="2"/>
       <c r="K403" s="44" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="L403" t="s">
         <v>1339</v>
@@ -34055,7 +34060,7 @@
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="18" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="L404" t="s">
         <v>1339</v>
@@ -34087,7 +34092,7 @@
       </c>
       <c r="J405" s="2"/>
       <c r="K405" s="18" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="L405" t="s">
         <v>1339</v>
@@ -34119,7 +34124,7 @@
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="18" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="L406" t="s">
         <v>1339</v>
@@ -34151,7 +34156,7 @@
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="18" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -34165,7 +34170,7 @@
         <v>997</v>
       </c>
       <c r="D408" s="7" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="E408" s="7" t="s">
         <v>890</v>
@@ -34180,7 +34185,7 @@
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="18" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="L408" t="s">
         <v>1339</v>
@@ -34212,7 +34217,7 @@
       </c>
       <c r="J409" s="2"/>
       <c r="K409" s="18" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="L409" t="s">
         <v>1339</v>
@@ -34244,7 +34249,7 @@
       </c>
       <c r="J410" s="2"/>
       <c r="K410" s="18" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="L410" t="s">
         <v>1339</v>
@@ -34276,7 +34281,7 @@
       </c>
       <c r="J411" s="2"/>
       <c r="K411" s="18" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="L411" t="s">
         <v>1339</v>
@@ -34287,7 +34292,7 @@
       <c r="B412" s="7"/>
       <c r="C412" s="2"/>
       <c r="D412" s="7" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="E412" s="7" t="s">
         <v>890</v>
@@ -34298,11 +34303,11 @@
       <c r="G412" s="2"/>
       <c r="H412" s="22"/>
       <c r="I412" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="18" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="L412" t="s">
         <v>1339</v>
@@ -34319,7 +34324,7 @@
         <v>901</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="E413" s="7" t="s">
         <v>890</v>
@@ -34334,7 +34339,7 @@
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="19" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -34348,7 +34353,7 @@
         <v>1003</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="E414" s="7" t="s">
         <v>890</v>
@@ -34363,7 +34368,7 @@
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="18" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="L414" t="s">
         <v>1339</v>
@@ -34374,7 +34379,7 @@
       <c r="B415" s="7"/>
       <c r="C415" s="2"/>
       <c r="D415" s="7" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="E415" s="7" t="s">
         <v>890</v>
@@ -34385,11 +34390,11 @@
       <c r="G415" s="2"/>
       <c r="H415" s="22"/>
       <c r="I415" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="18" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="L415" t="s">
         <v>1339</v>
@@ -34400,7 +34405,7 @@
       <c r="B416" s="7"/>
       <c r="C416" s="2"/>
       <c r="D416" s="7" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E416" s="7" t="s">
         <v>890</v>
@@ -34411,11 +34416,11 @@
       <c r="G416" s="2"/>
       <c r="H416" s="22"/>
       <c r="I416" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="18" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="L416" t="s">
         <v>1339</v>
@@ -34432,7 +34437,7 @@
         <v>903</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="E417" s="7" t="s">
         <v>890</v>
@@ -34447,7 +34452,7 @@
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="18" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -34455,7 +34460,7 @@
       <c r="B418" s="7"/>
       <c r="C418" s="2"/>
       <c r="D418" s="7" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="E418" s="7" t="s">
         <v>890</v>
@@ -34466,11 +34471,11 @@
       <c r="G418" s="2"/>
       <c r="H418" s="22"/>
       <c r="I418" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="18" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="L418" t="s">
         <v>1339</v>
@@ -34487,7 +34492,7 @@
         <v>907</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="E419" s="7" t="s">
         <v>890</v>
@@ -34502,7 +34507,7 @@
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="19" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="420" hidden="1" spans="1:11">
@@ -34516,7 +34521,7 @@
         <v>1007</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="E420" s="7" t="s">
         <v>890</v>
@@ -34531,7 +34536,7 @@
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="18" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -34556,13 +34561,13 @@
       <c r="G421" s="2"/>
       <c r="H421" s="22"/>
       <c r="I421" s="2" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K421" s="18" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="L421" t="s">
         <v>1339</v>
@@ -34594,7 +34599,7 @@
       </c>
       <c r="J422" s="2"/>
       <c r="K422" s="18" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="423" hidden="1" spans="1:11">
@@ -34623,7 +34628,7 @@
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="18" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -34631,7 +34636,7 @@
       <c r="B424" s="7"/>
       <c r="C424" s="2"/>
       <c r="D424" s="7" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="E424" s="7" t="s">
         <v>890</v>
@@ -34642,11 +34647,11 @@
       <c r="G424" s="2"/>
       <c r="H424" s="22"/>
       <c r="I424" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="18" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="L424" t="s">
         <v>1339</v>
@@ -34657,7 +34662,7 @@
       <c r="B425" s="7"/>
       <c r="C425" s="2"/>
       <c r="D425" s="7" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="E425" s="7" t="s">
         <v>890</v>
@@ -34668,11 +34673,11 @@
       <c r="G425" s="2"/>
       <c r="H425" s="22"/>
       <c r="I425" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J425" s="2"/>
       <c r="K425" s="18" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="L425" t="s">
         <v>1339</v>
@@ -34700,13 +34705,13 @@
       <c r="G426" s="2"/>
       <c r="H426" s="22"/>
       <c r="I426" s="3" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K426" s="19" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="L426" t="s">
         <v>1339</v>
@@ -34734,13 +34739,13 @@
       <c r="G427" s="2"/>
       <c r="H427" s="22"/>
       <c r="I427" s="3" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K427" s="18" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="L427" t="s">
         <v>1339</v>
@@ -34772,7 +34777,7 @@
       </c>
       <c r="J428" s="2"/>
       <c r="K428" s="45" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="L428" t="s">
         <v>1339</v>
@@ -34794,11 +34799,11 @@
       <c r="G429" s="2"/>
       <c r="H429" s="22"/>
       <c r="I429" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J429" s="2"/>
       <c r="K429" s="45" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="L429" t="s">
         <v>1339</v>
@@ -34815,7 +34820,7 @@
         <v>283</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="E430" s="7" t="s">
         <v>890</v>
@@ -34830,7 +34835,7 @@
       </c>
       <c r="J430" s="2"/>
       <c r="K430" s="18" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -34838,7 +34843,7 @@
       <c r="B431" s="7"/>
       <c r="C431" s="2"/>
       <c r="D431" s="7" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="E431" s="7" t="s">
         <v>890</v>
@@ -34849,11 +34854,11 @@
       <c r="G431" s="2"/>
       <c r="H431" s="22"/>
       <c r="I431" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J431" s="2"/>
       <c r="K431" s="18" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="L431" t="s">
         <v>1339</v>
@@ -34870,7 +34875,7 @@
         <v>417</v>
       </c>
       <c r="D432" s="42" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="E432" s="7" t="s">
         <v>890</v>
@@ -34885,7 +34890,7 @@
       </c>
       <c r="J432" s="2"/>
       <c r="K432" s="18" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="L432" t="s">
         <v>1339</v>
@@ -34902,7 +34907,7 @@
         <v>285</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="E433" s="7" t="s">
         <v>890</v>
@@ -34917,7 +34922,7 @@
       </c>
       <c r="J433" s="2"/>
       <c r="K433" s="18" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="L433" t="s">
         <v>1339</v>
@@ -34934,7 +34939,7 @@
         <v>920</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E434" s="7" t="s">
         <v>890</v>
@@ -34949,7 +34954,7 @@
       </c>
       <c r="J434" s="2"/>
       <c r="K434" s="18" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="L434" t="s">
         <v>1339</v>
@@ -34960,7 +34965,7 @@
       <c r="B435" s="7"/>
       <c r="C435" s="2"/>
       <c r="D435" s="7" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="E435" s="7" t="s">
         <v>890</v>
@@ -34971,11 +34976,11 @@
       <c r="G435" s="2"/>
       <c r="H435" s="22"/>
       <c r="I435" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J435" s="2"/>
       <c r="K435" s="18" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="L435" t="s">
         <v>1339</v>
@@ -35007,7 +35012,7 @@
       </c>
       <c r="J436" s="2"/>
       <c r="K436" s="18" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="437" hidden="1" spans="1:11">
@@ -35036,7 +35041,7 @@
       </c>
       <c r="J437" s="2"/>
       <c r="K437" s="18" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="438" hidden="1" spans="1:11">
@@ -35065,7 +35070,7 @@
       </c>
       <c r="J438" s="2"/>
       <c r="K438" s="18" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="439" hidden="1" spans="1:11">
@@ -35094,7 +35099,7 @@
       </c>
       <c r="J439" s="2"/>
       <c r="K439" s="18" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="440" hidden="1" spans="1:11">
@@ -35123,7 +35128,7 @@
       </c>
       <c r="J440" s="2"/>
       <c r="K440" s="18" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="441" hidden="1" spans="1:11">
@@ -35152,7 +35157,7 @@
       </c>
       <c r="J441" s="2"/>
       <c r="K441" s="18" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="442" spans="1:16384">
@@ -35160,7 +35165,7 @@
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
       <c r="D442" s="43" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="E442" s="7" t="s">
         <v>890</v>
@@ -35171,11 +35176,11 @@
       <c r="G442" s="18"/>
       <c r="H442" s="22"/>
       <c r="I442" s="45" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J442" s="18"/>
       <c r="K442" s="18" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="L442" t="s">
         <v>1339</v>
@@ -51564,7 +51569,7 @@
         <v>1033</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="E443" s="7" t="s">
         <v>890</v>
@@ -51579,7 +51584,7 @@
       </c>
       <c r="J443" s="2"/>
       <c r="K443" s="18" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="444" hidden="1" spans="1:11">
@@ -51608,7 +51613,7 @@
       </c>
       <c r="J444" s="2"/>
       <c r="K444" s="18" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -51637,7 +51642,7 @@
       </c>
       <c r="J445" s="2"/>
       <c r="K445" s="18" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="L445" t="s">
         <v>1339</v>
@@ -51669,7 +51674,7 @@
       </c>
       <c r="J446" s="2"/>
       <c r="K446" s="18" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="447" hidden="1" spans="1:11">
@@ -51698,7 +51703,7 @@
       </c>
       <c r="J447" s="2"/>
       <c r="K447" s="18" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -51727,7 +51732,7 @@
       </c>
       <c r="J448" s="2"/>
       <c r="K448" s="18" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="L448" t="s">
         <v>1339</v>
@@ -51759,7 +51764,7 @@
       </c>
       <c r="J449" s="2"/>
       <c r="K449" s="18" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="450" hidden="1" spans="1:11">
@@ -51788,7 +51793,7 @@
       </c>
       <c r="J450" s="2"/>
       <c r="K450" s="18" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="451" hidden="1" spans="1:11">
@@ -51817,7 +51822,7 @@
       </c>
       <c r="J451" s="2"/>
       <c r="K451" s="18" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -51831,7 +51836,7 @@
         <v>1050</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="E452" s="7" t="s">
         <v>890</v>
@@ -51846,7 +51851,7 @@
       </c>
       <c r="J452" s="2"/>
       <c r="K452" s="46" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="L452" t="s">
         <v>1339</v>
@@ -51863,7 +51868,7 @@
         <v>931</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="E453" s="7" t="s">
         <v>890</v>
@@ -51874,13 +51879,13 @@
       <c r="G453" s="2"/>
       <c r="H453" s="22"/>
       <c r="I453" s="3" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K453" s="20" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="L453" t="s">
         <v>1339</v>
@@ -51891,7 +51896,7 @@
       <c r="B454" s="7"/>
       <c r="C454" s="2"/>
       <c r="D454" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="E454" s="7" t="s">
         <v>890</v>
@@ -51902,11 +51907,11 @@
       <c r="G454" s="2"/>
       <c r="H454" s="22"/>
       <c r="I454" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J454" s="2"/>
       <c r="K454" s="47" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="L454" t="s">
         <v>1339</v>
@@ -51938,7 +51943,7 @@
       </c>
       <c r="J455" s="2"/>
       <c r="K455" s="18" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="L455" t="s">
         <v>1339</v>
@@ -51970,7 +51975,7 @@
       </c>
       <c r="J456" s="2"/>
       <c r="K456" s="18" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="L456" t="s">
         <v>1339</v>
@@ -52002,7 +52007,7 @@
       </c>
       <c r="J457" s="2"/>
       <c r="K457" s="18" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -52027,11 +52032,11 @@
       <c r="G458" s="2"/>
       <c r="H458" s="22"/>
       <c r="I458" s="2" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="J458" s="2"/>
       <c r="K458" s="18" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="L458" t="s">
         <v>1339</v>
@@ -52063,7 +52068,7 @@
       </c>
       <c r="J459" s="2"/>
       <c r="K459" s="18" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="460" hidden="1" spans="1:11">
@@ -52077,7 +52082,7 @@
         <v>937</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="E460" s="7" t="s">
         <v>890</v>
@@ -52092,7 +52097,7 @@
       </c>
       <c r="J460" s="2"/>
       <c r="K460" s="18" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="461" hidden="1" spans="1:11">
@@ -52121,7 +52126,7 @@
       </c>
       <c r="J461" s="2"/>
       <c r="K461" s="18" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="462" hidden="1" spans="1:11">
@@ -52150,7 +52155,7 @@
       </c>
       <c r="J462" s="2"/>
       <c r="K462" s="18" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -52179,7 +52184,7 @@
       </c>
       <c r="J463" s="2"/>
       <c r="K463" s="45" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="L463" t="s">
         <v>1339</v>
@@ -52196,7 +52201,7 @@
         <v>1069</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="E464" s="7" t="s">
         <v>890</v>
@@ -52211,7 +52216,7 @@
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="18" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="L464" t="s">
         <v>1339</v>
@@ -52222,7 +52227,7 @@
       <c r="B465" s="7"/>
       <c r="C465" s="2"/>
       <c r="D465" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>890</v>
@@ -52233,11 +52238,11 @@
       <c r="G465" s="2"/>
       <c r="H465" s="22"/>
       <c r="I465" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="18" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="L465" t="s">
         <v>1339</v>
@@ -52254,7 +52259,7 @@
         <v>1071</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="E466" s="7" t="s">
         <v>890</v>
@@ -52269,7 +52274,7 @@
       </c>
       <c r="J466" s="2"/>
       <c r="K466" s="46" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -52283,7 +52288,7 @@
         <v>300</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>890</v>
@@ -52298,7 +52303,7 @@
       </c>
       <c r="J467" s="2"/>
       <c r="K467" s="18" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="L467" t="s">
         <v>1339</v>
@@ -52315,7 +52320,7 @@
         <v>1074</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="E468" s="7" t="s">
         <v>890</v>
@@ -52326,13 +52331,13 @@
       <c r="G468" s="2"/>
       <c r="H468" s="25"/>
       <c r="I468" s="3" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K468" s="18" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="L468" t="s">
         <v>1339</v>
@@ -52368,7 +52373,7 @@
       </c>
       <c r="J469" s="2"/>
       <c r="K469" s="18" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="470" hidden="1" spans="1:11">
@@ -52399,7 +52404,7 @@
       </c>
       <c r="J470" s="2"/>
       <c r="K470" s="18" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="471" hidden="1" spans="1:11">
@@ -52430,7 +52435,7 @@
       </c>
       <c r="J471" s="2"/>
       <c r="K471" s="2" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="472" hidden="1" spans="1:11">
@@ -52461,7 +52466,7 @@
       </c>
       <c r="J472" s="2"/>
       <c r="K472" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="473" hidden="1" spans="1:11">
@@ -52488,11 +52493,11 @@
       </c>
       <c r="H473" s="22"/>
       <c r="I473" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="J473" s="2"/>
       <c r="K473" s="2" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="474" hidden="1" spans="1:11">
@@ -52523,7 +52528,7 @@
       </c>
       <c r="J474" s="2"/>
       <c r="K474" s="18" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="475" hidden="1" spans="1:11">
@@ -52550,11 +52555,11 @@
       </c>
       <c r="H475" s="22"/>
       <c r="I475" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="J475" s="2"/>
       <c r="K475" s="18" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="476" hidden="1" spans="1:11">
@@ -52581,11 +52586,11 @@
       </c>
       <c r="H476" s="22"/>
       <c r="I476" s="2" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="J476" s="2"/>
       <c r="K476" s="2" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="477" hidden="1" spans="1:11">
@@ -52628,7 +52633,7 @@
         <v>215</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>198</v>
@@ -52645,7 +52650,7 @@
       </c>
       <c r="J478" s="2"/>
       <c r="K478" s="18" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="479" hidden="1" spans="1:11">
@@ -52676,7 +52681,7 @@
       </c>
       <c r="J479" s="2"/>
       <c r="K479" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="480" hidden="1" customHeight="1" spans="1:11">
@@ -52707,7 +52712,7 @@
       </c>
       <c r="J480" s="2"/>
       <c r="K480" s="2" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="481" hidden="1" spans="1:11">
@@ -52738,7 +52743,7 @@
       </c>
       <c r="J481" s="2"/>
       <c r="K481" s="3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="482" hidden="1" spans="1:11">
@@ -52752,7 +52757,7 @@
         <v>223</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>198</v>
@@ -52765,11 +52770,11 @@
       </c>
       <c r="H482" s="22"/>
       <c r="I482" s="2" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="J482" s="2"/>
       <c r="K482" s="2" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="483" hidden="1" spans="1:11">
@@ -52800,7 +52805,7 @@
       </c>
       <c r="J483" s="2"/>
       <c r="K483" s="2" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="484" hidden="1" spans="1:11">
@@ -52831,7 +52836,7 @@
       </c>
       <c r="J484" s="2"/>
       <c r="K484" s="2" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="485" hidden="1" spans="1:11">
@@ -52862,7 +52867,7 @@
       </c>
       <c r="J485" s="2"/>
       <c r="K485" s="2" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="486" hidden="1" spans="1:11">
@@ -52889,11 +52894,11 @@
       </c>
       <c r="H486" s="22"/>
       <c r="I486" s="3" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J486" s="2"/>
       <c r="K486" s="14" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="487" hidden="1" spans="1:11">
@@ -52924,7 +52929,7 @@
       </c>
       <c r="J487" s="2"/>
       <c r="K487" s="2" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="488" hidden="1" spans="1:11">
@@ -52951,11 +52956,11 @@
       </c>
       <c r="H488" s="22"/>
       <c r="I488" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="489" hidden="1" spans="1:11">
@@ -52982,11 +52987,11 @@
       </c>
       <c r="H489" s="22"/>
       <c r="I489" s="34" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J489" s="2"/>
       <c r="K489" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="490" hidden="1" spans="1:11">
@@ -53017,7 +53022,7 @@
       </c>
       <c r="J490" s="2"/>
       <c r="K490" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="491" hidden="1" spans="1:11">
@@ -53044,7 +53049,7 @@
       </c>
       <c r="H491" s="22"/>
       <c r="I491" s="34" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
@@ -53073,11 +53078,11 @@
       </c>
       <c r="H492" s="22"/>
       <c r="I492" s="34" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J492" s="2"/>
       <c r="K492" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="493" hidden="1" spans="1:11">
@@ -53104,11 +53109,11 @@
       </c>
       <c r="H493" s="22"/>
       <c r="I493" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J493" s="2"/>
       <c r="K493" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="494" hidden="1" spans="1:11">
@@ -53139,7 +53144,7 @@
       </c>
       <c r="J494" s="2"/>
       <c r="K494" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="495" hidden="1" spans="1:11">
@@ -53166,11 +53171,11 @@
       </c>
       <c r="H495" s="22"/>
       <c r="I495" s="34" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J495" s="2"/>
       <c r="K495" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="496" hidden="1" spans="1:11">
@@ -53197,11 +53202,11 @@
       </c>
       <c r="H496" s="22"/>
       <c r="I496" s="34" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J496" s="2"/>
       <c r="K496" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="497" hidden="1" spans="1:11">
@@ -53228,11 +53233,11 @@
       </c>
       <c r="H497" s="22"/>
       <c r="I497" s="34" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J497" s="2"/>
       <c r="K497" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="498" hidden="1" spans="1:11">
@@ -53263,7 +53268,7 @@
       </c>
       <c r="J498" s="2"/>
       <c r="K498" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="499" hidden="1" spans="1:11">
@@ -53290,11 +53295,11 @@
       </c>
       <c r="H499" s="22"/>
       <c r="I499" s="3" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="J499" s="2"/>
       <c r="K499" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="500" hidden="1" spans="1:11">
@@ -53321,11 +53326,11 @@
       </c>
       <c r="H500" s="22"/>
       <c r="I500" s="34" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="501" hidden="1" spans="1:11">
@@ -53352,11 +53357,11 @@
       </c>
       <c r="H501" s="22"/>
       <c r="I501" s="3" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="J501" s="2"/>
       <c r="K501" s="2" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="502" hidden="1" spans="1:11">
@@ -53383,7 +53388,7 @@
       </c>
       <c r="H502" s="22"/>
       <c r="I502" s="34" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
@@ -53410,13 +53415,13 @@
       <c r="G503" s="2"/>
       <c r="H503" s="22"/>
       <c r="I503" s="3" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K503" s="49" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="L503" t="s">
         <v>1139</v>
@@ -53448,7 +53453,7 @@
       </c>
       <c r="J504" s="2"/>
       <c r="K504" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="505" hidden="1" spans="1:12">
@@ -53473,13 +53478,13 @@
       <c r="G505" s="2"/>
       <c r="H505" s="22"/>
       <c r="I505" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J505" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="K505" s="14" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="L505" t="s">
         <v>1139</v>
@@ -53507,13 +53512,13 @@
       <c r="G506" s="2"/>
       <c r="H506" s="22"/>
       <c r="I506" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="K506" s="14" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="L506" t="s">
         <v>1139</v>
@@ -53547,7 +53552,7 @@
         <v>1171</v>
       </c>
       <c r="K507" s="14" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="L507" t="s">
         <v>1139</v>
@@ -53581,7 +53586,7 @@
         <v>1171</v>
       </c>
       <c r="K508" s="2" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="L508" t="s">
         <v>1139</v>
@@ -53615,7 +53620,7 @@
         <v>1171</v>
       </c>
       <c r="K509" s="14" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="L509" t="s">
         <v>1139</v>
@@ -53643,11 +53648,11 @@
       <c r="G510" s="2"/>
       <c r="H510" s="22"/>
       <c r="I510" s="3" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="511" hidden="1" spans="1:12">
@@ -53678,7 +53683,7 @@
         <v>1171</v>
       </c>
       <c r="K511" s="14" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="L511" t="s">
         <v>1139</v>
@@ -53706,13 +53711,13 @@
       <c r="G512" s="2"/>
       <c r="H512" s="22"/>
       <c r="I512" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J512" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="K512" s="14" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="L512" t="s">
         <v>1139</v>
@@ -53723,7 +53728,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="3" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>198</v>
@@ -53737,10 +53742,10 @@
         <v>1276</v>
       </c>
       <c r="J513" s="2" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="K513" s="14" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="L513" t="s">
         <v>1139</v>
@@ -53751,7 +53756,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="3" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>198</v>
@@ -53765,10 +53770,10 @@
         <v>1276</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="K514" s="14" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="L514" t="s">
         <v>1139</v>
@@ -53796,10 +53801,10 @@
       <c r="G515" s="2"/>
       <c r="H515" s="22"/>
       <c r="I515" s="3" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="J515" s="2" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="K515" s="2"/>
       <c r="L515" t="s">
@@ -53817,7 +53822,7 @@
         <v>285</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -53828,11 +53833,11 @@
       <c r="G516" s="2"/>
       <c r="H516" s="22"/>
       <c r="I516" s="48" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="14" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="L516" t="s">
         <v>1139</v>
@@ -53843,7 +53848,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="3" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>198</v>
@@ -53854,11 +53859,11 @@
       <c r="G517" s="2"/>
       <c r="H517" s="22"/>
       <c r="I517" s="48" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="14" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="L517" t="s">
         <v>1139</v>
@@ -53890,7 +53895,7 @@
       </c>
       <c r="J518" s="2"/>
       <c r="K518" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="519" hidden="1" spans="1:12">
@@ -53921,7 +53926,7 @@
         <v>1137</v>
       </c>
       <c r="K519" s="14" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="L519" t="s">
         <v>1139</v>
@@ -53949,13 +53954,13 @@
       <c r="G520" s="2"/>
       <c r="H520" s="22"/>
       <c r="I520" s="48" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="K520" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="L520" t="s">
         <v>1139</v>
@@ -53983,13 +53988,13 @@
       <c r="G521" s="2"/>
       <c r="H521" s="22"/>
       <c r="I521" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="K521" s="14" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="L521" t="s">
         <v>1139</v>
@@ -54021,7 +54026,7 @@
       </c>
       <c r="J522" s="2"/>
       <c r="K522" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="523" hidden="1" spans="1:11">
@@ -54050,7 +54055,7 @@
       </c>
       <c r="J523" s="2"/>
       <c r="K523" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="524" hidden="1" spans="1:11">
@@ -54079,7 +54084,7 @@
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="525" hidden="1" spans="1:12">
@@ -54104,13 +54109,13 @@
       <c r="G525" s="2"/>
       <c r="H525" s="22"/>
       <c r="I525" s="3" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="K525" s="14" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="L525" t="s">
         <v>1139</v>
@@ -54127,7 +54132,7 @@
         <v>295</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>198</v>
@@ -54138,13 +54143,13 @@
       <c r="G526" s="2"/>
       <c r="H526" s="22"/>
       <c r="I526" s="3" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>1137</v>
       </c>
       <c r="K526" s="14" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="L526" t="s">
         <v>1139</v>
@@ -54176,7 +54181,7 @@
       </c>
       <c r="J527" s="2"/>
       <c r="K527" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="528" hidden="1" spans="1:12">
@@ -54201,13 +54206,13 @@
       <c r="G528" s="2"/>
       <c r="H528" s="22"/>
       <c r="I528" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J528" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="L528" t="s">
         <v>1139</v>
@@ -54235,13 +54240,13 @@
       <c r="G529" s="2"/>
       <c r="H529" s="22"/>
       <c r="I529" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="J529" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="K529" s="14" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="L529" t="s">
         <v>1139</v>
@@ -54258,7 +54263,7 @@
         <v>300</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>198</v>
@@ -54269,11 +54274,11 @@
       <c r="G530" s="2"/>
       <c r="H530" s="22"/>
       <c r="I530" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="J530" s="2"/>
       <c r="K530" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="531" hidden="1" spans="1:12">
@@ -54281,7 +54286,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>198</v>
@@ -54296,7 +54301,7 @@
         <v>1137</v>
       </c>
       <c r="K531" s="14" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="L531" t="s">
         <v>1139</v>
@@ -54324,13 +54329,13 @@
       <c r="G532" s="2"/>
       <c r="H532" s="22"/>
       <c r="I532" s="3" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="J532" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="K532" s="14" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="L532" t="s">
         <v>1139</v>
@@ -54358,13 +54363,13 @@
       <c r="G533" s="2"/>
       <c r="H533" s="25"/>
       <c r="I533" s="3" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="J533" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="K533" s="14" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="L533" t="s">
         <v>1139</v>
@@ -54393,10 +54398,10 @@
         <v>1</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
@@ -54424,10 +54429,10 @@
         <v>1</v>
       </c>
       <c r="H535" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I535" s="3" t="s">
         <v>1822</v>
-      </c>
-      <c r="I535" s="3" t="s">
-        <v>1821</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
@@ -54455,10 +54460,10 @@
         <v>1</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
@@ -54486,10 +54491,10 @@
         <v>1</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -54517,10 +54522,10 @@
         <v>1</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
@@ -54548,10 +54553,10 @@
         <v>1</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
@@ -54579,10 +54584,10 @@
         <v>1</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
@@ -54610,10 +54615,10 @@
         <v>1</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
@@ -54641,10 +54646,10 @@
         <v>1</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
@@ -54672,10 +54677,10 @@
         <v>1</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
@@ -54703,10 +54708,10 @@
         <v>1</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
@@ -54734,10 +54739,10 @@
         <v>1</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
@@ -54765,10 +54770,10 @@
         <v>1</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
@@ -54796,10 +54801,10 @@
         <v>1</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
@@ -54827,10 +54832,10 @@
         <v>1</v>
       </c>
       <c r="H548" s="3" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
@@ -54858,10 +54863,10 @@
         <v>1</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
@@ -54889,10 +54894,10 @@
         <v>1</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
@@ -54920,10 +54925,10 @@
         <v>1</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
@@ -54951,10 +54956,10 @@
         <v>1</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -54982,10 +54987,10 @@
         <v>1</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
@@ -55013,10 +55018,10 @@
         <v>1</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
@@ -55032,7 +55037,7 @@
         <v>438</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>404</v>
@@ -55044,14 +55049,14 @@
         <v>1</v>
       </c>
       <c r="H555" s="21" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="18" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="556" hidden="1" spans="1:11">
@@ -55065,7 +55070,7 @@
         <v>438</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>404</v>
@@ -55078,11 +55083,11 @@
       </c>
       <c r="H556" s="22"/>
       <c r="I556" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J556" s="2"/>
       <c r="K556" s="18" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="557" hidden="1" spans="1:11">
@@ -55096,7 +55101,7 @@
         <v>438</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>404</v>
@@ -55109,11 +55114,11 @@
       </c>
       <c r="H557" s="22"/>
       <c r="I557" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="18" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="558" hidden="1" spans="1:11">
@@ -55127,7 +55132,7 @@
         <v>440</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>404</v>
@@ -55140,11 +55145,11 @@
       </c>
       <c r="H558" s="22"/>
       <c r="I558" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J558" s="2"/>
       <c r="K558" s="18" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="559" hidden="1" spans="1:11">
@@ -55158,7 +55163,7 @@
         <v>440</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>404</v>
@@ -55171,11 +55176,11 @@
       </c>
       <c r="H559" s="22"/>
       <c r="I559" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="18" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="560" hidden="1" spans="1:11">
@@ -55189,7 +55194,7 @@
         <v>440</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>404</v>
@@ -55202,11 +55207,11 @@
       </c>
       <c r="H560" s="22"/>
       <c r="I560" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J560" s="2"/>
       <c r="K560" s="18" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="561" hidden="1" spans="1:11">
@@ -55220,7 +55225,7 @@
         <v>442</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>404</v>
@@ -55233,11 +55238,11 @@
       </c>
       <c r="H561" s="22"/>
       <c r="I561" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="18" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="562" hidden="1" spans="1:11">
@@ -55251,7 +55256,7 @@
         <v>442</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>404</v>
@@ -55264,11 +55269,11 @@
       </c>
       <c r="H562" s="22"/>
       <c r="I562" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="18" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="563" hidden="1" spans="1:11">
@@ -55282,7 +55287,7 @@
         <v>442</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>404</v>
@@ -55295,11 +55300,11 @@
       </c>
       <c r="H563" s="22"/>
       <c r="I563" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J563" s="2"/>
       <c r="K563" s="18" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="564" hidden="1" spans="1:11">
@@ -55313,7 +55318,7 @@
         <v>444</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>404</v>
@@ -55326,11 +55331,11 @@
       </c>
       <c r="H564" s="22"/>
       <c r="I564" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="18" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="565" hidden="1" spans="1:11">
@@ -55344,7 +55349,7 @@
         <v>444</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>404</v>
@@ -55357,11 +55362,11 @@
       </c>
       <c r="H565" s="22"/>
       <c r="I565" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J565" s="2"/>
       <c r="K565" s="18" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="566" hidden="1" spans="1:11">
@@ -55375,7 +55380,7 @@
         <v>444</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>404</v>
@@ -55392,7 +55397,7 @@
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="18" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="567" hidden="1" spans="1:11">
@@ -55406,7 +55411,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>404</v>
@@ -55423,7 +55428,7 @@
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="18" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="568" hidden="1" spans="1:11">
@@ -55437,7 +55442,7 @@
         <v>446</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>404</v>
@@ -55450,11 +55455,11 @@
       </c>
       <c r="H568" s="22"/>
       <c r="I568" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J568" s="2"/>
       <c r="K568" s="18" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="569" ht="16.5" hidden="1" spans="1:11">
@@ -55468,7 +55473,7 @@
         <v>446</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>404</v>
@@ -55481,11 +55486,11 @@
       </c>
       <c r="H569" s="22"/>
       <c r="I569" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="50" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="570" hidden="1" spans="1:11">
@@ -55499,7 +55504,7 @@
         <v>448</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>404</v>
@@ -55512,11 +55517,11 @@
       </c>
       <c r="H570" s="22"/>
       <c r="I570" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="18" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="571" hidden="1" spans="1:11">
@@ -55530,7 +55535,7 @@
         <v>448</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>404</v>
@@ -55547,7 +55552,7 @@
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="18" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="572" hidden="1" spans="1:11">
@@ -55561,7 +55566,7 @@
         <v>448</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>404</v>
@@ -55574,11 +55579,11 @@
       </c>
       <c r="H572" s="22"/>
       <c r="I572" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="18" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="573" hidden="1" spans="1:11">
@@ -55592,7 +55597,7 @@
         <v>434</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>404</v>
@@ -55609,7 +55614,7 @@
       </c>
       <c r="J573" s="2"/>
       <c r="K573" s="18" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="574" hidden="1" spans="1:11">
@@ -55623,7 +55628,7 @@
         <v>434</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>404</v>
@@ -55640,7 +55645,7 @@
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="18" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="575" hidden="1" spans="1:11">
@@ -55654,7 +55659,7 @@
         <v>434</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>404</v>
@@ -55671,7 +55676,7 @@
       </c>
       <c r="J575" s="2"/>
       <c r="K575" s="18" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="576" ht="16.5" hidden="1" spans="1:11">
@@ -55685,7 +55690,7 @@
         <v>434</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>404</v>
@@ -55702,7 +55707,7 @@
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="50" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="577" hidden="1" spans="1:11">
@@ -55716,7 +55721,7 @@
         <v>451</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>404</v>
@@ -55733,7 +55738,7 @@
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="18" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="578" hidden="1" spans="1:11">
@@ -55747,7 +55752,7 @@
         <v>451</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>404</v>
@@ -55760,11 +55765,11 @@
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J578" s="2"/>
       <c r="K578" s="45" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="579" hidden="1" spans="1:11">
@@ -55778,7 +55783,7 @@
         <v>451</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>404</v>
@@ -55795,7 +55800,7 @@
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="45" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="580" hidden="1" spans="1:11">
@@ -55809,7 +55814,7 @@
         <v>453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>404</v>
@@ -55822,11 +55827,11 @@
       </c>
       <c r="H580" s="22"/>
       <c r="I580" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="18" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="581" hidden="1" spans="1:11">
@@ -55840,7 +55845,7 @@
         <v>453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>404</v>
@@ -55853,11 +55858,11 @@
       </c>
       <c r="H581" s="22"/>
       <c r="I581" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="18" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="582" ht="16.5" hidden="1" spans="1:11">
@@ -55871,7 +55876,7 @@
         <v>453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>404</v>
@@ -55884,11 +55889,11 @@
       </c>
       <c r="H582" s="22"/>
       <c r="I582" s="3" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="50" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="583" hidden="1" spans="1:11">
@@ -55902,7 +55907,7 @@
         <v>455</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>404</v>
@@ -55919,7 +55924,7 @@
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="18" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="584" hidden="1" spans="1:11">
@@ -55933,7 +55938,7 @@
         <v>455</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>404</v>
@@ -55950,7 +55955,7 @@
       </c>
       <c r="J584" s="2"/>
       <c r="K584" s="18" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="585" hidden="1" spans="1:11">
@@ -55964,7 +55969,7 @@
         <v>455</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>404</v>
@@ -55977,11 +55982,11 @@
       </c>
       <c r="H585" s="22"/>
       <c r="I585" s="3" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="18" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="586" hidden="1" spans="1:11">
@@ -55995,7 +56000,7 @@
         <v>455</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>404</v>
@@ -56008,11 +56013,11 @@
       </c>
       <c r="H586" s="22"/>
       <c r="I586" s="3" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="J586" s="2"/>
       <c r="K586" s="18" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="587" hidden="1" spans="1:11">
@@ -56026,7 +56031,7 @@
         <v>457</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>404</v>
@@ -56039,11 +56044,11 @@
       </c>
       <c r="H587" s="22"/>
       <c r="I587" s="3" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="45" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="588" hidden="1" spans="1:11">
@@ -56057,7 +56062,7 @@
         <v>457</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>404</v>
@@ -56070,11 +56075,11 @@
       </c>
       <c r="H588" s="22"/>
       <c r="I588" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="18" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="589" hidden="1" spans="1:11">
@@ -56088,7 +56093,7 @@
         <v>459</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>404</v>
@@ -56101,11 +56106,11 @@
       </c>
       <c r="H589" s="22"/>
       <c r="I589" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J589" s="2"/>
       <c r="K589" s="18" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="590" hidden="1" spans="1:11">
@@ -56119,7 +56124,7 @@
         <v>459</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>404</v>
@@ -56132,11 +56137,11 @@
       </c>
       <c r="H590" s="22"/>
       <c r="I590" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="18" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="591" hidden="1" spans="1:11">
@@ -56150,7 +56155,7 @@
         <v>459</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>404</v>
@@ -56163,11 +56168,11 @@
       </c>
       <c r="H591" s="22"/>
       <c r="I591" s="3" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="J591" s="2"/>
       <c r="K591" s="18" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="592" hidden="1" spans="1:11">
@@ -56181,7 +56186,7 @@
         <v>461</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>404</v>
@@ -56194,11 +56199,11 @@
       </c>
       <c r="H592" s="22"/>
       <c r="I592" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="18" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="593" hidden="1" spans="1:11">
@@ -56212,7 +56217,7 @@
         <v>461</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>404</v>
@@ -56225,11 +56230,11 @@
       </c>
       <c r="H593" s="22"/>
       <c r="I593" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="18" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="594" hidden="1" spans="1:11">
@@ -56243,7 +56248,7 @@
         <v>461</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>404</v>
@@ -56256,11 +56261,11 @@
       </c>
       <c r="H594" s="22"/>
       <c r="I594" s="3" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="J594" s="2"/>
       <c r="K594" s="18" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="595" hidden="1" spans="1:11">
@@ -56274,7 +56279,7 @@
         <v>463</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>404</v>
@@ -56291,7 +56296,7 @@
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="18" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="596" hidden="1" spans="1:11">
@@ -56305,7 +56310,7 @@
         <v>463</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>404</v>
@@ -56322,7 +56327,7 @@
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="18" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="597" hidden="1" spans="1:11">
@@ -56336,7 +56341,7 @@
         <v>463</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>404</v>
@@ -56353,7 +56358,7 @@
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="18" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="598" hidden="1" spans="1:11">
@@ -56367,7 +56372,7 @@
         <v>465</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>404</v>
@@ -56380,11 +56385,11 @@
       </c>
       <c r="H598" s="22"/>
       <c r="I598" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="18" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="599" hidden="1" spans="1:11">
@@ -56398,7 +56403,7 @@
         <v>465</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>404</v>
@@ -56411,11 +56416,11 @@
       </c>
       <c r="H599" s="22"/>
       <c r="I599" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="18" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="600" ht="16.5" hidden="1" spans="1:11">
@@ -56429,7 +56434,7 @@
         <v>465</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>404</v>
@@ -56442,11 +56447,11 @@
       </c>
       <c r="H600" s="22"/>
       <c r="I600" s="3" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="J600" s="2"/>
       <c r="K600" s="50" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="601" hidden="1" spans="1:11">
@@ -56460,7 +56465,7 @@
         <v>467</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>404</v>
@@ -56473,11 +56478,11 @@
       </c>
       <c r="H601" s="22"/>
       <c r="I601" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J601" s="2"/>
       <c r="K601" s="18" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="602" hidden="1" spans="1:11">
@@ -56491,7 +56496,7 @@
         <v>467</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>404</v>
@@ -56504,11 +56509,11 @@
       </c>
       <c r="H602" s="22"/>
       <c r="I602" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J602" s="2"/>
       <c r="K602" s="18" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="603" hidden="1" spans="1:11">
@@ -56516,7 +56521,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="3" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>404</v>
@@ -56529,11 +56534,11 @@
       </c>
       <c r="H603" s="22"/>
       <c r="I603" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J603" s="2"/>
       <c r="K603" s="18" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="604" hidden="1" spans="1:11">
@@ -56547,7 +56552,7 @@
         <v>469</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>404</v>
@@ -56560,11 +56565,11 @@
       </c>
       <c r="H604" s="22"/>
       <c r="I604" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J604" s="2"/>
       <c r="K604" s="18" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="605" hidden="1" spans="1:11">
@@ -56578,7 +56583,7 @@
         <v>469</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>404</v>
@@ -56591,11 +56596,11 @@
       </c>
       <c r="H605" s="22"/>
       <c r="I605" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J605" s="2"/>
       <c r="K605" s="18" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="606" hidden="1" spans="1:11">
@@ -56609,7 +56614,7 @@
         <v>469</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>404</v>
@@ -56622,11 +56627,11 @@
       </c>
       <c r="H606" s="22"/>
       <c r="I606" s="3" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="J606" s="2"/>
       <c r="K606" s="18" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="607" hidden="1" spans="1:11">
@@ -56640,7 +56645,7 @@
         <v>471</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>404</v>
@@ -56653,11 +56658,11 @@
       </c>
       <c r="H607" s="22"/>
       <c r="I607" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J607" s="2"/>
       <c r="K607" s="18" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="608" hidden="1" spans="1:11">
@@ -56671,7 +56676,7 @@
         <v>471</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>404</v>
@@ -56688,7 +56693,7 @@
       </c>
       <c r="J608" s="2"/>
       <c r="K608" s="18" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="609" hidden="1" spans="1:11">
@@ -56702,7 +56707,7 @@
         <v>471</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>404</v>
@@ -56715,11 +56720,11 @@
       </c>
       <c r="H609" s="22"/>
       <c r="I609" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J609" s="2"/>
       <c r="K609" s="18" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="610" hidden="1" spans="1:11">
@@ -56733,7 +56738,7 @@
         <v>473</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>404</v>
@@ -56746,11 +56751,11 @@
       </c>
       <c r="H610" s="22"/>
       <c r="I610" s="3" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="J610" s="2"/>
       <c r="K610" s="18" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="611" hidden="1" spans="1:11">
@@ -56764,7 +56769,7 @@
         <v>473</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>404</v>
@@ -56777,11 +56782,11 @@
       </c>
       <c r="H611" s="22"/>
       <c r="I611" s="3" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="J611" s="2"/>
       <c r="K611" s="18" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="612" hidden="1" spans="1:11">
@@ -56795,7 +56800,7 @@
         <v>473</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>404</v>
@@ -56808,11 +56813,11 @@
       </c>
       <c r="H612" s="22"/>
       <c r="I612" s="3" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="J612" s="2"/>
       <c r="K612" s="18" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="613" hidden="1" spans="1:11">
@@ -56826,7 +56831,7 @@
         <v>475</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>404</v>
@@ -56839,11 +56844,11 @@
       </c>
       <c r="H613" s="22"/>
       <c r="I613" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J613" s="2"/>
       <c r="K613" s="18" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="614" hidden="1" spans="1:11">
@@ -56857,7 +56862,7 @@
         <v>475</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>404</v>
@@ -56870,11 +56875,11 @@
       </c>
       <c r="H614" s="22"/>
       <c r="I614" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J614" s="2"/>
       <c r="K614" s="18" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="615" hidden="1" spans="1:11">
@@ -56888,7 +56893,7 @@
         <v>475</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>404</v>
@@ -56901,11 +56906,11 @@
       </c>
       <c r="H615" s="22"/>
       <c r="I615" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J615" s="2"/>
       <c r="K615" s="18" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="616" hidden="1" spans="1:11">
@@ -56919,7 +56924,7 @@
         <v>477</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>404</v>
@@ -56932,11 +56937,11 @@
       </c>
       <c r="H616" s="22"/>
       <c r="I616" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J616" s="2"/>
       <c r="K616" s="18" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="617" hidden="1" spans="1:11">
@@ -56950,7 +56955,7 @@
         <v>477</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>404</v>
@@ -56967,7 +56972,7 @@
       </c>
       <c r="J617" s="2"/>
       <c r="K617" s="18" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="618" hidden="1" spans="1:11">
@@ -56981,7 +56986,7 @@
         <v>477</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>404</v>
@@ -56994,11 +56999,11 @@
       </c>
       <c r="H618" s="22"/>
       <c r="I618" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="18" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="619" hidden="1" spans="1:11">
@@ -57012,7 +57017,7 @@
         <v>479</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>404</v>
@@ -57029,7 +57034,7 @@
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="18" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="620" hidden="1" spans="1:11">
@@ -57043,7 +57048,7 @@
         <v>479</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>404</v>
@@ -57056,11 +57061,11 @@
       </c>
       <c r="H620" s="22"/>
       <c r="I620" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J620" s="2"/>
       <c r="K620" s="18" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="621" hidden="1" spans="1:11">
@@ -57074,7 +57079,7 @@
         <v>479</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>404</v>
@@ -57087,11 +57092,11 @@
       </c>
       <c r="H621" s="22"/>
       <c r="I621" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J621" s="2"/>
       <c r="K621" s="18" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="622" hidden="1" spans="1:11">
@@ -57105,7 +57110,7 @@
         <v>481</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>404</v>
@@ -57118,11 +57123,11 @@
       </c>
       <c r="H622" s="22"/>
       <c r="I622" s="3" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="J622" s="2"/>
       <c r="K622" s="18" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="623" hidden="1" spans="1:11">
@@ -57136,7 +57141,7 @@
         <v>481</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>404</v>
@@ -57149,11 +57154,11 @@
       </c>
       <c r="H623" s="22"/>
       <c r="I623" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J623" s="2"/>
       <c r="K623" s="18" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="624" ht="16.5" hidden="1" spans="1:11">
@@ -57167,7 +57172,7 @@
         <v>481</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>404</v>
@@ -57180,11 +57185,11 @@
       </c>
       <c r="H624" s="22"/>
       <c r="I624" s="3" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="J624" s="2"/>
       <c r="K624" s="50" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="625" hidden="1" spans="1:11">
@@ -57198,7 +57203,7 @@
         <v>483</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>404</v>
@@ -57211,11 +57216,11 @@
       </c>
       <c r="H625" s="22"/>
       <c r="I625" s="3" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J625" s="2"/>
       <c r="K625" s="18" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="626" hidden="1" spans="1:11">
@@ -57229,7 +57234,7 @@
         <v>483</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>404</v>
@@ -57242,11 +57247,11 @@
       </c>
       <c r="H626" s="22"/>
       <c r="I626" s="3" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J626" s="2"/>
       <c r="K626" s="18" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="627" ht="16.5" hidden="1" spans="1:11">
@@ -57260,7 +57265,7 @@
         <v>483</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>404</v>
@@ -57273,11 +57278,11 @@
       </c>
       <c r="H627" s="22"/>
       <c r="I627" s="3" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J627" s="2"/>
       <c r="K627" s="50" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="628" hidden="1" spans="1:11">
@@ -57291,7 +57296,7 @@
         <v>291</v>
       </c>
       <c r="D628" s="27" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>404</v>
@@ -57304,11 +57309,11 @@
       </c>
       <c r="H628" s="22"/>
       <c r="I628" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J628" s="2"/>
       <c r="K628" s="18" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="629" hidden="1" spans="1:11">
@@ -57322,7 +57327,7 @@
         <v>291</v>
       </c>
       <c r="D629" s="27" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>404</v>
@@ -57335,11 +57340,11 @@
       </c>
       <c r="H629" s="22"/>
       <c r="I629" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J629" s="2"/>
       <c r="K629" s="18" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="630" hidden="1" spans="1:11">
@@ -57353,7 +57358,7 @@
         <v>291</v>
       </c>
       <c r="D630" s="27" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>404</v>
@@ -57366,11 +57371,11 @@
       </c>
       <c r="H630" s="22"/>
       <c r="I630" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J630" s="2"/>
       <c r="K630" s="18" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="631" hidden="1" spans="1:11">
@@ -57384,7 +57389,7 @@
         <v>486</v>
       </c>
       <c r="D631" s="27" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>404</v>
@@ -57397,11 +57402,11 @@
       </c>
       <c r="H631" s="22"/>
       <c r="I631" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J631" s="2"/>
       <c r="K631" s="18" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="632" hidden="1" spans="1:11">
@@ -57415,7 +57420,7 @@
         <v>486</v>
       </c>
       <c r="D632" s="27" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>404</v>
@@ -57428,11 +57433,11 @@
       </c>
       <c r="H632" s="22"/>
       <c r="I632" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J632" s="2"/>
       <c r="K632" s="18" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="633" hidden="1" spans="1:11">
@@ -57446,7 +57451,7 @@
         <v>486</v>
       </c>
       <c r="D633" s="27" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>404</v>
@@ -57459,11 +57464,11 @@
       </c>
       <c r="H633" s="22"/>
       <c r="I633" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="18" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="634" ht="16.5" hidden="1" spans="1:11">
@@ -57477,7 +57482,7 @@
         <v>488</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>404</v>
@@ -57490,11 +57495,11 @@
       </c>
       <c r="H634" s="22"/>
       <c r="I634" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J634" s="2"/>
       <c r="K634" s="16" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="635" hidden="1" spans="1:11">
@@ -57508,7 +57513,7 @@
         <v>488</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>404</v>
@@ -57521,11 +57526,11 @@
       </c>
       <c r="H635" s="22"/>
       <c r="I635" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="18" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="636" hidden="1" spans="1:11">
@@ -57539,7 +57544,7 @@
         <v>488</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>404</v>
@@ -57552,11 +57557,11 @@
       </c>
       <c r="H636" s="22"/>
       <c r="I636" s="3" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="18" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="637" hidden="1" spans="1:11">
@@ -57570,7 +57575,7 @@
         <v>490</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>404</v>
@@ -57587,7 +57592,7 @@
       </c>
       <c r="J637" s="2"/>
       <c r="K637" s="18" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="638" hidden="1" spans="1:11">
@@ -57601,7 +57606,7 @@
         <v>490</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>404</v>
@@ -57618,7 +57623,7 @@
       </c>
       <c r="J638" s="2"/>
       <c r="K638" s="18" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="639" hidden="1" spans="1:11">
@@ -57632,7 +57637,7 @@
         <v>490</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>404</v>
@@ -57645,11 +57650,11 @@
       </c>
       <c r="H639" s="22"/>
       <c r="I639" s="3" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="J639" s="2"/>
       <c r="K639" s="18" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="640" hidden="1" spans="1:11">
@@ -57663,7 +57668,7 @@
         <v>492</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>404</v>
@@ -57676,11 +57681,11 @@
       </c>
       <c r="H640" s="22"/>
       <c r="I640" s="3" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J640" s="2"/>
       <c r="K640" s="18" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="641" hidden="1" spans="1:11">
@@ -57694,7 +57699,7 @@
         <v>492</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>404</v>
@@ -57707,11 +57712,11 @@
       </c>
       <c r="H641" s="22"/>
       <c r="I641" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J641" s="2"/>
       <c r="K641" s="18" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="642" hidden="1" spans="1:11">
@@ -57725,7 +57730,7 @@
         <v>492</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>404</v>
@@ -57738,11 +57743,11 @@
       </c>
       <c r="H642" s="22"/>
       <c r="I642" s="3" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J642" s="2"/>
       <c r="K642" s="18" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="643" hidden="1" spans="1:11">
@@ -57756,7 +57761,7 @@
         <v>494</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>404</v>
@@ -57769,11 +57774,11 @@
       </c>
       <c r="H643" s="22"/>
       <c r="I643" s="3" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J643" s="2"/>
       <c r="K643" s="18" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="644" hidden="1" spans="1:11">
@@ -57787,7 +57792,7 @@
         <v>494</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>404</v>
@@ -57800,11 +57805,11 @@
       </c>
       <c r="H644" s="22"/>
       <c r="I644" s="3" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J644" s="2"/>
       <c r="K644" s="18" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="645" hidden="1" spans="1:11">
@@ -57818,7 +57823,7 @@
         <v>494</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>404</v>
@@ -57831,11 +57836,11 @@
       </c>
       <c r="H645" s="22"/>
       <c r="I645" s="3" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J645" s="2"/>
       <c r="K645" s="18" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="646" hidden="1" spans="1:11">
@@ -57849,7 +57854,7 @@
         <v>496</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>404</v>
@@ -57866,7 +57871,7 @@
       </c>
       <c r="J646" s="2"/>
       <c r="K646" s="18" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="647" hidden="1" spans="1:11">
@@ -57880,7 +57885,7 @@
         <v>496</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>404</v>
@@ -57893,11 +57898,11 @@
       </c>
       <c r="H647" s="22"/>
       <c r="I647" s="3" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="J647" s="2"/>
       <c r="K647" s="18" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="648" ht="16.5" hidden="1" spans="1:11">
@@ -57911,7 +57916,7 @@
         <v>496</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>404</v>
@@ -57924,11 +57929,11 @@
       </c>
       <c r="H648" s="25"/>
       <c r="I648" s="3" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="J648" s="2"/>
       <c r="K648" s="50" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
   </sheetData>
@@ -58107,6 +58112,7 @@
     <hyperlink ref="K279" r:id="rId92" display="http://deal.ggzy.gov.cn/ds/deal/dealList.jsp"/>
     <hyperlink ref="K281" r:id="rId93" display="http://prec.sxzwfw.gov.cn/moreInfoController.do?getProject"/>
     <hyperlink ref="K276" r:id="rId94" display="http://ggzyjy.nmg.gov.cn/jyxx/jsgcZbgg"/>
+    <hyperlink ref="K277" r:id="rId95" display="http://www.nxggzyjy.org/ningxiaweb/002/002001/listPage.html" tooltip="http://www.nxggzyjy.org/ningxiaweb/002/002001/listPage.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -58132,7 +58138,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -58143,7 +58149,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -58154,7 +58160,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -58165,7 +58171,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -58176,7 +58182,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -58187,7 +58193,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -58198,18 +58204,18 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -58220,7 +58226,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -58231,7 +58237,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -58242,18 +58248,18 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B12" s="4">
         <v>15</v>
@@ -58264,7 +58270,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -58275,7 +58281,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -58286,18 +58292,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -58308,7 +58314,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -58319,18 +58325,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -58341,18 +58347,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B20" s="4">
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -58363,7 +58369,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -58374,7 +58380,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -58385,7 +58391,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -58396,7 +58402,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -58407,13 +58413,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B26">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -58483,22 +58489,22 @@
         <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -58606,7 +58612,7 @@
         <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58735,7 +58741,7 @@
         <v>381</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58871,7 +58877,7 @@
         <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="C11" t="s">
         <v>401</v>
@@ -58928,7 +58934,7 @@
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
@@ -59075,10 +59081,10 @@
         <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="D2" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -59201,91 +59207,91 @@
         <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="D17" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="E17" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="F17" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="G17" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="H17" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="I17" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="J17" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="K17" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="L17" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="M17" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N17" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="O17" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="P17" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="Q17" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="R17" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="S17" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="T17" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="U17" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="V17" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="W17" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="X17" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="Y17" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="Z17" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="AA17" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="AB17" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="AC17" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="AD17" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="AE17" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -59296,7 +59302,7 @@
         <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -59312,61 +59318,61 @@
         <v>810</v>
       </c>
       <c r="C20" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="D20" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="E20" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="F20" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="G20" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="H20" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="I20" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="J20" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="K20" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="L20" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="M20" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="N20" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="O20" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="P20" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="Q20" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="R20" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="S20" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="T20" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="U20" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -59377,103 +59383,103 @@
         <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="D21" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="E21" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="F21" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="G21" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="H21" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="I21" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="J21" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="K21" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="L21" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="M21" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="N21" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="O21" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="P21" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="Q21" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R21" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="S21" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="T21" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="U21" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="V21" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="W21" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="X21" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="Y21" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="Z21" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="AA21" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="AB21" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="AC21" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="AD21" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="AE21" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="AF21" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="AG21" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="AH21" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="AI21" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -59540,16 +59546,16 @@
         <v>741</v>
       </c>
       <c r="C29" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="D29" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="E29" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="F29" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -59589,7 +59595,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -59600,88 +59606,88 @@
         <v>551</v>
       </c>
       <c r="C35" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="D35" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="E35" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F35" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G35" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H35" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I35" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="J35" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="K35" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="L35" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="M35" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="N35" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="O35" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="P35" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="Q35" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="R35" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="S35" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="T35" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="U35" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="V35" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="W35" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="X35" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="Y35" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="Z35" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="AA35" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="AB35" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="AC35" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="AD35" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -59692,28 +59698,28 @@
         <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="D36" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="E36" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="F36" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="G36" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="H36" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="I36" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="J36" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -59724,31 +59730,31 @@
         <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="D37" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="E37" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="F37" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="G37" t="s">
+        <v>2191</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2187</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2188</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2189</v>
+      </c>
+      <c r="K37" t="s">
         <v>2190</v>
-      </c>
-      <c r="H37" t="s">
-        <v>2186</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2187</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2188</v>
-      </c>
-      <c r="K37" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -59759,37 +59765,37 @@
         <v>613</v>
       </c>
       <c r="C38" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="D38" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="E38" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="F38" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="G38" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="H38" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="I38" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="J38" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="K38" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="L38" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="M38" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -59800,19 +59806,19 @@
         <v>637</v>
       </c>
       <c r="C39" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="D39" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="E39" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="F39" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="G39" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -59823,100 +59829,100 @@
         <v>888</v>
       </c>
       <c r="C40" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="D40" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="E40" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="F40" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="G40" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="H40" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="I40" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="J40" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="K40" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="L40" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="M40" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="N40" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O40" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="P40" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="Q40" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="R40" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="S40" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="T40" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="U40" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="V40" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="W40" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="X40" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="Y40" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="Z40" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="AA40" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AB40" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AC40" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AD40" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AE40" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AF40" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AG40" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AH40" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -59927,31 +59933,31 @@
         <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D41" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="E41" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="F41" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="G41" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="H41" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="I41" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="J41" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="K41" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -59967,31 +59973,31 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D43" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="E43" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="F43" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="G43" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="H43" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="I43" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="J43" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="K43" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -60010,88 +60016,88 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="D45" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="E45" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="F45" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="G45" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H45" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I45" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="J45" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="K45" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="L45" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="M45" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="N45" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="O45" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="P45" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="Q45" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="R45" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="S45" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="T45" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="U45" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="V45" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="W45" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="X45" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="Y45" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="Z45" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="AA45" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="AB45" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="AC45" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="AD45" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -60102,13 +60108,13 @@
         <v>724</v>
       </c>
       <c r="C46" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="D46" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="E46" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -60119,103 +60125,103 @@
         <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="D47" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="E47" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="F47" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="G47" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="H47" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="I47" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="J47" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="K47" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="L47" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="M47" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="N47" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="O47" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="P47" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="Q47" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="R47" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="S47" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="T47" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="U47" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="V47" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="W47" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="X47" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="Y47" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="Z47" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="AA47" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="AB47" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="AC47" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="AD47" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="AE47" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="AF47" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="AG47" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AH47" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AI47" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -60226,67 +60232,67 @@
         <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="D48" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="E48" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="F48" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="G48" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="H48" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="I48" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="J48" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="K48" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="L48" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="M48" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="N48" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="O48" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="P48" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="Q48" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="R48" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="S48" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="T48" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="U48" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="V48" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="W48" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -60297,100 +60303,100 @@
         <v>888</v>
       </c>
       <c r="C49" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="D49" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="E49" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="F49" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="G49" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="H49" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="I49" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="J49" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="K49" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="L49" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="M49" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="N49" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O49" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="P49" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="Q49" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="R49" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="S49" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="T49" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="U49" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="V49" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="W49" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="X49" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="Y49" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="Z49" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="AA49" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AB49" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AC49" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AD49" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AE49" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AF49" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AG49" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AH49" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -60406,19 +60412,19 @@
         <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D51" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="E51" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="F51" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="G51" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -60429,70 +60435,70 @@
         <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="D52" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="E52" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="F52" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="G52" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="H52" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="I52" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="J52" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="K52" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="L52" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="M52" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="N52" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="O52" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="P52" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="Q52" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="R52" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="S52" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="T52" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="U52" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="V52" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="W52" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="X52" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -60503,40 +60509,40 @@
         <v>662</v>
       </c>
       <c r="C53" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="D53" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="E53" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="F53" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="G53" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="H53" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="I53" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="J53" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="K53" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="L53" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="M53" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="N53" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -60563,28 +60569,28 @@
         <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D56" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="E56" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="F56" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="G56" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="H56" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="I56" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="J56" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -60600,94 +60606,94 @@
         <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="D58" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="E58" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="F58" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="G58" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="H58" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="I58" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="J58" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="K58" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="L58" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="M58" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="N58" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="O58" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="P58" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="Q58" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="R58" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="S58" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="T58" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="U58" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="V58" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="W58" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="X58" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="Y58" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="Z58" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="AA58" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="AB58" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="AC58" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="AD58" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AE58" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AF58" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="59" spans="1:55">
@@ -60695,267 +60701,267 @@
         <v>988</v>
       </c>
       <c r="B59" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="C59" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="D59" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="E59" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="F59" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="G59" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="H59" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="I59" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="J59" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="K59" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="L59" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="M59" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="N59" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="O59" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="P59" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="Q59" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="R59" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="S59" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="T59" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="U59" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="V59" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="W59" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="X59" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="Y59" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="Z59" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="AA59" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="AB59" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="AC59" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="AD59" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="AE59" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="AF59" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="AG59" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="AH59" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="AI59" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="AJ59" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="AK59" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="AL59" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="AM59" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="AN59" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="AO59" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="AP59" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="AQ59" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="AR59" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="AS59" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="AT59" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="AU59" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="AV59" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AW59" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="AX59" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="AY59" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AZ59" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="BA59" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="BB59" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="BC59" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B60" t="s">
         <v>888</v>
       </c>
       <c r="C60" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="D60" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="E60" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="F60" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="G60" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="H60" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="I60" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J60" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="K60" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="L60" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="M60" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="N60" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="O60" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="P60" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="Q60" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="R60" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="S60" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="T60" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="U60" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="V60" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="W60" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="X60" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="Y60" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="Z60" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AA60" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AB60" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AC60" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AD60" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AE60" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AF60" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AG60" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -60982,82 +60988,82 @@
         <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="D63" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="E63" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="F63" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="G63" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="H63" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="I63" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="J63" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="K63" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="L63" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="M63" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="N63" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="O63" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="P63" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="Q63" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="R63" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="S63" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="T63" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="U63" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="V63" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="W63" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="X63" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="Y63" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="Z63" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AA63" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="AB63" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -61076,58 +61082,58 @@
         <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="D65" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="E65" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="F65" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="G65" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="H65" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="I65" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="J65" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="K65" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="L65" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="M65" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="N65" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="O65" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="P65" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="Q65" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="R65" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="S65" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="T65" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -61135,88 +61141,88 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="C66" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="D66" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="E66" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="F66" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="G66" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="H66" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="I66" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="J66" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="K66" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="L66" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="M66" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="N66" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="O66" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="P66" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="Q66" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="R66" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="S66" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="T66" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="U66" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="V66" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="W66" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="X66" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Y66" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="Z66" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="AA66" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="AB66" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="AC66" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -61227,127 +61233,127 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="D67" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="E67" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="F67" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="G67" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="H67" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="I67" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="J67" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="K67" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="L67" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="M67" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="N67" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="O67" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="P67" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="Q67" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="R67" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="S67" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="T67" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="U67" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="V67" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="W67" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="X67" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="Y67" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="Z67" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="AA67" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="AB67" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="AC67" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="AD67" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="AE67" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="AF67" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="AG67" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="AH67" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="AI67" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="AJ67" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="AK67" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="AL67" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="AM67" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="AN67" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="AO67" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="AP67" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="AQ67" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -61358,7 +61364,7 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -61409,87 +61415,87 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
   </sheetData>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7318" uniqueCount="2506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7319" uniqueCount="2507">
   <si>
     <t>服务器</t>
   </si>
@@ -4671,6 +4671,9 @@
   </si>
   <si>
     <t>http://www.nxggzyjy.org/ningxiaweb/002/002001/listPage.html</t>
+  </si>
+  <si>
+    <t>已修改（20200916）</t>
   </si>
   <si>
     <t>http://www.qhggzyjy.gov.cn/ggzy/jyxx/001002/001002001/secondPage.html</t>
@@ -7944,9 +7947,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -8057,7 +8060,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8078,31 +8104,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8116,31 +8127,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8153,27 +8149,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8216,7 +8219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8228,13 +8237,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8246,97 +8273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8354,13 +8297,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8372,13 +8351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8390,7 +8363,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8496,78 +8499,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -8592,6 +8523,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8600,10 +8603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8612,16 +8615,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8630,67 +8633,49 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8699,46 +8684,64 @@
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21529,8 +21532,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J278" sqref="J278"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H301" workbookViewId="0">
+      <selection activeCell="J279" sqref="J279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -30163,9 +30166,11 @@
       <c r="I278" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="2" t="s">
         <v>1496</v>
+      </c>
+      <c r="K278" s="17" t="s">
+        <v>1497</v>
       </c>
       <c r="L278" t="s">
         <v>1339</v>
@@ -30197,7 +30202,7 @@
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="19" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="L279" t="s">
         <v>1339</v>
@@ -30229,7 +30234,7 @@
       </c>
       <c r="J280" s="2"/>
       <c r="K280" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -30258,7 +30263,7 @@
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="L281" t="s">
         <v>1339</v>
@@ -30290,7 +30295,7 @@
       </c>
       <c r="J282" s="2"/>
       <c r="K282" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="L282" t="s">
         <v>1339</v>
@@ -30322,7 +30327,7 @@
       </c>
       <c r="J283" s="2"/>
       <c r="K283" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="L283" t="s">
         <v>1339</v>
@@ -30354,7 +30359,7 @@
       </c>
       <c r="J284" s="2"/>
       <c r="K284" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="L284" t="s">
         <v>1339</v>
@@ -30386,7 +30391,7 @@
       </c>
       <c r="J285" s="2"/>
       <c r="K285" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="L285" t="s">
         <v>1339</v>
@@ -30414,13 +30419,13 @@
       <c r="G286" s="2"/>
       <c r="H286" s="11"/>
       <c r="I286" s="3" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K286" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="L286" t="s">
         <v>1339</v>
@@ -30452,7 +30457,7 @@
       </c>
       <c r="J287" s="2"/>
       <c r="K287" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -30460,18 +30465,18 @@
       <c r="B288" s="7"/>
       <c r="C288" s="2"/>
       <c r="D288" s="7" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="11"/>
       <c r="I288" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J288" s="2"/>
       <c r="K288" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="L288" t="s">
         <v>1339</v>
@@ -30482,18 +30487,18 @@
       <c r="B289" s="7"/>
       <c r="C289" s="2"/>
       <c r="D289" s="7" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="11"/>
       <c r="I289" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J289" s="2"/>
       <c r="K289" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="L289" t="s">
         <v>1339</v>
@@ -30525,7 +30530,7 @@
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="L290" t="s">
         <v>1339</v>
@@ -30557,7 +30562,7 @@
       </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="L291" t="s">
         <v>1339</v>
@@ -30589,7 +30594,7 @@
       </c>
       <c r="J292" s="2"/>
       <c r="K292" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="L292" t="s">
         <v>1339</v>
@@ -30621,7 +30626,7 @@
       </c>
       <c r="J293" s="2"/>
       <c r="K293" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="L293" t="s">
         <v>1339</v>
@@ -30653,7 +30658,7 @@
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="L294" t="s">
         <v>1339</v>
@@ -30664,18 +30669,18 @@
       <c r="B295" s="7"/>
       <c r="C295" s="2"/>
       <c r="D295" s="7" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="11"/>
       <c r="I295" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="L295" t="s">
         <v>1339</v>
@@ -30686,18 +30691,18 @@
       <c r="B296" s="7"/>
       <c r="C296" s="2"/>
       <c r="D296" s="7" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="11"/>
       <c r="I296" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="L296" t="s">
         <v>1339</v>
@@ -30729,7 +30734,7 @@
       </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="L297" t="s">
         <v>1339</v>
@@ -30761,7 +30766,7 @@
       </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="L298" t="s">
         <v>1339</v>
@@ -30793,7 +30798,7 @@
       </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="L299" t="s">
         <v>1339</v>
@@ -30825,7 +30830,7 @@
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="L300" t="s">
         <v>1339</v>
@@ -30857,7 +30862,7 @@
       </c>
       <c r="J301" s="2"/>
       <c r="K301" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="L301" t="s">
         <v>1339</v>
@@ -30889,7 +30894,7 @@
       </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="L302" t="s">
         <v>1339</v>
@@ -30921,7 +30926,7 @@
       </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="L303" t="s">
         <v>1339</v>
@@ -30953,7 +30958,7 @@
       </c>
       <c r="J304" s="2"/>
       <c r="K304" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="L304" t="s">
         <v>1339</v>
@@ -30985,7 +30990,7 @@
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="L305" t="s">
         <v>1339</v>
@@ -31017,7 +31022,7 @@
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="L306" t="s">
         <v>1339</v>
@@ -31049,7 +31054,7 @@
       </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="L307" t="s">
         <v>1339</v>
@@ -31081,7 +31086,7 @@
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="L308" t="s">
         <v>1339</v>
@@ -31113,7 +31118,7 @@
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="L309" t="s">
         <v>1339</v>
@@ -31145,7 +31150,7 @@
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="L310" t="s">
         <v>1339</v>
@@ -31177,7 +31182,7 @@
       </c>
       <c r="J311" s="2"/>
       <c r="K311" s="15" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="312" hidden="1" spans="1:11">
@@ -31208,7 +31213,7 @@
       </c>
       <c r="J312" s="2"/>
       <c r="K312" s="18" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="313" hidden="1" spans="1:11">
@@ -31239,7 +31244,7 @@
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="18" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="314" hidden="1" spans="1:11">
@@ -31270,7 +31275,7 @@
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="18" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="315" hidden="1" spans="1:11">
@@ -31301,7 +31306,7 @@
       </c>
       <c r="J315" s="2"/>
       <c r="K315" s="18" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="316" hidden="1" spans="1:11">
@@ -31332,7 +31337,7 @@
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="18" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="317" hidden="1" spans="1:11">
@@ -31346,7 +31351,7 @@
         <v>859</v>
       </c>
       <c r="D317" s="27" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>751</v>
@@ -31363,7 +31368,7 @@
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="18" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="318" hidden="1" spans="1:11">
@@ -31394,7 +31399,7 @@
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="18" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="319" hidden="1" spans="1:11">
@@ -31425,7 +31430,7 @@
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="18" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="320" hidden="1" spans="1:11">
@@ -31456,7 +31461,7 @@
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="18" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="321" hidden="1" spans="1:11">
@@ -31487,7 +31492,7 @@
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="18" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="322" hidden="1" spans="1:11">
@@ -31518,7 +31523,7 @@
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="18" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:11">
@@ -31549,7 +31554,7 @@
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="18" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="324" hidden="1" spans="1:11">
@@ -31580,7 +31585,7 @@
       </c>
       <c r="J324" s="2"/>
       <c r="K324" s="18" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="325" hidden="1" spans="1:11">
@@ -31611,7 +31616,7 @@
       </c>
       <c r="J325" s="2"/>
       <c r="K325" s="18" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="326" hidden="1" spans="1:11">
@@ -31642,7 +31647,7 @@
       </c>
       <c r="J326" s="2"/>
       <c r="K326" s="18" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="327" hidden="1" spans="1:11">
@@ -31673,7 +31678,7 @@
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="18" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="328" hidden="1" spans="1:11">
@@ -31704,7 +31709,7 @@
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="18" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="329" hidden="1" spans="1:11">
@@ -31735,7 +31740,7 @@
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="18" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="330" hidden="1" spans="1:11">
@@ -31766,7 +31771,7 @@
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="18" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="331" hidden="1" spans="1:11">
@@ -31797,7 +31802,7 @@
       </c>
       <c r="J331" s="2"/>
       <c r="K331" s="18" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="332" hidden="1" spans="1:11">
@@ -31828,7 +31833,7 @@
       </c>
       <c r="J332" s="2"/>
       <c r="K332" s="18" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="333" hidden="1" spans="1:11">
@@ -31859,7 +31864,7 @@
       </c>
       <c r="J333" s="2"/>
       <c r="K333" s="18" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="334" hidden="1" spans="1:11">
@@ -31873,7 +31878,7 @@
         <v>885</v>
       </c>
       <c r="D334" s="27" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>751</v>
@@ -31890,7 +31895,7 @@
       </c>
       <c r="J334" s="2"/>
       <c r="K334" s="18" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="335" hidden="1" spans="1:11">
@@ -31916,14 +31921,14 @@
         <v>1</v>
       </c>
       <c r="H335" s="21" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="15" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="336" hidden="1" spans="1:11">
@@ -31950,11 +31955,11 @@
       </c>
       <c r="H336" s="22"/>
       <c r="I336" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="15" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="337" ht="16.5" hidden="1" spans="1:11">
@@ -31985,7 +31990,7 @@
       </c>
       <c r="J337" s="2"/>
       <c r="K337" s="39" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="338" hidden="1" spans="1:11">
@@ -32012,11 +32017,11 @@
       </c>
       <c r="H338" s="22"/>
       <c r="I338" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="18" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="339" hidden="1" spans="1:11">
@@ -32047,7 +32052,7 @@
       </c>
       <c r="J339" s="2"/>
       <c r="K339" s="18" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="340" hidden="1" spans="1:11">
@@ -32078,7 +32083,7 @@
       </c>
       <c r="J340" s="2"/>
       <c r="K340" s="40" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="341" hidden="1" spans="1:11">
@@ -32109,7 +32114,7 @@
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="18" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="342" hidden="1" spans="1:11">
@@ -32140,7 +32145,7 @@
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="18" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="343" hidden="1" spans="1:11">
@@ -32167,11 +32172,11 @@
       </c>
       <c r="H343" s="22"/>
       <c r="I343" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J343" s="2"/>
       <c r="K343" s="18" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="344" hidden="1" spans="1:11">
@@ -32198,11 +32203,11 @@
       </c>
       <c r="H344" s="22"/>
       <c r="I344" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J344" s="2"/>
       <c r="K344" s="18" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:11">
@@ -32233,7 +32238,7 @@
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="15" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="346" hidden="1" spans="1:11">
@@ -32264,7 +32269,7 @@
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="15" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="347" hidden="1" spans="1:11">
@@ -32295,7 +32300,7 @@
       </c>
       <c r="J347" s="2"/>
       <c r="K347" s="18" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="348" hidden="1" spans="1:11">
@@ -32326,7 +32331,7 @@
       </c>
       <c r="J348" s="2"/>
       <c r="K348" s="18" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="349" hidden="1" spans="1:11">
@@ -32357,7 +32362,7 @@
       </c>
       <c r="J349" s="2"/>
       <c r="K349" s="18" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="350" hidden="1" spans="1:11">
@@ -32388,7 +32393,7 @@
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="15" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="351" hidden="1" spans="1:11">
@@ -32419,7 +32424,7 @@
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="41" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="352" hidden="1" spans="1:11">
@@ -32450,7 +32455,7 @@
       </c>
       <c r="J352" s="2"/>
       <c r="K352" s="15" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="353" hidden="1" spans="1:11">
@@ -32477,11 +32482,11 @@
       </c>
       <c r="H353" s="22"/>
       <c r="I353" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J353" s="2"/>
       <c r="K353" s="15" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="354" hidden="1" spans="1:11">
@@ -32512,7 +32517,7 @@
       </c>
       <c r="J354" s="2"/>
       <c r="K354" s="15" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="355" hidden="1" spans="1:11">
@@ -32539,11 +32544,11 @@
       </c>
       <c r="H355" s="22"/>
       <c r="I355" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="18" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="356" hidden="1" spans="1:11">
@@ -32574,7 +32579,7 @@
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="41" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="357" hidden="1" spans="1:11">
@@ -32601,11 +32606,11 @@
       </c>
       <c r="H357" s="22"/>
       <c r="I357" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J357" s="2"/>
       <c r="K357" s="18" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="358" hidden="1" spans="1:11">
@@ -32632,11 +32637,11 @@
       </c>
       <c r="H358" s="22"/>
       <c r="I358" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J358" s="2"/>
       <c r="K358" s="15" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="359" hidden="1" spans="1:11">
@@ -32667,7 +32672,7 @@
       </c>
       <c r="J359" s="2"/>
       <c r="K359" s="18" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="360" hidden="1" spans="1:11">
@@ -32698,7 +32703,7 @@
       </c>
       <c r="J360" s="2"/>
       <c r="K360" s="15" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="361" hidden="1" spans="1:11">
@@ -32729,7 +32734,7 @@
       </c>
       <c r="J361" s="2"/>
       <c r="K361" s="18" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="362" hidden="1" spans="1:11">
@@ -32756,11 +32761,11 @@
       </c>
       <c r="H362" s="22"/>
       <c r="I362" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J362" s="2"/>
       <c r="K362" s="15" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="363" hidden="1" spans="1:11">
@@ -32787,11 +32792,11 @@
       </c>
       <c r="H363" s="22"/>
       <c r="I363" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J363" s="2"/>
       <c r="K363" s="18" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="364" hidden="1" spans="1:11">
@@ -32822,7 +32827,7 @@
       </c>
       <c r="J364" s="2"/>
       <c r="K364" s="18" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="365" hidden="1" spans="1:11">
@@ -32853,7 +32858,7 @@
       </c>
       <c r="J365" s="2"/>
       <c r="K365" s="18" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="366" hidden="1" spans="1:11">
@@ -32880,11 +32885,11 @@
       </c>
       <c r="H366" s="22"/>
       <c r="I366" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="18" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="367" hidden="1" spans="1:11">
@@ -32915,7 +32920,7 @@
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="15" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="368" hidden="1" spans="1:11">
@@ -32941,14 +32946,14 @@
         <v>1</v>
       </c>
       <c r="H368" s="21" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="18" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="369" hidden="1" spans="1:11">
@@ -32979,7 +32984,7 @@
       </c>
       <c r="J369" s="2"/>
       <c r="K369" s="18" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="370" hidden="1" spans="1:11">
@@ -33010,7 +33015,7 @@
       </c>
       <c r="J370" s="2"/>
       <c r="K370" s="18" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="371" hidden="1" spans="1:11">
@@ -33041,7 +33046,7 @@
       </c>
       <c r="J371" s="2"/>
       <c r="K371" s="18" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="372" hidden="1" spans="1:11">
@@ -33072,7 +33077,7 @@
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="373" hidden="1" spans="1:11">
@@ -33099,11 +33104,11 @@
       </c>
       <c r="H373" s="22"/>
       <c r="I373" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J373" s="2"/>
       <c r="K373" s="18" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="374" hidden="1" spans="1:11">
@@ -33130,11 +33135,11 @@
       </c>
       <c r="H374" s="22"/>
       <c r="I374" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J374" s="2"/>
       <c r="K374" s="18" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="375" hidden="1" spans="1:11">
@@ -33165,7 +33170,7 @@
       </c>
       <c r="J375" s="2"/>
       <c r="K375" s="18" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="376" hidden="1" spans="1:11">
@@ -33196,7 +33201,7 @@
       </c>
       <c r="J376" s="2"/>
       <c r="K376" s="18" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="377" hidden="1" spans="1:11">
@@ -33227,7 +33232,7 @@
       </c>
       <c r="J377" s="2"/>
       <c r="K377" s="18" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="378" hidden="1" spans="1:11">
@@ -33258,7 +33263,7 @@
       </c>
       <c r="J378" s="2"/>
       <c r="K378" s="18" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="379" hidden="1" spans="1:11">
@@ -33285,11 +33290,11 @@
       </c>
       <c r="H379" s="22"/>
       <c r="I379" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="18" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="380" hidden="1" spans="1:11">
@@ -33320,7 +33325,7 @@
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="18" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="381" hidden="1" spans="1:11">
@@ -33351,7 +33356,7 @@
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="18" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="382" hidden="1" spans="1:11">
@@ -33382,7 +33387,7 @@
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="18" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="383" hidden="1" spans="1:11">
@@ -33413,7 +33418,7 @@
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="18" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="384" hidden="1" spans="1:11">
@@ -33444,7 +33449,7 @@
       </c>
       <c r="J384" s="2"/>
       <c r="K384" s="18" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="385" hidden="1" spans="1:11">
@@ -33471,11 +33476,11 @@
       </c>
       <c r="H385" s="22"/>
       <c r="I385" s="3" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="J385" s="2"/>
       <c r="K385" s="18" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="386" hidden="1" spans="1:11">
@@ -33506,7 +33511,7 @@
       </c>
       <c r="J386" s="2"/>
       <c r="K386" s="18" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="387" hidden="1" spans="1:11">
@@ -33537,7 +33542,7 @@
       </c>
       <c r="J387" s="2"/>
       <c r="K387" s="18" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="388" hidden="1" spans="1:11">
@@ -33568,7 +33573,7 @@
       </c>
       <c r="J388" s="2"/>
       <c r="K388" s="2" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="389" hidden="1" spans="1:11">
@@ -33599,7 +33604,7 @@
       </c>
       <c r="J389" s="2"/>
       <c r="K389" s="18" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="390" hidden="1" spans="1:11">
@@ -33630,7 +33635,7 @@
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="18" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="391" hidden="1" spans="1:11">
@@ -33657,11 +33662,11 @@
       </c>
       <c r="H391" s="22"/>
       <c r="I391" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="18" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="392" hidden="1" spans="1:11">
@@ -33688,11 +33693,11 @@
       </c>
       <c r="H392" s="22"/>
       <c r="I392" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="18" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="393" hidden="1" spans="1:11">
@@ -33719,11 +33724,11 @@
       </c>
       <c r="H393" s="22"/>
       <c r="I393" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="18" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="394" hidden="1" spans="1:11">
@@ -33754,7 +33759,7 @@
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="18" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="395" hidden="1" spans="1:11">
@@ -33768,7 +33773,7 @@
         <v>980</v>
       </c>
       <c r="D395" s="27" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>890</v>
@@ -33785,7 +33790,7 @@
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="18" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="396" hidden="1" spans="1:11">
@@ -33799,7 +33804,7 @@
         <v>486</v>
       </c>
       <c r="D396" s="27" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>890</v>
@@ -33816,7 +33821,7 @@
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="18" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="397" hidden="1" spans="1:11">
@@ -33847,7 +33852,7 @@
       </c>
       <c r="J397" s="2"/>
       <c r="K397" s="18" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="398" hidden="1" spans="1:11">
@@ -33878,7 +33883,7 @@
       </c>
       <c r="J398" s="2"/>
       <c r="K398" s="18" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="399" hidden="1" spans="1:11">
@@ -33905,11 +33910,11 @@
       </c>
       <c r="H399" s="22"/>
       <c r="I399" s="3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="18" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="400" hidden="1" spans="1:11">
@@ -33936,11 +33941,11 @@
       </c>
       <c r="H400" s="22"/>
       <c r="I400" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="18" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="401" hidden="1" spans="1:11">
@@ -33971,7 +33976,7 @@
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="18" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -33985,7 +33990,7 @@
         <v>888</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="E402" s="7" t="s">
         <v>890</v>
@@ -33995,14 +34000,14 @@
       </c>
       <c r="G402" s="2"/>
       <c r="H402" s="21" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="14" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="L402" t="s">
         <v>1339</v>
@@ -34013,7 +34018,7 @@
       <c r="B403" s="7"/>
       <c r="C403" s="2"/>
       <c r="D403" s="7" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="E403" s="7" t="s">
         <v>890</v>
@@ -34024,11 +34029,11 @@
       <c r="G403" s="2"/>
       <c r="H403" s="22"/>
       <c r="I403" s="3" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="J403" s="2"/>
       <c r="K403" s="44" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="L403" t="s">
         <v>1339</v>
@@ -34060,7 +34065,7 @@
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="18" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="L404" t="s">
         <v>1339</v>
@@ -34092,7 +34097,7 @@
       </c>
       <c r="J405" s="2"/>
       <c r="K405" s="18" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="L405" t="s">
         <v>1339</v>
@@ -34124,7 +34129,7 @@
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="18" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="L406" t="s">
         <v>1339</v>
@@ -34156,7 +34161,7 @@
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="18" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -34170,7 +34175,7 @@
         <v>997</v>
       </c>
       <c r="D408" s="7" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="E408" s="7" t="s">
         <v>890</v>
@@ -34185,7 +34190,7 @@
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="18" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="L408" t="s">
         <v>1339</v>
@@ -34217,7 +34222,7 @@
       </c>
       <c r="J409" s="2"/>
       <c r="K409" s="18" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="L409" t="s">
         <v>1339</v>
@@ -34249,7 +34254,7 @@
       </c>
       <c r="J410" s="2"/>
       <c r="K410" s="18" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="L410" t="s">
         <v>1339</v>
@@ -34281,7 +34286,7 @@
       </c>
       <c r="J411" s="2"/>
       <c r="K411" s="18" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="L411" t="s">
         <v>1339</v>
@@ -34292,7 +34297,7 @@
       <c r="B412" s="7"/>
       <c r="C412" s="2"/>
       <c r="D412" s="7" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="E412" s="7" t="s">
         <v>890</v>
@@ -34303,11 +34308,11 @@
       <c r="G412" s="2"/>
       <c r="H412" s="22"/>
       <c r="I412" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="18" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="L412" t="s">
         <v>1339</v>
@@ -34324,7 +34329,7 @@
         <v>901</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="E413" s="7" t="s">
         <v>890</v>
@@ -34339,7 +34344,7 @@
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="19" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -34353,7 +34358,7 @@
         <v>1003</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E414" s="7" t="s">
         <v>890</v>
@@ -34368,7 +34373,7 @@
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="18" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="L414" t="s">
         <v>1339</v>
@@ -34379,7 +34384,7 @@
       <c r="B415" s="7"/>
       <c r="C415" s="2"/>
       <c r="D415" s="7" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="E415" s="7" t="s">
         <v>890</v>
@@ -34390,11 +34395,11 @@
       <c r="G415" s="2"/>
       <c r="H415" s="22"/>
       <c r="I415" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="18" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="L415" t="s">
         <v>1339</v>
@@ -34405,7 +34410,7 @@
       <c r="B416" s="7"/>
       <c r="C416" s="2"/>
       <c r="D416" s="7" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="E416" s="7" t="s">
         <v>890</v>
@@ -34416,11 +34421,11 @@
       <c r="G416" s="2"/>
       <c r="H416" s="22"/>
       <c r="I416" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="18" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="L416" t="s">
         <v>1339</v>
@@ -34437,7 +34442,7 @@
         <v>903</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="E417" s="7" t="s">
         <v>890</v>
@@ -34452,7 +34457,7 @@
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="18" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -34460,7 +34465,7 @@
       <c r="B418" s="7"/>
       <c r="C418" s="2"/>
       <c r="D418" s="7" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="E418" s="7" t="s">
         <v>890</v>
@@ -34471,11 +34476,11 @@
       <c r="G418" s="2"/>
       <c r="H418" s="22"/>
       <c r="I418" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="18" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="L418" t="s">
         <v>1339</v>
@@ -34492,7 +34497,7 @@
         <v>907</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E419" s="7" t="s">
         <v>890</v>
@@ -34507,7 +34512,7 @@
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="19" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="420" hidden="1" spans="1:11">
@@ -34521,7 +34526,7 @@
         <v>1007</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="E420" s="7" t="s">
         <v>890</v>
@@ -34536,7 +34541,7 @@
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="18" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -34561,13 +34566,13 @@
       <c r="G421" s="2"/>
       <c r="H421" s="22"/>
       <c r="I421" s="2" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K421" s="18" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="L421" t="s">
         <v>1339</v>
@@ -34599,7 +34604,7 @@
       </c>
       <c r="J422" s="2"/>
       <c r="K422" s="18" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="423" hidden="1" spans="1:11">
@@ -34628,7 +34633,7 @@
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="18" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -34636,7 +34641,7 @@
       <c r="B424" s="7"/>
       <c r="C424" s="2"/>
       <c r="D424" s="7" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="E424" s="7" t="s">
         <v>890</v>
@@ -34647,11 +34652,11 @@
       <c r="G424" s="2"/>
       <c r="H424" s="22"/>
       <c r="I424" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="18" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="L424" t="s">
         <v>1339</v>
@@ -34662,7 +34667,7 @@
       <c r="B425" s="7"/>
       <c r="C425" s="2"/>
       <c r="D425" s="7" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E425" s="7" t="s">
         <v>890</v>
@@ -34673,11 +34678,11 @@
       <c r="G425" s="2"/>
       <c r="H425" s="22"/>
       <c r="I425" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J425" s="2"/>
       <c r="K425" s="18" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="L425" t="s">
         <v>1339</v>
@@ -34705,13 +34710,13 @@
       <c r="G426" s="2"/>
       <c r="H426" s="22"/>
       <c r="I426" s="3" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K426" s="19" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="L426" t="s">
         <v>1339</v>
@@ -34739,13 +34744,13 @@
       <c r="G427" s="2"/>
       <c r="H427" s="22"/>
       <c r="I427" s="3" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K427" s="18" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="L427" t="s">
         <v>1339</v>
@@ -34777,7 +34782,7 @@
       </c>
       <c r="J428" s="2"/>
       <c r="K428" s="45" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="L428" t="s">
         <v>1339</v>
@@ -34799,11 +34804,11 @@
       <c r="G429" s="2"/>
       <c r="H429" s="22"/>
       <c r="I429" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J429" s="2"/>
       <c r="K429" s="45" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="L429" t="s">
         <v>1339</v>
@@ -34820,7 +34825,7 @@
         <v>283</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E430" s="7" t="s">
         <v>890</v>
@@ -34835,7 +34840,7 @@
       </c>
       <c r="J430" s="2"/>
       <c r="K430" s="18" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -34843,7 +34848,7 @@
       <c r="B431" s="7"/>
       <c r="C431" s="2"/>
       <c r="D431" s="7" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="E431" s="7" t="s">
         <v>890</v>
@@ -34854,11 +34859,11 @@
       <c r="G431" s="2"/>
       <c r="H431" s="22"/>
       <c r="I431" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J431" s="2"/>
       <c r="K431" s="18" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="L431" t="s">
         <v>1339</v>
@@ -34875,7 +34880,7 @@
         <v>417</v>
       </c>
       <c r="D432" s="42" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="E432" s="7" t="s">
         <v>890</v>
@@ -34890,7 +34895,7 @@
       </c>
       <c r="J432" s="2"/>
       <c r="K432" s="18" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="L432" t="s">
         <v>1339</v>
@@ -34907,7 +34912,7 @@
         <v>285</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="E433" s="7" t="s">
         <v>890</v>
@@ -34922,7 +34927,7 @@
       </c>
       <c r="J433" s="2"/>
       <c r="K433" s="18" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="L433" t="s">
         <v>1339</v>
@@ -34939,7 +34944,7 @@
         <v>920</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="E434" s="7" t="s">
         <v>890</v>
@@ -34954,7 +34959,7 @@
       </c>
       <c r="J434" s="2"/>
       <c r="K434" s="18" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="L434" t="s">
         <v>1339</v>
@@ -34965,7 +34970,7 @@
       <c r="B435" s="7"/>
       <c r="C435" s="2"/>
       <c r="D435" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="E435" s="7" t="s">
         <v>890</v>
@@ -34976,11 +34981,11 @@
       <c r="G435" s="2"/>
       <c r="H435" s="22"/>
       <c r="I435" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J435" s="2"/>
       <c r="K435" s="18" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="L435" t="s">
         <v>1339</v>
@@ -35012,7 +35017,7 @@
       </c>
       <c r="J436" s="2"/>
       <c r="K436" s="18" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="437" hidden="1" spans="1:11">
@@ -35041,7 +35046,7 @@
       </c>
       <c r="J437" s="2"/>
       <c r="K437" s="18" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="438" hidden="1" spans="1:11">
@@ -35070,7 +35075,7 @@
       </c>
       <c r="J438" s="2"/>
       <c r="K438" s="18" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="439" hidden="1" spans="1:11">
@@ -35099,7 +35104,7 @@
       </c>
       <c r="J439" s="2"/>
       <c r="K439" s="18" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="440" hidden="1" spans="1:11">
@@ -35128,7 +35133,7 @@
       </c>
       <c r="J440" s="2"/>
       <c r="K440" s="18" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="441" hidden="1" spans="1:11">
@@ -35157,7 +35162,7 @@
       </c>
       <c r="J441" s="2"/>
       <c r="K441" s="18" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="442" spans="1:16384">
@@ -35165,7 +35170,7 @@
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
       <c r="D442" s="43" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="E442" s="7" t="s">
         <v>890</v>
@@ -35176,11 +35181,11 @@
       <c r="G442" s="18"/>
       <c r="H442" s="22"/>
       <c r="I442" s="45" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J442" s="18"/>
       <c r="K442" s="18" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="L442" t="s">
         <v>1339</v>
@@ -51569,7 +51574,7 @@
         <v>1033</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="E443" s="7" t="s">
         <v>890</v>
@@ -51584,7 +51589,7 @@
       </c>
       <c r="J443" s="2"/>
       <c r="K443" s="18" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="444" hidden="1" spans="1:11">
@@ -51613,7 +51618,7 @@
       </c>
       <c r="J444" s="2"/>
       <c r="K444" s="18" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -51642,7 +51647,7 @@
       </c>
       <c r="J445" s="2"/>
       <c r="K445" s="18" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="L445" t="s">
         <v>1339</v>
@@ -51674,7 +51679,7 @@
       </c>
       <c r="J446" s="2"/>
       <c r="K446" s="18" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="447" hidden="1" spans="1:11">
@@ -51703,7 +51708,7 @@
       </c>
       <c r="J447" s="2"/>
       <c r="K447" s="18" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -51732,7 +51737,7 @@
       </c>
       <c r="J448" s="2"/>
       <c r="K448" s="18" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="L448" t="s">
         <v>1339</v>
@@ -51764,7 +51769,7 @@
       </c>
       <c r="J449" s="2"/>
       <c r="K449" s="18" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="450" hidden="1" spans="1:11">
@@ -51793,7 +51798,7 @@
       </c>
       <c r="J450" s="2"/>
       <c r="K450" s="18" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="451" hidden="1" spans="1:11">
@@ -51822,7 +51827,7 @@
       </c>
       <c r="J451" s="2"/>
       <c r="K451" s="18" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -51836,7 +51841,7 @@
         <v>1050</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="E452" s="7" t="s">
         <v>890</v>
@@ -51851,7 +51856,7 @@
       </c>
       <c r="J452" s="2"/>
       <c r="K452" s="46" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="L452" t="s">
         <v>1339</v>
@@ -51868,7 +51873,7 @@
         <v>931</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="E453" s="7" t="s">
         <v>890</v>
@@ -51879,13 +51884,13 @@
       <c r="G453" s="2"/>
       <c r="H453" s="22"/>
       <c r="I453" s="3" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K453" s="20" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="L453" t="s">
         <v>1339</v>
@@ -51896,7 +51901,7 @@
       <c r="B454" s="7"/>
       <c r="C454" s="2"/>
       <c r="D454" s="7" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="E454" s="7" t="s">
         <v>890</v>
@@ -51907,11 +51912,11 @@
       <c r="G454" s="2"/>
       <c r="H454" s="22"/>
       <c r="I454" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J454" s="2"/>
       <c r="K454" s="47" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="L454" t="s">
         <v>1339</v>
@@ -51943,7 +51948,7 @@
       </c>
       <c r="J455" s="2"/>
       <c r="K455" s="18" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="L455" t="s">
         <v>1339</v>
@@ -51975,7 +51980,7 @@
       </c>
       <c r="J456" s="2"/>
       <c r="K456" s="18" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="L456" t="s">
         <v>1339</v>
@@ -52007,7 +52012,7 @@
       </c>
       <c r="J457" s="2"/>
       <c r="K457" s="18" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -52032,11 +52037,11 @@
       <c r="G458" s="2"/>
       <c r="H458" s="22"/>
       <c r="I458" s="2" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="J458" s="2"/>
       <c r="K458" s="18" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="L458" t="s">
         <v>1339</v>
@@ -52068,7 +52073,7 @@
       </c>
       <c r="J459" s="2"/>
       <c r="K459" s="18" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="460" hidden="1" spans="1:11">
@@ -52082,7 +52087,7 @@
         <v>937</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="E460" s="7" t="s">
         <v>890</v>
@@ -52097,7 +52102,7 @@
       </c>
       <c r="J460" s="2"/>
       <c r="K460" s="18" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="461" hidden="1" spans="1:11">
@@ -52126,7 +52131,7 @@
       </c>
       <c r="J461" s="2"/>
       <c r="K461" s="18" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="462" hidden="1" spans="1:11">
@@ -52155,7 +52160,7 @@
       </c>
       <c r="J462" s="2"/>
       <c r="K462" s="18" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -52184,7 +52189,7 @@
       </c>
       <c r="J463" s="2"/>
       <c r="K463" s="45" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="L463" t="s">
         <v>1339</v>
@@ -52201,7 +52206,7 @@
         <v>1069</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="E464" s="7" t="s">
         <v>890</v>
@@ -52216,7 +52221,7 @@
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="18" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="L464" t="s">
         <v>1339</v>
@@ -52227,7 +52232,7 @@
       <c r="B465" s="7"/>
       <c r="C465" s="2"/>
       <c r="D465" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>890</v>
@@ -52238,11 +52243,11 @@
       <c r="G465" s="2"/>
       <c r="H465" s="22"/>
       <c r="I465" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="18" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="L465" t="s">
         <v>1339</v>
@@ -52259,7 +52264,7 @@
         <v>1071</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="E466" s="7" t="s">
         <v>890</v>
@@ -52274,7 +52279,7 @@
       </c>
       <c r="J466" s="2"/>
       <c r="K466" s="46" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -52288,7 +52293,7 @@
         <v>300</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>890</v>
@@ -52303,7 +52308,7 @@
       </c>
       <c r="J467" s="2"/>
       <c r="K467" s="18" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="L467" t="s">
         <v>1339</v>
@@ -52320,7 +52325,7 @@
         <v>1074</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="E468" s="7" t="s">
         <v>890</v>
@@ -52331,13 +52336,13 @@
       <c r="G468" s="2"/>
       <c r="H468" s="25"/>
       <c r="I468" s="3" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K468" s="18" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="L468" t="s">
         <v>1339</v>
@@ -52373,7 +52378,7 @@
       </c>
       <c r="J469" s="2"/>
       <c r="K469" s="18" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="470" hidden="1" spans="1:11">
@@ -52404,7 +52409,7 @@
       </c>
       <c r="J470" s="2"/>
       <c r="K470" s="18" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="471" hidden="1" spans="1:11">
@@ -52435,7 +52440,7 @@
       </c>
       <c r="J471" s="2"/>
       <c r="K471" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="472" hidden="1" spans="1:11">
@@ -52466,7 +52471,7 @@
       </c>
       <c r="J472" s="2"/>
       <c r="K472" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="473" hidden="1" spans="1:11">
@@ -52493,11 +52498,11 @@
       </c>
       <c r="H473" s="22"/>
       <c r="I473" s="2" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J473" s="2"/>
       <c r="K473" s="2" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="474" hidden="1" spans="1:11">
@@ -52528,7 +52533,7 @@
       </c>
       <c r="J474" s="2"/>
       <c r="K474" s="18" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="475" hidden="1" spans="1:11">
@@ -52555,11 +52560,11 @@
       </c>
       <c r="H475" s="22"/>
       <c r="I475" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J475" s="2"/>
       <c r="K475" s="18" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="476" hidden="1" spans="1:11">
@@ -52586,11 +52591,11 @@
       </c>
       <c r="H476" s="22"/>
       <c r="I476" s="2" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J476" s="2"/>
       <c r="K476" s="2" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="477" hidden="1" spans="1:11">
@@ -52633,7 +52638,7 @@
         <v>215</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>198</v>
@@ -52650,7 +52655,7 @@
       </c>
       <c r="J478" s="2"/>
       <c r="K478" s="18" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="479" hidden="1" spans="1:11">
@@ -52681,7 +52686,7 @@
       </c>
       <c r="J479" s="2"/>
       <c r="K479" s="2" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="480" hidden="1" customHeight="1" spans="1:11">
@@ -52712,7 +52717,7 @@
       </c>
       <c r="J480" s="2"/>
       <c r="K480" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="481" hidden="1" spans="1:11">
@@ -52743,7 +52748,7 @@
       </c>
       <c r="J481" s="2"/>
       <c r="K481" s="3" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="482" hidden="1" spans="1:11">
@@ -52757,7 +52762,7 @@
         <v>223</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>198</v>
@@ -52770,11 +52775,11 @@
       </c>
       <c r="H482" s="22"/>
       <c r="I482" s="2" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J482" s="2"/>
       <c r="K482" s="2" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="483" hidden="1" spans="1:11">
@@ -52805,7 +52810,7 @@
       </c>
       <c r="J483" s="2"/>
       <c r="K483" s="2" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="484" hidden="1" spans="1:11">
@@ -52836,7 +52841,7 @@
       </c>
       <c r="J484" s="2"/>
       <c r="K484" s="2" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="485" hidden="1" spans="1:11">
@@ -52867,7 +52872,7 @@
       </c>
       <c r="J485" s="2"/>
       <c r="K485" s="2" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="486" hidden="1" spans="1:11">
@@ -52894,11 +52899,11 @@
       </c>
       <c r="H486" s="22"/>
       <c r="I486" s="3" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="J486" s="2"/>
       <c r="K486" s="14" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="487" hidden="1" spans="1:11">
@@ -52929,7 +52934,7 @@
       </c>
       <c r="J487" s="2"/>
       <c r="K487" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="488" hidden="1" spans="1:11">
@@ -52956,11 +52961,11 @@
       </c>
       <c r="H488" s="22"/>
       <c r="I488" s="3" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="2" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="489" hidden="1" spans="1:11">
@@ -52987,11 +52992,11 @@
       </c>
       <c r="H489" s="22"/>
       <c r="I489" s="34" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="J489" s="2"/>
       <c r="K489" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="490" hidden="1" spans="1:11">
@@ -53022,7 +53027,7 @@
       </c>
       <c r="J490" s="2"/>
       <c r="K490" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="491" hidden="1" spans="1:11">
@@ -53049,7 +53054,7 @@
       </c>
       <c r="H491" s="22"/>
       <c r="I491" s="34" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
@@ -53078,11 +53083,11 @@
       </c>
       <c r="H492" s="22"/>
       <c r="I492" s="34" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="J492" s="2"/>
       <c r="K492" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="493" hidden="1" spans="1:11">
@@ -53109,11 +53114,11 @@
       </c>
       <c r="H493" s="22"/>
       <c r="I493" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J493" s="2"/>
       <c r="K493" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="494" hidden="1" spans="1:11">
@@ -53144,7 +53149,7 @@
       </c>
       <c r="J494" s="2"/>
       <c r="K494" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="495" hidden="1" spans="1:11">
@@ -53171,11 +53176,11 @@
       </c>
       <c r="H495" s="22"/>
       <c r="I495" s="34" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="J495" s="2"/>
       <c r="K495" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="496" hidden="1" spans="1:11">
@@ -53202,11 +53207,11 @@
       </c>
       <c r="H496" s="22"/>
       <c r="I496" s="34" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="J496" s="2"/>
       <c r="K496" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="497" hidden="1" spans="1:11">
@@ -53233,11 +53238,11 @@
       </c>
       <c r="H497" s="22"/>
       <c r="I497" s="34" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="J497" s="2"/>
       <c r="K497" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="498" hidden="1" spans="1:11">
@@ -53268,7 +53273,7 @@
       </c>
       <c r="J498" s="2"/>
       <c r="K498" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="499" hidden="1" spans="1:11">
@@ -53295,11 +53300,11 @@
       </c>
       <c r="H499" s="22"/>
       <c r="I499" s="3" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="J499" s="2"/>
       <c r="K499" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="500" hidden="1" spans="1:11">
@@ -53326,11 +53331,11 @@
       </c>
       <c r="H500" s="22"/>
       <c r="I500" s="34" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="2" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="501" hidden="1" spans="1:11">
@@ -53357,11 +53362,11 @@
       </c>
       <c r="H501" s="22"/>
       <c r="I501" s="3" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="J501" s="2"/>
       <c r="K501" s="2" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="502" hidden="1" spans="1:11">
@@ -53388,7 +53393,7 @@
       </c>
       <c r="H502" s="22"/>
       <c r="I502" s="34" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
@@ -53415,13 +53420,13 @@
       <c r="G503" s="2"/>
       <c r="H503" s="22"/>
       <c r="I503" s="3" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K503" s="49" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="L503" t="s">
         <v>1139</v>
@@ -53453,7 +53458,7 @@
       </c>
       <c r="J504" s="2"/>
       <c r="K504" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="505" hidden="1" spans="1:12">
@@ -53478,13 +53483,13 @@
       <c r="G505" s="2"/>
       <c r="H505" s="22"/>
       <c r="I505" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J505" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="K505" s="14" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="L505" t="s">
         <v>1139</v>
@@ -53512,13 +53517,13 @@
       <c r="G506" s="2"/>
       <c r="H506" s="22"/>
       <c r="I506" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="K506" s="14" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="L506" t="s">
         <v>1139</v>
@@ -53552,7 +53557,7 @@
         <v>1171</v>
       </c>
       <c r="K507" s="14" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="L507" t="s">
         <v>1139</v>
@@ -53586,7 +53591,7 @@
         <v>1171</v>
       </c>
       <c r="K508" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="L508" t="s">
         <v>1139</v>
@@ -53620,7 +53625,7 @@
         <v>1171</v>
       </c>
       <c r="K509" s="14" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="L509" t="s">
         <v>1139</v>
@@ -53648,11 +53653,11 @@
       <c r="G510" s="2"/>
       <c r="H510" s="22"/>
       <c r="I510" s="3" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="511" hidden="1" spans="1:12">
@@ -53683,7 +53688,7 @@
         <v>1171</v>
       </c>
       <c r="K511" s="14" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="L511" t="s">
         <v>1139</v>
@@ -53711,13 +53716,13 @@
       <c r="G512" s="2"/>
       <c r="H512" s="22"/>
       <c r="I512" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J512" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="K512" s="14" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="L512" t="s">
         <v>1139</v>
@@ -53728,7 +53733,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="3" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>198</v>
@@ -53742,10 +53747,10 @@
         <v>1276</v>
       </c>
       <c r="J513" s="2" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="K513" s="14" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="L513" t="s">
         <v>1139</v>
@@ -53756,7 +53761,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="3" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>198</v>
@@ -53770,10 +53775,10 @@
         <v>1276</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="K514" s="14" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="L514" t="s">
         <v>1139</v>
@@ -53801,10 +53806,10 @@
       <c r="G515" s="2"/>
       <c r="H515" s="22"/>
       <c r="I515" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="J515" s="2" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="K515" s="2"/>
       <c r="L515" t="s">
@@ -53822,7 +53827,7 @@
         <v>285</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -53833,11 +53838,11 @@
       <c r="G516" s="2"/>
       <c r="H516" s="22"/>
       <c r="I516" s="48" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="14" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="L516" t="s">
         <v>1139</v>
@@ -53848,7 +53853,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="3" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>198</v>
@@ -53859,11 +53864,11 @@
       <c r="G517" s="2"/>
       <c r="H517" s="22"/>
       <c r="I517" s="48" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="14" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="L517" t="s">
         <v>1139</v>
@@ -53895,7 +53900,7 @@
       </c>
       <c r="J518" s="2"/>
       <c r="K518" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="519" hidden="1" spans="1:12">
@@ -53926,7 +53931,7 @@
         <v>1137</v>
       </c>
       <c r="K519" s="14" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="L519" t="s">
         <v>1139</v>
@@ -53954,13 +53959,13 @@
       <c r="G520" s="2"/>
       <c r="H520" s="22"/>
       <c r="I520" s="48" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="K520" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="L520" t="s">
         <v>1139</v>
@@ -53988,13 +53993,13 @@
       <c r="G521" s="2"/>
       <c r="H521" s="22"/>
       <c r="I521" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="K521" s="14" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="L521" t="s">
         <v>1139</v>
@@ -54026,7 +54031,7 @@
       </c>
       <c r="J522" s="2"/>
       <c r="K522" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="523" hidden="1" spans="1:11">
@@ -54055,7 +54060,7 @@
       </c>
       <c r="J523" s="2"/>
       <c r="K523" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="524" hidden="1" spans="1:11">
@@ -54084,7 +54089,7 @@
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="525" hidden="1" spans="1:12">
@@ -54109,13 +54114,13 @@
       <c r="G525" s="2"/>
       <c r="H525" s="22"/>
       <c r="I525" s="3" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="K525" s="14" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="L525" t="s">
         <v>1139</v>
@@ -54132,7 +54137,7 @@
         <v>295</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>198</v>
@@ -54143,13 +54148,13 @@
       <c r="G526" s="2"/>
       <c r="H526" s="22"/>
       <c r="I526" s="3" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>1137</v>
       </c>
       <c r="K526" s="14" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="L526" t="s">
         <v>1139</v>
@@ -54181,7 +54186,7 @@
       </c>
       <c r="J527" s="2"/>
       <c r="K527" s="2" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="528" hidden="1" spans="1:12">
@@ -54206,13 +54211,13 @@
       <c r="G528" s="2"/>
       <c r="H528" s="22"/>
       <c r="I528" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J528" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="L528" t="s">
         <v>1139</v>
@@ -54240,13 +54245,13 @@
       <c r="G529" s="2"/>
       <c r="H529" s="22"/>
       <c r="I529" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="J529" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="K529" s="14" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="L529" t="s">
         <v>1139</v>
@@ -54263,7 +54268,7 @@
         <v>300</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>198</v>
@@ -54274,11 +54279,11 @@
       <c r="G530" s="2"/>
       <c r="H530" s="22"/>
       <c r="I530" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="J530" s="2"/>
       <c r="K530" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="531" hidden="1" spans="1:12">
@@ -54286,7 +54291,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>198</v>
@@ -54301,7 +54306,7 @@
         <v>1137</v>
       </c>
       <c r="K531" s="14" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="L531" t="s">
         <v>1139</v>
@@ -54329,13 +54334,13 @@
       <c r="G532" s="2"/>
       <c r="H532" s="22"/>
       <c r="I532" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J532" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="K532" s="14" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="L532" t="s">
         <v>1139</v>
@@ -54363,13 +54368,13 @@
       <c r="G533" s="2"/>
       <c r="H533" s="25"/>
       <c r="I533" s="3" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="J533" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="K533" s="14" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="L533" t="s">
         <v>1139</v>
@@ -54398,10 +54403,10 @@
         <v>1</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
@@ -54429,10 +54434,10 @@
         <v>1</v>
       </c>
       <c r="H535" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I535" s="3" t="s">
         <v>1823</v>
-      </c>
-      <c r="I535" s="3" t="s">
-        <v>1822</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
@@ -54460,10 +54465,10 @@
         <v>1</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
@@ -54491,10 +54496,10 @@
         <v>1</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -54522,10 +54527,10 @@
         <v>1</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
@@ -54553,10 +54558,10 @@
         <v>1</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
@@ -54584,10 +54589,10 @@
         <v>1</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
@@ -54615,10 +54620,10 @@
         <v>1</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
@@ -54646,10 +54651,10 @@
         <v>1</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
@@ -54677,10 +54682,10 @@
         <v>1</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
@@ -54708,10 +54713,10 @@
         <v>1</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
@@ -54739,10 +54744,10 @@
         <v>1</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
@@ -54770,10 +54775,10 @@
         <v>1</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
@@ -54801,10 +54806,10 @@
         <v>1</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
@@ -54832,10 +54837,10 @@
         <v>1</v>
       </c>
       <c r="H548" s="3" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
@@ -54863,10 +54868,10 @@
         <v>1</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
@@ -54894,10 +54899,10 @@
         <v>1</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
@@ -54925,10 +54930,10 @@
         <v>1</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
@@ -54956,10 +54961,10 @@
         <v>1</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -54987,10 +54992,10 @@
         <v>1</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
@@ -55018,10 +55023,10 @@
         <v>1</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
@@ -55037,7 +55042,7 @@
         <v>438</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>404</v>
@@ -55049,14 +55054,14 @@
         <v>1</v>
       </c>
       <c r="H555" s="21" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="18" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="556" hidden="1" spans="1:11">
@@ -55070,7 +55075,7 @@
         <v>438</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>404</v>
@@ -55083,11 +55088,11 @@
       </c>
       <c r="H556" s="22"/>
       <c r="I556" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J556" s="2"/>
       <c r="K556" s="18" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="557" hidden="1" spans="1:11">
@@ -55101,7 +55106,7 @@
         <v>438</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>404</v>
@@ -55114,11 +55119,11 @@
       </c>
       <c r="H557" s="22"/>
       <c r="I557" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="18" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="558" hidden="1" spans="1:11">
@@ -55132,7 +55137,7 @@
         <v>440</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>404</v>
@@ -55145,11 +55150,11 @@
       </c>
       <c r="H558" s="22"/>
       <c r="I558" s="2" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J558" s="2"/>
       <c r="K558" s="18" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="559" hidden="1" spans="1:11">
@@ -55163,7 +55168,7 @@
         <v>440</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>404</v>
@@ -55176,11 +55181,11 @@
       </c>
       <c r="H559" s="22"/>
       <c r="I559" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="18" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="560" hidden="1" spans="1:11">
@@ -55194,7 +55199,7 @@
         <v>440</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>404</v>
@@ -55207,11 +55212,11 @@
       </c>
       <c r="H560" s="22"/>
       <c r="I560" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="J560" s="2"/>
       <c r="K560" s="18" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="561" hidden="1" spans="1:11">
@@ -55225,7 +55230,7 @@
         <v>442</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>404</v>
@@ -55238,11 +55243,11 @@
       </c>
       <c r="H561" s="22"/>
       <c r="I561" s="2" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="18" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="562" hidden="1" spans="1:11">
@@ -55256,7 +55261,7 @@
         <v>442</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>404</v>
@@ -55269,11 +55274,11 @@
       </c>
       <c r="H562" s="22"/>
       <c r="I562" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="18" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="563" hidden="1" spans="1:11">
@@ -55287,7 +55292,7 @@
         <v>442</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>404</v>
@@ -55300,11 +55305,11 @@
       </c>
       <c r="H563" s="22"/>
       <c r="I563" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J563" s="2"/>
       <c r="K563" s="18" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="564" hidden="1" spans="1:11">
@@ -55318,7 +55323,7 @@
         <v>444</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>404</v>
@@ -55331,11 +55336,11 @@
       </c>
       <c r="H564" s="22"/>
       <c r="I564" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="18" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="565" hidden="1" spans="1:11">
@@ -55349,7 +55354,7 @@
         <v>444</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>404</v>
@@ -55362,11 +55367,11 @@
       </c>
       <c r="H565" s="22"/>
       <c r="I565" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J565" s="2"/>
       <c r="K565" s="18" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="566" hidden="1" spans="1:11">
@@ -55380,7 +55385,7 @@
         <v>444</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>404</v>
@@ -55397,7 +55402,7 @@
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="18" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="567" hidden="1" spans="1:11">
@@ -55411,7 +55416,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>404</v>
@@ -55428,7 +55433,7 @@
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="18" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="568" hidden="1" spans="1:11">
@@ -55442,7 +55447,7 @@
         <v>446</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>404</v>
@@ -55455,11 +55460,11 @@
       </c>
       <c r="H568" s="22"/>
       <c r="I568" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J568" s="2"/>
       <c r="K568" s="18" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="569" ht="16.5" hidden="1" spans="1:11">
@@ -55473,7 +55478,7 @@
         <v>446</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>404</v>
@@ -55486,11 +55491,11 @@
       </c>
       <c r="H569" s="22"/>
       <c r="I569" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="50" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="570" hidden="1" spans="1:11">
@@ -55504,7 +55509,7 @@
         <v>448</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>404</v>
@@ -55517,11 +55522,11 @@
       </c>
       <c r="H570" s="22"/>
       <c r="I570" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="18" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="571" hidden="1" spans="1:11">
@@ -55535,7 +55540,7 @@
         <v>448</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>404</v>
@@ -55552,7 +55557,7 @@
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="18" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="572" hidden="1" spans="1:11">
@@ -55566,7 +55571,7 @@
         <v>448</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>404</v>
@@ -55579,11 +55584,11 @@
       </c>
       <c r="H572" s="22"/>
       <c r="I572" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="18" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="573" hidden="1" spans="1:11">
@@ -55597,7 +55602,7 @@
         <v>434</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>404</v>
@@ -55614,7 +55619,7 @@
       </c>
       <c r="J573" s="2"/>
       <c r="K573" s="18" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="574" hidden="1" spans="1:11">
@@ -55628,7 +55633,7 @@
         <v>434</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>404</v>
@@ -55645,7 +55650,7 @@
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="18" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="575" hidden="1" spans="1:11">
@@ -55659,7 +55664,7 @@
         <v>434</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>404</v>
@@ -55676,7 +55681,7 @@
       </c>
       <c r="J575" s="2"/>
       <c r="K575" s="18" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="576" ht="16.5" hidden="1" spans="1:11">
@@ -55690,7 +55695,7 @@
         <v>434</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>404</v>
@@ -55707,7 +55712,7 @@
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="50" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="577" hidden="1" spans="1:11">
@@ -55721,7 +55726,7 @@
         <v>451</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>404</v>
@@ -55738,7 +55743,7 @@
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="18" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="578" hidden="1" spans="1:11">
@@ -55752,7 +55757,7 @@
         <v>451</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>404</v>
@@ -55765,11 +55770,11 @@
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J578" s="2"/>
       <c r="K578" s="45" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="579" hidden="1" spans="1:11">
@@ -55783,7 +55788,7 @@
         <v>451</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>404</v>
@@ -55800,7 +55805,7 @@
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="45" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="580" hidden="1" spans="1:11">
@@ -55814,7 +55819,7 @@
         <v>453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>404</v>
@@ -55827,11 +55832,11 @@
       </c>
       <c r="H580" s="22"/>
       <c r="I580" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="18" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="581" hidden="1" spans="1:11">
@@ -55845,7 +55850,7 @@
         <v>453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>404</v>
@@ -55858,11 +55863,11 @@
       </c>
       <c r="H581" s="22"/>
       <c r="I581" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="18" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="582" ht="16.5" hidden="1" spans="1:11">
@@ -55876,7 +55881,7 @@
         <v>453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>404</v>
@@ -55889,11 +55894,11 @@
       </c>
       <c r="H582" s="22"/>
       <c r="I582" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="50" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="583" hidden="1" spans="1:11">
@@ -55907,7 +55912,7 @@
         <v>455</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>404</v>
@@ -55924,7 +55929,7 @@
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="18" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="584" hidden="1" spans="1:11">
@@ -55938,7 +55943,7 @@
         <v>455</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>404</v>
@@ -55955,7 +55960,7 @@
       </c>
       <c r="J584" s="2"/>
       <c r="K584" s="18" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="585" hidden="1" spans="1:11">
@@ -55969,7 +55974,7 @@
         <v>455</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>404</v>
@@ -55982,11 +55987,11 @@
       </c>
       <c r="H585" s="22"/>
       <c r="I585" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="18" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="586" hidden="1" spans="1:11">
@@ -56000,7 +56005,7 @@
         <v>455</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>404</v>
@@ -56013,11 +56018,11 @@
       </c>
       <c r="H586" s="22"/>
       <c r="I586" s="3" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="J586" s="2"/>
       <c r="K586" s="18" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="587" hidden="1" spans="1:11">
@@ -56031,7 +56036,7 @@
         <v>457</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>404</v>
@@ -56044,11 +56049,11 @@
       </c>
       <c r="H587" s="22"/>
       <c r="I587" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="45" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="588" hidden="1" spans="1:11">
@@ -56062,7 +56067,7 @@
         <v>457</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>404</v>
@@ -56075,11 +56080,11 @@
       </c>
       <c r="H588" s="22"/>
       <c r="I588" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="18" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="589" hidden="1" spans="1:11">
@@ -56093,7 +56098,7 @@
         <v>459</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>404</v>
@@ -56106,11 +56111,11 @@
       </c>
       <c r="H589" s="22"/>
       <c r="I589" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J589" s="2"/>
       <c r="K589" s="18" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="590" hidden="1" spans="1:11">
@@ -56124,7 +56129,7 @@
         <v>459</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>404</v>
@@ -56137,11 +56142,11 @@
       </c>
       <c r="H590" s="22"/>
       <c r="I590" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="18" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="591" hidden="1" spans="1:11">
@@ -56155,7 +56160,7 @@
         <v>459</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>404</v>
@@ -56168,11 +56173,11 @@
       </c>
       <c r="H591" s="22"/>
       <c r="I591" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="J591" s="2"/>
       <c r="K591" s="18" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="592" hidden="1" spans="1:11">
@@ -56186,7 +56191,7 @@
         <v>461</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>404</v>
@@ -56199,11 +56204,11 @@
       </c>
       <c r="H592" s="22"/>
       <c r="I592" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="18" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="593" hidden="1" spans="1:11">
@@ -56217,7 +56222,7 @@
         <v>461</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>404</v>
@@ -56230,11 +56235,11 @@
       </c>
       <c r="H593" s="22"/>
       <c r="I593" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="18" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="594" hidden="1" spans="1:11">
@@ -56248,7 +56253,7 @@
         <v>461</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>404</v>
@@ -56261,11 +56266,11 @@
       </c>
       <c r="H594" s="22"/>
       <c r="I594" s="3" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="J594" s="2"/>
       <c r="K594" s="18" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="595" hidden="1" spans="1:11">
@@ -56279,7 +56284,7 @@
         <v>463</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>404</v>
@@ -56296,7 +56301,7 @@
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="18" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="596" hidden="1" spans="1:11">
@@ -56310,7 +56315,7 @@
         <v>463</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>404</v>
@@ -56327,7 +56332,7 @@
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="18" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="597" hidden="1" spans="1:11">
@@ -56341,7 +56346,7 @@
         <v>463</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>404</v>
@@ -56358,7 +56363,7 @@
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="18" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="598" hidden="1" spans="1:11">
@@ -56372,7 +56377,7 @@
         <v>465</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>404</v>
@@ -56385,11 +56390,11 @@
       </c>
       <c r="H598" s="22"/>
       <c r="I598" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="18" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="599" hidden="1" spans="1:11">
@@ -56403,7 +56408,7 @@
         <v>465</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>404</v>
@@ -56416,11 +56421,11 @@
       </c>
       <c r="H599" s="22"/>
       <c r="I599" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="18" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="600" ht="16.5" hidden="1" spans="1:11">
@@ -56434,7 +56439,7 @@
         <v>465</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>404</v>
@@ -56447,11 +56452,11 @@
       </c>
       <c r="H600" s="22"/>
       <c r="I600" s="3" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="J600" s="2"/>
       <c r="K600" s="50" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="601" hidden="1" spans="1:11">
@@ -56465,7 +56470,7 @@
         <v>467</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>404</v>
@@ -56478,11 +56483,11 @@
       </c>
       <c r="H601" s="22"/>
       <c r="I601" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J601" s="2"/>
       <c r="K601" s="18" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="602" hidden="1" spans="1:11">
@@ -56496,7 +56501,7 @@
         <v>467</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>404</v>
@@ -56509,11 +56514,11 @@
       </c>
       <c r="H602" s="22"/>
       <c r="I602" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J602" s="2"/>
       <c r="K602" s="18" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="603" hidden="1" spans="1:11">
@@ -56521,7 +56526,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="3" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>404</v>
@@ -56534,11 +56539,11 @@
       </c>
       <c r="H603" s="22"/>
       <c r="I603" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J603" s="2"/>
       <c r="K603" s="18" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="604" hidden="1" spans="1:11">
@@ -56552,7 +56557,7 @@
         <v>469</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>404</v>
@@ -56565,11 +56570,11 @@
       </c>
       <c r="H604" s="22"/>
       <c r="I604" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J604" s="2"/>
       <c r="K604" s="18" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="605" hidden="1" spans="1:11">
@@ -56583,7 +56588,7 @@
         <v>469</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>404</v>
@@ -56596,11 +56601,11 @@
       </c>
       <c r="H605" s="22"/>
       <c r="I605" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J605" s="2"/>
       <c r="K605" s="18" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="606" hidden="1" spans="1:11">
@@ -56614,7 +56619,7 @@
         <v>469</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>404</v>
@@ -56627,11 +56632,11 @@
       </c>
       <c r="H606" s="22"/>
       <c r="I606" s="3" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="J606" s="2"/>
       <c r="K606" s="18" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="607" hidden="1" spans="1:11">
@@ -56645,7 +56650,7 @@
         <v>471</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>404</v>
@@ -56658,11 +56663,11 @@
       </c>
       <c r="H607" s="22"/>
       <c r="I607" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J607" s="2"/>
       <c r="K607" s="18" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="608" hidden="1" spans="1:11">
@@ -56676,7 +56681,7 @@
         <v>471</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>404</v>
@@ -56693,7 +56698,7 @@
       </c>
       <c r="J608" s="2"/>
       <c r="K608" s="18" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="609" hidden="1" spans="1:11">
@@ -56707,7 +56712,7 @@
         <v>471</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>404</v>
@@ -56720,11 +56725,11 @@
       </c>
       <c r="H609" s="22"/>
       <c r="I609" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J609" s="2"/>
       <c r="K609" s="18" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="610" hidden="1" spans="1:11">
@@ -56738,7 +56743,7 @@
         <v>473</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>404</v>
@@ -56751,11 +56756,11 @@
       </c>
       <c r="H610" s="22"/>
       <c r="I610" s="3" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="J610" s="2"/>
       <c r="K610" s="18" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="611" hidden="1" spans="1:11">
@@ -56769,7 +56774,7 @@
         <v>473</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>404</v>
@@ -56782,11 +56787,11 @@
       </c>
       <c r="H611" s="22"/>
       <c r="I611" s="3" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="J611" s="2"/>
       <c r="K611" s="18" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="612" hidden="1" spans="1:11">
@@ -56800,7 +56805,7 @@
         <v>473</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>404</v>
@@ -56813,11 +56818,11 @@
       </c>
       <c r="H612" s="22"/>
       <c r="I612" s="3" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="J612" s="2"/>
       <c r="K612" s="18" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="613" hidden="1" spans="1:11">
@@ -56831,7 +56836,7 @@
         <v>475</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>404</v>
@@ -56844,11 +56849,11 @@
       </c>
       <c r="H613" s="22"/>
       <c r="I613" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J613" s="2"/>
       <c r="K613" s="18" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="614" hidden="1" spans="1:11">
@@ -56862,7 +56867,7 @@
         <v>475</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>404</v>
@@ -56875,11 +56880,11 @@
       </c>
       <c r="H614" s="22"/>
       <c r="I614" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J614" s="2"/>
       <c r="K614" s="18" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="615" hidden="1" spans="1:11">
@@ -56893,7 +56898,7 @@
         <v>475</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>404</v>
@@ -56906,11 +56911,11 @@
       </c>
       <c r="H615" s="22"/>
       <c r="I615" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J615" s="2"/>
       <c r="K615" s="18" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="616" hidden="1" spans="1:11">
@@ -56924,7 +56929,7 @@
         <v>477</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>404</v>
@@ -56937,11 +56942,11 @@
       </c>
       <c r="H616" s="22"/>
       <c r="I616" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J616" s="2"/>
       <c r="K616" s="18" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="617" hidden="1" spans="1:11">
@@ -56955,7 +56960,7 @@
         <v>477</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>404</v>
@@ -56972,7 +56977,7 @@
       </c>
       <c r="J617" s="2"/>
       <c r="K617" s="18" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="618" hidden="1" spans="1:11">
@@ -56986,7 +56991,7 @@
         <v>477</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>404</v>
@@ -56999,11 +57004,11 @@
       </c>
       <c r="H618" s="22"/>
       <c r="I618" s="3" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="18" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="619" hidden="1" spans="1:11">
@@ -57017,7 +57022,7 @@
         <v>479</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>404</v>
@@ -57034,7 +57039,7 @@
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="18" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="620" hidden="1" spans="1:11">
@@ -57048,7 +57053,7 @@
         <v>479</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>404</v>
@@ -57061,11 +57066,11 @@
       </c>
       <c r="H620" s="22"/>
       <c r="I620" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J620" s="2"/>
       <c r="K620" s="18" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="621" hidden="1" spans="1:11">
@@ -57079,7 +57084,7 @@
         <v>479</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>404</v>
@@ -57092,11 +57097,11 @@
       </c>
       <c r="H621" s="22"/>
       <c r="I621" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J621" s="2"/>
       <c r="K621" s="18" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="622" hidden="1" spans="1:11">
@@ -57110,7 +57115,7 @@
         <v>481</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>404</v>
@@ -57123,11 +57128,11 @@
       </c>
       <c r="H622" s="22"/>
       <c r="I622" s="3" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="J622" s="2"/>
       <c r="K622" s="18" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="623" hidden="1" spans="1:11">
@@ -57141,7 +57146,7 @@
         <v>481</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>404</v>
@@ -57154,11 +57159,11 @@
       </c>
       <c r="H623" s="22"/>
       <c r="I623" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J623" s="2"/>
       <c r="K623" s="18" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="624" ht="16.5" hidden="1" spans="1:11">
@@ -57172,7 +57177,7 @@
         <v>481</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>404</v>
@@ -57185,11 +57190,11 @@
       </c>
       <c r="H624" s="22"/>
       <c r="I624" s="3" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="J624" s="2"/>
       <c r="K624" s="50" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="625" hidden="1" spans="1:11">
@@ -57203,7 +57208,7 @@
         <v>483</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>404</v>
@@ -57216,11 +57221,11 @@
       </c>
       <c r="H625" s="22"/>
       <c r="I625" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J625" s="2"/>
       <c r="K625" s="18" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="626" hidden="1" spans="1:11">
@@ -57234,7 +57239,7 @@
         <v>483</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>404</v>
@@ -57247,11 +57252,11 @@
       </c>
       <c r="H626" s="22"/>
       <c r="I626" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J626" s="2"/>
       <c r="K626" s="18" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="627" ht="16.5" hidden="1" spans="1:11">
@@ -57265,7 +57270,7 @@
         <v>483</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>404</v>
@@ -57278,11 +57283,11 @@
       </c>
       <c r="H627" s="22"/>
       <c r="I627" s="3" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="J627" s="2"/>
       <c r="K627" s="50" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="628" hidden="1" spans="1:11">
@@ -57296,7 +57301,7 @@
         <v>291</v>
       </c>
       <c r="D628" s="27" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>404</v>
@@ -57309,11 +57314,11 @@
       </c>
       <c r="H628" s="22"/>
       <c r="I628" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J628" s="2"/>
       <c r="K628" s="18" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="629" hidden="1" spans="1:11">
@@ -57327,7 +57332,7 @@
         <v>291</v>
       </c>
       <c r="D629" s="27" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>404</v>
@@ -57340,11 +57345,11 @@
       </c>
       <c r="H629" s="22"/>
       <c r="I629" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J629" s="2"/>
       <c r="K629" s="18" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="630" hidden="1" spans="1:11">
@@ -57358,7 +57363,7 @@
         <v>291</v>
       </c>
       <c r="D630" s="27" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>404</v>
@@ -57371,11 +57376,11 @@
       </c>
       <c r="H630" s="22"/>
       <c r="I630" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J630" s="2"/>
       <c r="K630" s="18" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="631" hidden="1" spans="1:11">
@@ -57389,7 +57394,7 @@
         <v>486</v>
       </c>
       <c r="D631" s="27" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>404</v>
@@ -57402,11 +57407,11 @@
       </c>
       <c r="H631" s="22"/>
       <c r="I631" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J631" s="2"/>
       <c r="K631" s="18" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="632" hidden="1" spans="1:11">
@@ -57420,7 +57425,7 @@
         <v>486</v>
       </c>
       <c r="D632" s="27" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>404</v>
@@ -57433,11 +57438,11 @@
       </c>
       <c r="H632" s="22"/>
       <c r="I632" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J632" s="2"/>
       <c r="K632" s="18" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="633" hidden="1" spans="1:11">
@@ -57451,7 +57456,7 @@
         <v>486</v>
       </c>
       <c r="D633" s="27" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>404</v>
@@ -57464,11 +57469,11 @@
       </c>
       <c r="H633" s="22"/>
       <c r="I633" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="18" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="634" ht="16.5" hidden="1" spans="1:11">
@@ -57482,7 +57487,7 @@
         <v>488</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>404</v>
@@ -57495,11 +57500,11 @@
       </c>
       <c r="H634" s="22"/>
       <c r="I634" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J634" s="2"/>
       <c r="K634" s="16" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="635" hidden="1" spans="1:11">
@@ -57513,7 +57518,7 @@
         <v>488</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>404</v>
@@ -57526,11 +57531,11 @@
       </c>
       <c r="H635" s="22"/>
       <c r="I635" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="18" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="636" hidden="1" spans="1:11">
@@ -57544,7 +57549,7 @@
         <v>488</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>404</v>
@@ -57557,11 +57562,11 @@
       </c>
       <c r="H636" s="22"/>
       <c r="I636" s="3" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="18" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="637" hidden="1" spans="1:11">
@@ -57575,7 +57580,7 @@
         <v>490</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>404</v>
@@ -57592,7 +57597,7 @@
       </c>
       <c r="J637" s="2"/>
       <c r="K637" s="18" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="638" hidden="1" spans="1:11">
@@ -57606,7 +57611,7 @@
         <v>490</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>404</v>
@@ -57623,7 +57628,7 @@
       </c>
       <c r="J638" s="2"/>
       <c r="K638" s="18" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="639" hidden="1" spans="1:11">
@@ -57637,7 +57642,7 @@
         <v>490</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>404</v>
@@ -57650,11 +57655,11 @@
       </c>
       <c r="H639" s="22"/>
       <c r="I639" s="3" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="J639" s="2"/>
       <c r="K639" s="18" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="640" hidden="1" spans="1:11">
@@ -57668,7 +57673,7 @@
         <v>492</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>404</v>
@@ -57681,11 +57686,11 @@
       </c>
       <c r="H640" s="22"/>
       <c r="I640" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J640" s="2"/>
       <c r="K640" s="18" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="641" hidden="1" spans="1:11">
@@ -57699,7 +57704,7 @@
         <v>492</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>404</v>
@@ -57712,11 +57717,11 @@
       </c>
       <c r="H641" s="22"/>
       <c r="I641" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="J641" s="2"/>
       <c r="K641" s="18" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="642" hidden="1" spans="1:11">
@@ -57730,7 +57735,7 @@
         <v>492</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>404</v>
@@ -57743,11 +57748,11 @@
       </c>
       <c r="H642" s="22"/>
       <c r="I642" s="3" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="J642" s="2"/>
       <c r="K642" s="18" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="643" hidden="1" spans="1:11">
@@ -57761,7 +57766,7 @@
         <v>494</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>404</v>
@@ -57774,11 +57779,11 @@
       </c>
       <c r="H643" s="22"/>
       <c r="I643" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J643" s="2"/>
       <c r="K643" s="18" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="644" hidden="1" spans="1:11">
@@ -57792,7 +57797,7 @@
         <v>494</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>404</v>
@@ -57805,11 +57810,11 @@
       </c>
       <c r="H644" s="22"/>
       <c r="I644" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J644" s="2"/>
       <c r="K644" s="18" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="645" hidden="1" spans="1:11">
@@ -57823,7 +57828,7 @@
         <v>494</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>404</v>
@@ -57836,11 +57841,11 @@
       </c>
       <c r="H645" s="22"/>
       <c r="I645" s="3" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="J645" s="2"/>
       <c r="K645" s="18" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="646" hidden="1" spans="1:11">
@@ -57854,7 +57859,7 @@
         <v>496</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>404</v>
@@ -57871,7 +57876,7 @@
       </c>
       <c r="J646" s="2"/>
       <c r="K646" s="18" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="647" hidden="1" spans="1:11">
@@ -57885,7 +57890,7 @@
         <v>496</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>404</v>
@@ -57898,11 +57903,11 @@
       </c>
       <c r="H647" s="22"/>
       <c r="I647" s="3" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="J647" s="2"/>
       <c r="K647" s="18" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="648" ht="16.5" hidden="1" spans="1:11">
@@ -57916,7 +57921,7 @@
         <v>496</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>404</v>
@@ -57929,11 +57934,11 @@
       </c>
       <c r="H648" s="25"/>
       <c r="I648" s="3" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="J648" s="2"/>
       <c r="K648" s="50" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
     </row>
   </sheetData>
@@ -58113,6 +58118,7 @@
     <hyperlink ref="K281" r:id="rId93" display="http://prec.sxzwfw.gov.cn/moreInfoController.do?getProject"/>
     <hyperlink ref="K276" r:id="rId94" display="http://ggzyjy.nmg.gov.cn/jyxx/jsgcZbgg"/>
     <hyperlink ref="K277" r:id="rId95" display="http://www.nxggzyjy.org/ningxiaweb/002/002001/listPage.html" tooltip="http://www.nxggzyjy.org/ningxiaweb/002/002001/listPage.html"/>
+    <hyperlink ref="K278" r:id="rId96" display="http://www.qhggzyjy.gov.cn/ggzy/jyxx/001002/001002001/secondPage.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -58138,7 +58144,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -58149,7 +58155,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -58160,7 +58166,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -58171,7 +58177,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -58182,7 +58188,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -58193,7 +58199,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -58204,18 +58210,18 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -58226,7 +58232,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -58237,7 +58243,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -58248,18 +58254,18 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B12" s="4">
         <v>15</v>
@@ -58270,7 +58276,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -58281,7 +58287,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -58292,18 +58298,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -58314,7 +58320,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -58325,18 +58331,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -58347,18 +58353,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B20" s="4">
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -58369,7 +58375,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -58380,7 +58386,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -58391,7 +58397,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -58402,7 +58408,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -58413,13 +58419,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B26">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -58489,22 +58495,22 @@
         <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -58612,7 +58618,7 @@
         <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58741,7 +58747,7 @@
         <v>381</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58877,7 +58883,7 @@
         <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C11" t="s">
         <v>401</v>
@@ -58934,7 +58940,7 @@
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
@@ -59081,10 +59087,10 @@
         <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="D2" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -59207,91 +59213,91 @@
         <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="D17" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="E17" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="F17" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="G17" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="H17" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="I17" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="J17" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="K17" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="L17" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="M17" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="N17" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="O17" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="P17" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="Q17" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="R17" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="S17" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="T17" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="U17" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="V17" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="W17" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="X17" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="Y17" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="Z17" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="AA17" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="AB17" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="AC17" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="AD17" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="AE17" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -59302,7 +59308,7 @@
         <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -59318,61 +59324,61 @@
         <v>810</v>
       </c>
       <c r="C20" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="D20" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="E20" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="F20" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="G20" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="H20" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="I20" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="J20" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="K20" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="L20" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="M20" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="N20" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="O20" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="P20" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="Q20" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="R20" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="S20" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="T20" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="U20" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -59383,103 +59389,103 @@
         <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="D21" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="E21" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="F21" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="G21" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="H21" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="I21" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="J21" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="K21" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="L21" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="M21" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="N21" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="O21" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="P21" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="Q21" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R21" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="S21" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="T21" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="U21" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="V21" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="W21" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="X21" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="Y21" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="Z21" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="AA21" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="AB21" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="AC21" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="AD21" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="AE21" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="AF21" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="AG21" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="AH21" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="AI21" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -59546,16 +59552,16 @@
         <v>741</v>
       </c>
       <c r="C29" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="D29" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="E29" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="F29" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -59595,7 +59601,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -59606,88 +59612,88 @@
         <v>551</v>
       </c>
       <c r="C35" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="D35" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E35" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="F35" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="G35" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="H35" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="I35" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="J35" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="K35" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="L35" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="M35" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="N35" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="O35" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="P35" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="Q35" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="R35" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="S35" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="T35" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="U35" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="V35" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="W35" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="X35" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="Y35" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="Z35" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="AA35" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="AB35" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="AC35" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="AD35" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -59698,28 +59704,28 @@
         <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="D36" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="E36" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="F36" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="G36" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="H36" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="I36" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="J36" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -59730,31 +59736,31 @@
         <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="D37" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="E37" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="F37" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="G37" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2190</v>
+      </c>
+      <c r="K37" t="s">
         <v>2191</v>
-      </c>
-      <c r="H37" t="s">
-        <v>2187</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2188</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2189</v>
-      </c>
-      <c r="K37" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -59765,37 +59771,37 @@
         <v>613</v>
       </c>
       <c r="C38" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="D38" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="E38" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="F38" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="G38" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="H38" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="I38" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="J38" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="K38" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="L38" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M38" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -59806,19 +59812,19 @@
         <v>637</v>
       </c>
       <c r="C39" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="D39" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="E39" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="F39" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="G39" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -59829,100 +59835,100 @@
         <v>888</v>
       </c>
       <c r="C40" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="D40" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="E40" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="F40" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="G40" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="H40" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="I40" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J40" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="K40" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="L40" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="M40" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="N40" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="O40" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="P40" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="Q40" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="R40" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="S40" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="T40" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="U40" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="V40" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="W40" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="X40" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="Y40" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="Z40" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AA40" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AB40" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AC40" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AD40" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AE40" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AF40" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AG40" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AH40" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -59933,31 +59939,31 @@
         <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="D41" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="E41" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="F41" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="G41" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="H41" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="I41" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="J41" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="K41" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -59973,31 +59979,31 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="D43" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="E43" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="F43" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="G43" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="H43" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="I43" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="J43" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="K43" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -60016,88 +60022,88 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="D45" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E45" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="F45" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="G45" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="H45" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="I45" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="J45" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="K45" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="L45" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="M45" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="N45" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="O45" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="P45" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="Q45" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="R45" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="S45" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="T45" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="U45" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="V45" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="W45" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="X45" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="Y45" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="Z45" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="AA45" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="AB45" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="AC45" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="AD45" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -60108,13 +60114,13 @@
         <v>724</v>
       </c>
       <c r="C46" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="D46" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="E46" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -60125,103 +60131,103 @@
         <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="D47" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="E47" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="F47" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="G47" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="H47" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="I47" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="J47" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="K47" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="L47" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="M47" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="N47" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="O47" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="P47" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="Q47" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="R47" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="S47" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="T47" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="U47" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="V47" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="W47" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="X47" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="Y47" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="Z47" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="AA47" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="AB47" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="AC47" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="AD47" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="AE47" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="AF47" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="AG47" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AH47" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AI47" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -60232,67 +60238,67 @@
         <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="D48" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="E48" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="F48" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="G48" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="H48" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="I48" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="J48" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="K48" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="L48" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="M48" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="N48" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="O48" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="P48" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="Q48" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="R48" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="S48" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="T48" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="U48" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="V48" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="W48" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -60303,100 +60309,100 @@
         <v>888</v>
       </c>
       <c r="C49" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="D49" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="E49" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="F49" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="G49" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="H49" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="I49" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J49" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="K49" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="L49" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="M49" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="N49" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="O49" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="P49" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="Q49" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="R49" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="S49" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="T49" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="U49" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="V49" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="W49" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="X49" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="Y49" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="Z49" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AA49" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AB49" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AC49" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AD49" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AE49" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AF49" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AG49" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AH49" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -60412,19 +60418,19 @@
         <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="D51" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="E51" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="F51" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="G51" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -60435,70 +60441,70 @@
         <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="D52" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="E52" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="F52" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="G52" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="H52" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="I52" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="J52" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="K52" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="L52" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="M52" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="N52" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="O52" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="P52" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="Q52" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="R52" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="S52" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="T52" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="U52" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="V52" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="W52" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="X52" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -60509,40 +60515,40 @@
         <v>662</v>
       </c>
       <c r="C53" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="D53" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="E53" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="F53" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="G53" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="H53" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="I53" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="J53" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="K53" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="L53" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="M53" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="N53" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -60569,28 +60575,28 @@
         <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="D56" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="E56" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="F56" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="G56" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="H56" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="I56" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="J56" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -60606,94 +60612,94 @@
         <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="D58" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="E58" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="F58" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="G58" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="H58" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="I58" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="J58" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="K58" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="L58" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="M58" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="N58" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="O58" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="P58" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="Q58" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="R58" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="S58" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="T58" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="U58" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="V58" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="W58" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="X58" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="Y58" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="Z58" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AA58" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="AB58" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="AC58" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="AD58" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AE58" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AF58" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="59" spans="1:55">
@@ -60701,267 +60707,267 @@
         <v>988</v>
       </c>
       <c r="B59" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="C59" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="D59" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="E59" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="F59" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="G59" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="H59" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="I59" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="J59" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="K59" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="L59" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="M59" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="N59" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="O59" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="P59" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="Q59" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="R59" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="S59" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="T59" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="U59" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="V59" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="W59" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="X59" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="Y59" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="Z59" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="AA59" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="AB59" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="AC59" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="AD59" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="AE59" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="AF59" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="AG59" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="AH59" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="AI59" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="AJ59" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="AK59" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="AL59" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="AM59" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="AN59" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="AO59" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="AP59" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="AQ59" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="AR59" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="AS59" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="AT59" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="AU59" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="AV59" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AW59" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="AX59" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="AY59" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AZ59" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="BA59" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="BB59" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="BC59" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="B60" t="s">
         <v>888</v>
       </c>
       <c r="C60" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="D60" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="E60" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="F60" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="G60" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="H60" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="I60" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="J60" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="K60" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="L60" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="M60" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="N60" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="O60" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="P60" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="Q60" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="R60" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="S60" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="T60" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="U60" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="V60" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="W60" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="X60" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="Y60" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="Z60" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AA60" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AB60" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AC60" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AD60" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AE60" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AF60" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AG60" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -60988,82 +60994,82 @@
         <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="D63" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="E63" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="F63" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="G63" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="H63" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="I63" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="J63" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="K63" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="L63" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="M63" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="N63" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="O63" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="P63" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="Q63" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="R63" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="S63" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="T63" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="U63" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="V63" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="W63" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="X63" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="Y63" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="Z63" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AA63" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="AB63" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -61082,58 +61088,58 @@
         <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="D65" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="E65" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="F65" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="G65" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="H65" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="I65" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="J65" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="K65" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="L65" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="M65" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="N65" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="O65" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="P65" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="Q65" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="R65" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="S65" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="T65" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -61141,88 +61147,88 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="C66" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="D66" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="E66" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="F66" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="G66" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="H66" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="I66" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="J66" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="K66" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="L66" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="M66" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="N66" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="O66" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="P66" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="Q66" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="R66" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="S66" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="T66" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="U66" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="V66" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="W66" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="X66" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="Y66" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="Z66" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="AA66" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="AB66" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="AC66" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -61233,127 +61239,127 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="D67" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="E67" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="F67" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="G67" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="H67" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="I67" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="J67" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="K67" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="L67" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="M67" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="N67" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="O67" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="P67" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="Q67" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="R67" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="S67" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="T67" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="U67" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="V67" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="W67" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="X67" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="Y67" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="Z67" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="AA67" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="AB67" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="AC67" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="AD67" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="AE67" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="AF67" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="AG67" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="AH67" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="AI67" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="AJ67" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="AK67" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="AL67" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="AM67" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="AN67" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="AO67" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="AP67" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="AQ67" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -61364,7 +61370,7 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -61415,87 +61421,87 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
   </sheetData>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7319" uniqueCount="2507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7320" uniqueCount="2508">
   <si>
     <t>服务器</t>
   </si>
@@ -4677,6 +4677,9 @@
   </si>
   <si>
     <t>http://www.qhggzyjy.gov.cn/ggzy/jyxx/001002/001002001/secondPage.html</t>
+  </si>
+  <si>
+    <t>已修改（20200921）</t>
   </si>
   <si>
     <t>http://deal.ggzy.gov.cn/ds/deal/dealList.jsp</t>
@@ -7948,8 +7951,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -8044,25 +8047,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8073,7 +8070,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -8083,29 +8079,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8135,8 +8109,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8172,11 +8176,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8219,13 +8222,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8237,25 +8252,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8267,19 +8276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8297,7 +8306,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8309,25 +8354,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8339,61 +8390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8498,6 +8501,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8519,30 +8561,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8580,21 +8598,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8603,10 +8606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8615,16 +8618,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8633,115 +8636,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21532,8 +21535,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H301" workbookViewId="0">
-      <selection activeCell="J279" sqref="J279"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H204" workbookViewId="0">
+      <selection activeCell="J282" sqref="J282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -30200,9 +30203,11 @@
       <c r="I279" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J279" s="2"/>
+      <c r="J279" s="2" t="s">
+        <v>1498</v>
+      </c>
       <c r="K279" s="19" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="L279" t="s">
         <v>1339</v>
@@ -30234,7 +30239,7 @@
       </c>
       <c r="J280" s="2"/>
       <c r="K280" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -30263,7 +30268,7 @@
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="L281" t="s">
         <v>1339</v>
@@ -30295,7 +30300,7 @@
       </c>
       <c r="J282" s="2"/>
       <c r="K282" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="L282" t="s">
         <v>1339</v>
@@ -30327,7 +30332,7 @@
       </c>
       <c r="J283" s="2"/>
       <c r="K283" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="L283" t="s">
         <v>1339</v>
@@ -30359,7 +30364,7 @@
       </c>
       <c r="J284" s="2"/>
       <c r="K284" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="L284" t="s">
         <v>1339</v>
@@ -30391,7 +30396,7 @@
       </c>
       <c r="J285" s="2"/>
       <c r="K285" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="L285" t="s">
         <v>1339</v>
@@ -30419,13 +30424,13 @@
       <c r="G286" s="2"/>
       <c r="H286" s="11"/>
       <c r="I286" s="3" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K286" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="L286" t="s">
         <v>1339</v>
@@ -30457,7 +30462,7 @@
       </c>
       <c r="J287" s="2"/>
       <c r="K287" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -30465,18 +30470,18 @@
       <c r="B288" s="7"/>
       <c r="C288" s="2"/>
       <c r="D288" s="7" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="11"/>
       <c r="I288" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J288" s="2"/>
       <c r="K288" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="L288" t="s">
         <v>1339</v>
@@ -30487,18 +30492,18 @@
       <c r="B289" s="7"/>
       <c r="C289" s="2"/>
       <c r="D289" s="7" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="11"/>
       <c r="I289" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J289" s="2"/>
       <c r="K289" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="L289" t="s">
         <v>1339</v>
@@ -30530,7 +30535,7 @@
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="L290" t="s">
         <v>1339</v>
@@ -30562,7 +30567,7 @@
       </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="L291" t="s">
         <v>1339</v>
@@ -30594,7 +30599,7 @@
       </c>
       <c r="J292" s="2"/>
       <c r="K292" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="L292" t="s">
         <v>1339</v>
@@ -30626,7 +30631,7 @@
       </c>
       <c r="J293" s="2"/>
       <c r="K293" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="L293" t="s">
         <v>1339</v>
@@ -30658,7 +30663,7 @@
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="L294" t="s">
         <v>1339</v>
@@ -30669,18 +30674,18 @@
       <c r="B295" s="7"/>
       <c r="C295" s="2"/>
       <c r="D295" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="11"/>
       <c r="I295" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="L295" t="s">
         <v>1339</v>
@@ -30691,18 +30696,18 @@
       <c r="B296" s="7"/>
       <c r="C296" s="2"/>
       <c r="D296" s="7" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="11"/>
       <c r="I296" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="L296" t="s">
         <v>1339</v>
@@ -30734,7 +30739,7 @@
       </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="L297" t="s">
         <v>1339</v>
@@ -30766,7 +30771,7 @@
       </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="L298" t="s">
         <v>1339</v>
@@ -30798,7 +30803,7 @@
       </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="L299" t="s">
         <v>1339</v>
@@ -30830,7 +30835,7 @@
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="L300" t="s">
         <v>1339</v>
@@ -30862,7 +30867,7 @@
       </c>
       <c r="J301" s="2"/>
       <c r="K301" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="L301" t="s">
         <v>1339</v>
@@ -30894,7 +30899,7 @@
       </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="L302" t="s">
         <v>1339</v>
@@ -30926,7 +30931,7 @@
       </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="L303" t="s">
         <v>1339</v>
@@ -30958,7 +30963,7 @@
       </c>
       <c r="J304" s="2"/>
       <c r="K304" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="L304" t="s">
         <v>1339</v>
@@ -30990,7 +30995,7 @@
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="L305" t="s">
         <v>1339</v>
@@ -31022,7 +31027,7 @@
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="L306" t="s">
         <v>1339</v>
@@ -31054,7 +31059,7 @@
       </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="L307" t="s">
         <v>1339</v>
@@ -31086,7 +31091,7 @@
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="L308" t="s">
         <v>1339</v>
@@ -31118,7 +31123,7 @@
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="L309" t="s">
         <v>1339</v>
@@ -31150,7 +31155,7 @@
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="L310" t="s">
         <v>1339</v>
@@ -31182,7 +31187,7 @@
       </c>
       <c r="J311" s="2"/>
       <c r="K311" s="15" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="312" hidden="1" spans="1:11">
@@ -31213,7 +31218,7 @@
       </c>
       <c r="J312" s="2"/>
       <c r="K312" s="18" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="313" hidden="1" spans="1:11">
@@ -31244,7 +31249,7 @@
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="18" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="314" hidden="1" spans="1:11">
@@ -31275,7 +31280,7 @@
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="18" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="315" hidden="1" spans="1:11">
@@ -31306,7 +31311,7 @@
       </c>
       <c r="J315" s="2"/>
       <c r="K315" s="18" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="316" hidden="1" spans="1:11">
@@ -31337,7 +31342,7 @@
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="18" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="317" hidden="1" spans="1:11">
@@ -31351,7 +31356,7 @@
         <v>859</v>
       </c>
       <c r="D317" s="27" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>751</v>
@@ -31368,7 +31373,7 @@
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="18" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="318" hidden="1" spans="1:11">
@@ -31399,7 +31404,7 @@
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="18" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="319" hidden="1" spans="1:11">
@@ -31430,7 +31435,7 @@
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="18" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="320" hidden="1" spans="1:11">
@@ -31461,7 +31466,7 @@
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="18" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="321" hidden="1" spans="1:11">
@@ -31492,7 +31497,7 @@
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="18" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="322" hidden="1" spans="1:11">
@@ -31523,7 +31528,7 @@
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="18" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:11">
@@ -31554,7 +31559,7 @@
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="18" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="324" hidden="1" spans="1:11">
@@ -31585,7 +31590,7 @@
       </c>
       <c r="J324" s="2"/>
       <c r="K324" s="18" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="325" hidden="1" spans="1:11">
@@ -31616,7 +31621,7 @@
       </c>
       <c r="J325" s="2"/>
       <c r="K325" s="18" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="326" hidden="1" spans="1:11">
@@ -31647,7 +31652,7 @@
       </c>
       <c r="J326" s="2"/>
       <c r="K326" s="18" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="327" hidden="1" spans="1:11">
@@ -31678,7 +31683,7 @@
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="18" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="328" hidden="1" spans="1:11">
@@ -31709,7 +31714,7 @@
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="18" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="329" hidden="1" spans="1:11">
@@ -31740,7 +31745,7 @@
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="18" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="330" hidden="1" spans="1:11">
@@ -31771,7 +31776,7 @@
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="18" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="331" hidden="1" spans="1:11">
@@ -31802,7 +31807,7 @@
       </c>
       <c r="J331" s="2"/>
       <c r="K331" s="18" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="332" hidden="1" spans="1:11">
@@ -31833,7 +31838,7 @@
       </c>
       <c r="J332" s="2"/>
       <c r="K332" s="18" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="333" hidden="1" spans="1:11">
@@ -31864,7 +31869,7 @@
       </c>
       <c r="J333" s="2"/>
       <c r="K333" s="18" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="334" hidden="1" spans="1:11">
@@ -31878,7 +31883,7 @@
         <v>885</v>
       </c>
       <c r="D334" s="27" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>751</v>
@@ -31895,7 +31900,7 @@
       </c>
       <c r="J334" s="2"/>
       <c r="K334" s="18" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="335" hidden="1" spans="1:11">
@@ -31921,14 +31926,14 @@
         <v>1</v>
       </c>
       <c r="H335" s="21" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="15" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="336" hidden="1" spans="1:11">
@@ -31955,11 +31960,11 @@
       </c>
       <c r="H336" s="22"/>
       <c r="I336" s="2" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="15" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="337" ht="16.5" hidden="1" spans="1:11">
@@ -31990,7 +31995,7 @@
       </c>
       <c r="J337" s="2"/>
       <c r="K337" s="39" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="338" hidden="1" spans="1:11">
@@ -32017,11 +32022,11 @@
       </c>
       <c r="H338" s="22"/>
       <c r="I338" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="18" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="339" hidden="1" spans="1:11">
@@ -32052,7 +32057,7 @@
       </c>
       <c r="J339" s="2"/>
       <c r="K339" s="18" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="340" hidden="1" spans="1:11">
@@ -32083,7 +32088,7 @@
       </c>
       <c r="J340" s="2"/>
       <c r="K340" s="40" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="341" hidden="1" spans="1:11">
@@ -32114,7 +32119,7 @@
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="18" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="342" hidden="1" spans="1:11">
@@ -32145,7 +32150,7 @@
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="18" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="343" hidden="1" spans="1:11">
@@ -32172,11 +32177,11 @@
       </c>
       <c r="H343" s="22"/>
       <c r="I343" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J343" s="2"/>
       <c r="K343" s="18" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="344" hidden="1" spans="1:11">
@@ -32203,11 +32208,11 @@
       </c>
       <c r="H344" s="22"/>
       <c r="I344" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J344" s="2"/>
       <c r="K344" s="18" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:11">
@@ -32238,7 +32243,7 @@
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="15" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="346" hidden="1" spans="1:11">
@@ -32269,7 +32274,7 @@
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="15" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="347" hidden="1" spans="1:11">
@@ -32300,7 +32305,7 @@
       </c>
       <c r="J347" s="2"/>
       <c r="K347" s="18" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="348" hidden="1" spans="1:11">
@@ -32331,7 +32336,7 @@
       </c>
       <c r="J348" s="2"/>
       <c r="K348" s="18" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="349" hidden="1" spans="1:11">
@@ -32362,7 +32367,7 @@
       </c>
       <c r="J349" s="2"/>
       <c r="K349" s="18" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="350" hidden="1" spans="1:11">
@@ -32393,7 +32398,7 @@
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="15" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="351" hidden="1" spans="1:11">
@@ -32424,7 +32429,7 @@
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="41" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="352" hidden="1" spans="1:11">
@@ -32455,7 +32460,7 @@
       </c>
       <c r="J352" s="2"/>
       <c r="K352" s="15" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="353" hidden="1" spans="1:11">
@@ -32482,11 +32487,11 @@
       </c>
       <c r="H353" s="22"/>
       <c r="I353" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J353" s="2"/>
       <c r="K353" s="15" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="354" hidden="1" spans="1:11">
@@ -32517,7 +32522,7 @@
       </c>
       <c r="J354" s="2"/>
       <c r="K354" s="15" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="355" hidden="1" spans="1:11">
@@ -32544,11 +32549,11 @@
       </c>
       <c r="H355" s="22"/>
       <c r="I355" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="18" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="356" hidden="1" spans="1:11">
@@ -32579,7 +32584,7 @@
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="41" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="357" hidden="1" spans="1:11">
@@ -32606,11 +32611,11 @@
       </c>
       <c r="H357" s="22"/>
       <c r="I357" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J357" s="2"/>
       <c r="K357" s="18" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="358" hidden="1" spans="1:11">
@@ -32637,11 +32642,11 @@
       </c>
       <c r="H358" s="22"/>
       <c r="I358" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J358" s="2"/>
       <c r="K358" s="15" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="359" hidden="1" spans="1:11">
@@ -32672,7 +32677,7 @@
       </c>
       <c r="J359" s="2"/>
       <c r="K359" s="18" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="360" hidden="1" spans="1:11">
@@ -32703,7 +32708,7 @@
       </c>
       <c r="J360" s="2"/>
       <c r="K360" s="15" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="361" hidden="1" spans="1:11">
@@ -32734,7 +32739,7 @@
       </c>
       <c r="J361" s="2"/>
       <c r="K361" s="18" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="362" hidden="1" spans="1:11">
@@ -32761,11 +32766,11 @@
       </c>
       <c r="H362" s="22"/>
       <c r="I362" s="2" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="J362" s="2"/>
       <c r="K362" s="15" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="363" hidden="1" spans="1:11">
@@ -32792,11 +32797,11 @@
       </c>
       <c r="H363" s="22"/>
       <c r="I363" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J363" s="2"/>
       <c r="K363" s="18" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="364" hidden="1" spans="1:11">
@@ -32827,7 +32832,7 @@
       </c>
       <c r="J364" s="2"/>
       <c r="K364" s="18" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="365" hidden="1" spans="1:11">
@@ -32858,7 +32863,7 @@
       </c>
       <c r="J365" s="2"/>
       <c r="K365" s="18" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="366" hidden="1" spans="1:11">
@@ -32885,11 +32890,11 @@
       </c>
       <c r="H366" s="22"/>
       <c r="I366" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="18" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="367" hidden="1" spans="1:11">
@@ -32920,7 +32925,7 @@
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="15" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="368" hidden="1" spans="1:11">
@@ -32946,14 +32951,14 @@
         <v>1</v>
       </c>
       <c r="H368" s="21" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="18" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="369" hidden="1" spans="1:11">
@@ -32984,7 +32989,7 @@
       </c>
       <c r="J369" s="2"/>
       <c r="K369" s="18" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="370" hidden="1" spans="1:11">
@@ -33015,7 +33020,7 @@
       </c>
       <c r="J370" s="2"/>
       <c r="K370" s="18" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="371" hidden="1" spans="1:11">
@@ -33046,7 +33051,7 @@
       </c>
       <c r="J371" s="2"/>
       <c r="K371" s="18" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="372" hidden="1" spans="1:11">
@@ -33077,7 +33082,7 @@
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="373" hidden="1" spans="1:11">
@@ -33104,11 +33109,11 @@
       </c>
       <c r="H373" s="22"/>
       <c r="I373" s="3" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J373" s="2"/>
       <c r="K373" s="18" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="374" hidden="1" spans="1:11">
@@ -33135,11 +33140,11 @@
       </c>
       <c r="H374" s="22"/>
       <c r="I374" s="3" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J374" s="2"/>
       <c r="K374" s="18" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="375" hidden="1" spans="1:11">
@@ -33170,7 +33175,7 @@
       </c>
       <c r="J375" s="2"/>
       <c r="K375" s="18" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="376" hidden="1" spans="1:11">
@@ -33201,7 +33206,7 @@
       </c>
       <c r="J376" s="2"/>
       <c r="K376" s="18" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="377" hidden="1" spans="1:11">
@@ -33232,7 +33237,7 @@
       </c>
       <c r="J377" s="2"/>
       <c r="K377" s="18" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="378" hidden="1" spans="1:11">
@@ -33263,7 +33268,7 @@
       </c>
       <c r="J378" s="2"/>
       <c r="K378" s="18" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="379" hidden="1" spans="1:11">
@@ -33290,11 +33295,11 @@
       </c>
       <c r="H379" s="22"/>
       <c r="I379" s="3" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="18" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="380" hidden="1" spans="1:11">
@@ -33325,7 +33330,7 @@
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="18" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="381" hidden="1" spans="1:11">
@@ -33356,7 +33361,7 @@
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="18" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="382" hidden="1" spans="1:11">
@@ -33387,7 +33392,7 @@
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="18" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="383" hidden="1" spans="1:11">
@@ -33418,7 +33423,7 @@
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="18" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="384" hidden="1" spans="1:11">
@@ -33449,7 +33454,7 @@
       </c>
       <c r="J384" s="2"/>
       <c r="K384" s="18" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="385" hidden="1" spans="1:11">
@@ -33476,11 +33481,11 @@
       </c>
       <c r="H385" s="22"/>
       <c r="I385" s="3" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="J385" s="2"/>
       <c r="K385" s="18" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="386" hidden="1" spans="1:11">
@@ -33511,7 +33516,7 @@
       </c>
       <c r="J386" s="2"/>
       <c r="K386" s="18" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="387" hidden="1" spans="1:11">
@@ -33542,7 +33547,7 @@
       </c>
       <c r="J387" s="2"/>
       <c r="K387" s="18" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="388" hidden="1" spans="1:11">
@@ -33573,7 +33578,7 @@
       </c>
       <c r="J388" s="2"/>
       <c r="K388" s="2" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="389" hidden="1" spans="1:11">
@@ -33604,7 +33609,7 @@
       </c>
       <c r="J389" s="2"/>
       <c r="K389" s="18" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="390" hidden="1" spans="1:11">
@@ -33635,7 +33640,7 @@
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="18" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="391" hidden="1" spans="1:11">
@@ -33662,11 +33667,11 @@
       </c>
       <c r="H391" s="22"/>
       <c r="I391" s="3" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="18" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="392" hidden="1" spans="1:11">
@@ -33693,11 +33698,11 @@
       </c>
       <c r="H392" s="22"/>
       <c r="I392" s="3" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="18" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="393" hidden="1" spans="1:11">
@@ -33724,11 +33729,11 @@
       </c>
       <c r="H393" s="22"/>
       <c r="I393" s="3" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="18" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="394" hidden="1" spans="1:11">
@@ -33759,7 +33764,7 @@
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="18" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="395" hidden="1" spans="1:11">
@@ -33773,7 +33778,7 @@
         <v>980</v>
       </c>
       <c r="D395" s="27" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>890</v>
@@ -33790,7 +33795,7 @@
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="18" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="396" hidden="1" spans="1:11">
@@ -33804,7 +33809,7 @@
         <v>486</v>
       </c>
       <c r="D396" s="27" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>890</v>
@@ -33821,7 +33826,7 @@
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="18" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="397" hidden="1" spans="1:11">
@@ -33852,7 +33857,7 @@
       </c>
       <c r="J397" s="2"/>
       <c r="K397" s="18" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="398" hidden="1" spans="1:11">
@@ -33883,7 +33888,7 @@
       </c>
       <c r="J398" s="2"/>
       <c r="K398" s="18" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="399" hidden="1" spans="1:11">
@@ -33910,11 +33915,11 @@
       </c>
       <c r="H399" s="22"/>
       <c r="I399" s="3" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="18" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="400" hidden="1" spans="1:11">
@@ -33941,11 +33946,11 @@
       </c>
       <c r="H400" s="22"/>
       <c r="I400" s="3" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="18" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="401" hidden="1" spans="1:11">
@@ -33976,7 +33981,7 @@
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="18" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -33990,7 +33995,7 @@
         <v>888</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="E402" s="7" t="s">
         <v>890</v>
@@ -34000,14 +34005,14 @@
       </c>
       <c r="G402" s="2"/>
       <c r="H402" s="21" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="14" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="L402" t="s">
         <v>1339</v>
@@ -34018,7 +34023,7 @@
       <c r="B403" s="7"/>
       <c r="C403" s="2"/>
       <c r="D403" s="7" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="E403" s="7" t="s">
         <v>890</v>
@@ -34029,11 +34034,11 @@
       <c r="G403" s="2"/>
       <c r="H403" s="22"/>
       <c r="I403" s="3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="J403" s="2"/>
       <c r="K403" s="44" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="L403" t="s">
         <v>1339</v>
@@ -34065,7 +34070,7 @@
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="18" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="L404" t="s">
         <v>1339</v>
@@ -34097,7 +34102,7 @@
       </c>
       <c r="J405" s="2"/>
       <c r="K405" s="18" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="L405" t="s">
         <v>1339</v>
@@ -34129,7 +34134,7 @@
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="18" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="L406" t="s">
         <v>1339</v>
@@ -34161,7 +34166,7 @@
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="18" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -34175,7 +34180,7 @@
         <v>997</v>
       </c>
       <c r="D408" s="7" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="E408" s="7" t="s">
         <v>890</v>
@@ -34190,7 +34195,7 @@
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="18" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="L408" t="s">
         <v>1339</v>
@@ -34222,7 +34227,7 @@
       </c>
       <c r="J409" s="2"/>
       <c r="K409" s="18" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="L409" t="s">
         <v>1339</v>
@@ -34254,7 +34259,7 @@
       </c>
       <c r="J410" s="2"/>
       <c r="K410" s="18" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="L410" t="s">
         <v>1339</v>
@@ -34286,7 +34291,7 @@
       </c>
       <c r="J411" s="2"/>
       <c r="K411" s="18" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="L411" t="s">
         <v>1339</v>
@@ -34297,7 +34302,7 @@
       <c r="B412" s="7"/>
       <c r="C412" s="2"/>
       <c r="D412" s="7" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="E412" s="7" t="s">
         <v>890</v>
@@ -34308,11 +34313,11 @@
       <c r="G412" s="2"/>
       <c r="H412" s="22"/>
       <c r="I412" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="18" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="L412" t="s">
         <v>1339</v>
@@ -34329,7 +34334,7 @@
         <v>901</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="E413" s="7" t="s">
         <v>890</v>
@@ -34344,7 +34349,7 @@
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="19" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -34358,7 +34363,7 @@
         <v>1003</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="E414" s="7" t="s">
         <v>890</v>
@@ -34373,7 +34378,7 @@
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="18" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="L414" t="s">
         <v>1339</v>
@@ -34384,7 +34389,7 @@
       <c r="B415" s="7"/>
       <c r="C415" s="2"/>
       <c r="D415" s="7" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E415" s="7" t="s">
         <v>890</v>
@@ -34395,11 +34400,11 @@
       <c r="G415" s="2"/>
       <c r="H415" s="22"/>
       <c r="I415" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="18" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="L415" t="s">
         <v>1339</v>
@@ -34410,7 +34415,7 @@
       <c r="B416" s="7"/>
       <c r="C416" s="2"/>
       <c r="D416" s="7" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="E416" s="7" t="s">
         <v>890</v>
@@ -34421,11 +34426,11 @@
       <c r="G416" s="2"/>
       <c r="H416" s="22"/>
       <c r="I416" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="18" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="L416" t="s">
         <v>1339</v>
@@ -34442,7 +34447,7 @@
         <v>903</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="E417" s="7" t="s">
         <v>890</v>
@@ -34457,7 +34462,7 @@
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="18" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -34465,7 +34470,7 @@
       <c r="B418" s="7"/>
       <c r="C418" s="2"/>
       <c r="D418" s="7" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="E418" s="7" t="s">
         <v>890</v>
@@ -34476,11 +34481,11 @@
       <c r="G418" s="2"/>
       <c r="H418" s="22"/>
       <c r="I418" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="18" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="L418" t="s">
         <v>1339</v>
@@ -34497,7 +34502,7 @@
         <v>907</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="E419" s="7" t="s">
         <v>890</v>
@@ -34512,7 +34517,7 @@
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="19" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="420" hidden="1" spans="1:11">
@@ -34526,7 +34531,7 @@
         <v>1007</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="E420" s="7" t="s">
         <v>890</v>
@@ -34541,7 +34546,7 @@
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="18" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -34566,13 +34571,13 @@
       <c r="G421" s="2"/>
       <c r="H421" s="22"/>
       <c r="I421" s="2" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K421" s="18" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="L421" t="s">
         <v>1339</v>
@@ -34604,7 +34609,7 @@
       </c>
       <c r="J422" s="2"/>
       <c r="K422" s="18" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="423" hidden="1" spans="1:11">
@@ -34633,7 +34638,7 @@
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="18" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -34641,7 +34646,7 @@
       <c r="B424" s="7"/>
       <c r="C424" s="2"/>
       <c r="D424" s="7" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="E424" s="7" t="s">
         <v>890</v>
@@ -34652,11 +34657,11 @@
       <c r="G424" s="2"/>
       <c r="H424" s="22"/>
       <c r="I424" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="18" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="L424" t="s">
         <v>1339</v>
@@ -34667,7 +34672,7 @@
       <c r="B425" s="7"/>
       <c r="C425" s="2"/>
       <c r="D425" s="7" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="E425" s="7" t="s">
         <v>890</v>
@@ -34678,11 +34683,11 @@
       <c r="G425" s="2"/>
       <c r="H425" s="22"/>
       <c r="I425" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J425" s="2"/>
       <c r="K425" s="18" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="L425" t="s">
         <v>1339</v>
@@ -34710,13 +34715,13 @@
       <c r="G426" s="2"/>
       <c r="H426" s="22"/>
       <c r="I426" s="3" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K426" s="19" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="L426" t="s">
         <v>1339</v>
@@ -34744,13 +34749,13 @@
       <c r="G427" s="2"/>
       <c r="H427" s="22"/>
       <c r="I427" s="3" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K427" s="18" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="L427" t="s">
         <v>1339</v>
@@ -34782,7 +34787,7 @@
       </c>
       <c r="J428" s="2"/>
       <c r="K428" s="45" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="L428" t="s">
         <v>1339</v>
@@ -34804,11 +34809,11 @@
       <c r="G429" s="2"/>
       <c r="H429" s="22"/>
       <c r="I429" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J429" s="2"/>
       <c r="K429" s="45" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="L429" t="s">
         <v>1339</v>
@@ -34825,7 +34830,7 @@
         <v>283</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="E430" s="7" t="s">
         <v>890</v>
@@ -34840,7 +34845,7 @@
       </c>
       <c r="J430" s="2"/>
       <c r="K430" s="18" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -34848,7 +34853,7 @@
       <c r="B431" s="7"/>
       <c r="C431" s="2"/>
       <c r="D431" s="7" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="E431" s="7" t="s">
         <v>890</v>
@@ -34859,11 +34864,11 @@
       <c r="G431" s="2"/>
       <c r="H431" s="22"/>
       <c r="I431" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J431" s="2"/>
       <c r="K431" s="18" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="L431" t="s">
         <v>1339</v>
@@ -34880,7 +34885,7 @@
         <v>417</v>
       </c>
       <c r="D432" s="42" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="E432" s="7" t="s">
         <v>890</v>
@@ -34895,7 +34900,7 @@
       </c>
       <c r="J432" s="2"/>
       <c r="K432" s="18" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="L432" t="s">
         <v>1339</v>
@@ -34912,7 +34917,7 @@
         <v>285</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E433" s="7" t="s">
         <v>890</v>
@@ -34927,7 +34932,7 @@
       </c>
       <c r="J433" s="2"/>
       <c r="K433" s="18" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="L433" t="s">
         <v>1339</v>
@@ -34944,7 +34949,7 @@
         <v>920</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="E434" s="7" t="s">
         <v>890</v>
@@ -34959,7 +34964,7 @@
       </c>
       <c r="J434" s="2"/>
       <c r="K434" s="18" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="L434" t="s">
         <v>1339</v>
@@ -34970,7 +34975,7 @@
       <c r="B435" s="7"/>
       <c r="C435" s="2"/>
       <c r="D435" s="7" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="E435" s="7" t="s">
         <v>890</v>
@@ -34981,11 +34986,11 @@
       <c r="G435" s="2"/>
       <c r="H435" s="22"/>
       <c r="I435" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J435" s="2"/>
       <c r="K435" s="18" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="L435" t="s">
         <v>1339</v>
@@ -35017,7 +35022,7 @@
       </c>
       <c r="J436" s="2"/>
       <c r="K436" s="18" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="437" hidden="1" spans="1:11">
@@ -35046,7 +35051,7 @@
       </c>
       <c r="J437" s="2"/>
       <c r="K437" s="18" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="438" hidden="1" spans="1:11">
@@ -35075,7 +35080,7 @@
       </c>
       <c r="J438" s="2"/>
       <c r="K438" s="18" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="439" hidden="1" spans="1:11">
@@ -35104,7 +35109,7 @@
       </c>
       <c r="J439" s="2"/>
       <c r="K439" s="18" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="440" hidden="1" spans="1:11">
@@ -35133,7 +35138,7 @@
       </c>
       <c r="J440" s="2"/>
       <c r="K440" s="18" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="441" hidden="1" spans="1:11">
@@ -35162,7 +35167,7 @@
       </c>
       <c r="J441" s="2"/>
       <c r="K441" s="18" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="442" spans="1:16384">
@@ -35170,7 +35175,7 @@
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
       <c r="D442" s="43" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="E442" s="7" t="s">
         <v>890</v>
@@ -35181,11 +35186,11 @@
       <c r="G442" s="18"/>
       <c r="H442" s="22"/>
       <c r="I442" s="45" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J442" s="18"/>
       <c r="K442" s="18" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="L442" t="s">
         <v>1339</v>
@@ -51574,7 +51579,7 @@
         <v>1033</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="E443" s="7" t="s">
         <v>890</v>
@@ -51589,7 +51594,7 @@
       </c>
       <c r="J443" s="2"/>
       <c r="K443" s="18" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="444" hidden="1" spans="1:11">
@@ -51618,7 +51623,7 @@
       </c>
       <c r="J444" s="2"/>
       <c r="K444" s="18" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -51647,7 +51652,7 @@
       </c>
       <c r="J445" s="2"/>
       <c r="K445" s="18" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="L445" t="s">
         <v>1339</v>
@@ -51679,7 +51684,7 @@
       </c>
       <c r="J446" s="2"/>
       <c r="K446" s="18" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="447" hidden="1" spans="1:11">
@@ -51708,7 +51713,7 @@
       </c>
       <c r="J447" s="2"/>
       <c r="K447" s="18" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -51737,7 +51742,7 @@
       </c>
       <c r="J448" s="2"/>
       <c r="K448" s="18" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="L448" t="s">
         <v>1339</v>
@@ -51769,7 +51774,7 @@
       </c>
       <c r="J449" s="2"/>
       <c r="K449" s="18" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="450" hidden="1" spans="1:11">
@@ -51798,7 +51803,7 @@
       </c>
       <c r="J450" s="2"/>
       <c r="K450" s="18" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="451" hidden="1" spans="1:11">
@@ -51827,7 +51832,7 @@
       </c>
       <c r="J451" s="2"/>
       <c r="K451" s="18" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -51841,7 +51846,7 @@
         <v>1050</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="E452" s="7" t="s">
         <v>890</v>
@@ -51856,7 +51861,7 @@
       </c>
       <c r="J452" s="2"/>
       <c r="K452" s="46" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="L452" t="s">
         <v>1339</v>
@@ -51873,7 +51878,7 @@
         <v>931</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="E453" s="7" t="s">
         <v>890</v>
@@ -51884,13 +51889,13 @@
       <c r="G453" s="2"/>
       <c r="H453" s="22"/>
       <c r="I453" s="3" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K453" s="20" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="L453" t="s">
         <v>1339</v>
@@ -51901,7 +51906,7 @@
       <c r="B454" s="7"/>
       <c r="C454" s="2"/>
       <c r="D454" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="E454" s="7" t="s">
         <v>890</v>
@@ -51912,11 +51917,11 @@
       <c r="G454" s="2"/>
       <c r="H454" s="22"/>
       <c r="I454" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J454" s="2"/>
       <c r="K454" s="47" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="L454" t="s">
         <v>1339</v>
@@ -51948,7 +51953,7 @@
       </c>
       <c r="J455" s="2"/>
       <c r="K455" s="18" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="L455" t="s">
         <v>1339</v>
@@ -51980,7 +51985,7 @@
       </c>
       <c r="J456" s="2"/>
       <c r="K456" s="18" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="L456" t="s">
         <v>1339</v>
@@ -52012,7 +52017,7 @@
       </c>
       <c r="J457" s="2"/>
       <c r="K457" s="18" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -52037,11 +52042,11 @@
       <c r="G458" s="2"/>
       <c r="H458" s="22"/>
       <c r="I458" s="2" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J458" s="2"/>
       <c r="K458" s="18" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="L458" t="s">
         <v>1339</v>
@@ -52073,7 +52078,7 @@
       </c>
       <c r="J459" s="2"/>
       <c r="K459" s="18" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="460" hidden="1" spans="1:11">
@@ -52087,7 +52092,7 @@
         <v>937</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E460" s="7" t="s">
         <v>890</v>
@@ -52102,7 +52107,7 @@
       </c>
       <c r="J460" s="2"/>
       <c r="K460" s="18" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="461" hidden="1" spans="1:11">
@@ -52131,7 +52136,7 @@
       </c>
       <c r="J461" s="2"/>
       <c r="K461" s="18" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="462" hidden="1" spans="1:11">
@@ -52160,7 +52165,7 @@
       </c>
       <c r="J462" s="2"/>
       <c r="K462" s="18" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -52189,7 +52194,7 @@
       </c>
       <c r="J463" s="2"/>
       <c r="K463" s="45" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="L463" t="s">
         <v>1339</v>
@@ -52206,7 +52211,7 @@
         <v>1069</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="E464" s="7" t="s">
         <v>890</v>
@@ -52221,7 +52226,7 @@
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="18" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="L464" t="s">
         <v>1339</v>
@@ -52232,7 +52237,7 @@
       <c r="B465" s="7"/>
       <c r="C465" s="2"/>
       <c r="D465" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>890</v>
@@ -52243,11 +52248,11 @@
       <c r="G465" s="2"/>
       <c r="H465" s="22"/>
       <c r="I465" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="18" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="L465" t="s">
         <v>1339</v>
@@ -52264,7 +52269,7 @@
         <v>1071</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="E466" s="7" t="s">
         <v>890</v>
@@ -52279,7 +52284,7 @@
       </c>
       <c r="J466" s="2"/>
       <c r="K466" s="46" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -52293,7 +52298,7 @@
         <v>300</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>890</v>
@@ -52308,7 +52313,7 @@
       </c>
       <c r="J467" s="2"/>
       <c r="K467" s="18" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="L467" t="s">
         <v>1339</v>
@@ -52325,7 +52330,7 @@
         <v>1074</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E468" s="7" t="s">
         <v>890</v>
@@ -52336,13 +52341,13 @@
       <c r="G468" s="2"/>
       <c r="H468" s="25"/>
       <c r="I468" s="3" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K468" s="18" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="L468" t="s">
         <v>1339</v>
@@ -52378,7 +52383,7 @@
       </c>
       <c r="J469" s="2"/>
       <c r="K469" s="18" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="470" hidden="1" spans="1:11">
@@ -52409,7 +52414,7 @@
       </c>
       <c r="J470" s="2"/>
       <c r="K470" s="18" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="471" hidden="1" spans="1:11">
@@ -52440,7 +52445,7 @@
       </c>
       <c r="J471" s="2"/>
       <c r="K471" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="472" hidden="1" spans="1:11">
@@ -52471,7 +52476,7 @@
       </c>
       <c r="J472" s="2"/>
       <c r="K472" s="2" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="473" hidden="1" spans="1:11">
@@ -52498,11 +52503,11 @@
       </c>
       <c r="H473" s="22"/>
       <c r="I473" s="2" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="J473" s="2"/>
       <c r="K473" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="474" hidden="1" spans="1:11">
@@ -52533,7 +52538,7 @@
       </c>
       <c r="J474" s="2"/>
       <c r="K474" s="18" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="475" hidden="1" spans="1:11">
@@ -52560,11 +52565,11 @@
       </c>
       <c r="H475" s="22"/>
       <c r="I475" s="2" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="J475" s="2"/>
       <c r="K475" s="18" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="476" hidden="1" spans="1:11">
@@ -52591,11 +52596,11 @@
       </c>
       <c r="H476" s="22"/>
       <c r="I476" s="2" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="J476" s="2"/>
       <c r="K476" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="477" hidden="1" spans="1:11">
@@ -52638,7 +52643,7 @@
         <v>215</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>198</v>
@@ -52655,7 +52660,7 @@
       </c>
       <c r="J478" s="2"/>
       <c r="K478" s="18" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="479" hidden="1" spans="1:11">
@@ -52686,7 +52691,7 @@
       </c>
       <c r="J479" s="2"/>
       <c r="K479" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="480" hidden="1" customHeight="1" spans="1:11">
@@ -52717,7 +52722,7 @@
       </c>
       <c r="J480" s="2"/>
       <c r="K480" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="481" hidden="1" spans="1:11">
@@ -52748,7 +52753,7 @@
       </c>
       <c r="J481" s="2"/>
       <c r="K481" s="3" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="482" hidden="1" spans="1:11">
@@ -52762,7 +52767,7 @@
         <v>223</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>198</v>
@@ -52775,11 +52780,11 @@
       </c>
       <c r="H482" s="22"/>
       <c r="I482" s="2" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="J482" s="2"/>
       <c r="K482" s="2" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="483" hidden="1" spans="1:11">
@@ -52810,7 +52815,7 @@
       </c>
       <c r="J483" s="2"/>
       <c r="K483" s="2" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="484" hidden="1" spans="1:11">
@@ -52841,7 +52846,7 @@
       </c>
       <c r="J484" s="2"/>
       <c r="K484" s="2" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="485" hidden="1" spans="1:11">
@@ -52872,7 +52877,7 @@
       </c>
       <c r="J485" s="2"/>
       <c r="K485" s="2" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="486" hidden="1" spans="1:11">
@@ -52899,11 +52904,11 @@
       </c>
       <c r="H486" s="22"/>
       <c r="I486" s="3" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="J486" s="2"/>
       <c r="K486" s="14" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="487" hidden="1" spans="1:11">
@@ -52934,7 +52939,7 @@
       </c>
       <c r="J487" s="2"/>
       <c r="K487" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="488" hidden="1" spans="1:11">
@@ -52961,11 +52966,11 @@
       </c>
       <c r="H488" s="22"/>
       <c r="I488" s="3" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="489" hidden="1" spans="1:11">
@@ -52992,11 +52997,11 @@
       </c>
       <c r="H489" s="22"/>
       <c r="I489" s="34" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J489" s="2"/>
       <c r="K489" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="490" hidden="1" spans="1:11">
@@ -53027,7 +53032,7 @@
       </c>
       <c r="J490" s="2"/>
       <c r="K490" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="491" hidden="1" spans="1:11">
@@ -53054,7 +53059,7 @@
       </c>
       <c r="H491" s="22"/>
       <c r="I491" s="34" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
@@ -53083,11 +53088,11 @@
       </c>
       <c r="H492" s="22"/>
       <c r="I492" s="34" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J492" s="2"/>
       <c r="K492" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="493" hidden="1" spans="1:11">
@@ -53114,11 +53119,11 @@
       </c>
       <c r="H493" s="22"/>
       <c r="I493" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J493" s="2"/>
       <c r="K493" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="494" hidden="1" spans="1:11">
@@ -53149,7 +53154,7 @@
       </c>
       <c r="J494" s="2"/>
       <c r="K494" s="3" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="495" hidden="1" spans="1:11">
@@ -53176,11 +53181,11 @@
       </c>
       <c r="H495" s="22"/>
       <c r="I495" s="34" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J495" s="2"/>
       <c r="K495" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="496" hidden="1" spans="1:11">
@@ -53207,11 +53212,11 @@
       </c>
       <c r="H496" s="22"/>
       <c r="I496" s="34" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J496" s="2"/>
       <c r="K496" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="497" hidden="1" spans="1:11">
@@ -53238,11 +53243,11 @@
       </c>
       <c r="H497" s="22"/>
       <c r="I497" s="34" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J497" s="2"/>
       <c r="K497" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="498" hidden="1" spans="1:11">
@@ -53273,7 +53278,7 @@
       </c>
       <c r="J498" s="2"/>
       <c r="K498" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="499" hidden="1" spans="1:11">
@@ -53300,11 +53305,11 @@
       </c>
       <c r="H499" s="22"/>
       <c r="I499" s="3" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="J499" s="2"/>
       <c r="K499" s="2" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="500" hidden="1" spans="1:11">
@@ -53331,11 +53336,11 @@
       </c>
       <c r="H500" s="22"/>
       <c r="I500" s="34" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="2" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="501" hidden="1" spans="1:11">
@@ -53362,11 +53367,11 @@
       </c>
       <c r="H501" s="22"/>
       <c r="I501" s="3" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="J501" s="2"/>
       <c r="K501" s="2" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="502" hidden="1" spans="1:11">
@@ -53393,7 +53398,7 @@
       </c>
       <c r="H502" s="22"/>
       <c r="I502" s="34" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
@@ -53420,13 +53425,13 @@
       <c r="G503" s="2"/>
       <c r="H503" s="22"/>
       <c r="I503" s="3" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K503" s="49" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="L503" t="s">
         <v>1139</v>
@@ -53458,7 +53463,7 @@
       </c>
       <c r="J504" s="2"/>
       <c r="K504" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="505" hidden="1" spans="1:12">
@@ -53483,13 +53488,13 @@
       <c r="G505" s="2"/>
       <c r="H505" s="22"/>
       <c r="I505" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J505" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="K505" s="14" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="L505" t="s">
         <v>1139</v>
@@ -53517,13 +53522,13 @@
       <c r="G506" s="2"/>
       <c r="H506" s="22"/>
       <c r="I506" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="K506" s="14" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="L506" t="s">
         <v>1139</v>
@@ -53557,7 +53562,7 @@
         <v>1171</v>
       </c>
       <c r="K507" s="14" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="L507" t="s">
         <v>1139</v>
@@ -53591,7 +53596,7 @@
         <v>1171</v>
       </c>
       <c r="K508" s="2" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="L508" t="s">
         <v>1139</v>
@@ -53625,7 +53630,7 @@
         <v>1171</v>
       </c>
       <c r="K509" s="14" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="L509" t="s">
         <v>1139</v>
@@ -53653,11 +53658,11 @@
       <c r="G510" s="2"/>
       <c r="H510" s="22"/>
       <c r="I510" s="3" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="511" hidden="1" spans="1:12">
@@ -53688,7 +53693,7 @@
         <v>1171</v>
       </c>
       <c r="K511" s="14" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="L511" t="s">
         <v>1139</v>
@@ -53716,13 +53721,13 @@
       <c r="G512" s="2"/>
       <c r="H512" s="22"/>
       <c r="I512" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J512" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="K512" s="14" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="L512" t="s">
         <v>1139</v>
@@ -53733,7 +53738,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="3" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>198</v>
@@ -53747,10 +53752,10 @@
         <v>1276</v>
       </c>
       <c r="J513" s="2" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="K513" s="14" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="L513" t="s">
         <v>1139</v>
@@ -53761,7 +53766,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="3" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>198</v>
@@ -53775,10 +53780,10 @@
         <v>1276</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="K514" s="14" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="L514" t="s">
         <v>1139</v>
@@ -53806,10 +53811,10 @@
       <c r="G515" s="2"/>
       <c r="H515" s="22"/>
       <c r="I515" s="3" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="J515" s="2" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="K515" s="2"/>
       <c r="L515" t="s">
@@ -53827,7 +53832,7 @@
         <v>285</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -53838,11 +53843,11 @@
       <c r="G516" s="2"/>
       <c r="H516" s="22"/>
       <c r="I516" s="48" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="14" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="L516" t="s">
         <v>1139</v>
@@ -53853,7 +53858,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="3" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>198</v>
@@ -53864,11 +53869,11 @@
       <c r="G517" s="2"/>
       <c r="H517" s="22"/>
       <c r="I517" s="48" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="14" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="L517" t="s">
         <v>1139</v>
@@ -53900,7 +53905,7 @@
       </c>
       <c r="J518" s="2"/>
       <c r="K518" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="519" hidden="1" spans="1:12">
@@ -53931,7 +53936,7 @@
         <v>1137</v>
       </c>
       <c r="K519" s="14" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="L519" t="s">
         <v>1139</v>
@@ -53959,13 +53964,13 @@
       <c r="G520" s="2"/>
       <c r="H520" s="22"/>
       <c r="I520" s="48" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="K520" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="L520" t="s">
         <v>1139</v>
@@ -53993,13 +53998,13 @@
       <c r="G521" s="2"/>
       <c r="H521" s="22"/>
       <c r="I521" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="K521" s="14" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="L521" t="s">
         <v>1139</v>
@@ -54031,7 +54036,7 @@
       </c>
       <c r="J522" s="2"/>
       <c r="K522" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="523" hidden="1" spans="1:11">
@@ -54060,7 +54065,7 @@
       </c>
       <c r="J523" s="2"/>
       <c r="K523" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="524" hidden="1" spans="1:11">
@@ -54089,7 +54094,7 @@
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="525" hidden="1" spans="1:12">
@@ -54114,13 +54119,13 @@
       <c r="G525" s="2"/>
       <c r="H525" s="22"/>
       <c r="I525" s="3" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="K525" s="14" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="L525" t="s">
         <v>1139</v>
@@ -54137,7 +54142,7 @@
         <v>295</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>198</v>
@@ -54148,13 +54153,13 @@
       <c r="G526" s="2"/>
       <c r="H526" s="22"/>
       <c r="I526" s="3" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>1137</v>
       </c>
       <c r="K526" s="14" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="L526" t="s">
         <v>1139</v>
@@ -54186,7 +54191,7 @@
       </c>
       <c r="J527" s="2"/>
       <c r="K527" s="2" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="528" hidden="1" spans="1:12">
@@ -54211,13 +54216,13 @@
       <c r="G528" s="2"/>
       <c r="H528" s="22"/>
       <c r="I528" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J528" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="L528" t="s">
         <v>1139</v>
@@ -54245,13 +54250,13 @@
       <c r="G529" s="2"/>
       <c r="H529" s="22"/>
       <c r="I529" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="J529" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="K529" s="14" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="L529" t="s">
         <v>1139</v>
@@ -54268,7 +54273,7 @@
         <v>300</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>198</v>
@@ -54279,11 +54284,11 @@
       <c r="G530" s="2"/>
       <c r="H530" s="22"/>
       <c r="I530" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="J530" s="2"/>
       <c r="K530" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="531" hidden="1" spans="1:12">
@@ -54291,7 +54296,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>198</v>
@@ -54306,7 +54311,7 @@
         <v>1137</v>
       </c>
       <c r="K531" s="14" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="L531" t="s">
         <v>1139</v>
@@ -54334,13 +54339,13 @@
       <c r="G532" s="2"/>
       <c r="H532" s="22"/>
       <c r="I532" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J532" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="K532" s="14" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="L532" t="s">
         <v>1139</v>
@@ -54368,13 +54373,13 @@
       <c r="G533" s="2"/>
       <c r="H533" s="25"/>
       <c r="I533" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J533" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="K533" s="14" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="L533" t="s">
         <v>1139</v>
@@ -54403,10 +54408,10 @@
         <v>1</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
@@ -54434,10 +54439,10 @@
         <v>1</v>
       </c>
       <c r="H535" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I535" s="3" t="s">
         <v>1824</v>
-      </c>
-      <c r="I535" s="3" t="s">
-        <v>1823</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
@@ -54465,10 +54470,10 @@
         <v>1</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
@@ -54496,10 +54501,10 @@
         <v>1</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -54527,10 +54532,10 @@
         <v>1</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
@@ -54558,10 +54563,10 @@
         <v>1</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
@@ -54589,10 +54594,10 @@
         <v>1</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
@@ -54620,10 +54625,10 @@
         <v>1</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
@@ -54651,10 +54656,10 @@
         <v>1</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
@@ -54682,10 +54687,10 @@
         <v>1</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
@@ -54713,10 +54718,10 @@
         <v>1</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
@@ -54744,10 +54749,10 @@
         <v>1</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
@@ -54775,10 +54780,10 @@
         <v>1</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
@@ -54806,10 +54811,10 @@
         <v>1</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
@@ -54837,10 +54842,10 @@
         <v>1</v>
       </c>
       <c r="H548" s="3" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
@@ -54868,10 +54873,10 @@
         <v>1</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
@@ -54899,10 +54904,10 @@
         <v>1</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
@@ -54930,10 +54935,10 @@
         <v>1</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
@@ -54961,10 +54966,10 @@
         <v>1</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -54992,10 +54997,10 @@
         <v>1</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
@@ -55023,10 +55028,10 @@
         <v>1</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
@@ -55042,7 +55047,7 @@
         <v>438</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>404</v>
@@ -55054,14 +55059,14 @@
         <v>1</v>
       </c>
       <c r="H555" s="21" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="18" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="556" hidden="1" spans="1:11">
@@ -55075,7 +55080,7 @@
         <v>438</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>404</v>
@@ -55088,11 +55093,11 @@
       </c>
       <c r="H556" s="22"/>
       <c r="I556" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J556" s="2"/>
       <c r="K556" s="18" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="557" hidden="1" spans="1:11">
@@ -55106,7 +55111,7 @@
         <v>438</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>404</v>
@@ -55119,11 +55124,11 @@
       </c>
       <c r="H557" s="22"/>
       <c r="I557" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="18" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="558" hidden="1" spans="1:11">
@@ -55137,7 +55142,7 @@
         <v>440</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>404</v>
@@ -55150,11 +55155,11 @@
       </c>
       <c r="H558" s="22"/>
       <c r="I558" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J558" s="2"/>
       <c r="K558" s="18" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="559" hidden="1" spans="1:11">
@@ -55168,7 +55173,7 @@
         <v>440</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>404</v>
@@ -55181,11 +55186,11 @@
       </c>
       <c r="H559" s="22"/>
       <c r="I559" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="18" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="560" hidden="1" spans="1:11">
@@ -55199,7 +55204,7 @@
         <v>440</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>404</v>
@@ -55212,11 +55217,11 @@
       </c>
       <c r="H560" s="22"/>
       <c r="I560" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="J560" s="2"/>
       <c r="K560" s="18" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="561" hidden="1" spans="1:11">
@@ -55230,7 +55235,7 @@
         <v>442</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>404</v>
@@ -55243,11 +55248,11 @@
       </c>
       <c r="H561" s="22"/>
       <c r="I561" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="18" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="562" hidden="1" spans="1:11">
@@ -55261,7 +55266,7 @@
         <v>442</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>404</v>
@@ -55274,11 +55279,11 @@
       </c>
       <c r="H562" s="22"/>
       <c r="I562" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="18" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="563" hidden="1" spans="1:11">
@@ -55292,7 +55297,7 @@
         <v>442</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>404</v>
@@ -55305,11 +55310,11 @@
       </c>
       <c r="H563" s="22"/>
       <c r="I563" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J563" s="2"/>
       <c r="K563" s="18" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="564" hidden="1" spans="1:11">
@@ -55323,7 +55328,7 @@
         <v>444</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>404</v>
@@ -55336,11 +55341,11 @@
       </c>
       <c r="H564" s="22"/>
       <c r="I564" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="18" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="565" hidden="1" spans="1:11">
@@ -55354,7 +55359,7 @@
         <v>444</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>404</v>
@@ -55367,11 +55372,11 @@
       </c>
       <c r="H565" s="22"/>
       <c r="I565" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J565" s="2"/>
       <c r="K565" s="18" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="566" hidden="1" spans="1:11">
@@ -55385,7 +55390,7 @@
         <v>444</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>404</v>
@@ -55402,7 +55407,7 @@
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="18" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="567" hidden="1" spans="1:11">
@@ -55416,7 +55421,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>404</v>
@@ -55433,7 +55438,7 @@
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="18" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="568" hidden="1" spans="1:11">
@@ -55447,7 +55452,7 @@
         <v>446</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>404</v>
@@ -55460,11 +55465,11 @@
       </c>
       <c r="H568" s="22"/>
       <c r="I568" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J568" s="2"/>
       <c r="K568" s="18" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="569" ht="16.5" hidden="1" spans="1:11">
@@ -55478,7 +55483,7 @@
         <v>446</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>404</v>
@@ -55491,11 +55496,11 @@
       </c>
       <c r="H569" s="22"/>
       <c r="I569" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="50" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="570" hidden="1" spans="1:11">
@@ -55509,7 +55514,7 @@
         <v>448</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>404</v>
@@ -55522,11 +55527,11 @@
       </c>
       <c r="H570" s="22"/>
       <c r="I570" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="18" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="571" hidden="1" spans="1:11">
@@ -55540,7 +55545,7 @@
         <v>448</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>404</v>
@@ -55557,7 +55562,7 @@
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="18" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="572" hidden="1" spans="1:11">
@@ -55571,7 +55576,7 @@
         <v>448</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>404</v>
@@ -55584,11 +55589,11 @@
       </c>
       <c r="H572" s="22"/>
       <c r="I572" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="18" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="573" hidden="1" spans="1:11">
@@ -55602,7 +55607,7 @@
         <v>434</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>404</v>
@@ -55619,7 +55624,7 @@
       </c>
       <c r="J573" s="2"/>
       <c r="K573" s="18" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="574" hidden="1" spans="1:11">
@@ -55633,7 +55638,7 @@
         <v>434</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>404</v>
@@ -55650,7 +55655,7 @@
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="18" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="575" hidden="1" spans="1:11">
@@ -55664,7 +55669,7 @@
         <v>434</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>404</v>
@@ -55681,7 +55686,7 @@
       </c>
       <c r="J575" s="2"/>
       <c r="K575" s="18" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="576" ht="16.5" hidden="1" spans="1:11">
@@ -55695,7 +55700,7 @@
         <v>434</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>404</v>
@@ -55712,7 +55717,7 @@
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="50" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="577" hidden="1" spans="1:11">
@@ -55726,7 +55731,7 @@
         <v>451</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>404</v>
@@ -55743,7 +55748,7 @@
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="18" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="578" hidden="1" spans="1:11">
@@ -55757,7 +55762,7 @@
         <v>451</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>404</v>
@@ -55770,11 +55775,11 @@
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J578" s="2"/>
       <c r="K578" s="45" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="579" hidden="1" spans="1:11">
@@ -55788,7 +55793,7 @@
         <v>451</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>404</v>
@@ -55805,7 +55810,7 @@
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="45" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="580" hidden="1" spans="1:11">
@@ -55819,7 +55824,7 @@
         <v>453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>404</v>
@@ -55832,11 +55837,11 @@
       </c>
       <c r="H580" s="22"/>
       <c r="I580" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="18" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="581" hidden="1" spans="1:11">
@@ -55850,7 +55855,7 @@
         <v>453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>404</v>
@@ -55863,11 +55868,11 @@
       </c>
       <c r="H581" s="22"/>
       <c r="I581" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="18" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="582" ht="16.5" hidden="1" spans="1:11">
@@ -55881,7 +55886,7 @@
         <v>453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>404</v>
@@ -55894,11 +55899,11 @@
       </c>
       <c r="H582" s="22"/>
       <c r="I582" s="3" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="50" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="583" hidden="1" spans="1:11">
@@ -55912,7 +55917,7 @@
         <v>455</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>404</v>
@@ -55929,7 +55934,7 @@
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="18" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="584" hidden="1" spans="1:11">
@@ -55943,7 +55948,7 @@
         <v>455</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>404</v>
@@ -55960,7 +55965,7 @@
       </c>
       <c r="J584" s="2"/>
       <c r="K584" s="18" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="585" hidden="1" spans="1:11">
@@ -55974,7 +55979,7 @@
         <v>455</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>404</v>
@@ -55987,11 +55992,11 @@
       </c>
       <c r="H585" s="22"/>
       <c r="I585" s="3" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="18" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="586" hidden="1" spans="1:11">
@@ -56005,7 +56010,7 @@
         <v>455</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>404</v>
@@ -56018,11 +56023,11 @@
       </c>
       <c r="H586" s="22"/>
       <c r="I586" s="3" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="J586" s="2"/>
       <c r="K586" s="18" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="587" hidden="1" spans="1:11">
@@ -56036,7 +56041,7 @@
         <v>457</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>404</v>
@@ -56049,11 +56054,11 @@
       </c>
       <c r="H587" s="22"/>
       <c r="I587" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="45" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="588" hidden="1" spans="1:11">
@@ -56067,7 +56072,7 @@
         <v>457</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>404</v>
@@ -56080,11 +56085,11 @@
       </c>
       <c r="H588" s="22"/>
       <c r="I588" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="18" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="589" hidden="1" spans="1:11">
@@ -56098,7 +56103,7 @@
         <v>459</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>404</v>
@@ -56111,11 +56116,11 @@
       </c>
       <c r="H589" s="22"/>
       <c r="I589" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J589" s="2"/>
       <c r="K589" s="18" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="590" hidden="1" spans="1:11">
@@ -56129,7 +56134,7 @@
         <v>459</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>404</v>
@@ -56142,11 +56147,11 @@
       </c>
       <c r="H590" s="22"/>
       <c r="I590" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="18" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="591" hidden="1" spans="1:11">
@@ -56160,7 +56165,7 @@
         <v>459</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>404</v>
@@ -56173,11 +56178,11 @@
       </c>
       <c r="H591" s="22"/>
       <c r="I591" s="3" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="J591" s="2"/>
       <c r="K591" s="18" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="592" hidden="1" spans="1:11">
@@ -56191,7 +56196,7 @@
         <v>461</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>404</v>
@@ -56204,11 +56209,11 @@
       </c>
       <c r="H592" s="22"/>
       <c r="I592" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="18" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="593" hidden="1" spans="1:11">
@@ -56222,7 +56227,7 @@
         <v>461</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>404</v>
@@ -56235,11 +56240,11 @@
       </c>
       <c r="H593" s="22"/>
       <c r="I593" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="18" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="594" hidden="1" spans="1:11">
@@ -56253,7 +56258,7 @@
         <v>461</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>404</v>
@@ -56266,11 +56271,11 @@
       </c>
       <c r="H594" s="22"/>
       <c r="I594" s="3" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="J594" s="2"/>
       <c r="K594" s="18" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="595" hidden="1" spans="1:11">
@@ -56284,7 +56289,7 @@
         <v>463</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>404</v>
@@ -56301,7 +56306,7 @@
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="18" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="596" hidden="1" spans="1:11">
@@ -56315,7 +56320,7 @@
         <v>463</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>404</v>
@@ -56332,7 +56337,7 @@
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="18" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="597" hidden="1" spans="1:11">
@@ -56346,7 +56351,7 @@
         <v>463</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>404</v>
@@ -56363,7 +56368,7 @@
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="18" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="598" hidden="1" spans="1:11">
@@ -56377,7 +56382,7 @@
         <v>465</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>404</v>
@@ -56390,11 +56395,11 @@
       </c>
       <c r="H598" s="22"/>
       <c r="I598" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="18" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="599" hidden="1" spans="1:11">
@@ -56408,7 +56413,7 @@
         <v>465</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>404</v>
@@ -56421,11 +56426,11 @@
       </c>
       <c r="H599" s="22"/>
       <c r="I599" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="18" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="600" ht="16.5" hidden="1" spans="1:11">
@@ -56439,7 +56444,7 @@
         <v>465</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>404</v>
@@ -56452,11 +56457,11 @@
       </c>
       <c r="H600" s="22"/>
       <c r="I600" s="3" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="J600" s="2"/>
       <c r="K600" s="50" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="601" hidden="1" spans="1:11">
@@ -56470,7 +56475,7 @@
         <v>467</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>404</v>
@@ -56483,11 +56488,11 @@
       </c>
       <c r="H601" s="22"/>
       <c r="I601" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J601" s="2"/>
       <c r="K601" s="18" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="602" hidden="1" spans="1:11">
@@ -56501,7 +56506,7 @@
         <v>467</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>404</v>
@@ -56514,11 +56519,11 @@
       </c>
       <c r="H602" s="22"/>
       <c r="I602" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J602" s="2"/>
       <c r="K602" s="18" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="603" hidden="1" spans="1:11">
@@ -56526,7 +56531,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="3" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>404</v>
@@ -56539,11 +56544,11 @@
       </c>
       <c r="H603" s="22"/>
       <c r="I603" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J603" s="2"/>
       <c r="K603" s="18" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="604" hidden="1" spans="1:11">
@@ -56557,7 +56562,7 @@
         <v>469</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>404</v>
@@ -56570,11 +56575,11 @@
       </c>
       <c r="H604" s="22"/>
       <c r="I604" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J604" s="2"/>
       <c r="K604" s="18" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="605" hidden="1" spans="1:11">
@@ -56588,7 +56593,7 @@
         <v>469</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>404</v>
@@ -56601,11 +56606,11 @@
       </c>
       <c r="H605" s="22"/>
       <c r="I605" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J605" s="2"/>
       <c r="K605" s="18" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="606" hidden="1" spans="1:11">
@@ -56619,7 +56624,7 @@
         <v>469</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>404</v>
@@ -56632,11 +56637,11 @@
       </c>
       <c r="H606" s="22"/>
       <c r="I606" s="3" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="J606" s="2"/>
       <c r="K606" s="18" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="607" hidden="1" spans="1:11">
@@ -56650,7 +56655,7 @@
         <v>471</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>404</v>
@@ -56663,11 +56668,11 @@
       </c>
       <c r="H607" s="22"/>
       <c r="I607" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J607" s="2"/>
       <c r="K607" s="18" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="608" hidden="1" spans="1:11">
@@ -56681,7 +56686,7 @@
         <v>471</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>404</v>
@@ -56698,7 +56703,7 @@
       </c>
       <c r="J608" s="2"/>
       <c r="K608" s="18" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="609" hidden="1" spans="1:11">
@@ -56712,7 +56717,7 @@
         <v>471</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>404</v>
@@ -56725,11 +56730,11 @@
       </c>
       <c r="H609" s="22"/>
       <c r="I609" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J609" s="2"/>
       <c r="K609" s="18" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="610" hidden="1" spans="1:11">
@@ -56743,7 +56748,7 @@
         <v>473</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>404</v>
@@ -56756,11 +56761,11 @@
       </c>
       <c r="H610" s="22"/>
       <c r="I610" s="3" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="J610" s="2"/>
       <c r="K610" s="18" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="611" hidden="1" spans="1:11">
@@ -56774,7 +56779,7 @@
         <v>473</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>404</v>
@@ -56787,11 +56792,11 @@
       </c>
       <c r="H611" s="22"/>
       <c r="I611" s="3" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="J611" s="2"/>
       <c r="K611" s="18" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="612" hidden="1" spans="1:11">
@@ -56805,7 +56810,7 @@
         <v>473</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>404</v>
@@ -56818,11 +56823,11 @@
       </c>
       <c r="H612" s="22"/>
       <c r="I612" s="3" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="J612" s="2"/>
       <c r="K612" s="18" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="613" hidden="1" spans="1:11">
@@ -56836,7 +56841,7 @@
         <v>475</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>404</v>
@@ -56849,11 +56854,11 @@
       </c>
       <c r="H613" s="22"/>
       <c r="I613" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J613" s="2"/>
       <c r="K613" s="18" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="614" hidden="1" spans="1:11">
@@ -56867,7 +56872,7 @@
         <v>475</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>404</v>
@@ -56880,11 +56885,11 @@
       </c>
       <c r="H614" s="22"/>
       <c r="I614" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J614" s="2"/>
       <c r="K614" s="18" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="615" hidden="1" spans="1:11">
@@ -56898,7 +56903,7 @@
         <v>475</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>404</v>
@@ -56911,11 +56916,11 @@
       </c>
       <c r="H615" s="22"/>
       <c r="I615" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J615" s="2"/>
       <c r="K615" s="18" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="616" hidden="1" spans="1:11">
@@ -56929,7 +56934,7 @@
         <v>477</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>404</v>
@@ -56942,11 +56947,11 @@
       </c>
       <c r="H616" s="22"/>
       <c r="I616" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J616" s="2"/>
       <c r="K616" s="18" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="617" hidden="1" spans="1:11">
@@ -56960,7 +56965,7 @@
         <v>477</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>404</v>
@@ -56977,7 +56982,7 @@
       </c>
       <c r="J617" s="2"/>
       <c r="K617" s="18" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="618" hidden="1" spans="1:11">
@@ -56991,7 +56996,7 @@
         <v>477</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>404</v>
@@ -57004,11 +57009,11 @@
       </c>
       <c r="H618" s="22"/>
       <c r="I618" s="3" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="18" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="619" hidden="1" spans="1:11">
@@ -57022,7 +57027,7 @@
         <v>479</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>404</v>
@@ -57039,7 +57044,7 @@
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="18" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="620" hidden="1" spans="1:11">
@@ -57053,7 +57058,7 @@
         <v>479</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>404</v>
@@ -57066,11 +57071,11 @@
       </c>
       <c r="H620" s="22"/>
       <c r="I620" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J620" s="2"/>
       <c r="K620" s="18" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="621" hidden="1" spans="1:11">
@@ -57084,7 +57089,7 @@
         <v>479</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>404</v>
@@ -57097,11 +57102,11 @@
       </c>
       <c r="H621" s="22"/>
       <c r="I621" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J621" s="2"/>
       <c r="K621" s="18" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="622" hidden="1" spans="1:11">
@@ -57115,7 +57120,7 @@
         <v>481</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>404</v>
@@ -57128,11 +57133,11 @@
       </c>
       <c r="H622" s="22"/>
       <c r="I622" s="3" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="J622" s="2"/>
       <c r="K622" s="18" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="623" hidden="1" spans="1:11">
@@ -57146,7 +57151,7 @@
         <v>481</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>404</v>
@@ -57159,11 +57164,11 @@
       </c>
       <c r="H623" s="22"/>
       <c r="I623" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J623" s="2"/>
       <c r="K623" s="18" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="624" ht="16.5" hidden="1" spans="1:11">
@@ -57177,7 +57182,7 @@
         <v>481</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>404</v>
@@ -57190,11 +57195,11 @@
       </c>
       <c r="H624" s="22"/>
       <c r="I624" s="3" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="J624" s="2"/>
       <c r="K624" s="50" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="625" hidden="1" spans="1:11">
@@ -57208,7 +57213,7 @@
         <v>483</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>404</v>
@@ -57221,11 +57226,11 @@
       </c>
       <c r="H625" s="22"/>
       <c r="I625" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J625" s="2"/>
       <c r="K625" s="18" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="626" hidden="1" spans="1:11">
@@ -57239,7 +57244,7 @@
         <v>483</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>404</v>
@@ -57252,11 +57257,11 @@
       </c>
       <c r="H626" s="22"/>
       <c r="I626" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J626" s="2"/>
       <c r="K626" s="18" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="627" ht="16.5" hidden="1" spans="1:11">
@@ -57270,7 +57275,7 @@
         <v>483</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>404</v>
@@ -57283,11 +57288,11 @@
       </c>
       <c r="H627" s="22"/>
       <c r="I627" s="3" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="J627" s="2"/>
       <c r="K627" s="50" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="628" hidden="1" spans="1:11">
@@ -57301,7 +57306,7 @@
         <v>291</v>
       </c>
       <c r="D628" s="27" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>404</v>
@@ -57314,11 +57319,11 @@
       </c>
       <c r="H628" s="22"/>
       <c r="I628" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J628" s="2"/>
       <c r="K628" s="18" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="629" hidden="1" spans="1:11">
@@ -57332,7 +57337,7 @@
         <v>291</v>
       </c>
       <c r="D629" s="27" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>404</v>
@@ -57345,11 +57350,11 @@
       </c>
       <c r="H629" s="22"/>
       <c r="I629" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J629" s="2"/>
       <c r="K629" s="18" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="630" hidden="1" spans="1:11">
@@ -57363,7 +57368,7 @@
         <v>291</v>
       </c>
       <c r="D630" s="27" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>404</v>
@@ -57376,11 +57381,11 @@
       </c>
       <c r="H630" s="22"/>
       <c r="I630" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J630" s="2"/>
       <c r="K630" s="18" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="631" hidden="1" spans="1:11">
@@ -57394,7 +57399,7 @@
         <v>486</v>
       </c>
       <c r="D631" s="27" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>404</v>
@@ -57407,11 +57412,11 @@
       </c>
       <c r="H631" s="22"/>
       <c r="I631" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J631" s="2"/>
       <c r="K631" s="18" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="632" hidden="1" spans="1:11">
@@ -57425,7 +57430,7 @@
         <v>486</v>
       </c>
       <c r="D632" s="27" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>404</v>
@@ -57438,11 +57443,11 @@
       </c>
       <c r="H632" s="22"/>
       <c r="I632" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J632" s="2"/>
       <c r="K632" s="18" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="633" hidden="1" spans="1:11">
@@ -57456,7 +57461,7 @@
         <v>486</v>
       </c>
       <c r="D633" s="27" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>404</v>
@@ -57469,11 +57474,11 @@
       </c>
       <c r="H633" s="22"/>
       <c r="I633" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="18" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="634" ht="16.5" hidden="1" spans="1:11">
@@ -57487,7 +57492,7 @@
         <v>488</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>404</v>
@@ -57500,11 +57505,11 @@
       </c>
       <c r="H634" s="22"/>
       <c r="I634" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J634" s="2"/>
       <c r="K634" s="16" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="635" hidden="1" spans="1:11">
@@ -57518,7 +57523,7 @@
         <v>488</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>404</v>
@@ -57531,11 +57536,11 @@
       </c>
       <c r="H635" s="22"/>
       <c r="I635" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="18" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="636" hidden="1" spans="1:11">
@@ -57549,7 +57554,7 @@
         <v>488</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>404</v>
@@ -57562,11 +57567,11 @@
       </c>
       <c r="H636" s="22"/>
       <c r="I636" s="3" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="18" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="637" hidden="1" spans="1:11">
@@ -57580,7 +57585,7 @@
         <v>490</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>404</v>
@@ -57597,7 +57602,7 @@
       </c>
       <c r="J637" s="2"/>
       <c r="K637" s="18" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="638" hidden="1" spans="1:11">
@@ -57611,7 +57616,7 @@
         <v>490</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>404</v>
@@ -57628,7 +57633,7 @@
       </c>
       <c r="J638" s="2"/>
       <c r="K638" s="18" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="639" hidden="1" spans="1:11">
@@ -57642,7 +57647,7 @@
         <v>490</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>404</v>
@@ -57655,11 +57660,11 @@
       </c>
       <c r="H639" s="22"/>
       <c r="I639" s="3" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="J639" s="2"/>
       <c r="K639" s="18" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="640" hidden="1" spans="1:11">
@@ -57673,7 +57678,7 @@
         <v>492</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>404</v>
@@ -57686,11 +57691,11 @@
       </c>
       <c r="H640" s="22"/>
       <c r="I640" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J640" s="2"/>
       <c r="K640" s="18" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="641" hidden="1" spans="1:11">
@@ -57704,7 +57709,7 @@
         <v>492</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>404</v>
@@ -57717,11 +57722,11 @@
       </c>
       <c r="H641" s="22"/>
       <c r="I641" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="J641" s="2"/>
       <c r="K641" s="18" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="642" hidden="1" spans="1:11">
@@ -57735,7 +57740,7 @@
         <v>492</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>404</v>
@@ -57748,11 +57753,11 @@
       </c>
       <c r="H642" s="22"/>
       <c r="I642" s="3" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="J642" s="2"/>
       <c r="K642" s="18" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="643" hidden="1" spans="1:11">
@@ -57766,7 +57771,7 @@
         <v>494</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>404</v>
@@ -57779,11 +57784,11 @@
       </c>
       <c r="H643" s="22"/>
       <c r="I643" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J643" s="2"/>
       <c r="K643" s="18" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="644" hidden="1" spans="1:11">
@@ -57797,7 +57802,7 @@
         <v>494</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>404</v>
@@ -57810,11 +57815,11 @@
       </c>
       <c r="H644" s="22"/>
       <c r="I644" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J644" s="2"/>
       <c r="K644" s="18" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="645" hidden="1" spans="1:11">
@@ -57828,7 +57833,7 @@
         <v>494</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>404</v>
@@ -57841,11 +57846,11 @@
       </c>
       <c r="H645" s="22"/>
       <c r="I645" s="3" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="J645" s="2"/>
       <c r="K645" s="18" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="646" hidden="1" spans="1:11">
@@ -57859,7 +57864,7 @@
         <v>496</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>404</v>
@@ -57876,7 +57881,7 @@
       </c>
       <c r="J646" s="2"/>
       <c r="K646" s="18" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="647" hidden="1" spans="1:11">
@@ -57890,7 +57895,7 @@
         <v>496</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>404</v>
@@ -57903,11 +57908,11 @@
       </c>
       <c r="H647" s="22"/>
       <c r="I647" s="3" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="J647" s="2"/>
       <c r="K647" s="18" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="648" ht="16.5" hidden="1" spans="1:11">
@@ -57921,7 +57926,7 @@
         <v>496</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>404</v>
@@ -57934,11 +57939,11 @@
       </c>
       <c r="H648" s="25"/>
       <c r="I648" s="3" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="J648" s="2"/>
       <c r="K648" s="50" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
   </sheetData>
@@ -58144,7 +58149,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -58155,7 +58160,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -58166,7 +58171,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -58177,7 +58182,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -58188,7 +58193,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -58199,7 +58204,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -58210,18 +58215,18 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -58232,7 +58237,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -58243,7 +58248,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -58254,18 +58259,18 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B12" s="4">
         <v>15</v>
@@ -58276,7 +58281,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -58287,7 +58292,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -58298,18 +58303,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -58320,7 +58325,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -58331,18 +58336,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -58353,18 +58358,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B20" s="4">
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -58375,7 +58380,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -58386,7 +58391,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -58397,7 +58402,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -58408,7 +58413,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -58419,13 +58424,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B26">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -58495,22 +58500,22 @@
         <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -58618,7 +58623,7 @@
         <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58747,7 +58752,7 @@
         <v>381</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58883,7 +58888,7 @@
         <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="C11" t="s">
         <v>401</v>
@@ -58940,7 +58945,7 @@
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
@@ -59087,10 +59092,10 @@
         <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="D2" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -59213,91 +59218,91 @@
         <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="D17" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="E17" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="F17" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="G17" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="H17" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="I17" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="J17" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="K17" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="L17" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="M17" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="N17" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="O17" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="P17" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="Q17" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="R17" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="S17" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="T17" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="U17" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="V17" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="W17" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="X17" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="Y17" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="Z17" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="AA17" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="AB17" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="AC17" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="AD17" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="AE17" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -59308,7 +59313,7 @@
         <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -59324,61 +59329,61 @@
         <v>810</v>
       </c>
       <c r="C20" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D20" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="E20" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="F20" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="G20" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="H20" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="I20" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="J20" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="K20" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="L20" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="M20" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="N20" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="O20" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="P20" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="Q20" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="R20" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="S20" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="T20" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="U20" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -59389,103 +59394,103 @@
         <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="D21" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="E21" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="F21" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="G21" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="H21" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="I21" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="J21" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="K21" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="L21" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="M21" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="N21" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="O21" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="P21" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="Q21" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="R21" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="S21" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="T21" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="U21" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="V21" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="W21" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="X21" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="Y21" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="Z21" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="AA21" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="AB21" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="AC21" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="AD21" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="AE21" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="AF21" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="AG21" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="AH21" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="AI21" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -59552,16 +59557,16 @@
         <v>741</v>
       </c>
       <c r="C29" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="D29" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="E29" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="F29" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -59601,7 +59606,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -59612,88 +59617,88 @@
         <v>551</v>
       </c>
       <c r="C35" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="D35" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="E35" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="F35" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="G35" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H35" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I35" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J35" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="K35" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="L35" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="M35" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="N35" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="O35" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="P35" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="Q35" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="R35" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="S35" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="T35" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="U35" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="V35" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="W35" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="X35" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="Y35" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="Z35" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="AA35" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="AB35" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="AC35" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="AD35" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -59704,28 +59709,28 @@
         <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="D36" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="E36" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="F36" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="G36" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="H36" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="I36" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="J36" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -59736,31 +59741,31 @@
         <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="D37" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="E37" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="F37" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="G37" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2190</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2191</v>
+      </c>
+      <c r="K37" t="s">
         <v>2192</v>
-      </c>
-      <c r="H37" t="s">
-        <v>2188</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2189</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2190</v>
-      </c>
-      <c r="K37" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -59771,37 +59776,37 @@
         <v>613</v>
       </c>
       <c r="C38" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="D38" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="E38" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="F38" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="G38" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="H38" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="I38" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="J38" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="K38" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="L38" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="M38" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -59812,19 +59817,19 @@
         <v>637</v>
       </c>
       <c r="C39" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="D39" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="E39" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="F39" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="G39" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -59835,100 +59840,100 @@
         <v>888</v>
       </c>
       <c r="C40" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="D40" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="E40" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="F40" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="G40" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="H40" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="I40" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="J40" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="K40" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="L40" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="M40" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="N40" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="O40" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="P40" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="Q40" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="R40" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="S40" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="T40" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="U40" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="V40" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="W40" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="X40" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="Y40" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="Z40" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AA40" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AB40" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AC40" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AD40" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AE40" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AF40" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AG40" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AH40" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -59939,31 +59944,31 @@
         <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="D41" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="E41" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="F41" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="G41" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="H41" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="I41" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="J41" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="K41" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -59979,31 +59984,31 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="D43" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="E43" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="F43" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="G43" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="H43" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="I43" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="J43" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="K43" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -60022,88 +60027,88 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="D45" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="E45" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="F45" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="G45" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H45" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I45" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J45" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="K45" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="L45" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="M45" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="N45" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="O45" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="P45" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="Q45" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="R45" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="S45" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="T45" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="U45" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="V45" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="W45" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="X45" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="Y45" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="Z45" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="AA45" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="AB45" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="AC45" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="AD45" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -60114,13 +60119,13 @@
         <v>724</v>
       </c>
       <c r="C46" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="D46" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="E46" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -60131,103 +60136,103 @@
         <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="D47" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="E47" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="F47" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="G47" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="H47" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="I47" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="J47" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="K47" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="L47" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="M47" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="N47" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="O47" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="P47" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="Q47" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="R47" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="S47" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="T47" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="U47" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="V47" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="W47" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="X47" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="Y47" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="Z47" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="AA47" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="AB47" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="AC47" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="AD47" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="AE47" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="AF47" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="AG47" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AH47" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AI47" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -60238,67 +60243,67 @@
         <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="D48" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="E48" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="F48" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="G48" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="H48" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="I48" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="J48" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="K48" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="L48" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="M48" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="N48" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="O48" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="P48" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="Q48" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="R48" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="S48" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="T48" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="U48" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="V48" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="W48" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -60309,100 +60314,100 @@
         <v>888</v>
       </c>
       <c r="C49" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="D49" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="E49" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="F49" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="G49" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="H49" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="I49" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="J49" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="K49" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="L49" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="M49" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="N49" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="O49" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="P49" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="Q49" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="R49" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="S49" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="T49" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="U49" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="V49" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="W49" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="X49" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="Y49" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="Z49" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AA49" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AB49" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AC49" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AD49" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AE49" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AF49" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AG49" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AH49" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -60418,19 +60423,19 @@
         <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="D51" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="E51" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="F51" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="G51" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -60441,70 +60446,70 @@
         <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="D52" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="E52" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="F52" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="G52" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="H52" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="I52" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="J52" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="K52" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="L52" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="M52" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="N52" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="O52" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="P52" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="Q52" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="R52" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="S52" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="T52" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="U52" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="V52" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="W52" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="X52" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -60515,40 +60520,40 @@
         <v>662</v>
       </c>
       <c r="C53" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="D53" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="E53" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="F53" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G53" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="H53" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="I53" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="J53" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="K53" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="L53" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="M53" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="N53" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -60575,28 +60580,28 @@
         <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="D56" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="E56" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="F56" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="G56" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="H56" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="I56" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="J56" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -60612,94 +60617,94 @@
         <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="D58" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="E58" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="F58" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="G58" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="H58" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="I58" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="J58" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="K58" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="L58" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="M58" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="N58" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="O58" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="P58" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="Q58" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="R58" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="S58" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="T58" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="U58" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="V58" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="W58" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="X58" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="Y58" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="Z58" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AA58" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="AB58" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="AC58" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="AD58" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AE58" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AF58" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="59" spans="1:55">
@@ -60707,267 +60712,267 @@
         <v>988</v>
       </c>
       <c r="B59" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="C59" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="D59" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="E59" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="F59" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="G59" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="H59" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="I59" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J59" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="K59" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="L59" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="M59" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="N59" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="O59" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="P59" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="Q59" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="R59" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="S59" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="T59" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="U59" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="V59" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="W59" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="X59" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="Y59" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="Z59" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="AA59" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="AB59" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="AC59" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="AD59" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="AE59" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="AF59" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="AG59" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="AH59" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="AI59" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="AJ59" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="AK59" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="AL59" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="AM59" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="AN59" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="AO59" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="AP59" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="AQ59" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="AR59" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="AS59" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="AT59" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="AU59" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="AV59" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AW59" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="AX59" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="AY59" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AZ59" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="BA59" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="BB59" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="BC59" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B60" t="s">
         <v>888</v>
       </c>
       <c r="C60" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="D60" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="E60" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="F60" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="G60" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="H60" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="I60" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="J60" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="K60" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="L60" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="M60" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N60" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="O60" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="P60" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="Q60" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="R60" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="S60" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="T60" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="U60" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="V60" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="W60" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="X60" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="Y60" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="Z60" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AA60" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AB60" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AC60" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AD60" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AE60" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AF60" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AG60" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -60994,82 +60999,82 @@
         <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="D63" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="E63" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="F63" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="G63" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="H63" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="I63" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="J63" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="K63" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="L63" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="M63" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="N63" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="O63" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="P63" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="Q63" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="R63" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="S63" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="T63" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="U63" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="V63" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="W63" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="X63" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="Y63" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="Z63" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="AA63" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="AB63" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -61088,58 +61093,58 @@
         <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="D65" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="E65" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="F65" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="G65" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="H65" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="I65" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="J65" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="K65" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="L65" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="M65" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="N65" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="O65" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="P65" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="Q65" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="R65" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="S65" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="T65" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -61147,88 +61152,88 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="C66" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="D66" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="E66" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="F66" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="G66" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="H66" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="I66" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="J66" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K66" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="L66" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="M66" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="N66" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="O66" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="P66" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="Q66" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="R66" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="S66" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="T66" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="U66" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="V66" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="W66" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="X66" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="Y66" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="Z66" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="AA66" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="AB66" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="AC66" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -61239,127 +61244,127 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="D67" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E67" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="F67" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="G67" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="H67" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="I67" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="J67" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="K67" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="L67" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="M67" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="N67" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="O67" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="P67" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="Q67" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="R67" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="S67" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="T67" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="U67" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="V67" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="W67" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="X67" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="Y67" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="Z67" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="AA67" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="AB67" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="AC67" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="AD67" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="AE67" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="AF67" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="AG67" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="AH67" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="AI67" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="AJ67" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="AK67" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="AL67" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="AM67" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="AN67" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="AO67" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="AP67" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="AQ67" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -61370,7 +61375,7 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -61421,87 +61426,87 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
     </row>
   </sheetData>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7320" uniqueCount="2508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="2508">
   <si>
     <t>服务器</t>
   </si>
@@ -7949,10 +7949,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -8047,19 +8047,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8071,7 +8062,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8079,7 +8070,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8111,7 +8102,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8132,22 +8137,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8161,14 +8168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -8176,8 +8175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8222,13 +8222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8240,7 +8240,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8258,103 +8276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8378,7 +8306,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8390,13 +8396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8501,17 +8501,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8540,28 +8566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8571,21 +8586,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8606,10 +8606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8618,16 +8618,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8636,115 +8636,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21536,7 +21536,7 @@
   <dimension ref="A1:XFD648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H204" workbookViewId="0">
-      <selection activeCell="J282" sqref="J282"/>
+      <selection activeCell="J283" sqref="J283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -30266,7 +30266,9 @@
       <c r="I281" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J281" s="2"/>
+      <c r="J281" s="2" t="s">
+        <v>1486</v>
+      </c>
       <c r="K281" s="14" t="s">
         <v>1501</v>
       </c>
@@ -30298,8 +30300,10 @@
       <c r="I282" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J282" s="2"/>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K282" s="14" t="s">
         <v>1502</v>
       </c>
       <c r="L282" t="s">
@@ -58120,10 +58124,11 @@
     <hyperlink ref="K263" r:id="rId90" display="http://ggzy.guizhou.gov.cn/queryContent-jyxx.jspx?channelId=75" tooltip="http://ggzy.guizhou.gov.cn/queryContent-jyxx.jspx?channelId=75"/>
     <hyperlink ref="K264" r:id="rId91" display="http://gxggzy.gxzf.gov.cn/gxzbw/showinfo/jyxx.aspx?QuYu=450001&amp;categoryNum=001010001" tooltip="http://gxggzy.gxzf.gov.cn/gxzbw/showinfo/jyxx.aspx?QuYu=450001&amp;categoryNum=001010001"/>
     <hyperlink ref="K279" r:id="rId92" display="http://deal.ggzy.gov.cn/ds/deal/dealList.jsp"/>
-    <hyperlink ref="K281" r:id="rId93" display="http://prec.sxzwfw.gov.cn/moreInfoController.do?getProject"/>
+    <hyperlink ref="K281" r:id="rId93" display="http://prec.sxzwfw.gov.cn/moreInfoController.do?getProject" tooltip="http://prec.sxzwfw.gov.cn/moreInfoController.do?getProject"/>
     <hyperlink ref="K276" r:id="rId94" display="http://ggzyjy.nmg.gov.cn/jyxx/jsgcZbgg"/>
     <hyperlink ref="K277" r:id="rId95" display="http://www.nxggzyjy.org/ningxiaweb/002/002001/listPage.html" tooltip="http://www.nxggzyjy.org/ningxiaweb/002/002001/listPage.html"/>
     <hyperlink ref="K278" r:id="rId96" display="http://www.qhggzyjy.gov.cn/ggzy/jyxx/001002/001002001/secondPage.html"/>
+    <hyperlink ref="K282" r:id="rId97" display="http://ggzyjy.sc.gov.cn/jyxx/transactionInfo.html" tooltip="http://ggzyjy.sc.gov.cn/jyxx/transactionInfo.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="2508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7323" uniqueCount="2509">
   <si>
     <t>服务器</t>
   </si>
@@ -4692,6 +4692,9 @@
   </si>
   <si>
     <t>http://ggzyjy.sc.gov.cn/jyxx/transactionInfo.html</t>
+  </si>
+  <si>
+    <t>未修改（网站反爬提升）</t>
   </si>
   <si>
     <t>http://60.28.163.169/jyxx/index.jhtml</t>
@@ -7949,10 +7952,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -8048,6 +8051,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -8062,23 +8080,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8092,9 +8094,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8102,14 +8118,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8138,15 +8147,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8161,25 +8179,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8222,7 +8225,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8234,7 +8255,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8246,79 +8339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8336,19 +8357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8360,13 +8381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8378,25 +8399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8501,17 +8504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8523,6 +8515,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8545,23 +8546,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8581,20 +8587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8606,10 +8609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8618,16 +8621,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8636,115 +8639,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21535,8 +21538,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H204" workbookViewId="0">
-      <selection activeCell="J283" sqref="J283"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H159" workbookViewId="0">
+      <selection activeCell="J284" sqref="J284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -30334,9 +30337,11 @@
       <c r="I283" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J283" s="2"/>
+      <c r="J283" s="2" t="s">
+        <v>1503</v>
+      </c>
       <c r="K283" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="L283" t="s">
         <v>1339</v>
@@ -30368,7 +30373,7 @@
       </c>
       <c r="J284" s="2"/>
       <c r="K284" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="L284" t="s">
         <v>1339</v>
@@ -30400,7 +30405,7 @@
       </c>
       <c r="J285" s="2"/>
       <c r="K285" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="L285" t="s">
         <v>1339</v>
@@ -30428,13 +30433,13 @@
       <c r="G286" s="2"/>
       <c r="H286" s="11"/>
       <c r="I286" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K286" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="L286" t="s">
         <v>1339</v>
@@ -30466,7 +30471,7 @@
       </c>
       <c r="J287" s="2"/>
       <c r="K287" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -30474,18 +30479,18 @@
       <c r="B288" s="7"/>
       <c r="C288" s="2"/>
       <c r="D288" s="7" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="11"/>
       <c r="I288" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J288" s="2"/>
       <c r="K288" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="L288" t="s">
         <v>1339</v>
@@ -30496,18 +30501,18 @@
       <c r="B289" s="7"/>
       <c r="C289" s="2"/>
       <c r="D289" s="7" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="11"/>
       <c r="I289" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J289" s="2"/>
       <c r="K289" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="L289" t="s">
         <v>1339</v>
@@ -30539,7 +30544,7 @@
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="L290" t="s">
         <v>1339</v>
@@ -30571,7 +30576,7 @@
       </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="L291" t="s">
         <v>1339</v>
@@ -30603,7 +30608,7 @@
       </c>
       <c r="J292" s="2"/>
       <c r="K292" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="L292" t="s">
         <v>1339</v>
@@ -30635,7 +30640,7 @@
       </c>
       <c r="J293" s="2"/>
       <c r="K293" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="L293" t="s">
         <v>1339</v>
@@ -30667,7 +30672,7 @@
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="L294" t="s">
         <v>1339</v>
@@ -30678,18 +30683,18 @@
       <c r="B295" s="7"/>
       <c r="C295" s="2"/>
       <c r="D295" s="7" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="11"/>
       <c r="I295" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="L295" t="s">
         <v>1339</v>
@@ -30700,18 +30705,18 @@
       <c r="B296" s="7"/>
       <c r="C296" s="2"/>
       <c r="D296" s="7" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="11"/>
       <c r="I296" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="L296" t="s">
         <v>1339</v>
@@ -30743,7 +30748,7 @@
       </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="L297" t="s">
         <v>1339</v>
@@ -30775,7 +30780,7 @@
       </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="L298" t="s">
         <v>1339</v>
@@ -30807,7 +30812,7 @@
       </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="L299" t="s">
         <v>1339</v>
@@ -30839,7 +30844,7 @@
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="L300" t="s">
         <v>1339</v>
@@ -30871,7 +30876,7 @@
       </c>
       <c r="J301" s="2"/>
       <c r="K301" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="L301" t="s">
         <v>1339</v>
@@ -30903,7 +30908,7 @@
       </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="L302" t="s">
         <v>1339</v>
@@ -30935,7 +30940,7 @@
       </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="L303" t="s">
         <v>1339</v>
@@ -30967,7 +30972,7 @@
       </c>
       <c r="J304" s="2"/>
       <c r="K304" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="L304" t="s">
         <v>1339</v>
@@ -30999,7 +31004,7 @@
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="L305" t="s">
         <v>1339</v>
@@ -31031,7 +31036,7 @@
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="L306" t="s">
         <v>1339</v>
@@ -31063,7 +31068,7 @@
       </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="L307" t="s">
         <v>1339</v>
@@ -31095,7 +31100,7 @@
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="L308" t="s">
         <v>1339</v>
@@ -31127,7 +31132,7 @@
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="L309" t="s">
         <v>1339</v>
@@ -31159,7 +31164,7 @@
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="L310" t="s">
         <v>1339</v>
@@ -31191,7 +31196,7 @@
       </c>
       <c r="J311" s="2"/>
       <c r="K311" s="15" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="312" hidden="1" spans="1:11">
@@ -31222,7 +31227,7 @@
       </c>
       <c r="J312" s="2"/>
       <c r="K312" s="18" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="313" hidden="1" spans="1:11">
@@ -31253,7 +31258,7 @@
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="18" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="314" hidden="1" spans="1:11">
@@ -31284,7 +31289,7 @@
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="18" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="315" hidden="1" spans="1:11">
@@ -31315,7 +31320,7 @@
       </c>
       <c r="J315" s="2"/>
       <c r="K315" s="18" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="316" hidden="1" spans="1:11">
@@ -31346,7 +31351,7 @@
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="18" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="317" hidden="1" spans="1:11">
@@ -31360,7 +31365,7 @@
         <v>859</v>
       </c>
       <c r="D317" s="27" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>751</v>
@@ -31377,7 +31382,7 @@
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="18" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="318" hidden="1" spans="1:11">
@@ -31408,7 +31413,7 @@
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="18" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="319" hidden="1" spans="1:11">
@@ -31439,7 +31444,7 @@
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="18" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="320" hidden="1" spans="1:11">
@@ -31470,7 +31475,7 @@
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="18" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="321" hidden="1" spans="1:11">
@@ -31501,7 +31506,7 @@
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="18" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="322" hidden="1" spans="1:11">
@@ -31532,7 +31537,7 @@
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="18" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:11">
@@ -31563,7 +31568,7 @@
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="18" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="324" hidden="1" spans="1:11">
@@ -31594,7 +31599,7 @@
       </c>
       <c r="J324" s="2"/>
       <c r="K324" s="18" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="325" hidden="1" spans="1:11">
@@ -31625,7 +31630,7 @@
       </c>
       <c r="J325" s="2"/>
       <c r="K325" s="18" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="326" hidden="1" spans="1:11">
@@ -31656,7 +31661,7 @@
       </c>
       <c r="J326" s="2"/>
       <c r="K326" s="18" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="327" hidden="1" spans="1:11">
@@ -31687,7 +31692,7 @@
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="18" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="328" hidden="1" spans="1:11">
@@ -31718,7 +31723,7 @@
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="18" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="329" hidden="1" spans="1:11">
@@ -31749,7 +31754,7 @@
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="18" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="330" hidden="1" spans="1:11">
@@ -31780,7 +31785,7 @@
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="18" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="331" hidden="1" spans="1:11">
@@ -31811,7 +31816,7 @@
       </c>
       <c r="J331" s="2"/>
       <c r="K331" s="18" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="332" hidden="1" spans="1:11">
@@ -31842,7 +31847,7 @@
       </c>
       <c r="J332" s="2"/>
       <c r="K332" s="18" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="333" hidden="1" spans="1:11">
@@ -31873,7 +31878,7 @@
       </c>
       <c r="J333" s="2"/>
       <c r="K333" s="18" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="334" hidden="1" spans="1:11">
@@ -31887,7 +31892,7 @@
         <v>885</v>
       </c>
       <c r="D334" s="27" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>751</v>
@@ -31904,7 +31909,7 @@
       </c>
       <c r="J334" s="2"/>
       <c r="K334" s="18" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="335" hidden="1" spans="1:11">
@@ -31930,14 +31935,14 @@
         <v>1</v>
       </c>
       <c r="H335" s="21" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="15" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="336" hidden="1" spans="1:11">
@@ -31964,11 +31969,11 @@
       </c>
       <c r="H336" s="22"/>
       <c r="I336" s="2" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="15" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="337" ht="16.5" hidden="1" spans="1:11">
@@ -31999,7 +32004,7 @@
       </c>
       <c r="J337" s="2"/>
       <c r="K337" s="39" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="338" hidden="1" spans="1:11">
@@ -32026,11 +32031,11 @@
       </c>
       <c r="H338" s="22"/>
       <c r="I338" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="18" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="339" hidden="1" spans="1:11">
@@ -32061,7 +32066,7 @@
       </c>
       <c r="J339" s="2"/>
       <c r="K339" s="18" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="340" hidden="1" spans="1:11">
@@ -32092,7 +32097,7 @@
       </c>
       <c r="J340" s="2"/>
       <c r="K340" s="40" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="341" hidden="1" spans="1:11">
@@ -32123,7 +32128,7 @@
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="18" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="342" hidden="1" spans="1:11">
@@ -32154,7 +32159,7 @@
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="18" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="343" hidden="1" spans="1:11">
@@ -32181,11 +32186,11 @@
       </c>
       <c r="H343" s="22"/>
       <c r="I343" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J343" s="2"/>
       <c r="K343" s="18" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="344" hidden="1" spans="1:11">
@@ -32212,11 +32217,11 @@
       </c>
       <c r="H344" s="22"/>
       <c r="I344" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J344" s="2"/>
       <c r="K344" s="18" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:11">
@@ -32247,7 +32252,7 @@
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="15" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="346" hidden="1" spans="1:11">
@@ -32278,7 +32283,7 @@
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="15" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="347" hidden="1" spans="1:11">
@@ -32309,7 +32314,7 @@
       </c>
       <c r="J347" s="2"/>
       <c r="K347" s="18" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="348" hidden="1" spans="1:11">
@@ -32340,7 +32345,7 @@
       </c>
       <c r="J348" s="2"/>
       <c r="K348" s="18" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="349" hidden="1" spans="1:11">
@@ -32371,7 +32376,7 @@
       </c>
       <c r="J349" s="2"/>
       <c r="K349" s="18" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="350" hidden="1" spans="1:11">
@@ -32402,7 +32407,7 @@
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="15" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="351" hidden="1" spans="1:11">
@@ -32433,7 +32438,7 @@
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="41" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="352" hidden="1" spans="1:11">
@@ -32464,7 +32469,7 @@
       </c>
       <c r="J352" s="2"/>
       <c r="K352" s="15" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="353" hidden="1" spans="1:11">
@@ -32491,11 +32496,11 @@
       </c>
       <c r="H353" s="22"/>
       <c r="I353" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J353" s="2"/>
       <c r="K353" s="15" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="354" hidden="1" spans="1:11">
@@ -32526,7 +32531,7 @@
       </c>
       <c r="J354" s="2"/>
       <c r="K354" s="15" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="355" hidden="1" spans="1:11">
@@ -32553,11 +32558,11 @@
       </c>
       <c r="H355" s="22"/>
       <c r="I355" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="18" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="356" hidden="1" spans="1:11">
@@ -32588,7 +32593,7 @@
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="41" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="357" hidden="1" spans="1:11">
@@ -32615,11 +32620,11 @@
       </c>
       <c r="H357" s="22"/>
       <c r="I357" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J357" s="2"/>
       <c r="K357" s="18" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="358" hidden="1" spans="1:11">
@@ -32646,11 +32651,11 @@
       </c>
       <c r="H358" s="22"/>
       <c r="I358" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J358" s="2"/>
       <c r="K358" s="15" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="359" hidden="1" spans="1:11">
@@ -32681,7 +32686,7 @@
       </c>
       <c r="J359" s="2"/>
       <c r="K359" s="18" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="360" hidden="1" spans="1:11">
@@ -32712,7 +32717,7 @@
       </c>
       <c r="J360" s="2"/>
       <c r="K360" s="15" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="361" hidden="1" spans="1:11">
@@ -32743,7 +32748,7 @@
       </c>
       <c r="J361" s="2"/>
       <c r="K361" s="18" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="362" hidden="1" spans="1:11">
@@ -32770,11 +32775,11 @@
       </c>
       <c r="H362" s="22"/>
       <c r="I362" s="2" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="J362" s="2"/>
       <c r="K362" s="15" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="363" hidden="1" spans="1:11">
@@ -32801,11 +32806,11 @@
       </c>
       <c r="H363" s="22"/>
       <c r="I363" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J363" s="2"/>
       <c r="K363" s="18" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="364" hidden="1" spans="1:11">
@@ -32836,7 +32841,7 @@
       </c>
       <c r="J364" s="2"/>
       <c r="K364" s="18" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="365" hidden="1" spans="1:11">
@@ -32867,7 +32872,7 @@
       </c>
       <c r="J365" s="2"/>
       <c r="K365" s="18" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="366" hidden="1" spans="1:11">
@@ -32894,11 +32899,11 @@
       </c>
       <c r="H366" s="22"/>
       <c r="I366" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="18" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="367" hidden="1" spans="1:11">
@@ -32929,7 +32934,7 @@
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="15" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="368" hidden="1" spans="1:11">
@@ -32955,14 +32960,14 @@
         <v>1</v>
       </c>
       <c r="H368" s="21" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="18" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="369" hidden="1" spans="1:11">
@@ -32993,7 +32998,7 @@
       </c>
       <c r="J369" s="2"/>
       <c r="K369" s="18" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="370" hidden="1" spans="1:11">
@@ -33024,7 +33029,7 @@
       </c>
       <c r="J370" s="2"/>
       <c r="K370" s="18" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="371" hidden="1" spans="1:11">
@@ -33055,7 +33060,7 @@
       </c>
       <c r="J371" s="2"/>
       <c r="K371" s="18" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="372" hidden="1" spans="1:11">
@@ -33086,7 +33091,7 @@
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="373" hidden="1" spans="1:11">
@@ -33113,11 +33118,11 @@
       </c>
       <c r="H373" s="22"/>
       <c r="I373" s="3" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J373" s="2"/>
       <c r="K373" s="18" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="374" hidden="1" spans="1:11">
@@ -33144,11 +33149,11 @@
       </c>
       <c r="H374" s="22"/>
       <c r="I374" s="3" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J374" s="2"/>
       <c r="K374" s="18" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="375" hidden="1" spans="1:11">
@@ -33179,7 +33184,7 @@
       </c>
       <c r="J375" s="2"/>
       <c r="K375" s="18" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="376" hidden="1" spans="1:11">
@@ -33210,7 +33215,7 @@
       </c>
       <c r="J376" s="2"/>
       <c r="K376" s="18" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="377" hidden="1" spans="1:11">
@@ -33241,7 +33246,7 @@
       </c>
       <c r="J377" s="2"/>
       <c r="K377" s="18" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="378" hidden="1" spans="1:11">
@@ -33272,7 +33277,7 @@
       </c>
       <c r="J378" s="2"/>
       <c r="K378" s="18" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="379" hidden="1" spans="1:11">
@@ -33299,11 +33304,11 @@
       </c>
       <c r="H379" s="22"/>
       <c r="I379" s="3" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="18" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="380" hidden="1" spans="1:11">
@@ -33334,7 +33339,7 @@
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="18" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="381" hidden="1" spans="1:11">
@@ -33365,7 +33370,7 @@
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="18" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="382" hidden="1" spans="1:11">
@@ -33396,7 +33401,7 @@
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="18" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="383" hidden="1" spans="1:11">
@@ -33427,7 +33432,7 @@
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="18" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="384" hidden="1" spans="1:11">
@@ -33458,7 +33463,7 @@
       </c>
       <c r="J384" s="2"/>
       <c r="K384" s="18" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="385" hidden="1" spans="1:11">
@@ -33485,11 +33490,11 @@
       </c>
       <c r="H385" s="22"/>
       <c r="I385" s="3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="J385" s="2"/>
       <c r="K385" s="18" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="386" hidden="1" spans="1:11">
@@ -33520,7 +33525,7 @@
       </c>
       <c r="J386" s="2"/>
       <c r="K386" s="18" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="387" hidden="1" spans="1:11">
@@ -33551,7 +33556,7 @@
       </c>
       <c r="J387" s="2"/>
       <c r="K387" s="18" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="388" hidden="1" spans="1:11">
@@ -33582,7 +33587,7 @@
       </c>
       <c r="J388" s="2"/>
       <c r="K388" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="389" hidden="1" spans="1:11">
@@ -33613,7 +33618,7 @@
       </c>
       <c r="J389" s="2"/>
       <c r="K389" s="18" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="390" hidden="1" spans="1:11">
@@ -33644,7 +33649,7 @@
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="18" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="391" hidden="1" spans="1:11">
@@ -33671,11 +33676,11 @@
       </c>
       <c r="H391" s="22"/>
       <c r="I391" s="3" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="18" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="392" hidden="1" spans="1:11">
@@ -33702,11 +33707,11 @@
       </c>
       <c r="H392" s="22"/>
       <c r="I392" s="3" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="18" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="393" hidden="1" spans="1:11">
@@ -33733,11 +33738,11 @@
       </c>
       <c r="H393" s="22"/>
       <c r="I393" s="3" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="18" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="394" hidden="1" spans="1:11">
@@ -33768,7 +33773,7 @@
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="18" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="395" hidden="1" spans="1:11">
@@ -33782,7 +33787,7 @@
         <v>980</v>
       </c>
       <c r="D395" s="27" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>890</v>
@@ -33799,7 +33804,7 @@
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="18" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="396" hidden="1" spans="1:11">
@@ -33813,7 +33818,7 @@
         <v>486</v>
       </c>
       <c r="D396" s="27" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>890</v>
@@ -33830,7 +33835,7 @@
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="18" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="397" hidden="1" spans="1:11">
@@ -33861,7 +33866,7 @@
       </c>
       <c r="J397" s="2"/>
       <c r="K397" s="18" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="398" hidden="1" spans="1:11">
@@ -33892,7 +33897,7 @@
       </c>
       <c r="J398" s="2"/>
       <c r="K398" s="18" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="399" hidden="1" spans="1:11">
@@ -33919,11 +33924,11 @@
       </c>
       <c r="H399" s="22"/>
       <c r="I399" s="3" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="18" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="400" hidden="1" spans="1:11">
@@ -33950,11 +33955,11 @@
       </c>
       <c r="H400" s="22"/>
       <c r="I400" s="3" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="18" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="401" hidden="1" spans="1:11">
@@ -33985,7 +33990,7 @@
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="18" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -33999,7 +34004,7 @@
         <v>888</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="E402" s="7" t="s">
         <v>890</v>
@@ -34009,14 +34014,14 @@
       </c>
       <c r="G402" s="2"/>
       <c r="H402" s="21" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="14" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="L402" t="s">
         <v>1339</v>
@@ -34027,7 +34032,7 @@
       <c r="B403" s="7"/>
       <c r="C403" s="2"/>
       <c r="D403" s="7" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="E403" s="7" t="s">
         <v>890</v>
@@ -34038,11 +34043,11 @@
       <c r="G403" s="2"/>
       <c r="H403" s="22"/>
       <c r="I403" s="3" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="J403" s="2"/>
       <c r="K403" s="44" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="L403" t="s">
         <v>1339</v>
@@ -34074,7 +34079,7 @@
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="18" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="L404" t="s">
         <v>1339</v>
@@ -34106,7 +34111,7 @@
       </c>
       <c r="J405" s="2"/>
       <c r="K405" s="18" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="L405" t="s">
         <v>1339</v>
@@ -34138,7 +34143,7 @@
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="18" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="L406" t="s">
         <v>1339</v>
@@ -34170,7 +34175,7 @@
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="18" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -34184,7 +34189,7 @@
         <v>997</v>
       </c>
       <c r="D408" s="7" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="E408" s="7" t="s">
         <v>890</v>
@@ -34199,7 +34204,7 @@
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="18" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="L408" t="s">
         <v>1339</v>
@@ -34231,7 +34236,7 @@
       </c>
       <c r="J409" s="2"/>
       <c r="K409" s="18" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="L409" t="s">
         <v>1339</v>
@@ -34263,7 +34268,7 @@
       </c>
       <c r="J410" s="2"/>
       <c r="K410" s="18" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="L410" t="s">
         <v>1339</v>
@@ -34295,7 +34300,7 @@
       </c>
       <c r="J411" s="2"/>
       <c r="K411" s="18" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="L411" t="s">
         <v>1339</v>
@@ -34306,7 +34311,7 @@
       <c r="B412" s="7"/>
       <c r="C412" s="2"/>
       <c r="D412" s="7" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="E412" s="7" t="s">
         <v>890</v>
@@ -34317,11 +34322,11 @@
       <c r="G412" s="2"/>
       <c r="H412" s="22"/>
       <c r="I412" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="18" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="L412" t="s">
         <v>1339</v>
@@ -34338,7 +34343,7 @@
         <v>901</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E413" s="7" t="s">
         <v>890</v>
@@ -34353,7 +34358,7 @@
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="19" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -34367,7 +34372,7 @@
         <v>1003</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="E414" s="7" t="s">
         <v>890</v>
@@ -34382,7 +34387,7 @@
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="18" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="L414" t="s">
         <v>1339</v>
@@ -34393,7 +34398,7 @@
       <c r="B415" s="7"/>
       <c r="C415" s="2"/>
       <c r="D415" s="7" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="E415" s="7" t="s">
         <v>890</v>
@@ -34404,11 +34409,11 @@
       <c r="G415" s="2"/>
       <c r="H415" s="22"/>
       <c r="I415" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="18" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="L415" t="s">
         <v>1339</v>
@@ -34419,7 +34424,7 @@
       <c r="B416" s="7"/>
       <c r="C416" s="2"/>
       <c r="D416" s="7" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="E416" s="7" t="s">
         <v>890</v>
@@ -34430,11 +34435,11 @@
       <c r="G416" s="2"/>
       <c r="H416" s="22"/>
       <c r="I416" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="18" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="L416" t="s">
         <v>1339</v>
@@ -34451,7 +34456,7 @@
         <v>903</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="E417" s="7" t="s">
         <v>890</v>
@@ -34466,7 +34471,7 @@
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="18" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -34474,7 +34479,7 @@
       <c r="B418" s="7"/>
       <c r="C418" s="2"/>
       <c r="D418" s="7" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E418" s="7" t="s">
         <v>890</v>
@@ -34485,11 +34490,11 @@
       <c r="G418" s="2"/>
       <c r="H418" s="22"/>
       <c r="I418" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="18" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="L418" t="s">
         <v>1339</v>
@@ -34506,7 +34511,7 @@
         <v>907</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="E419" s="7" t="s">
         <v>890</v>
@@ -34521,7 +34526,7 @@
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="19" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="420" hidden="1" spans="1:11">
@@ -34535,7 +34540,7 @@
         <v>1007</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="E420" s="7" t="s">
         <v>890</v>
@@ -34550,7 +34555,7 @@
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="18" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -34575,13 +34580,13 @@
       <c r="G421" s="2"/>
       <c r="H421" s="22"/>
       <c r="I421" s="2" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K421" s="18" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="L421" t="s">
         <v>1339</v>
@@ -34613,7 +34618,7 @@
       </c>
       <c r="J422" s="2"/>
       <c r="K422" s="18" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="423" hidden="1" spans="1:11">
@@ -34642,7 +34647,7 @@
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="18" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -34650,7 +34655,7 @@
       <c r="B424" s="7"/>
       <c r="C424" s="2"/>
       <c r="D424" s="7" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E424" s="7" t="s">
         <v>890</v>
@@ -34661,11 +34666,11 @@
       <c r="G424" s="2"/>
       <c r="H424" s="22"/>
       <c r="I424" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="18" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="L424" t="s">
         <v>1339</v>
@@ -34676,7 +34681,7 @@
       <c r="B425" s="7"/>
       <c r="C425" s="2"/>
       <c r="D425" s="7" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="E425" s="7" t="s">
         <v>890</v>
@@ -34687,11 +34692,11 @@
       <c r="G425" s="2"/>
       <c r="H425" s="22"/>
       <c r="I425" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J425" s="2"/>
       <c r="K425" s="18" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="L425" t="s">
         <v>1339</v>
@@ -34719,13 +34724,13 @@
       <c r="G426" s="2"/>
       <c r="H426" s="22"/>
       <c r="I426" s="3" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K426" s="19" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="L426" t="s">
         <v>1339</v>
@@ -34753,13 +34758,13 @@
       <c r="G427" s="2"/>
       <c r="H427" s="22"/>
       <c r="I427" s="3" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K427" s="18" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="L427" t="s">
         <v>1339</v>
@@ -34791,7 +34796,7 @@
       </c>
       <c r="J428" s="2"/>
       <c r="K428" s="45" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="L428" t="s">
         <v>1339</v>
@@ -34813,11 +34818,11 @@
       <c r="G429" s="2"/>
       <c r="H429" s="22"/>
       <c r="I429" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J429" s="2"/>
       <c r="K429" s="45" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="L429" t="s">
         <v>1339</v>
@@ -34834,7 +34839,7 @@
         <v>283</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="E430" s="7" t="s">
         <v>890</v>
@@ -34849,7 +34854,7 @@
       </c>
       <c r="J430" s="2"/>
       <c r="K430" s="18" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -34857,7 +34862,7 @@
       <c r="B431" s="7"/>
       <c r="C431" s="2"/>
       <c r="D431" s="7" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="E431" s="7" t="s">
         <v>890</v>
@@ -34868,11 +34873,11 @@
       <c r="G431" s="2"/>
       <c r="H431" s="22"/>
       <c r="I431" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J431" s="2"/>
       <c r="K431" s="18" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="L431" t="s">
         <v>1339</v>
@@ -34889,7 +34894,7 @@
         <v>417</v>
       </c>
       <c r="D432" s="42" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="E432" s="7" t="s">
         <v>890</v>
@@ -34904,7 +34909,7 @@
       </c>
       <c r="J432" s="2"/>
       <c r="K432" s="18" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="L432" t="s">
         <v>1339</v>
@@ -34921,7 +34926,7 @@
         <v>285</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="E433" s="7" t="s">
         <v>890</v>
@@ -34936,7 +34941,7 @@
       </c>
       <c r="J433" s="2"/>
       <c r="K433" s="18" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="L433" t="s">
         <v>1339</v>
@@ -34953,7 +34958,7 @@
         <v>920</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="E434" s="7" t="s">
         <v>890</v>
@@ -34968,7 +34973,7 @@
       </c>
       <c r="J434" s="2"/>
       <c r="K434" s="18" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="L434" t="s">
         <v>1339</v>
@@ -34979,7 +34984,7 @@
       <c r="B435" s="7"/>
       <c r="C435" s="2"/>
       <c r="D435" s="7" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="E435" s="7" t="s">
         <v>890</v>
@@ -34990,11 +34995,11 @@
       <c r="G435" s="2"/>
       <c r="H435" s="22"/>
       <c r="I435" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J435" s="2"/>
       <c r="K435" s="18" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="L435" t="s">
         <v>1339</v>
@@ -35026,7 +35031,7 @@
       </c>
       <c r="J436" s="2"/>
       <c r="K436" s="18" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="437" hidden="1" spans="1:11">
@@ -35055,7 +35060,7 @@
       </c>
       <c r="J437" s="2"/>
       <c r="K437" s="18" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="438" hidden="1" spans="1:11">
@@ -35084,7 +35089,7 @@
       </c>
       <c r="J438" s="2"/>
       <c r="K438" s="18" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="439" hidden="1" spans="1:11">
@@ -35113,7 +35118,7 @@
       </c>
       <c r="J439" s="2"/>
       <c r="K439" s="18" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="440" hidden="1" spans="1:11">
@@ -35142,7 +35147,7 @@
       </c>
       <c r="J440" s="2"/>
       <c r="K440" s="18" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="441" hidden="1" spans="1:11">
@@ -35171,7 +35176,7 @@
       </c>
       <c r="J441" s="2"/>
       <c r="K441" s="18" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="442" spans="1:16384">
@@ -35179,7 +35184,7 @@
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
       <c r="D442" s="43" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="E442" s="7" t="s">
         <v>890</v>
@@ -35190,11 +35195,11 @@
       <c r="G442" s="18"/>
       <c r="H442" s="22"/>
       <c r="I442" s="45" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J442" s="18"/>
       <c r="K442" s="18" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="L442" t="s">
         <v>1339</v>
@@ -51583,7 +51588,7 @@
         <v>1033</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="E443" s="7" t="s">
         <v>890</v>
@@ -51598,7 +51603,7 @@
       </c>
       <c r="J443" s="2"/>
       <c r="K443" s="18" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="444" hidden="1" spans="1:11">
@@ -51627,7 +51632,7 @@
       </c>
       <c r="J444" s="2"/>
       <c r="K444" s="18" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -51656,7 +51661,7 @@
       </c>
       <c r="J445" s="2"/>
       <c r="K445" s="18" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="L445" t="s">
         <v>1339</v>
@@ -51688,7 +51693,7 @@
       </c>
       <c r="J446" s="2"/>
       <c r="K446" s="18" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="447" hidden="1" spans="1:11">
@@ -51717,7 +51722,7 @@
       </c>
       <c r="J447" s="2"/>
       <c r="K447" s="18" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -51746,7 +51751,7 @@
       </c>
       <c r="J448" s="2"/>
       <c r="K448" s="18" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="L448" t="s">
         <v>1339</v>
@@ -51778,7 +51783,7 @@
       </c>
       <c r="J449" s="2"/>
       <c r="K449" s="18" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="450" hidden="1" spans="1:11">
@@ -51807,7 +51812,7 @@
       </c>
       <c r="J450" s="2"/>
       <c r="K450" s="18" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="451" hidden="1" spans="1:11">
@@ -51836,7 +51841,7 @@
       </c>
       <c r="J451" s="2"/>
       <c r="K451" s="18" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -51850,7 +51855,7 @@
         <v>1050</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="E452" s="7" t="s">
         <v>890</v>
@@ -51865,7 +51870,7 @@
       </c>
       <c r="J452" s="2"/>
       <c r="K452" s="46" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="L452" t="s">
         <v>1339</v>
@@ -51882,7 +51887,7 @@
         <v>931</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="E453" s="7" t="s">
         <v>890</v>
@@ -51893,13 +51898,13 @@
       <c r="G453" s="2"/>
       <c r="H453" s="22"/>
       <c r="I453" s="3" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K453" s="20" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="L453" t="s">
         <v>1339</v>
@@ -51910,7 +51915,7 @@
       <c r="B454" s="7"/>
       <c r="C454" s="2"/>
       <c r="D454" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="E454" s="7" t="s">
         <v>890</v>
@@ -51921,11 +51926,11 @@
       <c r="G454" s="2"/>
       <c r="H454" s="22"/>
       <c r="I454" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J454" s="2"/>
       <c r="K454" s="47" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="L454" t="s">
         <v>1339</v>
@@ -51957,7 +51962,7 @@
       </c>
       <c r="J455" s="2"/>
       <c r="K455" s="18" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="L455" t="s">
         <v>1339</v>
@@ -51989,7 +51994,7 @@
       </c>
       <c r="J456" s="2"/>
       <c r="K456" s="18" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="L456" t="s">
         <v>1339</v>
@@ -52021,7 +52026,7 @@
       </c>
       <c r="J457" s="2"/>
       <c r="K457" s="18" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -52046,11 +52051,11 @@
       <c r="G458" s="2"/>
       <c r="H458" s="22"/>
       <c r="I458" s="2" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J458" s="2"/>
       <c r="K458" s="18" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="L458" t="s">
         <v>1339</v>
@@ -52082,7 +52087,7 @@
       </c>
       <c r="J459" s="2"/>
       <c r="K459" s="18" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="460" hidden="1" spans="1:11">
@@ -52096,7 +52101,7 @@
         <v>937</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E460" s="7" t="s">
         <v>890</v>
@@ -52111,7 +52116,7 @@
       </c>
       <c r="J460" s="2"/>
       <c r="K460" s="18" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="461" hidden="1" spans="1:11">
@@ -52140,7 +52145,7 @@
       </c>
       <c r="J461" s="2"/>
       <c r="K461" s="18" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="462" hidden="1" spans="1:11">
@@ -52169,7 +52174,7 @@
       </c>
       <c r="J462" s="2"/>
       <c r="K462" s="18" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -52198,7 +52203,7 @@
       </c>
       <c r="J463" s="2"/>
       <c r="K463" s="45" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="L463" t="s">
         <v>1339</v>
@@ -52215,7 +52220,7 @@
         <v>1069</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="E464" s="7" t="s">
         <v>890</v>
@@ -52230,7 +52235,7 @@
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="18" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="L464" t="s">
         <v>1339</v>
@@ -52241,7 +52246,7 @@
       <c r="B465" s="7"/>
       <c r="C465" s="2"/>
       <c r="D465" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>890</v>
@@ -52252,11 +52257,11 @@
       <c r="G465" s="2"/>
       <c r="H465" s="22"/>
       <c r="I465" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="18" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="L465" t="s">
         <v>1339</v>
@@ -52273,7 +52278,7 @@
         <v>1071</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="E466" s="7" t="s">
         <v>890</v>
@@ -52288,7 +52293,7 @@
       </c>
       <c r="J466" s="2"/>
       <c r="K466" s="46" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -52302,7 +52307,7 @@
         <v>300</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>890</v>
@@ -52317,7 +52322,7 @@
       </c>
       <c r="J467" s="2"/>
       <c r="K467" s="18" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="L467" t="s">
         <v>1339</v>
@@ -52334,7 +52339,7 @@
         <v>1074</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="E468" s="7" t="s">
         <v>890</v>
@@ -52345,13 +52350,13 @@
       <c r="G468" s="2"/>
       <c r="H468" s="25"/>
       <c r="I468" s="3" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K468" s="18" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="L468" t="s">
         <v>1339</v>
@@ -52387,7 +52392,7 @@
       </c>
       <c r="J469" s="2"/>
       <c r="K469" s="18" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="470" hidden="1" spans="1:11">
@@ -52418,7 +52423,7 @@
       </c>
       <c r="J470" s="2"/>
       <c r="K470" s="18" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="471" hidden="1" spans="1:11">
@@ -52449,7 +52454,7 @@
       </c>
       <c r="J471" s="2"/>
       <c r="K471" s="2" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="472" hidden="1" spans="1:11">
@@ -52480,7 +52485,7 @@
       </c>
       <c r="J472" s="2"/>
       <c r="K472" s="2" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="473" hidden="1" spans="1:11">
@@ -52507,11 +52512,11 @@
       </c>
       <c r="H473" s="22"/>
       <c r="I473" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="J473" s="2"/>
       <c r="K473" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="474" hidden="1" spans="1:11">
@@ -52542,7 +52547,7 @@
       </c>
       <c r="J474" s="2"/>
       <c r="K474" s="18" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="475" hidden="1" spans="1:11">
@@ -52569,11 +52574,11 @@
       </c>
       <c r="H475" s="22"/>
       <c r="I475" s="2" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="J475" s="2"/>
       <c r="K475" s="18" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="476" hidden="1" spans="1:11">
@@ -52600,11 +52605,11 @@
       </c>
       <c r="H476" s="22"/>
       <c r="I476" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="J476" s="2"/>
       <c r="K476" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="477" hidden="1" spans="1:11">
@@ -52647,7 +52652,7 @@
         <v>215</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>198</v>
@@ -52664,7 +52669,7 @@
       </c>
       <c r="J478" s="2"/>
       <c r="K478" s="18" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="479" hidden="1" spans="1:11">
@@ -52695,7 +52700,7 @@
       </c>
       <c r="J479" s="2"/>
       <c r="K479" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="480" hidden="1" customHeight="1" spans="1:11">
@@ -52726,7 +52731,7 @@
       </c>
       <c r="J480" s="2"/>
       <c r="K480" s="2" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="481" hidden="1" spans="1:11">
@@ -52757,7 +52762,7 @@
       </c>
       <c r="J481" s="2"/>
       <c r="K481" s="3" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="482" hidden="1" spans="1:11">
@@ -52771,7 +52776,7 @@
         <v>223</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>198</v>
@@ -52784,11 +52789,11 @@
       </c>
       <c r="H482" s="22"/>
       <c r="I482" s="2" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="J482" s="2"/>
       <c r="K482" s="2" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="483" hidden="1" spans="1:11">
@@ -52819,7 +52824,7 @@
       </c>
       <c r="J483" s="2"/>
       <c r="K483" s="2" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="484" hidden="1" spans="1:11">
@@ -52850,7 +52855,7 @@
       </c>
       <c r="J484" s="2"/>
       <c r="K484" s="2" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="485" hidden="1" spans="1:11">
@@ -52881,7 +52886,7 @@
       </c>
       <c r="J485" s="2"/>
       <c r="K485" s="2" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="486" hidden="1" spans="1:11">
@@ -52908,11 +52913,11 @@
       </c>
       <c r="H486" s="22"/>
       <c r="I486" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="J486" s="2"/>
       <c r="K486" s="14" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="487" hidden="1" spans="1:11">
@@ -52943,7 +52948,7 @@
       </c>
       <c r="J487" s="2"/>
       <c r="K487" s="2" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="488" hidden="1" spans="1:11">
@@ -52970,11 +52975,11 @@
       </c>
       <c r="H488" s="22"/>
       <c r="I488" s="3" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="489" hidden="1" spans="1:11">
@@ -53001,11 +53006,11 @@
       </c>
       <c r="H489" s="22"/>
       <c r="I489" s="34" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J489" s="2"/>
       <c r="K489" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="490" hidden="1" spans="1:11">
@@ -53036,7 +53041,7 @@
       </c>
       <c r="J490" s="2"/>
       <c r="K490" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="491" hidden="1" spans="1:11">
@@ -53063,7 +53068,7 @@
       </c>
       <c r="H491" s="22"/>
       <c r="I491" s="34" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
@@ -53092,11 +53097,11 @@
       </c>
       <c r="H492" s="22"/>
       <c r="I492" s="34" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J492" s="2"/>
       <c r="K492" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="493" hidden="1" spans="1:11">
@@ -53123,11 +53128,11 @@
       </c>
       <c r="H493" s="22"/>
       <c r="I493" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J493" s="2"/>
       <c r="K493" s="3" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="494" hidden="1" spans="1:11">
@@ -53158,7 +53163,7 @@
       </c>
       <c r="J494" s="2"/>
       <c r="K494" s="3" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="495" hidden="1" spans="1:11">
@@ -53185,11 +53190,11 @@
       </c>
       <c r="H495" s="22"/>
       <c r="I495" s="34" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J495" s="2"/>
       <c r="K495" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="496" hidden="1" spans="1:11">
@@ -53216,11 +53221,11 @@
       </c>
       <c r="H496" s="22"/>
       <c r="I496" s="34" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J496" s="2"/>
       <c r="K496" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="497" hidden="1" spans="1:11">
@@ -53247,11 +53252,11 @@
       </c>
       <c r="H497" s="22"/>
       <c r="I497" s="34" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J497" s="2"/>
       <c r="K497" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="498" hidden="1" spans="1:11">
@@ -53282,7 +53287,7 @@
       </c>
       <c r="J498" s="2"/>
       <c r="K498" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="499" hidden="1" spans="1:11">
@@ -53309,11 +53314,11 @@
       </c>
       <c r="H499" s="22"/>
       <c r="I499" s="3" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="J499" s="2"/>
       <c r="K499" s="2" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="500" hidden="1" spans="1:11">
@@ -53340,11 +53345,11 @@
       </c>
       <c r="H500" s="22"/>
       <c r="I500" s="34" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="2" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="501" hidden="1" spans="1:11">
@@ -53371,11 +53376,11 @@
       </c>
       <c r="H501" s="22"/>
       <c r="I501" s="3" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="J501" s="2"/>
       <c r="K501" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="502" hidden="1" spans="1:11">
@@ -53402,7 +53407,7 @@
       </c>
       <c r="H502" s="22"/>
       <c r="I502" s="34" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
@@ -53429,13 +53434,13 @@
       <c r="G503" s="2"/>
       <c r="H503" s="22"/>
       <c r="I503" s="3" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K503" s="49" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="L503" t="s">
         <v>1139</v>
@@ -53467,7 +53472,7 @@
       </c>
       <c r="J504" s="2"/>
       <c r="K504" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="505" hidden="1" spans="1:12">
@@ -53492,13 +53497,13 @@
       <c r="G505" s="2"/>
       <c r="H505" s="22"/>
       <c r="I505" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J505" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="K505" s="14" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="L505" t="s">
         <v>1139</v>
@@ -53526,13 +53531,13 @@
       <c r="G506" s="2"/>
       <c r="H506" s="22"/>
       <c r="I506" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="K506" s="14" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="L506" t="s">
         <v>1139</v>
@@ -53566,7 +53571,7 @@
         <v>1171</v>
       </c>
       <c r="K507" s="14" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="L507" t="s">
         <v>1139</v>
@@ -53600,7 +53605,7 @@
         <v>1171</v>
       </c>
       <c r="K508" s="2" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="L508" t="s">
         <v>1139</v>
@@ -53634,7 +53639,7 @@
         <v>1171</v>
       </c>
       <c r="K509" s="14" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="L509" t="s">
         <v>1139</v>
@@ -53662,11 +53667,11 @@
       <c r="G510" s="2"/>
       <c r="H510" s="22"/>
       <c r="I510" s="3" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="511" hidden="1" spans="1:12">
@@ -53697,7 +53702,7 @@
         <v>1171</v>
       </c>
       <c r="K511" s="14" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="L511" t="s">
         <v>1139</v>
@@ -53725,13 +53730,13 @@
       <c r="G512" s="2"/>
       <c r="H512" s="22"/>
       <c r="I512" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J512" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="K512" s="14" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="L512" t="s">
         <v>1139</v>
@@ -53742,7 +53747,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="3" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>198</v>
@@ -53756,10 +53761,10 @@
         <v>1276</v>
       </c>
       <c r="J513" s="2" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="K513" s="14" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="L513" t="s">
         <v>1139</v>
@@ -53770,7 +53775,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>198</v>
@@ -53784,10 +53789,10 @@
         <v>1276</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="K514" s="14" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="L514" t="s">
         <v>1139</v>
@@ -53815,10 +53820,10 @@
       <c r="G515" s="2"/>
       <c r="H515" s="22"/>
       <c r="I515" s="3" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="J515" s="2" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="K515" s="2"/>
       <c r="L515" t="s">
@@ -53836,7 +53841,7 @@
         <v>285</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -53847,11 +53852,11 @@
       <c r="G516" s="2"/>
       <c r="H516" s="22"/>
       <c r="I516" s="48" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="14" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="L516" t="s">
         <v>1139</v>
@@ -53862,7 +53867,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>198</v>
@@ -53873,11 +53878,11 @@
       <c r="G517" s="2"/>
       <c r="H517" s="22"/>
       <c r="I517" s="48" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="14" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="L517" t="s">
         <v>1139</v>
@@ -53909,7 +53914,7 @@
       </c>
       <c r="J518" s="2"/>
       <c r="K518" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="519" hidden="1" spans="1:12">
@@ -53940,7 +53945,7 @@
         <v>1137</v>
       </c>
       <c r="K519" s="14" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="L519" t="s">
         <v>1139</v>
@@ -53968,13 +53973,13 @@
       <c r="G520" s="2"/>
       <c r="H520" s="22"/>
       <c r="I520" s="48" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="K520" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="L520" t="s">
         <v>1139</v>
@@ -54002,13 +54007,13 @@
       <c r="G521" s="2"/>
       <c r="H521" s="22"/>
       <c r="I521" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="K521" s="14" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="L521" t="s">
         <v>1139</v>
@@ -54040,7 +54045,7 @@
       </c>
       <c r="J522" s="2"/>
       <c r="K522" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="523" hidden="1" spans="1:11">
@@ -54069,7 +54074,7 @@
       </c>
       <c r="J523" s="2"/>
       <c r="K523" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="524" hidden="1" spans="1:11">
@@ -54098,7 +54103,7 @@
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="525" hidden="1" spans="1:12">
@@ -54123,13 +54128,13 @@
       <c r="G525" s="2"/>
       <c r="H525" s="22"/>
       <c r="I525" s="3" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="K525" s="14" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="L525" t="s">
         <v>1139</v>
@@ -54146,7 +54151,7 @@
         <v>295</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>198</v>
@@ -54157,13 +54162,13 @@
       <c r="G526" s="2"/>
       <c r="H526" s="22"/>
       <c r="I526" s="3" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>1137</v>
       </c>
       <c r="K526" s="14" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="L526" t="s">
         <v>1139</v>
@@ -54195,7 +54200,7 @@
       </c>
       <c r="J527" s="2"/>
       <c r="K527" s="2" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="528" hidden="1" spans="1:12">
@@ -54220,13 +54225,13 @@
       <c r="G528" s="2"/>
       <c r="H528" s="22"/>
       <c r="I528" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J528" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="L528" t="s">
         <v>1139</v>
@@ -54254,13 +54259,13 @@
       <c r="G529" s="2"/>
       <c r="H529" s="22"/>
       <c r="I529" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="J529" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="K529" s="14" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="L529" t="s">
         <v>1139</v>
@@ -54277,7 +54282,7 @@
         <v>300</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>198</v>
@@ -54288,11 +54293,11 @@
       <c r="G530" s="2"/>
       <c r="H530" s="22"/>
       <c r="I530" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="J530" s="2"/>
       <c r="K530" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="531" hidden="1" spans="1:12">
@@ -54300,7 +54305,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>198</v>
@@ -54315,7 +54320,7 @@
         <v>1137</v>
       </c>
       <c r="K531" s="14" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="L531" t="s">
         <v>1139</v>
@@ -54343,13 +54348,13 @@
       <c r="G532" s="2"/>
       <c r="H532" s="22"/>
       <c r="I532" s="3" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="J532" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="K532" s="14" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="L532" t="s">
         <v>1139</v>
@@ -54377,13 +54382,13 @@
       <c r="G533" s="2"/>
       <c r="H533" s="25"/>
       <c r="I533" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J533" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="K533" s="14" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="L533" t="s">
         <v>1139</v>
@@ -54412,10 +54417,10 @@
         <v>1</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
@@ -54443,10 +54448,10 @@
         <v>1</v>
       </c>
       <c r="H535" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="I535" s="3" t="s">
         <v>1825</v>
-      </c>
-      <c r="I535" s="3" t="s">
-        <v>1824</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
@@ -54474,10 +54479,10 @@
         <v>1</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
@@ -54505,10 +54510,10 @@
         <v>1</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -54536,10 +54541,10 @@
         <v>1</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
@@ -54567,10 +54572,10 @@
         <v>1</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
@@ -54598,10 +54603,10 @@
         <v>1</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
@@ -54629,10 +54634,10 @@
         <v>1</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
@@ -54660,10 +54665,10 @@
         <v>1</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
@@ -54691,10 +54696,10 @@
         <v>1</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
@@ -54722,10 +54727,10 @@
         <v>1</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
@@ -54753,10 +54758,10 @@
         <v>1</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
@@ -54784,10 +54789,10 @@
         <v>1</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
@@ -54815,10 +54820,10 @@
         <v>1</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
@@ -54846,10 +54851,10 @@
         <v>1</v>
       </c>
       <c r="H548" s="3" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
@@ -54877,10 +54882,10 @@
         <v>1</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
@@ -54908,10 +54913,10 @@
         <v>1</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
@@ -54939,10 +54944,10 @@
         <v>1</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
@@ -54970,10 +54975,10 @@
         <v>1</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -55001,10 +55006,10 @@
         <v>1</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
@@ -55032,10 +55037,10 @@
         <v>1</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
@@ -55051,7 +55056,7 @@
         <v>438</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>404</v>
@@ -55063,14 +55068,14 @@
         <v>1</v>
       </c>
       <c r="H555" s="21" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="18" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="556" hidden="1" spans="1:11">
@@ -55084,7 +55089,7 @@
         <v>438</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>404</v>
@@ -55097,11 +55102,11 @@
       </c>
       <c r="H556" s="22"/>
       <c r="I556" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J556" s="2"/>
       <c r="K556" s="18" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="557" hidden="1" spans="1:11">
@@ -55115,7 +55120,7 @@
         <v>438</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>404</v>
@@ -55128,11 +55133,11 @@
       </c>
       <c r="H557" s="22"/>
       <c r="I557" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="18" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="558" hidden="1" spans="1:11">
@@ -55146,7 +55151,7 @@
         <v>440</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>404</v>
@@ -55159,11 +55164,11 @@
       </c>
       <c r="H558" s="22"/>
       <c r="I558" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J558" s="2"/>
       <c r="K558" s="18" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="559" hidden="1" spans="1:11">
@@ -55177,7 +55182,7 @@
         <v>440</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>404</v>
@@ -55190,11 +55195,11 @@
       </c>
       <c r="H559" s="22"/>
       <c r="I559" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="18" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="560" hidden="1" spans="1:11">
@@ -55208,7 +55213,7 @@
         <v>440</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>404</v>
@@ -55221,11 +55226,11 @@
       </c>
       <c r="H560" s="22"/>
       <c r="I560" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="J560" s="2"/>
       <c r="K560" s="18" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="561" hidden="1" spans="1:11">
@@ -55239,7 +55244,7 @@
         <v>442</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>404</v>
@@ -55252,11 +55257,11 @@
       </c>
       <c r="H561" s="22"/>
       <c r="I561" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="18" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="562" hidden="1" spans="1:11">
@@ -55270,7 +55275,7 @@
         <v>442</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>404</v>
@@ -55283,11 +55288,11 @@
       </c>
       <c r="H562" s="22"/>
       <c r="I562" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="18" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="563" hidden="1" spans="1:11">
@@ -55301,7 +55306,7 @@
         <v>442</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>404</v>
@@ -55314,11 +55319,11 @@
       </c>
       <c r="H563" s="22"/>
       <c r="I563" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J563" s="2"/>
       <c r="K563" s="18" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="564" hidden="1" spans="1:11">
@@ -55332,7 +55337,7 @@
         <v>444</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>404</v>
@@ -55345,11 +55350,11 @@
       </c>
       <c r="H564" s="22"/>
       <c r="I564" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="18" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="565" hidden="1" spans="1:11">
@@ -55363,7 +55368,7 @@
         <v>444</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>404</v>
@@ -55376,11 +55381,11 @@
       </c>
       <c r="H565" s="22"/>
       <c r="I565" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J565" s="2"/>
       <c r="K565" s="18" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="566" hidden="1" spans="1:11">
@@ -55394,7 +55399,7 @@
         <v>444</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>404</v>
@@ -55411,7 +55416,7 @@
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="18" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="567" hidden="1" spans="1:11">
@@ -55425,7 +55430,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>404</v>
@@ -55442,7 +55447,7 @@
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="18" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="568" hidden="1" spans="1:11">
@@ -55456,7 +55461,7 @@
         <v>446</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>404</v>
@@ -55469,11 +55474,11 @@
       </c>
       <c r="H568" s="22"/>
       <c r="I568" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J568" s="2"/>
       <c r="K568" s="18" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="569" ht="16.5" hidden="1" spans="1:11">
@@ -55487,7 +55492,7 @@
         <v>446</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>404</v>
@@ -55500,11 +55505,11 @@
       </c>
       <c r="H569" s="22"/>
       <c r="I569" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="50" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="570" hidden="1" spans="1:11">
@@ -55518,7 +55523,7 @@
         <v>448</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>404</v>
@@ -55531,11 +55536,11 @@
       </c>
       <c r="H570" s="22"/>
       <c r="I570" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="18" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="571" hidden="1" spans="1:11">
@@ -55549,7 +55554,7 @@
         <v>448</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>404</v>
@@ -55566,7 +55571,7 @@
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="18" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="572" hidden="1" spans="1:11">
@@ -55580,7 +55585,7 @@
         <v>448</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>404</v>
@@ -55593,11 +55598,11 @@
       </c>
       <c r="H572" s="22"/>
       <c r="I572" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="18" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="573" hidden="1" spans="1:11">
@@ -55611,7 +55616,7 @@
         <v>434</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>404</v>
@@ -55628,7 +55633,7 @@
       </c>
       <c r="J573" s="2"/>
       <c r="K573" s="18" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="574" hidden="1" spans="1:11">
@@ -55642,7 +55647,7 @@
         <v>434</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>404</v>
@@ -55659,7 +55664,7 @@
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="18" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="575" hidden="1" spans="1:11">
@@ -55673,7 +55678,7 @@
         <v>434</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>404</v>
@@ -55690,7 +55695,7 @@
       </c>
       <c r="J575" s="2"/>
       <c r="K575" s="18" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="576" ht="16.5" hidden="1" spans="1:11">
@@ -55704,7 +55709,7 @@
         <v>434</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>404</v>
@@ -55721,7 +55726,7 @@
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="50" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="577" hidden="1" spans="1:11">
@@ -55735,7 +55740,7 @@
         <v>451</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>404</v>
@@ -55752,7 +55757,7 @@
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="18" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="578" hidden="1" spans="1:11">
@@ -55766,7 +55771,7 @@
         <v>451</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>404</v>
@@ -55779,11 +55784,11 @@
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J578" s="2"/>
       <c r="K578" s="45" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="579" hidden="1" spans="1:11">
@@ -55797,7 +55802,7 @@
         <v>451</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>404</v>
@@ -55814,7 +55819,7 @@
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="45" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="580" hidden="1" spans="1:11">
@@ -55828,7 +55833,7 @@
         <v>453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>404</v>
@@ -55841,11 +55846,11 @@
       </c>
       <c r="H580" s="22"/>
       <c r="I580" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="18" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="581" hidden="1" spans="1:11">
@@ -55859,7 +55864,7 @@
         <v>453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>404</v>
@@ -55872,11 +55877,11 @@
       </c>
       <c r="H581" s="22"/>
       <c r="I581" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="18" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="582" ht="16.5" hidden="1" spans="1:11">
@@ -55890,7 +55895,7 @@
         <v>453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>404</v>
@@ -55903,11 +55908,11 @@
       </c>
       <c r="H582" s="22"/>
       <c r="I582" s="3" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="50" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="583" hidden="1" spans="1:11">
@@ -55921,7 +55926,7 @@
         <v>455</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>404</v>
@@ -55938,7 +55943,7 @@
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="18" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="584" hidden="1" spans="1:11">
@@ -55952,7 +55957,7 @@
         <v>455</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>404</v>
@@ -55969,7 +55974,7 @@
       </c>
       <c r="J584" s="2"/>
       <c r="K584" s="18" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="585" hidden="1" spans="1:11">
@@ -55983,7 +55988,7 @@
         <v>455</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>404</v>
@@ -55996,11 +56001,11 @@
       </c>
       <c r="H585" s="22"/>
       <c r="I585" s="3" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="18" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="586" hidden="1" spans="1:11">
@@ -56014,7 +56019,7 @@
         <v>455</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>404</v>
@@ -56027,11 +56032,11 @@
       </c>
       <c r="H586" s="22"/>
       <c r="I586" s="3" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="J586" s="2"/>
       <c r="K586" s="18" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="587" hidden="1" spans="1:11">
@@ -56045,7 +56050,7 @@
         <v>457</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>404</v>
@@ -56058,11 +56063,11 @@
       </c>
       <c r="H587" s="22"/>
       <c r="I587" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="45" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="588" hidden="1" spans="1:11">
@@ -56076,7 +56081,7 @@
         <v>457</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>404</v>
@@ -56089,11 +56094,11 @@
       </c>
       <c r="H588" s="22"/>
       <c r="I588" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="18" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="589" hidden="1" spans="1:11">
@@ -56107,7 +56112,7 @@
         <v>459</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>404</v>
@@ -56120,11 +56125,11 @@
       </c>
       <c r="H589" s="22"/>
       <c r="I589" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J589" s="2"/>
       <c r="K589" s="18" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="590" hidden="1" spans="1:11">
@@ -56138,7 +56143,7 @@
         <v>459</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>404</v>
@@ -56151,11 +56156,11 @@
       </c>
       <c r="H590" s="22"/>
       <c r="I590" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="18" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="591" hidden="1" spans="1:11">
@@ -56169,7 +56174,7 @@
         <v>459</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>404</v>
@@ -56182,11 +56187,11 @@
       </c>
       <c r="H591" s="22"/>
       <c r="I591" s="3" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="J591" s="2"/>
       <c r="K591" s="18" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="592" hidden="1" spans="1:11">
@@ -56200,7 +56205,7 @@
         <v>461</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>404</v>
@@ -56213,11 +56218,11 @@
       </c>
       <c r="H592" s="22"/>
       <c r="I592" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="18" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="593" hidden="1" spans="1:11">
@@ -56231,7 +56236,7 @@
         <v>461</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>404</v>
@@ -56244,11 +56249,11 @@
       </c>
       <c r="H593" s="22"/>
       <c r="I593" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="18" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="594" hidden="1" spans="1:11">
@@ -56262,7 +56267,7 @@
         <v>461</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>404</v>
@@ -56275,11 +56280,11 @@
       </c>
       <c r="H594" s="22"/>
       <c r="I594" s="3" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="J594" s="2"/>
       <c r="K594" s="18" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="595" hidden="1" spans="1:11">
@@ -56293,7 +56298,7 @@
         <v>463</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>404</v>
@@ -56310,7 +56315,7 @@
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="18" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="596" hidden="1" spans="1:11">
@@ -56324,7 +56329,7 @@
         <v>463</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>404</v>
@@ -56341,7 +56346,7 @@
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="18" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="597" hidden="1" spans="1:11">
@@ -56355,7 +56360,7 @@
         <v>463</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>404</v>
@@ -56372,7 +56377,7 @@
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="18" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="598" hidden="1" spans="1:11">
@@ -56386,7 +56391,7 @@
         <v>465</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>404</v>
@@ -56399,11 +56404,11 @@
       </c>
       <c r="H598" s="22"/>
       <c r="I598" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="18" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="599" hidden="1" spans="1:11">
@@ -56417,7 +56422,7 @@
         <v>465</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>404</v>
@@ -56430,11 +56435,11 @@
       </c>
       <c r="H599" s="22"/>
       <c r="I599" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="18" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="600" ht="16.5" hidden="1" spans="1:11">
@@ -56448,7 +56453,7 @@
         <v>465</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>404</v>
@@ -56461,11 +56466,11 @@
       </c>
       <c r="H600" s="22"/>
       <c r="I600" s="3" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="J600" s="2"/>
       <c r="K600" s="50" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="601" hidden="1" spans="1:11">
@@ -56479,7 +56484,7 @@
         <v>467</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>404</v>
@@ -56492,11 +56497,11 @@
       </c>
       <c r="H601" s="22"/>
       <c r="I601" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J601" s="2"/>
       <c r="K601" s="18" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="602" hidden="1" spans="1:11">
@@ -56510,7 +56515,7 @@
         <v>467</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>404</v>
@@ -56523,11 +56528,11 @@
       </c>
       <c r="H602" s="22"/>
       <c r="I602" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J602" s="2"/>
       <c r="K602" s="18" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="603" hidden="1" spans="1:11">
@@ -56535,7 +56540,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="3" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>404</v>
@@ -56548,11 +56553,11 @@
       </c>
       <c r="H603" s="22"/>
       <c r="I603" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J603" s="2"/>
       <c r="K603" s="18" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="604" hidden="1" spans="1:11">
@@ -56566,7 +56571,7 @@
         <v>469</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>404</v>
@@ -56579,11 +56584,11 @@
       </c>
       <c r="H604" s="22"/>
       <c r="I604" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J604" s="2"/>
       <c r="K604" s="18" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="605" hidden="1" spans="1:11">
@@ -56597,7 +56602,7 @@
         <v>469</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>404</v>
@@ -56610,11 +56615,11 @@
       </c>
       <c r="H605" s="22"/>
       <c r="I605" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J605" s="2"/>
       <c r="K605" s="18" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="606" hidden="1" spans="1:11">
@@ -56628,7 +56633,7 @@
         <v>469</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>404</v>
@@ -56641,11 +56646,11 @@
       </c>
       <c r="H606" s="22"/>
       <c r="I606" s="3" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="J606" s="2"/>
       <c r="K606" s="18" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="607" hidden="1" spans="1:11">
@@ -56659,7 +56664,7 @@
         <v>471</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>404</v>
@@ -56672,11 +56677,11 @@
       </c>
       <c r="H607" s="22"/>
       <c r="I607" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J607" s="2"/>
       <c r="K607" s="18" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="608" hidden="1" spans="1:11">
@@ -56690,7 +56695,7 @@
         <v>471</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>404</v>
@@ -56707,7 +56712,7 @@
       </c>
       <c r="J608" s="2"/>
       <c r="K608" s="18" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="609" hidden="1" spans="1:11">
@@ -56721,7 +56726,7 @@
         <v>471</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>404</v>
@@ -56734,11 +56739,11 @@
       </c>
       <c r="H609" s="22"/>
       <c r="I609" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J609" s="2"/>
       <c r="K609" s="18" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="610" hidden="1" spans="1:11">
@@ -56752,7 +56757,7 @@
         <v>473</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>404</v>
@@ -56765,11 +56770,11 @@
       </c>
       <c r="H610" s="22"/>
       <c r="I610" s="3" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="J610" s="2"/>
       <c r="K610" s="18" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="611" hidden="1" spans="1:11">
@@ -56783,7 +56788,7 @@
         <v>473</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>404</v>
@@ -56796,11 +56801,11 @@
       </c>
       <c r="H611" s="22"/>
       <c r="I611" s="3" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="J611" s="2"/>
       <c r="K611" s="18" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="612" hidden="1" spans="1:11">
@@ -56814,7 +56819,7 @@
         <v>473</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>404</v>
@@ -56827,11 +56832,11 @@
       </c>
       <c r="H612" s="22"/>
       <c r="I612" s="3" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="J612" s="2"/>
       <c r="K612" s="18" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="613" hidden="1" spans="1:11">
@@ -56845,7 +56850,7 @@
         <v>475</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>404</v>
@@ -56858,11 +56863,11 @@
       </c>
       <c r="H613" s="22"/>
       <c r="I613" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J613" s="2"/>
       <c r="K613" s="18" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="614" hidden="1" spans="1:11">
@@ -56876,7 +56881,7 @@
         <v>475</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>404</v>
@@ -56889,11 +56894,11 @@
       </c>
       <c r="H614" s="22"/>
       <c r="I614" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J614" s="2"/>
       <c r="K614" s="18" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="615" hidden="1" spans="1:11">
@@ -56907,7 +56912,7 @@
         <v>475</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>404</v>
@@ -56920,11 +56925,11 @@
       </c>
       <c r="H615" s="22"/>
       <c r="I615" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J615" s="2"/>
       <c r="K615" s="18" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="616" hidden="1" spans="1:11">
@@ -56938,7 +56943,7 @@
         <v>477</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>404</v>
@@ -56951,11 +56956,11 @@
       </c>
       <c r="H616" s="22"/>
       <c r="I616" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J616" s="2"/>
       <c r="K616" s="18" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="617" hidden="1" spans="1:11">
@@ -56969,7 +56974,7 @@
         <v>477</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>404</v>
@@ -56986,7 +56991,7 @@
       </c>
       <c r="J617" s="2"/>
       <c r="K617" s="18" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="618" hidden="1" spans="1:11">
@@ -57000,7 +57005,7 @@
         <v>477</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>404</v>
@@ -57013,11 +57018,11 @@
       </c>
       <c r="H618" s="22"/>
       <c r="I618" s="3" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="18" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="619" hidden="1" spans="1:11">
@@ -57031,7 +57036,7 @@
         <v>479</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>404</v>
@@ -57048,7 +57053,7 @@
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="18" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="620" hidden="1" spans="1:11">
@@ -57062,7 +57067,7 @@
         <v>479</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>404</v>
@@ -57075,11 +57080,11 @@
       </c>
       <c r="H620" s="22"/>
       <c r="I620" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J620" s="2"/>
       <c r="K620" s="18" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="621" hidden="1" spans="1:11">
@@ -57093,7 +57098,7 @@
         <v>479</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>404</v>
@@ -57106,11 +57111,11 @@
       </c>
       <c r="H621" s="22"/>
       <c r="I621" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J621" s="2"/>
       <c r="K621" s="18" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="622" hidden="1" spans="1:11">
@@ -57124,7 +57129,7 @@
         <v>481</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>404</v>
@@ -57137,11 +57142,11 @@
       </c>
       <c r="H622" s="22"/>
       <c r="I622" s="3" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="J622" s="2"/>
       <c r="K622" s="18" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="623" hidden="1" spans="1:11">
@@ -57155,7 +57160,7 @@
         <v>481</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>404</v>
@@ -57168,11 +57173,11 @@
       </c>
       <c r="H623" s="22"/>
       <c r="I623" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J623" s="2"/>
       <c r="K623" s="18" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="624" ht="16.5" hidden="1" spans="1:11">
@@ -57186,7 +57191,7 @@
         <v>481</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>404</v>
@@ -57199,11 +57204,11 @@
       </c>
       <c r="H624" s="22"/>
       <c r="I624" s="3" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="J624" s="2"/>
       <c r="K624" s="50" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="625" hidden="1" spans="1:11">
@@ -57217,7 +57222,7 @@
         <v>483</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>404</v>
@@ -57230,11 +57235,11 @@
       </c>
       <c r="H625" s="22"/>
       <c r="I625" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J625" s="2"/>
       <c r="K625" s="18" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="626" hidden="1" spans="1:11">
@@ -57248,7 +57253,7 @@
         <v>483</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>404</v>
@@ -57261,11 +57266,11 @@
       </c>
       <c r="H626" s="22"/>
       <c r="I626" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J626" s="2"/>
       <c r="K626" s="18" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="627" ht="16.5" hidden="1" spans="1:11">
@@ -57279,7 +57284,7 @@
         <v>483</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>404</v>
@@ -57292,11 +57297,11 @@
       </c>
       <c r="H627" s="22"/>
       <c r="I627" s="3" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="J627" s="2"/>
       <c r="K627" s="50" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="628" hidden="1" spans="1:11">
@@ -57310,7 +57315,7 @@
         <v>291</v>
       </c>
       <c r="D628" s="27" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>404</v>
@@ -57323,11 +57328,11 @@
       </c>
       <c r="H628" s="22"/>
       <c r="I628" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J628" s="2"/>
       <c r="K628" s="18" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="629" hidden="1" spans="1:11">
@@ -57341,7 +57346,7 @@
         <v>291</v>
       </c>
       <c r="D629" s="27" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>404</v>
@@ -57354,11 +57359,11 @@
       </c>
       <c r="H629" s="22"/>
       <c r="I629" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J629" s="2"/>
       <c r="K629" s="18" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="630" hidden="1" spans="1:11">
@@ -57372,7 +57377,7 @@
         <v>291</v>
       </c>
       <c r="D630" s="27" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>404</v>
@@ -57385,11 +57390,11 @@
       </c>
       <c r="H630" s="22"/>
       <c r="I630" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J630" s="2"/>
       <c r="K630" s="18" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="631" hidden="1" spans="1:11">
@@ -57403,7 +57408,7 @@
         <v>486</v>
       </c>
       <c r="D631" s="27" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>404</v>
@@ -57416,11 +57421,11 @@
       </c>
       <c r="H631" s="22"/>
       <c r="I631" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J631" s="2"/>
       <c r="K631" s="18" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="632" hidden="1" spans="1:11">
@@ -57434,7 +57439,7 @@
         <v>486</v>
       </c>
       <c r="D632" s="27" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>404</v>
@@ -57447,11 +57452,11 @@
       </c>
       <c r="H632" s="22"/>
       <c r="I632" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J632" s="2"/>
       <c r="K632" s="18" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="633" hidden="1" spans="1:11">
@@ -57465,7 +57470,7 @@
         <v>486</v>
       </c>
       <c r="D633" s="27" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>404</v>
@@ -57478,11 +57483,11 @@
       </c>
       <c r="H633" s="22"/>
       <c r="I633" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="18" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="634" ht="16.5" hidden="1" spans="1:11">
@@ -57496,7 +57501,7 @@
         <v>488</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>404</v>
@@ -57509,11 +57514,11 @@
       </c>
       <c r="H634" s="22"/>
       <c r="I634" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J634" s="2"/>
       <c r="K634" s="16" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="635" hidden="1" spans="1:11">
@@ -57527,7 +57532,7 @@
         <v>488</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>404</v>
@@ -57540,11 +57545,11 @@
       </c>
       <c r="H635" s="22"/>
       <c r="I635" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="18" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="636" hidden="1" spans="1:11">
@@ -57558,7 +57563,7 @@
         <v>488</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>404</v>
@@ -57571,11 +57576,11 @@
       </c>
       <c r="H636" s="22"/>
       <c r="I636" s="3" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="18" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="637" hidden="1" spans="1:11">
@@ -57589,7 +57594,7 @@
         <v>490</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>404</v>
@@ -57606,7 +57611,7 @@
       </c>
       <c r="J637" s="2"/>
       <c r="K637" s="18" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="638" hidden="1" spans="1:11">
@@ -57620,7 +57625,7 @@
         <v>490</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>404</v>
@@ -57637,7 +57642,7 @@
       </c>
       <c r="J638" s="2"/>
       <c r="K638" s="18" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="639" hidden="1" spans="1:11">
@@ -57651,7 +57656,7 @@
         <v>490</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>404</v>
@@ -57664,11 +57669,11 @@
       </c>
       <c r="H639" s="22"/>
       <c r="I639" s="3" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="J639" s="2"/>
       <c r="K639" s="18" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="640" hidden="1" spans="1:11">
@@ -57682,7 +57687,7 @@
         <v>492</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>404</v>
@@ -57695,11 +57700,11 @@
       </c>
       <c r="H640" s="22"/>
       <c r="I640" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J640" s="2"/>
       <c r="K640" s="18" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="641" hidden="1" spans="1:11">
@@ -57713,7 +57718,7 @@
         <v>492</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>404</v>
@@ -57726,11 +57731,11 @@
       </c>
       <c r="H641" s="22"/>
       <c r="I641" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="J641" s="2"/>
       <c r="K641" s="18" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="642" hidden="1" spans="1:11">
@@ -57744,7 +57749,7 @@
         <v>492</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>404</v>
@@ -57757,11 +57762,11 @@
       </c>
       <c r="H642" s="22"/>
       <c r="I642" s="3" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="J642" s="2"/>
       <c r="K642" s="18" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="643" hidden="1" spans="1:11">
@@ -57775,7 +57780,7 @@
         <v>494</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>404</v>
@@ -57788,11 +57793,11 @@
       </c>
       <c r="H643" s="22"/>
       <c r="I643" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J643" s="2"/>
       <c r="K643" s="18" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="644" hidden="1" spans="1:11">
@@ -57806,7 +57811,7 @@
         <v>494</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>404</v>
@@ -57819,11 +57824,11 @@
       </c>
       <c r="H644" s="22"/>
       <c r="I644" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J644" s="2"/>
       <c r="K644" s="18" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="645" hidden="1" spans="1:11">
@@ -57837,7 +57842,7 @@
         <v>494</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>404</v>
@@ -57850,11 +57855,11 @@
       </c>
       <c r="H645" s="22"/>
       <c r="I645" s="3" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="J645" s="2"/>
       <c r="K645" s="18" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="646" hidden="1" spans="1:11">
@@ -57868,7 +57873,7 @@
         <v>496</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>404</v>
@@ -57885,7 +57890,7 @@
       </c>
       <c r="J646" s="2"/>
       <c r="K646" s="18" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="647" hidden="1" spans="1:11">
@@ -57899,7 +57904,7 @@
         <v>496</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>404</v>
@@ -57912,11 +57917,11 @@
       </c>
       <c r="H647" s="22"/>
       <c r="I647" s="3" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="J647" s="2"/>
       <c r="K647" s="18" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="648" ht="16.5" hidden="1" spans="1:11">
@@ -57930,7 +57935,7 @@
         <v>496</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>404</v>
@@ -57943,11 +57948,11 @@
       </c>
       <c r="H648" s="25"/>
       <c r="I648" s="3" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="J648" s="2"/>
       <c r="K648" s="50" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -58154,7 +58159,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -58165,7 +58170,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -58176,7 +58181,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -58187,7 +58192,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -58198,7 +58203,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -58209,7 +58214,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -58220,18 +58225,18 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -58242,7 +58247,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -58253,7 +58258,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -58264,18 +58269,18 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B12" s="4">
         <v>15</v>
@@ -58286,7 +58291,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -58297,7 +58302,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -58308,18 +58313,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -58330,7 +58335,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -58341,18 +58346,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -58363,18 +58368,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B20" s="4">
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -58385,7 +58390,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -58396,7 +58401,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -58407,7 +58412,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -58418,7 +58423,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -58429,13 +58434,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B26">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -58505,22 +58510,22 @@
         <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -58628,7 +58633,7 @@
         <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58757,7 +58762,7 @@
         <v>381</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58893,7 +58898,7 @@
         <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="C11" t="s">
         <v>401</v>
@@ -58950,7 +58955,7 @@
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
@@ -59097,10 +59102,10 @@
         <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="D2" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -59223,91 +59228,91 @@
         <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="D17" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="E17" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="F17" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="G17" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="H17" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="I17" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="J17" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="K17" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="L17" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="M17" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="N17" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O17" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="P17" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="Q17" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="R17" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="S17" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="T17" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="U17" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="V17" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="W17" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="X17" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="Y17" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="Z17" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="AA17" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="AB17" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="AC17" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="AD17" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="AE17" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -59318,7 +59323,7 @@
         <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -59334,61 +59339,61 @@
         <v>810</v>
       </c>
       <c r="C20" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="D20" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="E20" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="F20" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="G20" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="H20" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="I20" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="J20" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="K20" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="L20" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="M20" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="N20" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O20" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="P20" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="Q20" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="R20" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="S20" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="T20" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="U20" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -59399,103 +59404,103 @@
         <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D21" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="E21" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="F21" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="G21" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="H21" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="I21" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="J21" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="K21" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="L21" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="M21" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="N21" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="O21" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="P21" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="Q21" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="R21" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="S21" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="T21" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="U21" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="V21" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="W21" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="X21" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="Y21" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="Z21" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="AA21" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="AB21" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="AC21" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="AD21" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="AE21" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="AF21" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="AG21" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="AH21" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="AI21" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -59562,16 +59567,16 @@
         <v>741</v>
       </c>
       <c r="C29" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="D29" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="E29" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="F29" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -59611,7 +59616,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -59622,88 +59627,88 @@
         <v>551</v>
       </c>
       <c r="C35" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="D35" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="E35" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="F35" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G35" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H35" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I35" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="J35" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="K35" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="L35" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="M35" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="N35" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="O35" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="P35" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="Q35" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="R35" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="S35" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="T35" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="U35" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="V35" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="W35" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="X35" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="Y35" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="Z35" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="AA35" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="AB35" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="AC35" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="AD35" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -59714,28 +59719,28 @@
         <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="D36" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="E36" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="F36" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="G36" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="H36" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="I36" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="J36" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -59746,31 +59751,31 @@
         <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="D37" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="E37" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="F37" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="G37" t="s">
+        <v>2194</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2190</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2191</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K37" t="s">
         <v>2193</v>
-      </c>
-      <c r="H37" t="s">
-        <v>2189</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2190</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2191</v>
-      </c>
-      <c r="K37" t="s">
-        <v>2192</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -59781,37 +59786,37 @@
         <v>613</v>
       </c>
       <c r="C38" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="D38" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="E38" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="F38" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="G38" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="H38" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="I38" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="J38" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="K38" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="L38" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="M38" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -59822,19 +59827,19 @@
         <v>637</v>
       </c>
       <c r="C39" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="D39" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="E39" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="F39" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="G39" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -59845,100 +59850,100 @@
         <v>888</v>
       </c>
       <c r="C40" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D40" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E40" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="F40" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="G40" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="H40" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="I40" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="J40" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="K40" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="L40" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="M40" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N40" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="O40" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="P40" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="Q40" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="R40" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="S40" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="T40" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="U40" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="V40" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="W40" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="X40" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="Y40" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="Z40" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AA40" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AB40" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AC40" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AD40" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AE40" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AF40" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AG40" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="AH40" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -59949,31 +59954,31 @@
         <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="D41" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="E41" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="F41" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="G41" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="H41" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="I41" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="J41" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="K41" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -59989,31 +59994,31 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="D43" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="E43" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="F43" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="G43" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="H43" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="I43" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="J43" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="K43" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -60032,88 +60037,88 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="D45" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="E45" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="F45" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G45" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="H45" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="I45" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="J45" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="K45" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="L45" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="M45" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="N45" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="O45" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="P45" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="Q45" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="R45" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="S45" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="T45" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="U45" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="V45" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="W45" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="X45" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="Y45" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="Z45" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="AA45" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="AB45" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="AC45" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="AD45" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -60124,13 +60129,13 @@
         <v>724</v>
       </c>
       <c r="C46" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="D46" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="E46" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -60141,103 +60146,103 @@
         <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="D47" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="E47" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="F47" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="G47" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="H47" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="I47" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="J47" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="K47" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="L47" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="M47" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="N47" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="O47" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="P47" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="Q47" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="R47" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="S47" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="T47" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="U47" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="V47" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="W47" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="X47" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="Y47" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="Z47" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="AA47" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="AB47" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="AC47" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="AD47" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="AE47" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="AF47" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="AG47" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AH47" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="AI47" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -60248,67 +60253,67 @@
         <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="D48" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="E48" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="F48" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="G48" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="H48" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="I48" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="J48" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="K48" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="L48" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="M48" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="N48" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="O48" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="P48" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="Q48" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="R48" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="S48" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="T48" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="U48" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="V48" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="W48" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -60319,100 +60324,100 @@
         <v>888</v>
       </c>
       <c r="C49" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D49" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E49" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="F49" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="G49" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="H49" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="I49" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="J49" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="K49" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="L49" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="M49" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N49" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="O49" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="P49" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="Q49" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="R49" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="S49" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="T49" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="U49" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="V49" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="W49" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="X49" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="Y49" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="Z49" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AA49" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AB49" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AC49" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AD49" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AE49" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AF49" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AG49" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="AH49" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -60428,19 +60433,19 @@
         <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="D51" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="E51" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="F51" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="G51" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -60451,70 +60456,70 @@
         <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="D52" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="E52" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="F52" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="G52" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="H52" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="I52" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="J52" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="K52" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="L52" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="M52" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="N52" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="O52" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="P52" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="Q52" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="R52" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="S52" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="T52" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="U52" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="V52" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="W52" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="X52" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -60525,40 +60530,40 @@
         <v>662</v>
       </c>
       <c r="C53" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="D53" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="E53" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="F53" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="G53" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="H53" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="I53" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="J53" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="K53" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="L53" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="M53" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="N53" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -60585,28 +60590,28 @@
         <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="D56" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="E56" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="F56" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="G56" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="H56" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="I56" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="J56" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -60622,94 +60627,94 @@
         <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="D58" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="E58" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="F58" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="G58" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="H58" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="I58" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="J58" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="K58" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="L58" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="M58" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="N58" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="O58" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P58" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="Q58" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="R58" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="S58" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="T58" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="U58" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="V58" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="W58" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="X58" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="Y58" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="Z58" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AA58" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="AB58" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="AC58" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="AD58" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AE58" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="AF58" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="59" spans="1:55">
@@ -60717,267 +60722,267 @@
         <v>988</v>
       </c>
       <c r="B59" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="C59" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="D59" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="E59" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="F59" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="G59" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="H59" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="I59" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="J59" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="K59" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="L59" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="M59" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="N59" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="O59" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="P59" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="Q59" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="R59" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="S59" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="T59" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="U59" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="V59" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="W59" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="X59" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="Y59" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="Z59" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="AA59" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="AB59" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="AC59" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="AD59" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="AE59" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="AF59" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="AG59" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="AH59" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="AI59" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="AJ59" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="AK59" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="AL59" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="AM59" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="AN59" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="AO59" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="AP59" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="AQ59" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="AR59" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="AS59" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="AT59" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="AU59" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="AV59" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AW59" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="AX59" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="AY59" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AZ59" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="BA59" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="BB59" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="BC59" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B60" t="s">
         <v>888</v>
       </c>
       <c r="C60" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D60" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E60" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="F60" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="G60" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="H60" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="I60" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="J60" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="K60" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="L60" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="M60" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="N60" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="O60" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="P60" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="Q60" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="R60" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="S60" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="T60" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="U60" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="V60" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="W60" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="X60" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="Y60" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="Z60" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AA60" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AB60" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="AC60" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AD60" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AE60" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AF60" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="AG60" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -61004,82 +61009,82 @@
         <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="D63" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="E63" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="F63" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="G63" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="H63" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="I63" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="J63" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="K63" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="L63" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="M63" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="N63" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="O63" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="P63" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="Q63" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="R63" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="S63" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="T63" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="U63" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="V63" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="W63" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="X63" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="Y63" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="Z63" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="AA63" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="AB63" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -61098,58 +61103,58 @@
         <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="D65" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="E65" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="F65" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="G65" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="H65" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="I65" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="J65" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="K65" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="L65" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="M65" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="N65" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="O65" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="P65" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="Q65" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="R65" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="S65" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="T65" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -61157,88 +61162,88 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="C66" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="D66" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="E66" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="F66" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="G66" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="H66" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="I66" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="J66" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="K66" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="L66" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="M66" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="N66" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="O66" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="P66" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="Q66" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="R66" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="S66" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="T66" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="U66" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="V66" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="W66" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="X66" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="Y66" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="Z66" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="AA66" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="AB66" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="AC66" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -61249,127 +61254,127 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="D67" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="E67" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="F67" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="G67" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="H67" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="I67" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="J67" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="K67" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="L67" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="M67" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="N67" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="O67" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="P67" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="Q67" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="R67" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="S67" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="T67" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="U67" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="V67" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="W67" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="X67" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="Y67" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="Z67" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="AA67" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="AB67" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="AC67" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="AD67" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="AE67" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="AF67" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="AG67" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="AH67" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="AI67" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="AJ67" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="AK67" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="AL67" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="AM67" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="AN67" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="AO67" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="AP67" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="AQ67" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -61380,7 +61385,7 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -61431,87 +61436,87 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
     </row>
   </sheetData>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫个数汇总" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7323" uniqueCount="2509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7327" uniqueCount="2511">
   <si>
     <t>服务器</t>
   </si>
@@ -4700,6 +4700,9 @@
     <t>http://60.28.163.169/jyxx/index.jhtml</t>
   </si>
   <si>
+    <t>已修改（20200924）</t>
+  </si>
+  <si>
     <t>http://xa.sxggzyjy.cn/jydt/trading.html</t>
   </si>
   <si>
@@ -4725,6 +4728,9 @@
   </si>
   <si>
     <t>上海市-公共交易平台</t>
+  </si>
+  <si>
+    <t>未修改</t>
   </si>
   <si>
     <t>https://www.bidcenter.com.cn/zhaobiao/area_1050_1169_1/</t>
@@ -21538,8 +21544,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H159" workbookViewId="0">
-      <selection activeCell="J284" sqref="J284"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="J295" sqref="J295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -30371,9 +30377,11 @@
       <c r="I284" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J284" s="2"/>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="2" t="s">
         <v>1505</v>
+      </c>
+      <c r="K284" s="14" t="s">
+        <v>1506</v>
       </c>
       <c r="L284" t="s">
         <v>1339</v>
@@ -30403,9 +30411,11 @@
       <c r="I285" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J285" s="2"/>
-      <c r="K285" s="2" t="s">
-        <v>1506</v>
+      <c r="J285" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K285" s="14" t="s">
+        <v>1507</v>
       </c>
       <c r="L285" t="s">
         <v>1339</v>
@@ -30433,13 +30443,13 @@
       <c r="G286" s="2"/>
       <c r="H286" s="11"/>
       <c r="I286" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K286" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="L286" t="s">
         <v>1339</v>
@@ -30471,7 +30481,7 @@
       </c>
       <c r="J287" s="2"/>
       <c r="K287" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -30479,18 +30489,20 @@
       <c r="B288" s="7"/>
       <c r="C288" s="2"/>
       <c r="D288" s="7" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="11"/>
       <c r="I288" s="3" t="s">
-        <v>1511</v>
-      </c>
-      <c r="J288" s="2"/>
-      <c r="K288" s="2" t="s">
         <v>1512</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K288" s="14" t="s">
+        <v>1513</v>
       </c>
       <c r="L288" t="s">
         <v>1339</v>
@@ -30501,18 +30513,20 @@
       <c r="B289" s="7"/>
       <c r="C289" s="2"/>
       <c r="D289" s="7" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="11"/>
       <c r="I289" s="3" t="s">
-        <v>1511</v>
-      </c>
-      <c r="J289" s="2"/>
+        <v>1512</v>
+      </c>
+      <c r="J289" s="2" t="s">
+        <v>1515</v>
+      </c>
       <c r="K289" s="2" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="L289" t="s">
         <v>1339</v>
@@ -30544,7 +30558,7 @@
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="L290" t="s">
         <v>1339</v>
@@ -30576,7 +30590,7 @@
       </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="L291" t="s">
         <v>1339</v>
@@ -30608,7 +30622,7 @@
       </c>
       <c r="J292" s="2"/>
       <c r="K292" s="2" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="L292" t="s">
         <v>1339</v>
@@ -30640,7 +30654,7 @@
       </c>
       <c r="J293" s="2"/>
       <c r="K293" s="2" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="L293" t="s">
         <v>1339</v>
@@ -30672,7 +30686,7 @@
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="L294" t="s">
         <v>1339</v>
@@ -30683,18 +30697,18 @@
       <c r="B295" s="7"/>
       <c r="C295" s="2"/>
       <c r="D295" s="7" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="11"/>
       <c r="I295" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="L295" t="s">
         <v>1339</v>
@@ -30705,18 +30719,18 @@
       <c r="B296" s="7"/>
       <c r="C296" s="2"/>
       <c r="D296" s="7" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="11"/>
       <c r="I296" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="L296" t="s">
         <v>1339</v>
@@ -30748,7 +30762,7 @@
       </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="L297" t="s">
         <v>1339</v>
@@ -30780,7 +30794,7 @@
       </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="L298" t="s">
         <v>1339</v>
@@ -30812,7 +30826,7 @@
       </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="L299" t="s">
         <v>1339</v>
@@ -30844,7 +30858,7 @@
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="L300" t="s">
         <v>1339</v>
@@ -30876,7 +30890,7 @@
       </c>
       <c r="J301" s="2"/>
       <c r="K301" s="2" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="L301" t="s">
         <v>1339</v>
@@ -30908,7 +30922,7 @@
       </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="L302" t="s">
         <v>1339</v>
@@ -30940,7 +30954,7 @@
       </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="L303" t="s">
         <v>1339</v>
@@ -30972,7 +30986,7 @@
       </c>
       <c r="J304" s="2"/>
       <c r="K304" s="2" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="L304" t="s">
         <v>1339</v>
@@ -31004,7 +31018,7 @@
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="L305" t="s">
         <v>1339</v>
@@ -31036,7 +31050,7 @@
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="L306" t="s">
         <v>1339</v>
@@ -31068,7 +31082,7 @@
       </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="L307" t="s">
         <v>1339</v>
@@ -31100,7 +31114,7 @@
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="L308" t="s">
         <v>1339</v>
@@ -31132,7 +31146,7 @@
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="L309" t="s">
         <v>1339</v>
@@ -31164,7 +31178,7 @@
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="2" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="L310" t="s">
         <v>1339</v>
@@ -31196,7 +31210,7 @@
       </c>
       <c r="J311" s="2"/>
       <c r="K311" s="15" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="312" hidden="1" spans="1:11">
@@ -31227,7 +31241,7 @@
       </c>
       <c r="J312" s="2"/>
       <c r="K312" s="18" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="313" hidden="1" spans="1:11">
@@ -31258,7 +31272,7 @@
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="18" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="314" hidden="1" spans="1:11">
@@ -31289,7 +31303,7 @@
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="18" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="315" hidden="1" spans="1:11">
@@ -31320,7 +31334,7 @@
       </c>
       <c r="J315" s="2"/>
       <c r="K315" s="18" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="316" hidden="1" spans="1:11">
@@ -31351,7 +31365,7 @@
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="18" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="317" hidden="1" spans="1:11">
@@ -31365,7 +31379,7 @@
         <v>859</v>
       </c>
       <c r="D317" s="27" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>751</v>
@@ -31382,7 +31396,7 @@
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="18" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="318" hidden="1" spans="1:11">
@@ -31413,7 +31427,7 @@
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="18" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="319" hidden="1" spans="1:11">
@@ -31444,7 +31458,7 @@
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="18" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="320" hidden="1" spans="1:11">
@@ -31475,7 +31489,7 @@
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="18" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="321" hidden="1" spans="1:11">
@@ -31506,7 +31520,7 @@
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="18" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="322" hidden="1" spans="1:11">
@@ -31537,7 +31551,7 @@
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="18" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:11">
@@ -31568,7 +31582,7 @@
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="18" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="324" hidden="1" spans="1:11">
@@ -31599,7 +31613,7 @@
       </c>
       <c r="J324" s="2"/>
       <c r="K324" s="18" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="325" hidden="1" spans="1:11">
@@ -31630,7 +31644,7 @@
       </c>
       <c r="J325" s="2"/>
       <c r="K325" s="18" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="326" hidden="1" spans="1:11">
@@ -31661,7 +31675,7 @@
       </c>
       <c r="J326" s="2"/>
       <c r="K326" s="18" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="327" hidden="1" spans="1:11">
@@ -31692,7 +31706,7 @@
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="18" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="328" hidden="1" spans="1:11">
@@ -31723,7 +31737,7 @@
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="18" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="329" hidden="1" spans="1:11">
@@ -31754,7 +31768,7 @@
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="18" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="330" hidden="1" spans="1:11">
@@ -31785,7 +31799,7 @@
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="18" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="331" hidden="1" spans="1:11">
@@ -31816,7 +31830,7 @@
       </c>
       <c r="J331" s="2"/>
       <c r="K331" s="18" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="332" hidden="1" spans="1:11">
@@ -31847,7 +31861,7 @@
       </c>
       <c r="J332" s="2"/>
       <c r="K332" s="18" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="333" hidden="1" spans="1:11">
@@ -31878,7 +31892,7 @@
       </c>
       <c r="J333" s="2"/>
       <c r="K333" s="18" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="334" hidden="1" spans="1:11">
@@ -31892,7 +31906,7 @@
         <v>885</v>
       </c>
       <c r="D334" s="27" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>751</v>
@@ -31909,7 +31923,7 @@
       </c>
       <c r="J334" s="2"/>
       <c r="K334" s="18" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="335" hidden="1" spans="1:11">
@@ -31935,14 +31949,14 @@
         <v>1</v>
       </c>
       <c r="H335" s="21" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="15" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="336" hidden="1" spans="1:11">
@@ -31969,11 +31983,11 @@
       </c>
       <c r="H336" s="22"/>
       <c r="I336" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="15" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="337" ht="16.5" hidden="1" spans="1:11">
@@ -32004,7 +32018,7 @@
       </c>
       <c r="J337" s="2"/>
       <c r="K337" s="39" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="338" hidden="1" spans="1:11">
@@ -32031,11 +32045,11 @@
       </c>
       <c r="H338" s="22"/>
       <c r="I338" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="18" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="339" hidden="1" spans="1:11">
@@ -32066,7 +32080,7 @@
       </c>
       <c r="J339" s="2"/>
       <c r="K339" s="18" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="340" hidden="1" spans="1:11">
@@ -32097,7 +32111,7 @@
       </c>
       <c r="J340" s="2"/>
       <c r="K340" s="40" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="341" hidden="1" spans="1:11">
@@ -32128,7 +32142,7 @@
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="18" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="342" hidden="1" spans="1:11">
@@ -32159,7 +32173,7 @@
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="18" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="343" hidden="1" spans="1:11">
@@ -32186,11 +32200,11 @@
       </c>
       <c r="H343" s="22"/>
       <c r="I343" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J343" s="2"/>
       <c r="K343" s="18" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="344" hidden="1" spans="1:11">
@@ -32217,11 +32231,11 @@
       </c>
       <c r="H344" s="22"/>
       <c r="I344" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J344" s="2"/>
       <c r="K344" s="18" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:11">
@@ -32252,7 +32266,7 @@
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="15" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="346" hidden="1" spans="1:11">
@@ -32283,7 +32297,7 @@
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="15" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="347" hidden="1" spans="1:11">
@@ -32314,7 +32328,7 @@
       </c>
       <c r="J347" s="2"/>
       <c r="K347" s="18" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="348" hidden="1" spans="1:11">
@@ -32345,7 +32359,7 @@
       </c>
       <c r="J348" s="2"/>
       <c r="K348" s="18" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="349" hidden="1" spans="1:11">
@@ -32376,7 +32390,7 @@
       </c>
       <c r="J349" s="2"/>
       <c r="K349" s="18" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="350" hidden="1" spans="1:11">
@@ -32407,7 +32421,7 @@
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="15" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="351" hidden="1" spans="1:11">
@@ -32438,7 +32452,7 @@
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="41" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="352" hidden="1" spans="1:11">
@@ -32469,7 +32483,7 @@
       </c>
       <c r="J352" s="2"/>
       <c r="K352" s="15" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="353" hidden="1" spans="1:11">
@@ -32496,11 +32510,11 @@
       </c>
       <c r="H353" s="22"/>
       <c r="I353" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J353" s="2"/>
       <c r="K353" s="15" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="354" hidden="1" spans="1:11">
@@ -32531,7 +32545,7 @@
       </c>
       <c r="J354" s="2"/>
       <c r="K354" s="15" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="355" hidden="1" spans="1:11">
@@ -32558,11 +32572,11 @@
       </c>
       <c r="H355" s="22"/>
       <c r="I355" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="18" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="356" hidden="1" spans="1:11">
@@ -32593,7 +32607,7 @@
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="41" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="357" hidden="1" spans="1:11">
@@ -32620,11 +32634,11 @@
       </c>
       <c r="H357" s="22"/>
       <c r="I357" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J357" s="2"/>
       <c r="K357" s="18" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="358" hidden="1" spans="1:11">
@@ -32651,11 +32665,11 @@
       </c>
       <c r="H358" s="22"/>
       <c r="I358" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J358" s="2"/>
       <c r="K358" s="15" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="359" hidden="1" spans="1:11">
@@ -32686,7 +32700,7 @@
       </c>
       <c r="J359" s="2"/>
       <c r="K359" s="18" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="360" hidden="1" spans="1:11">
@@ -32717,7 +32731,7 @@
       </c>
       <c r="J360" s="2"/>
       <c r="K360" s="15" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="361" hidden="1" spans="1:11">
@@ -32748,7 +32762,7 @@
       </c>
       <c r="J361" s="2"/>
       <c r="K361" s="18" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="362" hidden="1" spans="1:11">
@@ -32775,11 +32789,11 @@
       </c>
       <c r="H362" s="22"/>
       <c r="I362" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J362" s="2"/>
       <c r="K362" s="15" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="363" hidden="1" spans="1:11">
@@ -32806,11 +32820,11 @@
       </c>
       <c r="H363" s="22"/>
       <c r="I363" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J363" s="2"/>
       <c r="K363" s="18" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="364" hidden="1" spans="1:11">
@@ -32841,7 +32855,7 @@
       </c>
       <c r="J364" s="2"/>
       <c r="K364" s="18" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="365" hidden="1" spans="1:11">
@@ -32872,7 +32886,7 @@
       </c>
       <c r="J365" s="2"/>
       <c r="K365" s="18" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="366" hidden="1" spans="1:11">
@@ -32899,11 +32913,11 @@
       </c>
       <c r="H366" s="22"/>
       <c r="I366" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="18" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="367" hidden="1" spans="1:11">
@@ -32934,7 +32948,7 @@
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="15" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="368" hidden="1" spans="1:11">
@@ -32960,14 +32974,14 @@
         <v>1</v>
       </c>
       <c r="H368" s="21" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="18" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="369" hidden="1" spans="1:11">
@@ -32998,7 +33012,7 @@
       </c>
       <c r="J369" s="2"/>
       <c r="K369" s="18" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="370" hidden="1" spans="1:11">
@@ -33029,7 +33043,7 @@
       </c>
       <c r="J370" s="2"/>
       <c r="K370" s="18" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="371" hidden="1" spans="1:11">
@@ -33060,7 +33074,7 @@
       </c>
       <c r="J371" s="2"/>
       <c r="K371" s="18" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="372" hidden="1" spans="1:11">
@@ -33091,7 +33105,7 @@
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="373" hidden="1" spans="1:11">
@@ -33118,11 +33132,11 @@
       </c>
       <c r="H373" s="22"/>
       <c r="I373" s="3" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J373" s="2"/>
       <c r="K373" s="18" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="374" hidden="1" spans="1:11">
@@ -33149,11 +33163,11 @@
       </c>
       <c r="H374" s="22"/>
       <c r="I374" s="3" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J374" s="2"/>
       <c r="K374" s="18" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="375" hidden="1" spans="1:11">
@@ -33184,7 +33198,7 @@
       </c>
       <c r="J375" s="2"/>
       <c r="K375" s="18" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="376" hidden="1" spans="1:11">
@@ -33215,7 +33229,7 @@
       </c>
       <c r="J376" s="2"/>
       <c r="K376" s="18" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="377" hidden="1" spans="1:11">
@@ -33246,7 +33260,7 @@
       </c>
       <c r="J377" s="2"/>
       <c r="K377" s="18" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="378" hidden="1" spans="1:11">
@@ -33277,7 +33291,7 @@
       </c>
       <c r="J378" s="2"/>
       <c r="K378" s="18" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="379" hidden="1" spans="1:11">
@@ -33304,11 +33318,11 @@
       </c>
       <c r="H379" s="22"/>
       <c r="I379" s="3" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="18" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="380" hidden="1" spans="1:11">
@@ -33339,7 +33353,7 @@
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="18" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="381" hidden="1" spans="1:11">
@@ -33370,7 +33384,7 @@
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="18" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="382" hidden="1" spans="1:11">
@@ -33401,7 +33415,7 @@
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="18" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="383" hidden="1" spans="1:11">
@@ -33432,7 +33446,7 @@
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="18" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="384" hidden="1" spans="1:11">
@@ -33463,7 +33477,7 @@
       </c>
       <c r="J384" s="2"/>
       <c r="K384" s="18" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="385" hidden="1" spans="1:11">
@@ -33490,11 +33504,11 @@
       </c>
       <c r="H385" s="22"/>
       <c r="I385" s="3" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="J385" s="2"/>
       <c r="K385" s="18" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="386" hidden="1" spans="1:11">
@@ -33525,7 +33539,7 @@
       </c>
       <c r="J386" s="2"/>
       <c r="K386" s="18" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="387" hidden="1" spans="1:11">
@@ -33556,7 +33570,7 @@
       </c>
       <c r="J387" s="2"/>
       <c r="K387" s="18" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="388" hidden="1" spans="1:11">
@@ -33587,7 +33601,7 @@
       </c>
       <c r="J388" s="2"/>
       <c r="K388" s="2" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="389" hidden="1" spans="1:11">
@@ -33618,7 +33632,7 @@
       </c>
       <c r="J389" s="2"/>
       <c r="K389" s="18" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="390" hidden="1" spans="1:11">
@@ -33649,7 +33663,7 @@
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="18" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="391" hidden="1" spans="1:11">
@@ -33676,11 +33690,11 @@
       </c>
       <c r="H391" s="22"/>
       <c r="I391" s="3" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="18" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="392" hidden="1" spans="1:11">
@@ -33707,11 +33721,11 @@
       </c>
       <c r="H392" s="22"/>
       <c r="I392" s="3" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="18" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="393" hidden="1" spans="1:11">
@@ -33738,11 +33752,11 @@
       </c>
       <c r="H393" s="22"/>
       <c r="I393" s="3" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="18" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="394" hidden="1" spans="1:11">
@@ -33773,7 +33787,7 @@
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="18" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="395" hidden="1" spans="1:11">
@@ -33787,7 +33801,7 @@
         <v>980</v>
       </c>
       <c r="D395" s="27" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>890</v>
@@ -33804,7 +33818,7 @@
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="18" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="396" hidden="1" spans="1:11">
@@ -33818,7 +33832,7 @@
         <v>486</v>
       </c>
       <c r="D396" s="27" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>890</v>
@@ -33835,7 +33849,7 @@
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="18" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="397" hidden="1" spans="1:11">
@@ -33866,7 +33880,7 @@
       </c>
       <c r="J397" s="2"/>
       <c r="K397" s="18" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="398" hidden="1" spans="1:11">
@@ -33897,7 +33911,7 @@
       </c>
       <c r="J398" s="2"/>
       <c r="K398" s="18" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="399" hidden="1" spans="1:11">
@@ -33924,11 +33938,11 @@
       </c>
       <c r="H399" s="22"/>
       <c r="I399" s="3" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="18" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="400" hidden="1" spans="1:11">
@@ -33955,11 +33969,11 @@
       </c>
       <c r="H400" s="22"/>
       <c r="I400" s="3" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="18" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="401" hidden="1" spans="1:11">
@@ -33990,7 +34004,7 @@
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="18" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -34004,7 +34018,7 @@
         <v>888</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="E402" s="7" t="s">
         <v>890</v>
@@ -34014,14 +34028,14 @@
       </c>
       <c r="G402" s="2"/>
       <c r="H402" s="21" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="14" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="L402" t="s">
         <v>1339</v>
@@ -34032,7 +34046,7 @@
       <c r="B403" s="7"/>
       <c r="C403" s="2"/>
       <c r="D403" s="7" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E403" s="7" t="s">
         <v>890</v>
@@ -34043,11 +34057,11 @@
       <c r="G403" s="2"/>
       <c r="H403" s="22"/>
       <c r="I403" s="3" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="J403" s="2"/>
       <c r="K403" s="44" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="L403" t="s">
         <v>1339</v>
@@ -34079,7 +34093,7 @@
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="18" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="L404" t="s">
         <v>1339</v>
@@ -34111,7 +34125,7 @@
       </c>
       <c r="J405" s="2"/>
       <c r="K405" s="18" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="L405" t="s">
         <v>1339</v>
@@ -34143,7 +34157,7 @@
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="18" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="L406" t="s">
         <v>1339</v>
@@ -34175,7 +34189,7 @@
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="18" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -34189,7 +34203,7 @@
         <v>997</v>
       </c>
       <c r="D408" s="7" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="E408" s="7" t="s">
         <v>890</v>
@@ -34204,7 +34218,7 @@
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="18" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="L408" t="s">
         <v>1339</v>
@@ -34236,7 +34250,7 @@
       </c>
       <c r="J409" s="2"/>
       <c r="K409" s="18" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="L409" t="s">
         <v>1339</v>
@@ -34268,7 +34282,7 @@
       </c>
       <c r="J410" s="2"/>
       <c r="K410" s="18" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="L410" t="s">
         <v>1339</v>
@@ -34300,7 +34314,7 @@
       </c>
       <c r="J411" s="2"/>
       <c r="K411" s="18" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="L411" t="s">
         <v>1339</v>
@@ -34311,7 +34325,7 @@
       <c r="B412" s="7"/>
       <c r="C412" s="2"/>
       <c r="D412" s="7" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="E412" s="7" t="s">
         <v>890</v>
@@ -34322,11 +34336,11 @@
       <c r="G412" s="2"/>
       <c r="H412" s="22"/>
       <c r="I412" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="18" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="L412" t="s">
         <v>1339</v>
@@ -34343,7 +34357,7 @@
         <v>901</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="E413" s="7" t="s">
         <v>890</v>
@@ -34358,7 +34372,7 @@
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="19" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -34372,7 +34386,7 @@
         <v>1003</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="E414" s="7" t="s">
         <v>890</v>
@@ -34387,7 +34401,7 @@
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="18" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="L414" t="s">
         <v>1339</v>
@@ -34398,7 +34412,7 @@
       <c r="B415" s="7"/>
       <c r="C415" s="2"/>
       <c r="D415" s="7" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="E415" s="7" t="s">
         <v>890</v>
@@ -34409,11 +34423,11 @@
       <c r="G415" s="2"/>
       <c r="H415" s="22"/>
       <c r="I415" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="18" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="L415" t="s">
         <v>1339</v>
@@ -34424,7 +34438,7 @@
       <c r="B416" s="7"/>
       <c r="C416" s="2"/>
       <c r="D416" s="7" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="E416" s="7" t="s">
         <v>890</v>
@@ -34435,11 +34449,11 @@
       <c r="G416" s="2"/>
       <c r="H416" s="22"/>
       <c r="I416" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="18" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="L416" t="s">
         <v>1339</v>
@@ -34456,7 +34470,7 @@
         <v>903</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="E417" s="7" t="s">
         <v>890</v>
@@ -34471,7 +34485,7 @@
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="18" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -34479,7 +34493,7 @@
       <c r="B418" s="7"/>
       <c r="C418" s="2"/>
       <c r="D418" s="7" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="E418" s="7" t="s">
         <v>890</v>
@@ -34490,11 +34504,11 @@
       <c r="G418" s="2"/>
       <c r="H418" s="22"/>
       <c r="I418" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="18" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="L418" t="s">
         <v>1339</v>
@@ -34511,7 +34525,7 @@
         <v>907</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="E419" s="7" t="s">
         <v>890</v>
@@ -34526,7 +34540,7 @@
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="19" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="420" hidden="1" spans="1:11">
@@ -34540,7 +34554,7 @@
         <v>1007</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="E420" s="7" t="s">
         <v>890</v>
@@ -34555,7 +34569,7 @@
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="18" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -34580,13 +34594,13 @@
       <c r="G421" s="2"/>
       <c r="H421" s="22"/>
       <c r="I421" s="2" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K421" s="18" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="L421" t="s">
         <v>1339</v>
@@ -34618,7 +34632,7 @@
       </c>
       <c r="J422" s="2"/>
       <c r="K422" s="18" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="423" hidden="1" spans="1:11">
@@ -34647,7 +34661,7 @@
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="18" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -34655,7 +34669,7 @@
       <c r="B424" s="7"/>
       <c r="C424" s="2"/>
       <c r="D424" s="7" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="E424" s="7" t="s">
         <v>890</v>
@@ -34666,11 +34680,11 @@
       <c r="G424" s="2"/>
       <c r="H424" s="22"/>
       <c r="I424" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="18" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="L424" t="s">
         <v>1339</v>
@@ -34681,7 +34695,7 @@
       <c r="B425" s="7"/>
       <c r="C425" s="2"/>
       <c r="D425" s="7" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="E425" s="7" t="s">
         <v>890</v>
@@ -34692,11 +34706,11 @@
       <c r="G425" s="2"/>
       <c r="H425" s="22"/>
       <c r="I425" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J425" s="2"/>
       <c r="K425" s="18" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="L425" t="s">
         <v>1339</v>
@@ -34724,13 +34738,13 @@
       <c r="G426" s="2"/>
       <c r="H426" s="22"/>
       <c r="I426" s="3" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K426" s="19" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="L426" t="s">
         <v>1339</v>
@@ -34758,13 +34772,13 @@
       <c r="G427" s="2"/>
       <c r="H427" s="22"/>
       <c r="I427" s="3" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K427" s="18" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="L427" t="s">
         <v>1339</v>
@@ -34796,7 +34810,7 @@
       </c>
       <c r="J428" s="2"/>
       <c r="K428" s="45" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="L428" t="s">
         <v>1339</v>
@@ -34818,11 +34832,11 @@
       <c r="G429" s="2"/>
       <c r="H429" s="22"/>
       <c r="I429" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J429" s="2"/>
       <c r="K429" s="45" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="L429" t="s">
         <v>1339</v>
@@ -34839,7 +34853,7 @@
         <v>283</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="E430" s="7" t="s">
         <v>890</v>
@@ -34854,7 +34868,7 @@
       </c>
       <c r="J430" s="2"/>
       <c r="K430" s="18" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -34862,7 +34876,7 @@
       <c r="B431" s="7"/>
       <c r="C431" s="2"/>
       <c r="D431" s="7" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="E431" s="7" t="s">
         <v>890</v>
@@ -34873,11 +34887,11 @@
       <c r="G431" s="2"/>
       <c r="H431" s="22"/>
       <c r="I431" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J431" s="2"/>
       <c r="K431" s="18" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="L431" t="s">
         <v>1339</v>
@@ -34894,7 +34908,7 @@
         <v>417</v>
       </c>
       <c r="D432" s="42" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="E432" s="7" t="s">
         <v>890</v>
@@ -34909,7 +34923,7 @@
       </c>
       <c r="J432" s="2"/>
       <c r="K432" s="18" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="L432" t="s">
         <v>1339</v>
@@ -34926,7 +34940,7 @@
         <v>285</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="E433" s="7" t="s">
         <v>890</v>
@@ -34941,7 +34955,7 @@
       </c>
       <c r="J433" s="2"/>
       <c r="K433" s="18" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="L433" t="s">
         <v>1339</v>
@@ -34958,7 +34972,7 @@
         <v>920</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="E434" s="7" t="s">
         <v>890</v>
@@ -34973,7 +34987,7 @@
       </c>
       <c r="J434" s="2"/>
       <c r="K434" s="18" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="L434" t="s">
         <v>1339</v>
@@ -34984,7 +34998,7 @@
       <c r="B435" s="7"/>
       <c r="C435" s="2"/>
       <c r="D435" s="7" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="E435" s="7" t="s">
         <v>890</v>
@@ -34995,11 +35009,11 @@
       <c r="G435" s="2"/>
       <c r="H435" s="22"/>
       <c r="I435" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J435" s="2"/>
       <c r="K435" s="18" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="L435" t="s">
         <v>1339</v>
@@ -35031,7 +35045,7 @@
       </c>
       <c r="J436" s="2"/>
       <c r="K436" s="18" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="437" hidden="1" spans="1:11">
@@ -35060,7 +35074,7 @@
       </c>
       <c r="J437" s="2"/>
       <c r="K437" s="18" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="438" hidden="1" spans="1:11">
@@ -35089,7 +35103,7 @@
       </c>
       <c r="J438" s="2"/>
       <c r="K438" s="18" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="439" hidden="1" spans="1:11">
@@ -35118,7 +35132,7 @@
       </c>
       <c r="J439" s="2"/>
       <c r="K439" s="18" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="440" hidden="1" spans="1:11">
@@ -35147,7 +35161,7 @@
       </c>
       <c r="J440" s="2"/>
       <c r="K440" s="18" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="441" hidden="1" spans="1:11">
@@ -35176,7 +35190,7 @@
       </c>
       <c r="J441" s="2"/>
       <c r="K441" s="18" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="442" spans="1:16384">
@@ -35184,7 +35198,7 @@
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
       <c r="D442" s="43" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="E442" s="7" t="s">
         <v>890</v>
@@ -35195,11 +35209,11 @@
       <c r="G442" s="18"/>
       <c r="H442" s="22"/>
       <c r="I442" s="45" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J442" s="18"/>
       <c r="K442" s="18" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="L442" t="s">
         <v>1339</v>
@@ -51588,7 +51602,7 @@
         <v>1033</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="E443" s="7" t="s">
         <v>890</v>
@@ -51603,7 +51617,7 @@
       </c>
       <c r="J443" s="2"/>
       <c r="K443" s="18" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="444" hidden="1" spans="1:11">
@@ -51632,7 +51646,7 @@
       </c>
       <c r="J444" s="2"/>
       <c r="K444" s="18" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -51661,7 +51675,7 @@
       </c>
       <c r="J445" s="2"/>
       <c r="K445" s="18" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="L445" t="s">
         <v>1339</v>
@@ -51693,7 +51707,7 @@
       </c>
       <c r="J446" s="2"/>
       <c r="K446" s="18" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="447" hidden="1" spans="1:11">
@@ -51722,7 +51736,7 @@
       </c>
       <c r="J447" s="2"/>
       <c r="K447" s="18" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -51751,7 +51765,7 @@
       </c>
       <c r="J448" s="2"/>
       <c r="K448" s="18" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="L448" t="s">
         <v>1339</v>
@@ -51783,7 +51797,7 @@
       </c>
       <c r="J449" s="2"/>
       <c r="K449" s="18" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="450" hidden="1" spans="1:11">
@@ -51812,7 +51826,7 @@
       </c>
       <c r="J450" s="2"/>
       <c r="K450" s="18" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="451" hidden="1" spans="1:11">
@@ -51841,7 +51855,7 @@
       </c>
       <c r="J451" s="2"/>
       <c r="K451" s="18" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -51855,7 +51869,7 @@
         <v>1050</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="E452" s="7" t="s">
         <v>890</v>
@@ -51870,7 +51884,7 @@
       </c>
       <c r="J452" s="2"/>
       <c r="K452" s="46" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="L452" t="s">
         <v>1339</v>
@@ -51887,7 +51901,7 @@
         <v>931</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="E453" s="7" t="s">
         <v>890</v>
@@ -51898,13 +51912,13 @@
       <c r="G453" s="2"/>
       <c r="H453" s="22"/>
       <c r="I453" s="3" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K453" s="20" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="L453" t="s">
         <v>1339</v>
@@ -51915,7 +51929,7 @@
       <c r="B454" s="7"/>
       <c r="C454" s="2"/>
       <c r="D454" s="7" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="E454" s="7" t="s">
         <v>890</v>
@@ -51926,11 +51940,11 @@
       <c r="G454" s="2"/>
       <c r="H454" s="22"/>
       <c r="I454" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J454" s="2"/>
       <c r="K454" s="47" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="L454" t="s">
         <v>1339</v>
@@ -51962,7 +51976,7 @@
       </c>
       <c r="J455" s="2"/>
       <c r="K455" s="18" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="L455" t="s">
         <v>1339</v>
@@ -51994,7 +52008,7 @@
       </c>
       <c r="J456" s="2"/>
       <c r="K456" s="18" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="L456" t="s">
         <v>1339</v>
@@ -52026,7 +52040,7 @@
       </c>
       <c r="J457" s="2"/>
       <c r="K457" s="18" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -52051,11 +52065,11 @@
       <c r="G458" s="2"/>
       <c r="H458" s="22"/>
       <c r="I458" s="2" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="J458" s="2"/>
       <c r="K458" s="18" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="L458" t="s">
         <v>1339</v>
@@ -52087,7 +52101,7 @@
       </c>
       <c r="J459" s="2"/>
       <c r="K459" s="18" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="460" hidden="1" spans="1:11">
@@ -52101,7 +52115,7 @@
         <v>937</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="E460" s="7" t="s">
         <v>890</v>
@@ -52116,7 +52130,7 @@
       </c>
       <c r="J460" s="2"/>
       <c r="K460" s="18" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="461" hidden="1" spans="1:11">
@@ -52145,7 +52159,7 @@
       </c>
       <c r="J461" s="2"/>
       <c r="K461" s="18" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="462" hidden="1" spans="1:11">
@@ -52174,7 +52188,7 @@
       </c>
       <c r="J462" s="2"/>
       <c r="K462" s="18" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -52203,7 +52217,7 @@
       </c>
       <c r="J463" s="2"/>
       <c r="K463" s="45" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="L463" t="s">
         <v>1339</v>
@@ -52220,7 +52234,7 @@
         <v>1069</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="E464" s="7" t="s">
         <v>890</v>
@@ -52235,7 +52249,7 @@
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="18" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="L464" t="s">
         <v>1339</v>
@@ -52246,7 +52260,7 @@
       <c r="B465" s="7"/>
       <c r="C465" s="2"/>
       <c r="D465" s="7" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>890</v>
@@ -52257,11 +52271,11 @@
       <c r="G465" s="2"/>
       <c r="H465" s="22"/>
       <c r="I465" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="18" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="L465" t="s">
         <v>1339</v>
@@ -52278,7 +52292,7 @@
         <v>1071</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="E466" s="7" t="s">
         <v>890</v>
@@ -52293,7 +52307,7 @@
       </c>
       <c r="J466" s="2"/>
       <c r="K466" s="46" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -52307,7 +52321,7 @@
         <v>300</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>890</v>
@@ -52322,7 +52336,7 @@
       </c>
       <c r="J467" s="2"/>
       <c r="K467" s="18" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="L467" t="s">
         <v>1339</v>
@@ -52339,7 +52353,7 @@
         <v>1074</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="E468" s="7" t="s">
         <v>890</v>
@@ -52350,13 +52364,13 @@
       <c r="G468" s="2"/>
       <c r="H468" s="25"/>
       <c r="I468" s="3" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K468" s="18" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="L468" t="s">
         <v>1339</v>
@@ -52392,7 +52406,7 @@
       </c>
       <c r="J469" s="2"/>
       <c r="K469" s="18" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="470" hidden="1" spans="1:11">
@@ -52423,7 +52437,7 @@
       </c>
       <c r="J470" s="2"/>
       <c r="K470" s="18" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="471" hidden="1" spans="1:11">
@@ -52454,7 +52468,7 @@
       </c>
       <c r="J471" s="2"/>
       <c r="K471" s="2" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="472" hidden="1" spans="1:11">
@@ -52485,7 +52499,7 @@
       </c>
       <c r="J472" s="2"/>
       <c r="K472" s="2" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="473" hidden="1" spans="1:11">
@@ -52512,11 +52526,11 @@
       </c>
       <c r="H473" s="22"/>
       <c r="I473" s="2" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="J473" s="2"/>
       <c r="K473" s="2" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="474" hidden="1" spans="1:11">
@@ -52547,7 +52561,7 @@
       </c>
       <c r="J474" s="2"/>
       <c r="K474" s="18" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="475" hidden="1" spans="1:11">
@@ -52574,11 +52588,11 @@
       </c>
       <c r="H475" s="22"/>
       <c r="I475" s="2" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="J475" s="2"/>
       <c r="K475" s="18" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="476" hidden="1" spans="1:11">
@@ -52605,11 +52619,11 @@
       </c>
       <c r="H476" s="22"/>
       <c r="I476" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J476" s="2"/>
       <c r="K476" s="2" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="477" hidden="1" spans="1:11">
@@ -52652,7 +52666,7 @@
         <v>215</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>198</v>
@@ -52669,7 +52683,7 @@
       </c>
       <c r="J478" s="2"/>
       <c r="K478" s="18" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="479" hidden="1" spans="1:11">
@@ -52700,7 +52714,7 @@
       </c>
       <c r="J479" s="2"/>
       <c r="K479" s="2" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="480" hidden="1" customHeight="1" spans="1:11">
@@ -52731,7 +52745,7 @@
       </c>
       <c r="J480" s="2"/>
       <c r="K480" s="2" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="481" hidden="1" spans="1:11">
@@ -52762,7 +52776,7 @@
       </c>
       <c r="J481" s="2"/>
       <c r="K481" s="3" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="482" hidden="1" spans="1:11">
@@ -52776,7 +52790,7 @@
         <v>223</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>198</v>
@@ -52789,11 +52803,11 @@
       </c>
       <c r="H482" s="22"/>
       <c r="I482" s="2" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="J482" s="2"/>
       <c r="K482" s="2" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="483" hidden="1" spans="1:11">
@@ -52824,7 +52838,7 @@
       </c>
       <c r="J483" s="2"/>
       <c r="K483" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="484" hidden="1" spans="1:11">
@@ -52855,7 +52869,7 @@
       </c>
       <c r="J484" s="2"/>
       <c r="K484" s="2" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="485" hidden="1" spans="1:11">
@@ -52886,7 +52900,7 @@
       </c>
       <c r="J485" s="2"/>
       <c r="K485" s="2" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="486" hidden="1" spans="1:11">
@@ -52913,11 +52927,11 @@
       </c>
       <c r="H486" s="22"/>
       <c r="I486" s="3" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="J486" s="2"/>
       <c r="K486" s="14" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="487" hidden="1" spans="1:11">
@@ -52948,7 +52962,7 @@
       </c>
       <c r="J487" s="2"/>
       <c r="K487" s="2" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="488" hidden="1" spans="1:11">
@@ -52975,11 +52989,11 @@
       </c>
       <c r="H488" s="22"/>
       <c r="I488" s="3" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="2" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="489" hidden="1" spans="1:11">
@@ -53006,11 +53020,11 @@
       </c>
       <c r="H489" s="22"/>
       <c r="I489" s="34" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="J489" s="2"/>
       <c r="K489" s="2" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="490" hidden="1" spans="1:11">
@@ -53041,7 +53055,7 @@
       </c>
       <c r="J490" s="2"/>
       <c r="K490" s="2" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="491" hidden="1" spans="1:11">
@@ -53068,7 +53082,7 @@
       </c>
       <c r="H491" s="22"/>
       <c r="I491" s="34" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
@@ -53097,11 +53111,11 @@
       </c>
       <c r="H492" s="22"/>
       <c r="I492" s="34" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="J492" s="2"/>
       <c r="K492" s="2" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="493" hidden="1" spans="1:11">
@@ -53128,11 +53142,11 @@
       </c>
       <c r="H493" s="22"/>
       <c r="I493" s="2" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J493" s="2"/>
       <c r="K493" s="3" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="494" hidden="1" spans="1:11">
@@ -53163,7 +53177,7 @@
       </c>
       <c r="J494" s="2"/>
       <c r="K494" s="3" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="495" hidden="1" spans="1:11">
@@ -53190,11 +53204,11 @@
       </c>
       <c r="H495" s="22"/>
       <c r="I495" s="34" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="J495" s="2"/>
       <c r="K495" s="2" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="496" hidden="1" spans="1:11">
@@ -53221,11 +53235,11 @@
       </c>
       <c r="H496" s="22"/>
       <c r="I496" s="34" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="J496" s="2"/>
       <c r="K496" s="2" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="497" hidden="1" spans="1:11">
@@ -53252,11 +53266,11 @@
       </c>
       <c r="H497" s="22"/>
       <c r="I497" s="34" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="J497" s="2"/>
       <c r="K497" s="2" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="498" hidden="1" spans="1:11">
@@ -53287,7 +53301,7 @@
       </c>
       <c r="J498" s="2"/>
       <c r="K498" s="2" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="499" hidden="1" spans="1:11">
@@ -53314,11 +53328,11 @@
       </c>
       <c r="H499" s="22"/>
       <c r="I499" s="3" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="J499" s="2"/>
       <c r="K499" s="2" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="500" hidden="1" spans="1:11">
@@ -53345,11 +53359,11 @@
       </c>
       <c r="H500" s="22"/>
       <c r="I500" s="34" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="2" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="501" hidden="1" spans="1:11">
@@ -53376,11 +53390,11 @@
       </c>
       <c r="H501" s="22"/>
       <c r="I501" s="3" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="J501" s="2"/>
       <c r="K501" s="2" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="502" hidden="1" spans="1:11">
@@ -53407,7 +53421,7 @@
       </c>
       <c r="H502" s="22"/>
       <c r="I502" s="34" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
@@ -53434,13 +53448,13 @@
       <c r="G503" s="2"/>
       <c r="H503" s="22"/>
       <c r="I503" s="3" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K503" s="49" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="L503" t="s">
         <v>1139</v>
@@ -53472,7 +53486,7 @@
       </c>
       <c r="J504" s="2"/>
       <c r="K504" s="2" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="505" hidden="1" spans="1:12">
@@ -53497,13 +53511,13 @@
       <c r="G505" s="2"/>
       <c r="H505" s="22"/>
       <c r="I505" s="3" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J505" s="2" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="K505" s="14" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="L505" t="s">
         <v>1139</v>
@@ -53531,13 +53545,13 @@
       <c r="G506" s="2"/>
       <c r="H506" s="22"/>
       <c r="I506" s="3" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="K506" s="14" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="L506" t="s">
         <v>1139</v>
@@ -53571,7 +53585,7 @@
         <v>1171</v>
       </c>
       <c r="K507" s="14" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="L507" t="s">
         <v>1139</v>
@@ -53605,7 +53619,7 @@
         <v>1171</v>
       </c>
       <c r="K508" s="2" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="L508" t="s">
         <v>1139</v>
@@ -53639,7 +53653,7 @@
         <v>1171</v>
       </c>
       <c r="K509" s="14" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="L509" t="s">
         <v>1139</v>
@@ -53667,11 +53681,11 @@
       <c r="G510" s="2"/>
       <c r="H510" s="22"/>
       <c r="I510" s="3" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="511" hidden="1" spans="1:12">
@@ -53702,7 +53716,7 @@
         <v>1171</v>
       </c>
       <c r="K511" s="14" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="L511" t="s">
         <v>1139</v>
@@ -53730,13 +53744,13 @@
       <c r="G512" s="2"/>
       <c r="H512" s="22"/>
       <c r="I512" s="3" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J512" s="2" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="K512" s="14" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="L512" t="s">
         <v>1139</v>
@@ -53747,7 +53761,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="3" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>198</v>
@@ -53761,10 +53775,10 @@
         <v>1276</v>
       </c>
       <c r="J513" s="2" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="K513" s="14" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="L513" t="s">
         <v>1139</v>
@@ -53775,7 +53789,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="3" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>198</v>
@@ -53789,10 +53803,10 @@
         <v>1276</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="K514" s="14" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="L514" t="s">
         <v>1139</v>
@@ -53820,10 +53834,10 @@
       <c r="G515" s="2"/>
       <c r="H515" s="22"/>
       <c r="I515" s="3" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="J515" s="2" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="K515" s="2"/>
       <c r="L515" t="s">
@@ -53841,7 +53855,7 @@
         <v>285</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -53852,11 +53866,11 @@
       <c r="G516" s="2"/>
       <c r="H516" s="22"/>
       <c r="I516" s="48" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="14" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="L516" t="s">
         <v>1139</v>
@@ -53867,7 +53881,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="3" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>198</v>
@@ -53878,11 +53892,11 @@
       <c r="G517" s="2"/>
       <c r="H517" s="22"/>
       <c r="I517" s="48" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="14" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="L517" t="s">
         <v>1139</v>
@@ -53914,7 +53928,7 @@
       </c>
       <c r="J518" s="2"/>
       <c r="K518" s="2" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="519" hidden="1" spans="1:12">
@@ -53945,7 +53959,7 @@
         <v>1137</v>
       </c>
       <c r="K519" s="14" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="L519" t="s">
         <v>1139</v>
@@ -53973,13 +53987,13 @@
       <c r="G520" s="2"/>
       <c r="H520" s="22"/>
       <c r="I520" s="48" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="K520" s="2" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="L520" t="s">
         <v>1139</v>
@@ -54007,13 +54021,13 @@
       <c r="G521" s="2"/>
       <c r="H521" s="22"/>
       <c r="I521" s="2" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="K521" s="14" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="L521" t="s">
         <v>1139</v>
@@ -54045,7 +54059,7 @@
       </c>
       <c r="J522" s="2"/>
       <c r="K522" s="2" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="523" hidden="1" spans="1:11">
@@ -54074,7 +54088,7 @@
       </c>
       <c r="J523" s="2"/>
       <c r="K523" s="2" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="524" hidden="1" spans="1:11">
@@ -54103,7 +54117,7 @@
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="2" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="525" hidden="1" spans="1:12">
@@ -54128,13 +54142,13 @@
       <c r="G525" s="2"/>
       <c r="H525" s="22"/>
       <c r="I525" s="3" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="K525" s="14" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="L525" t="s">
         <v>1139</v>
@@ -54151,7 +54165,7 @@
         <v>295</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>198</v>
@@ -54162,13 +54176,13 @@
       <c r="G526" s="2"/>
       <c r="H526" s="22"/>
       <c r="I526" s="3" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>1137</v>
       </c>
       <c r="K526" s="14" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="L526" t="s">
         <v>1139</v>
@@ -54200,7 +54214,7 @@
       </c>
       <c r="J527" s="2"/>
       <c r="K527" s="2" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="528" hidden="1" spans="1:12">
@@ -54225,13 +54239,13 @@
       <c r="G528" s="2"/>
       <c r="H528" s="22"/>
       <c r="I528" s="3" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J528" s="2" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="L528" t="s">
         <v>1139</v>
@@ -54259,13 +54273,13 @@
       <c r="G529" s="2"/>
       <c r="H529" s="22"/>
       <c r="I529" s="2" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="J529" s="2" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="K529" s="14" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="L529" t="s">
         <v>1139</v>
@@ -54282,7 +54296,7 @@
         <v>300</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>198</v>
@@ -54293,11 +54307,11 @@
       <c r="G530" s="2"/>
       <c r="H530" s="22"/>
       <c r="I530" s="2" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="J530" s="2"/>
       <c r="K530" s="2" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="531" hidden="1" spans="1:12">
@@ -54305,7 +54319,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>198</v>
@@ -54320,7 +54334,7 @@
         <v>1137</v>
       </c>
       <c r="K531" s="14" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="L531" t="s">
         <v>1139</v>
@@ -54348,13 +54362,13 @@
       <c r="G532" s="2"/>
       <c r="H532" s="22"/>
       <c r="I532" s="3" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="J532" s="2" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="K532" s="14" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="L532" t="s">
         <v>1139</v>
@@ -54382,13 +54396,13 @@
       <c r="G533" s="2"/>
       <c r="H533" s="25"/>
       <c r="I533" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="J533" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="J533" s="2" t="s">
-        <v>1820</v>
-      </c>
       <c r="K533" s="14" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="L533" t="s">
         <v>1139</v>
@@ -54417,10 +54431,10 @@
         <v>1</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
@@ -54448,10 +54462,10 @@
         <v>1</v>
       </c>
       <c r="H535" s="2" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="I535" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
@@ -54479,10 +54493,10 @@
         <v>1</v>
       </c>
       <c r="H536" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I536" s="3" t="s">
         <v>1827</v>
-      </c>
-      <c r="I536" s="3" t="s">
-        <v>1825</v>
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
@@ -54510,10 +54524,10 @@
         <v>1</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -54541,10 +54555,10 @@
         <v>1</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
@@ -54572,10 +54586,10 @@
         <v>1</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
@@ -54603,10 +54617,10 @@
         <v>1</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
@@ -54634,10 +54648,10 @@
         <v>1</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
@@ -54665,10 +54679,10 @@
         <v>1</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
@@ -54696,10 +54710,10 @@
         <v>1</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
@@ -54727,10 +54741,10 @@
         <v>1</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
@@ -54758,10 +54772,10 @@
         <v>1</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
@@ -54789,10 +54803,10 @@
         <v>1</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
@@ -54820,10 +54834,10 @@
         <v>1</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
@@ -54851,10 +54865,10 @@
         <v>1</v>
       </c>
       <c r="H548" s="3" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
@@ -54882,10 +54896,10 @@
         <v>1</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
@@ -54913,10 +54927,10 @@
         <v>1</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
@@ -54944,10 +54958,10 @@
         <v>1</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
@@ -54975,10 +54989,10 @@
         <v>1</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -55006,10 +55020,10 @@
         <v>1</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
@@ -55037,10 +55051,10 @@
         <v>1</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
@@ -55056,7 +55070,7 @@
         <v>438</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>404</v>
@@ -55068,14 +55082,14 @@
         <v>1</v>
       </c>
       <c r="H555" s="21" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="18" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="556" hidden="1" spans="1:11">
@@ -55089,7 +55103,7 @@
         <v>438</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>404</v>
@@ -55102,11 +55116,11 @@
       </c>
       <c r="H556" s="22"/>
       <c r="I556" s="2" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J556" s="2"/>
       <c r="K556" s="18" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="557" hidden="1" spans="1:11">
@@ -55120,7 +55134,7 @@
         <v>438</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>404</v>
@@ -55133,11 +55147,11 @@
       </c>
       <c r="H557" s="22"/>
       <c r="I557" s="2" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="18" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="558" hidden="1" spans="1:11">
@@ -55151,7 +55165,7 @@
         <v>440</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>404</v>
@@ -55164,11 +55178,11 @@
       </c>
       <c r="H558" s="22"/>
       <c r="I558" s="2" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="J558" s="2"/>
       <c r="K558" s="18" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="559" hidden="1" spans="1:11">
@@ -55182,7 +55196,7 @@
         <v>440</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>404</v>
@@ -55195,11 +55209,11 @@
       </c>
       <c r="H559" s="22"/>
       <c r="I559" s="2" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="18" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="560" hidden="1" spans="1:11">
@@ -55213,7 +55227,7 @@
         <v>440</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>404</v>
@@ -55226,11 +55240,11 @@
       </c>
       <c r="H560" s="22"/>
       <c r="I560" s="2" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="J560" s="2"/>
       <c r="K560" s="18" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="561" hidden="1" spans="1:11">
@@ -55244,7 +55258,7 @@
         <v>442</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>404</v>
@@ -55257,11 +55271,11 @@
       </c>
       <c r="H561" s="22"/>
       <c r="I561" s="2" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="18" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="562" hidden="1" spans="1:11">
@@ -55275,7 +55289,7 @@
         <v>442</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>404</v>
@@ -55288,11 +55302,11 @@
       </c>
       <c r="H562" s="22"/>
       <c r="I562" s="2" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="18" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="563" hidden="1" spans="1:11">
@@ -55306,7 +55320,7 @@
         <v>442</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>404</v>
@@ -55319,11 +55333,11 @@
       </c>
       <c r="H563" s="22"/>
       <c r="I563" s="2" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J563" s="2"/>
       <c r="K563" s="18" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="564" hidden="1" spans="1:11">
@@ -55337,7 +55351,7 @@
         <v>444</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>404</v>
@@ -55350,11 +55364,11 @@
       </c>
       <c r="H564" s="22"/>
       <c r="I564" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="18" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="565" hidden="1" spans="1:11">
@@ -55368,7 +55382,7 @@
         <v>444</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>404</v>
@@ -55381,11 +55395,11 @@
       </c>
       <c r="H565" s="22"/>
       <c r="I565" s="2" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J565" s="2"/>
       <c r="K565" s="18" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="566" hidden="1" spans="1:11">
@@ -55399,7 +55413,7 @@
         <v>444</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>404</v>
@@ -55416,7 +55430,7 @@
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="18" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="567" hidden="1" spans="1:11">
@@ -55430,7 +55444,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>404</v>
@@ -55447,7 +55461,7 @@
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="18" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="568" hidden="1" spans="1:11">
@@ -55461,7 +55475,7 @@
         <v>446</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>404</v>
@@ -55474,11 +55488,11 @@
       </c>
       <c r="H568" s="22"/>
       <c r="I568" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J568" s="2"/>
       <c r="K568" s="18" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="569" ht="16.5" hidden="1" spans="1:11">
@@ -55492,7 +55506,7 @@
         <v>446</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>404</v>
@@ -55505,11 +55519,11 @@
       </c>
       <c r="H569" s="22"/>
       <c r="I569" s="2" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="50" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="570" hidden="1" spans="1:11">
@@ -55523,7 +55537,7 @@
         <v>448</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>404</v>
@@ -55536,11 +55550,11 @@
       </c>
       <c r="H570" s="22"/>
       <c r="I570" s="2" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="18" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="571" hidden="1" spans="1:11">
@@ -55554,7 +55568,7 @@
         <v>448</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>404</v>
@@ -55571,7 +55585,7 @@
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="18" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="572" hidden="1" spans="1:11">
@@ -55585,7 +55599,7 @@
         <v>448</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>404</v>
@@ -55598,11 +55612,11 @@
       </c>
       <c r="H572" s="22"/>
       <c r="I572" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="18" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="573" hidden="1" spans="1:11">
@@ -55616,7 +55630,7 @@
         <v>434</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>404</v>
@@ -55633,7 +55647,7 @@
       </c>
       <c r="J573" s="2"/>
       <c r="K573" s="18" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="574" hidden="1" spans="1:11">
@@ -55647,7 +55661,7 @@
         <v>434</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>404</v>
@@ -55664,7 +55678,7 @@
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="18" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="575" hidden="1" spans="1:11">
@@ -55678,7 +55692,7 @@
         <v>434</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>404</v>
@@ -55695,7 +55709,7 @@
       </c>
       <c r="J575" s="2"/>
       <c r="K575" s="18" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="576" ht="16.5" hidden="1" spans="1:11">
@@ -55709,7 +55723,7 @@
         <v>434</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>404</v>
@@ -55726,7 +55740,7 @@
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="50" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="577" hidden="1" spans="1:11">
@@ -55740,7 +55754,7 @@
         <v>451</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>404</v>
@@ -55757,7 +55771,7 @@
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="18" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="578" hidden="1" spans="1:11">
@@ -55771,7 +55785,7 @@
         <v>451</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>404</v>
@@ -55784,11 +55798,11 @@
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="3" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J578" s="2"/>
       <c r="K578" s="45" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="579" hidden="1" spans="1:11">
@@ -55802,7 +55816,7 @@
         <v>451</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>404</v>
@@ -55819,7 +55833,7 @@
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="45" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="580" hidden="1" spans="1:11">
@@ -55833,7 +55847,7 @@
         <v>453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>404</v>
@@ -55846,11 +55860,11 @@
       </c>
       <c r="H580" s="22"/>
       <c r="I580" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="18" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="581" hidden="1" spans="1:11">
@@ -55864,7 +55878,7 @@
         <v>453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>404</v>
@@ -55877,11 +55891,11 @@
       </c>
       <c r="H581" s="22"/>
       <c r="I581" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="18" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="582" ht="16.5" hidden="1" spans="1:11">
@@ -55895,7 +55909,7 @@
         <v>453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>404</v>
@@ -55908,11 +55922,11 @@
       </c>
       <c r="H582" s="22"/>
       <c r="I582" s="3" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="50" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="583" hidden="1" spans="1:11">
@@ -55926,7 +55940,7 @@
         <v>455</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>404</v>
@@ -55943,7 +55957,7 @@
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="18" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="584" hidden="1" spans="1:11">
@@ -55957,7 +55971,7 @@
         <v>455</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>404</v>
@@ -55974,7 +55988,7 @@
       </c>
       <c r="J584" s="2"/>
       <c r="K584" s="18" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="585" hidden="1" spans="1:11">
@@ -55988,7 +56002,7 @@
         <v>455</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>404</v>
@@ -56001,11 +56015,11 @@
       </c>
       <c r="H585" s="22"/>
       <c r="I585" s="3" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="18" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="586" hidden="1" spans="1:11">
@@ -56019,7 +56033,7 @@
         <v>455</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>404</v>
@@ -56032,11 +56046,11 @@
       </c>
       <c r="H586" s="22"/>
       <c r="I586" s="3" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="J586" s="2"/>
       <c r="K586" s="18" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="587" hidden="1" spans="1:11">
@@ -56050,7 +56064,7 @@
         <v>457</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>404</v>
@@ -56063,11 +56077,11 @@
       </c>
       <c r="H587" s="22"/>
       <c r="I587" s="3" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="45" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="588" hidden="1" spans="1:11">
@@ -56081,7 +56095,7 @@
         <v>457</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>404</v>
@@ -56094,11 +56108,11 @@
       </c>
       <c r="H588" s="22"/>
       <c r="I588" s="3" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="18" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="589" hidden="1" spans="1:11">
@@ -56112,7 +56126,7 @@
         <v>459</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>404</v>
@@ -56125,11 +56139,11 @@
       </c>
       <c r="H589" s="22"/>
       <c r="I589" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J589" s="2"/>
       <c r="K589" s="18" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="590" hidden="1" spans="1:11">
@@ -56143,7 +56157,7 @@
         <v>459</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>404</v>
@@ -56156,11 +56170,11 @@
       </c>
       <c r="H590" s="22"/>
       <c r="I590" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="18" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="591" hidden="1" spans="1:11">
@@ -56174,7 +56188,7 @@
         <v>459</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>404</v>
@@ -56187,11 +56201,11 @@
       </c>
       <c r="H591" s="22"/>
       <c r="I591" s="3" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="J591" s="2"/>
       <c r="K591" s="18" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="592" hidden="1" spans="1:11">
@@ -56205,7 +56219,7 @@
         <v>461</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>404</v>
@@ -56218,11 +56232,11 @@
       </c>
       <c r="H592" s="22"/>
       <c r="I592" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="18" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="593" hidden="1" spans="1:11">
@@ -56236,7 +56250,7 @@
         <v>461</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>404</v>
@@ -56249,11 +56263,11 @@
       </c>
       <c r="H593" s="22"/>
       <c r="I593" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="18" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="594" hidden="1" spans="1:11">
@@ -56267,7 +56281,7 @@
         <v>461</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>404</v>
@@ -56280,11 +56294,11 @@
       </c>
       <c r="H594" s="22"/>
       <c r="I594" s="3" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="J594" s="2"/>
       <c r="K594" s="18" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="595" hidden="1" spans="1:11">
@@ -56298,7 +56312,7 @@
         <v>463</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>404</v>
@@ -56315,7 +56329,7 @@
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="18" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="596" hidden="1" spans="1:11">
@@ -56329,7 +56343,7 @@
         <v>463</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>404</v>
@@ -56346,7 +56360,7 @@
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="18" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="597" hidden="1" spans="1:11">
@@ -56360,7 +56374,7 @@
         <v>463</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>404</v>
@@ -56377,7 +56391,7 @@
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="18" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="598" hidden="1" spans="1:11">
@@ -56391,7 +56405,7 @@
         <v>465</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>404</v>
@@ -56404,11 +56418,11 @@
       </c>
       <c r="H598" s="22"/>
       <c r="I598" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="18" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="599" hidden="1" spans="1:11">
@@ -56422,7 +56436,7 @@
         <v>465</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>404</v>
@@ -56435,11 +56449,11 @@
       </c>
       <c r="H599" s="22"/>
       <c r="I599" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="18" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="600" ht="16.5" hidden="1" spans="1:11">
@@ -56453,7 +56467,7 @@
         <v>465</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>404</v>
@@ -56466,11 +56480,11 @@
       </c>
       <c r="H600" s="22"/>
       <c r="I600" s="3" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="J600" s="2"/>
       <c r="K600" s="50" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="601" hidden="1" spans="1:11">
@@ -56484,7 +56498,7 @@
         <v>467</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>404</v>
@@ -56497,11 +56511,11 @@
       </c>
       <c r="H601" s="22"/>
       <c r="I601" s="3" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J601" s="2"/>
       <c r="K601" s="18" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="602" hidden="1" spans="1:11">
@@ -56515,7 +56529,7 @@
         <v>467</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>404</v>
@@ -56528,11 +56542,11 @@
       </c>
       <c r="H602" s="22"/>
       <c r="I602" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J602" s="2"/>
       <c r="K602" s="18" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="603" hidden="1" spans="1:11">
@@ -56540,7 +56554,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="3" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>404</v>
@@ -56553,11 +56567,11 @@
       </c>
       <c r="H603" s="22"/>
       <c r="I603" s="3" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J603" s="2"/>
       <c r="K603" s="18" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="604" hidden="1" spans="1:11">
@@ -56571,7 +56585,7 @@
         <v>469</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>404</v>
@@ -56584,11 +56598,11 @@
       </c>
       <c r="H604" s="22"/>
       <c r="I604" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J604" s="2"/>
       <c r="K604" s="18" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="605" hidden="1" spans="1:11">
@@ -56602,7 +56616,7 @@
         <v>469</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>404</v>
@@ -56615,11 +56629,11 @@
       </c>
       <c r="H605" s="22"/>
       <c r="I605" s="3" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J605" s="2"/>
       <c r="K605" s="18" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="606" hidden="1" spans="1:11">
@@ -56633,7 +56647,7 @@
         <v>469</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>404</v>
@@ -56646,11 +56660,11 @@
       </c>
       <c r="H606" s="22"/>
       <c r="I606" s="3" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="J606" s="2"/>
       <c r="K606" s="18" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="607" hidden="1" spans="1:11">
@@ -56664,7 +56678,7 @@
         <v>471</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>404</v>
@@ -56677,11 +56691,11 @@
       </c>
       <c r="H607" s="22"/>
       <c r="I607" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J607" s="2"/>
       <c r="K607" s="18" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="608" hidden="1" spans="1:11">
@@ -56695,7 +56709,7 @@
         <v>471</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>404</v>
@@ -56712,7 +56726,7 @@
       </c>
       <c r="J608" s="2"/>
       <c r="K608" s="18" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="609" hidden="1" spans="1:11">
@@ -56726,7 +56740,7 @@
         <v>471</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>404</v>
@@ -56739,11 +56753,11 @@
       </c>
       <c r="H609" s="22"/>
       <c r="I609" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J609" s="2"/>
       <c r="K609" s="18" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="610" hidden="1" spans="1:11">
@@ -56757,7 +56771,7 @@
         <v>473</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>404</v>
@@ -56770,11 +56784,11 @@
       </c>
       <c r="H610" s="22"/>
       <c r="I610" s="3" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="J610" s="2"/>
       <c r="K610" s="18" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="611" hidden="1" spans="1:11">
@@ -56788,7 +56802,7 @@
         <v>473</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>404</v>
@@ -56801,11 +56815,11 @@
       </c>
       <c r="H611" s="22"/>
       <c r="I611" s="3" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="J611" s="2"/>
       <c r="K611" s="18" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="612" hidden="1" spans="1:11">
@@ -56819,7 +56833,7 @@
         <v>473</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>404</v>
@@ -56832,11 +56846,11 @@
       </c>
       <c r="H612" s="22"/>
       <c r="I612" s="3" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="J612" s="2"/>
       <c r="K612" s="18" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="613" hidden="1" spans="1:11">
@@ -56850,7 +56864,7 @@
         <v>475</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>404</v>
@@ -56863,11 +56877,11 @@
       </c>
       <c r="H613" s="22"/>
       <c r="I613" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J613" s="2"/>
       <c r="K613" s="18" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="614" hidden="1" spans="1:11">
@@ -56881,7 +56895,7 @@
         <v>475</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>404</v>
@@ -56894,11 +56908,11 @@
       </c>
       <c r="H614" s="22"/>
       <c r="I614" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J614" s="2"/>
       <c r="K614" s="18" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="615" hidden="1" spans="1:11">
@@ -56912,7 +56926,7 @@
         <v>475</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>404</v>
@@ -56925,11 +56939,11 @@
       </c>
       <c r="H615" s="22"/>
       <c r="I615" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J615" s="2"/>
       <c r="K615" s="18" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="616" hidden="1" spans="1:11">
@@ -56943,7 +56957,7 @@
         <v>477</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>404</v>
@@ -56956,11 +56970,11 @@
       </c>
       <c r="H616" s="22"/>
       <c r="I616" s="3" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J616" s="2"/>
       <c r="K616" s="18" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="617" hidden="1" spans="1:11">
@@ -56974,7 +56988,7 @@
         <v>477</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>404</v>
@@ -56991,7 +57005,7 @@
       </c>
       <c r="J617" s="2"/>
       <c r="K617" s="18" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="618" hidden="1" spans="1:11">
@@ -57005,7 +57019,7 @@
         <v>477</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>404</v>
@@ -57018,11 +57032,11 @@
       </c>
       <c r="H618" s="22"/>
       <c r="I618" s="3" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="18" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="619" hidden="1" spans="1:11">
@@ -57036,7 +57050,7 @@
         <v>479</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>404</v>
@@ -57053,7 +57067,7 @@
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="18" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="620" hidden="1" spans="1:11">
@@ -57067,7 +57081,7 @@
         <v>479</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>404</v>
@@ -57080,11 +57094,11 @@
       </c>
       <c r="H620" s="22"/>
       <c r="I620" s="3" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J620" s="2"/>
       <c r="K620" s="18" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="621" hidden="1" spans="1:11">
@@ -57098,7 +57112,7 @@
         <v>479</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>404</v>
@@ -57111,11 +57125,11 @@
       </c>
       <c r="H621" s="22"/>
       <c r="I621" s="3" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J621" s="2"/>
       <c r="K621" s="18" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="622" hidden="1" spans="1:11">
@@ -57129,7 +57143,7 @@
         <v>481</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>404</v>
@@ -57142,11 +57156,11 @@
       </c>
       <c r="H622" s="22"/>
       <c r="I622" s="3" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="J622" s="2"/>
       <c r="K622" s="18" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="623" hidden="1" spans="1:11">
@@ -57160,7 +57174,7 @@
         <v>481</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>404</v>
@@ -57173,11 +57187,11 @@
       </c>
       <c r="H623" s="22"/>
       <c r="I623" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J623" s="2"/>
       <c r="K623" s="18" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="624" ht="16.5" hidden="1" spans="1:11">
@@ -57191,7 +57205,7 @@
         <v>481</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>404</v>
@@ -57204,11 +57218,11 @@
       </c>
       <c r="H624" s="22"/>
       <c r="I624" s="3" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="J624" s="2"/>
       <c r="K624" s="50" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="625" hidden="1" spans="1:11">
@@ -57222,7 +57236,7 @@
         <v>483</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>404</v>
@@ -57235,11 +57249,11 @@
       </c>
       <c r="H625" s="22"/>
       <c r="I625" s="3" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="J625" s="2"/>
       <c r="K625" s="18" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="626" hidden="1" spans="1:11">
@@ -57253,7 +57267,7 @@
         <v>483</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>404</v>
@@ -57266,11 +57280,11 @@
       </c>
       <c r="H626" s="22"/>
       <c r="I626" s="3" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="J626" s="2"/>
       <c r="K626" s="18" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="627" ht="16.5" hidden="1" spans="1:11">
@@ -57284,7 +57298,7 @@
         <v>483</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>404</v>
@@ -57297,11 +57311,11 @@
       </c>
       <c r="H627" s="22"/>
       <c r="I627" s="3" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="J627" s="2"/>
       <c r="K627" s="50" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="628" hidden="1" spans="1:11">
@@ -57315,7 +57329,7 @@
         <v>291</v>
       </c>
       <c r="D628" s="27" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>404</v>
@@ -57328,11 +57342,11 @@
       </c>
       <c r="H628" s="22"/>
       <c r="I628" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J628" s="2"/>
       <c r="K628" s="18" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="629" hidden="1" spans="1:11">
@@ -57346,7 +57360,7 @@
         <v>291</v>
       </c>
       <c r="D629" s="27" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>404</v>
@@ -57359,11 +57373,11 @@
       </c>
       <c r="H629" s="22"/>
       <c r="I629" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J629" s="2"/>
       <c r="K629" s="18" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="630" hidden="1" spans="1:11">
@@ -57377,7 +57391,7 @@
         <v>291</v>
       </c>
       <c r="D630" s="27" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>404</v>
@@ -57390,11 +57404,11 @@
       </c>
       <c r="H630" s="22"/>
       <c r="I630" s="2" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J630" s="2"/>
       <c r="K630" s="18" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="631" hidden="1" spans="1:11">
@@ -57408,7 +57422,7 @@
         <v>486</v>
       </c>
       <c r="D631" s="27" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>404</v>
@@ -57421,11 +57435,11 @@
       </c>
       <c r="H631" s="22"/>
       <c r="I631" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J631" s="2"/>
       <c r="K631" s="18" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="632" hidden="1" spans="1:11">
@@ -57439,7 +57453,7 @@
         <v>486</v>
       </c>
       <c r="D632" s="27" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>404</v>
@@ -57452,11 +57466,11 @@
       </c>
       <c r="H632" s="22"/>
       <c r="I632" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J632" s="2"/>
       <c r="K632" s="18" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="633" hidden="1" spans="1:11">
@@ -57470,7 +57484,7 @@
         <v>486</v>
       </c>
       <c r="D633" s="27" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>404</v>
@@ -57483,11 +57497,11 @@
       </c>
       <c r="H633" s="22"/>
       <c r="I633" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="18" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="634" ht="16.5" hidden="1" spans="1:11">
@@ -57501,7 +57515,7 @@
         <v>488</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>404</v>
@@ -57514,11 +57528,11 @@
       </c>
       <c r="H634" s="22"/>
       <c r="I634" s="3" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="J634" s="2"/>
       <c r="K634" s="16" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="635" hidden="1" spans="1:11">
@@ -57532,7 +57546,7 @@
         <v>488</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>404</v>
@@ -57545,11 +57559,11 @@
       </c>
       <c r="H635" s="22"/>
       <c r="I635" s="2" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="18" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="636" hidden="1" spans="1:11">
@@ -57563,7 +57577,7 @@
         <v>488</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>404</v>
@@ -57576,11 +57590,11 @@
       </c>
       <c r="H636" s="22"/>
       <c r="I636" s="3" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="18" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="637" hidden="1" spans="1:11">
@@ -57594,7 +57608,7 @@
         <v>490</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>404</v>
@@ -57611,7 +57625,7 @@
       </c>
       <c r="J637" s="2"/>
       <c r="K637" s="18" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="638" hidden="1" spans="1:11">
@@ -57625,7 +57639,7 @@
         <v>490</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>404</v>
@@ -57642,7 +57656,7 @@
       </c>
       <c r="J638" s="2"/>
       <c r="K638" s="18" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="639" hidden="1" spans="1:11">
@@ -57656,7 +57670,7 @@
         <v>490</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>404</v>
@@ -57669,11 +57683,11 @@
       </c>
       <c r="H639" s="22"/>
       <c r="I639" s="3" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="J639" s="2"/>
       <c r="K639" s="18" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="640" hidden="1" spans="1:11">
@@ -57687,7 +57701,7 @@
         <v>492</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>404</v>
@@ -57700,11 +57714,11 @@
       </c>
       <c r="H640" s="22"/>
       <c r="I640" s="3" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="J640" s="2"/>
       <c r="K640" s="18" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="641" hidden="1" spans="1:11">
@@ -57718,7 +57732,7 @@
         <v>492</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>404</v>
@@ -57731,11 +57745,11 @@
       </c>
       <c r="H641" s="22"/>
       <c r="I641" s="2" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="J641" s="2"/>
       <c r="K641" s="18" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="642" hidden="1" spans="1:11">
@@ -57749,7 +57763,7 @@
         <v>492</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>404</v>
@@ -57762,11 +57776,11 @@
       </c>
       <c r="H642" s="22"/>
       <c r="I642" s="3" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="J642" s="2"/>
       <c r="K642" s="18" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="643" hidden="1" spans="1:11">
@@ -57780,7 +57794,7 @@
         <v>494</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>404</v>
@@ -57793,11 +57807,11 @@
       </c>
       <c r="H643" s="22"/>
       <c r="I643" s="3" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="J643" s="2"/>
       <c r="K643" s="18" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="644" hidden="1" spans="1:11">
@@ -57811,7 +57825,7 @@
         <v>494</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>404</v>
@@ -57824,11 +57838,11 @@
       </c>
       <c r="H644" s="22"/>
       <c r="I644" s="3" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="J644" s="2"/>
       <c r="K644" s="18" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="645" hidden="1" spans="1:11">
@@ -57842,7 +57856,7 @@
         <v>494</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>404</v>
@@ -57855,11 +57869,11 @@
       </c>
       <c r="H645" s="22"/>
       <c r="I645" s="3" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="J645" s="2"/>
       <c r="K645" s="18" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="646" hidden="1" spans="1:11">
@@ -57873,7 +57887,7 @@
         <v>496</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>404</v>
@@ -57890,7 +57904,7 @@
       </c>
       <c r="J646" s="2"/>
       <c r="K646" s="18" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="647" hidden="1" spans="1:11">
@@ -57904,7 +57918,7 @@
         <v>496</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>404</v>
@@ -57917,11 +57931,11 @@
       </c>
       <c r="H647" s="22"/>
       <c r="I647" s="3" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="J647" s="2"/>
       <c r="K647" s="18" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="648" ht="16.5" hidden="1" spans="1:11">
@@ -57935,7 +57949,7 @@
         <v>496</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>404</v>
@@ -57948,11 +57962,11 @@
       </c>
       <c r="H648" s="25"/>
       <c r="I648" s="3" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="J648" s="2"/>
       <c r="K648" s="50" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
     </row>
   </sheetData>
@@ -58134,6 +58148,9 @@
     <hyperlink ref="K277" r:id="rId95" display="http://www.nxggzyjy.org/ningxiaweb/002/002001/listPage.html" tooltip="http://www.nxggzyjy.org/ningxiaweb/002/002001/listPage.html"/>
     <hyperlink ref="K278" r:id="rId96" display="http://www.qhggzyjy.gov.cn/ggzy/jyxx/001002/001002001/secondPage.html"/>
     <hyperlink ref="K282" r:id="rId97" display="http://ggzyjy.sc.gov.cn/jyxx/transactionInfo.html" tooltip="http://ggzyjy.sc.gov.cn/jyxx/transactionInfo.html"/>
+    <hyperlink ref="K284" r:id="rId98" display="http://xa.sxggzyjy.cn/jydt/trading.html" tooltip="http://xa.sxggzyjy.cn/jydt/trading.html"/>
+    <hyperlink ref="K285" r:id="rId99" display="http://www.xzggzy.gov.cn:9090/zbzsgg/index.jhtml"/>
+    <hyperlink ref="K288" r:id="rId100" display="https://www.fjggfw.gov.cn/Website/JYXXNew.aspx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -58159,7 +58176,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -58170,7 +58187,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -58181,7 +58198,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -58192,7 +58209,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -58203,7 +58220,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -58214,7 +58231,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -58225,18 +58242,18 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -58247,7 +58264,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -58258,7 +58275,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -58269,18 +58286,18 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B12" s="4">
         <v>15</v>
@@ -58291,7 +58308,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -58302,7 +58319,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -58313,18 +58330,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -58335,7 +58352,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -58346,18 +58363,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -58368,18 +58385,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="B20" s="4">
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -58390,7 +58407,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -58401,7 +58418,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -58412,7 +58429,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -58423,7 +58440,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -58434,13 +58451,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B26">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -58510,22 +58527,22 @@
         <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -58633,7 +58650,7 @@
         <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58762,7 +58779,7 @@
         <v>381</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -58898,7 +58915,7 @@
         <v>379</v>
       </c>
       <c r="B11" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="C11" t="s">
         <v>401</v>
@@ -58955,7 +58972,7 @@
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
@@ -59102,10 +59119,10 @@
         <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="D2" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -59228,91 +59245,91 @@
         <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="D17" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="E17" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="F17" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="G17" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="H17" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="I17" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="J17" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="K17" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="L17" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="M17" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="N17" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="O17" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="P17" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="Q17" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="R17" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="S17" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="T17" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="U17" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="V17" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="W17" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="X17" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="Y17" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="Z17" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="AA17" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="AB17" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="AC17" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="AD17" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="AE17" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -59323,7 +59340,7 @@
         <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -59339,61 +59356,61 @@
         <v>810</v>
       </c>
       <c r="C20" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="D20" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="E20" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="F20" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="G20" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="H20" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="I20" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="J20" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="K20" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="L20" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="M20" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="N20" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="O20" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="P20" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="Q20" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="R20" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="S20" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="T20" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="U20" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -59404,103 +59421,103 @@
         <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="D21" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="E21" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="F21" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="G21" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="H21" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="I21" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="J21" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="K21" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="L21" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="M21" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="N21" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="O21" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="P21" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="Q21" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="R21" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="S21" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="T21" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="U21" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="V21" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="W21" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="X21" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="Y21" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="Z21" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="AA21" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="AB21" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="AC21" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="AD21" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="AE21" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="AF21" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="AG21" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="AH21" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="AI21" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -59567,16 +59584,16 @@
         <v>741</v>
       </c>
       <c r="C29" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D29" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="E29" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="F29" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -59616,7 +59633,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -59627,88 +59644,88 @@
         <v>551</v>
       </c>
       <c r="C35" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="D35" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="E35" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="F35" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="G35" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="H35" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="I35" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="J35" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="K35" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="L35" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="M35" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="N35" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="O35" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="P35" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="Q35" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="R35" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="S35" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="T35" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="U35" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="V35" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="W35" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="X35" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="Y35" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="Z35" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="AA35" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="AB35" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="AC35" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="AD35" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -59719,28 +59736,28 @@
         <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="D36" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="E36" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="F36" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="G36" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="H36" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="I36" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="J36" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -59751,31 +59768,31 @@
         <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="D37" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="E37" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="F37" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="G37" t="s">
+        <v>2196</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2192</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2193</v>
+      </c>
+      <c r="J37" t="s">
         <v>2194</v>
       </c>
-      <c r="H37" t="s">
-        <v>2190</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2191</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2192</v>
-      </c>
       <c r="K37" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -59786,37 +59803,37 @@
         <v>613</v>
       </c>
       <c r="C38" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="D38" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="E38" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="F38" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="G38" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="H38" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="I38" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="J38" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="K38" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="L38" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="M38" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -59827,19 +59844,19 @@
         <v>637</v>
       </c>
       <c r="C39" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="D39" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="E39" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="F39" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="G39" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -59850,100 +59867,100 @@
         <v>888</v>
       </c>
       <c r="C40" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="D40" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="E40" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="F40" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="G40" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="H40" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="I40" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="J40" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="K40" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="L40" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="M40" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="N40" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="O40" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="P40" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="Q40" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="R40" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="S40" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="T40" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="U40" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="V40" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="W40" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="X40" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="Y40" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="Z40" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="AA40" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="AB40" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="AC40" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="AD40" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="AE40" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="AF40" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="AG40" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="AH40" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -59954,31 +59971,31 @@
         <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="D41" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="E41" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="F41" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="G41" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="H41" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="I41" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="J41" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="K41" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -59994,31 +60011,31 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="D43" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="E43" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="F43" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="G43" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="H43" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="I43" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="J43" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="K43" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -60037,88 +60054,88 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="D45" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="E45" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="F45" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="G45" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="H45" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="I45" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="J45" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="K45" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="L45" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="M45" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="N45" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="O45" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="P45" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="Q45" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="R45" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="S45" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="T45" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="U45" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="V45" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="W45" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="X45" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="Y45" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="Z45" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="AA45" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="AB45" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="AC45" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="AD45" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -60129,13 +60146,13 @@
         <v>724</v>
       </c>
       <c r="C46" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="D46" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="E46" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -60146,103 +60163,103 @@
         <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="D47" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="E47" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="F47" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="G47" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="H47" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="I47" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="J47" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="K47" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="L47" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="M47" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="N47" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="O47" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="P47" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="Q47" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="R47" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="S47" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="T47" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="U47" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="V47" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="W47" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="X47" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="Y47" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="Z47" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="AA47" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="AB47" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="AC47" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="AD47" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="AE47" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="AF47" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="AG47" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="AH47" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="AI47" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -60253,67 +60270,67 @@
         <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="D48" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="E48" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="F48" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="G48" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="H48" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="I48" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="J48" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="K48" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="L48" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="M48" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="N48" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="O48" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="P48" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="Q48" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="R48" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="S48" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="T48" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="U48" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="V48" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="W48" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -60324,100 +60341,100 @@
         <v>888</v>
       </c>
       <c r="C49" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="D49" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="E49" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="F49" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="G49" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="H49" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="I49" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="J49" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="K49" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="L49" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="M49" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="N49" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="O49" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="P49" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="Q49" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="R49" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="S49" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="T49" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="U49" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="V49" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="W49" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="X49" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="Y49" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="Z49" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="AA49" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="AB49" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="AC49" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="AD49" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="AE49" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="AF49" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="AG49" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="AH49" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -60433,19 +60450,19 @@
         <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="D51" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="E51" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="F51" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="G51" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -60456,70 +60473,70 @@
         <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="D52" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="E52" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="F52" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="G52" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="H52" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="I52" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="J52" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="K52" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="L52" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="M52" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="N52" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="O52" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="P52" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="Q52" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="R52" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="S52" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="T52" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="U52" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="V52" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="W52" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="X52" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -60530,40 +60547,40 @@
         <v>662</v>
       </c>
       <c r="C53" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="D53" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="E53" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="F53" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="G53" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="H53" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="I53" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="J53" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="K53" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="L53" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="M53" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="N53" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -60590,28 +60607,28 @@
         <v>382</v>
       </c>
       <c r="C56" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="D56" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="E56" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="F56" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="G56" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="H56" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="I56" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="J56" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -60627,94 +60644,94 @@
         <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="D58" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="E58" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="F58" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="G58" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="H58" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="I58" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="J58" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="K58" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="L58" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="M58" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="N58" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="O58" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="P58" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="Q58" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="R58" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="S58" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="T58" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="U58" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="V58" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="W58" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="X58" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="Y58" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="Z58" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="AA58" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="AB58" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="AC58" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="AD58" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="AE58" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="AF58" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="59" spans="1:55">
@@ -60722,267 +60739,267 @@
         <v>988</v>
       </c>
       <c r="B59" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="C59" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="D59" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="E59" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="F59" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="G59" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="H59" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="I59" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="J59" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="K59" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="L59" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="M59" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="N59" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="O59" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="P59" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="Q59" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="R59" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="S59" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="T59" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="U59" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="V59" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="W59" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="X59" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="Y59" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="Z59" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="AA59" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="AB59" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="AC59" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="AD59" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="AE59" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="AF59" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="AG59" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="AH59" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="AI59" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="AJ59" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="AK59" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="AL59" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="AM59" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="AN59" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="AO59" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="AP59" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="AQ59" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
       <c r="AR59" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="AS59" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="AT59" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="AU59" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="AV59" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="AW59" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="AX59" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="AY59" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="AZ59" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="BA59" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="BB59" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="BC59" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="B60" t="s">
         <v>888</v>
       </c>
       <c r="C60" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="D60" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="E60" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="F60" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="G60" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="H60" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="I60" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="J60" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="K60" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="L60" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="M60" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="N60" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="O60" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="P60" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="Q60" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="R60" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="S60" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="T60" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="U60" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="V60" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="W60" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="X60" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="Y60" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="Z60" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="AA60" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="AB60" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="AC60" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="AD60" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="AE60" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="AF60" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="AG60" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -61009,82 +61026,82 @@
         <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="D63" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="E63" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="F63" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="G63" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="H63" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="I63" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c r="J63" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="K63" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="L63" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="M63" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="N63" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="O63" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="P63" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="Q63" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="R63" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="S63" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="T63" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="U63" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="V63" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="W63" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="X63" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="Y63" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="Z63" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="AA63" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="AB63" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -61103,58 +61120,58 @@
         <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="D65" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="E65" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="F65" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="G65" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="H65" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="I65" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="J65" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="K65" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="L65" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="M65" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="N65" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="O65" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="P65" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="Q65" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="R65" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="S65" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="T65" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -61162,88 +61179,88 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="C66" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="D66" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="E66" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="F66" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="G66" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="H66" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="I66" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="J66" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="K66" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="L66" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="M66" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="N66" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="O66" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="P66" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="Q66" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="R66" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="S66" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="T66" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="U66" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="V66" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="W66" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="X66" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="Y66" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="Z66" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="AA66" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="AB66" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="AC66" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -61254,127 +61271,127 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="D67" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="E67" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="F67" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="G67" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="H67" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="I67" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="J67" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="K67" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="L67" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="M67" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="N67" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="O67" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="P67" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="Q67" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="R67" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="S67" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="T67" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="U67" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="V67" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="W67" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="X67" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="Y67" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="Z67" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="AA67" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="AB67" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="AC67" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="AD67" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="AE67" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="AF67" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="AG67" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="AH67" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="AI67" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="AJ67" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="AK67" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="AL67" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="AM67" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="AN67" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="AO67" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="AP67" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="AQ67" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -61385,7 +61402,7 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -61436,87 +61453,87 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
     </row>
   </sheetData>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7710" activeTab="2"/>
+    <workbookView windowWidth="18510" windowHeight="6990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫个数汇总" sheetId="1" r:id="rId1"/>
@@ -21544,8 +21544,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="J295" sqref="J295"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="H258" sqref="H258:H334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -30557,7 +30557,7 @@
         <v>1148</v>
       </c>
       <c r="J290" s="2"/>
-      <c r="K290" s="2" t="s">
+      <c r="K290" s="14" t="s">
         <v>1517</v>
       </c>
       <c r="L290" t="s">
@@ -58151,6 +58151,7 @@
     <hyperlink ref="K284" r:id="rId98" display="http://xa.sxggzyjy.cn/jydt/trading.html" tooltip="http://xa.sxggzyjy.cn/jydt/trading.html"/>
     <hyperlink ref="K285" r:id="rId99" display="http://www.xzggzy.gov.cn:9090/zbzsgg/index.jhtml"/>
     <hyperlink ref="K288" r:id="rId100" display="https://www.fjggfw.gov.cn/Website/JYXXNew.aspx"/>
+    <hyperlink ref="K290" r:id="rId101" display="http://www.ccgp-anhui.gov.cn/#" tooltip="http://www.ccgp-anhui.gov.cn/#"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/爬虫清单0628V6.xlsx
+++ b/爬虫清单0628V6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="6990" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫个数汇总" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7327" uniqueCount="2511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7334" uniqueCount="2513">
   <si>
     <t>服务器</t>
   </si>
@@ -4736,6 +4736,9 @@
     <t>https://www.bidcenter.com.cn/zhaobiao/area_1050_1169_1/</t>
   </si>
   <si>
+    <t>已修改（20200926）</t>
+  </si>
+  <si>
     <t>http://www.ccgp-anhui.gov.cn/#</t>
   </si>
   <si>
@@ -4758,6 +4761,9 @@
   </si>
   <si>
     <t>福建省-政府采购网</t>
+  </si>
+  <si>
+    <t>未修改（验证码无法解决）</t>
   </si>
   <si>
     <t>http://www.ccgp-fujian.gov.cn/3500/noticelist/d03180adb4de41acbb063875889f9af1/</t>
@@ -7958,10 +7964,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -8063,9 +8069,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8079,14 +8107,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8109,14 +8130,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8130,31 +8167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8176,19 +8191,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8231,7 +8237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8243,139 +8249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8393,7 +8267,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8405,7 +8333,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8510,6 +8516,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8521,6 +8536,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8549,11 +8573,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8564,15 +8594,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8592,21 +8613,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8615,10 +8621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8627,16 +8633,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8645,115 +8651,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21544,8 +21550,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="H258" sqref="H258:H334"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E261" workbookViewId="0">
+      <selection activeCell="J295" sqref="J295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="13.5"/>
@@ -30556,9 +30562,11 @@
       <c r="I290" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J290" s="2"/>
+      <c r="J290" s="2" t="s">
+        <v>1517</v>
+      </c>
       <c r="K290" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="L290" t="s">
         <v>1339</v>
@@ -30588,9 +30596,11 @@
       <c r="I291" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J291" s="2"/>
-      <c r="K291" s="2" t="s">
-        <v>1518</v>
+      <c r="J291" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K291" s="14" t="s">
+        <v>1519</v>
       </c>
       <c r="L291" t="s">
         <v>1339</v>
@@ -30620,9 +30630,11 @@
       <c r="I292" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J292" s="2"/>
-      <c r="K292" s="2" t="s">
-        <v>1519</v>
+      <c r="J292" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K292" s="14" t="s">
+        <v>1520</v>
       </c>
       <c r="L292" t="s">
         <v>1339</v>
@@ -30652,9 +30664,11 @@
       <c r="I293" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J293" s="2"/>
-      <c r="K293" s="2" t="s">
-        <v>1520</v>
+      <c r="J293" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K293" s="14" t="s">
+        <v>1521</v>
       </c>
       <c r="L293" t="s">
         <v>1339</v>
@@ -30684,9 +30698,11 @@
       <c r="I294" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="J294" s="2"/>
-      <c r="K294" s="2" t="s">
-        <v>1521</v>
+      <c r="J294" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K294" s="14" t="s">
+        <v>1522</v>
       </c>
       <c r="L294" t="s">
         <v>1339</v>
@@ -30697,7 +30713,7 @@
       <c r="B295" s="7"/>
       <c r="C295" s="2"/>
       <c r="D295" s="7" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="2"/>
@@ -30706,9 +30722,11 @@
       <c r="I295" s="3" t="s">
         <v>1512</v>
       </c>
-      <c r="J295" s="2"/>
-      <c r="K295" s="2" t="s">
-        <v>1523</v>
+      <c r="J295" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K295" s="14" t="s">
+        <v>1524</v>
       </c>
       <c r="L295" t="s">
         <v>1339</v>
@@ -30719,7 +30737,7 @@
       <c r="B296" s="7"/>
       <c r="C296" s="2"/>
       <c r="D296" s="7" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="2"/>
@@ -30728,9 +30746,11 @@
       <c r="I296" s="3" t="s">
         <v>1512</v>
       </c>
-      <c r="J296" s="2"/>
-      <c r="K296" s="2" t="s">
-        <v>1525</v>
+      <c r="J296" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K296" s="14" t="s">
+        <v>1527</v>
       </c>
       <c r="L296" t="s">
         <v>1339</v>
@@ -30762,7 +30782,7 @@
       </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="L297" t="s">
         <v>1339</v>
@@ -30794,7 +30814,7 @@
       </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="L298" t="s">
         <v>1339</v>
@@ -30826,7 +30846,7 @@
       </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="L299" t="s">
         <v>1339</v>
@@ -30858,7 +30878,7 @@
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="L300" t="s">
         <v>1339</v>
@@ -30890,7 +30910,7 @@
       </c>
       <c r="J301" s="2"/>
       <c r="K301" s="2" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="L301" t="s">
         <v>1339</v>
@@ -30922,7 +30942,7 @@
       </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="L302" t="s">
         <v>1339</v>
@@ -30954,7 +30974,7 @@
       </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="L303" t="s">
         <v>1339</v>
@@ -30986,7 +31006,7 @@
       </c>
       <c r="J304" s="2"/>
       <c r="K304" s="2" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="L304" t="s">
         <v>1339</v>
@@ -31018,7 +31038,7 @@
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="L305" t="s">
         <v>1339</v>
@@ -31050,7 +31070,7 @@
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="L306" t="s">
         <v>1339</v>
@@ -31082,7 +31102,7 @@
       </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="L307" t="s">
         <v>1339</v>
@@ -31114,7 +31134,7 @@
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="L308" t="s">
         <v>1339</v>
@@ -31146,7 +31166,7 @@
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="L309" t="s">
         <v>1339</v>
@@ -31178,7 +31198,7 @@
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="2" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="L310" t="s">
         <v>1339</v>
@@ -31210,7 +31230,7 @@
       </c>
       <c r="J311" s="2"/>
       <c r="K311" s="15" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="312" hidden="1" spans="1:11">
@@ -31241,7 +31261,7 @@
       </c>
       <c r="J312" s="2"/>
       <c r="K312" s="18" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="313" hidden="1" spans="1:11">
@@ -31272,7 +31292,7 @@
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="18" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="314" hidden="1" spans="1:11">
@@ -31303,7 +31323,7 @@
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="18" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="315" hidden="1" spans="1:11">
@@ -31334,7 +31354,7 @@
       </c>
       <c r="J315" s="2"/>
       <c r="K315" s="18" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="316" hidden="1" spans="1:11">
@@ -31365,7 +31385,7 @@
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="18" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="317" hidden="1" spans="1:11">
@@ -31379,7 +31399,7 @@
         <v>859</v>
       </c>
       <c r="D317" s="27" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>751</v>
@@ -31396,7 +31416,7 @@
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="18" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="318" hidden="1" spans="1:11">
@@ -31427,7 +31447,7 @@
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="18" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="319" hidden="1" spans="1:11">
@@ -31458,7 +31478,7 @@
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="18" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="320" hidden="1" spans="1:11">
@@ -31489,7 +31509,7 @@
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="18" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="321" hidden="1" spans="1:11">
@@ -31520,7 +31540,7 @@
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="18" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="322" hidden="1" spans="1:11">
@@ -31551,7 +31571,7 @@
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="18" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:11">
@@ -31582,7 +31602,7 @@
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="18" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="324" hidden="1" spans="1:11">
@@ -31613,7 +31633,7 @@
       </c>
       <c r="J324" s="2"/>
       <c r="K324" s="18" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="325" hidden="1" spans="1:11">
@@ -31644,7 +31664,7 @@
       </c>
       <c r="J325" s="2"/>
       <c r="K325" s="18" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="326" hidden="1" spans="1:11">
@@ -31675,7 +31695,7 @@
       </c>
       <c r="J326" s="2"/>
       <c r="K326" s="18" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="327" hidden="1" spans="1:11">
@@ -31706,7 +31726,7 @@
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="18" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="328" hidden="1" spans="1:11">
@@ -31737,7 +31757,7 @@
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="18" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="329" hidden="1" spans="1:11">
@@ -31768,7 +31788,7 @@
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="18" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="330" hidden="1" spans="1:11">
@@ -31799,7 +31819,7 @@
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="18" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="331" hidden="1" spans="1:11">
@@ -31830,7 +31850,7 @@
       </c>
       <c r="J331" s="2"/>
       <c r="K331" s="18" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="332" hidden="1" spans="1:11">
@@ -31861,7 +31881,7 @@
       </c>
       <c r="J332" s="2"/>
       <c r="K332" s="18" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="333" hidden="1" spans="1:11">
@@ -31892,7 +31912,7 @@
       </c>
       <c r="J333" s="2"/>
       <c r="K333" s="18" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="334" hidden="1" spans="1:11">
@@ -31906,7 +31926,7 @@
         <v>885</v>
       </c>
       <c r="D334" s="27" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>751</v>
@@ -31923,7 +31943,7 @@
       </c>
       <c r="J334" s="2"/>
       <c r="K334" s="18" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="335" hidden="1" spans="1:11">
@@ -31949,14 +31969,14 @@
         <v>1</v>
       </c>
       <c r="H335" s="21" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="15" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="336" hidden="1" spans="1:11">
@@ -31983,11 +32003,11 @@
       </c>
       <c r="H336" s="22"/>
       <c r="I336" s="2" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="15" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="337" ht="16.5" hidden="1" spans="1:11">
@@ -32018,7 +32038,7 @@
       </c>
       <c r="J337" s="2"/>
       <c r="K337" s="39" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="338" hidden="1" spans="1:11">
@@ -32045,11 +32065,11 @@
       </c>
       <c r="H338" s="22"/>
       <c r="I338" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="18" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="339" hidden="1" spans="1:11">
@@ -32080,7 +32100,7 @@
       </c>
       <c r="J339" s="2"/>
       <c r="K339" s="18" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="340" hidden="1" spans="1:11">
@@ -32111,7 +32131,7 @@
       </c>
       <c r="J340" s="2"/>
       <c r="K340" s="40" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="341" hidden="1" spans="1:11">
@@ -32142,7 +32162,7 @@
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="18" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="342" hidden="1" spans="1:11">
@@ -32173,7 +32193,7 @@
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="18" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="343" hidden="1" spans="1:11">
@@ -32200,11 +32220,11 @@
       </c>
       <c r="H343" s="22"/>
       <c r="I343" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J343" s="2"/>
       <c r="K343" s="18" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="344" hidden="1" spans="1:11">
@@ -32231,11 +32251,11 @@
       </c>
       <c r="H344" s="22"/>
       <c r="I344" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J344" s="2"/>
       <c r="K344" s="18" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:11">
@@ -32266,7 +32286,7 @@
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="15" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="346" hidden="1" spans="1:11">
@@ -32297,7 +32317,7 @@
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="15" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="347" hidden="1" spans="1:11">
@@ -32328,7 +32348,7 @@
       </c>
       <c r="J347" s="2"/>
       <c r="K347" s="18" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="348" hidden="1" spans="1:11">
@@ -32359,7 +32379,7 @@
       </c>
       <c r="J348" s="2"/>
       <c r="K348" s="18" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="349" hidden="1" spans="1:11">
@@ -32390,7 +32410,7 @@
       </c>
       <c r="J349" s="2"/>
       <c r="K349" s="18" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="350" hidden="1" spans="1:11">
@@ -32421,7 +32441,7 @@
       </c>
       <c r="J350" s="2"/>
       <c r="K350" s="15" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="351" hidden="1" spans="1:11">
@@ -32452,7 +32472,7 @@
       </c>
       <c r="J351" s="2"/>
       <c r="K351" s="41" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="352" hidden="1" spans="1:11">
@@ -32483,7 +32503,7 @@
       </c>
       <c r="J352" s="2"/>
       <c r="K352" s="15" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="353" hidden="1" spans="1:11">
@@ -32510,11 +32530,11 @@
       </c>
       <c r="H353" s="22"/>
       <c r="I353" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J353" s="2"/>
       <c r="K353" s="15" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="354" hidden="1" spans="1:11">
@@ -32545,7 +32565,7 @@
       </c>
       <c r="J354" s="2"/>
       <c r="K354" s="15" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="355" hidden="1" spans="1:11">
@@ -32572,11 +32592,11 @@
       </c>
       <c r="H355" s="22"/>
       <c r="I355" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="18" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="356" hidden="1" spans="1:11">
@@ -32607,7 +32627,7 @@
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="41" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="357" hidden="1" spans="1:11">
@@ -32634,11 +32654,11 @@
       </c>
       <c r="H357" s="22"/>
       <c r="I357" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J357" s="2"/>
       <c r="K357" s="18" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="358" hidden="1" spans="1:11">
@@ -32665,11 +32685,11 @@
       </c>
       <c r="H358" s="22"/>
       <c r="I358" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J358" s="2"/>
       <c r="K358" s="15" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="359" hidden="1" spans="1:11">
@@ -32700,7 +32720,7 @@
       </c>
       <c r="J359" s="2"/>
       <c r="K359" s="18" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="360" hidden="1" spans="1:11">
@@ -32731,7 +32751,7 @@
       </c>
       <c r="J360" s="2"/>
       <c r="K360" s="15" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="361" hidden="1" spans="1:11">
@@ -32762,7 +32782,7 @@
       </c>
       <c r="J361" s="2"/>
       <c r="K361" s="18" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="362" hidden="1" spans="1:11">
@@ -32789,11 +32809,11 @@
       </c>
       <c r="H362" s="22"/>
       <c r="I362" s="2" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="J362" s="2"/>
       <c r="K362" s="15" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="363" hidden="1" spans="1:11">
@@ -32820,11 +32840,11 @@
       </c>
       <c r="H363" s="22"/>
       <c r="I363" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J363" s="2"/>
       <c r="K363" s="18" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="364" hidden="1" spans="1:11">
@@ -32855,7 +32875,7 @@
       </c>
       <c r="J364" s="2"/>
       <c r="K364" s="18" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="365" hidden="1" spans="1:11">
@@ -32886,7 +32906,7 @@
       </c>
       <c r="J365" s="2"/>
       <c r="K365" s="18" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="366" hidden="1" spans="1:11">
@@ -32913,11 +32933,11 @@
       </c>
       <c r="H366" s="22"/>
       <c r="I366" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J366" s="2"/>
       <c r="K366" s="18" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="367" hidden="1" spans="1:11">
@@ -32948,7 +32968,7 @@
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="15" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="368" hidden="1" spans="1:11">
@@ -32974,14 +32994,14 @@
         <v>1</v>
       </c>
       <c r="H368" s="21" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="18" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="369" hidden="1" spans="1:11">
@@ -33012,7 +33032,7 @@
       </c>
       <c r="J369" s="2"/>
       <c r="K369" s="18" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="370" hidden="1" spans="1:11">
@@ -33043,7 +33063,7 @@
       </c>
       <c r="J370" s="2"/>
       <c r="K370" s="18" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="371" hidden="1" spans="1:11">
@@ -33074,7 +33094,7 @@
       </c>
       <c r="J371" s="2"/>
       <c r="K371" s="18" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="372" hidden="1" spans="1:11">
@@ -33105,7 +33125,7 @@
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="373" hidden="1" spans="1:11">
@@ -33132,11 +33152,11 @@
       </c>
       <c r="H373" s="22"/>
       <c r="I373" s="3" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J373" s="2"/>
       <c r="K373" s="18" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="374" hidden="1" spans="1:11">
@@ -33163,11 +33183,11 @@
       </c>
       <c r="H374" s="22"/>
       <c r="I374" s="3" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J374" s="2"/>
       <c r="K374" s="18" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="375" hidden="1" spans="1:11">
@@ -33198,7 +33218,7 @@
       </c>
       <c r="J375" s="2"/>
       <c r="K375" s="18" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="376" hidden="1" spans="1:11">
@@ -33229,7 +33249,7 @@
       </c>
       <c r="J376" s="2"/>
       <c r="K376" s="18" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="377" hidden="1" spans="1:11">
@@ -33260,7 +33280,7 @@
       </c>
       <c r="J377" s="2"/>
       <c r="K377" s="18" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="378" hidden="1" spans="1:11">
@@ -33291,7 +33311,7 @@
       </c>
       <c r="J378" s="2"/>
       <c r="K378" s="18" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="379" hidden="1" spans="1:11">
@@ -33318,11 +33338,11 @@
       </c>
       <c r="H379" s="22"/>
       <c r="I379" s="3" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="18" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="380" hidden="1" spans="1:11">
@@ -33353,7 +33373,7 @@
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="18" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="381" hidden="1" spans="1:11">
@@ -33384,7 +33404,7 @@
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="18" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="382" hidden="1" spans="1:11">
@@ -33415,7 +33435,7 @@
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="18" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="383" hidden="1" spans="1:11">
@@ -33446,7 +33466,7 @@
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="18" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="384" hidden="1" spans="1:11">
@@ -33477,7 +33497,7 @@
       </c>
       <c r="J384" s="2"/>
       <c r="K384" s="18" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="385" hidden="1" spans="1:11">
@@ -33504,11 +33524,11 @@
       </c>
       <c r="H385" s="22"/>
       <c r="I385" s="3" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="J385" s="2"/>
       <c r="K385" s="18" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="386" hidden="1" spans="1:11">
@@ -33539,7 +33559,7 @@
       </c>
       <c r="J386" s="2"/>
       <c r="K386" s="18" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="387" hidden="1" spans="1:11">
@@ -33570,7 +33590,7 @@
       </c>
       <c r="J387" s="2"/>
       <c r="K387" s="18" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="388" hidden="1" spans="1:11">
@@ -33601,7 +33621,7 @@
       </c>
       <c r="J388" s="2"/>
       <c r="K388" s="2" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="389" hidden="1" spans="1:11">
@@ -33632,7 +33652,7 @@
       </c>
       <c r="J389" s="2"/>
       <c r="K389" s="18" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="390" hidden="1" spans="1:11">
@@ -33663,7 +33683,7 @@
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="18" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="391" hidden="1" spans="1:11">
@@ -33690,11 +33710,11 @@
       </c>
       <c r="H391" s="22"/>
       <c r="I391" s="3" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="18" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="392" hidden="1" spans="1:11">
@@ -33721,11 +33741,11 @@
       </c>
       <c r="H392" s="22"/>
       <c r="I392" s="3" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="18" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="393" hidden="1" spans="1:11">
@@ -33752,11 +33772,11 @@
       </c>
       <c r="H393" s="22"/>
       <c r="I393" s="3" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="18" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="394" hidden="1" spans="1:11">
@@ -33787,7 +33807,7 @@
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="18" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="395" hidden="1" spans="1:11">
@@ -33801,7 +33821,7 @@
         <v>980</v>
       </c>
       <c r="D395" s="27" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>890</v>
@@ -33818,7 +33838,7 @@
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="18" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="396" hidden="1" spans="1:11">
@@ -33832,7 +33852,7 @@
         <v>486</v>
       </c>
       <c r="D396" s="27" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>890</v>
@@ -33849,7 +33869,7 @@
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="18" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="397" hidden="1" spans="1:11">
@@ -33880,7 +33900,7 @@
       </c>
       <c r="J397" s="2"/>
       <c r="K397" s="18" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="398" hidden="1" spans="1:11">
@@ -33911,7 +33931,7 @@
       </c>
       <c r="J398" s="2"/>
       <c r="K398" s="18" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="399" hidden="1" spans="1:11">
@@ -33938,11 +33958,11 @@
       </c>
       <c r="H399" s="22"/>
       <c r="I399" s="3" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="18" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="400" hidden="1" spans="1:11">
@@ -33969,11 +33989,11 @@
       </c>
       <c r="H400" s="22"/>
       <c r="I400" s="3" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="18" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="401" hidden="1" spans="1:11">
@@ -34004,7 +34024,7 @@
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="18" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -34018,7 +34038,7 @@
         <v>888</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="E402" s="7" t="s">
         <v>890</v>
@@ -34028,14 +34048,14 @@
       </c>
       <c r="G402" s="2"/>
       <c r="H402" s="21" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="14" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="L402" t="s">
         <v>1339</v>
@@ -34046,7 +34066,7 @@
       <c r="B403" s="7"/>
       <c r="C403" s="2"/>
       <c r="D403" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="E403" s="7" t="s">
         <v>890</v>
@@ -34057,11 +34077,11 @@
       <c r="G403" s="2"/>
       <c r="H403" s="22"/>
       <c r="I403" s="3" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="J403" s="2"/>
       <c r="K403" s="44" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="L403" t="s">
         <v>1339</v>
@@ -34093,7 +34113,7 @@
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="18" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="L404" t="s">
         <v>1339</v>
@@ -34125,7 +34145,7 @@
       </c>
       <c r="J405" s="2"/>
       <c r="K405" s="18" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="L405" t="s">
         <v>1339</v>
@@ -34157,7 +34177,7 @@
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="18" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="L406" t="s">
         <v>1339</v>
@@ -34189,7 +34209,7 @@
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="18" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -34203,7 +34223,7 @@
         <v>997</v>
       </c>
       <c r="D408" s="7" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="E408" s="7" t="s">
         <v>890</v>
@@ -34218,7 +34238,7 @@
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="18" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="L408" t="s">
         <v>1339</v>
@@ -34250,7 +34270,7 @@
       </c>
       <c r="J409" s="2"/>
       <c r="K409" s="18" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="L409" t="s">
         <v>1339</v>
@@ -34282,7 +34302,7 @@
       </c>
       <c r="J410" s="2"/>
       <c r="K410" s="18" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="L410" t="s">
         <v>1339</v>
@@ -34314,7 +34334,7 @@
       </c>
       <c r="J411" s="2"/>
       <c r="K411" s="18" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="L411" t="s">
         <v>1339</v>
@@ -34325,7 +34345,7 @@
       <c r="B412" s="7"/>
       <c r="C412" s="2"/>
       <c r="D412" s="7" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="E412" s="7" t="s">
         <v>890</v>
@@ -34340,7 +34360,7 @@
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="18" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="L412" t="s">
         <v>1339</v>
@@ -34357,7 +34377,7 @@
         <v>901</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="E413" s="7" t="s">
         <v>890</v>
@@ -34372,7 +34392,7 @@
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="19" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -34386,7 +34406,7 @@
         <v>1003</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="E414" s="7" t="s">
         <v>890</v>
@@ -34401,7 +34421,7 @@
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="18" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="L414" t="s">
         <v>1339</v>
@@ -34412,7 +34432,7 @@
       <c r="B415" s="7"/>
       <c r="C415" s="2"/>
       <c r="D415" s="7" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="E415" s="7" t="s">
         <v>890</v>
@@ -34427,7 +34447,7 @@
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="18" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="L415" t="s">
         <v>1339</v>
@@ -34438,7 +34458,7 @@
       <c r="B416" s="7"/>
       <c r="C416" s="2"/>
       <c r="D416" s="7" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="E416" s="7" t="s">
         <v>890</v>
@@ -34453,7 +34473,7 @@
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="18" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="L416" t="s">
         <v>1339</v>
@@ -34470,7 +34490,7 @@
         <v>903</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="E417" s="7" t="s">
         <v>890</v>
@@ -34485,7 +34505,7 @@
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="18" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -34493,7 +34513,7 @@
       <c r="B418" s="7"/>
       <c r="C418" s="2"/>
       <c r="D418" s="7" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="E418" s="7" t="s">
         <v>890</v>
@@ -34508,7 +34528,7 @@
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="18" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="L418" t="s">
         <v>1339</v>
@@ -34525,7 +34545,7 @@
         <v>907</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="E419" s="7" t="s">
         <v>890</v>
@@ -34540,7 +34560,7 @@
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="19" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="420" hidden="1" spans="1:11">
@@ -34554,7 +34574,7 @@
         <v>1007</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="E420" s="7" t="s">
         <v>890</v>
@@ -34569,7 +34589,7 @@
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="18" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -34594,13 +34614,13 @@
       <c r="G421" s="2"/>
       <c r="H421" s="22"/>
       <c r="I421" s="2" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K421" s="18" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="L421" t="s">
         <v>1339</v>
@@ -34632,7 +34652,7 @@
       </c>
       <c r="J422" s="2"/>
       <c r="K422" s="18" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="423" hidden="1" spans="1:11">
@@ -34661,7 +34681,7 @@
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="18" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -34669,7 +34689,7 @@
       <c r="B424" s="7"/>
       <c r="C424" s="2"/>
       <c r="D424" s="7" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="E424" s="7" t="s">
         <v>890</v>
@@ -34684,7 +34704,7 @@
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="18" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="L424" t="s">
         <v>1339</v>
@@ -34695,7 +34715,7 @@
       <c r="B425" s="7"/>
       <c r="C425" s="2"/>
       <c r="D425" s="7" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="E425" s="7" t="s">
         <v>890</v>
@@ -34710,7 +34730,7 @@
       </c>
       <c r="J425" s="2"/>
       <c r="K425" s="18" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="L425" t="s">
         <v>1339</v>
@@ -34738,13 +34758,13 @@
       <c r="G426" s="2"/>
       <c r="H426" s="22"/>
       <c r="I426" s="3" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K426" s="19" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="L426" t="s">
         <v>1339</v>
@@ -34772,13 +34792,13 @@
       <c r="G427" s="2"/>
       <c r="H427" s="22"/>
       <c r="I427" s="3" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K427" s="18" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="L427" t="s">
         <v>1339</v>
@@ -34810,7 +34830,7 @@
       </c>
       <c r="J428" s="2"/>
       <c r="K428" s="45" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="L428" t="s">
         <v>1339</v>
@@ -34836,7 +34856,7 @@
       </c>
       <c r="J429" s="2"/>
       <c r="K429" s="45" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="L429" t="s">
         <v>1339</v>
@@ -34853,7 +34873,7 @@
         <v>283</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="E430" s="7" t="s">
         <v>890</v>
@@ -34868,7 +34888,7 @@
       </c>
       <c r="J430" s="2"/>
       <c r="K430" s="18" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -34876,7 +34896,7 @@
       <c r="B431" s="7"/>
       <c r="C431" s="2"/>
       <c r="D431" s="7" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="E431" s="7" t="s">
         <v>890</v>
@@ -34891,7 +34911,7 @@
       </c>
       <c r="J431" s="2"/>
       <c r="K431" s="18" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="L431" t="s">
         <v>1339</v>
@@ -34908,7 +34928,7 @@
         <v>417</v>
       </c>
       <c r="D432" s="42" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="E432" s="7" t="s">
         <v>890</v>
@@ -34923,7 +34943,7 @@
       </c>
       <c r="J432" s="2"/>
       <c r="K432" s="18" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="L432" t="s">
         <v>1339</v>
@@ -34940,7 +34960,7 @@
         <v>285</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="E433" s="7" t="s">
         <v>890</v>
@@ -34955,7 +34975,7 @@
       </c>
       <c r="J433" s="2"/>
       <c r="K433" s="18" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="L433" t="s">
         <v>1339</v>
@@ -34972,7 +34992,7 @@
         <v>920</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="E434" s="7" t="s">
         <v>890</v>
@@ -34987,7 +35007,7 @@
       </c>
       <c r="J434" s="2"/>
       <c r="K434" s="18" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="L434" t="s">
         <v>1339</v>
@@ -34998,7 +35018,7 @@
       <c r="B435" s="7"/>
       <c r="C435" s="2"/>
       <c r="D435" s="7" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="E435" s="7" t="s">
         <v>890</v>
@@ -35013,7 +35033,7 @@
       </c>
       <c r="J435" s="2"/>
       <c r="K435" s="18" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="L435" t="s">
         <v>1339</v>
@@ -35045,7 +35065,7 @@
       </c>
       <c r="J436" s="2"/>
       <c r="K436" s="18" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="437" hidden="1" spans="1:11">
@@ -35074,7 +35094,7 @@
       </c>
       <c r="J437" s="2"/>
       <c r="K437" s="18" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="438" hidden="1" spans="1:11">
@@ -35103,7 +35123,7 @@
       </c>
       <c r="J438" s="2"/>
       <c r="K438" s="18" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="439" hidden="1" spans="1:11">
@@ -35132,7 +35152,7 @@
       </c>
       <c r="J439" s="2"/>
       <c r="K439" s="18" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="440" hidden="1" spans="1:11">
@@ -35161,7 +35181,7 @@
       </c>
       <c r="J440" s="2"/>
       <c r="K440" s="18" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="441" hidden="1" spans="1:11">
@@ -35190,7 +35210,7 @@
       </c>
       <c r="J441" s="2"/>
       <c r="K441" s="18" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="442" spans="1:16384">
@@ -35198,7 +35218,7 @@
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
       <c r="D442" s="43" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="E442" s="7" t="s">
         <v>890</v>
@@ -35213,7 +35233,7 @@
       </c>
       <c r="J442" s="18"/>
       <c r="K442" s="18" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="L442" t="s">
         <v>1339</v>
@@ -51602,7 +51622,7 @@
         <v>1033</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="E443" s="7" t="s">
         <v>890</v>
@@ -51617,7 +51637,7 @@
       </c>
       <c r="J443" s="2"/>
       <c r="K443" s="18" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="444" hidden="1" spans="1:11">
@@ -51646,7 +51666,7 @@
       </c>
       <c r="J444" s="2"/>
       <c r="K444" s="18" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -51675,7 +51695,7 @@
       </c>
       <c r="J445" s="2"/>
       <c r="K445" s="18" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="L445" t="s">
         <v>1339</v>
@@ -51707,7 +51727,7 @@
       </c>
       <c r="J446" s="2"/>
       <c r="K446" s="18" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="447" hidden="1" spans="1:11">
@@ -51736,7 +51756,7 @@
       </c>
       <c r="J447" s="2"/>
       <c r="K447" s="18" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -51765,7 +51785,7 @@
       </c>
       <c r="J448" s="2"/>
       <c r="K448" s="18" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="L448" t="s">
         <v>1339</v>
@@ -51797,7 +51817,7 @@
       </c>
       <c r="J449" s="2"/>
       <c r="K449" s="18" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="450" hidden="1" spans="1:11">
@@ -51826,7 +51846,7 @@
       </c>
       <c r="J450" s="2"/>
       <c r="K450" s="18" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="451" hidden="1" spans="1:11">
@@ -51855,7 +51875,7 @@
       </c>
       <c r="J451" s="2"/>
       <c r="K451" s="18" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -51869,7 +51889,7 @@
         <v>1050</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="E452" s="7" t="s">
         <v>890</v>
@@ -51884,7 +51904,7 @@
       </c>
       <c r="J452" s="2"/>
       <c r="K452" s="46" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="L452" t="s">
         <v>1339</v>
@@ -51901,7 +51921,7 @@
         <v>931</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="E453" s="7" t="s">
         <v>890</v>
@@ -51912,13 +51932,13 @@
       <c r="G453" s="2"/>
       <c r="H453" s="22"/>
       <c r="I453" s="3" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K453" s="20" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="L453" t="s">
         <v>1339</v>
@@ -51929,7 +51949,7 @@
       <c r="B454" s="7"/>
       <c r="C454" s="2"/>
       <c r="D454" s="7" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="E454" s="7" t="s">
         <v>890</v>
@@ -51944,7 +51964,7 @@
       </c>
       <c r="J454" s="2"/>
       <c r="K454" s="47" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="L454" t="s">
         <v>1339</v>
@@ -51976,7 +51996,7 @@
       </c>
       <c r="J455" s="2"/>
       <c r="K455" s="18" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="L455" t="s">
         <v>1339</v>
@@ -52008,7 +52028,7 @@
       </c>
       <c r="J456" s="2"/>
       <c r="K456" s="18" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="L456" t="s">
         <v>1339</v>
@@ -52040,7 +52060,7 @@
       </c>
       <c r="J457" s="2"/>
       <c r="K457" s="18" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -52065,11 +52085,11 @@
       <c r="G458" s="2"/>
       <c r="H458" s="22"/>
       <c r="I458" s="2" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="J458" s="2"/>
       <c r="K458" s="18" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="L458" t="s">
         <v>1339</v>
@@ -52101,7 +52121,7 @@
       </c>
       <c r="J459" s="2"/>
       <c r="K459" s="18" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="460" hidden="1" spans="1:11">
@@ -52115,7 +52135,7 @@
         <v>937</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="E460" s="7" t="s">
         <v>890</v>
@@ -52130,7 +52150,7 @@
       </c>
       <c r="J460" s="2"/>
       <c r="K460" s="18" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="461" hidden="1" spans="1:11">
@@ -52159,7 +52179,7 @@
       </c>
       <c r="J461" s="2"/>
       <c r="K461" s="18" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="462" hidden="1" spans="1:11">
@@ -52188,7 +52208,7 @@
       </c>
       <c r="J462" s="2"/>
       <c r="K462" s="18" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -52217,7 +52237,7 @@
       </c>
       <c r="J463" s="2"/>
       <c r="K463" s="45" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="L463" t="s">
         <v>1339</v>
@@ -52234,7 +52254,7 @@
         <v>1069</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="E464" s="7" t="s">
         <v>890</v>
@@ -52249,7 +52269,7 @@
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="18" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="L464" t="s">
         <v>1339</v>
@@ -52260,7 +52280,7 @@
       <c r="B465" s="7"/>
       <c r="C465" s="2"/>
       <c r="D465" s="7" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>890</v>
@@ -52275,7 +52295,7 @@
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="18" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="L465" t="s">
         <v>1339</v>
@@ -52292,7 +52312,7 @@
         <v>1071</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="E466" s="7" t="s">
         <v>890</v>
@@ -52307,7 +52327,7 @@
       </c>
       <c r="J466" s="2"/>
       <c r="K466" s="46" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -52321,7 +52341,7 @@
         <v>300</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>890</v>
@@ -52336,7 +52356,7 @@
       </c>
       <c r="J467" s="2"/>
       <c r="K467" s="18" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="L467" t="s">
         <v>1339</v>
@@ -52353,7 +52373,7 @@
         <v>1074</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="E468" s="7" t="s">
         <v>890</v>
@@ -52364,13 +52384,13 @@
       <c r="G468" s="2"/>
       <c r="H468" s="25"/>
       <c r="I468" s="3" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K468" s="18" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="L468" t="s">
         <v>1339</v>
@@ -52406,7 +52426,7 @@
       </c>
       <c r="J469" s="2"/>
       <c r="K469" s="18" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="470" hidden="1" spans="1:11">
@@ -52437,7 +52457,7 @@
       </c>
       <c r="J470" s="2"/>
       <c r="K470" s="18" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="471" hidden="1" spans="1:11">
@@ -52468,7 +52488,7 @@
       </c>
       <c r="J471" s="2"/>
       <c r="K471" s="2" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="472" hidden="1" spans="1:11">
@@ -52499,7 +52519,7 @@
       </c>
       <c r="J472" s="2"/>
       <c r="K472" s="2" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="473" hidden="1" spans="1:11">
@@ -52526,11 +52546,11 @@
       </c>
       <c r="H473" s="22"/>
       <c r="I473" s="2" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="J473" s="2"/>
       <c r="K473" s="2" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="474" hidden="1" spans="1:11">
@@ -52561,7 +52581,7 @@
       </c>
       <c r="J474" s="2"/>
       <c r="K474" s="18" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="475" hidden="1" spans="1:11">
@@ -52588,11 +52608,11 @@
       </c>
       <c r="H475" s="22"/>
       <c r="I475" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J475" s="2"/>
       <c r="K475" s="18" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="476" hidden="1" spans="1:11">
@@ -52619,11 +52639,11 @@
       </c>
       <c r="H476" s="22"/>
       <c r="I476" s="2" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="J476" s="2"/>
       <c r="K476" s="2" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="477" hidden="1" spans="1:11">
@@ -52666,7 +52686,7 @@
         <v>215</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>198</v>
@@ -52683,7 +52703,7 @@
       </c>
       <c r="J478" s="2"/>
       <c r="K478" s="18" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="479" hidden="1" spans="1:11">
@@ -52714,7 +52734,7 @@
       </c>
       <c r="J479" s="2"/>
       <c r="K479" s="2" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="480" hidden="1" customHeight="1" spans="1:11">
@@ -52745,7 +52765,7 @@
       </c>
       <c r="J480" s="2"/>
       <c r="K480" s="2" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="481" hidden="1" spans="1:11">
@@ -52776,7 +52796,7 @@
       </c>
       <c r="J481" s="2"/>
       <c r="K481" s="3" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="482" hidden="1" spans="1:11">
@@ -52790,7 +52810,7 @@
         <v>223</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>198</v>
@@ -52803,11 +52823,11 @@
       </c>
       <c r="H482" s="22"/>
       <c r="I482" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="J482" s="2"/>
       <c r="K482" s="2" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="483" hidden="1" spans="1:11">
@@ -52838,7 +52858,7 @@
       </c>
       <c r="J483" s="2"/>
       <c r="K483" s="2" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="484" hidden="1" spans="1:11">
@@ -52869,7 +52889,7 @@
       </c>
       <c r="J484" s="2"/>
       <c r="K484" s="2" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="485" hidden="1" spans="1:11">
@@ -52900,7 +52920,7 @@
       </c>
       <c r="J485" s="2"/>
       <c r="K485" s="2" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="486" hidden="1" spans="1:11">
@@ -52927,11 +52947,11 @@
       </c>
       <c r="H486" s="22"/>
       <c r="I486" s="3" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="J486" s="2"/>
       <c r="K486" s="14" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="487" hidden="1" spans="1:11">
@@ -52962,7 +52982,7 @@
       </c>
       <c r="J487" s="2"/>
       <c r="K487" s="2" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="488" hidden="1" spans="1:11">
@@ -52989,11 +53009,11 @@
       </c>
       <c r="H488" s="22"/>
       <c r="I488" s="3" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="2" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="489" hidden="1" spans="1:11">
@@ -53020,11 +53040,11 @@
       </c>
       <c r="H489" s="22"/>
       <c r="I489" s="34" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="J489" s="2"/>
       <c r="K489" s="2" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="490" hidden="1" spans="1:11">
@@ -53055,7 +53075,7 @@
       </c>
       <c r="J490" s="2"/>
       <c r="K490" s="2" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="491" hidden="1" spans="1:11">
@@ -53082,7 +53102,7 @@
       </c>
       <c r="H491" s="22"/>
       <c r="I491" s="34" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
@@ -53111,11 +53131,11 @@
       </c>
       <c r="H492" s="22"/>
       <c r="I492" s="34" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="J492" s="2"/>
       <c r="K492" s="2" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="493" hidden="1" spans="1:11">
@@ -53142,11 +53162,11 @@
       </c>
       <c r="H493" s="22"/>
       <c r="I493" s="2" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J493" s="2"/>
       <c r="K493" s="3" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="494" hidden="1" spans="1:11">
@@ -53177,7 +53197,7 @@
       </c>
       <c r="J494" s="2"/>
       <c r="K494" s="3" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="495" hidden="1" spans="1:11">
@@ -53204,11 +53224,11 @@
       </c>
       <c r="H495" s="22"/>
       <c r="I495" s="34" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="J495" s="2"/>
       <c r="K495" s="2" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="496" hidden="1" spans="1:11">
@@ -53235,11 +53255,11 @@
       </c>
       <c r="H496" s="22"/>
       <c r="I496" s="34" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="J496" s="2"/>
       <c r="K496" s="2" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="497" hidden="1" spans="1:11">
@@ -53266,11 +53286,11 @@
       </c>
       <c r="H497" s="22"/>
       <c r="I497" s="34" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="J497" s="2"/>
       <c r="K497" s="2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="498" hidden="1" spans="1:11">
@@ -53301,7 +53321,7 @@
       </c>
       <c r="J498" s="2"/>
       <c r="K498" s="2" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="499" hidden="1" spans="1:11">
@@ -53328,11 +53348,11 @@
       </c>
       <c r="H499" s="22"/>
       <c r="I499" s="3" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="J499" s="2"/>
       <c r="K499" s="2" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="500" hidden="1" spans="1:11">
@@ -53359,11 +53379,11 @@
       </c>
       <c r="H500" s="22"/>
       <c r="I500" s="34" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="2" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="501" hidden="1" spans="1:11">
@@ -53390,11 +53410,11 @@
       </c>
       <c r="H501" s="22"/>
       <c r="I501" s="3" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="J501" s="2"/>
       <c r="K501" s="2" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="502" hidden="1" spans="1:11">
@@ -53421,7 +53441,7 @@
       </c>
       <c r="H502" s="22"/>
       <c r="I502" s="34" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
@@ -53448,13 +53468,13 @@
       <c r="G503" s="2"/>
       <c r="H503" s="22"/>
       <c r="I503" s="3" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K503" s="49" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="L503" t="s">
         <v>1139</v>
@@ -53486,7 +53506,7 @@
       </c>
       <c r="J504" s="2"/>
       <c r="K504" s="2" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="505" hidden="1" spans="1:12">
@@ -53511,13 +53531,13 @@
       <c r="G505" s="2"/>
       <c r="H505" s="22"/>
       <c r="I505" s="3" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J505" s="2" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="K505" s="14" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="L505" t="s">
         <v>1139</v>
@@ -53545,13 +53565,13 @@
       <c r="G506" s="2"/>
       <c r="H506" s="22"/>
       <c r="I506" s="3" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="K506" s="14" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="L506" t="s">
         <v>1139</v>
@@ -53585,7 +53605,7 @@
         <v>1171</v>
       </c>
       <c r="K507" s="14" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="L507" t="s">
         <v>1139</v>
@@ -53619,7 +53639,7 @@
         <v>1171</v>
       </c>
       <c r="K508" s="2" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="L508" t="s">
         <v>1139</v>
@@ -53653,7 +53673,7 @@
         <v>1171</v>
       </c>
       <c r="K509" s="14" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="L509" t="s">
         <v>1139</v>
@@ -53681,11 +53701,11 @@
       <c r="G510" s="2"/>
       <c r="H510" s="22"/>
       <c r="I510" s="3" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="511" hidden="1" spans="1:12">
@@ -53716,7 +53736,7 @@
         <v>1171</v>
       </c>
       <c r="K511" s="14" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="L511" t="s">
         <v>1139</v>
@@ -53744,13 +53764,13 @@
       <c r="G512" s="2"/>
       <c r="H512" s="22"/>
       <c r="I512" s="3" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J512" s="2" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="K512" s="14" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="L512" t="s">
         <v>1139</v>
@@ -53761,7 +53781,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="3" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>198</v>
@@ -53775,10 +53795,10 @@
         <v>1276</v>
       </c>
       <c r="J513" s="2" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="K513" s="14" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="L513" t="s">
         <v>1139</v>
@@ -53789,7 +53809,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="3" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>198</v>
@@ -53803,10 +53823,10 @@
         <v>1276</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="K514" s="14" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="L514" t="s">
         <v>1139</v>
@@ -53834,10 +53854,10 @@
       <c r="G515" s="2"/>
       <c r="H515" s="22"/>
       <c r="I515" s="3" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="J515" s="2" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="K515" s="2"/>
       <c r="L515" t="s">
@@ -53855,7 +53875,7 @@
         <v>285</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -53866,11 +53886,11 @@
       <c r="G516" s="2"/>
       <c r="H516" s="22"/>
       <c r="I516" s="48" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="14" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="L516" t="s">
         <v>1139</v>
@@ -53881,7 +53901,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="3" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>198</v>
@@ -53892,11 +53912,11 @@
       <c r="G517" s="2"/>
       <c r="H517" s="22"/>
       <c r="I517" s="48" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="14" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="L517" t="s">
         <v>1139</v>
@@ -53928,7 +53948,7 @@
       </c>
       <c r="J518" s="2"/>
       <c r="K518" s="2" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="519" hidden="1" spans="1:12">
@@ -53959,7 +53979,7 @@
         <v>1137</v>
       </c>
       <c r="K519" s="14" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="L519" t="s">
         <v>1139</v>
@@ -53987,13 +54007,13 @@
       <c r="G520" s="2"/>
       <c r="H520" s="22"/>
       <c r="I520" s="48" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="K520" s="2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="L520" t="s">
         <v>1139</v>
@@ -54021,13 +54041,13 @@
       <c r="G521" s="2"/>
       <c r="H521" s="22"/>
       <c r="I521" s="2" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="K521" s="14" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="L521" t="s">
         <v>1139</v>
@@ -54059,7 +54079,7 @@
       </c>
       <c r="J522" s="2"/>
       <c r="K522" s="2" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="523" hidden="1" spans="1:11">
@@ -54088,7 +54108,7 @@
       </c>
       <c r="J523" s="2"/>
       <c r="K523" s="2" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="524" hidden="1" spans="1:11">
@@ -54117,7 +54137,7 @@
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="2" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="525" hidden="1" spans="1:12">
@@ -54142,13 +54162,13 @@
       <c r="G525" s="2"/>
       <c r="H525" s="22"/>
       <c r="I525" s="3" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="K525" s="14" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="L525" t="s">
         <v>1139</v>
@@ -54165,7 +54185,7 @@
         <v>295</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>198</v>
@@ -54176,13 +54196,13 @@
       <c r="G526" s="2"/>
       <c r="H526" s="22"/>
       <c r="I526" s="3" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>1137</v>
       </c>
       <c r="K526" s="14" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="L526" t="s">
         <v>1139</v>
@@ -54214,7 +54234,7 @@
       </c>
       <c r="J527" s="2"/>
       <c r="K527" s="2" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="528" hidden="1" spans="1:12">
@@ -54239,13 +54259,13 @@
       <c r="G528" s="2"/>
       <c r="H528" s="22"/>
       <c r="I528" s="3" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J528" s="2" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="L528" t="s">
         <v>1139</v>
@@ -54273,13 +54293,13 @@
       <c r="G529" s="2"/>
       <c r="H529" s="22"/>
       <c r="I529" s="2" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="J529" s="2" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="K529" s="14" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="L529" t="s">
         <v>1139</v>
@@ -54296,7 +54316,7 @@
         <v>300</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>198</v>
@@ -54307,11 +54327,11 @@
       <c r="G530" s="2"/>
       <c r="H530" s="22"/>
       <c r="I530" s="2" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="J530" s="2"/>
       <c r="K530" s="2" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="531" hidden="1" spans="1:12">
@@ -54319,7 +54339,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>198</v>
@@ -54334,7 +54354,7 @@
         <v>1137</v>
       </c>
       <c r="K531" s="14" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="L531" t="s">
         <v>1139</v>
@@ -54362,13 +54382,13 @@
       <c r="G532" s="2"/>
       <c r="H532" s="22"/>
       <c r="I532" s="3" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="J532" s="2" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="K532" s="14" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="L532" t="s">
         <v>1139</v>
@@ -54396,13 +54416,13 @@
       <c r="G533" s="2"/>
       <c r="H533" s="25"/>
       <c r="I533" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J533" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="J533" s="2" t="s">
-        <v>1822</v>
-      </c>
       <c r="K533" s="14" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="L533" t="s">
         <v>1139</v>
@@ -54431,10 +54451,10 @@
         <v>1</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
@@ -54462,10 +54482,10 @@
         <v>1</v>
       </c>
       <c r="H535" s="2" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="I535" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
@@ -54493,10 +54513,10 @@
         <v>1</v>
       </c>
       <c r="H536" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="I536" s="3" t="s">
         <v>1829</v>
-      </c>
-      <c r="I536" s="3" t="s">
-        <v>1827</v>
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
@@ -54524,10 +54544,10 @@
         <v>1</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
@@ -54555,10 +54575,10 @@
         <v>1</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
@@ -54586,10 +54606,10 @@
         <v>1</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
@@ -54617,10 +54637,10 @@
         <v>1</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
@@ -54648,10 +54668,10 @@
         <v>1</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
@@ -54679,10 +54699,10 @@
         <v>1</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
@@ -54710,10 +54730,10 @@
         <v>1</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
@@ -54741,10 +54761,10 @@
         <v>1</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
@@ -54772,10 +54792,10 @@
         <v>1</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
@@ -54803,10 +54823,10 @@
         <v>1</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
@@ -54834,10 +54854,10 @@
         <v>1</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
@@ -54865,10 +54885,10 @@
         <v>1</v>
       </c>
       <c r="H548" s="3" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
@@ -54896,10 +54916,10 @@
         <v>1</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
@@ -54927,10 +54947,10 @@
         <v>1</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
@@ -54958,10 +54978,10 @@
         <v>1</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
@@ -54989,10 +55009,10 @@
         <v>1</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -55020,10 +55040,10 @@
         <v>1</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
@@ -55051,10 +55071,10 @@
         <v>1</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
@@ -55070,7 +55090,7 @@
         <v>438</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>404</v>
@@ -55082,14 +55102,14 @@
         <v>1</v>
       </c>
       <c r="H555" s="21" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="18" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="556" hidden="1" spans="1:11">
@@ -55103,7 +55123,7 @@
         <v>438</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>404</v>
@@ -55116,11 +55136,11 @@
       </c>
       <c r="H556" s="22"/>
       <c r="I556" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J556" s="2"/>
       <c r="K556" s="18" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="557" hidden="1" spans="1:11">
@@ -55134,7 +55154,7 @@
         <v>438</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>404</v>
@@ -55147,11 +55167,11 @@
       </c>
       <c r="H557" s="22"/>
       <c r="I557" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="18" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="558" hidden="1" spans="1:11">
@@ -55165,7 +55185,7 @@
         <v>440</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>404</v>
@@ -55178,11 +55198,11 @@
       </c>
       <c r="H558" s="22"/>
       <c r="I558" s="2" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="J558" s="2"/>
       <c r="K558" s="18" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="559" hidden="1" spans="1:11">
@@ -55196,7 +55216,7 @@
         <v>440</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>404</v>
@@ -55209,11 +55229,11 @@
       </c>
       <c r="H559" s="22"/>
       <c r="I559" s="2" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="18" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="560" hidden="1" spans="1:11">
@@ -55227,7 +55247,7 @@
         <v>440</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>404</v>
@@ -55240,11 +55260,11 @@
       </c>
       <c r="H560" s="22"/>
       <c r="I560" s="2" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="J560" s="2"/>
       <c r="K560" s="18" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="561" hidden="1" spans="1:11">
@@ -55258,7 +55278,7 @@
         <v>442</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>404</v>
@@ -55271,11 +55291,11 @@
       </c>
       <c r="H561" s="22"/>
       <c r="I561" s="2" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="18" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="562" hidden="1" spans="1:11">
@@ -55289,7 +55309,7 @@
         <v>442</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>404</v>
@@ -55302,11 +55322,11 @@
       </c>
       <c r="H562" s="22"/>
       <c r="I562" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="18" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="563" hidden="1" spans="1:11">
@@ -55320,7 +55340,7 @@
         <v>442</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>404</v>
@@ -55333,11 +55353,11 @@
       </c>
       <c r="H563" s="22"/>
       <c r="I563" s="2" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J563" s="2"/>
       <c r="K563" s="18" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="564" hidden="1" spans="1:11">
@@ -55351,7 +55371,7 @@
         <v>444</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>404</v>
@@ -55364,11 +55384,11 @@
       </c>
       <c r="H564" s="22"/>
       <c r="I564" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="18" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="565" hidden="1" spans="1:11">
@@ -55382,7 +55402,7 @@
         <v>444</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>404</v>
@@ -55395,11 +55415,11 @@
       </c>
       <c r="H565" s="22"/>
       <c r="I565" s="2" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J565" s="2"/>
       <c r="K565" s="18" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="566" hidden="1" spans="1:11">
@@ -55413,7 +55433,7 @@
         <v>444</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>404</v>
@@ -55430,7 +55450,7 @@
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="18" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="567" hidden="1" spans="1:11">
@@ -55444,7 +55464,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>404</v>
@@ -55461,7 +55481,7 @@
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="18" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="568" hidden="1" spans="1:11">
@@ -55475,7 +55495,7 @@
         <v>446</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>404</v>
@@ -55488,11 +55508,11 @@
       </c>
       <c r="H568" s="22"/>
       <c r="I568" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J568" s="2"/>
       <c r="K568" s="18" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="569" ht="16.5" hidden="1" spans="1:11">
@@ -55506,7 +55526,7 @@
         <v>446</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>404</v>
@@ -55519,11 +55539,11 @@
       </c>
       <c r="H569" s="22"/>
       <c r="I569" s="2" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="50" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="570" hidden="1" spans="1:11">
@@ -55537,7 +55557,7 @@
         <v>448</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>404</v>
@@ -55550,11 +55570,11 @@
       </c>
       <c r="H570" s="22"/>
       <c r="I570" s="2" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="18" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="571" hidden="1" spans="1:11">
@@ -55568,7 +55588,7 @@
         <v>448</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>404</v>
@@ -55585,7 +55605,7 @@
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="18" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="572" hidden="1" spans="1:11">
@@ -55599,7 +55619,7 @@
         <v>448</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>404</v>
@@ -55612,11 +55632,11 @@
       </c>
       <c r="H572" s="22"/>
       <c r="I572" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="18" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="573" hidden="1" spans="1:11">
@@ -55630,7 +55650,7 @@
         <v>434</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>404</v>
@@ -55647,7 +55667,7 @@
       </c>
       <c r="J573" s="2"/>
       <c r="K573" s="18" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="574" hidden="1" spans="1:11">
@@ -55661,7 +55681,7 @@
         <v>434</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>404</v>
@@ -55678,7 +55698,7 @@
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="18" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="575" hidden="1" spans="1:11">
@@ -55692,7 +55712,7 @@
         <v>434</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>404</v>
@@ -55709,7 +55729,7 @@
       </c>
       <c r="J575" s="2"/>
       <c r="K575" s="18" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="576" ht="16.5" hidden="1" spans="1:11">
@@ -55723,7 +55743,7 @@
         <v>434</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>404</v>
@@ -55740,7 +55760,7 @@
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="50" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="577" hidden="1" spans="1:11">
@@ -55754,7 +55774,7 @@
         <v>451</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>404</v>
@@ -55771,7 +55791,7 @@
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="18" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="578" hidden="1" spans="1:11">
@@ -55785,7 +55805,7 @@
         <v>451</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>404</v>
@@ -55798,11 +55818,11 @@
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="3" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J578" s="2"/>
       <c r="K578" s="45" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="579" hidden="1" spans="1:11">
@@ -55816,7 +55836,7 @@
         <v>451</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>404</v>
@@ -55833,7 +55853,7 @@
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="45" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="580" hidden="1" spans="1:11">
@@ -55847,7 +55867,7 @@
         <v>453</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>404</v>
@@ -55860,11 +55880,11 @@
       </c>
       <c r="H580" s="22"/>
       <c r="I580" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J580" s="2"/>
       <c r="K580" s="18" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="581" hidden="1" spans="1:11">
@@ -55878,7 +55898,7 @@
         <v>453</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>404</v>
@@ -55891,11 +55911,11 @@
       </c>
       <c r="H581" s="22"/>
       <c r="I581" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="18" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="582" ht="16.5" hidden="1" spans="1:11">
@@ -55909,7 +55929,7 @@
         <v>453</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>404</v>
@@ -55922,11 +55942,11 @@
       </c>
       <c r="H582" s="22"/>
       <c r="I582" s="3" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="50" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="583" hidden="1" spans="1:11">
@@ -55940,7 +55960,7 @@
         <v>455</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>404</v>
@@ -55957,7 +55977,7 @@
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="18" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="584" hidden="1" spans="1:11">
@@ -55971,7 +55991,7 @@
         <v>455</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>404</v>
@@ -55988,7 +56008,7 @@
       </c>
       <c r="J584" s="2"/>
       <c r="K584" s="18" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="585" hidden="1" spans="1:11">
@@ -56002,7 +56022,7 @@
         <v>455</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>404</v>
@@ -56015,11 +56035,11 @@
       </c>
       <c r="H585" s="22"/>
       <c r="I585" s="3" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="18" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="586" hidden="1" spans="1:11">
@@ -56033,7 +56053,7 @@
         <v>455</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>404</v>
@@ -56046,11 +56066,11 @@
       </c>
       <c r="H586" s="22"/>
       <c r="I586" s="3" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="J586" s="2"/>
       <c r="K586" s="18" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="587" hidden="1" spans="1:11">
@@ -56064,7 +56084,7 @@
         <v>457</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>404</v>
@@ -56077,11 +56097,11 @@
       </c>
       <c r="H587" s="22"/>
       <c r="I587" s="3" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="45" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="588" hidden="1" spans="1:11">
@@ -56095,7 +56115,7 @@
         <v>457</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>404</v>
@@ -56108,11 +56128,11 @@
       </c>
       <c r="H588" s="22"/>
       <c r="I588" s="3" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="18" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="589" hidden="1" spans="1:11">
@@ -56126,7 +56146,7 @@
         <v>459</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>404</v>
@@ -56139,11 +56159,11 @@
       </c>
       <c r="H589" s="22"/>
       <c r="I589" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J589" s="2"/>
       <c r="K589" s="18" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="590" hidden="1" spans="1:11">
@@ -56157,7 +56177,7 @@
         <v>459</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>404</v>
@@ -56170,11 +56190,11 @@
       </c>
       <c r="H590" s="22"/>
       <c r="I590" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="18" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="591" hidden="1" spans="1:11">
@@ -56188,7 +56208,7 @@
         <v>459</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>404</v>
@@ -56201,11 +56221,11 @@
       </c>
       <c r="H591" s="22"/>
       <c r="I591" s="3" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="J591" s="2"/>
       <c r="K591" s="18" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="592" hidden="1" spans="1:11">
@@ -56219,7 +56239,7 @@
         <v>461</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>404</v>
@@ -56232,11 +56252,11 @@
       </c>
       <c r="H592" s="22"/>
       <c r="I592" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="18" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="593" hidden="1" spans="1:11">
@@ -56250,7 +56270,7 @@
         <v>461</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>404</v>
@@ -56263,11 +56283,11 @@
       </c>
       <c r="H593" s="22"/>
       <c r="I593" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="18" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="594" hidden="1" spans="1:11">
@@ -56281,7 +56301,7 @@
         <v>461</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>404</v>
@@ -56294,11 +56314,11 @@
       </c>
       <c r="H594" s="22"/>
       <c r="I594" s="3" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="J594" s="2"/>
       <c r="K594" s="18" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="595" hidden="1" spans="1:11">
@@ -56312,7 +56332,7 @@
         <v>463</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>404</v>
@@ -56329,7 +56349,7 @@
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="18" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="596" hidden="1" spans="1:11">
@@ -56343,7 +56363,7 @@
         <v>463</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>404</v>
@@ -56360,7 +56380,7 @@
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="18" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="597" hidden="1" spans="1:11">
@@ -56374,7 +56394,7 @@
         <v>463</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>404</v>
@@ -56391,7 +56411,7 @@
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="18" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="598" hidden="1" spans="1:11">
@@ -56405,7 +56425,7 @@
         <v>465</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>404</v>
@@ -56418,11 +56438,11 @@
       </c>
       <c r="H598" s="22"/>
       <c r="I598" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="18" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="599" hidden="1" spans="1:11">
@@ -56436,7 +56456,7 @@
         <v>465</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>404</v>
@@ -56449,11 +56469,11 @@
       </c>
       <c r="H599" s="22"/>
       <c r="I599" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="18" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="600" ht="16.5" hidden="1" spans="1:11">
@@ -56467,7 +56487,7 @@
         <v>465</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>404</v>
@@ -56480,11 +56500,11 @@
       </c>
       <c r="H600" s="22"/>
       <c r="I600" s="3" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="J600" s="2"/>
       <c r="K600" s="50" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="601" hidden="1" spans="1:11">
@@ -56498,7 +56518,7 @@
         <v>467</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>404</v>
@@ -56511,11 +56531,11 @@
       </c>
       <c r="H601" s="22"/>
       <c r="I601" s="3" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J601" s="2"/>
       <c r="K601" s="18" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="602" hidden="1" spans="1:11">
@@ -56529,7 +56549,7 @@
         <v>467</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>404</v>
@@ -56542,11 +56562,11 @@
       </c>
       <c r="H602" s="22"/>
       <c r="I602" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J602" s="2"/>
       <c r="K602" s="18" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="603" hidden="1" spans="1:11">
@@ -56554,7 +56574,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="3" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>404</v>
@@ -56567,11 +56587,11 @@
       </c>
       <c r="H603" s="22"/>
       <c r="I603" s="3" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J603" s="2"/>
       <c r="K603" s="18" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="604" hidden="1" spans="1:11">
@@ -56585,7 +56605,7 @@
         <v>469</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>404</v>
@@ -56598,11 +56618,11 @@
       </c>
       <c r="H604" s="22"/>
       <c r="I604" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J604" s="2"/>
       <c r="K604" s="18" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="605" hidden="1" spans="1:11">
@@ -56616,7 +56636,7 @@
         <v>469</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>404</v>
@@ -56629,11 +56649,11 @@
       </c>
       <c r="H605" s="22"/>
       <c r="I605" s="3" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J605" s="2"/>
       <c r="K605" s="18" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="606" hidden="1" spans="1:11">
@@ -56647,7 +56667,7 @@
         <v>469</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>404</v>
@@ -56660,11 +56680,11 @@
       </c>
       <c r="H606" s="22"/>
       <c r="I606" s="3" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="J606" s="2"/>
       <c r="K606" s="18" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="607" hidden="1" spans="1:11">
@@ -56678,7 +56698,7 @@
         <v>471</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>404</v>
@@ -56691,11 +56711,11 @@
       </c>
       <c r="H607" s="22"/>
       <c r="I607" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J607" s="2"/>
       <c r="K607" s="18" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="608" hidden="1" spans="1:11">
@@ -56709,7 +56729,7 @@
         <v>471</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>404</v>
@@ -56726,7 +56746,7 @@
       </c>
       <c r="J608" s="2"/>
       <c r="K608" s="18" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="609" hidden="1" spans="1:11">
@@ -56740,7 +56760,7 @@
         <v>471</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>404</v>
@@ -56753,11 +56773,11 @@
       </c>
       <c r="H609" s="22"/>
       <c r="I609" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J609" s="2"/>
       <c r="K609" s="18" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="610" hidden="1" spans="1:11">
@@ -56771,7 +56791,7 @@
         <v>473</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>404</v>
@@ -56784,11 +56804,11 @@
       </c>
       <c r="H610" s="22"/>
       <c r="I610" s="3" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="J610" s="2"/>
       <c r="K610" s="18" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="611" hidden="1" spans="1:11">
@@ -56802,7 +56822,7 @@
         <v>473</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>404</v>
@@ -56815,11 +56835,11 @@
       </c>
       <c r="H611" s="22"/>
       <c r="I611" s="3" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="J611" s="2"/>
       <c r="K611" s="18" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="612" hidden="1" spans="1:11">
@@ -56833,7 +56853,7 @@
         <v>473</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>404</v>
@@ -56846,11 +56866,11 @@
       </c>
       <c r="H612" s="22"/>
       <c r="I612" s="3" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="J612" s="2"/>
       <c r="K612" s="18" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="613" hidden="1" spans="1:11">
@@ -56864,7 +56884,7 @@
         <v>475</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>404</v>
@@ -56877,11 +56897,11 @@
       </c>
       <c r="H613" s="22"/>
       <c r="I613" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J613" s="2"/>
       <c r="K613" s="18" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="614" hidden="1" spans="1:11">
@@ -56895,7 +56915,7 @@
         <v>475</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>404</v>
@@ -56908,11 +56928,11 @@
       </c>
       <c r="H614" s="22"/>
       <c r="I614" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J614" s="2"/>
       <c r="K614" s="18" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="615" hidden="1" spans="1:11">
@@ -56926,7 +56946,7 @@
         <v>475</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>404</v>
@@ -56939,11 +56959,11 @@
       </c>
       <c r="H615" s="22"/>
       <c r="I615" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J615" s="2"/>
       <c r="K615" s="18" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="616" hidden="1" spans="1:11">
@@ -56957,7 +56977,7 @@
         <v>477</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>404</v>
@@ -56970,11 +56990,11 @@
       </c>
       <c r="H616" s="22"/>
       <c r="I616" s="3" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J616" s="2"/>
       <c r="K616" s="18" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="617" hidden="1" spans="1:11">
@@ -56988,7 +57008,7 @@
         <v>477</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>404</v>
@@ -57005,7 +57025,7 @@
       </c>
       <c r="J617" s="2"/>
       <c r="K617" s="18" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="618" hidden="1" spans="1:11">
@@ -57019,7 +57039,7 @@
         <v>477</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>404</v>
@@ -57032,11 +57052,11 @@
       </c>
       <c r="H618" s="22"/>
       <c r="I618" s="3" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="18" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="619" hidden="1" spans="1:11">
@@ -57050,7 +57070,7 @@
         <v>479</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>404</v>
@@ -57067,7 +57087,7 @@
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="18" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="620" hidden="1" spans="1:11">
@@ -57081,7 +57101,7 @@
         <v>479</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>404</v>
@@ -57094,11 +57114,11 @@
       </c>
       <c r="H620" s="22"/>
       <c r="I620" s="3" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J620" s="2"/>
       <c r="K620" s="18" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="621" hidden="1" spans="1:11">
@@ -57112,7 +57132,7 @@
         <v>479</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>404</v>
@@ -57125,11 +57145,11 @@
       </c>
       <c r="H621" s="22"/>
       <c r="I621" s="3" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J621" s="2"/>
       <c r="K621" s="18" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="622" hidden="1" spans="1:11">
@@ -57143,7 +57163,7 @@
         <v>481</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>404</v>
@@ -57156,11 +57176,11 @@
       </c>
       <c r="H622" s="22"/>
       <c r="I622" s="3" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="J622" s="2"/>
       <c r="K622" s="18" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="623" hidden="1" spans="1:11">
@@ -57174,7 +57194,7 @@
         <v>481</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>404</v>
@@ -57187,11 +57207,11 @@
       </c>
       <c r="H623" s="22"/>
       <c r="I623" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J623" s="2"/>
       <c r="K623" s="18" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="624" ht="16.5" hidden="1" spans="1:11">
@@ -57205,7 +57225,7 @@
         <v>481</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>404</v>
@@ -57218,11 +57238,11 @@
       </c>
       <c r="H624" s="22"/>
       <c r="I624" s="3" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="J624" s="2"/>
       <c r="K624" s="50" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="625" hidden="1" spans="1:11">
@@ -57236,7 +57256,7 @@
         <v>483</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>404</v>
@@ -57249,11 +57269,11 @@
       </c>
       <c r="H625" s="22"/>
       <c r="I625" s="3" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="J625" s="2"/>
       <c r="K625" s="18" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="626" hidden="1" spans="1:11">
@@ -57267,7 +57287,7 @@
         <v>483</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>404</v>
@@ -57280,11 +57300,11 @@
       </c>
       <c r="H626" s="22"/>
       <c r="I626" s="3" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="J626" s="2"/>
       <c r="K626" s="18" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="627" ht="16.5" hidden="1" spans="1:11">
@@ -57298,7 +57318,7 @@
         <v>483</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>404</v>
@@ -57311,11 +57331,11 @@
       </c>
       <c r="H627" s="22"/>
       <c r="I627" s="3" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="J627" s="2"/>
       <c r="K627" s="50" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="628" hidden="1" spans="1:11">
@@ -57329,7 +57349,7 @@
         <v>291</v>
       </c>
       <c r="D628" s="27" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>404</v>
@@ -57342,11 +57362,11 @@
       </c>
       <c r="H628" s="22"/>
       <c r="I628" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J628" s="2"/>
       <c r="K628" s="18" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="629" hidden="1" spans="1:11">
@@ -57360,7 +57380,7 @@
         <v>291</v>
       </c>
       <c r="D629" s="27" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>404</v>
@@ -57373,11 +57393,11 @@
       </c>
       <c r="H629" s="22"/>
       <c r="I629" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J629" s="2"/>
       <c r="K629" s="18" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="630" hidden="1" spans="1:11">
@@ -57391,7 +57411,7 @@
         <v>291</v>
       </c>
       <c r="D630" s="27" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>404</v>
@@ -57404,11 +57424,11 @@
       </c>
       <c r="H630" s="22"/>
       <c r="I630" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J630" s="2"/>
       <c r="K630" s="18" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="631" hidden="1" spans="1:11">
@@ -57422,7 +57442,7 @@
         <v>486</v>
       </c>
       <c r="D631" s="27" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>404</v>
@@ -57435,11 +57455,11 @@
       </c>
       <c r="H631" s="22"/>
       <c r="I631" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J631" s="2"/>
       <c r="K631" s="18" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="632" hidden="1" spans="1:11">
@@ -57453,7 +57473,7 @@
         <v>486</v>
       </c>
       <c r="D632" s="27" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>404</v>
@@ -57466,11 +57486,11 @@
       </c>
       <c r="H632" s="22"/>
       <c r="I632" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J632" s="2"/>
       <c r="K632" s="18" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="633" hidden="1" spans="1:11">
@@ -57484,7 +57504,7 @@
         <v>486</v>
       </c>
       <c r="D633" s="27" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>404</v>
@@ -57497,11 +57517,11 @@
       </c>
       <c r="H633" s="22"/>
       <c r="I633" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="18" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="634" ht="16.5" hidden="1" spans="1:11">
@@ -57515,7 +57535,7 @@
         <v>488</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>404</v>
@@ -57528,11 +57548,11 @@
       </c>
       <c r="H634" s="22"/>
       <c r="I634" s="3" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J634" s="2"/>
       <c r="K634" s="16" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="635" hidden="1" spans="1:11">
@@ -57546,7 +57566,7 @@
         <v>488</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>404</v>
@@ -57559,11 +57579,11 @@
       </c>
       <c r="H635" s="22"/>
       <c r="I635" s="2" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="18" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="636" hidden="1" spans="1:11">
@@ -57577,7 +57597,7 @@
         <v>488</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>404</v>
@@ -57590,11 +57610,11 @@
       </c>
       <c r="H636" s="22"/>
       <c r="I636" s="3" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="18" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="637" hidden="1" spans="1:11">
@@ -57608,7 +57628,7 @@
         <v>490</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>404</v>
@@ -57625,7 +57645,7 @@
       </c>
       <c r="J637" s="2"/>
       <c r="K637" s="18" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="638" hidden="1" spans="1:11">
@@ -57639,7 +57659,7 @@
         <v>490</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>404</v>
@@ -57656,7 +57676,7 @@
       </c>
       <c r="J638" s="2"/>
       <c r="K638" s="18" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="639" hidden="1" spans="1:11">
@@ -57670,7 +57690,7 @@
         <v>490</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>404</v>
@@ -57683,11 +57703,11 @@
       </c>
       <c r="H639" s="22"/>
       <c r="I639" s="3" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="J639" s="2"/>
       <c r="K639" s="18" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="640" hidden="1" spans="1:11">
@@ -57701,7 +57721,7 @@
         <v>492</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>404</v>
@@ -57714,11 +57734,11 @@
       </c>
       <c r="H640" s="22"/>
       <c r="I640" s="3" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="J640" s="2"/>
       <c r="K640" s="18" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="641" hidden="1" spans="1:11">
@@ -57732,7 +57752,7 @@
         <v>492</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>404</v>
@@ -57745,11 +57765,11 @@
       </c>
       <c r="H641" s="22"/>
       <c r="I641" s="2" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="J641" s="2"/>
       <c r="K641" s="18" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="642" hidden="1" spans="1:11">
@@ -57763,7 +57783,7 @@
         <v>492</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>404</v>
@@ -57776,11 +57796,11 @@
       </c>
       <c r="H642" s="22"/>
       <c r="I642" s="3" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="J642" s="2"/>
       <c r="K642" s="18" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="643" hidden="1" spans="1:11">
@@ -57794,7 +57814,7 @@
         <v>494</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>404</v>
@@ -57807,11 +57827,11 @@
       </c>
       <c r="H643" s="22"/>
       <c r="I643" s="3" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="J643" s="2"/>
       <c r="K643" s="18" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="644" hidden="1" spans="1:11">
@@ -57825,7 +57845,7 @@
         <v>494</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>404</v>
@@ -57838,11 +57858,11 @@
       </c>
       <c r="H644" s="22"/>
       <c r="I644" s="3" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="J644" s="2"/>
       <c r="K644" s="18" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="645" hidden="1" spans="1:11">
@@ -57856,7 +57876,7 @@
         <v>494</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>404</v>
@@ -57869,11 +57889,11 @@
       </c>
       <c r="H645" s="22"/>
       <c r="I645" s="3" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="J645" s="2"/>
       <c r="K645" s="18" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="646" hidden="1" spans="1:11">
@@ -57887,7 +57907,7 @@
         <v>496</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>404</v>
@@ -57904,7 +57924,7 @@
       </c>
       <c r="J646" s="2"/>
       <c r="K646" s="18" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="647" hidden="1" spans="1:11">
@@ -57918,7 +57938,7 @@
         <v>496</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>404</v>
@@ -57931,11 +57951,11 @@
       </c>
       <c r="H647" s="22"/>
       <c r="I647" s="3" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="J647" s="2"/>
       <c r="K647" s="18" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="648" ht="16.5" hidden="1" spans="1:11">
@@ -57949,7 +57969,7 @@
         <v>496</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>404</v>
@@ -57962,11 +57982,11 @@
       </c>
       <c r="H648" s="25"/>
       <c r="I648" s="3" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="J648" s="2"/>
       <c r="K648" s="50" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
     </row>
   </sheetData>
@@ -58152,6 +58172,12 @@
     <hyperlink ref="K285" r:id="rId99" display="http://www.xzggzy.gov.cn:9090/zbzsgg/index.jhtml"/>
     <hyperlink ref="K288" r:id="rId100" display="https://www.fjggfw.gov.cn/Website/JYXXNew.aspx"/>
     <hyperlink ref="K290" r:id="rId101" display="http://www.ccgp-anhui.gov.cn/#" tooltip="http://www.ccgp-anhui.gov.cn/#"/>
+    <hyperlink ref="K291" r:id="rId102" display="http://www.ccgp-gansu.gov.cn/web/doSearchmxarticle.action"/>
+    <hyperlink ref="K292" r:id="rId103" display="http://www.gdgpo.gov.cn/queryMoreInfoList.do"/>
+    <hyperlink ref="K293" r:id="rId104" display="http://www.ccgp-guangxi.gov.cn/CmsNewsController/recommendBulletinList/channelCode-shengji/20/page_1.html"/>
+    <hyperlink ref="K294" r:id="rId105" display="http://www.ccgp-guizhou.gov.cn/list-1153332561072666.html?siteId=1"/>
+    <hyperlink ref="K295" r:id="rId106" display="http://www.ccgp-heilongj.gov.cn/xwzs!queryGd.action" tooltip="http://www.ccgp-heilongj.gov.cn/xwzs!queryGd.action"/>
+    <hyperlink ref="K296" r:id="rId107" display="http://www.ccgp-fujian.gov.cn/3500/noticelist/d03180adb4de41acbb063875889f9af1/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -58177,7 +58203,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -58188,7 +58214,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -58199,7 +58225,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -58210,7 +58236,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -58221,7 +58247,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -58232,7 +58258,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -58243,18 +58269,18 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -58265,7 +58291,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -58276,7 +58302,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -58287,18 +58313,18 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B12" s="4">
         <v>15</v>
@@ -58309,7 +58335,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -58320,7 +58346,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -58331,18 +58357,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -58353,7 +58379,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -58364,18 +58390,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
  